--- a/Belgium First Division A/Belgium First Division A.xlsx
+++ b/Belgium First Division A/Belgium First Division A.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4872" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4864" uniqueCount="54">
   <si>
     <t>id</t>
   </si>
@@ -537,7 +537,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC971"/>
+  <dimension ref="A1:AC969"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5885,7 +5885,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>2614688</v>
+        <v>2615076</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5897,55 +5897,55 @@
         <v>44233.60416666666</v>
       </c>
       <c r="F61" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G61" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="H61">
         <v>0</v>
       </c>
       <c r="I61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J61" t="s">
         <v>51</v>
       </c>
       <c r="K61">
-        <v>13</v>
+        <v>2.8</v>
       </c>
       <c r="L61">
-        <v>7.5</v>
+        <v>3.6</v>
       </c>
       <c r="M61">
-        <v>1.166</v>
+        <v>2.3</v>
       </c>
       <c r="N61">
-        <v>13</v>
+        <v>3.3</v>
       </c>
       <c r="O61">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="P61">
-        <v>1.181</v>
+        <v>2.05</v>
       </c>
       <c r="Q61">
-        <v>1.75</v>
+        <v>0.5</v>
       </c>
       <c r="R61">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S61">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T61">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U61">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V61">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W61">
         <v>-1</v>
@@ -5954,19 +5954,19 @@
         <v>-1</v>
       </c>
       <c r="Y61">
-        <v>0.181</v>
+        <v>1.05</v>
       </c>
       <c r="Z61">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA61">
-        <v>0.4125</v>
+        <v>1.05</v>
       </c>
       <c r="AB61">
         <v>-1</v>
       </c>
       <c r="AC61">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5974,7 +5974,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>2615076</v>
+        <v>2614688</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5986,55 +5986,55 @@
         <v>44233.60416666666</v>
       </c>
       <c r="F62" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G62" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="H62">
         <v>0</v>
       </c>
       <c r="I62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J62" t="s">
         <v>51</v>
       </c>
       <c r="K62">
-        <v>2.8</v>
+        <v>13</v>
       </c>
       <c r="L62">
-        <v>3.6</v>
+        <v>7.5</v>
       </c>
       <c r="M62">
-        <v>2.3</v>
+        <v>1.166</v>
       </c>
       <c r="N62">
-        <v>3.3</v>
+        <v>13</v>
       </c>
       <c r="O62">
-        <v>3.6</v>
+        <v>7</v>
       </c>
       <c r="P62">
-        <v>2.05</v>
+        <v>1.181</v>
       </c>
       <c r="Q62">
-        <v>0.5</v>
+        <v>1.75</v>
       </c>
       <c r="R62">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S62">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T62">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U62">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V62">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W62">
         <v>-1</v>
@@ -6043,19 +6043,19 @@
         <v>-1</v>
       </c>
       <c r="Y62">
-        <v>1.05</v>
+        <v>0.181</v>
       </c>
       <c r="Z62">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA62">
-        <v>1.05</v>
+        <v>0.4125</v>
       </c>
       <c r="AB62">
         <v>-1</v>
       </c>
       <c r="AC62">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -12560,7 +12560,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>2683738</v>
+        <v>2683740</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12572,73 +12572,73 @@
         <v>44304.54166666666</v>
       </c>
       <c r="F136" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G136" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H136">
+        <v>1</v>
+      </c>
+      <c r="I136">
         <v>4</v>
       </c>
-      <c r="I136">
-        <v>2</v>
-      </c>
       <c r="J136" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K136">
-        <v>1.2</v>
+        <v>3.2</v>
       </c>
       <c r="L136">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="M136">
-        <v>12</v>
+        <v>2.1</v>
       </c>
       <c r="N136">
-        <v>1.181</v>
+        <v>3.8</v>
       </c>
       <c r="O136">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="P136">
-        <v>13</v>
+        <v>1.727</v>
       </c>
       <c r="Q136">
-        <v>-1.75</v>
+        <v>0.75</v>
       </c>
       <c r="R136">
+        <v>1.9</v>
+      </c>
+      <c r="S136">
+        <v>1.95</v>
+      </c>
+      <c r="T136">
+        <v>3.25</v>
+      </c>
+      <c r="U136">
         <v>1.875</v>
       </c>
-      <c r="S136">
+      <c r="V136">
         <v>1.975</v>
       </c>
-      <c r="T136">
-        <v>3</v>
-      </c>
-      <c r="U136">
-        <v>1.9</v>
-      </c>
-      <c r="V136">
-        <v>1.95</v>
-      </c>
       <c r="W136">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="X136">
         <v>-1</v>
       </c>
       <c r="Y136">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z136">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA136">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB136">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AC136">
         <v>-1</v>
@@ -12649,7 +12649,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>2684719</v>
+        <v>2683741</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12661,76 +12661,76 @@
         <v>44304.54166666666</v>
       </c>
       <c r="F137" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G137" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H137">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I137">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J137" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K137">
-        <v>1.615</v>
+        <v>1.85</v>
       </c>
       <c r="L137">
         <v>4</v>
       </c>
       <c r="M137">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="N137">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="O137">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P137">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="Q137">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R137">
+        <v>2.025</v>
+      </c>
+      <c r="S137">
+        <v>1.825</v>
+      </c>
+      <c r="T137">
+        <v>3.5</v>
+      </c>
+      <c r="U137">
         <v>1.85</v>
       </c>
-      <c r="S137">
-        <v>2</v>
-      </c>
-      <c r="T137">
-        <v>2.75</v>
-      </c>
-      <c r="U137">
-        <v>1.825</v>
-      </c>
       <c r="V137">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W137">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X137">
         <v>-1</v>
       </c>
       <c r="Y137">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z137">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA137">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB137">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC137">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12738,7 +12738,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>2683741</v>
+        <v>2684719</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12750,76 +12750,76 @@
         <v>44304.54166666666</v>
       </c>
       <c r="F138" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G138" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I138">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J138" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K138">
-        <v>1.85</v>
+        <v>1.615</v>
       </c>
       <c r="L138">
         <v>4</v>
       </c>
       <c r="M138">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="N138">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="O138">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P138">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="Q138">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R138">
+        <v>1.85</v>
+      </c>
+      <c r="S138">
+        <v>2</v>
+      </c>
+      <c r="T138">
+        <v>2.75</v>
+      </c>
+      <c r="U138">
+        <v>1.825</v>
+      </c>
+      <c r="V138">
         <v>2.025</v>
       </c>
-      <c r="S138">
-        <v>1.825</v>
-      </c>
-      <c r="T138">
-        <v>3.5</v>
-      </c>
-      <c r="U138">
-        <v>1.85</v>
-      </c>
-      <c r="V138">
-        <v>2</v>
-      </c>
       <c r="W138">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X138">
         <v>-1</v>
       </c>
       <c r="Y138">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z138">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA138">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB138">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AC138">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12827,7 +12827,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>2683740</v>
+        <v>2683738</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12839,73 +12839,73 @@
         <v>44304.54166666666</v>
       </c>
       <c r="F139" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G139" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I139">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J139" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K139">
-        <v>3.2</v>
+        <v>1.2</v>
       </c>
       <c r="L139">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="M139">
-        <v>2.1</v>
+        <v>12</v>
       </c>
       <c r="N139">
-        <v>3.8</v>
+        <v>1.181</v>
       </c>
       <c r="O139">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="P139">
-        <v>1.727</v>
+        <v>13</v>
       </c>
       <c r="Q139">
-        <v>0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R139">
+        <v>1.875</v>
+      </c>
+      <c r="S139">
+        <v>1.975</v>
+      </c>
+      <c r="T139">
+        <v>3</v>
+      </c>
+      <c r="U139">
         <v>1.9</v>
       </c>
-      <c r="S139">
+      <c r="V139">
         <v>1.95</v>
       </c>
-      <c r="T139">
-        <v>3.25</v>
-      </c>
-      <c r="U139">
-        <v>1.875</v>
-      </c>
-      <c r="V139">
-        <v>1.975</v>
-      </c>
       <c r="W139">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="X139">
         <v>-1</v>
       </c>
       <c r="Y139">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z139">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA139">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB139">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC139">
         <v>-1</v>
@@ -13895,7 +13895,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>3469844</v>
+        <v>3469876</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13907,76 +13907,76 @@
         <v>44339.5625</v>
       </c>
       <c r="F151" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G151" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H151">
         <v>1</v>
       </c>
       <c r="I151">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J151" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K151">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="L151">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M151">
-        <v>3.4</v>
+        <v>2.05</v>
       </c>
       <c r="N151">
-        <v>1.833</v>
+        <v>3.25</v>
       </c>
       <c r="O151">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P151">
-        <v>3.8</v>
+        <v>2.1</v>
       </c>
       <c r="Q151">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R151">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S151">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T151">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U151">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V151">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W151">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="X151">
         <v>-1</v>
       </c>
       <c r="Y151">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z151">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA151">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB151">
         <v>-1</v>
       </c>
       <c r="AC151">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -13984,7 +13984,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>3469876</v>
+        <v>3469844</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13996,76 +13996,76 @@
         <v>44339.5625</v>
       </c>
       <c r="F152" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G152" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H152">
         <v>1</v>
       </c>
       <c r="I152">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J152" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K152">
+        <v>2</v>
+      </c>
+      <c r="L152">
+        <v>3.75</v>
+      </c>
+      <c r="M152">
+        <v>3.4</v>
+      </c>
+      <c r="N152">
+        <v>1.833</v>
+      </c>
+      <c r="O152">
+        <v>4</v>
+      </c>
+      <c r="P152">
+        <v>3.8</v>
+      </c>
+      <c r="Q152">
+        <v>-0.5</v>
+      </c>
+      <c r="R152">
+        <v>1.9</v>
+      </c>
+      <c r="S152">
+        <v>1.95</v>
+      </c>
+      <c r="T152">
         <v>3.5</v>
       </c>
-      <c r="L152">
-        <v>3.6</v>
-      </c>
-      <c r="M152">
-        <v>2.05</v>
-      </c>
-      <c r="N152">
-        <v>3.25</v>
-      </c>
-      <c r="O152">
-        <v>3.6</v>
-      </c>
-      <c r="P152">
-        <v>2.1</v>
-      </c>
-      <c r="Q152">
-        <v>0.25</v>
-      </c>
-      <c r="R152">
+      <c r="U152">
+        <v>1.875</v>
+      </c>
+      <c r="V152">
         <v>1.975</v>
       </c>
-      <c r="S152">
-        <v>1.875</v>
-      </c>
-      <c r="T152">
-        <v>2.75</v>
-      </c>
-      <c r="U152">
-        <v>1.925</v>
-      </c>
-      <c r="V152">
-        <v>1.925</v>
-      </c>
       <c r="W152">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="X152">
         <v>-1</v>
       </c>
       <c r="Y152">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z152">
+        <v>-1</v>
+      </c>
+      <c r="AA152">
+        <v>0.95</v>
+      </c>
+      <c r="AB152">
+        <v>-1</v>
+      </c>
+      <c r="AC152">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AA152">
-        <v>-1</v>
-      </c>
-      <c r="AB152">
-        <v>-1</v>
-      </c>
-      <c r="AC152">
-        <v>0.925</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -15853,7 +15853,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>3640723</v>
+        <v>3640722</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15865,10 +15865,10 @@
         <v>44415.5625</v>
       </c>
       <c r="F173" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G173" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H173">
         <v>1</v>
@@ -15880,40 +15880,40 @@
         <v>51</v>
       </c>
       <c r="K173">
-        <v>2.2</v>
+        <v>1.727</v>
       </c>
       <c r="L173">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M173">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="N173">
-        <v>1.85</v>
+        <v>1.727</v>
       </c>
       <c r="O173">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P173">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q173">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R173">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S173">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T173">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U173">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V173">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W173">
         <v>-1</v>
@@ -15922,16 +15922,16 @@
         <v>-1</v>
       </c>
       <c r="Y173">
-        <v>2.5</v>
+        <v>3.333</v>
       </c>
       <c r="Z173">
         <v>-1</v>
       </c>
       <c r="AA173">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB173">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AC173">
         <v>-1</v>
@@ -15942,7 +15942,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>3640722</v>
+        <v>3640723</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15954,10 +15954,10 @@
         <v>44415.5625</v>
       </c>
       <c r="F174" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G174" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H174">
         <v>1</v>
@@ -15969,41 +15969,41 @@
         <v>51</v>
       </c>
       <c r="K174">
-        <v>1.727</v>
+        <v>2.2</v>
       </c>
       <c r="L174">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M174">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="N174">
-        <v>1.727</v>
+        <v>1.85</v>
       </c>
       <c r="O174">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P174">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="Q174">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R174">
+        <v>1.95</v>
+      </c>
+      <c r="S174">
+        <v>1.9</v>
+      </c>
+      <c r="T174">
+        <v>2.75</v>
+      </c>
+      <c r="U174">
+        <v>1.825</v>
+      </c>
+      <c r="V174">
         <v>2.025</v>
       </c>
-      <c r="S174">
-        <v>1.825</v>
-      </c>
-      <c r="T174">
-        <v>3.25</v>
-      </c>
-      <c r="U174">
-        <v>1.925</v>
-      </c>
-      <c r="V174">
-        <v>1.925</v>
-      </c>
       <c r="W174">
         <v>-1</v>
       </c>
@@ -16011,16 +16011,16 @@
         <v>-1</v>
       </c>
       <c r="Y174">
-        <v>3.333</v>
+        <v>2.5</v>
       </c>
       <c r="Z174">
         <v>-1</v>
       </c>
       <c r="AA174">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB174">
         <v>0.825</v>
-      </c>
-      <c r="AB174">
-        <v>0.925</v>
       </c>
       <c r="AC174">
         <v>-1</v>
@@ -19235,7 +19235,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>3640754</v>
+        <v>3639269</v>
       </c>
       <c r="C211" t="s">
         <v>28</v>
@@ -19247,76 +19247,76 @@
         <v>44451.66666666666</v>
       </c>
       <c r="F211" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G211" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I211">
         <v>1</v>
       </c>
       <c r="J211" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K211">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="L211">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M211">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="N211">
-        <v>2.45</v>
+        <v>2.8</v>
       </c>
       <c r="O211">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P211">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="Q211">
         <v>0</v>
       </c>
       <c r="R211">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S211">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T211">
         <v>3</v>
       </c>
       <c r="U211">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V211">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W211">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X211">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y211">
         <v>-1</v>
       </c>
       <c r="Z211">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA211">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB211">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC211">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="212" spans="1:29">
@@ -19324,7 +19324,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>3639269</v>
+        <v>3640754</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19336,76 +19336,76 @@
         <v>44451.66666666666</v>
       </c>
       <c r="F212" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G212" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="H212">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I212">
         <v>1</v>
       </c>
       <c r="J212" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K212">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="L212">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M212">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="N212">
-        <v>2.8</v>
+        <v>2.45</v>
       </c>
       <c r="O212">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P212">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="Q212">
         <v>0</v>
       </c>
       <c r="R212">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S212">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T212">
         <v>3</v>
       </c>
       <c r="U212">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V212">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W212">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X212">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y212">
         <v>-1</v>
       </c>
       <c r="Z212">
+        <v>0.875</v>
+      </c>
+      <c r="AA212">
+        <v>-1</v>
+      </c>
+      <c r="AB212">
         <v>0</v>
       </c>
-      <c r="AA212">
+      <c r="AC212">
         <v>-0</v>
-      </c>
-      <c r="AB212">
-        <v>-1</v>
-      </c>
-      <c r="AC212">
-        <v>1.025</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -21104,7 +21104,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>3640768</v>
+        <v>3640771</v>
       </c>
       <c r="C232" t="s">
         <v>28</v>
@@ -21116,49 +21116,49 @@
         <v>44465.66666666666</v>
       </c>
       <c r="F232" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G232" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="H232">
+        <v>0</v>
+      </c>
+      <c r="I232">
+        <v>2</v>
+      </c>
+      <c r="J232" t="s">
+        <v>51</v>
+      </c>
+      <c r="K232">
+        <v>2.05</v>
+      </c>
+      <c r="L232">
+        <v>3.6</v>
+      </c>
+      <c r="M232">
+        <v>3.1</v>
+      </c>
+      <c r="N232">
+        <v>2</v>
+      </c>
+      <c r="O232">
+        <v>3.8</v>
+      </c>
+      <c r="P232">
+        <v>3.4</v>
+      </c>
+      <c r="Q232">
+        <v>-0.25</v>
+      </c>
+      <c r="R232">
+        <v>1.825</v>
+      </c>
+      <c r="S232">
+        <v>2.025</v>
+      </c>
+      <c r="T232">
         <v>3</v>
-      </c>
-      <c r="I232">
-        <v>0</v>
-      </c>
-      <c r="J232" t="s">
-        <v>52</v>
-      </c>
-      <c r="K232">
-        <v>1.25</v>
-      </c>
-      <c r="L232">
-        <v>5.5</v>
-      </c>
-      <c r="M232">
-        <v>9</v>
-      </c>
-      <c r="N232">
-        <v>1.3</v>
-      </c>
-      <c r="O232">
-        <v>5</v>
-      </c>
-      <c r="P232">
-        <v>8</v>
-      </c>
-      <c r="Q232">
-        <v>-1.5</v>
-      </c>
-      <c r="R232">
-        <v>1.925</v>
-      </c>
-      <c r="S232">
-        <v>1.925</v>
-      </c>
-      <c r="T232">
-        <v>3.5</v>
       </c>
       <c r="U232">
         <v>1.95</v>
@@ -21167,19 +21167,19 @@
         <v>1.9</v>
       </c>
       <c r="W232">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X232">
         <v>-1</v>
       </c>
       <c r="Y232">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z232">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA232">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB232">
         <v>-1</v>
@@ -21193,7 +21193,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>3640771</v>
+        <v>3640768</v>
       </c>
       <c r="C233" t="s">
         <v>28</v>
@@ -21205,49 +21205,49 @@
         <v>44465.66666666666</v>
       </c>
       <c r="F233" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G233" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="H233">
+        <v>3</v>
+      </c>
+      <c r="I233">
         <v>0</v>
       </c>
-      <c r="I233">
-        <v>2</v>
-      </c>
       <c r="J233" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K233">
-        <v>2.05</v>
+        <v>1.25</v>
       </c>
       <c r="L233">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="M233">
-        <v>3.1</v>
+        <v>9</v>
       </c>
       <c r="N233">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="O233">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="P233">
-        <v>3.4</v>
+        <v>8</v>
       </c>
       <c r="Q233">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R233">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S233">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T233">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U233">
         <v>1.95</v>
@@ -21256,19 +21256,19 @@
         <v>1.9</v>
       </c>
       <c r="W233">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X233">
         <v>-1</v>
       </c>
       <c r="Y233">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z233">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA233">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB233">
         <v>-1</v>
@@ -27067,7 +27067,7 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>3640831</v>
+        <v>3640834</v>
       </c>
       <c r="C299" t="s">
         <v>28</v>
@@ -27079,76 +27079,76 @@
         <v>44534.60416666666</v>
       </c>
       <c r="F299" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G299" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J299" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K299">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="L299">
         <v>3.5</v>
       </c>
       <c r="M299">
+        <v>2.75</v>
+      </c>
+      <c r="N299">
+        <v>2.25</v>
+      </c>
+      <c r="O299">
+        <v>3.5</v>
+      </c>
+      <c r="P299">
         <v>3</v>
       </c>
-      <c r="N299">
-        <v>3</v>
-      </c>
-      <c r="O299">
-        <v>3.4</v>
-      </c>
-      <c r="P299">
-        <v>2.3</v>
-      </c>
       <c r="Q299">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R299">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S299">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T299">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U299">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V299">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W299">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X299">
         <v>-1</v>
       </c>
       <c r="Y299">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z299">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA299">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB299">
+        <v>0.4</v>
+      </c>
+      <c r="AC299">
         <v>-0.5</v>
-      </c>
-      <c r="AC299">
-        <v>0.5125</v>
       </c>
     </row>
     <row r="300" spans="1:29">
@@ -27156,7 +27156,7 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>3640834</v>
+        <v>3640831</v>
       </c>
       <c r="C300" t="s">
         <v>28</v>
@@ -27168,76 +27168,76 @@
         <v>44534.60416666666</v>
       </c>
       <c r="F300" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G300" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H300">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I300">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J300" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K300">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="L300">
         <v>3.5</v>
       </c>
       <c r="M300">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N300">
+        <v>3</v>
+      </c>
+      <c r="O300">
+        <v>3.4</v>
+      </c>
+      <c r="P300">
+        <v>2.3</v>
+      </c>
+      <c r="Q300">
+        <v>0.25</v>
+      </c>
+      <c r="R300">
+        <v>1.825</v>
+      </c>
+      <c r="S300">
+        <v>2.025</v>
+      </c>
+      <c r="T300">
         <v>2.25</v>
       </c>
-      <c r="O300">
-        <v>3.5</v>
-      </c>
-      <c r="P300">
-        <v>3</v>
-      </c>
-      <c r="Q300">
-        <v>-0.25</v>
-      </c>
-      <c r="R300">
-        <v>2</v>
-      </c>
-      <c r="S300">
-        <v>1.85</v>
-      </c>
-      <c r="T300">
-        <v>2.75</v>
-      </c>
       <c r="U300">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V300">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W300">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X300">
         <v>-1</v>
       </c>
       <c r="Y300">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z300">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA300">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB300">
-        <v>0.4</v>
+        <v>-0.5</v>
       </c>
       <c r="AC300">
-        <v>-0.5</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="301" spans="1:29">
@@ -32318,7 +32318,7 @@
         <v>356</v>
       </c>
       <c r="B358">
-        <v>3640887</v>
+        <v>3640885</v>
       </c>
       <c r="C358" t="s">
         <v>28</v>
@@ -32330,19 +32330,19 @@
         <v>44587.61458333334</v>
       </c>
       <c r="F358" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G358" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H358">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I358">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J358" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K358">
         <v>2.7</v>
@@ -32354,52 +32354,52 @@
         <v>2.5</v>
       </c>
       <c r="N358">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="O358">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P358">
-        <v>2.375</v>
+        <v>2.4</v>
       </c>
       <c r="Q358">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R358">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S358">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T358">
+        <v>3</v>
+      </c>
+      <c r="U358">
+        <v>1.875</v>
+      </c>
+      <c r="V358">
+        <v>1.975</v>
+      </c>
+      <c r="W358">
+        <v>-1</v>
+      </c>
+      <c r="X358">
         <v>2.5</v>
       </c>
-      <c r="U358">
-        <v>1.9</v>
-      </c>
-      <c r="V358">
-        <v>1.95</v>
-      </c>
-      <c r="W358">
-        <v>-1</v>
-      </c>
-      <c r="X358">
-        <v>-1</v>
-      </c>
       <c r="Y358">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z358">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA358">
-        <v>1.05</v>
+        <v>-0</v>
       </c>
       <c r="AB358">
         <v>-1</v>
       </c>
       <c r="AC358">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="359" spans="1:29">
@@ -32407,7 +32407,7 @@
         <v>357</v>
       </c>
       <c r="B359">
-        <v>3640885</v>
+        <v>3640887</v>
       </c>
       <c r="C359" t="s">
         <v>28</v>
@@ -32419,19 +32419,19 @@
         <v>44587.61458333334</v>
       </c>
       <c r="F359" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G359" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H359">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I359">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J359" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K359">
         <v>2.7</v>
@@ -32443,52 +32443,52 @@
         <v>2.5</v>
       </c>
       <c r="N359">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="O359">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P359">
-        <v>2.4</v>
+        <v>2.375</v>
       </c>
       <c r="Q359">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R359">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S359">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T359">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U359">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V359">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W359">
         <v>-1</v>
       </c>
       <c r="X359">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y359">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z359">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA359">
-        <v>-0</v>
+        <v>1.05</v>
       </c>
       <c r="AB359">
         <v>-1</v>
       </c>
       <c r="AC359">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="360" spans="1:29">
@@ -33742,7 +33742,7 @@
         <v>372</v>
       </c>
       <c r="B374">
-        <v>3640902</v>
+        <v>3640897</v>
       </c>
       <c r="C374" t="s">
         <v>28</v>
@@ -33754,34 +33754,34 @@
         <v>44597.60416666666</v>
       </c>
       <c r="F374" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G374" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H374">
         <v>1</v>
       </c>
       <c r="I374">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J374" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K374">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="L374">
         <v>3.5</v>
       </c>
       <c r="M374">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="N374">
-        <v>2.625</v>
+        <v>2.875</v>
       </c>
       <c r="O374">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P374">
         <v>2.5</v>
@@ -33790,40 +33790,40 @@
         <v>0</v>
       </c>
       <c r="R374">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S374">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T374">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U374">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V374">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W374">
         <v>-1</v>
       </c>
       <c r="X374">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y374">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z374">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA374">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB374">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC374">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="375" spans="1:29">
@@ -33831,7 +33831,7 @@
         <v>373</v>
       </c>
       <c r="B375">
-        <v>3640897</v>
+        <v>3640902</v>
       </c>
       <c r="C375" t="s">
         <v>28</v>
@@ -33843,34 +33843,34 @@
         <v>44597.60416666666</v>
       </c>
       <c r="F375" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G375" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H375">
         <v>1</v>
       </c>
       <c r="I375">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J375" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K375">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="L375">
         <v>3.5</v>
       </c>
       <c r="M375">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="N375">
-        <v>2.875</v>
+        <v>2.625</v>
       </c>
       <c r="O375">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P375">
         <v>2.5</v>
@@ -33879,40 +33879,40 @@
         <v>0</v>
       </c>
       <c r="R375">
+        <v>2</v>
+      </c>
+      <c r="S375">
+        <v>1.85</v>
+      </c>
+      <c r="T375">
+        <v>2.75</v>
+      </c>
+      <c r="U375">
+        <v>1.825</v>
+      </c>
+      <c r="V375">
         <v>2.025</v>
       </c>
-      <c r="S375">
-        <v>1.825</v>
-      </c>
-      <c r="T375">
-        <v>2.25</v>
-      </c>
-      <c r="U375">
-        <v>1.875</v>
-      </c>
-      <c r="V375">
-        <v>1.975</v>
-      </c>
       <c r="W375">
         <v>-1</v>
       </c>
       <c r="X375">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y375">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z375">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA375">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB375">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC375">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="376" spans="1:29">
@@ -38103,7 +38103,7 @@
         <v>421</v>
       </c>
       <c r="B423">
-        <v>3823362</v>
+        <v>3823355</v>
       </c>
       <c r="C423" t="s">
         <v>28</v>
@@ -38115,13 +38115,13 @@
         <v>44632.60416666666</v>
       </c>
       <c r="F423" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G423" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H423">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I423">
         <v>0</v>
@@ -38130,43 +38130,43 @@
         <v>52</v>
       </c>
       <c r="K423">
-        <v>1.65</v>
+        <v>2.3</v>
       </c>
       <c r="L423">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M423">
-        <v>5.25</v>
+        <v>2.8</v>
       </c>
       <c r="N423">
-        <v>1.571</v>
+        <v>2.45</v>
       </c>
       <c r="O423">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P423">
-        <v>5.75</v>
+        <v>2.75</v>
       </c>
       <c r="Q423">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R423">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S423">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T423">
         <v>2.5</v>
       </c>
       <c r="U423">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V423">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W423">
-        <v>0.571</v>
+        <v>1.45</v>
       </c>
       <c r="X423">
         <v>-1</v>
@@ -38175,16 +38175,16 @@
         <v>-1</v>
       </c>
       <c r="Z423">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AA423">
         <v>-1</v>
       </c>
       <c r="AB423">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC423">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="424" spans="1:29">
@@ -38192,7 +38192,7 @@
         <v>422</v>
       </c>
       <c r="B424">
-        <v>3823355</v>
+        <v>3823362</v>
       </c>
       <c r="C424" t="s">
         <v>28</v>
@@ -38204,13 +38204,13 @@
         <v>44632.60416666666</v>
       </c>
       <c r="F424" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G424" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H424">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I424">
         <v>0</v>
@@ -38219,43 +38219,43 @@
         <v>52</v>
       </c>
       <c r="K424">
-        <v>2.3</v>
+        <v>1.65</v>
       </c>
       <c r="L424">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M424">
-        <v>2.8</v>
+        <v>5.25</v>
       </c>
       <c r="N424">
-        <v>2.45</v>
+        <v>1.571</v>
       </c>
       <c r="O424">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P424">
-        <v>2.75</v>
+        <v>5.75</v>
       </c>
       <c r="Q424">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R424">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S424">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T424">
         <v>2.5</v>
       </c>
       <c r="U424">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V424">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W424">
-        <v>1.45</v>
+        <v>0.571</v>
       </c>
       <c r="X424">
         <v>-1</v>
@@ -38264,16 +38264,16 @@
         <v>-1</v>
       </c>
       <c r="Z424">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AA424">
         <v>-1</v>
       </c>
       <c r="AB424">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC424">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="425" spans="1:29">
@@ -40684,7 +40684,7 @@
         <v>450</v>
       </c>
       <c r="B452">
-        <v>3917660</v>
+        <v>3917658</v>
       </c>
       <c r="C452" t="s">
         <v>28</v>
@@ -40696,76 +40696,76 @@
         <v>44661.5625</v>
       </c>
       <c r="F452" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G452" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H452">
+        <v>5</v>
+      </c>
+      <c r="I452">
         <v>0</v>
       </c>
-      <c r="I452">
-        <v>2</v>
-      </c>
       <c r="J452" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K452">
+        <v>1.363</v>
+      </c>
+      <c r="L452">
+        <v>4.5</v>
+      </c>
+      <c r="M452">
+        <v>7</v>
+      </c>
+      <c r="N452">
+        <v>1.2</v>
+      </c>
+      <c r="O452">
         <v>6.5</v>
       </c>
-      <c r="L452">
-        <v>4.333</v>
-      </c>
-      <c r="M452">
-        <v>1.4</v>
-      </c>
-      <c r="N452">
-        <v>12</v>
-      </c>
-      <c r="O452">
-        <v>6</v>
-      </c>
       <c r="P452">
-        <v>1.181</v>
+        <v>9</v>
       </c>
       <c r="Q452">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="R452">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S452">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T452">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U452">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V452">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W452">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X452">
         <v>-1</v>
       </c>
       <c r="Y452">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="Z452">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA452">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB452">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC452">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="453" spans="1:29">
@@ -40773,7 +40773,7 @@
         <v>451</v>
       </c>
       <c r="B453">
-        <v>3917661</v>
+        <v>3911915</v>
       </c>
       <c r="C453" t="s">
         <v>28</v>
@@ -40785,10 +40785,10 @@
         <v>44661.5625</v>
       </c>
       <c r="F453" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G453" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H453">
         <v>3</v>
@@ -40800,43 +40800,43 @@
         <v>52</v>
       </c>
       <c r="K453">
-        <v>2</v>
+        <v>1.615</v>
       </c>
       <c r="L453">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M453">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="N453">
-        <v>1.65</v>
+        <v>1.4</v>
       </c>
       <c r="O453">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P453">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="Q453">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R453">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S453">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T453">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U453">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V453">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W453">
-        <v>0.6499999999999999</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X453">
         <v>-1</v>
@@ -40845,16 +40845,16 @@
         <v>-1</v>
       </c>
       <c r="Z453">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AA453">
         <v>-1</v>
       </c>
       <c r="AB453">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC453">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="454" spans="1:29">
@@ -40862,7 +40862,7 @@
         <v>452</v>
       </c>
       <c r="B454">
-        <v>3911915</v>
+        <v>3917661</v>
       </c>
       <c r="C454" t="s">
         <v>28</v>
@@ -40874,10 +40874,10 @@
         <v>44661.5625</v>
       </c>
       <c r="F454" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G454" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H454">
         <v>3</v>
@@ -40889,43 +40889,43 @@
         <v>52</v>
       </c>
       <c r="K454">
-        <v>1.615</v>
+        <v>2</v>
       </c>
       <c r="L454">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M454">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="N454">
-        <v>1.4</v>
+        <v>1.65</v>
       </c>
       <c r="O454">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P454">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="Q454">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R454">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S454">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T454">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U454">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V454">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W454">
-        <v>0.3999999999999999</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X454">
         <v>-1</v>
@@ -40934,16 +40934,16 @@
         <v>-1</v>
       </c>
       <c r="Z454">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AA454">
         <v>-1</v>
       </c>
       <c r="AB454">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC454">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="455" spans="1:29">
@@ -40951,7 +40951,7 @@
         <v>453</v>
       </c>
       <c r="B455">
-        <v>3917658</v>
+        <v>3917660</v>
       </c>
       <c r="C455" t="s">
         <v>28</v>
@@ -40963,76 +40963,76 @@
         <v>44661.5625</v>
       </c>
       <c r="F455" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G455" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H455">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I455">
+        <v>2</v>
+      </c>
+      <c r="J455" t="s">
+        <v>51</v>
+      </c>
+      <c r="K455">
+        <v>6.5</v>
+      </c>
+      <c r="L455">
+        <v>4.333</v>
+      </c>
+      <c r="M455">
+        <v>1.4</v>
+      </c>
+      <c r="N455">
+        <v>12</v>
+      </c>
+      <c r="O455">
+        <v>6</v>
+      </c>
+      <c r="P455">
+        <v>1.181</v>
+      </c>
+      <c r="Q455">
+        <v>2</v>
+      </c>
+      <c r="R455">
+        <v>1.8</v>
+      </c>
+      <c r="S455">
+        <v>2.05</v>
+      </c>
+      <c r="T455">
+        <v>3.25</v>
+      </c>
+      <c r="U455">
+        <v>2.025</v>
+      </c>
+      <c r="V455">
+        <v>1.825</v>
+      </c>
+      <c r="W455">
+        <v>-1</v>
+      </c>
+      <c r="X455">
+        <v>-1</v>
+      </c>
+      <c r="Y455">
+        <v>0.181</v>
+      </c>
+      <c r="Z455">
         <v>0</v>
       </c>
-      <c r="J455" t="s">
-        <v>52</v>
-      </c>
-      <c r="K455">
-        <v>1.363</v>
-      </c>
-      <c r="L455">
-        <v>4.5</v>
-      </c>
-      <c r="M455">
-        <v>7</v>
-      </c>
-      <c r="N455">
-        <v>1.2</v>
-      </c>
-      <c r="O455">
-        <v>6.5</v>
-      </c>
-      <c r="P455">
-        <v>9</v>
-      </c>
-      <c r="Q455">
-        <v>-2</v>
-      </c>
-      <c r="R455">
-        <v>2.025</v>
-      </c>
-      <c r="S455">
-        <v>1.825</v>
-      </c>
-      <c r="T455">
-        <v>3.5</v>
-      </c>
-      <c r="U455">
-        <v>1.875</v>
-      </c>
-      <c r="V455">
-        <v>1.975</v>
-      </c>
-      <c r="W455">
-        <v>0.2</v>
-      </c>
-      <c r="X455">
-        <v>-1</v>
-      </c>
-      <c r="Y455">
-        <v>-1</v>
-      </c>
-      <c r="Z455">
-        <v>1.025</v>
-      </c>
       <c r="AA455">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB455">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC455">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="456" spans="1:29">
@@ -42286,7 +42286,7 @@
         <v>468</v>
       </c>
       <c r="B470">
-        <v>5207853</v>
+        <v>5288988</v>
       </c>
       <c r="C470" t="s">
         <v>28</v>
@@ -42298,76 +42298,76 @@
         <v>44765.55208333334</v>
       </c>
       <c r="F470" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G470" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H470">
+        <v>2</v>
+      </c>
+      <c r="I470">
         <v>0</v>
       </c>
-      <c r="I470">
-        <v>2</v>
-      </c>
       <c r="J470" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K470">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L470">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M470">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="N470">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="O470">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P470">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="Q470">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R470">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S470">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T470">
         <v>2.75</v>
       </c>
       <c r="U470">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V470">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W470">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X470">
         <v>-1</v>
       </c>
       <c r="Y470">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z470">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA470">
+        <v>-1</v>
+      </c>
+      <c r="AB470">
+        <v>-1</v>
+      </c>
+      <c r="AC470">
         <v>0.825</v>
-      </c>
-      <c r="AB470">
-        <v>-1</v>
-      </c>
-      <c r="AC470">
-        <v>0.875</v>
       </c>
     </row>
     <row r="471" spans="1:29">
@@ -42375,7 +42375,7 @@
         <v>469</v>
       </c>
       <c r="B471">
-        <v>5288988</v>
+        <v>5207853</v>
       </c>
       <c r="C471" t="s">
         <v>28</v>
@@ -42387,76 +42387,76 @@
         <v>44765.55208333334</v>
       </c>
       <c r="F471" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G471" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H471">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I471">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J471" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K471">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="L471">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M471">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="N471">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="O471">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P471">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="Q471">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R471">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S471">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T471">
         <v>2.75</v>
       </c>
       <c r="U471">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V471">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W471">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X471">
         <v>-1</v>
       </c>
       <c r="Y471">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z471">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA471">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB471">
         <v>-1</v>
       </c>
       <c r="AC471">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="472" spans="1:29">
@@ -43888,7 +43888,7 @@
         <v>486</v>
       </c>
       <c r="B488">
-        <v>5208471</v>
+        <v>5208470</v>
       </c>
       <c r="C488" t="s">
         <v>28</v>
@@ -43900,76 +43900,76 @@
         <v>44779.55208333334</v>
       </c>
       <c r="F488" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G488" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H488">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I488">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J488" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K488">
-        <v>1.7</v>
+        <v>2.9</v>
       </c>
       <c r="L488">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M488">
-        <v>4.5</v>
+        <v>2.25</v>
       </c>
       <c r="N488">
-        <v>1.666</v>
+        <v>3.3</v>
       </c>
       <c r="O488">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P488">
-        <v>4.5</v>
+        <v>2.15</v>
       </c>
       <c r="Q488">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R488">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S488">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T488">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U488">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V488">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W488">
         <v>-1</v>
       </c>
       <c r="X488">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y488">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z488">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA488">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AB488">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC488">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="489" spans="1:29">
@@ -43977,7 +43977,7 @@
         <v>487</v>
       </c>
       <c r="B489">
-        <v>5208470</v>
+        <v>5208471</v>
       </c>
       <c r="C489" t="s">
         <v>28</v>
@@ -43989,76 +43989,76 @@
         <v>44779.55208333334</v>
       </c>
       <c r="F489" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G489" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H489">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I489">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J489" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K489">
-        <v>2.9</v>
+        <v>1.7</v>
       </c>
       <c r="L489">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M489">
-        <v>2.25</v>
+        <v>4.5</v>
       </c>
       <c r="N489">
-        <v>3.3</v>
+        <v>1.666</v>
       </c>
       <c r="O489">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P489">
-        <v>2.15</v>
+        <v>4.5</v>
       </c>
       <c r="Q489">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R489">
+        <v>1.925</v>
+      </c>
+      <c r="S489">
+        <v>1.925</v>
+      </c>
+      <c r="T489">
+        <v>2.75</v>
+      </c>
+      <c r="U489">
         <v>1.9</v>
       </c>
-      <c r="S489">
+      <c r="V489">
         <v>1.95</v>
       </c>
-      <c r="T489">
-        <v>2.25</v>
-      </c>
-      <c r="U489">
-        <v>1.825</v>
-      </c>
-      <c r="V489">
-        <v>2.025</v>
-      </c>
       <c r="W489">
         <v>-1</v>
       </c>
       <c r="X489">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y489">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z489">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA489">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB489">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC489">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="490" spans="1:29">
@@ -47893,7 +47893,7 @@
         <v>531</v>
       </c>
       <c r="B533">
-        <v>5208497</v>
+        <v>5208499</v>
       </c>
       <c r="C533" t="s">
         <v>28</v>
@@ -47905,76 +47905,76 @@
         <v>44814.55208333334</v>
       </c>
       <c r="F533" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="G533" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="H533">
+        <v>1</v>
+      </c>
+      <c r="I533">
         <v>0</v>
       </c>
-      <c r="I533">
-        <v>2</v>
-      </c>
       <c r="J533" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K533">
-        <v>5.75</v>
+        <v>2.1</v>
       </c>
       <c r="L533">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M533">
-        <v>1.45</v>
+        <v>3.3</v>
       </c>
       <c r="N533">
-        <v>5.5</v>
+        <v>2.2</v>
       </c>
       <c r="O533">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P533">
-        <v>1.55</v>
+        <v>3</v>
       </c>
       <c r="Q533">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R533">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S533">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T533">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U533">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="V533">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W533">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X533">
         <v>-1</v>
       </c>
       <c r="Y533">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="Z533">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA533">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB533">
         <v>-1</v>
       </c>
       <c r="AC533">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="534" spans="1:29">
@@ -47982,7 +47982,7 @@
         <v>532</v>
       </c>
       <c r="B534">
-        <v>5208499</v>
+        <v>5208497</v>
       </c>
       <c r="C534" t="s">
         <v>28</v>
@@ -47994,76 +47994,76 @@
         <v>44814.55208333334</v>
       </c>
       <c r="F534" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="G534" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="H534">
+        <v>0</v>
+      </c>
+      <c r="I534">
+        <v>2</v>
+      </c>
+      <c r="J534" t="s">
+        <v>51</v>
+      </c>
+      <c r="K534">
+        <v>5.75</v>
+      </c>
+      <c r="L534">
+        <v>4.5</v>
+      </c>
+      <c r="M534">
+        <v>1.45</v>
+      </c>
+      <c r="N534">
+        <v>5.5</v>
+      </c>
+      <c r="O534">
+        <v>4.2</v>
+      </c>
+      <c r="P534">
+        <v>1.55</v>
+      </c>
+      <c r="Q534">
         <v>1</v>
       </c>
-      <c r="I534">
-        <v>0</v>
-      </c>
-      <c r="J534" t="s">
-        <v>52</v>
-      </c>
-      <c r="K534">
-        <v>2.1</v>
-      </c>
-      <c r="L534">
-        <v>3.5</v>
-      </c>
-      <c r="M534">
-        <v>3.3</v>
-      </c>
-      <c r="N534">
-        <v>2.2</v>
-      </c>
-      <c r="O534">
-        <v>3.5</v>
-      </c>
-      <c r="P534">
-        <v>3</v>
-      </c>
-      <c r="Q534">
-        <v>-0.25</v>
-      </c>
       <c r="R534">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S534">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T534">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U534">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V534">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W534">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X534">
         <v>-1</v>
       </c>
       <c r="Y534">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="Z534">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA534">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB534">
         <v>-1</v>
       </c>
       <c r="AC534">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="535" spans="1:29">
@@ -55814,7 +55814,7 @@
         <v>620</v>
       </c>
       <c r="B622">
-        <v>5208685</v>
+        <v>5208686</v>
       </c>
       <c r="C622" t="s">
         <v>28</v>
@@ -55826,76 +55826,76 @@
         <v>44918.6875</v>
       </c>
       <c r="F622" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G622" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H622">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I622">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J622" t="s">
         <v>53</v>
       </c>
       <c r="K622">
-        <v>1.7</v>
+        <v>2.45</v>
       </c>
       <c r="L622">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M622">
-        <v>4.333</v>
+        <v>2.5</v>
       </c>
       <c r="N622">
-        <v>1.363</v>
+        <v>2.3</v>
       </c>
       <c r="O622">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="P622">
-        <v>7</v>
+        <v>2.7</v>
       </c>
       <c r="Q622">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R622">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S622">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T622">
         <v>2.75</v>
       </c>
       <c r="U622">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V622">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W622">
         <v>-1</v>
       </c>
       <c r="X622">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="Y622">
         <v>-1</v>
       </c>
       <c r="Z622">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA622">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
       <c r="AB622">
         <v>-1</v>
       </c>
       <c r="AC622">
-        <v>1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="623" spans="1:29">
@@ -55903,7 +55903,7 @@
         <v>621</v>
       </c>
       <c r="B623">
-        <v>5208686</v>
+        <v>5208685</v>
       </c>
       <c r="C623" t="s">
         <v>28</v>
@@ -55915,76 +55915,76 @@
         <v>44918.6875</v>
       </c>
       <c r="F623" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G623" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H623">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I623">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J623" t="s">
         <v>53</v>
       </c>
       <c r="K623">
-        <v>2.45</v>
+        <v>1.7</v>
       </c>
       <c r="L623">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M623">
-        <v>2.5</v>
+        <v>4.333</v>
       </c>
       <c r="N623">
-        <v>2.3</v>
+        <v>1.363</v>
       </c>
       <c r="O623">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="P623">
-        <v>2.7</v>
+        <v>7</v>
       </c>
       <c r="Q623">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R623">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S623">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T623">
         <v>2.75</v>
       </c>
       <c r="U623">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V623">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W623">
         <v>-1</v>
       </c>
       <c r="X623">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="Y623">
         <v>-1</v>
       </c>
       <c r="Z623">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA623">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
       <c r="AB623">
         <v>-1</v>
       </c>
       <c r="AC623">
-        <v>0.875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="624" spans="1:29">
@@ -58395,7 +58395,7 @@
         <v>649</v>
       </c>
       <c r="B651">
-        <v>5208571</v>
+        <v>5208701</v>
       </c>
       <c r="C651" t="s">
         <v>28</v>
@@ -58407,76 +58407,76 @@
         <v>44944.60416666666</v>
       </c>
       <c r="F651" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G651" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="H651">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I651">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J651" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K651">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="L651">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M651">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="N651">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="O651">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P651">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="Q651">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R651">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S651">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T651">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U651">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V651">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W651">
         <v>-1</v>
       </c>
       <c r="X651">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y651">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z651">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AA651">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB651">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC651">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="652" spans="1:29">
@@ -58484,7 +58484,7 @@
         <v>650</v>
       </c>
       <c r="B652">
-        <v>5208701</v>
+        <v>5208571</v>
       </c>
       <c r="C652" t="s">
         <v>28</v>
@@ -58496,76 +58496,76 @@
         <v>44944.60416666666</v>
       </c>
       <c r="F652" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G652" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H652">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I652">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J652" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K652">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="L652">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M652">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="N652">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="O652">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P652">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="Q652">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R652">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S652">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T652">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U652">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V652">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W652">
         <v>-1</v>
       </c>
       <c r="X652">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y652">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z652">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA652">
+        <v>0.875</v>
+      </c>
+      <c r="AB652">
+        <v>0.5</v>
+      </c>
+      <c r="AC652">
         <v>-0.5</v>
-      </c>
-      <c r="AB652">
-        <v>-1</v>
-      </c>
-      <c r="AC652">
-        <v>0.8</v>
       </c>
     </row>
     <row r="653" spans="1:29">
@@ -58573,7 +58573,7 @@
         <v>651</v>
       </c>
       <c r="B653">
-        <v>5208568</v>
+        <v>5208569</v>
       </c>
       <c r="C653" t="s">
         <v>28</v>
@@ -58585,73 +58585,73 @@
         <v>44944.69791666666</v>
       </c>
       <c r="F653" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G653" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="H653">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I653">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J653" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K653">
-        <v>1.4</v>
+        <v>1.85</v>
       </c>
       <c r="L653">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M653">
-        <v>6.5</v>
+        <v>3.8</v>
       </c>
       <c r="N653">
-        <v>1.7</v>
+        <v>1.666</v>
       </c>
       <c r="O653">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P653">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="Q653">
         <v>-0.75</v>
       </c>
       <c r="R653">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S653">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T653">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U653">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V653">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W653">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X653">
         <v>-1</v>
       </c>
       <c r="Y653">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z653">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA653">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AB653">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC653">
         <v>-1</v>
@@ -58662,7 +58662,7 @@
         <v>652</v>
       </c>
       <c r="B654">
-        <v>5208569</v>
+        <v>5208568</v>
       </c>
       <c r="C654" t="s">
         <v>28</v>
@@ -58674,73 +58674,73 @@
         <v>44944.69791666666</v>
       </c>
       <c r="F654" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G654" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="H654">
+        <v>2</v>
+      </c>
+      <c r="I654">
         <v>3</v>
       </c>
-      <c r="I654">
-        <v>2</v>
-      </c>
       <c r="J654" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K654">
-        <v>1.85</v>
+        <v>1.4</v>
       </c>
       <c r="L654">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M654">
-        <v>3.8</v>
+        <v>6.5</v>
       </c>
       <c r="N654">
-        <v>1.666</v>
+        <v>1.7</v>
       </c>
       <c r="O654">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P654">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="Q654">
         <v>-0.75</v>
       </c>
       <c r="R654">
+        <v>1.925</v>
+      </c>
+      <c r="S654">
+        <v>1.925</v>
+      </c>
+      <c r="T654">
+        <v>2.75</v>
+      </c>
+      <c r="U654">
+        <v>1.975</v>
+      </c>
+      <c r="V654">
         <v>1.875</v>
       </c>
-      <c r="S654">
-        <v>1.975</v>
-      </c>
-      <c r="T654">
-        <v>2.5</v>
-      </c>
-      <c r="U654">
-        <v>1.95</v>
-      </c>
-      <c r="V654">
-        <v>1.9</v>
-      </c>
       <c r="W654">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X654">
         <v>-1</v>
       </c>
       <c r="Y654">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z654">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA654">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB654">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC654">
         <v>-1</v>
@@ -59018,7 +59018,7 @@
         <v>656</v>
       </c>
       <c r="B658">
-        <v>5208575</v>
+        <v>5208577</v>
       </c>
       <c r="C658" t="s">
         <v>28</v>
@@ -59030,40 +59030,40 @@
         <v>44947.59375</v>
       </c>
       <c r="F658" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G658" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H658">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I658">
         <v>2</v>
       </c>
       <c r="J658" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K658">
-        <v>1.95</v>
+        <v>2.625</v>
       </c>
       <c r="L658">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M658">
+        <v>2.4</v>
+      </c>
+      <c r="N658">
+        <v>3.2</v>
+      </c>
+      <c r="O658">
         <v>3.4</v>
       </c>
-      <c r="N658">
-        <v>1.75</v>
-      </c>
-      <c r="O658">
-        <v>3.6</v>
-      </c>
       <c r="P658">
-        <v>4</v>
+        <v>2.05</v>
       </c>
       <c r="Q658">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R658">
         <v>2.025</v>
@@ -59072,34 +59072,34 @@
         <v>1.825</v>
       </c>
       <c r="T658">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U658">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V658">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W658">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X658">
         <v>-1</v>
       </c>
       <c r="Y658">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z658">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AA658">
+        <v>0.825</v>
+      </c>
+      <c r="AB658">
+        <v>0.475</v>
+      </c>
+      <c r="AC658">
         <v>-0.5</v>
-      </c>
-      <c r="AB658">
-        <v>1</v>
-      </c>
-      <c r="AC658">
-        <v>-1</v>
       </c>
     </row>
     <row r="659" spans="1:29">
@@ -59107,7 +59107,7 @@
         <v>657</v>
       </c>
       <c r="B659">
-        <v>5208577</v>
+        <v>5208575</v>
       </c>
       <c r="C659" t="s">
         <v>28</v>
@@ -59119,40 +59119,40 @@
         <v>44947.59375</v>
       </c>
       <c r="F659" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G659" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H659">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I659">
         <v>2</v>
       </c>
       <c r="J659" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K659">
-        <v>2.625</v>
+        <v>1.95</v>
       </c>
       <c r="L659">
+        <v>3.5</v>
+      </c>
+      <c r="M659">
         <v>3.4</v>
       </c>
-      <c r="M659">
-        <v>2.4</v>
-      </c>
       <c r="N659">
-        <v>3.2</v>
+        <v>1.75</v>
       </c>
       <c r="O659">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P659">
-        <v>2.05</v>
+        <v>4</v>
       </c>
       <c r="Q659">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R659">
         <v>2.025</v>
@@ -59161,34 +59161,34 @@
         <v>1.825</v>
       </c>
       <c r="T659">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U659">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V659">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W659">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X659">
         <v>-1</v>
       </c>
       <c r="Y659">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z659">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA659">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB659">
-        <v>0.475</v>
+        <v>1</v>
       </c>
       <c r="AC659">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="660" spans="1:29">
@@ -62311,7 +62311,7 @@
         <v>693</v>
       </c>
       <c r="B695">
-        <v>5208593</v>
+        <v>5208596</v>
       </c>
       <c r="C695" t="s">
         <v>28</v>
@@ -62323,55 +62323,55 @@
         <v>44975.59375</v>
       </c>
       <c r="F695" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="G695" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H695">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I695">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J695" t="s">
         <v>53</v>
       </c>
       <c r="K695">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="L695">
         <v>3.4</v>
       </c>
       <c r="M695">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="N695">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="O695">
         <v>3.4</v>
       </c>
       <c r="P695">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="Q695">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R695">
+        <v>1.975</v>
+      </c>
+      <c r="S695">
         <v>1.875</v>
       </c>
-      <c r="S695">
+      <c r="T695">
+        <v>2.75</v>
+      </c>
+      <c r="U695">
+        <v>1.875</v>
+      </c>
+      <c r="V695">
         <v>1.975</v>
-      </c>
-      <c r="T695">
-        <v>2.5</v>
-      </c>
-      <c r="U695">
-        <v>1.925</v>
-      </c>
-      <c r="V695">
-        <v>1.925</v>
       </c>
       <c r="W695">
         <v>-1</v>
@@ -62383,16 +62383,16 @@
         <v>-1</v>
       </c>
       <c r="Z695">
-        <v>0.875</v>
+        <v>0.4875</v>
       </c>
       <c r="AA695">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB695">
         <v>-1</v>
       </c>
       <c r="AC695">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="696" spans="1:29">
@@ -62400,7 +62400,7 @@
         <v>694</v>
       </c>
       <c r="B696">
-        <v>5208596</v>
+        <v>5208593</v>
       </c>
       <c r="C696" t="s">
         <v>28</v>
@@ -62412,55 +62412,55 @@
         <v>44975.59375</v>
       </c>
       <c r="F696" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="G696" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H696">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I696">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J696" t="s">
         <v>53</v>
       </c>
       <c r="K696">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="L696">
         <v>3.4</v>
       </c>
       <c r="M696">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="N696">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="O696">
         <v>3.4</v>
       </c>
       <c r="P696">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="Q696">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R696">
+        <v>1.875</v>
+      </c>
+      <c r="S696">
         <v>1.975</v>
       </c>
-      <c r="S696">
-        <v>1.875</v>
-      </c>
       <c r="T696">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U696">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V696">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W696">
         <v>-1</v>
@@ -62472,16 +62472,16 @@
         <v>-1</v>
       </c>
       <c r="Z696">
-        <v>0.4875</v>
+        <v>0.875</v>
       </c>
       <c r="AA696">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB696">
         <v>-1</v>
       </c>
       <c r="AC696">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="697" spans="1:29">
@@ -64714,7 +64714,7 @@
         <v>720</v>
       </c>
       <c r="B722">
-        <v>5208609</v>
+        <v>5208610</v>
       </c>
       <c r="C722" t="s">
         <v>28</v>
@@ -64726,73 +64726,73 @@
         <v>44996.59375</v>
       </c>
       <c r="F722" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="G722" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H722">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I722">
+        <v>4</v>
+      </c>
+      <c r="J722" t="s">
+        <v>53</v>
+      </c>
+      <c r="K722">
+        <v>2.25</v>
+      </c>
+      <c r="L722">
+        <v>3.4</v>
+      </c>
+      <c r="M722">
+        <v>2.9</v>
+      </c>
+      <c r="N722">
+        <v>2.5</v>
+      </c>
+      <c r="O722">
+        <v>3.4</v>
+      </c>
+      <c r="P722">
+        <v>2.6</v>
+      </c>
+      <c r="Q722">
+        <v>0</v>
+      </c>
+      <c r="R722">
+        <v>1.875</v>
+      </c>
+      <c r="S722">
+        <v>1.975</v>
+      </c>
+      <c r="T722">
+        <v>2.75</v>
+      </c>
+      <c r="U722">
+        <v>2</v>
+      </c>
+      <c r="V722">
+        <v>1.85</v>
+      </c>
+      <c r="W722">
+        <v>-1</v>
+      </c>
+      <c r="X722">
+        <v>2.4</v>
+      </c>
+      <c r="Y722">
+        <v>-1</v>
+      </c>
+      <c r="Z722">
+        <v>0</v>
+      </c>
+      <c r="AA722">
+        <v>-0</v>
+      </c>
+      <c r="AB722">
         <v>1</v>
-      </c>
-      <c r="J722" t="s">
-        <v>52</v>
-      </c>
-      <c r="K722">
-        <v>1.615</v>
-      </c>
-      <c r="L722">
-        <v>4</v>
-      </c>
-      <c r="M722">
-        <v>4.75</v>
-      </c>
-      <c r="N722">
-        <v>1.615</v>
-      </c>
-      <c r="O722">
-        <v>4</v>
-      </c>
-      <c r="P722">
-        <v>4.5</v>
-      </c>
-      <c r="Q722">
-        <v>-1</v>
-      </c>
-      <c r="R722">
-        <v>2.05</v>
-      </c>
-      <c r="S722">
-        <v>1.8</v>
-      </c>
-      <c r="T722">
-        <v>3</v>
-      </c>
-      <c r="U722">
-        <v>1.95</v>
-      </c>
-      <c r="V722">
-        <v>1.9</v>
-      </c>
-      <c r="W722">
-        <v>0.615</v>
-      </c>
-      <c r="X722">
-        <v>-1</v>
-      </c>
-      <c r="Y722">
-        <v>-1</v>
-      </c>
-      <c r="Z722">
-        <v>1.05</v>
-      </c>
-      <c r="AA722">
-        <v>-1</v>
-      </c>
-      <c r="AB722">
-        <v>0.95</v>
       </c>
       <c r="AC722">
         <v>-1</v>
@@ -64803,7 +64803,7 @@
         <v>721</v>
       </c>
       <c r="B723">
-        <v>5208610</v>
+        <v>5208609</v>
       </c>
       <c r="C723" t="s">
         <v>28</v>
@@ -64815,73 +64815,73 @@
         <v>44996.59375</v>
       </c>
       <c r="F723" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="G723" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H723">
+        <v>3</v>
+      </c>
+      <c r="I723">
+        <v>1</v>
+      </c>
+      <c r="J723" t="s">
+        <v>52</v>
+      </c>
+      <c r="K723">
+        <v>1.615</v>
+      </c>
+      <c r="L723">
         <v>4</v>
       </c>
-      <c r="I723">
+      <c r="M723">
+        <v>4.75</v>
+      </c>
+      <c r="N723">
+        <v>1.615</v>
+      </c>
+      <c r="O723">
         <v>4</v>
       </c>
-      <c r="J723" t="s">
-        <v>53</v>
-      </c>
-      <c r="K723">
-        <v>2.25</v>
-      </c>
-      <c r="L723">
-        <v>3.4</v>
-      </c>
-      <c r="M723">
-        <v>2.9</v>
-      </c>
-      <c r="N723">
-        <v>2.5</v>
-      </c>
-      <c r="O723">
-        <v>3.4</v>
-      </c>
       <c r="P723">
-        <v>2.6</v>
+        <v>4.5</v>
       </c>
       <c r="Q723">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R723">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S723">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T723">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U723">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V723">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W723">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X723">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y723">
         <v>-1</v>
       </c>
       <c r="Z723">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AA723">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB723">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AC723">
         <v>-1</v>
@@ -68986,7 +68986,7 @@
         <v>768</v>
       </c>
       <c r="B770">
-        <v>6390693</v>
+        <v>6390066</v>
       </c>
       <c r="C770" t="s">
         <v>28</v>
@@ -68998,73 +68998,73 @@
         <v>45039.5625</v>
       </c>
       <c r="F770" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G770" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H770">
+        <v>2</v>
+      </c>
+      <c r="I770">
         <v>3</v>
       </c>
-      <c r="I770">
-        <v>2</v>
-      </c>
       <c r="J770" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K770">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="L770">
         <v>3.6</v>
       </c>
       <c r="M770">
-        <v>2.45</v>
+        <v>2.15</v>
       </c>
       <c r="N770">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="O770">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P770">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="Q770">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R770">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S770">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T770">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U770">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V770">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="W770">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X770">
         <v>-1</v>
       </c>
       <c r="Y770">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z770">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA770">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB770">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AC770">
         <v>-1</v>
@@ -69075,7 +69075,7 @@
         <v>769</v>
       </c>
       <c r="B771">
-        <v>6390066</v>
+        <v>6390693</v>
       </c>
       <c r="C771" t="s">
         <v>28</v>
@@ -69087,73 +69087,73 @@
         <v>45039.5625</v>
       </c>
       <c r="F771" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G771" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H771">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I771">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J771" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K771">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="L771">
         <v>3.6</v>
       </c>
       <c r="M771">
-        <v>2.15</v>
+        <v>2.45</v>
       </c>
       <c r="N771">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="O771">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P771">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
       <c r="Q771">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R771">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S771">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T771">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U771">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V771">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="W771">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X771">
         <v>-1</v>
       </c>
       <c r="Y771">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z771">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA771">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB771">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AC771">
         <v>-1</v>
@@ -69164,7 +69164,7 @@
         <v>770</v>
       </c>
       <c r="B772">
-        <v>6390043</v>
+        <v>6389865</v>
       </c>
       <c r="C772" t="s">
         <v>28</v>
@@ -69176,49 +69176,49 @@
         <v>45039.5625</v>
       </c>
       <c r="F772" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G772" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="H772">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I772">
         <v>2</v>
       </c>
       <c r="J772" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K772">
-        <v>1.222</v>
+        <v>3.5</v>
       </c>
       <c r="L772">
-        <v>5.75</v>
+        <v>3.6</v>
       </c>
       <c r="M772">
-        <v>11</v>
+        <v>1.95</v>
       </c>
       <c r="N772">
-        <v>1.142</v>
+        <v>2.8</v>
       </c>
       <c r="O772">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="P772">
-        <v>15</v>
+        <v>2.3</v>
       </c>
       <c r="Q772">
-        <v>-2.25</v>
+        <v>0.25</v>
       </c>
       <c r="R772">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S772">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T772">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U772">
         <v>1.95</v>
@@ -69230,22 +69230,22 @@
         <v>-1</v>
       </c>
       <c r="X772">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y772">
-        <v>14</v>
+        <v>-1</v>
       </c>
       <c r="Z772">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA772">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB772">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC772">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="773" spans="1:29">
@@ -69253,7 +69253,7 @@
         <v>771</v>
       </c>
       <c r="B773">
-        <v>6389865</v>
+        <v>6390043</v>
       </c>
       <c r="C773" t="s">
         <v>28</v>
@@ -69265,49 +69265,49 @@
         <v>45039.5625</v>
       </c>
       <c r="F773" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G773" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="H773">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I773">
         <v>2</v>
       </c>
       <c r="J773" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K773">
+        <v>1.222</v>
+      </c>
+      <c r="L773">
+        <v>5.75</v>
+      </c>
+      <c r="M773">
+        <v>11</v>
+      </c>
+      <c r="N773">
+        <v>1.142</v>
+      </c>
+      <c r="O773">
+        <v>7.5</v>
+      </c>
+      <c r="P773">
+        <v>15</v>
+      </c>
+      <c r="Q773">
+        <v>-2.25</v>
+      </c>
+      <c r="R773">
+        <v>1.975</v>
+      </c>
+      <c r="S773">
+        <v>1.875</v>
+      </c>
+      <c r="T773">
         <v>3.5</v>
-      </c>
-      <c r="L773">
-        <v>3.6</v>
-      </c>
-      <c r="M773">
-        <v>1.95</v>
-      </c>
-      <c r="N773">
-        <v>2.8</v>
-      </c>
-      <c r="O773">
-        <v>3.5</v>
-      </c>
-      <c r="P773">
-        <v>2.3</v>
-      </c>
-      <c r="Q773">
-        <v>0.25</v>
-      </c>
-      <c r="R773">
-        <v>1.8</v>
-      </c>
-      <c r="S773">
-        <v>2.05</v>
-      </c>
-      <c r="T773">
-        <v>3</v>
       </c>
       <c r="U773">
         <v>1.95</v>
@@ -69319,22 +69319,22 @@
         <v>-1</v>
       </c>
       <c r="X773">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y773">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="Z773">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA773">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB773">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC773">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="774" spans="1:29">
@@ -71122,7 +71122,7 @@
         <v>792</v>
       </c>
       <c r="B794">
-        <v>6576986</v>
+        <v>6576985</v>
       </c>
       <c r="C794" t="s">
         <v>28</v>
@@ -71134,58 +71134,58 @@
         <v>45080.64583333334</v>
       </c>
       <c r="F794" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G794" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="H794">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I794">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J794" t="s">
         <v>52</v>
       </c>
       <c r="K794">
-        <v>1.5</v>
+        <v>1.727</v>
       </c>
       <c r="L794">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="M794">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="N794">
-        <v>1.363</v>
+        <v>1.45</v>
       </c>
       <c r="O794">
+        <v>5</v>
+      </c>
+      <c r="P794">
         <v>5.75</v>
       </c>
-      <c r="P794">
-        <v>6.5</v>
-      </c>
       <c r="Q794">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R794">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S794">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T794">
         <v>3.5</v>
       </c>
       <c r="U794">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V794">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W794">
-        <v>0.363</v>
+        <v>0.45</v>
       </c>
       <c r="X794">
         <v>-1</v>
@@ -71194,16 +71194,16 @@
         <v>-1</v>
       </c>
       <c r="Z794">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AA794">
         <v>-1</v>
       </c>
       <c r="AB794">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC794">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="795" spans="1:29">
@@ -71211,7 +71211,7 @@
         <v>793</v>
       </c>
       <c r="B795">
-        <v>6576985</v>
+        <v>6576986</v>
       </c>
       <c r="C795" t="s">
         <v>28</v>
@@ -71223,58 +71223,58 @@
         <v>45080.64583333334</v>
       </c>
       <c r="F795" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G795" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="H795">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I795">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J795" t="s">
         <v>52</v>
       </c>
       <c r="K795">
-        <v>1.727</v>
+        <v>1.5</v>
       </c>
       <c r="L795">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="M795">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="N795">
-        <v>1.45</v>
+        <v>1.363</v>
       </c>
       <c r="O795">
-        <v>5</v>
+        <v>5.75</v>
       </c>
       <c r="P795">
-        <v>5.75</v>
+        <v>6.5</v>
       </c>
       <c r="Q795">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R795">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S795">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T795">
         <v>3.5</v>
       </c>
       <c r="U795">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V795">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W795">
-        <v>0.45</v>
+        <v>0.363</v>
       </c>
       <c r="X795">
         <v>-1</v>
@@ -71283,16 +71283,16 @@
         <v>-1</v>
       </c>
       <c r="Z795">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AA795">
         <v>-1</v>
       </c>
       <c r="AB795">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC795">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="796" spans="1:29">
@@ -85540,7 +85540,7 @@
         <v>954</v>
       </c>
       <c r="B956">
-        <v>6810139</v>
+        <v>6810143</v>
       </c>
       <c r="C956" t="s">
         <v>28</v>
@@ -85552,58 +85552,58 @@
         <v>45287.69791666666</v>
       </c>
       <c r="F956" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G956" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H956">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I956">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J956" t="s">
         <v>52</v>
       </c>
       <c r="K956">
-        <v>1.869</v>
+        <v>2.05</v>
       </c>
       <c r="L956">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="M956">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="N956">
-        <v>2.05</v>
+        <v>2.375</v>
       </c>
       <c r="O956">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P956">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q956">
         <v>-0.25</v>
       </c>
       <c r="R956">
+        <v>2.025</v>
+      </c>
+      <c r="S956">
         <v>1.825</v>
       </c>
-      <c r="S956">
+      <c r="T956">
+        <v>2.25</v>
+      </c>
+      <c r="U956">
         <v>2.025</v>
       </c>
-      <c r="T956">
-        <v>2.75</v>
-      </c>
-      <c r="U956">
-        <v>1.9</v>
-      </c>
       <c r="V956">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W956">
-        <v>1.05</v>
+        <v>1.375</v>
       </c>
       <c r="X956">
         <v>-1</v>
@@ -85612,16 +85612,16 @@
         <v>-1</v>
       </c>
       <c r="Z956">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AA956">
         <v>-1</v>
       </c>
       <c r="AB956">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC956">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="957" spans="1:29">
@@ -85629,7 +85629,7 @@
         <v>955</v>
       </c>
       <c r="B957">
-        <v>6810143</v>
+        <v>6810139</v>
       </c>
       <c r="C957" t="s">
         <v>28</v>
@@ -85641,58 +85641,58 @@
         <v>45287.69791666666</v>
       </c>
       <c r="F957" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G957" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H957">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I957">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J957" t="s">
         <v>52</v>
       </c>
       <c r="K957">
+        <v>1.869</v>
+      </c>
+      <c r="L957">
+        <v>3.7</v>
+      </c>
+      <c r="M957">
+        <v>3.8</v>
+      </c>
+      <c r="N957">
         <v>2.05</v>
       </c>
-      <c r="L957">
-        <v>3.4</v>
-      </c>
-      <c r="M957">
-        <v>3.5</v>
-      </c>
-      <c r="N957">
-        <v>2.375</v>
-      </c>
       <c r="O957">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P957">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="Q957">
         <v>-0.25</v>
       </c>
       <c r="R957">
+        <v>1.825</v>
+      </c>
+      <c r="S957">
         <v>2.025</v>
       </c>
-      <c r="S957">
-        <v>1.825</v>
-      </c>
       <c r="T957">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U957">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V957">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W957">
-        <v>1.375</v>
+        <v>1.05</v>
       </c>
       <c r="X957">
         <v>-1</v>
@@ -85701,16 +85701,16 @@
         <v>-1</v>
       </c>
       <c r="Z957">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AA957">
         <v>-1</v>
       </c>
       <c r="AB957">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC957">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="958" spans="1:29">
@@ -86430,7 +86430,7 @@
         <v>964</v>
       </c>
       <c r="B966">
-        <v>6810159</v>
+        <v>6810154</v>
       </c>
       <c r="C966" t="s">
         <v>28</v>
@@ -86439,49 +86439,49 @@
         <v>28</v>
       </c>
       <c r="E966" s="2">
-        <v>45318.69791666666</v>
+        <v>45319.39583333334</v>
       </c>
       <c r="F966" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G966" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K966">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="L966">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="M966">
-        <v>1.5</v>
+        <v>1.95</v>
       </c>
       <c r="N966">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="O966">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P966">
-        <v>1.45</v>
+        <v>1.95</v>
       </c>
       <c r="Q966">
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R966">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S966">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T966">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U966">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V966">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W966">
         <v>0</v>
@@ -86504,7 +86504,7 @@
         <v>965</v>
       </c>
       <c r="B967">
-        <v>6810158</v>
+        <v>6810160</v>
       </c>
       <c r="C967" t="s">
         <v>28</v>
@@ -86513,49 +86513,49 @@
         <v>28</v>
       </c>
       <c r="E967" s="2">
-        <v>45318.69791666666</v>
+        <v>45319.5</v>
       </c>
       <c r="F967" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G967" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="K967">
-        <v>1.363</v>
+        <v>8</v>
       </c>
       <c r="L967">
         <v>5</v>
       </c>
       <c r="M967">
-        <v>6.5</v>
+        <v>1.333</v>
       </c>
       <c r="N967">
+        <v>7.5</v>
+      </c>
+      <c r="O967">
+        <v>4.75</v>
+      </c>
+      <c r="P967">
         <v>1.363</v>
       </c>
-      <c r="O967">
-        <v>5</v>
-      </c>
-      <c r="P967">
-        <v>6.5</v>
-      </c>
       <c r="Q967">
-        <v>-1.5</v>
+        <v>1.25</v>
       </c>
       <c r="R967">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S967">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T967">
         <v>3</v>
       </c>
       <c r="U967">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V967">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W967">
         <v>0</v>
@@ -86578,7 +86578,7 @@
         <v>966</v>
       </c>
       <c r="B968">
-        <v>6810154</v>
+        <v>6810161</v>
       </c>
       <c r="C968" t="s">
         <v>28</v>
@@ -86587,34 +86587,34 @@
         <v>28</v>
       </c>
       <c r="E968" s="2">
-        <v>45319.39583333334</v>
+        <v>45319.60416666666</v>
       </c>
       <c r="F968" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G968" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K968">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="L968">
         <v>3.5</v>
       </c>
       <c r="M968">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="N968">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="O968">
         <v>3.5</v>
       </c>
       <c r="P968">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="Q968">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R968">
         <v>1.9</v>
@@ -86626,10 +86626,10 @@
         <v>2.5</v>
       </c>
       <c r="U968">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V968">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W968">
         <v>0</v>
@@ -86652,7 +86652,7 @@
         <v>967</v>
       </c>
       <c r="B969">
-        <v>6810160</v>
+        <v>6810157</v>
       </c>
       <c r="C969" t="s">
         <v>28</v>
@@ -86661,49 +86661,49 @@
         <v>28</v>
       </c>
       <c r="E969" s="2">
-        <v>45319.5</v>
+        <v>45319.63541666666</v>
       </c>
       <c r="F969" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G969" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="K969">
-        <v>8</v>
+        <v>1.666</v>
       </c>
       <c r="L969">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="M969">
-        <v>1.333</v>
+        <v>4.75</v>
       </c>
       <c r="N969">
-        <v>7.5</v>
+        <v>1.75</v>
       </c>
       <c r="O969">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P969">
-        <v>1.363</v>
+        <v>4.5</v>
       </c>
       <c r="Q969">
-        <v>1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R969">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S969">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T969">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U969">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V969">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W969">
         <v>0</v>
@@ -86718,154 +86718,6 @@
         <v>0</v>
       </c>
       <c r="AA969">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="970" spans="1:29">
-      <c r="A970" s="1">
-        <v>968</v>
-      </c>
-      <c r="B970">
-        <v>6810161</v>
-      </c>
-      <c r="C970" t="s">
-        <v>28</v>
-      </c>
-      <c r="D970" t="s">
-        <v>28</v>
-      </c>
-      <c r="E970" s="2">
-        <v>45319.60416666666</v>
-      </c>
-      <c r="F970" t="s">
-        <v>43</v>
-      </c>
-      <c r="G970" t="s">
-        <v>48</v>
-      </c>
-      <c r="K970">
-        <v>3</v>
-      </c>
-      <c r="L970">
-        <v>3.5</v>
-      </c>
-      <c r="M970">
-        <v>2.2</v>
-      </c>
-      <c r="N970">
-        <v>3.1</v>
-      </c>
-      <c r="O970">
-        <v>3.5</v>
-      </c>
-      <c r="P970">
-        <v>2.15</v>
-      </c>
-      <c r="Q970">
-        <v>0.25</v>
-      </c>
-      <c r="R970">
-        <v>1.9</v>
-      </c>
-      <c r="S970">
-        <v>1.95</v>
-      </c>
-      <c r="T970">
-        <v>2.5</v>
-      </c>
-      <c r="U970">
-        <v>1.85</v>
-      </c>
-      <c r="V970">
-        <v>2</v>
-      </c>
-      <c r="W970">
-        <v>0</v>
-      </c>
-      <c r="X970">
-        <v>0</v>
-      </c>
-      <c r="Y970">
-        <v>0</v>
-      </c>
-      <c r="Z970">
-        <v>0</v>
-      </c>
-      <c r="AA970">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="971" spans="1:29">
-      <c r="A971" s="1">
-        <v>969</v>
-      </c>
-      <c r="B971">
-        <v>6810157</v>
-      </c>
-      <c r="C971" t="s">
-        <v>28</v>
-      </c>
-      <c r="D971" t="s">
-        <v>28</v>
-      </c>
-      <c r="E971" s="2">
-        <v>45319.63541666666</v>
-      </c>
-      <c r="F971" t="s">
-        <v>34</v>
-      </c>
-      <c r="G971" t="s">
-        <v>50</v>
-      </c>
-      <c r="K971">
-        <v>1.666</v>
-      </c>
-      <c r="L971">
-        <v>3.8</v>
-      </c>
-      <c r="M971">
-        <v>4.75</v>
-      </c>
-      <c r="N971">
-        <v>1.75</v>
-      </c>
-      <c r="O971">
-        <v>3.6</v>
-      </c>
-      <c r="P971">
-        <v>4.5</v>
-      </c>
-      <c r="Q971">
-        <v>-0.75</v>
-      </c>
-      <c r="R971">
-        <v>1.975</v>
-      </c>
-      <c r="S971">
-        <v>1.875</v>
-      </c>
-      <c r="T971">
-        <v>2.5</v>
-      </c>
-      <c r="U971">
-        <v>1.975</v>
-      </c>
-      <c r="V971">
-        <v>1.875</v>
-      </c>
-      <c r="W971">
-        <v>0</v>
-      </c>
-      <c r="X971">
-        <v>0</v>
-      </c>
-      <c r="Y971">
-        <v>0</v>
-      </c>
-      <c r="Z971">
-        <v>0</v>
-      </c>
-      <c r="AA971">
         <v>0</v>
       </c>
     </row>

--- a/Belgium First Division A/Belgium First Division A.xlsx
+++ b/Belgium First Division A/Belgium First Division A.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4891" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4915" uniqueCount="54">
   <si>
     <t>id</t>
   </si>
@@ -537,7 +537,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC974"/>
+  <dimension ref="A1:AC980"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -18078,7 +18078,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>3640746</v>
+        <v>3640938</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18090,40 +18090,40 @@
         <v>44436.5625</v>
       </c>
       <c r="F198" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G198" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I198">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J198" t="s">
         <v>51</v>
       </c>
       <c r="K198">
-        <v>2.1</v>
+        <v>1.666</v>
       </c>
       <c r="L198">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M198">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="N198">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="O198">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P198">
-        <v>3</v>
+        <v>5.25</v>
       </c>
       <c r="Q198">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R198">
         <v>2.05</v>
@@ -18132,13 +18132,13 @@
         <v>1.8</v>
       </c>
       <c r="T198">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U198">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V198">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W198">
         <v>-1</v>
@@ -18147,7 +18147,7 @@
         <v>-1</v>
       </c>
       <c r="Y198">
-        <v>2</v>
+        <v>4.25</v>
       </c>
       <c r="Z198">
         <v>-1</v>
@@ -18156,10 +18156,10 @@
         <v>0.8</v>
       </c>
       <c r="AB198">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC198">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="199" spans="1:29">
@@ -18167,7 +18167,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>3640938</v>
+        <v>3640746</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18179,40 +18179,40 @@
         <v>44436.5625</v>
       </c>
       <c r="F199" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G199" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="H199">
+        <v>0</v>
+      </c>
+      <c r="I199">
         <v>1</v>
-      </c>
-      <c r="I199">
-        <v>2</v>
       </c>
       <c r="J199" t="s">
         <v>51</v>
       </c>
       <c r="K199">
-        <v>1.666</v>
+        <v>2.1</v>
       </c>
       <c r="L199">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M199">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="N199">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="O199">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P199">
-        <v>5.25</v>
+        <v>3</v>
       </c>
       <c r="Q199">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R199">
         <v>2.05</v>
@@ -18221,13 +18221,13 @@
         <v>1.8</v>
       </c>
       <c r="T199">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U199">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V199">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W199">
         <v>-1</v>
@@ -18236,7 +18236,7 @@
         <v>-1</v>
       </c>
       <c r="Y199">
-        <v>4.25</v>
+        <v>2</v>
       </c>
       <c r="Z199">
         <v>-1</v>
@@ -18245,10 +18245,10 @@
         <v>0.8</v>
       </c>
       <c r="AB199">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC199">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="200" spans="1:29">
@@ -19235,7 +19235,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>3639269</v>
+        <v>3640754</v>
       </c>
       <c r="C211" t="s">
         <v>28</v>
@@ -19247,76 +19247,76 @@
         <v>44451.66666666666</v>
       </c>
       <c r="F211" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G211" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="H211">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I211">
         <v>1</v>
       </c>
       <c r="J211" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K211">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="L211">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M211">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="N211">
-        <v>2.8</v>
+        <v>2.45</v>
       </c>
       <c r="O211">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P211">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="Q211">
         <v>0</v>
       </c>
       <c r="R211">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S211">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T211">
         <v>3</v>
       </c>
       <c r="U211">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V211">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W211">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X211">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y211">
         <v>-1</v>
       </c>
       <c r="Z211">
+        <v>0.875</v>
+      </c>
+      <c r="AA211">
+        <v>-1</v>
+      </c>
+      <c r="AB211">
         <v>0</v>
       </c>
-      <c r="AA211">
+      <c r="AC211">
         <v>-0</v>
-      </c>
-      <c r="AB211">
-        <v>-1</v>
-      </c>
-      <c r="AC211">
-        <v>1.025</v>
       </c>
     </row>
     <row r="212" spans="1:29">
@@ -19324,7 +19324,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>3640754</v>
+        <v>3639269</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19336,76 +19336,76 @@
         <v>44451.66666666666</v>
       </c>
       <c r="F212" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G212" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I212">
         <v>1</v>
       </c>
       <c r="J212" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K212">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="L212">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M212">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="N212">
-        <v>2.45</v>
+        <v>2.8</v>
       </c>
       <c r="O212">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P212">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="Q212">
         <v>0</v>
       </c>
       <c r="R212">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S212">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T212">
         <v>3</v>
       </c>
       <c r="U212">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V212">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W212">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X212">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y212">
         <v>-1</v>
       </c>
       <c r="Z212">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA212">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB212">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC212">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -21104,7 +21104,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>3640771</v>
+        <v>3640768</v>
       </c>
       <c r="C232" t="s">
         <v>28</v>
@@ -21116,49 +21116,49 @@
         <v>44465.66666666666</v>
       </c>
       <c r="F232" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G232" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="H232">
+        <v>3</v>
+      </c>
+      <c r="I232">
         <v>0</v>
       </c>
-      <c r="I232">
-        <v>2</v>
-      </c>
       <c r="J232" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K232">
-        <v>2.05</v>
+        <v>1.25</v>
       </c>
       <c r="L232">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="M232">
-        <v>3.1</v>
+        <v>9</v>
       </c>
       <c r="N232">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="O232">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="P232">
-        <v>3.4</v>
+        <v>8</v>
       </c>
       <c r="Q232">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R232">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S232">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T232">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U232">
         <v>1.95</v>
@@ -21167,19 +21167,19 @@
         <v>1.9</v>
       </c>
       <c r="W232">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X232">
         <v>-1</v>
       </c>
       <c r="Y232">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z232">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA232">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB232">
         <v>-1</v>
@@ -21193,7 +21193,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>3640768</v>
+        <v>3640771</v>
       </c>
       <c r="C233" t="s">
         <v>28</v>
@@ -21205,49 +21205,49 @@
         <v>44465.66666666666</v>
       </c>
       <c r="F233" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G233" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="H233">
+        <v>0</v>
+      </c>
+      <c r="I233">
+        <v>2</v>
+      </c>
+      <c r="J233" t="s">
+        <v>51</v>
+      </c>
+      <c r="K233">
+        <v>2.05</v>
+      </c>
+      <c r="L233">
+        <v>3.6</v>
+      </c>
+      <c r="M233">
+        <v>3.1</v>
+      </c>
+      <c r="N233">
+        <v>2</v>
+      </c>
+      <c r="O233">
+        <v>3.8</v>
+      </c>
+      <c r="P233">
+        <v>3.4</v>
+      </c>
+      <c r="Q233">
+        <v>-0.25</v>
+      </c>
+      <c r="R233">
+        <v>1.825</v>
+      </c>
+      <c r="S233">
+        <v>2.025</v>
+      </c>
+      <c r="T233">
         <v>3</v>
-      </c>
-      <c r="I233">
-        <v>0</v>
-      </c>
-      <c r="J233" t="s">
-        <v>52</v>
-      </c>
-      <c r="K233">
-        <v>1.25</v>
-      </c>
-      <c r="L233">
-        <v>5.5</v>
-      </c>
-      <c r="M233">
-        <v>9</v>
-      </c>
-      <c r="N233">
-        <v>1.3</v>
-      </c>
-      <c r="O233">
-        <v>5</v>
-      </c>
-      <c r="P233">
-        <v>8</v>
-      </c>
-      <c r="Q233">
-        <v>-1.5</v>
-      </c>
-      <c r="R233">
-        <v>1.925</v>
-      </c>
-      <c r="S233">
-        <v>1.925</v>
-      </c>
-      <c r="T233">
-        <v>3.5</v>
       </c>
       <c r="U233">
         <v>1.95</v>
@@ -21256,19 +21256,19 @@
         <v>1.9</v>
       </c>
       <c r="W233">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X233">
         <v>-1</v>
       </c>
       <c r="Y233">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z233">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA233">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB233">
         <v>-1</v>
@@ -27067,7 +27067,7 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>3640831</v>
+        <v>3640834</v>
       </c>
       <c r="C299" t="s">
         <v>28</v>
@@ -27079,76 +27079,76 @@
         <v>44534.60416666666</v>
       </c>
       <c r="F299" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G299" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J299" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K299">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="L299">
         <v>3.5</v>
       </c>
       <c r="M299">
+        <v>2.75</v>
+      </c>
+      <c r="N299">
+        <v>2.25</v>
+      </c>
+      <c r="O299">
+        <v>3.5</v>
+      </c>
+      <c r="P299">
         <v>3</v>
       </c>
-      <c r="N299">
-        <v>3</v>
-      </c>
-      <c r="O299">
-        <v>3.4</v>
-      </c>
-      <c r="P299">
-        <v>2.3</v>
-      </c>
       <c r="Q299">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R299">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S299">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T299">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U299">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V299">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W299">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X299">
         <v>-1</v>
       </c>
       <c r="Y299">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z299">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA299">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB299">
+        <v>0.4</v>
+      </c>
+      <c r="AC299">
         <v>-0.5</v>
-      </c>
-      <c r="AC299">
-        <v>0.5125</v>
       </c>
     </row>
     <row r="300" spans="1:29">
@@ -27156,7 +27156,7 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>3640834</v>
+        <v>3640831</v>
       </c>
       <c r="C300" t="s">
         <v>28</v>
@@ -27168,76 +27168,76 @@
         <v>44534.60416666666</v>
       </c>
       <c r="F300" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G300" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H300">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I300">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J300" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K300">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="L300">
         <v>3.5</v>
       </c>
       <c r="M300">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N300">
+        <v>3</v>
+      </c>
+      <c r="O300">
+        <v>3.4</v>
+      </c>
+      <c r="P300">
+        <v>2.3</v>
+      </c>
+      <c r="Q300">
+        <v>0.25</v>
+      </c>
+      <c r="R300">
+        <v>1.825</v>
+      </c>
+      <c r="S300">
+        <v>2.025</v>
+      </c>
+      <c r="T300">
         <v>2.25</v>
       </c>
-      <c r="O300">
-        <v>3.5</v>
-      </c>
-      <c r="P300">
-        <v>3</v>
-      </c>
-      <c r="Q300">
-        <v>-0.25</v>
-      </c>
-      <c r="R300">
-        <v>2</v>
-      </c>
-      <c r="S300">
-        <v>1.85</v>
-      </c>
-      <c r="T300">
-        <v>2.75</v>
-      </c>
       <c r="U300">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V300">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W300">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X300">
         <v>-1</v>
       </c>
       <c r="Y300">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z300">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA300">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB300">
-        <v>0.4</v>
+        <v>-0.5</v>
       </c>
       <c r="AC300">
-        <v>-0.5</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="301" spans="1:29">
@@ -27868,7 +27868,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>3640943</v>
+        <v>3640840</v>
       </c>
       <c r="C308" t="s">
         <v>28</v>
@@ -27880,76 +27880,76 @@
         <v>44541.60416666666</v>
       </c>
       <c r="F308" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G308" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H308">
         <v>1</v>
       </c>
       <c r="I308">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J308" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K308">
-        <v>1.615</v>
+        <v>1.909</v>
       </c>
       <c r="L308">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M308">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N308">
-        <v>1.95</v>
+        <v>2.9</v>
       </c>
       <c r="O308">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P308">
-        <v>3.8</v>
+        <v>2.5</v>
       </c>
       <c r="Q308">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R308">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S308">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="T308">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U308">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="V308">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W308">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X308">
         <v>-1</v>
       </c>
       <c r="Y308">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z308">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA308">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AB308">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC308">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="309" spans="1:29">
@@ -27957,7 +27957,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>3640840</v>
+        <v>3640943</v>
       </c>
       <c r="C309" t="s">
         <v>28</v>
@@ -27969,76 +27969,76 @@
         <v>44541.60416666666</v>
       </c>
       <c r="F309" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G309" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H309">
         <v>1</v>
       </c>
       <c r="I309">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J309" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K309">
-        <v>1.909</v>
+        <v>1.615</v>
       </c>
       <c r="L309">
+        <v>4.2</v>
+      </c>
+      <c r="M309">
+        <v>5</v>
+      </c>
+      <c r="N309">
+        <v>1.95</v>
+      </c>
+      <c r="O309">
         <v>3.6</v>
       </c>
-      <c r="M309">
-        <v>4</v>
-      </c>
-      <c r="N309">
-        <v>2.9</v>
-      </c>
-      <c r="O309">
-        <v>3.1</v>
-      </c>
       <c r="P309">
+        <v>3.8</v>
+      </c>
+      <c r="Q309">
+        <v>-0.5</v>
+      </c>
+      <c r="R309">
+        <v>2</v>
+      </c>
+      <c r="S309">
+        <v>1.85</v>
+      </c>
+      <c r="T309">
         <v>2.5</v>
       </c>
-      <c r="Q309">
-        <v>0.25</v>
-      </c>
-      <c r="R309">
-        <v>1.775</v>
-      </c>
-      <c r="S309">
-        <v>2.1</v>
-      </c>
-      <c r="T309">
-        <v>2.25</v>
-      </c>
       <c r="U309">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="V309">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W309">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X309">
         <v>-1</v>
       </c>
       <c r="Y309">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z309">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA309">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AB309">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC309">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="310" spans="1:29">
@@ -28580,7 +28580,7 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>3640849</v>
+        <v>3640842</v>
       </c>
       <c r="C316" t="s">
         <v>28</v>
@@ -28592,76 +28592,76 @@
         <v>44544.70833333334</v>
       </c>
       <c r="F316" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G316" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H316">
+        <v>2</v>
+      </c>
+      <c r="I316">
         <v>0</v>
       </c>
-      <c r="I316">
-        <v>2</v>
-      </c>
       <c r="J316" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K316">
-        <v>2.55</v>
+        <v>1.363</v>
       </c>
       <c r="L316">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="M316">
-        <v>2.625</v>
+        <v>6.5</v>
       </c>
       <c r="N316">
-        <v>2.2</v>
+        <v>1.363</v>
       </c>
       <c r="O316">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="P316">
-        <v>3.1</v>
+        <v>7.5</v>
       </c>
       <c r="Q316">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R316">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="S316">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T316">
         <v>2.75</v>
       </c>
       <c r="U316">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V316">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W316">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X316">
         <v>-1</v>
       </c>
       <c r="Y316">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z316">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA316">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB316">
         <v>-1</v>
       </c>
       <c r="AC316">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="317" spans="1:29">
@@ -28669,7 +28669,7 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>3640842</v>
+        <v>3640849</v>
       </c>
       <c r="C317" t="s">
         <v>28</v>
@@ -28681,76 +28681,76 @@
         <v>44544.70833333334</v>
       </c>
       <c r="F317" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G317" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H317">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I317">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J317" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K317">
-        <v>1.363</v>
+        <v>2.55</v>
       </c>
       <c r="L317">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="M317">
-        <v>6.5</v>
+        <v>2.625</v>
       </c>
       <c r="N317">
-        <v>1.363</v>
+        <v>2.2</v>
       </c>
       <c r="O317">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P317">
-        <v>7.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q317">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R317">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="S317">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T317">
         <v>2.75</v>
       </c>
       <c r="U317">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V317">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W317">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X317">
         <v>-1</v>
       </c>
       <c r="Y317">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z317">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA317">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB317">
         <v>-1</v>
       </c>
       <c r="AC317">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="318" spans="1:29">
@@ -28758,7 +28758,7 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>3640848</v>
+        <v>3639281</v>
       </c>
       <c r="C318" t="s">
         <v>28</v>
@@ -28770,76 +28770,76 @@
         <v>44545.61458333334</v>
       </c>
       <c r="F318" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G318" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="H318">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I318">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J318" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K318">
+        <v>5.5</v>
+      </c>
+      <c r="L318">
+        <v>4.333</v>
+      </c>
+      <c r="M318">
+        <v>1.533</v>
+      </c>
+      <c r="N318">
+        <v>7.5</v>
+      </c>
+      <c r="O318">
+        <v>5.25</v>
+      </c>
+      <c r="P318">
+        <v>1.363</v>
+      </c>
+      <c r="Q318">
+        <v>1.5</v>
+      </c>
+      <c r="R318">
+        <v>1.875</v>
+      </c>
+      <c r="S318">
+        <v>1.975</v>
+      </c>
+      <c r="T318">
         <v>3.5</v>
       </c>
-      <c r="L318">
-        <v>3.6</v>
-      </c>
-      <c r="M318">
-        <v>2</v>
-      </c>
-      <c r="N318">
-        <v>4.5</v>
-      </c>
-      <c r="O318">
-        <v>3.75</v>
-      </c>
-      <c r="P318">
-        <v>1.75</v>
-      </c>
-      <c r="Q318">
-        <v>0.75</v>
-      </c>
-      <c r="R318">
-        <v>1.8</v>
-      </c>
-      <c r="S318">
-        <v>2.05</v>
-      </c>
-      <c r="T318">
-        <v>2.75</v>
-      </c>
       <c r="U318">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V318">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W318">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="X318">
         <v>-1</v>
       </c>
       <c r="Y318">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Z318">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA318">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB318">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC318">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="319" spans="1:29">
@@ -28847,7 +28847,7 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>3639281</v>
+        <v>3640848</v>
       </c>
       <c r="C319" t="s">
         <v>28</v>
@@ -28859,76 +28859,76 @@
         <v>44545.61458333334</v>
       </c>
       <c r="F319" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G319" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I319">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J319" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K319">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="L319">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M319">
-        <v>1.533</v>
+        <v>2</v>
       </c>
       <c r="N319">
-        <v>7.5</v>
+        <v>4.5</v>
       </c>
       <c r="O319">
-        <v>5.25</v>
+        <v>3.75</v>
       </c>
       <c r="P319">
-        <v>1.363</v>
+        <v>1.75</v>
       </c>
       <c r="Q319">
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="R319">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S319">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T319">
+        <v>2.75</v>
+      </c>
+      <c r="U319">
+        <v>1.925</v>
+      </c>
+      <c r="V319">
+        <v>1.925</v>
+      </c>
+      <c r="W319">
         <v>3.5</v>
       </c>
-      <c r="U319">
-        <v>1.9</v>
-      </c>
-      <c r="V319">
-        <v>1.95</v>
-      </c>
-      <c r="W319">
-        <v>-1</v>
-      </c>
       <c r="X319">
         <v>-1</v>
       </c>
       <c r="Y319">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Z319">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA319">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB319">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC319">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="320" spans="1:29">
@@ -32496,7 +32496,7 @@
         <v>358</v>
       </c>
       <c r="B360">
-        <v>3640946</v>
+        <v>3640881</v>
       </c>
       <c r="C360" t="s">
         <v>28</v>
@@ -32508,76 +32508,76 @@
         <v>44587.70833333334</v>
       </c>
       <c r="F360" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G360" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H360">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I360">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J360" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K360">
+        <v>1.571</v>
+      </c>
+      <c r="L360">
+        <v>4</v>
+      </c>
+      <c r="M360">
+        <v>5.5</v>
+      </c>
+      <c r="N360">
+        <v>1.7</v>
+      </c>
+      <c r="O360">
+        <v>3.75</v>
+      </c>
+      <c r="P360">
+        <v>5</v>
+      </c>
+      <c r="Q360">
+        <v>-0.75</v>
+      </c>
+      <c r="R360">
         <v>1.95</v>
       </c>
-      <c r="L360">
-        <v>3.6</v>
-      </c>
-      <c r="M360">
-        <v>3.6</v>
-      </c>
-      <c r="N360">
-        <v>2.375</v>
-      </c>
-      <c r="O360">
-        <v>3.3</v>
-      </c>
-      <c r="P360">
-        <v>2.9</v>
-      </c>
-      <c r="Q360">
-        <v>-0.25</v>
-      </c>
-      <c r="R360">
-        <v>2.1</v>
-      </c>
       <c r="S360">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T360">
         <v>2.5</v>
       </c>
       <c r="U360">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V360">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W360">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X360">
         <v>-1</v>
       </c>
       <c r="Y360">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z360">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA360">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB360">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC360">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="361" spans="1:29">
@@ -32585,7 +32585,7 @@
         <v>359</v>
       </c>
       <c r="B361">
-        <v>3640881</v>
+        <v>3640946</v>
       </c>
       <c r="C361" t="s">
         <v>28</v>
@@ -32597,76 +32597,76 @@
         <v>44587.70833333334</v>
       </c>
       <c r="F361" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G361" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I361">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J361" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K361">
-        <v>1.571</v>
+        <v>1.95</v>
       </c>
       <c r="L361">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M361">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="N361">
-        <v>1.7</v>
+        <v>2.375</v>
       </c>
       <c r="O361">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P361">
-        <v>5</v>
+        <v>2.9</v>
       </c>
       <c r="Q361">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R361">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="S361">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T361">
         <v>2.5</v>
       </c>
       <c r="U361">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V361">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W361">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X361">
         <v>-1</v>
       </c>
       <c r="Y361">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z361">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AA361">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB361">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC361">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="362" spans="1:29">
@@ -34721,7 +34721,7 @@
         <v>383</v>
       </c>
       <c r="B385">
-        <v>3640905</v>
+        <v>3640908</v>
       </c>
       <c r="C385" t="s">
         <v>28</v>
@@ -34733,58 +34733,58 @@
         <v>44604.60416666666</v>
       </c>
       <c r="F385" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G385" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H385">
         <v>3</v>
       </c>
       <c r="I385">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J385" t="s">
         <v>52</v>
       </c>
       <c r="K385">
-        <v>2.7</v>
+        <v>2.05</v>
       </c>
       <c r="L385">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M385">
-        <v>2.45</v>
+        <v>3.3</v>
       </c>
       <c r="N385">
-        <v>2.55</v>
+        <v>1.8</v>
       </c>
       <c r="O385">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="P385">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="Q385">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R385">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S385">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T385">
         <v>2.5</v>
       </c>
       <c r="U385">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V385">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W385">
-        <v>1.55</v>
+        <v>0.8</v>
       </c>
       <c r="X385">
         <v>-1</v>
@@ -34793,13 +34793,13 @@
         <v>-1</v>
       </c>
       <c r="Z385">
-        <v>0.8999999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AA385">
         <v>-1</v>
       </c>
       <c r="AB385">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC385">
         <v>-1</v>
@@ -34810,7 +34810,7 @@
         <v>384</v>
       </c>
       <c r="B386">
-        <v>3640908</v>
+        <v>3640905</v>
       </c>
       <c r="C386" t="s">
         <v>28</v>
@@ -34822,58 +34822,58 @@
         <v>44604.60416666666</v>
       </c>
       <c r="F386" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G386" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H386">
         <v>3</v>
       </c>
       <c r="I386">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J386" t="s">
         <v>52</v>
       </c>
       <c r="K386">
-        <v>2.05</v>
+        <v>2.7</v>
       </c>
       <c r="L386">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M386">
-        <v>3.3</v>
+        <v>2.45</v>
       </c>
       <c r="N386">
-        <v>1.8</v>
+        <v>2.55</v>
       </c>
       <c r="O386">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="P386">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="Q386">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R386">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S386">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T386">
         <v>2.5</v>
       </c>
       <c r="U386">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V386">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W386">
-        <v>0.8</v>
+        <v>1.55</v>
       </c>
       <c r="X386">
         <v>-1</v>
@@ -34882,13 +34882,13 @@
         <v>-1</v>
       </c>
       <c r="Z386">
-        <v>1.05</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA386">
         <v>-1</v>
       </c>
       <c r="AB386">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC386">
         <v>-1</v>
@@ -38103,7 +38103,7 @@
         <v>421</v>
       </c>
       <c r="B423">
-        <v>3823355</v>
+        <v>3823362</v>
       </c>
       <c r="C423" t="s">
         <v>28</v>
@@ -38115,13 +38115,13 @@
         <v>44632.60416666666</v>
       </c>
       <c r="F423" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G423" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H423">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I423">
         <v>0</v>
@@ -38130,43 +38130,43 @@
         <v>52</v>
       </c>
       <c r="K423">
-        <v>2.3</v>
+        <v>1.65</v>
       </c>
       <c r="L423">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M423">
-        <v>2.8</v>
+        <v>5.25</v>
       </c>
       <c r="N423">
-        <v>2.45</v>
+        <v>1.571</v>
       </c>
       <c r="O423">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P423">
-        <v>2.75</v>
+        <v>5.75</v>
       </c>
       <c r="Q423">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R423">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S423">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T423">
         <v>2.5</v>
       </c>
       <c r="U423">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V423">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W423">
-        <v>1.45</v>
+        <v>0.571</v>
       </c>
       <c r="X423">
         <v>-1</v>
@@ -38175,16 +38175,16 @@
         <v>-1</v>
       </c>
       <c r="Z423">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AA423">
         <v>-1</v>
       </c>
       <c r="AB423">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC423">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="424" spans="1:29">
@@ -38192,7 +38192,7 @@
         <v>422</v>
       </c>
       <c r="B424">
-        <v>3823362</v>
+        <v>3823355</v>
       </c>
       <c r="C424" t="s">
         <v>28</v>
@@ -38204,13 +38204,13 @@
         <v>44632.60416666666</v>
       </c>
       <c r="F424" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G424" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H424">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I424">
         <v>0</v>
@@ -38219,43 +38219,43 @@
         <v>52</v>
       </c>
       <c r="K424">
-        <v>1.65</v>
+        <v>2.3</v>
       </c>
       <c r="L424">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M424">
-        <v>5.25</v>
+        <v>2.8</v>
       </c>
       <c r="N424">
-        <v>1.571</v>
+        <v>2.45</v>
       </c>
       <c r="O424">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P424">
-        <v>5.75</v>
+        <v>2.75</v>
       </c>
       <c r="Q424">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R424">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S424">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T424">
         <v>2.5</v>
       </c>
       <c r="U424">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V424">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W424">
-        <v>0.571</v>
+        <v>1.45</v>
       </c>
       <c r="X424">
         <v>-1</v>
@@ -38264,16 +38264,16 @@
         <v>-1</v>
       </c>
       <c r="Z424">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AA424">
         <v>-1</v>
       </c>
       <c r="AB424">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC424">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="425" spans="1:29">
@@ -43087,7 +43087,7 @@
         <v>477</v>
       </c>
       <c r="B479">
-        <v>5208622</v>
+        <v>5208464</v>
       </c>
       <c r="C479" t="s">
         <v>28</v>
@@ -43099,34 +43099,34 @@
         <v>44772.55208333334</v>
       </c>
       <c r="F479" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G479" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="H479">
         <v>2</v>
       </c>
       <c r="I479">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J479" t="s">
         <v>52</v>
       </c>
       <c r="K479">
-        <v>1.85</v>
+        <v>2.4</v>
       </c>
       <c r="L479">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M479">
-        <v>3.75</v>
+        <v>2.625</v>
       </c>
       <c r="N479">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="O479">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P479">
         <v>2.15</v>
@@ -43135,22 +43135,22 @@
         <v>0.25</v>
       </c>
       <c r="R479">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S479">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T479">
         <v>2.75</v>
       </c>
       <c r="U479">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V479">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W479">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="X479">
         <v>-1</v>
@@ -43159,16 +43159,16 @@
         <v>-1</v>
       </c>
       <c r="Z479">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AA479">
         <v>-1</v>
       </c>
       <c r="AB479">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC479">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="480" spans="1:29">
@@ -43176,7 +43176,7 @@
         <v>478</v>
       </c>
       <c r="B480">
-        <v>5208464</v>
+        <v>5208622</v>
       </c>
       <c r="C480" t="s">
         <v>28</v>
@@ -43188,34 +43188,34 @@
         <v>44772.55208333334</v>
       </c>
       <c r="F480" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G480" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="H480">
         <v>2</v>
       </c>
       <c r="I480">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J480" t="s">
         <v>52</v>
       </c>
       <c r="K480">
-        <v>2.4</v>
+        <v>1.85</v>
       </c>
       <c r="L480">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M480">
-        <v>2.625</v>
+        <v>3.75</v>
       </c>
       <c r="N480">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="O480">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P480">
         <v>2.15</v>
@@ -43224,22 +43224,22 @@
         <v>0.25</v>
       </c>
       <c r="R480">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S480">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T480">
         <v>2.75</v>
       </c>
       <c r="U480">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V480">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W480">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="X480">
         <v>-1</v>
@@ -43248,16 +43248,16 @@
         <v>-1</v>
       </c>
       <c r="Z480">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AA480">
         <v>-1</v>
       </c>
       <c r="AB480">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC480">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="481" spans="1:29">
@@ -52165,7 +52165,7 @@
         <v>579</v>
       </c>
       <c r="B581">
-        <v>5208527</v>
+        <v>5208664</v>
       </c>
       <c r="C581" t="s">
         <v>28</v>
@@ -52177,13 +52177,13 @@
         <v>44853.65625</v>
       </c>
       <c r="F581" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="G581" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H581">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I581">
         <v>0</v>
@@ -52192,43 +52192,43 @@
         <v>52</v>
       </c>
       <c r="K581">
-        <v>1.363</v>
+        <v>2.625</v>
       </c>
       <c r="L581">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="M581">
-        <v>7</v>
+        <v>2.55</v>
       </c>
       <c r="N581">
-        <v>1.571</v>
+        <v>2.25</v>
       </c>
       <c r="O581">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P581">
-        <v>5.25</v>
+        <v>3.1</v>
       </c>
       <c r="Q581">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R581">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S581">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T581">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U581">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V581">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W581">
-        <v>0.571</v>
+        <v>1.25</v>
       </c>
       <c r="X581">
         <v>-1</v>
@@ -52237,16 +52237,16 @@
         <v>-1</v>
       </c>
       <c r="Z581">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AA581">
         <v>-1</v>
       </c>
       <c r="AB581">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC581">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="582" spans="1:29">
@@ -52254,7 +52254,7 @@
         <v>580</v>
       </c>
       <c r="B582">
-        <v>5208664</v>
+        <v>5208527</v>
       </c>
       <c r="C582" t="s">
         <v>28</v>
@@ -52266,13 +52266,13 @@
         <v>44853.65625</v>
       </c>
       <c r="F582" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="G582" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H582">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I582">
         <v>0</v>
@@ -52281,43 +52281,43 @@
         <v>52</v>
       </c>
       <c r="K582">
-        <v>2.625</v>
+        <v>1.363</v>
       </c>
       <c r="L582">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="M582">
-        <v>2.55</v>
+        <v>7</v>
       </c>
       <c r="N582">
-        <v>2.25</v>
+        <v>1.571</v>
       </c>
       <c r="O582">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P582">
-        <v>3.1</v>
+        <v>5.25</v>
       </c>
       <c r="Q582">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R582">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S582">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T582">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U582">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V582">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W582">
-        <v>1.25</v>
+        <v>0.571</v>
       </c>
       <c r="X582">
         <v>-1</v>
@@ -52326,16 +52326,16 @@
         <v>-1</v>
       </c>
       <c r="Z582">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="AA582">
         <v>-1</v>
       </c>
       <c r="AB582">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC582">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="583" spans="1:29">
@@ -55814,7 +55814,7 @@
         <v>620</v>
       </c>
       <c r="B622">
-        <v>5208685</v>
+        <v>5208686</v>
       </c>
       <c r="C622" t="s">
         <v>28</v>
@@ -55826,76 +55826,76 @@
         <v>44918.6875</v>
       </c>
       <c r="F622" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G622" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H622">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I622">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J622" t="s">
         <v>53</v>
       </c>
       <c r="K622">
-        <v>1.7</v>
+        <v>2.45</v>
       </c>
       <c r="L622">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M622">
-        <v>4.333</v>
+        <v>2.5</v>
       </c>
       <c r="N622">
-        <v>1.363</v>
+        <v>2.3</v>
       </c>
       <c r="O622">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="P622">
-        <v>7</v>
+        <v>2.7</v>
       </c>
       <c r="Q622">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R622">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S622">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T622">
         <v>2.75</v>
       </c>
       <c r="U622">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V622">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W622">
         <v>-1</v>
       </c>
       <c r="X622">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="Y622">
         <v>-1</v>
       </c>
       <c r="Z622">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA622">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
       <c r="AB622">
         <v>-1</v>
       </c>
       <c r="AC622">
-        <v>1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="623" spans="1:29">
@@ -55903,7 +55903,7 @@
         <v>621</v>
       </c>
       <c r="B623">
-        <v>5208686</v>
+        <v>5208685</v>
       </c>
       <c r="C623" t="s">
         <v>28</v>
@@ -55915,76 +55915,76 @@
         <v>44918.6875</v>
       </c>
       <c r="F623" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G623" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H623">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I623">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J623" t="s">
         <v>53</v>
       </c>
       <c r="K623">
-        <v>2.45</v>
+        <v>1.7</v>
       </c>
       <c r="L623">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M623">
-        <v>2.5</v>
+        <v>4.333</v>
       </c>
       <c r="N623">
-        <v>2.3</v>
+        <v>1.363</v>
       </c>
       <c r="O623">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="P623">
-        <v>2.7</v>
+        <v>7</v>
       </c>
       <c r="Q623">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R623">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S623">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T623">
         <v>2.75</v>
       </c>
       <c r="U623">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V623">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W623">
         <v>-1</v>
       </c>
       <c r="X623">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="Y623">
         <v>-1</v>
       </c>
       <c r="Z623">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA623">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
       <c r="AB623">
         <v>-1</v>
       </c>
       <c r="AC623">
-        <v>0.875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="624" spans="1:29">
@@ -56704,7 +56704,7 @@
         <v>630</v>
       </c>
       <c r="B632">
-        <v>5208691</v>
+        <v>5208561</v>
       </c>
       <c r="C632" t="s">
         <v>28</v>
@@ -56716,49 +56716,49 @@
         <v>44933.59375</v>
       </c>
       <c r="F632" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G632" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H632">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I632">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J632" t="s">
         <v>51</v>
       </c>
       <c r="K632">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="L632">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M632">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="N632">
-        <v>2.15</v>
+        <v>1.7</v>
       </c>
       <c r="O632">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P632">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="Q632">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R632">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S632">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T632">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U632">
         <v>1.925</v>
@@ -56773,19 +56773,19 @@
         <v>-1</v>
       </c>
       <c r="Y632">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="Z632">
         <v>-1</v>
       </c>
       <c r="AA632">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB632">
         <v>0.925</v>
       </c>
-      <c r="AB632">
-        <v>-1</v>
-      </c>
       <c r="AC632">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="633" spans="1:29">
@@ -56793,7 +56793,7 @@
         <v>631</v>
       </c>
       <c r="B633">
-        <v>5208561</v>
+        <v>5208691</v>
       </c>
       <c r="C633" t="s">
         <v>28</v>
@@ -56805,49 +56805,49 @@
         <v>44933.59375</v>
       </c>
       <c r="F633" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G633" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H633">
+        <v>0</v>
+      </c>
+      <c r="I633">
         <v>1</v>
-      </c>
-      <c r="I633">
-        <v>2</v>
       </c>
       <c r="J633" t="s">
         <v>51</v>
       </c>
       <c r="K633">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="L633">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M633">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="N633">
-        <v>1.7</v>
+        <v>2.15</v>
       </c>
       <c r="O633">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P633">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="Q633">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R633">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S633">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T633">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U633">
         <v>1.925</v>
@@ -56862,19 +56862,19 @@
         <v>-1</v>
       </c>
       <c r="Y633">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="Z633">
         <v>-1</v>
       </c>
       <c r="AA633">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB633">
+        <v>-1</v>
+      </c>
+      <c r="AC633">
         <v>0.925</v>
-      </c>
-      <c r="AC633">
-        <v>-1</v>
       </c>
     </row>
     <row r="634" spans="1:29">
@@ -58395,7 +58395,7 @@
         <v>649</v>
       </c>
       <c r="B651">
-        <v>5208701</v>
+        <v>5208571</v>
       </c>
       <c r="C651" t="s">
         <v>28</v>
@@ -58407,76 +58407,76 @@
         <v>44944.60416666666</v>
       </c>
       <c r="F651" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G651" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H651">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I651">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J651" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K651">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="L651">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M651">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="N651">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="O651">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P651">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="Q651">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R651">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S651">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T651">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U651">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V651">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W651">
         <v>-1</v>
       </c>
       <c r="X651">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y651">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z651">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA651">
+        <v>0.875</v>
+      </c>
+      <c r="AB651">
+        <v>0.5</v>
+      </c>
+      <c r="AC651">
         <v>-0.5</v>
-      </c>
-      <c r="AB651">
-        <v>-1</v>
-      </c>
-      <c r="AC651">
-        <v>0.8</v>
       </c>
     </row>
     <row r="652" spans="1:29">
@@ -58484,7 +58484,7 @@
         <v>650</v>
       </c>
       <c r="B652">
-        <v>5208571</v>
+        <v>5208701</v>
       </c>
       <c r="C652" t="s">
         <v>28</v>
@@ -58496,76 +58496,76 @@
         <v>44944.60416666666</v>
       </c>
       <c r="F652" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G652" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="H652">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I652">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J652" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K652">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="L652">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M652">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="N652">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="O652">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P652">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="Q652">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R652">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S652">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T652">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U652">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V652">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W652">
         <v>-1</v>
       </c>
       <c r="X652">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y652">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z652">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AA652">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB652">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC652">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="653" spans="1:29">
@@ -59018,7 +59018,7 @@
         <v>656</v>
       </c>
       <c r="B658">
-        <v>5208577</v>
+        <v>5208575</v>
       </c>
       <c r="C658" t="s">
         <v>28</v>
@@ -59030,40 +59030,40 @@
         <v>44947.59375</v>
       </c>
       <c r="F658" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G658" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H658">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I658">
         <v>2</v>
       </c>
       <c r="J658" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K658">
-        <v>2.625</v>
+        <v>1.95</v>
       </c>
       <c r="L658">
+        <v>3.5</v>
+      </c>
+      <c r="M658">
         <v>3.4</v>
       </c>
-      <c r="M658">
-        <v>2.4</v>
-      </c>
       <c r="N658">
-        <v>3.2</v>
+        <v>1.75</v>
       </c>
       <c r="O658">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P658">
-        <v>2.05</v>
+        <v>4</v>
       </c>
       <c r="Q658">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R658">
         <v>2.025</v>
@@ -59072,34 +59072,34 @@
         <v>1.825</v>
       </c>
       <c r="T658">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U658">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V658">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W658">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X658">
         <v>-1</v>
       </c>
       <c r="Y658">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z658">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA658">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB658">
-        <v>0.475</v>
+        <v>1</v>
       </c>
       <c r="AC658">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="659" spans="1:29">
@@ -59107,7 +59107,7 @@
         <v>657</v>
       </c>
       <c r="B659">
-        <v>5208575</v>
+        <v>5208577</v>
       </c>
       <c r="C659" t="s">
         <v>28</v>
@@ -59119,40 +59119,40 @@
         <v>44947.59375</v>
       </c>
       <c r="F659" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G659" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H659">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I659">
         <v>2</v>
       </c>
       <c r="J659" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K659">
-        <v>1.95</v>
+        <v>2.625</v>
       </c>
       <c r="L659">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M659">
+        <v>2.4</v>
+      </c>
+      <c r="N659">
+        <v>3.2</v>
+      </c>
+      <c r="O659">
         <v>3.4</v>
       </c>
-      <c r="N659">
-        <v>1.75</v>
-      </c>
-      <c r="O659">
-        <v>3.6</v>
-      </c>
       <c r="P659">
-        <v>4</v>
+        <v>2.05</v>
       </c>
       <c r="Q659">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R659">
         <v>2.025</v>
@@ -59161,34 +59161,34 @@
         <v>1.825</v>
       </c>
       <c r="T659">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U659">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V659">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W659">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X659">
         <v>-1</v>
       </c>
       <c r="Y659">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z659">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AA659">
+        <v>0.825</v>
+      </c>
+      <c r="AB659">
+        <v>0.475</v>
+      </c>
+      <c r="AC659">
         <v>-0.5</v>
-      </c>
-      <c r="AB659">
-        <v>1</v>
-      </c>
-      <c r="AC659">
-        <v>-1</v>
       </c>
     </row>
     <row r="660" spans="1:29">
@@ -59819,7 +59819,7 @@
         <v>665</v>
       </c>
       <c r="B667">
-        <v>5208580</v>
+        <v>5208579</v>
       </c>
       <c r="C667" t="s">
         <v>28</v>
@@ -59831,34 +59831,34 @@
         <v>44954.59375</v>
       </c>
       <c r="F667" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G667" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H667">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I667">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J667" t="s">
         <v>53</v>
       </c>
       <c r="K667">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="L667">
         <v>3.4</v>
       </c>
       <c r="M667">
+        <v>3</v>
+      </c>
+      <c r="N667">
+        <v>2.2</v>
+      </c>
+      <c r="O667">
         <v>3.2</v>
-      </c>
-      <c r="N667">
-        <v>2.1</v>
-      </c>
-      <c r="O667">
-        <v>3.4</v>
       </c>
       <c r="P667">
         <v>3.1</v>
@@ -59867,25 +59867,25 @@
         <v>-0.25</v>
       </c>
       <c r="R667">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S667">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T667">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U667">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V667">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W667">
         <v>-1</v>
       </c>
       <c r="X667">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="Y667">
         <v>-1</v>
@@ -59894,13 +59894,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA667">
-        <v>0.475</v>
+        <v>0.4375</v>
       </c>
       <c r="AB667">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC667">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="668" spans="1:29">
@@ -59908,7 +59908,7 @@
         <v>666</v>
       </c>
       <c r="B668">
-        <v>5208579</v>
+        <v>5208580</v>
       </c>
       <c r="C668" t="s">
         <v>28</v>
@@ -59920,34 +59920,34 @@
         <v>44954.59375</v>
       </c>
       <c r="F668" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G668" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H668">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I668">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J668" t="s">
         <v>53</v>
       </c>
       <c r="K668">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="L668">
         <v>3.4</v>
       </c>
       <c r="M668">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="N668">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="O668">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P668">
         <v>3.1</v>
@@ -59956,25 +59956,25 @@
         <v>-0.25</v>
       </c>
       <c r="R668">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S668">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T668">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U668">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V668">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W668">
         <v>-1</v>
       </c>
       <c r="X668">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="Y668">
         <v>-1</v>
@@ -59983,13 +59983,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA668">
-        <v>0.4375</v>
+        <v>0.475</v>
       </c>
       <c r="AB668">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC668">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="669" spans="1:29">
@@ -61421,7 +61421,7 @@
         <v>683</v>
       </c>
       <c r="B685">
-        <v>5208587</v>
+        <v>5208718</v>
       </c>
       <c r="C685" t="s">
         <v>28</v>
@@ -61433,76 +61433,76 @@
         <v>44967.69791666666</v>
       </c>
       <c r="F685" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="G685" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="H685">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I685">
         <v>1</v>
       </c>
       <c r="J685" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K685">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="L685">
         <v>3.4</v>
       </c>
       <c r="M685">
-        <v>2.9</v>
+        <v>2.45</v>
       </c>
       <c r="N685">
+        <v>2.55</v>
+      </c>
+      <c r="O685">
+        <v>3.4</v>
+      </c>
+      <c r="P685">
         <v>2.5</v>
-      </c>
-      <c r="O685">
-        <v>3.2</v>
-      </c>
-      <c r="P685">
-        <v>2.8</v>
       </c>
       <c r="Q685">
         <v>0</v>
       </c>
       <c r="R685">
+        <v>1.95</v>
+      </c>
+      <c r="S685">
+        <v>1.9</v>
+      </c>
+      <c r="T685">
+        <v>2.75</v>
+      </c>
+      <c r="U685">
+        <v>1.975</v>
+      </c>
+      <c r="V685">
         <v>1.875</v>
       </c>
-      <c r="S685">
-        <v>1.975</v>
-      </c>
-      <c r="T685">
-        <v>2.25</v>
-      </c>
-      <c r="U685">
-        <v>1.8</v>
-      </c>
-      <c r="V685">
-        <v>2.05</v>
-      </c>
       <c r="W685">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X685">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y685">
         <v>-1</v>
       </c>
       <c r="Z685">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA685">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB685">
+        <v>0.4875</v>
+      </c>
+      <c r="AC685">
         <v>-0.5</v>
-      </c>
-      <c r="AC685">
-        <v>0.5249999999999999</v>
       </c>
     </row>
     <row r="686" spans="1:29">
@@ -61510,7 +61510,7 @@
         <v>684</v>
       </c>
       <c r="B686">
-        <v>5208718</v>
+        <v>5208587</v>
       </c>
       <c r="C686" t="s">
         <v>28</v>
@@ -61522,76 +61522,76 @@
         <v>44967.69791666666</v>
       </c>
       <c r="F686" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="G686" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="H686">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I686">
         <v>1</v>
       </c>
       <c r="J686" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K686">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="L686">
         <v>3.4</v>
       </c>
       <c r="M686">
-        <v>2.45</v>
+        <v>2.9</v>
       </c>
       <c r="N686">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="O686">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P686">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="Q686">
         <v>0</v>
       </c>
       <c r="R686">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S686">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T686">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U686">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V686">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="W686">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X686">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y686">
         <v>-1</v>
       </c>
       <c r="Z686">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA686">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB686">
-        <v>0.4875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC686">
-        <v>-0.5</v>
+        <v>0.5249999999999999</v>
       </c>
     </row>
     <row r="687" spans="1:29">
@@ -87092,19 +87092,19 @@
         <v>0.5</v>
       </c>
       <c r="R973">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S973">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T973">
         <v>2.75</v>
       </c>
       <c r="U973">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V973">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W973">
         <v>0</v>
@@ -87154,13 +87154,13 @@
         <v>17</v>
       </c>
       <c r="N974">
-        <v>1.125</v>
+        <v>1.142</v>
       </c>
       <c r="O974">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="P974">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Q974">
         <v>-2.25</v>
@@ -87193,6 +87193,450 @@
         <v>0</v>
       </c>
       <c r="AA974">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="975" spans="1:29">
+      <c r="A975" s="1">
+        <v>973</v>
+      </c>
+      <c r="B975">
+        <v>6810165</v>
+      </c>
+      <c r="C975" t="s">
+        <v>28</v>
+      </c>
+      <c r="D975" t="s">
+        <v>28</v>
+      </c>
+      <c r="E975" s="2">
+        <v>45322.61458333334</v>
+      </c>
+      <c r="F975" t="s">
+        <v>41</v>
+      </c>
+      <c r="G975" t="s">
+        <v>29</v>
+      </c>
+      <c r="K975">
+        <v>1.6</v>
+      </c>
+      <c r="L975">
+        <v>4</v>
+      </c>
+      <c r="M975">
+        <v>5</v>
+      </c>
+      <c r="N975">
+        <v>1.6</v>
+      </c>
+      <c r="O975">
+        <v>4</v>
+      </c>
+      <c r="P975">
+        <v>5</v>
+      </c>
+      <c r="Q975">
+        <v>-1</v>
+      </c>
+      <c r="R975">
+        <v>2.05</v>
+      </c>
+      <c r="S975">
+        <v>1.8</v>
+      </c>
+      <c r="T975">
+        <v>2.75</v>
+      </c>
+      <c r="U975">
+        <v>1.95</v>
+      </c>
+      <c r="V975">
+        <v>1.9</v>
+      </c>
+      <c r="W975">
+        <v>0</v>
+      </c>
+      <c r="X975">
+        <v>0</v>
+      </c>
+      <c r="Y975">
+        <v>0</v>
+      </c>
+      <c r="Z975">
+        <v>0</v>
+      </c>
+      <c r="AA975">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="976" spans="1:29">
+      <c r="A976" s="1">
+        <v>974</v>
+      </c>
+      <c r="B976">
+        <v>6810168</v>
+      </c>
+      <c r="C976" t="s">
+        <v>28</v>
+      </c>
+      <c r="D976" t="s">
+        <v>28</v>
+      </c>
+      <c r="E976" s="2">
+        <v>45322.61458333334</v>
+      </c>
+      <c r="F976" t="s">
+        <v>36</v>
+      </c>
+      <c r="G976" t="s">
+        <v>46</v>
+      </c>
+      <c r="K976">
+        <v>4.5</v>
+      </c>
+      <c r="L976">
+        <v>4.2</v>
+      </c>
+      <c r="M976">
+        <v>1.666</v>
+      </c>
+      <c r="N976">
+        <v>4.75</v>
+      </c>
+      <c r="O976">
+        <v>4.2</v>
+      </c>
+      <c r="P976">
+        <v>1.615</v>
+      </c>
+      <c r="Q976">
+        <v>0.75</v>
+      </c>
+      <c r="R976">
+        <v>2.05</v>
+      </c>
+      <c r="S976">
+        <v>1.8</v>
+      </c>
+      <c r="T976">
+        <v>3</v>
+      </c>
+      <c r="U976">
+        <v>1.925</v>
+      </c>
+      <c r="V976">
+        <v>1.925</v>
+      </c>
+      <c r="W976">
+        <v>0</v>
+      </c>
+      <c r="X976">
+        <v>0</v>
+      </c>
+      <c r="Y976">
+        <v>0</v>
+      </c>
+      <c r="Z976">
+        <v>0</v>
+      </c>
+      <c r="AA976">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="977" spans="1:27">
+      <c r="A977" s="1">
+        <v>975</v>
+      </c>
+      <c r="B977">
+        <v>6810164</v>
+      </c>
+      <c r="C977" t="s">
+        <v>28</v>
+      </c>
+      <c r="D977" t="s">
+        <v>28</v>
+      </c>
+      <c r="E977" s="2">
+        <v>45322.70833333334</v>
+      </c>
+      <c r="F977" t="s">
+        <v>48</v>
+      </c>
+      <c r="G977" t="s">
+        <v>50</v>
+      </c>
+      <c r="K977">
+        <v>1.2</v>
+      </c>
+      <c r="L977">
+        <v>7</v>
+      </c>
+      <c r="M977">
+        <v>12</v>
+      </c>
+      <c r="N977">
+        <v>1.2</v>
+      </c>
+      <c r="O977">
+        <v>7</v>
+      </c>
+      <c r="P977">
+        <v>12</v>
+      </c>
+      <c r="Q977">
+        <v>-2</v>
+      </c>
+      <c r="R977">
+        <v>1.95</v>
+      </c>
+      <c r="S977">
+        <v>1.9</v>
+      </c>
+      <c r="T977">
+        <v>3.25</v>
+      </c>
+      <c r="U977">
+        <v>1.9</v>
+      </c>
+      <c r="V977">
+        <v>1.95</v>
+      </c>
+      <c r="W977">
+        <v>0</v>
+      </c>
+      <c r="X977">
+        <v>0</v>
+      </c>
+      <c r="Y977">
+        <v>0</v>
+      </c>
+      <c r="Z977">
+        <v>0</v>
+      </c>
+      <c r="AA977">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="978" spans="1:27">
+      <c r="A978" s="1">
+        <v>976</v>
+      </c>
+      <c r="B978">
+        <v>6810162</v>
+      </c>
+      <c r="C978" t="s">
+        <v>28</v>
+      </c>
+      <c r="D978" t="s">
+        <v>28</v>
+      </c>
+      <c r="E978" s="2">
+        <v>45322.70833333334</v>
+      </c>
+      <c r="F978" t="s">
+        <v>38</v>
+      </c>
+      <c r="G978" t="s">
+        <v>44</v>
+      </c>
+      <c r="K978">
+        <v>4</v>
+      </c>
+      <c r="L978">
+        <v>3.6</v>
+      </c>
+      <c r="M978">
+        <v>1.85</v>
+      </c>
+      <c r="N978">
+        <v>4</v>
+      </c>
+      <c r="O978">
+        <v>3.6</v>
+      </c>
+      <c r="P978">
+        <v>1.85</v>
+      </c>
+      <c r="Q978">
+        <v>0.5</v>
+      </c>
+      <c r="R978">
+        <v>1.925</v>
+      </c>
+      <c r="S978">
+        <v>1.925</v>
+      </c>
+      <c r="T978">
+        <v>2.5</v>
+      </c>
+      <c r="U978">
+        <v>1.9</v>
+      </c>
+      <c r="V978">
+        <v>1.95</v>
+      </c>
+      <c r="W978">
+        <v>0</v>
+      </c>
+      <c r="X978">
+        <v>0</v>
+      </c>
+      <c r="Y978">
+        <v>0</v>
+      </c>
+      <c r="Z978">
+        <v>0</v>
+      </c>
+      <c r="AA978">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="979" spans="1:27">
+      <c r="A979" s="1">
+        <v>977</v>
+      </c>
+      <c r="B979">
+        <v>6810163</v>
+      </c>
+      <c r="C979" t="s">
+        <v>28</v>
+      </c>
+      <c r="D979" t="s">
+        <v>28</v>
+      </c>
+      <c r="E979" s="2">
+        <v>45323.6875</v>
+      </c>
+      <c r="F979" t="s">
+        <v>37</v>
+      </c>
+      <c r="G979" t="s">
+        <v>42</v>
+      </c>
+      <c r="K979">
+        <v>3.6</v>
+      </c>
+      <c r="L979">
+        <v>3.6</v>
+      </c>
+      <c r="M979">
+        <v>1.95</v>
+      </c>
+      <c r="N979">
+        <v>3.6</v>
+      </c>
+      <c r="O979">
+        <v>3.6</v>
+      </c>
+      <c r="P979">
+        <v>1.95</v>
+      </c>
+      <c r="Q979">
+        <v>0.5</v>
+      </c>
+      <c r="R979">
+        <v>1.85</v>
+      </c>
+      <c r="S979">
+        <v>2</v>
+      </c>
+      <c r="T979">
+        <v>2.5</v>
+      </c>
+      <c r="U979">
+        <v>1.9</v>
+      </c>
+      <c r="V979">
+        <v>1.95</v>
+      </c>
+      <c r="W979">
+        <v>0</v>
+      </c>
+      <c r="X979">
+        <v>0</v>
+      </c>
+      <c r="Y979">
+        <v>0</v>
+      </c>
+      <c r="Z979">
+        <v>0</v>
+      </c>
+      <c r="AA979">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="980" spans="1:27">
+      <c r="A980" s="1">
+        <v>978</v>
+      </c>
+      <c r="B980">
+        <v>6810166</v>
+      </c>
+      <c r="C980" t="s">
+        <v>28</v>
+      </c>
+      <c r="D980" t="s">
+        <v>28</v>
+      </c>
+      <c r="E980" s="2">
+        <v>45323.6875</v>
+      </c>
+      <c r="F980" t="s">
+        <v>34</v>
+      </c>
+      <c r="G980" t="s">
+        <v>43</v>
+      </c>
+      <c r="K980">
+        <v>3.5</v>
+      </c>
+      <c r="L980">
+        <v>3.5</v>
+      </c>
+      <c r="M980">
+        <v>2</v>
+      </c>
+      <c r="N980">
+        <v>3.4</v>
+      </c>
+      <c r="O980">
+        <v>3.5</v>
+      </c>
+      <c r="P980">
+        <v>2.05</v>
+      </c>
+      <c r="Q980">
+        <v>0.25</v>
+      </c>
+      <c r="R980">
+        <v>2.05</v>
+      </c>
+      <c r="S980">
+        <v>1.8</v>
+      </c>
+      <c r="T980">
+        <v>2.5</v>
+      </c>
+      <c r="U980">
+        <v>1.975</v>
+      </c>
+      <c r="V980">
+        <v>1.875</v>
+      </c>
+      <c r="W980">
+        <v>0</v>
+      </c>
+      <c r="X980">
+        <v>0</v>
+      </c>
+      <c r="Y980">
+        <v>0</v>
+      </c>
+      <c r="Z980">
+        <v>0</v>
+      </c>
+      <c r="AA980">
         <v>0</v>
       </c>
     </row>

--- a/Belgium First Division A/Belgium First Division A.xlsx
+++ b/Belgium First Division A/Belgium First Division A.xlsx
@@ -43087,7 +43087,7 @@
         <v>477</v>
       </c>
       <c r="B479">
-        <v>5208464</v>
+        <v>5208622</v>
       </c>
       <c r="C479" t="s">
         <v>28</v>
@@ -43099,34 +43099,34 @@
         <v>44772.55208333334</v>
       </c>
       <c r="F479" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G479" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="H479">
         <v>2</v>
       </c>
       <c r="I479">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J479" t="s">
         <v>52</v>
       </c>
       <c r="K479">
-        <v>2.4</v>
+        <v>1.85</v>
       </c>
       <c r="L479">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M479">
-        <v>2.625</v>
+        <v>3.75</v>
       </c>
       <c r="N479">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="O479">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P479">
         <v>2.15</v>
@@ -43135,22 +43135,22 @@
         <v>0.25</v>
       </c>
       <c r="R479">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S479">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T479">
         <v>2.75</v>
       </c>
       <c r="U479">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V479">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W479">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="X479">
         <v>-1</v>
@@ -43159,16 +43159,16 @@
         <v>-1</v>
       </c>
       <c r="Z479">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AA479">
         <v>-1</v>
       </c>
       <c r="AB479">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC479">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="480" spans="1:29">
@@ -43176,7 +43176,7 @@
         <v>478</v>
       </c>
       <c r="B480">
-        <v>5208622</v>
+        <v>5208464</v>
       </c>
       <c r="C480" t="s">
         <v>28</v>
@@ -43188,34 +43188,34 @@
         <v>44772.55208333334</v>
       </c>
       <c r="F480" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G480" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="H480">
         <v>2</v>
       </c>
       <c r="I480">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J480" t="s">
         <v>52</v>
       </c>
       <c r="K480">
-        <v>1.85</v>
+        <v>2.4</v>
       </c>
       <c r="L480">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M480">
-        <v>3.75</v>
+        <v>2.625</v>
       </c>
       <c r="N480">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="O480">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P480">
         <v>2.15</v>
@@ -43224,22 +43224,22 @@
         <v>0.25</v>
       </c>
       <c r="R480">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S480">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T480">
         <v>2.75</v>
       </c>
       <c r="U480">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V480">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W480">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="X480">
         <v>-1</v>
@@ -43248,16 +43248,16 @@
         <v>-1</v>
       </c>
       <c r="Z480">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AA480">
         <v>-1</v>
       </c>
       <c r="AB480">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC480">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="481" spans="1:29">
@@ -55814,7 +55814,7 @@
         <v>620</v>
       </c>
       <c r="B622">
-        <v>5208686</v>
+        <v>5208685</v>
       </c>
       <c r="C622" t="s">
         <v>28</v>
@@ -55826,76 +55826,76 @@
         <v>44918.6875</v>
       </c>
       <c r="F622" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G622" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H622">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I622">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J622" t="s">
         <v>53</v>
       </c>
       <c r="K622">
-        <v>2.45</v>
+        <v>1.7</v>
       </c>
       <c r="L622">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M622">
-        <v>2.5</v>
+        <v>4.333</v>
       </c>
       <c r="N622">
-        <v>2.3</v>
+        <v>1.363</v>
       </c>
       <c r="O622">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="P622">
-        <v>2.7</v>
+        <v>7</v>
       </c>
       <c r="Q622">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R622">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S622">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T622">
         <v>2.75</v>
       </c>
       <c r="U622">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V622">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W622">
         <v>-1</v>
       </c>
       <c r="X622">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="Y622">
         <v>-1</v>
       </c>
       <c r="Z622">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA622">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
       <c r="AB622">
         <v>-1</v>
       </c>
       <c r="AC622">
-        <v>0.875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="623" spans="1:29">
@@ -55903,7 +55903,7 @@
         <v>621</v>
       </c>
       <c r="B623">
-        <v>5208685</v>
+        <v>5208686</v>
       </c>
       <c r="C623" t="s">
         <v>28</v>
@@ -55915,76 +55915,76 @@
         <v>44918.6875</v>
       </c>
       <c r="F623" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G623" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H623">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I623">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J623" t="s">
         <v>53</v>
       </c>
       <c r="K623">
-        <v>1.7</v>
+        <v>2.45</v>
       </c>
       <c r="L623">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M623">
-        <v>4.333</v>
+        <v>2.5</v>
       </c>
       <c r="N623">
-        <v>1.363</v>
+        <v>2.3</v>
       </c>
       <c r="O623">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="P623">
-        <v>7</v>
+        <v>2.7</v>
       </c>
       <c r="Q623">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R623">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S623">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T623">
         <v>2.75</v>
       </c>
       <c r="U623">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V623">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W623">
         <v>-1</v>
       </c>
       <c r="X623">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="Y623">
         <v>-1</v>
       </c>
       <c r="Z623">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA623">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
       <c r="AB623">
         <v>-1</v>
       </c>
       <c r="AC623">
-        <v>1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="624" spans="1:29">
@@ -56348,7 +56348,7 @@
         <v>626</v>
       </c>
       <c r="B628">
-        <v>5208556</v>
+        <v>5208687</v>
       </c>
       <c r="C628" t="s">
         <v>28</v>
@@ -56360,76 +56360,76 @@
         <v>44922.66666666666</v>
       </c>
       <c r="F628" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="G628" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H628">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I628">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J628" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K628">
-        <v>1.666</v>
+        <v>3</v>
       </c>
       <c r="L628">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M628">
-        <v>4.5</v>
+        <v>2.1</v>
       </c>
       <c r="N628">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="O628">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P628">
-        <v>4.333</v>
+        <v>2.3</v>
       </c>
       <c r="Q628">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R628">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S628">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T628">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U628">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V628">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W628">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X628">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y628">
         <v>-1</v>
       </c>
       <c r="Z628">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="AA628">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB628">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC628">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="629" spans="1:29">
@@ -56437,7 +56437,7 @@
         <v>627</v>
       </c>
       <c r="B629">
-        <v>5208687</v>
+        <v>5208556</v>
       </c>
       <c r="C629" t="s">
         <v>28</v>
@@ -56449,76 +56449,76 @@
         <v>44922.66666666666</v>
       </c>
       <c r="F629" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="G629" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H629">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I629">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J629" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K629">
-        <v>3</v>
+        <v>1.666</v>
       </c>
       <c r="L629">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M629">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="N629">
-        <v>2.8</v>
+        <v>1.7</v>
       </c>
       <c r="O629">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P629">
-        <v>2.3</v>
+        <v>4.333</v>
       </c>
       <c r="Q629">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R629">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S629">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T629">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U629">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V629">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W629">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X629">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y629">
         <v>-1</v>
       </c>
       <c r="Z629">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="AA629">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB629">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC629">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="630" spans="1:29">
@@ -58573,7 +58573,7 @@
         <v>651</v>
       </c>
       <c r="B653">
-        <v>5208569</v>
+        <v>5208568</v>
       </c>
       <c r="C653" t="s">
         <v>28</v>
@@ -58585,73 +58585,73 @@
         <v>44944.69791666666</v>
       </c>
       <c r="F653" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G653" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="H653">
+        <v>2</v>
+      </c>
+      <c r="I653">
         <v>3</v>
       </c>
-      <c r="I653">
-        <v>2</v>
-      </c>
       <c r="J653" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K653">
-        <v>1.85</v>
+        <v>1.4</v>
       </c>
       <c r="L653">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M653">
-        <v>3.8</v>
+        <v>6.5</v>
       </c>
       <c r="N653">
-        <v>1.666</v>
+        <v>1.7</v>
       </c>
       <c r="O653">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P653">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="Q653">
         <v>-0.75</v>
       </c>
       <c r="R653">
+        <v>1.925</v>
+      </c>
+      <c r="S653">
+        <v>1.925</v>
+      </c>
+      <c r="T653">
+        <v>2.75</v>
+      </c>
+      <c r="U653">
+        <v>1.975</v>
+      </c>
+      <c r="V653">
         <v>1.875</v>
       </c>
-      <c r="S653">
-        <v>1.975</v>
-      </c>
-      <c r="T653">
-        <v>2.5</v>
-      </c>
-      <c r="U653">
-        <v>1.95</v>
-      </c>
-      <c r="V653">
-        <v>1.9</v>
-      </c>
       <c r="W653">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X653">
         <v>-1</v>
       </c>
       <c r="Y653">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z653">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA653">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB653">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC653">
         <v>-1</v>
@@ -58662,7 +58662,7 @@
         <v>652</v>
       </c>
       <c r="B654">
-        <v>5208568</v>
+        <v>5208569</v>
       </c>
       <c r="C654" t="s">
         <v>28</v>
@@ -58674,73 +58674,73 @@
         <v>44944.69791666666</v>
       </c>
       <c r="F654" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G654" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="H654">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I654">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J654" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K654">
-        <v>1.4</v>
+        <v>1.85</v>
       </c>
       <c r="L654">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M654">
-        <v>6.5</v>
+        <v>3.8</v>
       </c>
       <c r="N654">
-        <v>1.7</v>
+        <v>1.666</v>
       </c>
       <c r="O654">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P654">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="Q654">
         <v>-0.75</v>
       </c>
       <c r="R654">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S654">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T654">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U654">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V654">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W654">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X654">
         <v>-1</v>
       </c>
       <c r="Y654">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z654">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA654">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AB654">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC654">
         <v>-1</v>
@@ -59819,7 +59819,7 @@
         <v>665</v>
       </c>
       <c r="B667">
-        <v>5208579</v>
+        <v>5208580</v>
       </c>
       <c r="C667" t="s">
         <v>28</v>
@@ -59831,34 +59831,34 @@
         <v>44954.59375</v>
       </c>
       <c r="F667" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G667" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H667">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I667">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J667" t="s">
         <v>53</v>
       </c>
       <c r="K667">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="L667">
         <v>3.4</v>
       </c>
       <c r="M667">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="N667">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="O667">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P667">
         <v>3.1</v>
@@ -59867,25 +59867,25 @@
         <v>-0.25</v>
       </c>
       <c r="R667">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S667">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T667">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U667">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V667">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W667">
         <v>-1</v>
       </c>
       <c r="X667">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="Y667">
         <v>-1</v>
@@ -59894,13 +59894,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA667">
-        <v>0.4375</v>
+        <v>0.475</v>
       </c>
       <c r="AB667">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC667">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="668" spans="1:29">
@@ -59908,7 +59908,7 @@
         <v>666</v>
       </c>
       <c r="B668">
-        <v>5208580</v>
+        <v>5208579</v>
       </c>
       <c r="C668" t="s">
         <v>28</v>
@@ -59920,34 +59920,34 @@
         <v>44954.59375</v>
       </c>
       <c r="F668" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G668" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H668">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I668">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J668" t="s">
         <v>53</v>
       </c>
       <c r="K668">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="L668">
         <v>3.4</v>
       </c>
       <c r="M668">
+        <v>3</v>
+      </c>
+      <c r="N668">
+        <v>2.2</v>
+      </c>
+      <c r="O668">
         <v>3.2</v>
-      </c>
-      <c r="N668">
-        <v>2.1</v>
-      </c>
-      <c r="O668">
-        <v>3.4</v>
       </c>
       <c r="P668">
         <v>3.1</v>
@@ -59956,25 +59956,25 @@
         <v>-0.25</v>
       </c>
       <c r="R668">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S668">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T668">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U668">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V668">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W668">
         <v>-1</v>
       </c>
       <c r="X668">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="Y668">
         <v>-1</v>
@@ -59983,13 +59983,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA668">
-        <v>0.475</v>
+        <v>0.4375</v>
       </c>
       <c r="AB668">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC668">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="669" spans="1:29">
@@ -61421,7 +61421,7 @@
         <v>683</v>
       </c>
       <c r="B685">
-        <v>5208718</v>
+        <v>5208587</v>
       </c>
       <c r="C685" t="s">
         <v>28</v>
@@ -61433,76 +61433,76 @@
         <v>44967.69791666666</v>
       </c>
       <c r="F685" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="G685" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="H685">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I685">
         <v>1</v>
       </c>
       <c r="J685" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K685">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="L685">
         <v>3.4</v>
       </c>
       <c r="M685">
-        <v>2.45</v>
+        <v>2.9</v>
       </c>
       <c r="N685">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="O685">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P685">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="Q685">
         <v>0</v>
       </c>
       <c r="R685">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S685">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T685">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U685">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V685">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="W685">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X685">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y685">
         <v>-1</v>
       </c>
       <c r="Z685">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA685">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB685">
-        <v>0.4875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC685">
-        <v>-0.5</v>
+        <v>0.5249999999999999</v>
       </c>
     </row>
     <row r="686" spans="1:29">
@@ -61510,7 +61510,7 @@
         <v>684</v>
       </c>
       <c r="B686">
-        <v>5208587</v>
+        <v>5208718</v>
       </c>
       <c r="C686" t="s">
         <v>28</v>
@@ -61522,76 +61522,76 @@
         <v>44967.69791666666</v>
       </c>
       <c r="F686" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="G686" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="H686">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I686">
         <v>1</v>
       </c>
       <c r="J686" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K686">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="L686">
         <v>3.4</v>
       </c>
       <c r="M686">
-        <v>2.9</v>
+        <v>2.45</v>
       </c>
       <c r="N686">
+        <v>2.55</v>
+      </c>
+      <c r="O686">
+        <v>3.4</v>
+      </c>
+      <c r="P686">
         <v>2.5</v>
-      </c>
-      <c r="O686">
-        <v>3.2</v>
-      </c>
-      <c r="P686">
-        <v>2.8</v>
       </c>
       <c r="Q686">
         <v>0</v>
       </c>
       <c r="R686">
+        <v>1.95</v>
+      </c>
+      <c r="S686">
+        <v>1.9</v>
+      </c>
+      <c r="T686">
+        <v>2.75</v>
+      </c>
+      <c r="U686">
+        <v>1.975</v>
+      </c>
+      <c r="V686">
         <v>1.875</v>
       </c>
-      <c r="S686">
-        <v>1.975</v>
-      </c>
-      <c r="T686">
-        <v>2.25</v>
-      </c>
-      <c r="U686">
-        <v>1.8</v>
-      </c>
-      <c r="V686">
-        <v>2.05</v>
-      </c>
       <c r="W686">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X686">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y686">
         <v>-1</v>
       </c>
       <c r="Z686">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA686">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB686">
+        <v>0.4875</v>
+      </c>
+      <c r="AC686">
         <v>-0.5</v>
-      </c>
-      <c r="AC686">
-        <v>0.5249999999999999</v>
       </c>
     </row>
     <row r="687" spans="1:29">
@@ -64714,7 +64714,7 @@
         <v>720</v>
       </c>
       <c r="B722">
-        <v>5208610</v>
+        <v>5208609</v>
       </c>
       <c r="C722" t="s">
         <v>28</v>
@@ -64726,73 +64726,73 @@
         <v>44996.59375</v>
       </c>
       <c r="F722" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="G722" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H722">
+        <v>3</v>
+      </c>
+      <c r="I722">
+        <v>1</v>
+      </c>
+      <c r="J722" t="s">
+        <v>52</v>
+      </c>
+      <c r="K722">
+        <v>1.615</v>
+      </c>
+      <c r="L722">
         <v>4</v>
       </c>
-      <c r="I722">
+      <c r="M722">
+        <v>4.75</v>
+      </c>
+      <c r="N722">
+        <v>1.615</v>
+      </c>
+      <c r="O722">
         <v>4</v>
       </c>
-      <c r="J722" t="s">
-        <v>53</v>
-      </c>
-      <c r="K722">
-        <v>2.25</v>
-      </c>
-      <c r="L722">
-        <v>3.4</v>
-      </c>
-      <c r="M722">
-        <v>2.9</v>
-      </c>
-      <c r="N722">
-        <v>2.5</v>
-      </c>
-      <c r="O722">
-        <v>3.4</v>
-      </c>
       <c r="P722">
-        <v>2.6</v>
+        <v>4.5</v>
       </c>
       <c r="Q722">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R722">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S722">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T722">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U722">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V722">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W722">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X722">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y722">
         <v>-1</v>
       </c>
       <c r="Z722">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AA722">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB722">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AC722">
         <v>-1</v>
@@ -64803,7 +64803,7 @@
         <v>721</v>
       </c>
       <c r="B723">
-        <v>5208609</v>
+        <v>5208610</v>
       </c>
       <c r="C723" t="s">
         <v>28</v>
@@ -64815,73 +64815,73 @@
         <v>44996.59375</v>
       </c>
       <c r="F723" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="G723" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H723">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I723">
+        <v>4</v>
+      </c>
+      <c r="J723" t="s">
+        <v>53</v>
+      </c>
+      <c r="K723">
+        <v>2.25</v>
+      </c>
+      <c r="L723">
+        <v>3.4</v>
+      </c>
+      <c r="M723">
+        <v>2.9</v>
+      </c>
+      <c r="N723">
+        <v>2.5</v>
+      </c>
+      <c r="O723">
+        <v>3.4</v>
+      </c>
+      <c r="P723">
+        <v>2.6</v>
+      </c>
+      <c r="Q723">
+        <v>0</v>
+      </c>
+      <c r="R723">
+        <v>1.875</v>
+      </c>
+      <c r="S723">
+        <v>1.975</v>
+      </c>
+      <c r="T723">
+        <v>2.75</v>
+      </c>
+      <c r="U723">
+        <v>2</v>
+      </c>
+      <c r="V723">
+        <v>1.85</v>
+      </c>
+      <c r="W723">
+        <v>-1</v>
+      </c>
+      <c r="X723">
+        <v>2.4</v>
+      </c>
+      <c r="Y723">
+        <v>-1</v>
+      </c>
+      <c r="Z723">
+        <v>0</v>
+      </c>
+      <c r="AA723">
+        <v>-0</v>
+      </c>
+      <c r="AB723">
         <v>1</v>
-      </c>
-      <c r="J723" t="s">
-        <v>52</v>
-      </c>
-      <c r="K723">
-        <v>1.615</v>
-      </c>
-      <c r="L723">
-        <v>4</v>
-      </c>
-      <c r="M723">
-        <v>4.75</v>
-      </c>
-      <c r="N723">
-        <v>1.615</v>
-      </c>
-      <c r="O723">
-        <v>4</v>
-      </c>
-      <c r="P723">
-        <v>4.5</v>
-      </c>
-      <c r="Q723">
-        <v>-1</v>
-      </c>
-      <c r="R723">
-        <v>2.05</v>
-      </c>
-      <c r="S723">
-        <v>1.8</v>
-      </c>
-      <c r="T723">
-        <v>3</v>
-      </c>
-      <c r="U723">
-        <v>1.95</v>
-      </c>
-      <c r="V723">
-        <v>1.9</v>
-      </c>
-      <c r="W723">
-        <v>0.615</v>
-      </c>
-      <c r="X723">
-        <v>-1</v>
-      </c>
-      <c r="Y723">
-        <v>-1</v>
-      </c>
-      <c r="Z723">
-        <v>1.05</v>
-      </c>
-      <c r="AA723">
-        <v>-1</v>
-      </c>
-      <c r="AB723">
-        <v>0.95</v>
       </c>
       <c r="AC723">
         <v>-1</v>
@@ -67918,7 +67918,7 @@
         <v>756</v>
       </c>
       <c r="B758">
-        <v>5424406</v>
+        <v>5424405</v>
       </c>
       <c r="C758" t="s">
         <v>28</v>
@@ -67930,73 +67930,73 @@
         <v>45031.55208333334</v>
       </c>
       <c r="F758" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G758" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H758">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I758">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J758" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K758">
-        <v>2.4</v>
+        <v>1.75</v>
       </c>
       <c r="L758">
         <v>3.5</v>
       </c>
       <c r="M758">
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="N758">
-        <v>2.4</v>
+        <v>1.65</v>
       </c>
       <c r="O758">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P758">
-        <v>2.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q758">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R758">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S758">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T758">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U758">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V758">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W758">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X758">
         <v>-1</v>
       </c>
       <c r="Y758">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z758">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA758">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB758">
-        <v>1.025</v>
+        <v>1</v>
       </c>
       <c r="AC758">
         <v>-1</v>
@@ -68007,7 +68007,7 @@
         <v>757</v>
       </c>
       <c r="B759">
-        <v>5424405</v>
+        <v>5424406</v>
       </c>
       <c r="C759" t="s">
         <v>28</v>
@@ -68019,73 +68019,73 @@
         <v>45031.55208333334</v>
       </c>
       <c r="F759" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G759" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H759">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I759">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J759" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K759">
-        <v>1.75</v>
+        <v>2.4</v>
       </c>
       <c r="L759">
         <v>3.5</v>
       </c>
       <c r="M759">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="N759">
-        <v>1.65</v>
+        <v>2.4</v>
       </c>
       <c r="O759">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P759">
-        <v>5.25</v>
+        <v>2.75</v>
       </c>
       <c r="Q759">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R759">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S759">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T759">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U759">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V759">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W759">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X759">
         <v>-1</v>
       </c>
       <c r="Y759">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z759">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA759">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB759">
-        <v>1</v>
+        <v>1.025</v>
       </c>
       <c r="AC759">
         <v>-1</v>
@@ -87053,7 +87053,7 @@
         <v>971</v>
       </c>
       <c r="B973">
-        <v>6810169</v>
+        <v>6810167</v>
       </c>
       <c r="C973" t="s">
         <v>28</v>
@@ -87065,46 +87065,46 @@
         <v>45321.6875</v>
       </c>
       <c r="F973" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G973" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K973">
-        <v>3.4</v>
+        <v>1.125</v>
       </c>
       <c r="L973">
-        <v>3.8</v>
+        <v>8.5</v>
       </c>
       <c r="M973">
-        <v>1.95</v>
+        <v>17</v>
       </c>
       <c r="N973">
-        <v>3.4</v>
+        <v>1.125</v>
       </c>
       <c r="O973">
-        <v>3.8</v>
+        <v>8.5</v>
       </c>
       <c r="P973">
-        <v>1.95</v>
+        <v>17</v>
       </c>
       <c r="Q973">
-        <v>0.5</v>
+        <v>-2.25</v>
       </c>
       <c r="R973">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S973">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T973">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U973">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V973">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W973">
         <v>0</v>
@@ -87127,7 +87127,7 @@
         <v>972</v>
       </c>
       <c r="B974">
-        <v>6810167</v>
+        <v>6810169</v>
       </c>
       <c r="C974" t="s">
         <v>28</v>
@@ -87139,46 +87139,46 @@
         <v>45321.6875</v>
       </c>
       <c r="F974" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G974" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K974">
-        <v>1.125</v>
+        <v>3.4</v>
       </c>
       <c r="L974">
-        <v>8.5</v>
+        <v>3.8</v>
       </c>
       <c r="M974">
-        <v>17</v>
+        <v>1.95</v>
       </c>
       <c r="N974">
-        <v>1.142</v>
+        <v>3.4</v>
       </c>
       <c r="O974">
-        <v>8</v>
+        <v>3.8</v>
       </c>
       <c r="P974">
-        <v>15</v>
+        <v>1.95</v>
       </c>
       <c r="Q974">
-        <v>-2.25</v>
+        <v>0.5</v>
       </c>
       <c r="R974">
+        <v>1.875</v>
+      </c>
+      <c r="S974">
+        <v>1.975</v>
+      </c>
+      <c r="T974">
+        <v>2.75</v>
+      </c>
+      <c r="U974">
         <v>1.9</v>
       </c>
-      <c r="S974">
+      <c r="V974">
         <v>1.95</v>
-      </c>
-      <c r="T974">
-        <v>3.25</v>
-      </c>
-      <c r="U974">
-        <v>1.825</v>
-      </c>
-      <c r="V974">
-        <v>2.025</v>
       </c>
       <c r="W974">
         <v>0</v>
@@ -87201,7 +87201,7 @@
         <v>973</v>
       </c>
       <c r="B975">
-        <v>6810165</v>
+        <v>6810168</v>
       </c>
       <c r="C975" t="s">
         <v>28</v>
@@ -87213,46 +87213,46 @@
         <v>45322.61458333334</v>
       </c>
       <c r="F975" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G975" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="K975">
-        <v>1.6</v>
+        <v>4.5</v>
       </c>
       <c r="L975">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M975">
-        <v>5</v>
+        <v>1.666</v>
       </c>
       <c r="N975">
-        <v>1.6</v>
+        <v>4.75</v>
       </c>
       <c r="O975">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P975">
-        <v>5</v>
+        <v>1.615</v>
       </c>
       <c r="Q975">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="R975">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S975">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T975">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U975">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V975">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W975">
         <v>0</v>
@@ -87275,7 +87275,7 @@
         <v>974</v>
       </c>
       <c r="B976">
-        <v>6810168</v>
+        <v>6810165</v>
       </c>
       <c r="C976" t="s">
         <v>28</v>
@@ -87287,46 +87287,46 @@
         <v>45322.61458333334</v>
       </c>
       <c r="F976" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G976" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="K976">
-        <v>4.5</v>
+        <v>1.6</v>
       </c>
       <c r="L976">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M976">
-        <v>1.666</v>
+        <v>5</v>
       </c>
       <c r="N976">
-        <v>4.75</v>
+        <v>1.615</v>
       </c>
       <c r="O976">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P976">
-        <v>1.615</v>
+        <v>5</v>
       </c>
       <c r="Q976">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R976">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S976">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T976">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U976">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V976">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W976">
         <v>0</v>
@@ -87397,10 +87397,10 @@
         <v>3.25</v>
       </c>
       <c r="U977">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V977">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W977">
         <v>0</v>
@@ -87545,10 +87545,10 @@
         <v>2.5</v>
       </c>
       <c r="U979">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V979">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W979">
         <v>0</v>
@@ -87598,22 +87598,22 @@
         <v>2</v>
       </c>
       <c r="N980">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="O980">
         <v>3.5</v>
       </c>
       <c r="P980">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="Q980">
         <v>0.25</v>
       </c>
       <c r="R980">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S980">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T980">
         <v>2.5</v>

--- a/Belgium First Division A/Belgium First Division A.xlsx
+++ b/Belgium First Division A/Belgium First Division A.xlsx
@@ -51720,7 +51720,7 @@
         <v>574</v>
       </c>
       <c r="B576">
-        <v>5208531</v>
+        <v>5208665</v>
       </c>
       <c r="C576" t="s">
         <v>28</v>
@@ -51732,73 +51732,73 @@
         <v>44852.5625</v>
       </c>
       <c r="F576" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G576" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H576">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I576">
         <v>2</v>
       </c>
       <c r="J576" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K576">
-        <v>1.75</v>
+        <v>2.9</v>
       </c>
       <c r="L576">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M576">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="N576">
-        <v>1.666</v>
+        <v>2.625</v>
       </c>
       <c r="O576">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P576">
-        <v>4.5</v>
+        <v>2.45</v>
       </c>
       <c r="Q576">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R576">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S576">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T576">
         <v>2.75</v>
       </c>
       <c r="U576">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V576">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W576">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X576">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y576">
         <v>-1</v>
       </c>
       <c r="Z576">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA576">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB576">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AC576">
         <v>-1</v>
@@ -51809,7 +51809,7 @@
         <v>575</v>
       </c>
       <c r="B577">
-        <v>5208665</v>
+        <v>5208531</v>
       </c>
       <c r="C577" t="s">
         <v>28</v>
@@ -51821,73 +51821,73 @@
         <v>44852.5625</v>
       </c>
       <c r="F577" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G577" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H577">
+        <v>2</v>
+      </c>
+      <c r="I577">
+        <v>2</v>
+      </c>
+      <c r="J577" t="s">
+        <v>53</v>
+      </c>
+      <c r="K577">
+        <v>1.75</v>
+      </c>
+      <c r="L577">
+        <v>3.8</v>
+      </c>
+      <c r="M577">
+        <v>4.2</v>
+      </c>
+      <c r="N577">
+        <v>1.666</v>
+      </c>
+      <c r="O577">
         <v>4</v>
       </c>
-      <c r="I577">
-        <v>2</v>
-      </c>
-      <c r="J577" t="s">
-        <v>52</v>
-      </c>
-      <c r="K577">
-        <v>2.9</v>
-      </c>
-      <c r="L577">
-        <v>3.5</v>
-      </c>
-      <c r="M577">
-        <v>2.2</v>
-      </c>
-      <c r="N577">
-        <v>2.625</v>
-      </c>
-      <c r="O577">
-        <v>3.5</v>
-      </c>
       <c r="P577">
-        <v>2.45</v>
+        <v>4.5</v>
       </c>
       <c r="Q577">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R577">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S577">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T577">
         <v>2.75</v>
       </c>
       <c r="U577">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V577">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W577">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X577">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y577">
         <v>-1</v>
       </c>
       <c r="Z577">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA577">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB577">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AC577">
         <v>-1</v>
@@ -56348,7 +56348,7 @@
         <v>626</v>
       </c>
       <c r="B628">
-        <v>5208687</v>
+        <v>5208556</v>
       </c>
       <c r="C628" t="s">
         <v>28</v>
@@ -56360,76 +56360,76 @@
         <v>44922.66666666666</v>
       </c>
       <c r="F628" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="G628" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H628">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I628">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J628" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K628">
-        <v>3</v>
+        <v>1.666</v>
       </c>
       <c r="L628">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M628">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="N628">
-        <v>2.8</v>
+        <v>1.7</v>
       </c>
       <c r="O628">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P628">
-        <v>2.3</v>
+        <v>4.333</v>
       </c>
       <c r="Q628">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R628">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S628">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T628">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U628">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V628">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W628">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X628">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y628">
         <v>-1</v>
       </c>
       <c r="Z628">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="AA628">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB628">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC628">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="629" spans="1:29">
@@ -56437,7 +56437,7 @@
         <v>627</v>
       </c>
       <c r="B629">
-        <v>5208556</v>
+        <v>5208687</v>
       </c>
       <c r="C629" t="s">
         <v>28</v>
@@ -56449,76 +56449,76 @@
         <v>44922.66666666666</v>
       </c>
       <c r="F629" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="G629" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H629">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I629">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J629" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K629">
-        <v>1.666</v>
+        <v>3</v>
       </c>
       <c r="L629">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M629">
-        <v>4.5</v>
+        <v>2.1</v>
       </c>
       <c r="N629">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="O629">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P629">
-        <v>4.333</v>
+        <v>2.3</v>
       </c>
       <c r="Q629">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R629">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S629">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T629">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U629">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V629">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W629">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X629">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y629">
         <v>-1</v>
       </c>
       <c r="Z629">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="AA629">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB629">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC629">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="630" spans="1:29">
@@ -58573,7 +58573,7 @@
         <v>651</v>
       </c>
       <c r="B653">
-        <v>5208568</v>
+        <v>5208569</v>
       </c>
       <c r="C653" t="s">
         <v>28</v>
@@ -58585,73 +58585,73 @@
         <v>44944.69791666666</v>
       </c>
       <c r="F653" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G653" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="H653">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I653">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J653" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K653">
-        <v>1.4</v>
+        <v>1.85</v>
       </c>
       <c r="L653">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M653">
-        <v>6.5</v>
+        <v>3.8</v>
       </c>
       <c r="N653">
-        <v>1.7</v>
+        <v>1.666</v>
       </c>
       <c r="O653">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P653">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="Q653">
         <v>-0.75</v>
       </c>
       <c r="R653">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S653">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T653">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U653">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V653">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W653">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X653">
         <v>-1</v>
       </c>
       <c r="Y653">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z653">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA653">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AB653">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC653">
         <v>-1</v>
@@ -58662,7 +58662,7 @@
         <v>652</v>
       </c>
       <c r="B654">
-        <v>5208569</v>
+        <v>5208568</v>
       </c>
       <c r="C654" t="s">
         <v>28</v>
@@ -58674,73 +58674,73 @@
         <v>44944.69791666666</v>
       </c>
       <c r="F654" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G654" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="H654">
+        <v>2</v>
+      </c>
+      <c r="I654">
         <v>3</v>
       </c>
-      <c r="I654">
-        <v>2</v>
-      </c>
       <c r="J654" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K654">
-        <v>1.85</v>
+        <v>1.4</v>
       </c>
       <c r="L654">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M654">
-        <v>3.8</v>
+        <v>6.5</v>
       </c>
       <c r="N654">
-        <v>1.666</v>
+        <v>1.7</v>
       </c>
       <c r="O654">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P654">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="Q654">
         <v>-0.75</v>
       </c>
       <c r="R654">
+        <v>1.925</v>
+      </c>
+      <c r="S654">
+        <v>1.925</v>
+      </c>
+      <c r="T654">
+        <v>2.75</v>
+      </c>
+      <c r="U654">
+        <v>1.975</v>
+      </c>
+      <c r="V654">
         <v>1.875</v>
       </c>
-      <c r="S654">
-        <v>1.975</v>
-      </c>
-      <c r="T654">
-        <v>2.5</v>
-      </c>
-      <c r="U654">
-        <v>1.95</v>
-      </c>
-      <c r="V654">
-        <v>1.9</v>
-      </c>
       <c r="W654">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X654">
         <v>-1</v>
       </c>
       <c r="Y654">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z654">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA654">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB654">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC654">
         <v>-1</v>
@@ -59819,7 +59819,7 @@
         <v>665</v>
       </c>
       <c r="B667">
-        <v>5208580</v>
+        <v>5208579</v>
       </c>
       <c r="C667" t="s">
         <v>28</v>
@@ -59831,34 +59831,34 @@
         <v>44954.59375</v>
       </c>
       <c r="F667" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G667" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H667">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I667">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J667" t="s">
         <v>53</v>
       </c>
       <c r="K667">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="L667">
         <v>3.4</v>
       </c>
       <c r="M667">
+        <v>3</v>
+      </c>
+      <c r="N667">
+        <v>2.2</v>
+      </c>
+      <c r="O667">
         <v>3.2</v>
-      </c>
-      <c r="N667">
-        <v>2.1</v>
-      </c>
-      <c r="O667">
-        <v>3.4</v>
       </c>
       <c r="P667">
         <v>3.1</v>
@@ -59867,25 +59867,25 @@
         <v>-0.25</v>
       </c>
       <c r="R667">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S667">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T667">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U667">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V667">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W667">
         <v>-1</v>
       </c>
       <c r="X667">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="Y667">
         <v>-1</v>
@@ -59894,13 +59894,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA667">
-        <v>0.475</v>
+        <v>0.4375</v>
       </c>
       <c r="AB667">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC667">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="668" spans="1:29">
@@ -59908,7 +59908,7 @@
         <v>666</v>
       </c>
       <c r="B668">
-        <v>5208579</v>
+        <v>5208580</v>
       </c>
       <c r="C668" t="s">
         <v>28</v>
@@ -59920,34 +59920,34 @@
         <v>44954.59375</v>
       </c>
       <c r="F668" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G668" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H668">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I668">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J668" t="s">
         <v>53</v>
       </c>
       <c r="K668">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="L668">
         <v>3.4</v>
       </c>
       <c r="M668">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="N668">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="O668">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P668">
         <v>3.1</v>
@@ -59956,25 +59956,25 @@
         <v>-0.25</v>
       </c>
       <c r="R668">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S668">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T668">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U668">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V668">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W668">
         <v>-1</v>
       </c>
       <c r="X668">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="Y668">
         <v>-1</v>
@@ -59983,13 +59983,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA668">
-        <v>0.4375</v>
+        <v>0.475</v>
       </c>
       <c r="AB668">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC668">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="669" spans="1:29">
@@ -61421,7 +61421,7 @@
         <v>683</v>
       </c>
       <c r="B685">
-        <v>5208587</v>
+        <v>5208718</v>
       </c>
       <c r="C685" t="s">
         <v>28</v>
@@ -61433,76 +61433,76 @@
         <v>44967.69791666666</v>
       </c>
       <c r="F685" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="G685" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="H685">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I685">
         <v>1</v>
       </c>
       <c r="J685" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K685">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="L685">
         <v>3.4</v>
       </c>
       <c r="M685">
-        <v>2.9</v>
+        <v>2.45</v>
       </c>
       <c r="N685">
+        <v>2.55</v>
+      </c>
+      <c r="O685">
+        <v>3.4</v>
+      </c>
+      <c r="P685">
         <v>2.5</v>
-      </c>
-      <c r="O685">
-        <v>3.2</v>
-      </c>
-      <c r="P685">
-        <v>2.8</v>
       </c>
       <c r="Q685">
         <v>0</v>
       </c>
       <c r="R685">
+        <v>1.95</v>
+      </c>
+      <c r="S685">
+        <v>1.9</v>
+      </c>
+      <c r="T685">
+        <v>2.75</v>
+      </c>
+      <c r="U685">
+        <v>1.975</v>
+      </c>
+      <c r="V685">
         <v>1.875</v>
       </c>
-      <c r="S685">
-        <v>1.975</v>
-      </c>
-      <c r="T685">
-        <v>2.25</v>
-      </c>
-      <c r="U685">
-        <v>1.8</v>
-      </c>
-      <c r="V685">
-        <v>2.05</v>
-      </c>
       <c r="W685">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X685">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y685">
         <v>-1</v>
       </c>
       <c r="Z685">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA685">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB685">
+        <v>0.4875</v>
+      </c>
+      <c r="AC685">
         <v>-0.5</v>
-      </c>
-      <c r="AC685">
-        <v>0.5249999999999999</v>
       </c>
     </row>
     <row r="686" spans="1:29">
@@ -61510,7 +61510,7 @@
         <v>684</v>
       </c>
       <c r="B686">
-        <v>5208718</v>
+        <v>5208587</v>
       </c>
       <c r="C686" t="s">
         <v>28</v>
@@ -61522,76 +61522,76 @@
         <v>44967.69791666666</v>
       </c>
       <c r="F686" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="G686" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="H686">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I686">
         <v>1</v>
       </c>
       <c r="J686" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K686">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="L686">
         <v>3.4</v>
       </c>
       <c r="M686">
-        <v>2.45</v>
+        <v>2.9</v>
       </c>
       <c r="N686">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="O686">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P686">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="Q686">
         <v>0</v>
       </c>
       <c r="R686">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S686">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T686">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U686">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V686">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="W686">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X686">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y686">
         <v>-1</v>
       </c>
       <c r="Z686">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA686">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB686">
-        <v>0.4875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC686">
-        <v>-0.5</v>
+        <v>0.5249999999999999</v>
       </c>
     </row>
     <row r="687" spans="1:29">
@@ -67918,7 +67918,7 @@
         <v>756</v>
       </c>
       <c r="B758">
-        <v>5424405</v>
+        <v>5424406</v>
       </c>
       <c r="C758" t="s">
         <v>28</v>
@@ -67930,73 +67930,73 @@
         <v>45031.55208333334</v>
       </c>
       <c r="F758" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G758" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H758">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I758">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J758" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K758">
-        <v>1.75</v>
+        <v>2.4</v>
       </c>
       <c r="L758">
         <v>3.5</v>
       </c>
       <c r="M758">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="N758">
-        <v>1.65</v>
+        <v>2.4</v>
       </c>
       <c r="O758">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P758">
-        <v>5.25</v>
+        <v>2.75</v>
       </c>
       <c r="Q758">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R758">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S758">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T758">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U758">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V758">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W758">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X758">
         <v>-1</v>
       </c>
       <c r="Y758">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z758">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA758">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB758">
-        <v>1</v>
+        <v>1.025</v>
       </c>
       <c r="AC758">
         <v>-1</v>
@@ -68007,7 +68007,7 @@
         <v>757</v>
       </c>
       <c r="B759">
-        <v>5424406</v>
+        <v>5424405</v>
       </c>
       <c r="C759" t="s">
         <v>28</v>
@@ -68019,73 +68019,73 @@
         <v>45031.55208333334</v>
       </c>
       <c r="F759" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G759" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H759">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I759">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J759" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K759">
-        <v>2.4</v>
+        <v>1.75</v>
       </c>
       <c r="L759">
         <v>3.5</v>
       </c>
       <c r="M759">
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="N759">
-        <v>2.4</v>
+        <v>1.65</v>
       </c>
       <c r="O759">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P759">
-        <v>2.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q759">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R759">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S759">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T759">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U759">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V759">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W759">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X759">
         <v>-1</v>
       </c>
       <c r="Y759">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z759">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA759">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB759">
-        <v>1.025</v>
+        <v>1</v>
       </c>
       <c r="AC759">
         <v>-1</v>
@@ -85540,7 +85540,7 @@
         <v>954</v>
       </c>
       <c r="B956">
-        <v>6810139</v>
+        <v>6810143</v>
       </c>
       <c r="C956" t="s">
         <v>28</v>
@@ -85552,58 +85552,58 @@
         <v>45287.69791666666</v>
       </c>
       <c r="F956" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G956" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H956">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I956">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J956" t="s">
         <v>52</v>
       </c>
       <c r="K956">
-        <v>1.869</v>
+        <v>2.05</v>
       </c>
       <c r="L956">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="M956">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="N956">
-        <v>2.05</v>
+        <v>2.375</v>
       </c>
       <c r="O956">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P956">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q956">
         <v>-0.25</v>
       </c>
       <c r="R956">
+        <v>2.025</v>
+      </c>
+      <c r="S956">
         <v>1.825</v>
       </c>
-      <c r="S956">
+      <c r="T956">
+        <v>2.25</v>
+      </c>
+      <c r="U956">
         <v>2.025</v>
       </c>
-      <c r="T956">
-        <v>2.75</v>
-      </c>
-      <c r="U956">
-        <v>1.9</v>
-      </c>
       <c r="V956">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W956">
-        <v>1.05</v>
+        <v>1.375</v>
       </c>
       <c r="X956">
         <v>-1</v>
@@ -85612,16 +85612,16 @@
         <v>-1</v>
       </c>
       <c r="Z956">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AA956">
         <v>-1</v>
       </c>
       <c r="AB956">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC956">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="957" spans="1:29">
@@ -85629,7 +85629,7 @@
         <v>955</v>
       </c>
       <c r="B957">
-        <v>6810143</v>
+        <v>6810139</v>
       </c>
       <c r="C957" t="s">
         <v>28</v>
@@ -85641,58 +85641,58 @@
         <v>45287.69791666666</v>
       </c>
       <c r="F957" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G957" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H957">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I957">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J957" t="s">
         <v>52</v>
       </c>
       <c r="K957">
+        <v>1.869</v>
+      </c>
+      <c r="L957">
+        <v>3.7</v>
+      </c>
+      <c r="M957">
+        <v>3.8</v>
+      </c>
+      <c r="N957">
         <v>2.05</v>
       </c>
-      <c r="L957">
-        <v>3.4</v>
-      </c>
-      <c r="M957">
-        <v>3.5</v>
-      </c>
-      <c r="N957">
-        <v>2.375</v>
-      </c>
       <c r="O957">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P957">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="Q957">
         <v>-0.25</v>
       </c>
       <c r="R957">
+        <v>1.825</v>
+      </c>
+      <c r="S957">
         <v>2.025</v>
       </c>
-      <c r="S957">
-        <v>1.825</v>
-      </c>
       <c r="T957">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U957">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V957">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W957">
-        <v>1.375</v>
+        <v>1.05</v>
       </c>
       <c r="X957">
         <v>-1</v>
@@ -85701,16 +85701,16 @@
         <v>-1</v>
       </c>
       <c r="Z957">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AA957">
         <v>-1</v>
       </c>
       <c r="AB957">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC957">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="958" spans="1:29">
@@ -86519,7 +86519,7 @@
         <v>965</v>
       </c>
       <c r="B967">
-        <v>6810158</v>
+        <v>6810159</v>
       </c>
       <c r="C967" t="s">
         <v>28</v>
@@ -86531,73 +86531,73 @@
         <v>45318.69791666666</v>
       </c>
       <c r="F967" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G967" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H967">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I967">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J967" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K967">
-        <v>1.363</v>
+        <v>5.5</v>
       </c>
       <c r="L967">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="M967">
-        <v>6.5</v>
+        <v>1.5</v>
       </c>
       <c r="N967">
-        <v>1.444</v>
+        <v>6</v>
       </c>
       <c r="O967">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P967">
-        <v>5.75</v>
+        <v>1.45</v>
       </c>
       <c r="Q967">
-        <v>-1.25</v>
+        <v>1.25</v>
       </c>
       <c r="R967">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S967">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T967">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U967">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V967">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W967">
         <v>-1</v>
       </c>
       <c r="X967">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y967">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z967">
         <v>-1</v>
       </c>
       <c r="AA967">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AB967">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AC967">
         <v>-1</v>
@@ -86608,7 +86608,7 @@
         <v>966</v>
       </c>
       <c r="B968">
-        <v>6810159</v>
+        <v>6810158</v>
       </c>
       <c r="C968" t="s">
         <v>28</v>
@@ -86620,73 +86620,73 @@
         <v>45318.69791666666</v>
       </c>
       <c r="F968" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G968" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H968">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I968">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J968" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K968">
-        <v>5.5</v>
+        <v>1.363</v>
       </c>
       <c r="L968">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="M968">
-        <v>1.5</v>
+        <v>6.5</v>
       </c>
       <c r="N968">
-        <v>6</v>
+        <v>1.444</v>
       </c>
       <c r="O968">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P968">
-        <v>1.45</v>
+        <v>5.75</v>
       </c>
       <c r="Q968">
-        <v>1.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R968">
+        <v>2</v>
+      </c>
+      <c r="S968">
+        <v>1.85</v>
+      </c>
+      <c r="T968">
+        <v>3</v>
+      </c>
+      <c r="U968">
+        <v>2.025</v>
+      </c>
+      <c r="V968">
         <v>1.825</v>
       </c>
-      <c r="S968">
-        <v>2.025</v>
-      </c>
-      <c r="T968">
-        <v>2.75</v>
-      </c>
-      <c r="U968">
-        <v>1.95</v>
-      </c>
-      <c r="V968">
-        <v>1.9</v>
-      </c>
       <c r="W968">
         <v>-1</v>
       </c>
       <c r="X968">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y968">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z968">
         <v>-1</v>
       </c>
       <c r="AA968">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB968">
         <v>1.025</v>
-      </c>
-      <c r="AB968">
-        <v>0.95</v>
       </c>
       <c r="AC968">
         <v>-1</v>
@@ -87053,7 +87053,7 @@
         <v>971</v>
       </c>
       <c r="B973">
-        <v>6810167</v>
+        <v>6810169</v>
       </c>
       <c r="C973" t="s">
         <v>28</v>
@@ -87065,46 +87065,46 @@
         <v>45321.6875</v>
       </c>
       <c r="F973" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G973" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K973">
-        <v>1.125</v>
+        <v>3.4</v>
       </c>
       <c r="L973">
-        <v>8.5</v>
+        <v>3.8</v>
       </c>
       <c r="M973">
-        <v>17</v>
+        <v>1.95</v>
       </c>
       <c r="N973">
-        <v>1.125</v>
+        <v>3.4</v>
       </c>
       <c r="O973">
-        <v>8.5</v>
+        <v>3.8</v>
       </c>
       <c r="P973">
-        <v>17</v>
+        <v>1.95</v>
       </c>
       <c r="Q973">
-        <v>-2.25</v>
+        <v>0.5</v>
       </c>
       <c r="R973">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S973">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T973">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U973">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V973">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W973">
         <v>0</v>
@@ -87127,7 +87127,7 @@
         <v>972</v>
       </c>
       <c r="B974">
-        <v>6810169</v>
+        <v>6810167</v>
       </c>
       <c r="C974" t="s">
         <v>28</v>
@@ -87139,46 +87139,46 @@
         <v>45321.6875</v>
       </c>
       <c r="F974" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G974" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K974">
-        <v>3.4</v>
+        <v>1.125</v>
       </c>
       <c r="L974">
-        <v>3.8</v>
+        <v>8.5</v>
       </c>
       <c r="M974">
-        <v>1.95</v>
+        <v>17</v>
       </c>
       <c r="N974">
-        <v>3.4</v>
+        <v>1.125</v>
       </c>
       <c r="O974">
-        <v>3.8</v>
+        <v>8.5</v>
       </c>
       <c r="P974">
-        <v>1.95</v>
+        <v>17</v>
       </c>
       <c r="Q974">
-        <v>0.5</v>
+        <v>-2.25</v>
       </c>
       <c r="R974">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S974">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T974">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U974">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V974">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W974">
         <v>0</v>
@@ -87201,7 +87201,7 @@
         <v>973</v>
       </c>
       <c r="B975">
-        <v>6810168</v>
+        <v>6810165</v>
       </c>
       <c r="C975" t="s">
         <v>28</v>
@@ -87213,46 +87213,46 @@
         <v>45322.61458333334</v>
       </c>
       <c r="F975" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G975" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="K975">
-        <v>4.5</v>
+        <v>1.6</v>
       </c>
       <c r="L975">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M975">
-        <v>1.666</v>
+        <v>5</v>
       </c>
       <c r="N975">
-        <v>4.75</v>
+        <v>1.615</v>
       </c>
       <c r="O975">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P975">
-        <v>1.615</v>
+        <v>5</v>
       </c>
       <c r="Q975">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R975">
+        <v>1.825</v>
+      </c>
+      <c r="S975">
         <v>2.025</v>
       </c>
-      <c r="S975">
-        <v>1.825</v>
-      </c>
       <c r="T975">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U975">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V975">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W975">
         <v>0</v>
@@ -87275,7 +87275,7 @@
         <v>974</v>
       </c>
       <c r="B976">
-        <v>6810165</v>
+        <v>6810168</v>
       </c>
       <c r="C976" t="s">
         <v>28</v>
@@ -87287,46 +87287,46 @@
         <v>45322.61458333334</v>
       </c>
       <c r="F976" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G976" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="K976">
-        <v>1.6</v>
+        <v>4.5</v>
       </c>
       <c r="L976">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M976">
-        <v>5</v>
+        <v>1.666</v>
       </c>
       <c r="N976">
+        <v>4.75</v>
+      </c>
+      <c r="O976">
+        <v>4.2</v>
+      </c>
+      <c r="P976">
         <v>1.615</v>
       </c>
-      <c r="O976">
-        <v>4</v>
-      </c>
-      <c r="P976">
-        <v>5</v>
-      </c>
       <c r="Q976">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R976">
+        <v>2.025</v>
+      </c>
+      <c r="S976">
         <v>1.825</v>
       </c>
-      <c r="S976">
-        <v>2.025</v>
-      </c>
       <c r="T976">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U976">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V976">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W976">
         <v>0</v>
@@ -87397,10 +87397,10 @@
         <v>3.25</v>
       </c>
       <c r="U977">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V977">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W977">
         <v>0</v>
@@ -87610,10 +87610,10 @@
         <v>0.25</v>
       </c>
       <c r="R980">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S980">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T980">
         <v>2.5</v>

--- a/Belgium First Division A/Belgium First Division A.xlsx
+++ b/Belgium First Division A/Belgium First Division A.xlsx
@@ -43087,7 +43087,7 @@
         <v>477</v>
       </c>
       <c r="B479">
-        <v>5208622</v>
+        <v>5208464</v>
       </c>
       <c r="C479" t="s">
         <v>28</v>
@@ -43099,34 +43099,34 @@
         <v>44772.55208333334</v>
       </c>
       <c r="F479" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G479" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="H479">
         <v>2</v>
       </c>
       <c r="I479">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J479" t="s">
         <v>52</v>
       </c>
       <c r="K479">
-        <v>1.85</v>
+        <v>2.4</v>
       </c>
       <c r="L479">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M479">
-        <v>3.75</v>
+        <v>2.625</v>
       </c>
       <c r="N479">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="O479">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P479">
         <v>2.15</v>
@@ -43135,22 +43135,22 @@
         <v>0.25</v>
       </c>
       <c r="R479">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S479">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T479">
         <v>2.75</v>
       </c>
       <c r="U479">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V479">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W479">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="X479">
         <v>-1</v>
@@ -43159,16 +43159,16 @@
         <v>-1</v>
       </c>
       <c r="Z479">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AA479">
         <v>-1</v>
       </c>
       <c r="AB479">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC479">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="480" spans="1:29">
@@ -43176,7 +43176,7 @@
         <v>478</v>
       </c>
       <c r="B480">
-        <v>5208464</v>
+        <v>5208622</v>
       </c>
       <c r="C480" t="s">
         <v>28</v>
@@ -43188,34 +43188,34 @@
         <v>44772.55208333334</v>
       </c>
       <c r="F480" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G480" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="H480">
         <v>2</v>
       </c>
       <c r="I480">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J480" t="s">
         <v>52</v>
       </c>
       <c r="K480">
-        <v>2.4</v>
+        <v>1.85</v>
       </c>
       <c r="L480">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M480">
-        <v>2.625</v>
+        <v>3.75</v>
       </c>
       <c r="N480">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="O480">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P480">
         <v>2.15</v>
@@ -43224,22 +43224,22 @@
         <v>0.25</v>
       </c>
       <c r="R480">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S480">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T480">
         <v>2.75</v>
       </c>
       <c r="U480">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V480">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W480">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="X480">
         <v>-1</v>
@@ -43248,16 +43248,16 @@
         <v>-1</v>
       </c>
       <c r="Z480">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AA480">
         <v>-1</v>
       </c>
       <c r="AB480">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC480">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="481" spans="1:29">
@@ -51720,7 +51720,7 @@
         <v>574</v>
       </c>
       <c r="B576">
-        <v>5208665</v>
+        <v>5208531</v>
       </c>
       <c r="C576" t="s">
         <v>28</v>
@@ -51732,73 +51732,73 @@
         <v>44852.5625</v>
       </c>
       <c r="F576" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G576" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H576">
+        <v>2</v>
+      </c>
+      <c r="I576">
+        <v>2</v>
+      </c>
+      <c r="J576" t="s">
+        <v>53</v>
+      </c>
+      <c r="K576">
+        <v>1.75</v>
+      </c>
+      <c r="L576">
+        <v>3.8</v>
+      </c>
+      <c r="M576">
+        <v>4.2</v>
+      </c>
+      <c r="N576">
+        <v>1.666</v>
+      </c>
+      <c r="O576">
         <v>4</v>
       </c>
-      <c r="I576">
-        <v>2</v>
-      </c>
-      <c r="J576" t="s">
-        <v>52</v>
-      </c>
-      <c r="K576">
-        <v>2.9</v>
-      </c>
-      <c r="L576">
-        <v>3.5</v>
-      </c>
-      <c r="M576">
-        <v>2.2</v>
-      </c>
-      <c r="N576">
-        <v>2.625</v>
-      </c>
-      <c r="O576">
-        <v>3.5</v>
-      </c>
       <c r="P576">
-        <v>2.45</v>
+        <v>4.5</v>
       </c>
       <c r="Q576">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R576">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S576">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T576">
         <v>2.75</v>
       </c>
       <c r="U576">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V576">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W576">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X576">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y576">
         <v>-1</v>
       </c>
       <c r="Z576">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA576">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB576">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AC576">
         <v>-1</v>
@@ -51809,7 +51809,7 @@
         <v>575</v>
       </c>
       <c r="B577">
-        <v>5208531</v>
+        <v>5208665</v>
       </c>
       <c r="C577" t="s">
         <v>28</v>
@@ -51821,73 +51821,73 @@
         <v>44852.5625</v>
       </c>
       <c r="F577" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G577" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H577">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I577">
         <v>2</v>
       </c>
       <c r="J577" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K577">
-        <v>1.75</v>
+        <v>2.9</v>
       </c>
       <c r="L577">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M577">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="N577">
-        <v>1.666</v>
+        <v>2.625</v>
       </c>
       <c r="O577">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P577">
-        <v>4.5</v>
+        <v>2.45</v>
       </c>
       <c r="Q577">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R577">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S577">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T577">
         <v>2.75</v>
       </c>
       <c r="U577">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V577">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W577">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X577">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y577">
         <v>-1</v>
       </c>
       <c r="Z577">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA577">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB577">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AC577">
         <v>-1</v>
@@ -52165,7 +52165,7 @@
         <v>579</v>
       </c>
       <c r="B581">
-        <v>5208664</v>
+        <v>5208527</v>
       </c>
       <c r="C581" t="s">
         <v>28</v>
@@ -52177,13 +52177,13 @@
         <v>44853.65625</v>
       </c>
       <c r="F581" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="G581" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H581">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I581">
         <v>0</v>
@@ -52192,43 +52192,43 @@
         <v>52</v>
       </c>
       <c r="K581">
-        <v>2.625</v>
+        <v>1.363</v>
       </c>
       <c r="L581">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="M581">
-        <v>2.55</v>
+        <v>7</v>
       </c>
       <c r="N581">
-        <v>2.25</v>
+        <v>1.571</v>
       </c>
       <c r="O581">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P581">
-        <v>3.1</v>
+        <v>5.25</v>
       </c>
       <c r="Q581">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R581">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S581">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T581">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U581">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V581">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W581">
-        <v>1.25</v>
+        <v>0.571</v>
       </c>
       <c r="X581">
         <v>-1</v>
@@ -52237,16 +52237,16 @@
         <v>-1</v>
       </c>
       <c r="Z581">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="AA581">
         <v>-1</v>
       </c>
       <c r="AB581">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC581">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="582" spans="1:29">
@@ -52254,7 +52254,7 @@
         <v>580</v>
       </c>
       <c r="B582">
-        <v>5208527</v>
+        <v>5208664</v>
       </c>
       <c r="C582" t="s">
         <v>28</v>
@@ -52266,13 +52266,13 @@
         <v>44853.65625</v>
       </c>
       <c r="F582" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="G582" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H582">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I582">
         <v>0</v>
@@ -52281,43 +52281,43 @@
         <v>52</v>
       </c>
       <c r="K582">
-        <v>1.363</v>
+        <v>2.625</v>
       </c>
       <c r="L582">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="M582">
-        <v>7</v>
+        <v>2.55</v>
       </c>
       <c r="N582">
-        <v>1.571</v>
+        <v>2.25</v>
       </c>
       <c r="O582">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P582">
-        <v>5.25</v>
+        <v>3.1</v>
       </c>
       <c r="Q582">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R582">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S582">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T582">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U582">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V582">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W582">
-        <v>0.571</v>
+        <v>1.25</v>
       </c>
       <c r="X582">
         <v>-1</v>
@@ -52326,16 +52326,16 @@
         <v>-1</v>
       </c>
       <c r="Z582">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AA582">
         <v>-1</v>
       </c>
       <c r="AB582">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC582">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="583" spans="1:29">
@@ -56704,7 +56704,7 @@
         <v>630</v>
       </c>
       <c r="B632">
-        <v>5208561</v>
+        <v>5208691</v>
       </c>
       <c r="C632" t="s">
         <v>28</v>
@@ -56716,49 +56716,49 @@
         <v>44933.59375</v>
       </c>
       <c r="F632" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G632" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H632">
+        <v>0</v>
+      </c>
+      <c r="I632">
         <v>1</v>
-      </c>
-      <c r="I632">
-        <v>2</v>
       </c>
       <c r="J632" t="s">
         <v>51</v>
       </c>
       <c r="K632">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="L632">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M632">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="N632">
-        <v>1.7</v>
+        <v>2.15</v>
       </c>
       <c r="O632">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P632">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="Q632">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R632">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S632">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T632">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U632">
         <v>1.925</v>
@@ -56773,19 +56773,19 @@
         <v>-1</v>
       </c>
       <c r="Y632">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="Z632">
         <v>-1</v>
       </c>
       <c r="AA632">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB632">
+        <v>-1</v>
+      </c>
+      <c r="AC632">
         <v>0.925</v>
-      </c>
-      <c r="AC632">
-        <v>-1</v>
       </c>
     </row>
     <row r="633" spans="1:29">
@@ -56793,7 +56793,7 @@
         <v>631</v>
       </c>
       <c r="B633">
-        <v>5208691</v>
+        <v>5208561</v>
       </c>
       <c r="C633" t="s">
         <v>28</v>
@@ -56805,49 +56805,49 @@
         <v>44933.59375</v>
       </c>
       <c r="F633" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G633" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H633">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I633">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J633" t="s">
         <v>51</v>
       </c>
       <c r="K633">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="L633">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M633">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="N633">
-        <v>2.15</v>
+        <v>1.7</v>
       </c>
       <c r="O633">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P633">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="Q633">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R633">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S633">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T633">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U633">
         <v>1.925</v>
@@ -56862,19 +56862,19 @@
         <v>-1</v>
       </c>
       <c r="Y633">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="Z633">
         <v>-1</v>
       </c>
       <c r="AA633">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB633">
         <v>0.925</v>
       </c>
-      <c r="AB633">
-        <v>-1</v>
-      </c>
       <c r="AC633">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="634" spans="1:29">
@@ -57505,7 +57505,7 @@
         <v>639</v>
       </c>
       <c r="B641">
-        <v>6114951</v>
+        <v>5208566</v>
       </c>
       <c r="C641" t="s">
         <v>28</v>
@@ -57517,76 +57517,76 @@
         <v>44940.59375</v>
       </c>
       <c r="F641" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G641" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H641">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I641">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J641" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K641">
+        <v>1.75</v>
+      </c>
+      <c r="L641">
+        <v>3.8</v>
+      </c>
+      <c r="M641">
+        <v>4.2</v>
+      </c>
+      <c r="N641">
+        <v>1.666</v>
+      </c>
+      <c r="O641">
+        <v>4</v>
+      </c>
+      <c r="P641">
+        <v>4.5</v>
+      </c>
+      <c r="Q641">
+        <v>-0.75</v>
+      </c>
+      <c r="R641">
+        <v>1.875</v>
+      </c>
+      <c r="S641">
+        <v>1.975</v>
+      </c>
+      <c r="T641">
         <v>2.75</v>
       </c>
-      <c r="L641">
-        <v>3.4</v>
-      </c>
-      <c r="M641">
-        <v>2.45</v>
-      </c>
-      <c r="N641">
-        <v>2.8</v>
-      </c>
-      <c r="O641">
-        <v>3.3</v>
-      </c>
-      <c r="P641">
-        <v>2.45</v>
-      </c>
-      <c r="Q641">
-        <v>0</v>
-      </c>
-      <c r="R641">
-        <v>2.05</v>
-      </c>
-      <c r="S641">
-        <v>1.8</v>
-      </c>
-      <c r="T641">
-        <v>2.5</v>
-      </c>
       <c r="U641">
+        <v>1.825</v>
+      </c>
+      <c r="V641">
         <v>2.025</v>
       </c>
-      <c r="V641">
-        <v>1.825</v>
-      </c>
       <c r="W641">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X641">
         <v>-1</v>
       </c>
       <c r="Y641">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z641">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA641">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB641">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AC641">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="642" spans="1:29">
@@ -57594,7 +57594,7 @@
         <v>640</v>
       </c>
       <c r="B642">
-        <v>5208566</v>
+        <v>6114951</v>
       </c>
       <c r="C642" t="s">
         <v>28</v>
@@ -57606,76 +57606,76 @@
         <v>44940.59375</v>
       </c>
       <c r="F642" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G642" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H642">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I642">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J642" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K642">
-        <v>1.75</v>
+        <v>2.75</v>
       </c>
       <c r="L642">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M642">
-        <v>4.2</v>
+        <v>2.45</v>
       </c>
       <c r="N642">
-        <v>1.666</v>
+        <v>2.8</v>
       </c>
       <c r="O642">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P642">
-        <v>4.5</v>
+        <v>2.45</v>
       </c>
       <c r="Q642">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R642">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S642">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T642">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U642">
+        <v>2.025</v>
+      </c>
+      <c r="V642">
         <v>1.825</v>
       </c>
-      <c r="V642">
-        <v>2.025</v>
-      </c>
       <c r="W642">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X642">
         <v>-1</v>
       </c>
       <c r="Y642">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z642">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA642">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB642">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC642">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="643" spans="1:29">
@@ -58573,7 +58573,7 @@
         <v>651</v>
       </c>
       <c r="B653">
-        <v>5208569</v>
+        <v>5208568</v>
       </c>
       <c r="C653" t="s">
         <v>28</v>
@@ -58585,73 +58585,73 @@
         <v>44944.69791666666</v>
       </c>
       <c r="F653" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G653" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="H653">
+        <v>2</v>
+      </c>
+      <c r="I653">
         <v>3</v>
       </c>
-      <c r="I653">
-        <v>2</v>
-      </c>
       <c r="J653" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K653">
-        <v>1.85</v>
+        <v>1.4</v>
       </c>
       <c r="L653">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M653">
-        <v>3.8</v>
+        <v>6.5</v>
       </c>
       <c r="N653">
-        <v>1.666</v>
+        <v>1.7</v>
       </c>
       <c r="O653">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P653">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="Q653">
         <v>-0.75</v>
       </c>
       <c r="R653">
+        <v>1.925</v>
+      </c>
+      <c r="S653">
+        <v>1.925</v>
+      </c>
+      <c r="T653">
+        <v>2.75</v>
+      </c>
+      <c r="U653">
+        <v>1.975</v>
+      </c>
+      <c r="V653">
         <v>1.875</v>
       </c>
-      <c r="S653">
-        <v>1.975</v>
-      </c>
-      <c r="T653">
-        <v>2.5</v>
-      </c>
-      <c r="U653">
-        <v>1.95</v>
-      </c>
-      <c r="V653">
-        <v>1.9</v>
-      </c>
       <c r="W653">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X653">
         <v>-1</v>
       </c>
       <c r="Y653">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z653">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA653">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB653">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC653">
         <v>-1</v>
@@ -58662,7 +58662,7 @@
         <v>652</v>
       </c>
       <c r="B654">
-        <v>5208568</v>
+        <v>5208569</v>
       </c>
       <c r="C654" t="s">
         <v>28</v>
@@ -58674,73 +58674,73 @@
         <v>44944.69791666666</v>
       </c>
       <c r="F654" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G654" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="H654">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I654">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J654" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K654">
-        <v>1.4</v>
+        <v>1.85</v>
       </c>
       <c r="L654">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M654">
-        <v>6.5</v>
+        <v>3.8</v>
       </c>
       <c r="N654">
-        <v>1.7</v>
+        <v>1.666</v>
       </c>
       <c r="O654">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P654">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="Q654">
         <v>-0.75</v>
       </c>
       <c r="R654">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S654">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T654">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U654">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V654">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W654">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X654">
         <v>-1</v>
       </c>
       <c r="Y654">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z654">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA654">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AB654">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC654">
         <v>-1</v>
@@ -59018,7 +59018,7 @@
         <v>656</v>
       </c>
       <c r="B658">
-        <v>5208575</v>
+        <v>5208577</v>
       </c>
       <c r="C658" t="s">
         <v>28</v>
@@ -59030,40 +59030,40 @@
         <v>44947.59375</v>
       </c>
       <c r="F658" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G658" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H658">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I658">
         <v>2</v>
       </c>
       <c r="J658" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K658">
-        <v>1.95</v>
+        <v>2.625</v>
       </c>
       <c r="L658">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M658">
+        <v>2.4</v>
+      </c>
+      <c r="N658">
+        <v>3.2</v>
+      </c>
+      <c r="O658">
         <v>3.4</v>
       </c>
-      <c r="N658">
-        <v>1.75</v>
-      </c>
-      <c r="O658">
-        <v>3.6</v>
-      </c>
       <c r="P658">
-        <v>4</v>
+        <v>2.05</v>
       </c>
       <c r="Q658">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R658">
         <v>2.025</v>
@@ -59072,34 +59072,34 @@
         <v>1.825</v>
       </c>
       <c r="T658">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U658">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V658">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W658">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X658">
         <v>-1</v>
       </c>
       <c r="Y658">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z658">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AA658">
+        <v>0.825</v>
+      </c>
+      <c r="AB658">
+        <v>0.475</v>
+      </c>
+      <c r="AC658">
         <v>-0.5</v>
-      </c>
-      <c r="AB658">
-        <v>1</v>
-      </c>
-      <c r="AC658">
-        <v>-1</v>
       </c>
     </row>
     <row r="659" spans="1:29">
@@ -59107,7 +59107,7 @@
         <v>657</v>
       </c>
       <c r="B659">
-        <v>5208577</v>
+        <v>5208575</v>
       </c>
       <c r="C659" t="s">
         <v>28</v>
@@ -59119,40 +59119,40 @@
         <v>44947.59375</v>
       </c>
       <c r="F659" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G659" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H659">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I659">
         <v>2</v>
       </c>
       <c r="J659" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K659">
-        <v>2.625</v>
+        <v>1.95</v>
       </c>
       <c r="L659">
+        <v>3.5</v>
+      </c>
+      <c r="M659">
         <v>3.4</v>
       </c>
-      <c r="M659">
-        <v>2.4</v>
-      </c>
       <c r="N659">
-        <v>3.2</v>
+        <v>1.75</v>
       </c>
       <c r="O659">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P659">
-        <v>2.05</v>
+        <v>4</v>
       </c>
       <c r="Q659">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R659">
         <v>2.025</v>
@@ -59161,34 +59161,34 @@
         <v>1.825</v>
       </c>
       <c r="T659">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U659">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V659">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W659">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X659">
         <v>-1</v>
       </c>
       <c r="Y659">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z659">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA659">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB659">
-        <v>0.475</v>
+        <v>1</v>
       </c>
       <c r="AC659">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="660" spans="1:29">
@@ -87053,7 +87053,7 @@
         <v>971</v>
       </c>
       <c r="B973">
-        <v>6810169</v>
+        <v>6810167</v>
       </c>
       <c r="C973" t="s">
         <v>28</v>
@@ -87065,46 +87065,46 @@
         <v>45321.6875</v>
       </c>
       <c r="F973" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G973" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K973">
-        <v>3.4</v>
+        <v>1.125</v>
       </c>
       <c r="L973">
-        <v>3.8</v>
+        <v>8.5</v>
       </c>
       <c r="M973">
-        <v>1.95</v>
+        <v>17</v>
       </c>
       <c r="N973">
-        <v>3.4</v>
+        <v>1.125</v>
       </c>
       <c r="O973">
-        <v>3.8</v>
+        <v>8.5</v>
       </c>
       <c r="P973">
-        <v>1.95</v>
+        <v>17</v>
       </c>
       <c r="Q973">
-        <v>0.5</v>
+        <v>-2.25</v>
       </c>
       <c r="R973">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S973">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T973">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U973">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V973">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W973">
         <v>0</v>
@@ -87127,7 +87127,7 @@
         <v>972</v>
       </c>
       <c r="B974">
-        <v>6810167</v>
+        <v>6810169</v>
       </c>
       <c r="C974" t="s">
         <v>28</v>
@@ -87139,46 +87139,46 @@
         <v>45321.6875</v>
       </c>
       <c r="F974" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G974" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K974">
-        <v>1.125</v>
+        <v>3.4</v>
       </c>
       <c r="L974">
-        <v>8.5</v>
+        <v>3.8</v>
       </c>
       <c r="M974">
-        <v>17</v>
+        <v>1.95</v>
       </c>
       <c r="N974">
-        <v>1.125</v>
+        <v>3.4</v>
       </c>
       <c r="O974">
-        <v>8.5</v>
+        <v>3.8</v>
       </c>
       <c r="P974">
-        <v>17</v>
+        <v>1.95</v>
       </c>
       <c r="Q974">
-        <v>-2.25</v>
+        <v>0.5</v>
       </c>
       <c r="R974">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S974">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T974">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U974">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V974">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W974">
         <v>0</v>
@@ -87240,10 +87240,10 @@
         <v>-0.75</v>
       </c>
       <c r="R975">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S975">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T975">
         <v>2.75</v>
@@ -87388,10 +87388,10 @@
         <v>-2</v>
       </c>
       <c r="R977">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S977">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T977">
         <v>3.25</v>

--- a/Belgium First Division A/Belgium First Division A.xlsx
+++ b/Belgium First Division A/Belgium First Division A.xlsx
@@ -48694,7 +48694,7 @@
         <v>540</v>
       </c>
       <c r="B542">
-        <v>5208504</v>
+        <v>5208503</v>
       </c>
       <c r="C542" t="s">
         <v>28</v>
@@ -48706,73 +48706,73 @@
         <v>44821.55208333334</v>
       </c>
       <c r="F542" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G542" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H542">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I542">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J542" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K542">
-        <v>3.1</v>
+        <v>1.7</v>
       </c>
       <c r="L542">
+        <v>3.6</v>
+      </c>
+      <c r="M542">
+        <v>4.75</v>
+      </c>
+      <c r="N542">
+        <v>1.95</v>
+      </c>
+      <c r="O542">
         <v>3.3</v>
       </c>
-      <c r="M542">
+      <c r="P542">
+        <v>3.8</v>
+      </c>
+      <c r="Q542">
+        <v>-0.5</v>
+      </c>
+      <c r="R542">
+        <v>1.95</v>
+      </c>
+      <c r="S542">
+        <v>1.9</v>
+      </c>
+      <c r="T542">
+        <v>2.5</v>
+      </c>
+      <c r="U542">
+        <v>1.85</v>
+      </c>
+      <c r="V542">
+        <v>2</v>
+      </c>
+      <c r="W542">
+        <v>-1</v>
+      </c>
+      <c r="X542">
         <v>2.3</v>
       </c>
-      <c r="N542">
-        <v>3.4</v>
-      </c>
-      <c r="O542">
-        <v>3.1</v>
-      </c>
-      <c r="P542">
-        <v>2.3</v>
-      </c>
-      <c r="Q542">
-        <v>0.25</v>
-      </c>
-      <c r="R542">
-        <v>1.875</v>
-      </c>
-      <c r="S542">
-        <v>1.975</v>
-      </c>
-      <c r="T542">
-        <v>2.25</v>
-      </c>
-      <c r="U542">
-        <v>2</v>
-      </c>
-      <c r="V542">
-        <v>1.85</v>
-      </c>
-      <c r="W542">
-        <v>-1</v>
-      </c>
-      <c r="X542">
-        <v>-1</v>
-      </c>
       <c r="Y542">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z542">
         <v>-1</v>
       </c>
       <c r="AA542">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB542">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC542">
         <v>-1</v>
@@ -48783,7 +48783,7 @@
         <v>541</v>
       </c>
       <c r="B543">
-        <v>5208503</v>
+        <v>5208504</v>
       </c>
       <c r="C543" t="s">
         <v>28</v>
@@ -48795,73 +48795,73 @@
         <v>44821.55208333334</v>
       </c>
       <c r="F543" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G543" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H543">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I543">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J543" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K543">
-        <v>1.7</v>
+        <v>3.1</v>
       </c>
       <c r="L543">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M543">
-        <v>4.75</v>
+        <v>2.3</v>
       </c>
       <c r="N543">
-        <v>1.95</v>
+        <v>3.4</v>
       </c>
       <c r="O543">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P543">
-        <v>3.8</v>
+        <v>2.3</v>
       </c>
       <c r="Q543">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R543">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S543">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T543">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U543">
+        <v>2</v>
+      </c>
+      <c r="V543">
         <v>1.85</v>
       </c>
-      <c r="V543">
-        <v>2</v>
-      </c>
       <c r="W543">
         <v>-1</v>
       </c>
       <c r="X543">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y543">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z543">
         <v>-1</v>
       </c>
       <c r="AA543">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB543">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC543">
         <v>-1</v>
@@ -56704,7 +56704,7 @@
         <v>630</v>
       </c>
       <c r="B632">
-        <v>5208691</v>
+        <v>5208561</v>
       </c>
       <c r="C632" t="s">
         <v>28</v>
@@ -56716,49 +56716,49 @@
         <v>44933.59375</v>
       </c>
       <c r="F632" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G632" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H632">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I632">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J632" t="s">
         <v>51</v>
       </c>
       <c r="K632">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="L632">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M632">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="N632">
-        <v>2.15</v>
+        <v>1.7</v>
       </c>
       <c r="O632">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P632">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="Q632">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R632">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S632">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T632">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U632">
         <v>1.925</v>
@@ -56773,19 +56773,19 @@
         <v>-1</v>
       </c>
       <c r="Y632">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="Z632">
         <v>-1</v>
       </c>
       <c r="AA632">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB632">
         <v>0.925</v>
       </c>
-      <c r="AB632">
-        <v>-1</v>
-      </c>
       <c r="AC632">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="633" spans="1:29">
@@ -56793,7 +56793,7 @@
         <v>631</v>
       </c>
       <c r="B633">
-        <v>5208561</v>
+        <v>5208691</v>
       </c>
       <c r="C633" t="s">
         <v>28</v>
@@ -56805,49 +56805,49 @@
         <v>44933.59375</v>
       </c>
       <c r="F633" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G633" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H633">
+        <v>0</v>
+      </c>
+      <c r="I633">
         <v>1</v>
-      </c>
-      <c r="I633">
-        <v>2</v>
       </c>
       <c r="J633" t="s">
         <v>51</v>
       </c>
       <c r="K633">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="L633">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M633">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="N633">
-        <v>1.7</v>
+        <v>2.15</v>
       </c>
       <c r="O633">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P633">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="Q633">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R633">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S633">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T633">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U633">
         <v>1.925</v>
@@ -56862,19 +56862,19 @@
         <v>-1</v>
       </c>
       <c r="Y633">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="Z633">
         <v>-1</v>
       </c>
       <c r="AA633">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB633">
+        <v>-1</v>
+      </c>
+      <c r="AC633">
         <v>0.925</v>
-      </c>
-      <c r="AC633">
-        <v>-1</v>
       </c>
     </row>
     <row r="634" spans="1:29">
@@ -57505,7 +57505,7 @@
         <v>639</v>
       </c>
       <c r="B641">
-        <v>5208566</v>
+        <v>6114951</v>
       </c>
       <c r="C641" t="s">
         <v>28</v>
@@ -57517,76 +57517,76 @@
         <v>44940.59375</v>
       </c>
       <c r="F641" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G641" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H641">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I641">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J641" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K641">
-        <v>1.75</v>
+        <v>2.75</v>
       </c>
       <c r="L641">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M641">
-        <v>4.2</v>
+        <v>2.45</v>
       </c>
       <c r="N641">
-        <v>1.666</v>
+        <v>2.8</v>
       </c>
       <c r="O641">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P641">
-        <v>4.5</v>
+        <v>2.45</v>
       </c>
       <c r="Q641">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R641">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S641">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T641">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U641">
+        <v>2.025</v>
+      </c>
+      <c r="V641">
         <v>1.825</v>
       </c>
-      <c r="V641">
-        <v>2.025</v>
-      </c>
       <c r="W641">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X641">
         <v>-1</v>
       </c>
       <c r="Y641">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z641">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA641">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB641">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC641">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="642" spans="1:29">
@@ -57594,7 +57594,7 @@
         <v>640</v>
       </c>
       <c r="B642">
-        <v>6114951</v>
+        <v>5208566</v>
       </c>
       <c r="C642" t="s">
         <v>28</v>
@@ -57606,76 +57606,76 @@
         <v>44940.59375</v>
       </c>
       <c r="F642" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G642" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H642">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I642">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J642" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K642">
+        <v>1.75</v>
+      </c>
+      <c r="L642">
+        <v>3.8</v>
+      </c>
+      <c r="M642">
+        <v>4.2</v>
+      </c>
+      <c r="N642">
+        <v>1.666</v>
+      </c>
+      <c r="O642">
+        <v>4</v>
+      </c>
+      <c r="P642">
+        <v>4.5</v>
+      </c>
+      <c r="Q642">
+        <v>-0.75</v>
+      </c>
+      <c r="R642">
+        <v>1.875</v>
+      </c>
+      <c r="S642">
+        <v>1.975</v>
+      </c>
+      <c r="T642">
         <v>2.75</v>
       </c>
-      <c r="L642">
-        <v>3.4</v>
-      </c>
-      <c r="M642">
-        <v>2.45</v>
-      </c>
-      <c r="N642">
-        <v>2.8</v>
-      </c>
-      <c r="O642">
-        <v>3.3</v>
-      </c>
-      <c r="P642">
-        <v>2.45</v>
-      </c>
-      <c r="Q642">
-        <v>0</v>
-      </c>
-      <c r="R642">
-        <v>2.05</v>
-      </c>
-      <c r="S642">
-        <v>1.8</v>
-      </c>
-      <c r="T642">
-        <v>2.5</v>
-      </c>
       <c r="U642">
+        <v>1.825</v>
+      </c>
+      <c r="V642">
         <v>2.025</v>
       </c>
-      <c r="V642">
-        <v>1.825</v>
-      </c>
       <c r="W642">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X642">
         <v>-1</v>
       </c>
       <c r="Y642">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z642">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA642">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB642">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AC642">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="643" spans="1:29">
@@ -58395,7 +58395,7 @@
         <v>649</v>
       </c>
       <c r="B651">
-        <v>5208571</v>
+        <v>5208701</v>
       </c>
       <c r="C651" t="s">
         <v>28</v>
@@ -58407,76 +58407,76 @@
         <v>44944.60416666666</v>
       </c>
       <c r="F651" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G651" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="H651">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I651">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J651" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K651">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="L651">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M651">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="N651">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="O651">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P651">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="Q651">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R651">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S651">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T651">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U651">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V651">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W651">
         <v>-1</v>
       </c>
       <c r="X651">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y651">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z651">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AA651">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB651">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC651">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="652" spans="1:29">
@@ -58484,7 +58484,7 @@
         <v>650</v>
       </c>
       <c r="B652">
-        <v>5208701</v>
+        <v>5208571</v>
       </c>
       <c r="C652" t="s">
         <v>28</v>
@@ -58496,76 +58496,76 @@
         <v>44944.60416666666</v>
       </c>
       <c r="F652" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G652" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H652">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I652">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J652" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K652">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="L652">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M652">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="N652">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="O652">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P652">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="Q652">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R652">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S652">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T652">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U652">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V652">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W652">
         <v>-1</v>
       </c>
       <c r="X652">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y652">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z652">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA652">
+        <v>0.875</v>
+      </c>
+      <c r="AB652">
+        <v>0.5</v>
+      </c>
+      <c r="AC652">
         <v>-0.5</v>
-      </c>
-      <c r="AB652">
-        <v>-1</v>
-      </c>
-      <c r="AC652">
-        <v>0.8</v>
       </c>
     </row>
     <row r="653" spans="1:29">
@@ -59819,7 +59819,7 @@
         <v>665</v>
       </c>
       <c r="B667">
-        <v>5208579</v>
+        <v>5208580</v>
       </c>
       <c r="C667" t="s">
         <v>28</v>
@@ -59831,34 +59831,34 @@
         <v>44954.59375</v>
       </c>
       <c r="F667" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G667" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H667">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I667">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J667" t="s">
         <v>53</v>
       </c>
       <c r="K667">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="L667">
         <v>3.4</v>
       </c>
       <c r="M667">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="N667">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="O667">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P667">
         <v>3.1</v>
@@ -59867,25 +59867,25 @@
         <v>-0.25</v>
       </c>
       <c r="R667">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S667">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T667">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U667">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V667">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W667">
         <v>-1</v>
       </c>
       <c r="X667">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="Y667">
         <v>-1</v>
@@ -59894,13 +59894,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA667">
-        <v>0.4375</v>
+        <v>0.475</v>
       </c>
       <c r="AB667">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC667">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="668" spans="1:29">
@@ -59908,7 +59908,7 @@
         <v>666</v>
       </c>
       <c r="B668">
-        <v>5208580</v>
+        <v>5208579</v>
       </c>
       <c r="C668" t="s">
         <v>28</v>
@@ -59920,34 +59920,34 @@
         <v>44954.59375</v>
       </c>
       <c r="F668" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G668" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H668">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I668">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J668" t="s">
         <v>53</v>
       </c>
       <c r="K668">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="L668">
         <v>3.4</v>
       </c>
       <c r="M668">
+        <v>3</v>
+      </c>
+      <c r="N668">
+        <v>2.2</v>
+      </c>
+      <c r="O668">
         <v>3.2</v>
-      </c>
-      <c r="N668">
-        <v>2.1</v>
-      </c>
-      <c r="O668">
-        <v>3.4</v>
       </c>
       <c r="P668">
         <v>3.1</v>
@@ -59956,25 +59956,25 @@
         <v>-0.25</v>
       </c>
       <c r="R668">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S668">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T668">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U668">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V668">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W668">
         <v>-1</v>
       </c>
       <c r="X668">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="Y668">
         <v>-1</v>
@@ -59983,13 +59983,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA668">
-        <v>0.475</v>
+        <v>0.4375</v>
       </c>
       <c r="AB668">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC668">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="669" spans="1:29">
@@ -68719,7 +68719,7 @@
         <v>765</v>
       </c>
       <c r="B767">
-        <v>6389819</v>
+        <v>6390066</v>
       </c>
       <c r="C767" t="s">
         <v>28</v>
@@ -68731,73 +68731,73 @@
         <v>45039.5625</v>
       </c>
       <c r="F767" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G767" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="H767">
         <v>2</v>
       </c>
       <c r="I767">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J767" t="s">
         <v>51</v>
       </c>
       <c r="K767">
-        <v>5.25</v>
+        <v>3</v>
       </c>
       <c r="L767">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M767">
-        <v>1.533</v>
+        <v>2.15</v>
       </c>
       <c r="N767">
-        <v>6.5</v>
+        <v>2.8</v>
       </c>
       <c r="O767">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P767">
-        <v>1.4</v>
+        <v>2.25</v>
       </c>
       <c r="Q767">
+        <v>0.25</v>
+      </c>
+      <c r="R767">
+        <v>1.825</v>
+      </c>
+      <c r="S767">
+        <v>2.025</v>
+      </c>
+      <c r="T767">
+        <v>3</v>
+      </c>
+      <c r="U767">
+        <v>1.8</v>
+      </c>
+      <c r="V767">
+        <v>2.05</v>
+      </c>
+      <c r="W767">
+        <v>-1</v>
+      </c>
+      <c r="X767">
+        <v>-1</v>
+      </c>
+      <c r="Y767">
         <v>1.25</v>
       </c>
-      <c r="R767">
-        <v>1.9</v>
-      </c>
-      <c r="S767">
-        <v>1.95</v>
-      </c>
-      <c r="T767">
-        <v>3.25</v>
-      </c>
-      <c r="U767">
-        <v>2</v>
-      </c>
-      <c r="V767">
-        <v>1.85</v>
-      </c>
-      <c r="W767">
-        <v>-1</v>
-      </c>
-      <c r="X767">
-        <v>-1</v>
-      </c>
-      <c r="Y767">
-        <v>0.3999999999999999</v>
-      </c>
       <c r="Z767">
         <v>-1</v>
       </c>
       <c r="AA767">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AB767">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AC767">
         <v>-1</v>
@@ -68808,7 +68808,7 @@
         <v>766</v>
       </c>
       <c r="B768">
-        <v>6389865</v>
+        <v>6389819</v>
       </c>
       <c r="C768" t="s">
         <v>28</v>
@@ -68820,73 +68820,73 @@
         <v>45039.5625</v>
       </c>
       <c r="F768" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G768" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H768">
         <v>2</v>
       </c>
       <c r="I768">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J768" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K768">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="L768">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M768">
+        <v>1.533</v>
+      </c>
+      <c r="N768">
+        <v>6.5</v>
+      </c>
+      <c r="O768">
+        <v>4.75</v>
+      </c>
+      <c r="P768">
+        <v>1.4</v>
+      </c>
+      <c r="Q768">
+        <v>1.25</v>
+      </c>
+      <c r="R768">
+        <v>1.9</v>
+      </c>
+      <c r="S768">
         <v>1.95</v>
       </c>
-      <c r="N768">
-        <v>2.8</v>
-      </c>
-      <c r="O768">
-        <v>3.5</v>
-      </c>
-      <c r="P768">
-        <v>2.3</v>
-      </c>
-      <c r="Q768">
-        <v>0.25</v>
-      </c>
-      <c r="R768">
-        <v>1.8</v>
-      </c>
-      <c r="S768">
-        <v>2.05</v>
-      </c>
       <c r="T768">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U768">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V768">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W768">
         <v>-1</v>
       </c>
       <c r="X768">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y768">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z768">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA768">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB768">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AC768">
         <v>-1</v>
@@ -68897,7 +68897,7 @@
         <v>767</v>
       </c>
       <c r="B769">
-        <v>6390693</v>
+        <v>6389865</v>
       </c>
       <c r="C769" t="s">
         <v>28</v>
@@ -68909,73 +68909,73 @@
         <v>45039.5625</v>
       </c>
       <c r="F769" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G769" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="H769">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I769">
         <v>2</v>
       </c>
       <c r="J769" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K769">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="L769">
         <v>3.6</v>
       </c>
       <c r="M769">
-        <v>2.45</v>
+        <v>1.95</v>
       </c>
       <c r="N769">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="O769">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P769">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="Q769">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R769">
+        <v>1.8</v>
+      </c>
+      <c r="S769">
+        <v>2.05</v>
+      </c>
+      <c r="T769">
+        <v>3</v>
+      </c>
+      <c r="U769">
+        <v>1.95</v>
+      </c>
+      <c r="V769">
         <v>1.9</v>
       </c>
-      <c r="S769">
-        <v>1.95</v>
-      </c>
-      <c r="T769">
-        <v>3.25</v>
-      </c>
-      <c r="U769">
-        <v>2</v>
-      </c>
-      <c r="V769">
-        <v>1.85</v>
-      </c>
       <c r="W769">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X769">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y769">
         <v>-1</v>
       </c>
       <c r="Z769">
-        <v>0.8999999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="AA769">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB769">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AC769">
         <v>-1</v>
@@ -68986,7 +68986,7 @@
         <v>768</v>
       </c>
       <c r="B770">
-        <v>6385540</v>
+        <v>6390693</v>
       </c>
       <c r="C770" t="s">
         <v>28</v>
@@ -68998,73 +68998,73 @@
         <v>45039.5625</v>
       </c>
       <c r="F770" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G770" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H770">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I770">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J770" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K770">
-        <v>1.363</v>
+        <v>2.5</v>
       </c>
       <c r="L770">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M770">
-        <v>7</v>
+        <v>2.45</v>
       </c>
       <c r="N770">
-        <v>1.55</v>
+        <v>2.4</v>
       </c>
       <c r="O770">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P770">
-        <v>5</v>
+        <v>2.45</v>
       </c>
       <c r="Q770">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R770">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S770">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T770">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U770">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V770">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W770">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X770">
         <v>-1</v>
       </c>
       <c r="Y770">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z770">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA770">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB770">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AC770">
         <v>-1</v>
@@ -69075,7 +69075,7 @@
         <v>769</v>
       </c>
       <c r="B771">
-        <v>6390066</v>
+        <v>6385540</v>
       </c>
       <c r="C771" t="s">
         <v>28</v>
@@ -69087,10 +69087,10 @@
         <v>45039.5625</v>
       </c>
       <c r="F771" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G771" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H771">
         <v>2</v>
@@ -69102,40 +69102,40 @@
         <v>51</v>
       </c>
       <c r="K771">
-        <v>3</v>
+        <v>1.363</v>
       </c>
       <c r="L771">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M771">
-        <v>2.15</v>
+        <v>7</v>
       </c>
       <c r="N771">
-        <v>2.8</v>
+        <v>1.55</v>
       </c>
       <c r="O771">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P771">
-        <v>2.25</v>
+        <v>5</v>
       </c>
       <c r="Q771">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R771">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S771">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T771">
         <v>3</v>
       </c>
       <c r="U771">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V771">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W771">
         <v>-1</v>
@@ -69144,16 +69144,16 @@
         <v>-1</v>
       </c>
       <c r="Y771">
-        <v>1.25</v>
+        <v>4</v>
       </c>
       <c r="Z771">
         <v>-1</v>
       </c>
       <c r="AA771">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AB771">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AC771">
         <v>-1</v>
@@ -86519,7 +86519,7 @@
         <v>965</v>
       </c>
       <c r="B967">
-        <v>6810159</v>
+        <v>6810158</v>
       </c>
       <c r="C967" t="s">
         <v>28</v>
@@ -86531,73 +86531,73 @@
         <v>45318.69791666666</v>
       </c>
       <c r="F967" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G967" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H967">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I967">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J967" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K967">
-        <v>5.5</v>
+        <v>1.363</v>
       </c>
       <c r="L967">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="M967">
-        <v>1.5</v>
+        <v>6.5</v>
       </c>
       <c r="N967">
-        <v>6</v>
+        <v>1.444</v>
       </c>
       <c r="O967">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P967">
-        <v>1.45</v>
+        <v>5.75</v>
       </c>
       <c r="Q967">
-        <v>1.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R967">
+        <v>2</v>
+      </c>
+      <c r="S967">
+        <v>1.85</v>
+      </c>
+      <c r="T967">
+        <v>3</v>
+      </c>
+      <c r="U967">
+        <v>2.025</v>
+      </c>
+      <c r="V967">
         <v>1.825</v>
       </c>
-      <c r="S967">
-        <v>2.025</v>
-      </c>
-      <c r="T967">
-        <v>2.75</v>
-      </c>
-      <c r="U967">
-        <v>1.95</v>
-      </c>
-      <c r="V967">
-        <v>1.9</v>
-      </c>
       <c r="W967">
         <v>-1</v>
       </c>
       <c r="X967">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y967">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z967">
         <v>-1</v>
       </c>
       <c r="AA967">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB967">
         <v>1.025</v>
-      </c>
-      <c r="AB967">
-        <v>0.95</v>
       </c>
       <c r="AC967">
         <v>-1</v>
@@ -86608,7 +86608,7 @@
         <v>966</v>
       </c>
       <c r="B968">
-        <v>6810158</v>
+        <v>6810159</v>
       </c>
       <c r="C968" t="s">
         <v>28</v>
@@ -86620,73 +86620,73 @@
         <v>45318.69791666666</v>
       </c>
       <c r="F968" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G968" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H968">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I968">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J968" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K968">
-        <v>1.363</v>
+        <v>5.5</v>
       </c>
       <c r="L968">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="M968">
-        <v>6.5</v>
+        <v>1.5</v>
       </c>
       <c r="N968">
-        <v>1.444</v>
+        <v>6</v>
       </c>
       <c r="O968">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P968">
-        <v>5.75</v>
+        <v>1.45</v>
       </c>
       <c r="Q968">
-        <v>-1.25</v>
+        <v>1.25</v>
       </c>
       <c r="R968">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S968">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T968">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U968">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V968">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W968">
         <v>-1</v>
       </c>
       <c r="X968">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y968">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z968">
         <v>-1</v>
       </c>
       <c r="AA968">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AB968">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AC968">
         <v>-1</v>
@@ -87080,31 +87080,31 @@
         <v>17</v>
       </c>
       <c r="N973">
-        <v>1.125</v>
+        <v>1.111</v>
       </c>
       <c r="O973">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="P973">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Q973">
-        <v>-2.25</v>
+        <v>-2.5</v>
       </c>
       <c r="R973">
+        <v>2</v>
+      </c>
+      <c r="S973">
         <v>1.85</v>
-      </c>
-      <c r="S973">
-        <v>2</v>
       </c>
       <c r="T973">
         <v>3.5</v>
       </c>
       <c r="U973">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V973">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W973">
         <v>0</v>
@@ -87166,10 +87166,10 @@
         <v>0.5</v>
       </c>
       <c r="R974">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S974">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T974">
         <v>2.75</v>
@@ -87240,10 +87240,10 @@
         <v>-0.75</v>
       </c>
       <c r="R975">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S975">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T975">
         <v>2.75</v>
@@ -87497,7 +87497,7 @@
         <v>977</v>
       </c>
       <c r="B979">
-        <v>6810163</v>
+        <v>6810166</v>
       </c>
       <c r="C979" t="s">
         <v>28</v>
@@ -87509,46 +87509,46 @@
         <v>45323.6875</v>
       </c>
       <c r="F979" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G979" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K979">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L979">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M979">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="N979">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="O979">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P979">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="Q979">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R979">
+        <v>2</v>
+      </c>
+      <c r="S979">
         <v>1.85</v>
-      </c>
-      <c r="S979">
-        <v>2</v>
       </c>
       <c r="T979">
         <v>2.5</v>
       </c>
       <c r="U979">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V979">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W979">
         <v>0</v>
@@ -87571,7 +87571,7 @@
         <v>978</v>
       </c>
       <c r="B980">
-        <v>6810166</v>
+        <v>6810163</v>
       </c>
       <c r="C980" t="s">
         <v>28</v>
@@ -87583,46 +87583,46 @@
         <v>45323.6875</v>
       </c>
       <c r="F980" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G980" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K980">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="L980">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M980">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="N980">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="O980">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P980">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="Q980">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R980">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S980">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T980">
         <v>2.5</v>
       </c>
       <c r="U980">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V980">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W980">
         <v>0</v>

--- a/Belgium First Division A/Belgium First Division A.xlsx
+++ b/Belgium First Division A/Belgium First Division A.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4915" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4907" uniqueCount="54">
   <si>
     <t>id</t>
   </si>
@@ -537,7 +537,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC980"/>
+  <dimension ref="A1:AC978"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -28758,7 +28758,7 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>3639281</v>
+        <v>3640848</v>
       </c>
       <c r="C318" t="s">
         <v>28</v>
@@ -28770,76 +28770,76 @@
         <v>44545.61458333334</v>
       </c>
       <c r="F318" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G318" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I318">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J318" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K318">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="L318">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M318">
-        <v>1.533</v>
+        <v>2</v>
       </c>
       <c r="N318">
-        <v>7.5</v>
+        <v>4.5</v>
       </c>
       <c r="O318">
-        <v>5.25</v>
+        <v>3.75</v>
       </c>
       <c r="P318">
-        <v>1.363</v>
+        <v>1.75</v>
       </c>
       <c r="Q318">
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="R318">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S318">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T318">
+        <v>2.75</v>
+      </c>
+      <c r="U318">
+        <v>1.925</v>
+      </c>
+      <c r="V318">
+        <v>1.925</v>
+      </c>
+      <c r="W318">
         <v>3.5</v>
       </c>
-      <c r="U318">
-        <v>1.9</v>
-      </c>
-      <c r="V318">
-        <v>1.95</v>
-      </c>
-      <c r="W318">
-        <v>-1</v>
-      </c>
       <c r="X318">
         <v>-1</v>
       </c>
       <c r="Y318">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Z318">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA318">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB318">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC318">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="319" spans="1:29">
@@ -28847,7 +28847,7 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>3640848</v>
+        <v>3639281</v>
       </c>
       <c r="C319" t="s">
         <v>28</v>
@@ -28859,76 +28859,76 @@
         <v>44545.61458333334</v>
       </c>
       <c r="F319" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G319" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="H319">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I319">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J319" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K319">
+        <v>5.5</v>
+      </c>
+      <c r="L319">
+        <v>4.333</v>
+      </c>
+      <c r="M319">
+        <v>1.533</v>
+      </c>
+      <c r="N319">
+        <v>7.5</v>
+      </c>
+      <c r="O319">
+        <v>5.25</v>
+      </c>
+      <c r="P319">
+        <v>1.363</v>
+      </c>
+      <c r="Q319">
+        <v>1.5</v>
+      </c>
+      <c r="R319">
+        <v>1.875</v>
+      </c>
+      <c r="S319">
+        <v>1.975</v>
+      </c>
+      <c r="T319">
         <v>3.5</v>
       </c>
-      <c r="L319">
-        <v>3.6</v>
-      </c>
-      <c r="M319">
-        <v>2</v>
-      </c>
-      <c r="N319">
-        <v>4.5</v>
-      </c>
-      <c r="O319">
-        <v>3.75</v>
-      </c>
-      <c r="P319">
-        <v>1.75</v>
-      </c>
-      <c r="Q319">
-        <v>0.75</v>
-      </c>
-      <c r="R319">
-        <v>1.8</v>
-      </c>
-      <c r="S319">
-        <v>2.05</v>
-      </c>
-      <c r="T319">
-        <v>2.75</v>
-      </c>
       <c r="U319">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V319">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W319">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="X319">
         <v>-1</v>
       </c>
       <c r="Y319">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Z319">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA319">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB319">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC319">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="320" spans="1:29">
@@ -30538,7 +30538,7 @@
         <v>336</v>
       </c>
       <c r="B338">
-        <v>3640863</v>
+        <v>3640944</v>
       </c>
       <c r="C338" t="s">
         <v>28</v>
@@ -30550,76 +30550,76 @@
         <v>44557.70833333334</v>
       </c>
       <c r="F338" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G338" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H338">
+        <v>2</v>
+      </c>
+      <c r="I338">
         <v>0</v>
       </c>
-      <c r="I338">
-        <v>7</v>
-      </c>
       <c r="J338" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K338">
-        <v>4.75</v>
+        <v>2.55</v>
       </c>
       <c r="L338">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M338">
-        <v>1.65</v>
+        <v>2.45</v>
       </c>
       <c r="N338">
-        <v>7</v>
+        <v>1.909</v>
       </c>
       <c r="O338">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="P338">
-        <v>1.363</v>
+        <v>3.6</v>
       </c>
       <c r="Q338">
-        <v>1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R338">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S338">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T338">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U338">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V338">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W338">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X338">
         <v>-1</v>
       </c>
       <c r="Y338">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Z338">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA338">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB338">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC338">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="339" spans="1:29">
@@ -30627,7 +30627,7 @@
         <v>337</v>
       </c>
       <c r="B339">
-        <v>3640944</v>
+        <v>3640863</v>
       </c>
       <c r="C339" t="s">
         <v>28</v>
@@ -30639,76 +30639,76 @@
         <v>44557.70833333334</v>
       </c>
       <c r="F339" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G339" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H339">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I339">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J339" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K339">
-        <v>2.55</v>
+        <v>4.75</v>
       </c>
       <c r="L339">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M339">
-        <v>2.45</v>
+        <v>1.65</v>
       </c>
       <c r="N339">
-        <v>1.909</v>
+        <v>7</v>
       </c>
       <c r="O339">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="P339">
-        <v>3.6</v>
+        <v>1.363</v>
       </c>
       <c r="Q339">
-        <v>-0.5</v>
+        <v>1.5</v>
       </c>
       <c r="R339">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S339">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T339">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U339">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V339">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W339">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X339">
         <v>-1</v>
       </c>
       <c r="Y339">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Z339">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA339">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB339">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC339">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="340" spans="1:29">
@@ -32318,7 +32318,7 @@
         <v>356</v>
       </c>
       <c r="B358">
-        <v>3640885</v>
+        <v>3640887</v>
       </c>
       <c r="C358" t="s">
         <v>28</v>
@@ -32330,19 +32330,19 @@
         <v>44587.61458333334</v>
       </c>
       <c r="F358" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G358" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H358">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I358">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J358" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K358">
         <v>2.7</v>
@@ -32354,52 +32354,52 @@
         <v>2.5</v>
       </c>
       <c r="N358">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="O358">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P358">
-        <v>2.4</v>
+        <v>2.375</v>
       </c>
       <c r="Q358">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R358">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S358">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T358">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U358">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V358">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W358">
         <v>-1</v>
       </c>
       <c r="X358">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y358">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z358">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA358">
-        <v>-0</v>
+        <v>1.05</v>
       </c>
       <c r="AB358">
         <v>-1</v>
       </c>
       <c r="AC358">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="359" spans="1:29">
@@ -32407,7 +32407,7 @@
         <v>357</v>
       </c>
       <c r="B359">
-        <v>3640887</v>
+        <v>3640885</v>
       </c>
       <c r="C359" t="s">
         <v>28</v>
@@ -32419,19 +32419,19 @@
         <v>44587.61458333334</v>
       </c>
       <c r="F359" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G359" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H359">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I359">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J359" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K359">
         <v>2.7</v>
@@ -32443,52 +32443,52 @@
         <v>2.5</v>
       </c>
       <c r="N359">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="O359">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P359">
-        <v>2.375</v>
+        <v>2.4</v>
       </c>
       <c r="Q359">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R359">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S359">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T359">
+        <v>3</v>
+      </c>
+      <c r="U359">
+        <v>1.875</v>
+      </c>
+      <c r="V359">
+        <v>1.975</v>
+      </c>
+      <c r="W359">
+        <v>-1</v>
+      </c>
+      <c r="X359">
         <v>2.5</v>
       </c>
-      <c r="U359">
-        <v>1.9</v>
-      </c>
-      <c r="V359">
-        <v>1.95</v>
-      </c>
-      <c r="W359">
-        <v>-1</v>
-      </c>
-      <c r="X359">
-        <v>-1</v>
-      </c>
       <c r="Y359">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z359">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA359">
-        <v>1.05</v>
+        <v>-0</v>
       </c>
       <c r="AB359">
         <v>-1</v>
       </c>
       <c r="AC359">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="360" spans="1:29">
@@ -32496,7 +32496,7 @@
         <v>358</v>
       </c>
       <c r="B360">
-        <v>3640881</v>
+        <v>3640946</v>
       </c>
       <c r="C360" t="s">
         <v>28</v>
@@ -32508,76 +32508,76 @@
         <v>44587.70833333334</v>
       </c>
       <c r="F360" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G360" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H360">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I360">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J360" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K360">
-        <v>1.571</v>
+        <v>1.95</v>
       </c>
       <c r="L360">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M360">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="N360">
-        <v>1.7</v>
+        <v>2.375</v>
       </c>
       <c r="O360">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P360">
-        <v>5</v>
+        <v>2.9</v>
       </c>
       <c r="Q360">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R360">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="S360">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T360">
         <v>2.5</v>
       </c>
       <c r="U360">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V360">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W360">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X360">
         <v>-1</v>
       </c>
       <c r="Y360">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z360">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AA360">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB360">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC360">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="361" spans="1:29">
@@ -32585,7 +32585,7 @@
         <v>359</v>
       </c>
       <c r="B361">
-        <v>3640946</v>
+        <v>3640881</v>
       </c>
       <c r="C361" t="s">
         <v>28</v>
@@ -32597,76 +32597,76 @@
         <v>44587.70833333334</v>
       </c>
       <c r="F361" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G361" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H361">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I361">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J361" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K361">
+        <v>1.571</v>
+      </c>
+      <c r="L361">
+        <v>4</v>
+      </c>
+      <c r="M361">
+        <v>5.5</v>
+      </c>
+      <c r="N361">
+        <v>1.7</v>
+      </c>
+      <c r="O361">
+        <v>3.75</v>
+      </c>
+      <c r="P361">
+        <v>5</v>
+      </c>
+      <c r="Q361">
+        <v>-0.75</v>
+      </c>
+      <c r="R361">
         <v>1.95</v>
       </c>
-      <c r="L361">
-        <v>3.6</v>
-      </c>
-      <c r="M361">
-        <v>3.6</v>
-      </c>
-      <c r="N361">
-        <v>2.375</v>
-      </c>
-      <c r="O361">
-        <v>3.3</v>
-      </c>
-      <c r="P361">
-        <v>2.9</v>
-      </c>
-      <c r="Q361">
-        <v>-0.25</v>
-      </c>
-      <c r="R361">
-        <v>2.1</v>
-      </c>
       <c r="S361">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T361">
         <v>2.5</v>
       </c>
       <c r="U361">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V361">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W361">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X361">
         <v>-1</v>
       </c>
       <c r="Y361">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z361">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA361">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB361">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC361">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="362" spans="1:29">
@@ -36412,7 +36412,7 @@
         <v>402</v>
       </c>
       <c r="B404">
-        <v>3640924</v>
+        <v>3640926</v>
       </c>
       <c r="C404" t="s">
         <v>28</v>
@@ -36424,61 +36424,61 @@
         <v>44618.60416666666</v>
       </c>
       <c r="F404" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G404" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H404">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I404">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J404" t="s">
         <v>53</v>
       </c>
       <c r="K404">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="L404">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M404">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="N404">
         <v>2.75</v>
       </c>
       <c r="O404">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P404">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="Q404">
         <v>0</v>
       </c>
       <c r="R404">
+        <v>1.85</v>
+      </c>
+      <c r="S404">
+        <v>2</v>
+      </c>
+      <c r="T404">
+        <v>2.5</v>
+      </c>
+      <c r="U404">
         <v>2.025</v>
       </c>
-      <c r="S404">
+      <c r="V404">
         <v>1.825</v>
       </c>
-      <c r="T404">
-        <v>2.75</v>
-      </c>
-      <c r="U404">
-        <v>2</v>
-      </c>
-      <c r="V404">
-        <v>1.85</v>
-      </c>
       <c r="W404">
         <v>-1</v>
       </c>
       <c r="X404">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="Y404">
         <v>-1</v>
@@ -36490,10 +36490,10 @@
         <v>-0</v>
       </c>
       <c r="AB404">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC404">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="405" spans="1:29">
@@ -36501,7 +36501,7 @@
         <v>403</v>
       </c>
       <c r="B405">
-        <v>3640926</v>
+        <v>3640924</v>
       </c>
       <c r="C405" t="s">
         <v>28</v>
@@ -36513,61 +36513,61 @@
         <v>44618.60416666666</v>
       </c>
       <c r="F405" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G405" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H405">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I405">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J405" t="s">
         <v>53</v>
       </c>
       <c r="K405">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="L405">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M405">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="N405">
         <v>2.75</v>
       </c>
       <c r="O405">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P405">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="Q405">
         <v>0</v>
       </c>
       <c r="R405">
+        <v>2.025</v>
+      </c>
+      <c r="S405">
+        <v>1.825</v>
+      </c>
+      <c r="T405">
+        <v>2.75</v>
+      </c>
+      <c r="U405">
+        <v>2</v>
+      </c>
+      <c r="V405">
         <v>1.85</v>
       </c>
-      <c r="S405">
-        <v>2</v>
-      </c>
-      <c r="T405">
+      <c r="W405">
+        <v>-1</v>
+      </c>
+      <c r="X405">
         <v>2.5</v>
-      </c>
-      <c r="U405">
-        <v>2.025</v>
-      </c>
-      <c r="V405">
-        <v>1.825</v>
-      </c>
-      <c r="W405">
-        <v>-1</v>
-      </c>
-      <c r="X405">
-        <v>2.4</v>
       </c>
       <c r="Y405">
         <v>-1</v>
@@ -36579,10 +36579,10 @@
         <v>-0</v>
       </c>
       <c r="AB405">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC405">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="406" spans="1:29">
@@ -40506,7 +40506,7 @@
         <v>448</v>
       </c>
       <c r="B450">
-        <v>3917658</v>
+        <v>3917660</v>
       </c>
       <c r="C450" t="s">
         <v>28</v>
@@ -40518,76 +40518,76 @@
         <v>44661.5625</v>
       </c>
       <c r="F450" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G450" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H450">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I450">
+        <v>2</v>
+      </c>
+      <c r="J450" t="s">
+        <v>51</v>
+      </c>
+      <c r="K450">
+        <v>6.5</v>
+      </c>
+      <c r="L450">
+        <v>4.333</v>
+      </c>
+      <c r="M450">
+        <v>1.4</v>
+      </c>
+      <c r="N450">
+        <v>12</v>
+      </c>
+      <c r="O450">
+        <v>6</v>
+      </c>
+      <c r="P450">
+        <v>1.181</v>
+      </c>
+      <c r="Q450">
+        <v>2</v>
+      </c>
+      <c r="R450">
+        <v>1.8</v>
+      </c>
+      <c r="S450">
+        <v>2.05</v>
+      </c>
+      <c r="T450">
+        <v>3.25</v>
+      </c>
+      <c r="U450">
+        <v>2.025</v>
+      </c>
+      <c r="V450">
+        <v>1.825</v>
+      </c>
+      <c r="W450">
+        <v>-1</v>
+      </c>
+      <c r="X450">
+        <v>-1</v>
+      </c>
+      <c r="Y450">
+        <v>0.181</v>
+      </c>
+      <c r="Z450">
         <v>0</v>
       </c>
-      <c r="J450" t="s">
-        <v>52</v>
-      </c>
-      <c r="K450">
-        <v>1.363</v>
-      </c>
-      <c r="L450">
-        <v>4.5</v>
-      </c>
-      <c r="M450">
-        <v>7</v>
-      </c>
-      <c r="N450">
-        <v>1.2</v>
-      </c>
-      <c r="O450">
-        <v>6.5</v>
-      </c>
-      <c r="P450">
-        <v>9</v>
-      </c>
-      <c r="Q450">
-        <v>-2</v>
-      </c>
-      <c r="R450">
-        <v>2.025</v>
-      </c>
-      <c r="S450">
-        <v>1.825</v>
-      </c>
-      <c r="T450">
-        <v>3.5</v>
-      </c>
-      <c r="U450">
-        <v>1.875</v>
-      </c>
-      <c r="V450">
-        <v>1.975</v>
-      </c>
-      <c r="W450">
-        <v>0.2</v>
-      </c>
-      <c r="X450">
-        <v>-1</v>
-      </c>
-      <c r="Y450">
-        <v>-1</v>
-      </c>
-      <c r="Z450">
-        <v>1.025</v>
-      </c>
       <c r="AA450">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB450">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC450">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="451" spans="1:29">
@@ -40684,7 +40684,7 @@
         <v>450</v>
       </c>
       <c r="B452">
-        <v>3917660</v>
+        <v>3917658</v>
       </c>
       <c r="C452" t="s">
         <v>28</v>
@@ -40696,76 +40696,76 @@
         <v>44661.5625</v>
       </c>
       <c r="F452" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G452" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H452">
+        <v>5</v>
+      </c>
+      <c r="I452">
         <v>0</v>
       </c>
-      <c r="I452">
-        <v>2</v>
-      </c>
       <c r="J452" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K452">
+        <v>1.363</v>
+      </c>
+      <c r="L452">
+        <v>4.5</v>
+      </c>
+      <c r="M452">
+        <v>7</v>
+      </c>
+      <c r="N452">
+        <v>1.2</v>
+      </c>
+      <c r="O452">
         <v>6.5</v>
       </c>
-      <c r="L452">
-        <v>4.333</v>
-      </c>
-      <c r="M452">
-        <v>1.4</v>
-      </c>
-      <c r="N452">
-        <v>12</v>
-      </c>
-      <c r="O452">
-        <v>6</v>
-      </c>
       <c r="P452">
-        <v>1.181</v>
+        <v>9</v>
       </c>
       <c r="Q452">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="R452">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S452">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T452">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U452">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V452">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W452">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X452">
         <v>-1</v>
       </c>
       <c r="Y452">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="Z452">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA452">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB452">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC452">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="453" spans="1:29">
@@ -40773,7 +40773,7 @@
         <v>451</v>
       </c>
       <c r="B453">
-        <v>3917661</v>
+        <v>3911915</v>
       </c>
       <c r="C453" t="s">
         <v>28</v>
@@ -40785,10 +40785,10 @@
         <v>44661.5625</v>
       </c>
       <c r="F453" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G453" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H453">
         <v>3</v>
@@ -40800,43 +40800,43 @@
         <v>52</v>
       </c>
       <c r="K453">
-        <v>2</v>
+        <v>1.615</v>
       </c>
       <c r="L453">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M453">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="N453">
-        <v>1.65</v>
+        <v>1.4</v>
       </c>
       <c r="O453">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P453">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="Q453">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R453">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S453">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T453">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U453">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V453">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W453">
-        <v>0.6499999999999999</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X453">
         <v>-1</v>
@@ -40845,16 +40845,16 @@
         <v>-1</v>
       </c>
       <c r="Z453">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AA453">
         <v>-1</v>
       </c>
       <c r="AB453">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC453">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="454" spans="1:29">
@@ -40862,7 +40862,7 @@
         <v>452</v>
       </c>
       <c r="B454">
-        <v>3911915</v>
+        <v>3917661</v>
       </c>
       <c r="C454" t="s">
         <v>28</v>
@@ -40874,10 +40874,10 @@
         <v>44661.5625</v>
       </c>
       <c r="F454" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G454" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H454">
         <v>3</v>
@@ -40889,43 +40889,43 @@
         <v>52</v>
       </c>
       <c r="K454">
-        <v>1.615</v>
+        <v>2</v>
       </c>
       <c r="L454">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M454">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="N454">
-        <v>1.4</v>
+        <v>1.65</v>
       </c>
       <c r="O454">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P454">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="Q454">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R454">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S454">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T454">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U454">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V454">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W454">
-        <v>0.3999999999999999</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X454">
         <v>-1</v>
@@ -40934,16 +40934,16 @@
         <v>-1</v>
       </c>
       <c r="Z454">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AA454">
         <v>-1</v>
       </c>
       <c r="AB454">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC454">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="455" spans="1:29">
@@ -43087,7 +43087,7 @@
         <v>477</v>
       </c>
       <c r="B479">
-        <v>5208464</v>
+        <v>5208622</v>
       </c>
       <c r="C479" t="s">
         <v>28</v>
@@ -43099,34 +43099,34 @@
         <v>44772.55208333334</v>
       </c>
       <c r="F479" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G479" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="H479">
         <v>2</v>
       </c>
       <c r="I479">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J479" t="s">
         <v>52</v>
       </c>
       <c r="K479">
-        <v>2.4</v>
+        <v>1.85</v>
       </c>
       <c r="L479">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M479">
-        <v>2.625</v>
+        <v>3.75</v>
       </c>
       <c r="N479">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="O479">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P479">
         <v>2.15</v>
@@ -43135,22 +43135,22 @@
         <v>0.25</v>
       </c>
       <c r="R479">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S479">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T479">
         <v>2.75</v>
       </c>
       <c r="U479">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V479">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W479">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="X479">
         <v>-1</v>
@@ -43159,16 +43159,16 @@
         <v>-1</v>
       </c>
       <c r="Z479">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AA479">
         <v>-1</v>
       </c>
       <c r="AB479">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC479">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="480" spans="1:29">
@@ -43176,7 +43176,7 @@
         <v>478</v>
       </c>
       <c r="B480">
-        <v>5208622</v>
+        <v>5208464</v>
       </c>
       <c r="C480" t="s">
         <v>28</v>
@@ -43188,34 +43188,34 @@
         <v>44772.55208333334</v>
       </c>
       <c r="F480" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G480" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="H480">
         <v>2</v>
       </c>
       <c r="I480">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J480" t="s">
         <v>52</v>
       </c>
       <c r="K480">
-        <v>1.85</v>
+        <v>2.4</v>
       </c>
       <c r="L480">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M480">
-        <v>3.75</v>
+        <v>2.625</v>
       </c>
       <c r="N480">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="O480">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P480">
         <v>2.15</v>
@@ -43224,22 +43224,22 @@
         <v>0.25</v>
       </c>
       <c r="R480">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S480">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T480">
         <v>2.75</v>
       </c>
       <c r="U480">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V480">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W480">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="X480">
         <v>-1</v>
@@ -43248,16 +43248,16 @@
         <v>-1</v>
       </c>
       <c r="Z480">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AA480">
         <v>-1</v>
       </c>
       <c r="AB480">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC480">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="481" spans="1:29">
@@ -44689,7 +44689,7 @@
         <v>495</v>
       </c>
       <c r="B497">
-        <v>5208630</v>
+        <v>5208474</v>
       </c>
       <c r="C497" t="s">
         <v>28</v>
@@ -44701,76 +44701,76 @@
         <v>44786.55208333334</v>
       </c>
       <c r="F497" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="G497" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H497">
         <v>0</v>
       </c>
       <c r="I497">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J497" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K497">
-        <v>2.05</v>
+        <v>4.2</v>
       </c>
       <c r="L497">
         <v>3.5</v>
       </c>
       <c r="M497">
-        <v>3.4</v>
+        <v>1.833</v>
       </c>
       <c r="N497">
-        <v>2.15</v>
+        <v>4.333</v>
       </c>
       <c r="O497">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P497">
-        <v>3.2</v>
+        <v>1.8</v>
       </c>
       <c r="Q497">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R497">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S497">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T497">
         <v>2.5</v>
       </c>
       <c r="U497">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V497">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W497">
         <v>-1</v>
       </c>
       <c r="X497">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y497">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z497">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA497">
-        <v>0.45</v>
+        <v>0.8</v>
       </c>
       <c r="AB497">
         <v>-1</v>
       </c>
       <c r="AC497">
-        <v>1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="498" spans="1:29">
@@ -44778,7 +44778,7 @@
         <v>496</v>
       </c>
       <c r="B498">
-        <v>5208474</v>
+        <v>5208630</v>
       </c>
       <c r="C498" t="s">
         <v>28</v>
@@ -44790,76 +44790,76 @@
         <v>44786.55208333334</v>
       </c>
       <c r="F498" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="G498" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H498">
         <v>0</v>
       </c>
       <c r="I498">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J498" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K498">
-        <v>4.2</v>
+        <v>2.05</v>
       </c>
       <c r="L498">
         <v>3.5</v>
       </c>
       <c r="M498">
-        <v>1.833</v>
+        <v>3.4</v>
       </c>
       <c r="N498">
-        <v>4.333</v>
+        <v>2.15</v>
       </c>
       <c r="O498">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P498">
-        <v>1.8</v>
+        <v>3.2</v>
       </c>
       <c r="Q498">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R498">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S498">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T498">
         <v>2.5</v>
       </c>
       <c r="U498">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V498">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W498">
         <v>-1</v>
       </c>
       <c r="X498">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y498">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z498">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA498">
-        <v>0.8</v>
+        <v>0.45</v>
       </c>
       <c r="AB498">
         <v>-1</v>
       </c>
       <c r="AC498">
-        <v>1.025</v>
+        <v>1</v>
       </c>
     </row>
     <row r="499" spans="1:29">
@@ -48694,7 +48694,7 @@
         <v>540</v>
       </c>
       <c r="B542">
-        <v>5208503</v>
+        <v>5208504</v>
       </c>
       <c r="C542" t="s">
         <v>28</v>
@@ -48706,73 +48706,73 @@
         <v>44821.55208333334</v>
       </c>
       <c r="F542" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G542" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H542">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I542">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J542" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K542">
-        <v>1.7</v>
+        <v>3.1</v>
       </c>
       <c r="L542">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M542">
-        <v>4.75</v>
+        <v>2.3</v>
       </c>
       <c r="N542">
-        <v>1.95</v>
+        <v>3.4</v>
       </c>
       <c r="O542">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P542">
-        <v>3.8</v>
+        <v>2.3</v>
       </c>
       <c r="Q542">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R542">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S542">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T542">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U542">
+        <v>2</v>
+      </c>
+      <c r="V542">
         <v>1.85</v>
       </c>
-      <c r="V542">
-        <v>2</v>
-      </c>
       <c r="W542">
         <v>-1</v>
       </c>
       <c r="X542">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y542">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z542">
         <v>-1</v>
       </c>
       <c r="AA542">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB542">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC542">
         <v>-1</v>
@@ -48783,7 +48783,7 @@
         <v>541</v>
       </c>
       <c r="B543">
-        <v>5208504</v>
+        <v>5208503</v>
       </c>
       <c r="C543" t="s">
         <v>28</v>
@@ -48795,73 +48795,73 @@
         <v>44821.55208333334</v>
       </c>
       <c r="F543" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G543" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H543">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I543">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J543" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K543">
-        <v>3.1</v>
+        <v>1.7</v>
       </c>
       <c r="L543">
+        <v>3.6</v>
+      </c>
+      <c r="M543">
+        <v>4.75</v>
+      </c>
+      <c r="N543">
+        <v>1.95</v>
+      </c>
+      <c r="O543">
         <v>3.3</v>
       </c>
-      <c r="M543">
+      <c r="P543">
+        <v>3.8</v>
+      </c>
+      <c r="Q543">
+        <v>-0.5</v>
+      </c>
+      <c r="R543">
+        <v>1.95</v>
+      </c>
+      <c r="S543">
+        <v>1.9</v>
+      </c>
+      <c r="T543">
+        <v>2.5</v>
+      </c>
+      <c r="U543">
+        <v>1.85</v>
+      </c>
+      <c r="V543">
+        <v>2</v>
+      </c>
+      <c r="W543">
+        <v>-1</v>
+      </c>
+      <c r="X543">
         <v>2.3</v>
       </c>
-      <c r="N543">
-        <v>3.4</v>
-      </c>
-      <c r="O543">
-        <v>3.1</v>
-      </c>
-      <c r="P543">
-        <v>2.3</v>
-      </c>
-      <c r="Q543">
-        <v>0.25</v>
-      </c>
-      <c r="R543">
-        <v>1.875</v>
-      </c>
-      <c r="S543">
-        <v>1.975</v>
-      </c>
-      <c r="T543">
-        <v>2.25</v>
-      </c>
-      <c r="U543">
-        <v>2</v>
-      </c>
-      <c r="V543">
-        <v>1.85</v>
-      </c>
-      <c r="W543">
-        <v>-1</v>
-      </c>
-      <c r="X543">
-        <v>-1</v>
-      </c>
       <c r="Y543">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z543">
         <v>-1</v>
       </c>
       <c r="AA543">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB543">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC543">
         <v>-1</v>
@@ -51898,7 +51898,7 @@
         <v>576</v>
       </c>
       <c r="B578">
-        <v>5208529</v>
+        <v>5208662</v>
       </c>
       <c r="C578" t="s">
         <v>28</v>
@@ -51910,76 +51910,76 @@
         <v>44852.65625</v>
       </c>
       <c r="F578" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G578" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="H578">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I578">
         <v>1</v>
       </c>
       <c r="J578" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K578">
-        <v>2.625</v>
+        <v>1.6</v>
       </c>
       <c r="L578">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M578">
-        <v>2.5</v>
+        <v>4.75</v>
       </c>
       <c r="N578">
-        <v>3.8</v>
+        <v>1.6</v>
       </c>
       <c r="O578">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P578">
-        <v>1.909</v>
+        <v>5</v>
       </c>
       <c r="Q578">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R578">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S578">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T578">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U578">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V578">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W578">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X578">
         <v>-1</v>
       </c>
       <c r="Y578">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z578">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA578">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB578">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC578">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="579" spans="1:29">
@@ -51987,7 +51987,7 @@
         <v>577</v>
       </c>
       <c r="B579">
-        <v>5208662</v>
+        <v>5208529</v>
       </c>
       <c r="C579" t="s">
         <v>28</v>
@@ -51999,76 +51999,76 @@
         <v>44852.65625</v>
       </c>
       <c r="F579" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G579" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="H579">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I579">
         <v>1</v>
       </c>
       <c r="J579" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K579">
-        <v>1.6</v>
+        <v>2.625</v>
       </c>
       <c r="L579">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M579">
-        <v>4.75</v>
+        <v>2.5</v>
       </c>
       <c r="N579">
-        <v>1.6</v>
+        <v>3.8</v>
       </c>
       <c r="O579">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P579">
-        <v>5</v>
+        <v>1.909</v>
       </c>
       <c r="Q579">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R579">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S579">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T579">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U579">
+        <v>2</v>
+      </c>
+      <c r="V579">
         <v>1.85</v>
       </c>
-      <c r="V579">
-        <v>2</v>
-      </c>
       <c r="W579">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X579">
         <v>-1</v>
       </c>
       <c r="Y579">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z579">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA579">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB579">
+        <v>-1</v>
+      </c>
+      <c r="AC579">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC579">
-        <v>-1</v>
       </c>
     </row>
     <row r="580" spans="1:29">
@@ -52165,7 +52165,7 @@
         <v>579</v>
       </c>
       <c r="B581">
-        <v>5208527</v>
+        <v>5208664</v>
       </c>
       <c r="C581" t="s">
         <v>28</v>
@@ -52177,13 +52177,13 @@
         <v>44853.65625</v>
       </c>
       <c r="F581" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="G581" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H581">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I581">
         <v>0</v>
@@ -52192,43 +52192,43 @@
         <v>52</v>
       </c>
       <c r="K581">
-        <v>1.363</v>
+        <v>2.625</v>
       </c>
       <c r="L581">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="M581">
-        <v>7</v>
+        <v>2.55</v>
       </c>
       <c r="N581">
-        <v>1.571</v>
+        <v>2.25</v>
       </c>
       <c r="O581">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P581">
-        <v>5.25</v>
+        <v>3.1</v>
       </c>
       <c r="Q581">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R581">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S581">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T581">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U581">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V581">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W581">
-        <v>0.571</v>
+        <v>1.25</v>
       </c>
       <c r="X581">
         <v>-1</v>
@@ -52237,16 +52237,16 @@
         <v>-1</v>
       </c>
       <c r="Z581">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AA581">
         <v>-1</v>
       </c>
       <c r="AB581">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC581">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="582" spans="1:29">
@@ -52254,7 +52254,7 @@
         <v>580</v>
       </c>
       <c r="B582">
-        <v>5208664</v>
+        <v>5208527</v>
       </c>
       <c r="C582" t="s">
         <v>28</v>
@@ -52266,13 +52266,13 @@
         <v>44853.65625</v>
       </c>
       <c r="F582" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="G582" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H582">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I582">
         <v>0</v>
@@ -52281,43 +52281,43 @@
         <v>52</v>
       </c>
       <c r="K582">
-        <v>2.625</v>
+        <v>1.363</v>
       </c>
       <c r="L582">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="M582">
-        <v>2.55</v>
+        <v>7</v>
       </c>
       <c r="N582">
-        <v>2.25</v>
+        <v>1.571</v>
       </c>
       <c r="O582">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P582">
-        <v>3.1</v>
+        <v>5.25</v>
       </c>
       <c r="Q582">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R582">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S582">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T582">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U582">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V582">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W582">
-        <v>1.25</v>
+        <v>0.571</v>
       </c>
       <c r="X582">
         <v>-1</v>
@@ -52326,16 +52326,16 @@
         <v>-1</v>
       </c>
       <c r="Z582">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="AA582">
         <v>-1</v>
       </c>
       <c r="AB582">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC582">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="583" spans="1:29">
@@ -53500,7 +53500,7 @@
         <v>594</v>
       </c>
       <c r="B596">
-        <v>5208541</v>
+        <v>5208538</v>
       </c>
       <c r="C596" t="s">
         <v>28</v>
@@ -53512,76 +53512,76 @@
         <v>44863.55208333334</v>
       </c>
       <c r="F596" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="G596" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H596">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I596">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J596" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K596">
-        <v>1.833</v>
+        <v>3.6</v>
       </c>
       <c r="L596">
         <v>3.6</v>
       </c>
       <c r="M596">
-        <v>4.2</v>
+        <v>1.95</v>
       </c>
       <c r="N596">
-        <v>2.25</v>
+        <v>3.8</v>
       </c>
       <c r="O596">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="P596">
-        <v>3.5</v>
+        <v>1.85</v>
       </c>
       <c r="Q596">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R596">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S596">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T596">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U596">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V596">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W596">
         <v>-1</v>
       </c>
       <c r="X596">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y596">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z596">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA596">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB596">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC596">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="597" spans="1:29">
@@ -53589,7 +53589,7 @@
         <v>595</v>
       </c>
       <c r="B597">
-        <v>5208538</v>
+        <v>5208541</v>
       </c>
       <c r="C597" t="s">
         <v>28</v>
@@ -53601,76 +53601,76 @@
         <v>44863.55208333334</v>
       </c>
       <c r="F597" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="G597" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H597">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I597">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J597" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K597">
-        <v>3.6</v>
+        <v>1.833</v>
       </c>
       <c r="L597">
         <v>3.6</v>
       </c>
       <c r="M597">
-        <v>1.95</v>
+        <v>4.2</v>
       </c>
       <c r="N597">
-        <v>3.8</v>
+        <v>2.25</v>
       </c>
       <c r="O597">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P597">
-        <v>1.85</v>
+        <v>3.5</v>
       </c>
       <c r="Q597">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R597">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S597">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T597">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U597">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V597">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W597">
         <v>-1</v>
       </c>
       <c r="X597">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y597">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z597">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA597">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB597">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC597">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="598" spans="1:29">
@@ -56348,7 +56348,7 @@
         <v>626</v>
       </c>
       <c r="B628">
-        <v>5208556</v>
+        <v>5208687</v>
       </c>
       <c r="C628" t="s">
         <v>28</v>
@@ -56360,76 +56360,76 @@
         <v>44922.66666666666</v>
       </c>
       <c r="F628" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="G628" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H628">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I628">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J628" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K628">
-        <v>1.666</v>
+        <v>3</v>
       </c>
       <c r="L628">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M628">
-        <v>4.5</v>
+        <v>2.1</v>
       </c>
       <c r="N628">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="O628">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P628">
-        <v>4.333</v>
+        <v>2.3</v>
       </c>
       <c r="Q628">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R628">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S628">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T628">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U628">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V628">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W628">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X628">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y628">
         <v>-1</v>
       </c>
       <c r="Z628">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="AA628">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB628">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC628">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="629" spans="1:29">
@@ -56437,7 +56437,7 @@
         <v>627</v>
       </c>
       <c r="B629">
-        <v>5208687</v>
+        <v>5208556</v>
       </c>
       <c r="C629" t="s">
         <v>28</v>
@@ -56449,76 +56449,76 @@
         <v>44922.66666666666</v>
       </c>
       <c r="F629" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="G629" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H629">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I629">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J629" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K629">
-        <v>3</v>
+        <v>1.666</v>
       </c>
       <c r="L629">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M629">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="N629">
-        <v>2.8</v>
+        <v>1.7</v>
       </c>
       <c r="O629">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P629">
-        <v>2.3</v>
+        <v>4.333</v>
       </c>
       <c r="Q629">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R629">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S629">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T629">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U629">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V629">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W629">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X629">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y629">
         <v>-1</v>
       </c>
       <c r="Z629">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="AA629">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB629">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC629">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="630" spans="1:29">
@@ -58395,7 +58395,7 @@
         <v>649</v>
       </c>
       <c r="B651">
-        <v>5208701</v>
+        <v>5208571</v>
       </c>
       <c r="C651" t="s">
         <v>28</v>
@@ -58407,76 +58407,76 @@
         <v>44944.60416666666</v>
       </c>
       <c r="F651" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G651" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H651">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I651">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J651" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K651">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="L651">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M651">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="N651">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="O651">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P651">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="Q651">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R651">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S651">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T651">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U651">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V651">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W651">
         <v>-1</v>
       </c>
       <c r="X651">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y651">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z651">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA651">
+        <v>0.875</v>
+      </c>
+      <c r="AB651">
+        <v>0.5</v>
+      </c>
+      <c r="AC651">
         <v>-0.5</v>
-      </c>
-      <c r="AB651">
-        <v>-1</v>
-      </c>
-      <c r="AC651">
-        <v>0.8</v>
       </c>
     </row>
     <row r="652" spans="1:29">
@@ -58484,7 +58484,7 @@
         <v>650</v>
       </c>
       <c r="B652">
-        <v>5208571</v>
+        <v>5208701</v>
       </c>
       <c r="C652" t="s">
         <v>28</v>
@@ -58496,76 +58496,76 @@
         <v>44944.60416666666</v>
       </c>
       <c r="F652" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G652" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="H652">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I652">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J652" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K652">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="L652">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M652">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="N652">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="O652">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P652">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="Q652">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R652">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S652">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T652">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U652">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V652">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W652">
         <v>-1</v>
       </c>
       <c r="X652">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y652">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z652">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AA652">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB652">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC652">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="653" spans="1:29">
@@ -59018,7 +59018,7 @@
         <v>656</v>
       </c>
       <c r="B658">
-        <v>5208577</v>
+        <v>5208575</v>
       </c>
       <c r="C658" t="s">
         <v>28</v>
@@ -59030,40 +59030,40 @@
         <v>44947.59375</v>
       </c>
       <c r="F658" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G658" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H658">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I658">
         <v>2</v>
       </c>
       <c r="J658" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K658">
-        <v>2.625</v>
+        <v>1.95</v>
       </c>
       <c r="L658">
+        <v>3.5</v>
+      </c>
+      <c r="M658">
         <v>3.4</v>
       </c>
-      <c r="M658">
-        <v>2.4</v>
-      </c>
       <c r="N658">
-        <v>3.2</v>
+        <v>1.75</v>
       </c>
       <c r="O658">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P658">
-        <v>2.05</v>
+        <v>4</v>
       </c>
       <c r="Q658">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R658">
         <v>2.025</v>
@@ -59072,34 +59072,34 @@
         <v>1.825</v>
       </c>
       <c r="T658">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U658">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V658">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W658">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X658">
         <v>-1</v>
       </c>
       <c r="Y658">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z658">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA658">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB658">
-        <v>0.475</v>
+        <v>1</v>
       </c>
       <c r="AC658">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="659" spans="1:29">
@@ -59107,7 +59107,7 @@
         <v>657</v>
       </c>
       <c r="B659">
-        <v>5208575</v>
+        <v>5208577</v>
       </c>
       <c r="C659" t="s">
         <v>28</v>
@@ -59119,40 +59119,40 @@
         <v>44947.59375</v>
       </c>
       <c r="F659" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G659" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H659">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I659">
         <v>2</v>
       </c>
       <c r="J659" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K659">
-        <v>1.95</v>
+        <v>2.625</v>
       </c>
       <c r="L659">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M659">
+        <v>2.4</v>
+      </c>
+      <c r="N659">
+        <v>3.2</v>
+      </c>
+      <c r="O659">
         <v>3.4</v>
       </c>
-      <c r="N659">
-        <v>1.75</v>
-      </c>
-      <c r="O659">
-        <v>3.6</v>
-      </c>
       <c r="P659">
-        <v>4</v>
+        <v>2.05</v>
       </c>
       <c r="Q659">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R659">
         <v>2.025</v>
@@ -59161,34 +59161,34 @@
         <v>1.825</v>
       </c>
       <c r="T659">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U659">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V659">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W659">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X659">
         <v>-1</v>
       </c>
       <c r="Y659">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z659">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AA659">
+        <v>0.825</v>
+      </c>
+      <c r="AB659">
+        <v>0.475</v>
+      </c>
+      <c r="AC659">
         <v>-0.5</v>
-      </c>
-      <c r="AB659">
-        <v>1</v>
-      </c>
-      <c r="AC659">
-        <v>-1</v>
       </c>
     </row>
     <row r="660" spans="1:29">
@@ -61421,7 +61421,7 @@
         <v>683</v>
       </c>
       <c r="B685">
-        <v>5208718</v>
+        <v>5208587</v>
       </c>
       <c r="C685" t="s">
         <v>28</v>
@@ -61433,76 +61433,76 @@
         <v>44967.69791666666</v>
       </c>
       <c r="F685" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="G685" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="H685">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I685">
         <v>1</v>
       </c>
       <c r="J685" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K685">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="L685">
         <v>3.4</v>
       </c>
       <c r="M685">
-        <v>2.45</v>
+        <v>2.9</v>
       </c>
       <c r="N685">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="O685">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P685">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="Q685">
         <v>0</v>
       </c>
       <c r="R685">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S685">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T685">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U685">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V685">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="W685">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X685">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y685">
         <v>-1</v>
       </c>
       <c r="Z685">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA685">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB685">
-        <v>0.4875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC685">
-        <v>-0.5</v>
+        <v>0.5249999999999999</v>
       </c>
     </row>
     <row r="686" spans="1:29">
@@ -61510,7 +61510,7 @@
         <v>684</v>
       </c>
       <c r="B686">
-        <v>5208587</v>
+        <v>5208718</v>
       </c>
       <c r="C686" t="s">
         <v>28</v>
@@ -61522,76 +61522,76 @@
         <v>44967.69791666666</v>
       </c>
       <c r="F686" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="G686" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="H686">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I686">
         <v>1</v>
       </c>
       <c r="J686" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K686">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="L686">
         <v>3.4</v>
       </c>
       <c r="M686">
-        <v>2.9</v>
+        <v>2.45</v>
       </c>
       <c r="N686">
+        <v>2.55</v>
+      </c>
+      <c r="O686">
+        <v>3.4</v>
+      </c>
+      <c r="P686">
         <v>2.5</v>
-      </c>
-      <c r="O686">
-        <v>3.2</v>
-      </c>
-      <c r="P686">
-        <v>2.8</v>
       </c>
       <c r="Q686">
         <v>0</v>
       </c>
       <c r="R686">
+        <v>1.95</v>
+      </c>
+      <c r="S686">
+        <v>1.9</v>
+      </c>
+      <c r="T686">
+        <v>2.75</v>
+      </c>
+      <c r="U686">
+        <v>1.975</v>
+      </c>
+      <c r="V686">
         <v>1.875</v>
       </c>
-      <c r="S686">
-        <v>1.975</v>
-      </c>
-      <c r="T686">
-        <v>2.25</v>
-      </c>
-      <c r="U686">
-        <v>1.8</v>
-      </c>
-      <c r="V686">
-        <v>2.05</v>
-      </c>
       <c r="W686">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X686">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y686">
         <v>-1</v>
       </c>
       <c r="Z686">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA686">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB686">
+        <v>0.4875</v>
+      </c>
+      <c r="AC686">
         <v>-0.5</v>
-      </c>
-      <c r="AC686">
-        <v>0.5249999999999999</v>
       </c>
     </row>
     <row r="687" spans="1:29">
@@ -67918,7 +67918,7 @@
         <v>756</v>
       </c>
       <c r="B758">
-        <v>5424406</v>
+        <v>5424405</v>
       </c>
       <c r="C758" t="s">
         <v>28</v>
@@ -67930,73 +67930,73 @@
         <v>45031.55208333334</v>
       </c>
       <c r="F758" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G758" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H758">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I758">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J758" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K758">
-        <v>2.4</v>
+        <v>1.75</v>
       </c>
       <c r="L758">
         <v>3.5</v>
       </c>
       <c r="M758">
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="N758">
-        <v>2.4</v>
+        <v>1.65</v>
       </c>
       <c r="O758">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P758">
-        <v>2.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q758">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R758">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S758">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T758">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U758">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V758">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W758">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X758">
         <v>-1</v>
       </c>
       <c r="Y758">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z758">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA758">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB758">
-        <v>1.025</v>
+        <v>1</v>
       </c>
       <c r="AC758">
         <v>-1</v>
@@ -68007,7 +68007,7 @@
         <v>757</v>
       </c>
       <c r="B759">
-        <v>5424405</v>
+        <v>5424406</v>
       </c>
       <c r="C759" t="s">
         <v>28</v>
@@ -68019,73 +68019,73 @@
         <v>45031.55208333334</v>
       </c>
       <c r="F759" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G759" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H759">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I759">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J759" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K759">
-        <v>1.75</v>
+        <v>2.4</v>
       </c>
       <c r="L759">
         <v>3.5</v>
       </c>
       <c r="M759">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="N759">
-        <v>1.65</v>
+        <v>2.4</v>
       </c>
       <c r="O759">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P759">
-        <v>5.25</v>
+        <v>2.75</v>
       </c>
       <c r="Q759">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R759">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S759">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T759">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U759">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V759">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W759">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X759">
         <v>-1</v>
       </c>
       <c r="Y759">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z759">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA759">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB759">
-        <v>1</v>
+        <v>1.025</v>
       </c>
       <c r="AC759">
         <v>-1</v>
@@ -68719,7 +68719,7 @@
         <v>765</v>
       </c>
       <c r="B767">
-        <v>6390066</v>
+        <v>6389819</v>
       </c>
       <c r="C767" t="s">
         <v>28</v>
@@ -68731,55 +68731,55 @@
         <v>45039.5625</v>
       </c>
       <c r="F767" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G767" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="H767">
         <v>2</v>
       </c>
       <c r="I767">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J767" t="s">
         <v>51</v>
       </c>
       <c r="K767">
-        <v>3</v>
+        <v>5.25</v>
       </c>
       <c r="L767">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M767">
-        <v>2.15</v>
+        <v>1.533</v>
       </c>
       <c r="N767">
-        <v>2.8</v>
+        <v>6.5</v>
       </c>
       <c r="O767">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P767">
-        <v>2.25</v>
+        <v>1.4</v>
       </c>
       <c r="Q767">
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R767">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S767">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T767">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U767">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V767">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="W767">
         <v>-1</v>
@@ -68788,16 +68788,16 @@
         <v>-1</v>
       </c>
       <c r="Y767">
-        <v>1.25</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z767">
         <v>-1</v>
       </c>
       <c r="AA767">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AB767">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AC767">
         <v>-1</v>
@@ -68808,7 +68808,7 @@
         <v>766</v>
       </c>
       <c r="B768">
-        <v>6389819</v>
+        <v>6389865</v>
       </c>
       <c r="C768" t="s">
         <v>28</v>
@@ -68820,73 +68820,73 @@
         <v>45039.5625</v>
       </c>
       <c r="F768" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G768" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H768">
         <v>2</v>
       </c>
       <c r="I768">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J768" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K768">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="L768">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M768">
-        <v>1.533</v>
+        <v>1.95</v>
       </c>
       <c r="N768">
-        <v>6.5</v>
+        <v>2.8</v>
       </c>
       <c r="O768">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P768">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="Q768">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R768">
+        <v>1.8</v>
+      </c>
+      <c r="S768">
+        <v>2.05</v>
+      </c>
+      <c r="T768">
+        <v>3</v>
+      </c>
+      <c r="U768">
+        <v>1.95</v>
+      </c>
+      <c r="V768">
         <v>1.9</v>
       </c>
-      <c r="S768">
-        <v>1.95</v>
-      </c>
-      <c r="T768">
-        <v>3.25</v>
-      </c>
-      <c r="U768">
-        <v>2</v>
-      </c>
-      <c r="V768">
-        <v>1.85</v>
-      </c>
       <c r="W768">
         <v>-1</v>
       </c>
       <c r="X768">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y768">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z768">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA768">
+        <v>-0.5</v>
+      </c>
+      <c r="AB768">
         <v>0.95</v>
-      </c>
-      <c r="AB768">
-        <v>1</v>
       </c>
       <c r="AC768">
         <v>-1</v>
@@ -68897,7 +68897,7 @@
         <v>767</v>
       </c>
       <c r="B769">
-        <v>6389865</v>
+        <v>6390693</v>
       </c>
       <c r="C769" t="s">
         <v>28</v>
@@ -68909,73 +68909,73 @@
         <v>45039.5625</v>
       </c>
       <c r="F769" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G769" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H769">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I769">
         <v>2</v>
       </c>
       <c r="J769" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K769">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="L769">
         <v>3.6</v>
       </c>
       <c r="M769">
+        <v>2.45</v>
+      </c>
+      <c r="N769">
+        <v>2.4</v>
+      </c>
+      <c r="O769">
+        <v>3.8</v>
+      </c>
+      <c r="P769">
+        <v>2.45</v>
+      </c>
+      <c r="Q769">
+        <v>0</v>
+      </c>
+      <c r="R769">
+        <v>1.9</v>
+      </c>
+      <c r="S769">
         <v>1.95</v>
       </c>
-      <c r="N769">
-        <v>2.8</v>
-      </c>
-      <c r="O769">
-        <v>3.5</v>
-      </c>
-      <c r="P769">
-        <v>2.3</v>
-      </c>
-      <c r="Q769">
-        <v>0.25</v>
-      </c>
-      <c r="R769">
-        <v>1.8</v>
-      </c>
-      <c r="S769">
-        <v>2.05</v>
-      </c>
       <c r="T769">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U769">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V769">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W769">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X769">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y769">
         <v>-1</v>
       </c>
       <c r="Z769">
-        <v>0.4</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA769">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB769">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AC769">
         <v>-1</v>
@@ -68986,7 +68986,7 @@
         <v>768</v>
       </c>
       <c r="B770">
-        <v>6390693</v>
+        <v>6385540</v>
       </c>
       <c r="C770" t="s">
         <v>28</v>
@@ -68998,73 +68998,73 @@
         <v>45039.5625</v>
       </c>
       <c r="F770" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G770" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H770">
+        <v>2</v>
+      </c>
+      <c r="I770">
         <v>3</v>
       </c>
-      <c r="I770">
-        <v>2</v>
-      </c>
       <c r="J770" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K770">
-        <v>2.5</v>
+        <v>1.363</v>
       </c>
       <c r="L770">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M770">
-        <v>2.45</v>
+        <v>7</v>
       </c>
       <c r="N770">
-        <v>2.4</v>
+        <v>1.55</v>
       </c>
       <c r="O770">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P770">
-        <v>2.45</v>
+        <v>5</v>
       </c>
       <c r="Q770">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R770">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S770">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T770">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U770">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V770">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W770">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X770">
         <v>-1</v>
       </c>
       <c r="Y770">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z770">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA770">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB770">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AC770">
         <v>-1</v>
@@ -69075,7 +69075,7 @@
         <v>769</v>
       </c>
       <c r="B771">
-        <v>6385540</v>
+        <v>6390066</v>
       </c>
       <c r="C771" t="s">
         <v>28</v>
@@ -69087,10 +69087,10 @@
         <v>45039.5625</v>
       </c>
       <c r="F771" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G771" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H771">
         <v>2</v>
@@ -69102,40 +69102,40 @@
         <v>51</v>
       </c>
       <c r="K771">
-        <v>1.363</v>
+        <v>3</v>
       </c>
       <c r="L771">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M771">
-        <v>7</v>
+        <v>2.15</v>
       </c>
       <c r="N771">
-        <v>1.55</v>
+        <v>2.8</v>
       </c>
       <c r="O771">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P771">
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="Q771">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R771">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S771">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T771">
         <v>3</v>
       </c>
       <c r="U771">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V771">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="W771">
         <v>-1</v>
@@ -69144,16 +69144,16 @@
         <v>-1</v>
       </c>
       <c r="Y771">
-        <v>4</v>
+        <v>1.25</v>
       </c>
       <c r="Z771">
         <v>-1</v>
       </c>
       <c r="AA771">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AB771">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AC771">
         <v>-1</v>
@@ -85540,7 +85540,7 @@
         <v>954</v>
       </c>
       <c r="B956">
-        <v>6810143</v>
+        <v>6810139</v>
       </c>
       <c r="C956" t="s">
         <v>28</v>
@@ -85552,58 +85552,58 @@
         <v>45287.69791666666</v>
       </c>
       <c r="F956" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G956" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H956">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I956">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J956" t="s">
         <v>52</v>
       </c>
       <c r="K956">
+        <v>1.869</v>
+      </c>
+      <c r="L956">
+        <v>3.7</v>
+      </c>
+      <c r="M956">
+        <v>3.8</v>
+      </c>
+      <c r="N956">
         <v>2.05</v>
       </c>
-      <c r="L956">
-        <v>3.4</v>
-      </c>
-      <c r="M956">
-        <v>3.5</v>
-      </c>
-      <c r="N956">
-        <v>2.375</v>
-      </c>
       <c r="O956">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P956">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="Q956">
         <v>-0.25</v>
       </c>
       <c r="R956">
+        <v>1.825</v>
+      </c>
+      <c r="S956">
         <v>2.025</v>
       </c>
-      <c r="S956">
-        <v>1.825</v>
-      </c>
       <c r="T956">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U956">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V956">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W956">
-        <v>1.375</v>
+        <v>1.05</v>
       </c>
       <c r="X956">
         <v>-1</v>
@@ -85612,16 +85612,16 @@
         <v>-1</v>
       </c>
       <c r="Z956">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AA956">
         <v>-1</v>
       </c>
       <c r="AB956">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC956">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="957" spans="1:29">
@@ -85629,7 +85629,7 @@
         <v>955</v>
       </c>
       <c r="B957">
-        <v>6810139</v>
+        <v>6810143</v>
       </c>
       <c r="C957" t="s">
         <v>28</v>
@@ -85641,58 +85641,58 @@
         <v>45287.69791666666</v>
       </c>
       <c r="F957" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G957" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H957">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I957">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J957" t="s">
         <v>52</v>
       </c>
       <c r="K957">
-        <v>1.869</v>
+        <v>2.05</v>
       </c>
       <c r="L957">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="M957">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="N957">
-        <v>2.05</v>
+        <v>2.375</v>
       </c>
       <c r="O957">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P957">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q957">
         <v>-0.25</v>
       </c>
       <c r="R957">
+        <v>2.025</v>
+      </c>
+      <c r="S957">
         <v>1.825</v>
       </c>
-      <c r="S957">
+      <c r="T957">
+        <v>2.25</v>
+      </c>
+      <c r="U957">
         <v>2.025</v>
       </c>
-      <c r="T957">
-        <v>2.75</v>
-      </c>
-      <c r="U957">
-        <v>1.9</v>
-      </c>
       <c r="V957">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W957">
-        <v>1.05</v>
+        <v>1.375</v>
       </c>
       <c r="X957">
         <v>-1</v>
@@ -85701,16 +85701,16 @@
         <v>-1</v>
       </c>
       <c r="Z957">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AA957">
         <v>-1</v>
       </c>
       <c r="AB957">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC957">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="958" spans="1:29">
@@ -87053,7 +87053,7 @@
         <v>971</v>
       </c>
       <c r="B973">
-        <v>6810167</v>
+        <v>6810165</v>
       </c>
       <c r="C973" t="s">
         <v>28</v>
@@ -87062,49 +87062,49 @@
         <v>28</v>
       </c>
       <c r="E973" s="2">
-        <v>45321.6875</v>
+        <v>45322.61458333334</v>
       </c>
       <c r="F973" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G973" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K973">
-        <v>1.125</v>
+        <v>1.6</v>
       </c>
       <c r="L973">
-        <v>8.5</v>
+        <v>4</v>
       </c>
       <c r="M973">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="N973">
-        <v>1.111</v>
+        <v>1.666</v>
       </c>
       <c r="O973">
-        <v>9</v>
+        <v>3.8</v>
       </c>
       <c r="P973">
-        <v>19</v>
+        <v>4.75</v>
       </c>
       <c r="Q973">
-        <v>-2.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R973">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S973">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T973">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U973">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V973">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W973">
         <v>0</v>
@@ -87127,7 +87127,7 @@
         <v>972</v>
       </c>
       <c r="B974">
-        <v>6810169</v>
+        <v>6810168</v>
       </c>
       <c r="C974" t="s">
         <v>28</v>
@@ -87136,49 +87136,49 @@
         <v>28</v>
       </c>
       <c r="E974" s="2">
-        <v>45321.6875</v>
+        <v>45322.61458333334</v>
       </c>
       <c r="F974" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="G974" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="K974">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="L974">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="M974">
-        <v>1.95</v>
+        <v>1.666</v>
       </c>
       <c r="N974">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="O974">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P974">
-        <v>1.95</v>
+        <v>1.666</v>
       </c>
       <c r="Q974">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R974">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S974">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T974">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U974">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="V974">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W974">
         <v>0</v>
@@ -87201,7 +87201,7 @@
         <v>973</v>
       </c>
       <c r="B975">
-        <v>6810165</v>
+        <v>6810162</v>
       </c>
       <c r="C975" t="s">
         <v>28</v>
@@ -87210,49 +87210,49 @@
         <v>28</v>
       </c>
       <c r="E975" s="2">
-        <v>45322.61458333334</v>
+        <v>45322.70833333334</v>
       </c>
       <c r="F975" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G975" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="K975">
-        <v>1.6</v>
+        <v>4</v>
       </c>
       <c r="L975">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M975">
-        <v>5</v>
+        <v>1.85</v>
       </c>
       <c r="N975">
-        <v>1.615</v>
+        <v>3.75</v>
       </c>
       <c r="O975">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P975">
-        <v>5</v>
+        <v>1.909</v>
       </c>
       <c r="Q975">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R975">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S975">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T975">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U975">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V975">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W975">
         <v>0</v>
@@ -87275,7 +87275,7 @@
         <v>974</v>
       </c>
       <c r="B976">
-        <v>6810168</v>
+        <v>6810164</v>
       </c>
       <c r="C976" t="s">
         <v>28</v>
@@ -87284,49 +87284,49 @@
         <v>28</v>
       </c>
       <c r="E976" s="2">
-        <v>45322.61458333334</v>
+        <v>45322.70833333334</v>
       </c>
       <c r="F976" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="G976" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K976">
-        <v>4.5</v>
+        <v>1.2</v>
       </c>
       <c r="L976">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="M976">
-        <v>1.666</v>
+        <v>12</v>
       </c>
       <c r="N976">
-        <v>4.75</v>
+        <v>1.2</v>
       </c>
       <c r="O976">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="P976">
-        <v>1.615</v>
+        <v>12</v>
       </c>
       <c r="Q976">
-        <v>0.75</v>
+        <v>-2</v>
       </c>
       <c r="R976">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S976">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T976">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U976">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V976">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W976">
         <v>0</v>
@@ -87349,7 +87349,7 @@
         <v>975</v>
       </c>
       <c r="B977">
-        <v>6810164</v>
+        <v>6810163</v>
       </c>
       <c r="C977" t="s">
         <v>28</v>
@@ -87358,49 +87358,49 @@
         <v>28</v>
       </c>
       <c r="E977" s="2">
-        <v>45322.70833333334</v>
+        <v>45323.6875</v>
       </c>
       <c r="F977" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="G977" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="K977">
-        <v>1.2</v>
+        <v>3.6</v>
       </c>
       <c r="L977">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="M977">
-        <v>12</v>
+        <v>1.95</v>
       </c>
       <c r="N977">
-        <v>1.2</v>
+        <v>3.6</v>
       </c>
       <c r="O977">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="P977">
-        <v>12</v>
+        <v>1.95</v>
       </c>
       <c r="Q977">
-        <v>-2</v>
+        <v>0.5</v>
       </c>
       <c r="R977">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S977">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T977">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U977">
+        <v>1.95</v>
+      </c>
+      <c r="V977">
         <v>1.9</v>
-      </c>
-      <c r="V977">
-        <v>1.95</v>
       </c>
       <c r="W977">
         <v>0</v>
@@ -87423,7 +87423,7 @@
         <v>976</v>
       </c>
       <c r="B978">
-        <v>6810162</v>
+        <v>6810166</v>
       </c>
       <c r="C978" t="s">
         <v>28</v>
@@ -87432,49 +87432,49 @@
         <v>28</v>
       </c>
       <c r="E978" s="2">
-        <v>45322.70833333334</v>
+        <v>45323.6875</v>
       </c>
       <c r="F978" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G978" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K978">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="L978">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M978">
+        <v>2</v>
+      </c>
+      <c r="N978">
+        <v>3.25</v>
+      </c>
+      <c r="O978">
+        <v>3.5</v>
+      </c>
+      <c r="P978">
+        <v>2.15</v>
+      </c>
+      <c r="Q978">
+        <v>0.25</v>
+      </c>
+      <c r="R978">
+        <v>2</v>
+      </c>
+      <c r="S978">
         <v>1.85</v>
-      </c>
-      <c r="N978">
-        <v>4</v>
-      </c>
-      <c r="O978">
-        <v>3.6</v>
-      </c>
-      <c r="P978">
-        <v>1.85</v>
-      </c>
-      <c r="Q978">
-        <v>0.5</v>
-      </c>
-      <c r="R978">
-        <v>1.925</v>
-      </c>
-      <c r="S978">
-        <v>1.925</v>
       </c>
       <c r="T978">
         <v>2.5</v>
       </c>
       <c r="U978">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V978">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W978">
         <v>0</v>
@@ -87489,154 +87489,6 @@
         <v>0</v>
       </c>
       <c r="AA978">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="979" spans="1:27">
-      <c r="A979" s="1">
-        <v>977</v>
-      </c>
-      <c r="B979">
-        <v>6810166</v>
-      </c>
-      <c r="C979" t="s">
-        <v>28</v>
-      </c>
-      <c r="D979" t="s">
-        <v>28</v>
-      </c>
-      <c r="E979" s="2">
-        <v>45323.6875</v>
-      </c>
-      <c r="F979" t="s">
-        <v>34</v>
-      </c>
-      <c r="G979" t="s">
-        <v>43</v>
-      </c>
-      <c r="K979">
-        <v>3.5</v>
-      </c>
-      <c r="L979">
-        <v>3.5</v>
-      </c>
-      <c r="M979">
-        <v>2</v>
-      </c>
-      <c r="N979">
-        <v>3.25</v>
-      </c>
-      <c r="O979">
-        <v>3.5</v>
-      </c>
-      <c r="P979">
-        <v>2.15</v>
-      </c>
-      <c r="Q979">
-        <v>0.25</v>
-      </c>
-      <c r="R979">
-        <v>2</v>
-      </c>
-      <c r="S979">
-        <v>1.85</v>
-      </c>
-      <c r="T979">
-        <v>2.5</v>
-      </c>
-      <c r="U979">
-        <v>1.975</v>
-      </c>
-      <c r="V979">
-        <v>1.875</v>
-      </c>
-      <c r="W979">
-        <v>0</v>
-      </c>
-      <c r="X979">
-        <v>0</v>
-      </c>
-      <c r="Y979">
-        <v>0</v>
-      </c>
-      <c r="Z979">
-        <v>0</v>
-      </c>
-      <c r="AA979">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="980" spans="1:27">
-      <c r="A980" s="1">
-        <v>978</v>
-      </c>
-      <c r="B980">
-        <v>6810163</v>
-      </c>
-      <c r="C980" t="s">
-        <v>28</v>
-      </c>
-      <c r="D980" t="s">
-        <v>28</v>
-      </c>
-      <c r="E980" s="2">
-        <v>45323.6875</v>
-      </c>
-      <c r="F980" t="s">
-        <v>37</v>
-      </c>
-      <c r="G980" t="s">
-        <v>42</v>
-      </c>
-      <c r="K980">
-        <v>3.6</v>
-      </c>
-      <c r="L980">
-        <v>3.6</v>
-      </c>
-      <c r="M980">
-        <v>1.95</v>
-      </c>
-      <c r="N980">
-        <v>3.6</v>
-      </c>
-      <c r="O980">
-        <v>3.6</v>
-      </c>
-      <c r="P980">
-        <v>1.95</v>
-      </c>
-      <c r="Q980">
-        <v>0.5</v>
-      </c>
-      <c r="R980">
-        <v>1.85</v>
-      </c>
-      <c r="S980">
-        <v>2</v>
-      </c>
-      <c r="T980">
-        <v>2.5</v>
-      </c>
-      <c r="U980">
-        <v>1.925</v>
-      </c>
-      <c r="V980">
-        <v>1.925</v>
-      </c>
-      <c r="W980">
-        <v>0</v>
-      </c>
-      <c r="X980">
-        <v>0</v>
-      </c>
-      <c r="Y980">
-        <v>0</v>
-      </c>
-      <c r="Z980">
-        <v>0</v>
-      </c>
-      <c r="AA980">
         <v>0</v>
       </c>
     </row>

--- a/Belgium First Division A/Belgium First Division A.xlsx
+++ b/Belgium First Division A/Belgium First Division A.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4907" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4891" uniqueCount="54">
   <si>
     <t>id</t>
   </si>
@@ -537,7 +537,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC978"/>
+  <dimension ref="A1:AC974"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -44689,7 +44689,7 @@
         <v>495</v>
       </c>
       <c r="B497">
-        <v>5208474</v>
+        <v>5208630</v>
       </c>
       <c r="C497" t="s">
         <v>28</v>
@@ -44701,76 +44701,76 @@
         <v>44786.55208333334</v>
       </c>
       <c r="F497" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="G497" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H497">
         <v>0</v>
       </c>
       <c r="I497">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J497" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K497">
-        <v>4.2</v>
+        <v>2.05</v>
       </c>
       <c r="L497">
         <v>3.5</v>
       </c>
       <c r="M497">
-        <v>1.833</v>
+        <v>3.4</v>
       </c>
       <c r="N497">
-        <v>4.333</v>
+        <v>2.15</v>
       </c>
       <c r="O497">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P497">
-        <v>1.8</v>
+        <v>3.2</v>
       </c>
       <c r="Q497">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R497">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S497">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T497">
         <v>2.5</v>
       </c>
       <c r="U497">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V497">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W497">
         <v>-1</v>
       </c>
       <c r="X497">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y497">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z497">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA497">
-        <v>0.8</v>
+        <v>0.45</v>
       </c>
       <c r="AB497">
         <v>-1</v>
       </c>
       <c r="AC497">
-        <v>1.025</v>
+        <v>1</v>
       </c>
     </row>
     <row r="498" spans="1:29">
@@ -44778,7 +44778,7 @@
         <v>496</v>
       </c>
       <c r="B498">
-        <v>5208630</v>
+        <v>5208474</v>
       </c>
       <c r="C498" t="s">
         <v>28</v>
@@ -44790,76 +44790,76 @@
         <v>44786.55208333334</v>
       </c>
       <c r="F498" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="G498" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H498">
         <v>0</v>
       </c>
       <c r="I498">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J498" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K498">
-        <v>2.05</v>
+        <v>4.2</v>
       </c>
       <c r="L498">
         <v>3.5</v>
       </c>
       <c r="M498">
-        <v>3.4</v>
+        <v>1.833</v>
       </c>
       <c r="N498">
-        <v>2.15</v>
+        <v>4.333</v>
       </c>
       <c r="O498">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P498">
-        <v>3.2</v>
+        <v>1.8</v>
       </c>
       <c r="Q498">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R498">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S498">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T498">
         <v>2.5</v>
       </c>
       <c r="U498">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V498">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W498">
         <v>-1</v>
       </c>
       <c r="X498">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y498">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z498">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA498">
-        <v>0.45</v>
+        <v>0.8</v>
       </c>
       <c r="AB498">
         <v>-1</v>
       </c>
       <c r="AC498">
-        <v>1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="499" spans="1:29">
@@ -47893,7 +47893,7 @@
         <v>531</v>
       </c>
       <c r="B533">
-        <v>5208497</v>
+        <v>5208499</v>
       </c>
       <c r="C533" t="s">
         <v>28</v>
@@ -47905,76 +47905,76 @@
         <v>44814.55208333334</v>
       </c>
       <c r="F533" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="G533" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="H533">
+        <v>1</v>
+      </c>
+      <c r="I533">
         <v>0</v>
       </c>
-      <c r="I533">
-        <v>2</v>
-      </c>
       <c r="J533" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K533">
-        <v>5.75</v>
+        <v>2.1</v>
       </c>
       <c r="L533">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M533">
-        <v>1.45</v>
+        <v>3.3</v>
       </c>
       <c r="N533">
-        <v>5.5</v>
+        <v>2.2</v>
       </c>
       <c r="O533">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P533">
-        <v>1.55</v>
+        <v>3</v>
       </c>
       <c r="Q533">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R533">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S533">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T533">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U533">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="V533">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W533">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X533">
         <v>-1</v>
       </c>
       <c r="Y533">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="Z533">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA533">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB533">
         <v>-1</v>
       </c>
       <c r="AC533">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="534" spans="1:29">
@@ -47982,7 +47982,7 @@
         <v>532</v>
       </c>
       <c r="B534">
-        <v>5208499</v>
+        <v>5208497</v>
       </c>
       <c r="C534" t="s">
         <v>28</v>
@@ -47994,76 +47994,76 @@
         <v>44814.55208333334</v>
       </c>
       <c r="F534" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="G534" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="H534">
+        <v>0</v>
+      </c>
+      <c r="I534">
+        <v>2</v>
+      </c>
+      <c r="J534" t="s">
+        <v>51</v>
+      </c>
+      <c r="K534">
+        <v>5.75</v>
+      </c>
+      <c r="L534">
+        <v>4.5</v>
+      </c>
+      <c r="M534">
+        <v>1.45</v>
+      </c>
+      <c r="N534">
+        <v>5.5</v>
+      </c>
+      <c r="O534">
+        <v>4.2</v>
+      </c>
+      <c r="P534">
+        <v>1.55</v>
+      </c>
+      <c r="Q534">
         <v>1</v>
       </c>
-      <c r="I534">
-        <v>0</v>
-      </c>
-      <c r="J534" t="s">
-        <v>52</v>
-      </c>
-      <c r="K534">
-        <v>2.1</v>
-      </c>
-      <c r="L534">
-        <v>3.5</v>
-      </c>
-      <c r="M534">
-        <v>3.3</v>
-      </c>
-      <c r="N534">
-        <v>2.2</v>
-      </c>
-      <c r="O534">
-        <v>3.5</v>
-      </c>
-      <c r="P534">
-        <v>3</v>
-      </c>
-      <c r="Q534">
-        <v>-0.25</v>
-      </c>
       <c r="R534">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S534">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T534">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U534">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V534">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W534">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X534">
         <v>-1</v>
       </c>
       <c r="Y534">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="Z534">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA534">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB534">
         <v>-1</v>
       </c>
       <c r="AC534">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="535" spans="1:29">
@@ -51898,7 +51898,7 @@
         <v>576</v>
       </c>
       <c r="B578">
-        <v>5208662</v>
+        <v>5208529</v>
       </c>
       <c r="C578" t="s">
         <v>28</v>
@@ -51910,76 +51910,76 @@
         <v>44852.65625</v>
       </c>
       <c r="F578" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G578" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="H578">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I578">
         <v>1</v>
       </c>
       <c r="J578" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K578">
-        <v>1.6</v>
+        <v>2.625</v>
       </c>
       <c r="L578">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M578">
-        <v>4.75</v>
+        <v>2.5</v>
       </c>
       <c r="N578">
-        <v>1.6</v>
+        <v>3.8</v>
       </c>
       <c r="O578">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P578">
-        <v>5</v>
+        <v>1.909</v>
       </c>
       <c r="Q578">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R578">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S578">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T578">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U578">
+        <v>2</v>
+      </c>
+      <c r="V578">
         <v>1.85</v>
       </c>
-      <c r="V578">
-        <v>2</v>
-      </c>
       <c r="W578">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X578">
         <v>-1</v>
       </c>
       <c r="Y578">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z578">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA578">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB578">
+        <v>-1</v>
+      </c>
+      <c r="AC578">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC578">
-        <v>-1</v>
       </c>
     </row>
     <row r="579" spans="1:29">
@@ -51987,7 +51987,7 @@
         <v>577</v>
       </c>
       <c r="B579">
-        <v>5208529</v>
+        <v>5208662</v>
       </c>
       <c r="C579" t="s">
         <v>28</v>
@@ -51999,76 +51999,76 @@
         <v>44852.65625</v>
       </c>
       <c r="F579" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G579" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="H579">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I579">
         <v>1</v>
       </c>
       <c r="J579" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K579">
-        <v>2.625</v>
+        <v>1.6</v>
       </c>
       <c r="L579">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M579">
-        <v>2.5</v>
+        <v>4.75</v>
       </c>
       <c r="N579">
-        <v>3.8</v>
+        <v>1.6</v>
       </c>
       <c r="O579">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P579">
-        <v>1.909</v>
+        <v>5</v>
       </c>
       <c r="Q579">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R579">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S579">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T579">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U579">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V579">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W579">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X579">
         <v>-1</v>
       </c>
       <c r="Y579">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z579">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA579">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB579">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC579">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="580" spans="1:29">
@@ -53500,7 +53500,7 @@
         <v>594</v>
       </c>
       <c r="B596">
-        <v>5208538</v>
+        <v>5208541</v>
       </c>
       <c r="C596" t="s">
         <v>28</v>
@@ -53512,76 +53512,76 @@
         <v>44863.55208333334</v>
       </c>
       <c r="F596" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="G596" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H596">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I596">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J596" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K596">
-        <v>3.6</v>
+        <v>1.833</v>
       </c>
       <c r="L596">
         <v>3.6</v>
       </c>
       <c r="M596">
-        <v>1.95</v>
+        <v>4.2</v>
       </c>
       <c r="N596">
-        <v>3.8</v>
+        <v>2.25</v>
       </c>
       <c r="O596">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P596">
-        <v>1.85</v>
+        <v>3.5</v>
       </c>
       <c r="Q596">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R596">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S596">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T596">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U596">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V596">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W596">
         <v>-1</v>
       </c>
       <c r="X596">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y596">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z596">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA596">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB596">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC596">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="597" spans="1:29">
@@ -53589,7 +53589,7 @@
         <v>595</v>
       </c>
       <c r="B597">
-        <v>5208541</v>
+        <v>5208538</v>
       </c>
       <c r="C597" t="s">
         <v>28</v>
@@ -53601,76 +53601,76 @@
         <v>44863.55208333334</v>
       </c>
       <c r="F597" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="G597" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H597">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I597">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J597" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K597">
-        <v>1.833</v>
+        <v>3.6</v>
       </c>
       <c r="L597">
         <v>3.6</v>
       </c>
       <c r="M597">
-        <v>4.2</v>
+        <v>1.95</v>
       </c>
       <c r="N597">
-        <v>2.25</v>
+        <v>3.8</v>
       </c>
       <c r="O597">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="P597">
-        <v>3.5</v>
+        <v>1.85</v>
       </c>
       <c r="Q597">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R597">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S597">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T597">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U597">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V597">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W597">
         <v>-1</v>
       </c>
       <c r="X597">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y597">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z597">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA597">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB597">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC597">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="598" spans="1:29">
@@ -58395,7 +58395,7 @@
         <v>649</v>
       </c>
       <c r="B651">
-        <v>5208571</v>
+        <v>5208701</v>
       </c>
       <c r="C651" t="s">
         <v>28</v>
@@ -58407,76 +58407,76 @@
         <v>44944.60416666666</v>
       </c>
       <c r="F651" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G651" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="H651">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I651">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J651" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K651">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="L651">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M651">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="N651">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="O651">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P651">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="Q651">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R651">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S651">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T651">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U651">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V651">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W651">
         <v>-1</v>
       </c>
       <c r="X651">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y651">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z651">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AA651">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB651">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC651">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="652" spans="1:29">
@@ -58484,7 +58484,7 @@
         <v>650</v>
       </c>
       <c r="B652">
-        <v>5208701</v>
+        <v>5208571</v>
       </c>
       <c r="C652" t="s">
         <v>28</v>
@@ -58496,76 +58496,76 @@
         <v>44944.60416666666</v>
       </c>
       <c r="F652" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G652" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H652">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I652">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J652" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K652">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="L652">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M652">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="N652">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="O652">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P652">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="Q652">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R652">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S652">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T652">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U652">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V652">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W652">
         <v>-1</v>
       </c>
       <c r="X652">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y652">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z652">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA652">
+        <v>0.875</v>
+      </c>
+      <c r="AB652">
+        <v>0.5</v>
+      </c>
+      <c r="AC652">
         <v>-0.5</v>
-      </c>
-      <c r="AB652">
-        <v>-1</v>
-      </c>
-      <c r="AC652">
-        <v>0.8</v>
       </c>
     </row>
     <row r="653" spans="1:29">
@@ -59018,7 +59018,7 @@
         <v>656</v>
       </c>
       <c r="B658">
-        <v>5208575</v>
+        <v>5208577</v>
       </c>
       <c r="C658" t="s">
         <v>28</v>
@@ -59030,40 +59030,40 @@
         <v>44947.59375</v>
       </c>
       <c r="F658" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G658" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H658">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I658">
         <v>2</v>
       </c>
       <c r="J658" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K658">
-        <v>1.95</v>
+        <v>2.625</v>
       </c>
       <c r="L658">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M658">
+        <v>2.4</v>
+      </c>
+      <c r="N658">
+        <v>3.2</v>
+      </c>
+      <c r="O658">
         <v>3.4</v>
       </c>
-      <c r="N658">
-        <v>1.75</v>
-      </c>
-      <c r="O658">
-        <v>3.6</v>
-      </c>
       <c r="P658">
-        <v>4</v>
+        <v>2.05</v>
       </c>
       <c r="Q658">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R658">
         <v>2.025</v>
@@ -59072,34 +59072,34 @@
         <v>1.825</v>
       </c>
       <c r="T658">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U658">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V658">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W658">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X658">
         <v>-1</v>
       </c>
       <c r="Y658">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z658">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AA658">
+        <v>0.825</v>
+      </c>
+      <c r="AB658">
+        <v>0.475</v>
+      </c>
+      <c r="AC658">
         <v>-0.5</v>
-      </c>
-      <c r="AB658">
-        <v>1</v>
-      </c>
-      <c r="AC658">
-        <v>-1</v>
       </c>
     </row>
     <row r="659" spans="1:29">
@@ -59107,7 +59107,7 @@
         <v>657</v>
       </c>
       <c r="B659">
-        <v>5208577</v>
+        <v>5208575</v>
       </c>
       <c r="C659" t="s">
         <v>28</v>
@@ -59119,40 +59119,40 @@
         <v>44947.59375</v>
       </c>
       <c r="F659" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G659" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H659">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I659">
         <v>2</v>
       </c>
       <c r="J659" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K659">
-        <v>2.625</v>
+        <v>1.95</v>
       </c>
       <c r="L659">
+        <v>3.5</v>
+      </c>
+      <c r="M659">
         <v>3.4</v>
       </c>
-      <c r="M659">
-        <v>2.4</v>
-      </c>
       <c r="N659">
-        <v>3.2</v>
+        <v>1.75</v>
       </c>
       <c r="O659">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P659">
-        <v>2.05</v>
+        <v>4</v>
       </c>
       <c r="Q659">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R659">
         <v>2.025</v>
@@ -59161,34 +59161,34 @@
         <v>1.825</v>
       </c>
       <c r="T659">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U659">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V659">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W659">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X659">
         <v>-1</v>
       </c>
       <c r="Y659">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z659">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA659">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB659">
-        <v>0.475</v>
+        <v>1</v>
       </c>
       <c r="AC659">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="660" spans="1:29">
@@ -60709,7 +60709,7 @@
         <v>675</v>
       </c>
       <c r="B677">
-        <v>6192614</v>
+        <v>6192613</v>
       </c>
       <c r="C677" t="s">
         <v>28</v>
@@ -60721,76 +60721,76 @@
         <v>44961.59375</v>
       </c>
       <c r="F677" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="G677" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="H677">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I677">
         <v>1</v>
       </c>
       <c r="J677" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K677">
-        <v>2.55</v>
+        <v>3.25</v>
       </c>
       <c r="L677">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M677">
-        <v>2.45</v>
+        <v>2.05</v>
       </c>
       <c r="N677">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="O677">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P677">
-        <v>1.909</v>
+        <v>1.75</v>
       </c>
       <c r="Q677">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R677">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S677">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T677">
         <v>2.5</v>
       </c>
       <c r="U677">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V677">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W677">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="X677">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y677">
         <v>-1</v>
       </c>
       <c r="Z677">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA677">
+        <v>-1</v>
+      </c>
+      <c r="AB677">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA677">
-        <v>-1</v>
-      </c>
-      <c r="AB677">
-        <v>-1</v>
-      </c>
       <c r="AC677">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="678" spans="1:29">
@@ -60798,7 +60798,7 @@
         <v>676</v>
       </c>
       <c r="B678">
-        <v>6192613</v>
+        <v>6192614</v>
       </c>
       <c r="C678" t="s">
         <v>28</v>
@@ -60810,76 +60810,76 @@
         <v>44961.59375</v>
       </c>
       <c r="F678" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="G678" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="H678">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I678">
         <v>1</v>
       </c>
       <c r="J678" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K678">
-        <v>3.25</v>
+        <v>2.55</v>
       </c>
       <c r="L678">
+        <v>3.4</v>
+      </c>
+      <c r="M678">
+        <v>2.45</v>
+      </c>
+      <c r="N678">
+        <v>3.6</v>
+      </c>
+      <c r="O678">
         <v>3.5</v>
       </c>
-      <c r="M678">
-        <v>2.05</v>
-      </c>
-      <c r="N678">
-        <v>4.5</v>
-      </c>
-      <c r="O678">
-        <v>3.75</v>
-      </c>
       <c r="P678">
-        <v>1.75</v>
+        <v>1.909</v>
       </c>
       <c r="Q678">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R678">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S678">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T678">
         <v>2.5</v>
       </c>
       <c r="U678">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V678">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W678">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="X678">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y678">
         <v>-1</v>
       </c>
       <c r="Z678">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA678">
         <v>-1</v>
       </c>
       <c r="AB678">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC678">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="679" spans="1:29">
@@ -61421,7 +61421,7 @@
         <v>683</v>
       </c>
       <c r="B685">
-        <v>5208587</v>
+        <v>5208718</v>
       </c>
       <c r="C685" t="s">
         <v>28</v>
@@ -61433,76 +61433,76 @@
         <v>44967.69791666666</v>
       </c>
       <c r="F685" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="G685" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="H685">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I685">
         <v>1</v>
       </c>
       <c r="J685" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K685">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="L685">
         <v>3.4</v>
       </c>
       <c r="M685">
-        <v>2.9</v>
+        <v>2.45</v>
       </c>
       <c r="N685">
+        <v>2.55</v>
+      </c>
+      <c r="O685">
+        <v>3.4</v>
+      </c>
+      <c r="P685">
         <v>2.5</v>
-      </c>
-      <c r="O685">
-        <v>3.2</v>
-      </c>
-      <c r="P685">
-        <v>2.8</v>
       </c>
       <c r="Q685">
         <v>0</v>
       </c>
       <c r="R685">
+        <v>1.95</v>
+      </c>
+      <c r="S685">
+        <v>1.9</v>
+      </c>
+      <c r="T685">
+        <v>2.75</v>
+      </c>
+      <c r="U685">
+        <v>1.975</v>
+      </c>
+      <c r="V685">
         <v>1.875</v>
       </c>
-      <c r="S685">
-        <v>1.975</v>
-      </c>
-      <c r="T685">
-        <v>2.25</v>
-      </c>
-      <c r="U685">
-        <v>1.8</v>
-      </c>
-      <c r="V685">
-        <v>2.05</v>
-      </c>
       <c r="W685">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X685">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y685">
         <v>-1</v>
       </c>
       <c r="Z685">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA685">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB685">
+        <v>0.4875</v>
+      </c>
+      <c r="AC685">
         <v>-0.5</v>
-      </c>
-      <c r="AC685">
-        <v>0.5249999999999999</v>
       </c>
     </row>
     <row r="686" spans="1:29">
@@ -61510,7 +61510,7 @@
         <v>684</v>
       </c>
       <c r="B686">
-        <v>5208718</v>
+        <v>5208587</v>
       </c>
       <c r="C686" t="s">
         <v>28</v>
@@ -61522,76 +61522,76 @@
         <v>44967.69791666666</v>
       </c>
       <c r="F686" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="G686" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="H686">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I686">
         <v>1</v>
       </c>
       <c r="J686" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K686">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="L686">
         <v>3.4</v>
       </c>
       <c r="M686">
-        <v>2.45</v>
+        <v>2.9</v>
       </c>
       <c r="N686">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="O686">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P686">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="Q686">
         <v>0</v>
       </c>
       <c r="R686">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S686">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T686">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U686">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V686">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="W686">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X686">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y686">
         <v>-1</v>
       </c>
       <c r="Z686">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA686">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB686">
-        <v>0.4875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC686">
-        <v>-0.5</v>
+        <v>0.5249999999999999</v>
       </c>
     </row>
     <row r="687" spans="1:29">
@@ -86519,7 +86519,7 @@
         <v>965</v>
       </c>
       <c r="B967">
-        <v>6810158</v>
+        <v>6810159</v>
       </c>
       <c r="C967" t="s">
         <v>28</v>
@@ -86531,73 +86531,73 @@
         <v>45318.69791666666</v>
       </c>
       <c r="F967" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G967" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H967">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I967">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J967" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K967">
-        <v>1.363</v>
+        <v>5.5</v>
       </c>
       <c r="L967">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="M967">
-        <v>6.5</v>
+        <v>1.5</v>
       </c>
       <c r="N967">
-        <v>1.444</v>
+        <v>6</v>
       </c>
       <c r="O967">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P967">
-        <v>5.75</v>
+        <v>1.45</v>
       </c>
       <c r="Q967">
-        <v>-1.25</v>
+        <v>1.25</v>
       </c>
       <c r="R967">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S967">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T967">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U967">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V967">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W967">
         <v>-1</v>
       </c>
       <c r="X967">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y967">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z967">
         <v>-1</v>
       </c>
       <c r="AA967">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AB967">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AC967">
         <v>-1</v>
@@ -86608,7 +86608,7 @@
         <v>966</v>
       </c>
       <c r="B968">
-        <v>6810159</v>
+        <v>6810158</v>
       </c>
       <c r="C968" t="s">
         <v>28</v>
@@ -86620,73 +86620,73 @@
         <v>45318.69791666666</v>
       </c>
       <c r="F968" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G968" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H968">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I968">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J968" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K968">
-        <v>5.5</v>
+        <v>1.363</v>
       </c>
       <c r="L968">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="M968">
-        <v>1.5</v>
+        <v>6.5</v>
       </c>
       <c r="N968">
-        <v>6</v>
+        <v>1.444</v>
       </c>
       <c r="O968">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P968">
-        <v>1.45</v>
+        <v>5.75</v>
       </c>
       <c r="Q968">
-        <v>1.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R968">
+        <v>2</v>
+      </c>
+      <c r="S968">
+        <v>1.85</v>
+      </c>
+      <c r="T968">
+        <v>3</v>
+      </c>
+      <c r="U968">
+        <v>2.025</v>
+      </c>
+      <c r="V968">
         <v>1.825</v>
       </c>
-      <c r="S968">
-        <v>2.025</v>
-      </c>
-      <c r="T968">
-        <v>2.75</v>
-      </c>
-      <c r="U968">
-        <v>1.95</v>
-      </c>
-      <c r="V968">
-        <v>1.9</v>
-      </c>
       <c r="W968">
         <v>-1</v>
       </c>
       <c r="X968">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y968">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z968">
         <v>-1</v>
       </c>
       <c r="AA968">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB968">
         <v>1.025</v>
-      </c>
-      <c r="AB968">
-        <v>0.95</v>
       </c>
       <c r="AC968">
         <v>-1</v>
@@ -87053,7 +87053,7 @@
         <v>971</v>
       </c>
       <c r="B973">
-        <v>6810165</v>
+        <v>6810163</v>
       </c>
       <c r="C973" t="s">
         <v>28</v>
@@ -87062,49 +87062,49 @@
         <v>28</v>
       </c>
       <c r="E973" s="2">
-        <v>45322.61458333334</v>
+        <v>45323.6875</v>
       </c>
       <c r="F973" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G973" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="K973">
-        <v>1.6</v>
+        <v>3.6</v>
       </c>
       <c r="L973">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M973">
-        <v>5</v>
+        <v>1.95</v>
       </c>
       <c r="N973">
-        <v>1.666</v>
+        <v>3.6</v>
       </c>
       <c r="O973">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P973">
-        <v>4.75</v>
+        <v>2</v>
       </c>
       <c r="Q973">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R973">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S973">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T973">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U973">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V973">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W973">
         <v>0</v>
@@ -87127,7 +87127,7 @@
         <v>972</v>
       </c>
       <c r="B974">
-        <v>6810168</v>
+        <v>6810166</v>
       </c>
       <c r="C974" t="s">
         <v>28</v>
@@ -87136,49 +87136,49 @@
         <v>28</v>
       </c>
       <c r="E974" s="2">
-        <v>45322.61458333334</v>
+        <v>45323.6875</v>
       </c>
       <c r="F974" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G974" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K974">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="L974">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="M974">
-        <v>1.666</v>
+        <v>2</v>
       </c>
       <c r="N974">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="O974">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P974">
-        <v>1.666</v>
+        <v>2.05</v>
       </c>
       <c r="Q974">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R974">
+        <v>2.05</v>
+      </c>
+      <c r="S974">
+        <v>1.8</v>
+      </c>
+      <c r="T974">
+        <v>2.5</v>
+      </c>
+      <c r="U974">
         <v>1.975</v>
       </c>
-      <c r="S974">
+      <c r="V974">
         <v>1.875</v>
-      </c>
-      <c r="T974">
-        <v>3</v>
-      </c>
-      <c r="U974">
-        <v>2.05</v>
-      </c>
-      <c r="V974">
-        <v>1.8</v>
       </c>
       <c r="W974">
         <v>0</v>
@@ -87193,302 +87193,6 @@
         <v>0</v>
       </c>
       <c r="AA974">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="975" spans="1:29">
-      <c r="A975" s="1">
-        <v>973</v>
-      </c>
-      <c r="B975">
-        <v>6810162</v>
-      </c>
-      <c r="C975" t="s">
-        <v>28</v>
-      </c>
-      <c r="D975" t="s">
-        <v>28</v>
-      </c>
-      <c r="E975" s="2">
-        <v>45322.70833333334</v>
-      </c>
-      <c r="F975" t="s">
-        <v>38</v>
-      </c>
-      <c r="G975" t="s">
-        <v>44</v>
-      </c>
-      <c r="K975">
-        <v>4</v>
-      </c>
-      <c r="L975">
-        <v>3.6</v>
-      </c>
-      <c r="M975">
-        <v>1.85</v>
-      </c>
-      <c r="N975">
-        <v>3.75</v>
-      </c>
-      <c r="O975">
-        <v>3.6</v>
-      </c>
-      <c r="P975">
-        <v>1.909</v>
-      </c>
-      <c r="Q975">
-        <v>0.5</v>
-      </c>
-      <c r="R975">
-        <v>1.9</v>
-      </c>
-      <c r="S975">
-        <v>1.95</v>
-      </c>
-      <c r="T975">
-        <v>2.5</v>
-      </c>
-      <c r="U975">
-        <v>1.875</v>
-      </c>
-      <c r="V975">
-        <v>1.975</v>
-      </c>
-      <c r="W975">
-        <v>0</v>
-      </c>
-      <c r="X975">
-        <v>0</v>
-      </c>
-      <c r="Y975">
-        <v>0</v>
-      </c>
-      <c r="Z975">
-        <v>0</v>
-      </c>
-      <c r="AA975">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="976" spans="1:29">
-      <c r="A976" s="1">
-        <v>974</v>
-      </c>
-      <c r="B976">
-        <v>6810164</v>
-      </c>
-      <c r="C976" t="s">
-        <v>28</v>
-      </c>
-      <c r="D976" t="s">
-        <v>28</v>
-      </c>
-      <c r="E976" s="2">
-        <v>45322.70833333334</v>
-      </c>
-      <c r="F976" t="s">
-        <v>48</v>
-      </c>
-      <c r="G976" t="s">
-        <v>50</v>
-      </c>
-      <c r="K976">
-        <v>1.2</v>
-      </c>
-      <c r="L976">
-        <v>7</v>
-      </c>
-      <c r="M976">
-        <v>12</v>
-      </c>
-      <c r="N976">
-        <v>1.2</v>
-      </c>
-      <c r="O976">
-        <v>7</v>
-      </c>
-      <c r="P976">
-        <v>12</v>
-      </c>
-      <c r="Q976">
-        <v>-2</v>
-      </c>
-      <c r="R976">
-        <v>1.9</v>
-      </c>
-      <c r="S976">
-        <v>1.95</v>
-      </c>
-      <c r="T976">
-        <v>3.25</v>
-      </c>
-      <c r="U976">
-        <v>1.9</v>
-      </c>
-      <c r="V976">
-        <v>1.95</v>
-      </c>
-      <c r="W976">
-        <v>0</v>
-      </c>
-      <c r="X976">
-        <v>0</v>
-      </c>
-      <c r="Y976">
-        <v>0</v>
-      </c>
-      <c r="Z976">
-        <v>0</v>
-      </c>
-      <c r="AA976">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="977" spans="1:27">
-      <c r="A977" s="1">
-        <v>975</v>
-      </c>
-      <c r="B977">
-        <v>6810163</v>
-      </c>
-      <c r="C977" t="s">
-        <v>28</v>
-      </c>
-      <c r="D977" t="s">
-        <v>28</v>
-      </c>
-      <c r="E977" s="2">
-        <v>45323.6875</v>
-      </c>
-      <c r="F977" t="s">
-        <v>37</v>
-      </c>
-      <c r="G977" t="s">
-        <v>42</v>
-      </c>
-      <c r="K977">
-        <v>3.6</v>
-      </c>
-      <c r="L977">
-        <v>3.6</v>
-      </c>
-      <c r="M977">
-        <v>1.95</v>
-      </c>
-      <c r="N977">
-        <v>3.6</v>
-      </c>
-      <c r="O977">
-        <v>3.6</v>
-      </c>
-      <c r="P977">
-        <v>1.95</v>
-      </c>
-      <c r="Q977">
-        <v>0.5</v>
-      </c>
-      <c r="R977">
-        <v>1.8</v>
-      </c>
-      <c r="S977">
-        <v>2.05</v>
-      </c>
-      <c r="T977">
-        <v>2.5</v>
-      </c>
-      <c r="U977">
-        <v>1.95</v>
-      </c>
-      <c r="V977">
-        <v>1.9</v>
-      </c>
-      <c r="W977">
-        <v>0</v>
-      </c>
-      <c r="X977">
-        <v>0</v>
-      </c>
-      <c r="Y977">
-        <v>0</v>
-      </c>
-      <c r="Z977">
-        <v>0</v>
-      </c>
-      <c r="AA977">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="978" spans="1:27">
-      <c r="A978" s="1">
-        <v>976</v>
-      </c>
-      <c r="B978">
-        <v>6810166</v>
-      </c>
-      <c r="C978" t="s">
-        <v>28</v>
-      </c>
-      <c r="D978" t="s">
-        <v>28</v>
-      </c>
-      <c r="E978" s="2">
-        <v>45323.6875</v>
-      </c>
-      <c r="F978" t="s">
-        <v>34</v>
-      </c>
-      <c r="G978" t="s">
-        <v>43</v>
-      </c>
-      <c r="K978">
-        <v>3.5</v>
-      </c>
-      <c r="L978">
-        <v>3.5</v>
-      </c>
-      <c r="M978">
-        <v>2</v>
-      </c>
-      <c r="N978">
-        <v>3.25</v>
-      </c>
-      <c r="O978">
-        <v>3.5</v>
-      </c>
-      <c r="P978">
-        <v>2.15</v>
-      </c>
-      <c r="Q978">
-        <v>0.25</v>
-      </c>
-      <c r="R978">
-        <v>2</v>
-      </c>
-      <c r="S978">
-        <v>1.85</v>
-      </c>
-      <c r="T978">
-        <v>2.5</v>
-      </c>
-      <c r="U978">
-        <v>1.975</v>
-      </c>
-      <c r="V978">
-        <v>1.875</v>
-      </c>
-      <c r="W978">
-        <v>0</v>
-      </c>
-      <c r="X978">
-        <v>0</v>
-      </c>
-      <c r="Y978">
-        <v>0</v>
-      </c>
-      <c r="Z978">
-        <v>0</v>
-      </c>
-      <c r="AA978">
         <v>0</v>
       </c>
     </row>

--- a/Belgium First Division A/Belgium First Division A.xlsx
+++ b/Belgium First Division A/Belgium First Division A.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1815" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1819" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -109,10 +109,10 @@
     <t>Eupen</t>
   </si>
   <si>
-    <t>KV Oostende</t>
+    <t>Cercle Brugge</t>
   </si>
   <si>
-    <t>Cercle Brugge</t>
+    <t>KV Oostende</t>
   </si>
   <si>
     <t>Antwerp</t>
@@ -528,7 +528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC360"/>
+  <dimension ref="A1:AC361"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -803,7 +803,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5208561</v>
+        <v>5208691</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -818,46 +818,46 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
         <v>1</v>
-      </c>
-      <c r="I4">
-        <v>2</v>
       </c>
       <c r="J4" t="s">
         <v>49</v>
       </c>
       <c r="K4">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="L4">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M4">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="N4">
-        <v>1.7</v>
+        <v>2.15</v>
       </c>
       <c r="O4">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P4">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="Q4">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R4">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S4">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T4">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U4">
         <v>1.925</v>
@@ -872,19 +872,19 @@
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="Z4">
         <v>-1</v>
       </c>
       <c r="AA4">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB4">
+        <v>-1</v>
+      </c>
+      <c r="AC4">
         <v>0.925</v>
-      </c>
-      <c r="AC4">
-        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -892,7 +892,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5208691</v>
+        <v>5208561</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -907,46 +907,46 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J5" t="s">
         <v>49</v>
       </c>
       <c r="K5">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="L5">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M5">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="N5">
-        <v>2.15</v>
+        <v>1.7</v>
       </c>
       <c r="O5">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P5">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="Q5">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R5">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S5">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T5">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U5">
         <v>1.925</v>
@@ -961,19 +961,19 @@
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="Z5">
         <v>-1</v>
       </c>
       <c r="AA5">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB5">
         <v>0.925</v>
       </c>
-      <c r="AB5">
-        <v>-1</v>
-      </c>
       <c r="AC5">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1708,7 +1708,7 @@
         <v>40</v>
       </c>
       <c r="G14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H14">
         <v>2</v>
@@ -2153,7 +2153,7 @@
         <v>44</v>
       </c>
       <c r="G19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H19">
         <v>2</v>
@@ -2494,7 +2494,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5208571</v>
+        <v>5208701</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2509,73 +2509,73 @@
         <v>31</v>
       </c>
       <c r="G23" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K23">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="L23">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M23">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="N23">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="O23">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P23">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="Q23">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R23">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S23">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T23">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U23">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V23">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W23">
         <v>-1</v>
       </c>
       <c r="X23">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y23">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z23">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AA23">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB23">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC23">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2583,7 +2583,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5208701</v>
+        <v>5208571</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2598,73 +2598,73 @@
         <v>32</v>
       </c>
       <c r="G24" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J24" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K24">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="L24">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M24">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="N24">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="O24">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P24">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="Q24">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R24">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S24">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T24">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U24">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V24">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W24">
         <v>-1</v>
       </c>
       <c r="X24">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y24">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z24">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA24">
+        <v>0.875</v>
+      </c>
+      <c r="AB24">
+        <v>0.5</v>
+      </c>
+      <c r="AC24">
         <v>-0.5</v>
-      </c>
-      <c r="AB24">
-        <v>-1</v>
-      </c>
-      <c r="AC24">
-        <v>0.8</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2672,7 +2672,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5208568</v>
+        <v>5208569</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2684,73 +2684,73 @@
         <v>44944.69791666666</v>
       </c>
       <c r="F25" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G25" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J25" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K25">
-        <v>1.4</v>
+        <v>1.85</v>
       </c>
       <c r="L25">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M25">
-        <v>6.5</v>
+        <v>3.8</v>
       </c>
       <c r="N25">
-        <v>1.7</v>
+        <v>1.666</v>
       </c>
       <c r="O25">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P25">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="Q25">
         <v>-0.75</v>
       </c>
       <c r="R25">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S25">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T25">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U25">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V25">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W25">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X25">
         <v>-1</v>
       </c>
       <c r="Y25">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z25">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA25">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AB25">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC25">
         <v>-1</v>
@@ -2761,7 +2761,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>5208569</v>
+        <v>5208568</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2773,73 +2773,73 @@
         <v>44944.69791666666</v>
       </c>
       <c r="F26" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G26" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H26">
+        <v>2</v>
+      </c>
+      <c r="I26">
         <v>3</v>
       </c>
-      <c r="I26">
-        <v>2</v>
-      </c>
       <c r="J26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K26">
-        <v>1.85</v>
+        <v>1.4</v>
       </c>
       <c r="L26">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M26">
-        <v>3.8</v>
+        <v>6.5</v>
       </c>
       <c r="N26">
-        <v>1.666</v>
+        <v>1.7</v>
       </c>
       <c r="O26">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P26">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="Q26">
         <v>-0.75</v>
       </c>
       <c r="R26">
+        <v>1.925</v>
+      </c>
+      <c r="S26">
+        <v>1.925</v>
+      </c>
+      <c r="T26">
+        <v>2.75</v>
+      </c>
+      <c r="U26">
+        <v>1.975</v>
+      </c>
+      <c r="V26">
         <v>1.875</v>
       </c>
-      <c r="S26">
-        <v>1.975</v>
-      </c>
-      <c r="T26">
-        <v>2.5</v>
-      </c>
-      <c r="U26">
-        <v>1.95</v>
-      </c>
-      <c r="V26">
-        <v>1.9</v>
-      </c>
       <c r="W26">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X26">
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z26">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA26">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB26">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC26">
         <v>-1</v>
@@ -3218,10 +3218,10 @@
         <v>44947.59375</v>
       </c>
       <c r="F31" t="s">
+        <v>32</v>
+      </c>
+      <c r="G31" t="s">
         <v>31</v>
-      </c>
-      <c r="G31" t="s">
-        <v>32</v>
       </c>
       <c r="H31">
         <v>1</v>
@@ -3918,7 +3918,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>5208579</v>
+        <v>5208580</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3930,34 +3930,34 @@
         <v>44954.59375</v>
       </c>
       <c r="F39" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J39" t="s">
         <v>48</v>
       </c>
       <c r="K39">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="L39">
         <v>3.4</v>
       </c>
       <c r="M39">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="N39">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="O39">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P39">
         <v>3.1</v>
@@ -3966,25 +3966,25 @@
         <v>-0.25</v>
       </c>
       <c r="R39">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S39">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T39">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U39">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V39">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W39">
         <v>-1</v>
       </c>
       <c r="X39">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="Y39">
         <v>-1</v>
@@ -3993,13 +3993,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA39">
-        <v>0.4375</v>
+        <v>0.475</v>
       </c>
       <c r="AB39">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC39">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4007,7 +4007,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>5208580</v>
+        <v>5208579</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4019,34 +4019,34 @@
         <v>44954.59375</v>
       </c>
       <c r="F40" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G40" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J40" t="s">
         <v>48</v>
       </c>
       <c r="K40">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="L40">
         <v>3.4</v>
       </c>
       <c r="M40">
+        <v>3</v>
+      </c>
+      <c r="N40">
+        <v>2.2</v>
+      </c>
+      <c r="O40">
         <v>3.2</v>
-      </c>
-      <c r="N40">
-        <v>2.1</v>
-      </c>
-      <c r="O40">
-        <v>3.4</v>
       </c>
       <c r="P40">
         <v>3.1</v>
@@ -4055,25 +4055,25 @@
         <v>-0.25</v>
       </c>
       <c r="R40">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S40">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T40">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U40">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V40">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W40">
         <v>-1</v>
       </c>
       <c r="X40">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="Y40">
         <v>-1</v>
@@ -4082,13 +4082,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA40">
-        <v>0.475</v>
+        <v>0.4375</v>
       </c>
       <c r="AB40">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC40">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4286,7 +4286,7 @@
         <v>44955.5</v>
       </c>
       <c r="F43" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G43" t="s">
         <v>42</v>
@@ -4642,7 +4642,7 @@
         <v>44960.69791666666</v>
       </c>
       <c r="F47" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G47" t="s">
         <v>36</v>
@@ -4731,7 +4731,7 @@
         <v>44961.5</v>
       </c>
       <c r="F48" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G48" t="s">
         <v>29</v>
@@ -4808,7 +4808,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6192614</v>
+        <v>6192613</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4820,76 +4820,76 @@
         <v>44961.59375</v>
       </c>
       <c r="F49" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G49" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I49">
         <v>1</v>
       </c>
       <c r="J49" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K49">
-        <v>2.55</v>
+        <v>3.25</v>
       </c>
       <c r="L49">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M49">
-        <v>2.45</v>
+        <v>2.05</v>
       </c>
       <c r="N49">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="O49">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P49">
-        <v>1.909</v>
+        <v>1.75</v>
       </c>
       <c r="Q49">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R49">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S49">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T49">
         <v>2.5</v>
       </c>
       <c r="U49">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V49">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W49">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="X49">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y49">
         <v>-1</v>
       </c>
       <c r="Z49">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA49">
+        <v>-1</v>
+      </c>
+      <c r="AB49">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA49">
-        <v>-1</v>
-      </c>
-      <c r="AB49">
-        <v>-1</v>
-      </c>
       <c r="AC49">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -4897,7 +4897,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6192613</v>
+        <v>6192614</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4909,76 +4909,76 @@
         <v>44961.59375</v>
       </c>
       <c r="F50" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G50" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I50">
         <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K50">
-        <v>3.25</v>
+        <v>2.55</v>
       </c>
       <c r="L50">
+        <v>3.4</v>
+      </c>
+      <c r="M50">
+        <v>2.45</v>
+      </c>
+      <c r="N50">
+        <v>3.6</v>
+      </c>
+      <c r="O50">
         <v>3.5</v>
       </c>
-      <c r="M50">
-        <v>2.05</v>
-      </c>
-      <c r="N50">
-        <v>4.5</v>
-      </c>
-      <c r="O50">
-        <v>3.75</v>
-      </c>
       <c r="P50">
-        <v>1.75</v>
+        <v>1.909</v>
       </c>
       <c r="Q50">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R50">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S50">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T50">
         <v>2.5</v>
       </c>
       <c r="U50">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V50">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W50">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="X50">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y50">
         <v>-1</v>
       </c>
       <c r="Z50">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA50">
         <v>-1</v>
       </c>
       <c r="AB50">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC50">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -5446,7 +5446,7 @@
         <v>37</v>
       </c>
       <c r="G56" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -5520,7 +5520,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>5208587</v>
+        <v>5208718</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5532,76 +5532,76 @@
         <v>44967.69791666666</v>
       </c>
       <c r="F57" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G57" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I57">
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K57">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="L57">
         <v>3.4</v>
       </c>
       <c r="M57">
-        <v>2.9</v>
+        <v>2.45</v>
       </c>
       <c r="N57">
+        <v>2.55</v>
+      </c>
+      <c r="O57">
+        <v>3.4</v>
+      </c>
+      <c r="P57">
         <v>2.5</v>
-      </c>
-      <c r="O57">
-        <v>3.2</v>
-      </c>
-      <c r="P57">
-        <v>2.8</v>
       </c>
       <c r="Q57">
         <v>0</v>
       </c>
       <c r="R57">
+        <v>1.95</v>
+      </c>
+      <c r="S57">
+        <v>1.9</v>
+      </c>
+      <c r="T57">
+        <v>2.75</v>
+      </c>
+      <c r="U57">
+        <v>1.975</v>
+      </c>
+      <c r="V57">
         <v>1.875</v>
       </c>
-      <c r="S57">
-        <v>1.975</v>
-      </c>
-      <c r="T57">
-        <v>2.25</v>
-      </c>
-      <c r="U57">
-        <v>1.8</v>
-      </c>
-      <c r="V57">
-        <v>2.05</v>
-      </c>
       <c r="W57">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X57">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y57">
         <v>-1</v>
       </c>
       <c r="Z57">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA57">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB57">
+        <v>0.4875</v>
+      </c>
+      <c r="AC57">
         <v>-0.5</v>
-      </c>
-      <c r="AC57">
-        <v>0.5249999999999999</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5609,7 +5609,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>5208718</v>
+        <v>5208587</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5621,76 +5621,76 @@
         <v>44967.69791666666</v>
       </c>
       <c r="F58" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G58" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I58">
         <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K58">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="L58">
         <v>3.4</v>
       </c>
       <c r="M58">
-        <v>2.45</v>
+        <v>2.9</v>
       </c>
       <c r="N58">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="O58">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P58">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="Q58">
         <v>0</v>
       </c>
       <c r="R58">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S58">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T58">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U58">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V58">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="W58">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X58">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y58">
         <v>-1</v>
       </c>
       <c r="Z58">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA58">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB58">
-        <v>0.4875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC58">
-        <v>-0.5</v>
+        <v>0.5249999999999999</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -6158,7 +6158,7 @@
         <v>35</v>
       </c>
       <c r="G64" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H64">
         <v>1</v>
@@ -6511,7 +6511,7 @@
         <v>44975.59375</v>
       </c>
       <c r="F68" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G68" t="s">
         <v>44</v>
@@ -6689,7 +6689,7 @@
         <v>44976.39583333334</v>
       </c>
       <c r="F70" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G70" t="s">
         <v>41</v>
@@ -7226,7 +7226,7 @@
         <v>30</v>
       </c>
       <c r="G76" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H76">
         <v>2</v>
@@ -7315,7 +7315,7 @@
         <v>34</v>
       </c>
       <c r="G77" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H77">
         <v>3</v>
@@ -7846,7 +7846,7 @@
         <v>44988.69791666666</v>
       </c>
       <c r="F83" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G83" t="s">
         <v>41</v>
@@ -8024,7 +8024,7 @@
         <v>44989.59375</v>
       </c>
       <c r="F85" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G85" t="s">
         <v>39</v>
@@ -8828,7 +8828,7 @@
         <v>30</v>
       </c>
       <c r="G94" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H94">
         <v>4</v>
@@ -9362,7 +9362,7 @@
         <v>36</v>
       </c>
       <c r="G100" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H100">
         <v>2</v>
@@ -9448,7 +9448,7 @@
         <v>45002.69791666666</v>
       </c>
       <c r="F101" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G101" t="s">
         <v>34</v>
@@ -9614,7 +9614,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>5208612</v>
+        <v>5208613</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9626,76 +9626,76 @@
         <v>45003.59375</v>
       </c>
       <c r="F103" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G103" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I103">
+        <v>2</v>
+      </c>
+      <c r="J103" t="s">
+        <v>49</v>
+      </c>
+      <c r="K103">
+        <v>3.3</v>
+      </c>
+      <c r="L103">
+        <v>3.3</v>
+      </c>
+      <c r="M103">
+        <v>2.05</v>
+      </c>
+      <c r="N103">
+        <v>2.8</v>
+      </c>
+      <c r="O103">
+        <v>3.3</v>
+      </c>
+      <c r="P103">
+        <v>2.3</v>
+      </c>
+      <c r="Q103">
+        <v>0.25</v>
+      </c>
+      <c r="R103">
+        <v>1.85</v>
+      </c>
+      <c r="S103">
+        <v>2</v>
+      </c>
+      <c r="T103">
+        <v>2.75</v>
+      </c>
+      <c r="U103">
+        <v>1.9</v>
+      </c>
+      <c r="V103">
+        <v>1.95</v>
+      </c>
+      <c r="W103">
+        <v>-1</v>
+      </c>
+      <c r="X103">
+        <v>-1</v>
+      </c>
+      <c r="Y103">
+        <v>1.3</v>
+      </c>
+      <c r="Z103">
+        <v>-1</v>
+      </c>
+      <c r="AA103">
         <v>1</v>
       </c>
-      <c r="J103" t="s">
-        <v>50</v>
-      </c>
-      <c r="K103">
-        <v>1.45</v>
-      </c>
-      <c r="L103">
-        <v>4</v>
-      </c>
-      <c r="M103">
-        <v>6</v>
-      </c>
-      <c r="N103">
-        <v>1.5</v>
-      </c>
-      <c r="O103">
-        <v>3.75</v>
-      </c>
-      <c r="P103">
-        <v>6.5</v>
-      </c>
-      <c r="Q103">
-        <v>-1</v>
-      </c>
-      <c r="R103">
-        <v>2</v>
-      </c>
-      <c r="S103">
-        <v>1.85</v>
-      </c>
-      <c r="T103">
-        <v>2.25</v>
-      </c>
-      <c r="U103">
-        <v>2.025</v>
-      </c>
-      <c r="V103">
-        <v>1.825</v>
-      </c>
-      <c r="W103">
-        <v>0.5</v>
-      </c>
-      <c r="X103">
-        <v>-1</v>
-      </c>
-      <c r="Y103">
-        <v>-1</v>
-      </c>
-      <c r="Z103">
-        <v>0</v>
-      </c>
-      <c r="AA103">
-        <v>-0</v>
-      </c>
       <c r="AB103">
-        <v>1.025</v>
+        <v>0.45</v>
       </c>
       <c r="AC103">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9703,7 +9703,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>5208613</v>
+        <v>5208612</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9715,76 +9715,76 @@
         <v>45003.59375</v>
       </c>
       <c r="F104" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="G104" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H104">
+        <v>2</v>
+      </c>
+      <c r="I104">
         <v>1</v>
       </c>
-      <c r="I104">
-        <v>2</v>
-      </c>
       <c r="J104" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K104">
-        <v>3.3</v>
+        <v>1.45</v>
       </c>
       <c r="L104">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M104">
-        <v>2.05</v>
+        <v>6</v>
       </c>
       <c r="N104">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
       <c r="O104">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P104">
-        <v>2.3</v>
+        <v>6.5</v>
       </c>
       <c r="Q104">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R104">
+        <v>2</v>
+      </c>
+      <c r="S104">
         <v>1.85</v>
       </c>
-      <c r="S104">
-        <v>2</v>
-      </c>
       <c r="T104">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U104">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V104">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W104">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X104">
         <v>-1</v>
       </c>
       <c r="Y104">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z104">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA104">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="AB104">
-        <v>0.45</v>
+        <v>1.025</v>
       </c>
       <c r="AC104">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -10338,7 +10338,7 @@
         <v>45017.45833333334</v>
       </c>
       <c r="F111" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G111" t="s">
         <v>45</v>
@@ -10605,7 +10605,7 @@
         <v>45017.65625</v>
       </c>
       <c r="F114" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G114" t="s">
         <v>29</v>
@@ -11587,7 +11587,7 @@
         <v>33</v>
       </c>
       <c r="G125" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H125">
         <v>2</v>
@@ -11765,7 +11765,7 @@
         <v>46</v>
       </c>
       <c r="G127" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H127">
         <v>5</v>
@@ -12017,7 +12017,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>5424405</v>
+        <v>5424406</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12032,70 +12032,70 @@
         <v>32</v>
       </c>
       <c r="G130" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H130">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I130">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J130" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K130">
-        <v>1.75</v>
+        <v>2.4</v>
       </c>
       <c r="L130">
         <v>3.5</v>
       </c>
       <c r="M130">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="N130">
-        <v>1.65</v>
+        <v>2.4</v>
       </c>
       <c r="O130">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P130">
-        <v>5.25</v>
+        <v>2.75</v>
       </c>
       <c r="Q130">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R130">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S130">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T130">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U130">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V130">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W130">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X130">
         <v>-1</v>
       </c>
       <c r="Y130">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z130">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA130">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB130">
-        <v>1</v>
+        <v>1.025</v>
       </c>
       <c r="AC130">
         <v>-1</v>
@@ -12106,7 +12106,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>5424406</v>
+        <v>5424405</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12121,70 +12121,70 @@
         <v>31</v>
       </c>
       <c r="G131" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I131">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J131" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K131">
-        <v>2.4</v>
+        <v>1.75</v>
       </c>
       <c r="L131">
         <v>3.5</v>
       </c>
       <c r="M131">
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="N131">
-        <v>2.4</v>
+        <v>1.65</v>
       </c>
       <c r="O131">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P131">
-        <v>2.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q131">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R131">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S131">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T131">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U131">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V131">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W131">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X131">
         <v>-1</v>
       </c>
       <c r="Y131">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z131">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA131">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB131">
-        <v>1.025</v>
+        <v>1</v>
       </c>
       <c r="AC131">
         <v>-1</v>
@@ -12818,7 +12818,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6389819</v>
+        <v>6390066</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12830,73 +12830,73 @@
         <v>45039.5625</v>
       </c>
       <c r="F139" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G139" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H139">
         <v>2</v>
       </c>
       <c r="I139">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J139" t="s">
         <v>49</v>
       </c>
       <c r="K139">
-        <v>5.25</v>
+        <v>3</v>
       </c>
       <c r="L139">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M139">
-        <v>1.533</v>
+        <v>2.15</v>
       </c>
       <c r="N139">
-        <v>6.5</v>
+        <v>2.8</v>
       </c>
       <c r="O139">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P139">
-        <v>1.4</v>
+        <v>2.25</v>
       </c>
       <c r="Q139">
+        <v>0.25</v>
+      </c>
+      <c r="R139">
+        <v>1.825</v>
+      </c>
+      <c r="S139">
+        <v>2.025</v>
+      </c>
+      <c r="T139">
+        <v>3</v>
+      </c>
+      <c r="U139">
+        <v>1.8</v>
+      </c>
+      <c r="V139">
+        <v>2.05</v>
+      </c>
+      <c r="W139">
+        <v>-1</v>
+      </c>
+      <c r="X139">
+        <v>-1</v>
+      </c>
+      <c r="Y139">
         <v>1.25</v>
       </c>
-      <c r="R139">
-        <v>1.9</v>
-      </c>
-      <c r="S139">
-        <v>1.95</v>
-      </c>
-      <c r="T139">
-        <v>3.25</v>
-      </c>
-      <c r="U139">
-        <v>2</v>
-      </c>
-      <c r="V139">
-        <v>1.85</v>
-      </c>
-      <c r="W139">
-        <v>-1</v>
-      </c>
-      <c r="X139">
-        <v>-1</v>
-      </c>
-      <c r="Y139">
-        <v>0.3999999999999999</v>
-      </c>
       <c r="Z139">
         <v>-1</v>
       </c>
       <c r="AA139">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AB139">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AC139">
         <v>-1</v>
@@ -12907,7 +12907,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6389865</v>
+        <v>6390043</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12919,49 +12919,49 @@
         <v>45039.5625</v>
       </c>
       <c r="F140" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G140" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I140">
         <v>2</v>
       </c>
       <c r="J140" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K140">
+        <v>1.222</v>
+      </c>
+      <c r="L140">
+        <v>5.75</v>
+      </c>
+      <c r="M140">
+        <v>11</v>
+      </c>
+      <c r="N140">
+        <v>1.142</v>
+      </c>
+      <c r="O140">
+        <v>7.5</v>
+      </c>
+      <c r="P140">
+        <v>15</v>
+      </c>
+      <c r="Q140">
+        <v>-2.25</v>
+      </c>
+      <c r="R140">
+        <v>1.975</v>
+      </c>
+      <c r="S140">
+        <v>1.875</v>
+      </c>
+      <c r="T140">
         <v>3.5</v>
-      </c>
-      <c r="L140">
-        <v>3.6</v>
-      </c>
-      <c r="M140">
-        <v>1.95</v>
-      </c>
-      <c r="N140">
-        <v>2.8</v>
-      </c>
-      <c r="O140">
-        <v>3.5</v>
-      </c>
-      <c r="P140">
-        <v>2.3</v>
-      </c>
-      <c r="Q140">
-        <v>0.25</v>
-      </c>
-      <c r="R140">
-        <v>1.8</v>
-      </c>
-      <c r="S140">
-        <v>2.05</v>
-      </c>
-      <c r="T140">
-        <v>3</v>
       </c>
       <c r="U140">
         <v>1.95</v>
@@ -12973,22 +12973,22 @@
         <v>-1</v>
       </c>
       <c r="X140">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y140">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="Z140">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA140">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB140">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC140">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -13085,7 +13085,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6390043</v>
+        <v>6390693</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13097,76 +13097,76 @@
         <v>45039.5625</v>
       </c>
       <c r="F142" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G142" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H142">
+        <v>3</v>
+      </c>
+      <c r="I142">
+        <v>2</v>
+      </c>
+      <c r="J142" t="s">
+        <v>50</v>
+      </c>
+      <c r="K142">
+        <v>2.5</v>
+      </c>
+      <c r="L142">
+        <v>3.6</v>
+      </c>
+      <c r="M142">
+        <v>2.45</v>
+      </c>
+      <c r="N142">
+        <v>2.4</v>
+      </c>
+      <c r="O142">
+        <v>3.8</v>
+      </c>
+      <c r="P142">
+        <v>2.45</v>
+      </c>
+      <c r="Q142">
+        <v>0</v>
+      </c>
+      <c r="R142">
+        <v>1.9</v>
+      </c>
+      <c r="S142">
+        <v>1.95</v>
+      </c>
+      <c r="T142">
+        <v>3.25</v>
+      </c>
+      <c r="U142">
+        <v>2</v>
+      </c>
+      <c r="V142">
+        <v>1.85</v>
+      </c>
+      <c r="W142">
+        <v>1.4</v>
+      </c>
+      <c r="X142">
+        <v>-1</v>
+      </c>
+      <c r="Y142">
+        <v>-1</v>
+      </c>
+      <c r="Z142">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA142">
+        <v>-1</v>
+      </c>
+      <c r="AB142">
         <v>1</v>
       </c>
-      <c r="I142">
-        <v>2</v>
-      </c>
-      <c r="J142" t="s">
-        <v>49</v>
-      </c>
-      <c r="K142">
-        <v>1.222</v>
-      </c>
-      <c r="L142">
-        <v>5.75</v>
-      </c>
-      <c r="M142">
-        <v>11</v>
-      </c>
-      <c r="N142">
-        <v>1.142</v>
-      </c>
-      <c r="O142">
-        <v>7.5</v>
-      </c>
-      <c r="P142">
-        <v>15</v>
-      </c>
-      <c r="Q142">
-        <v>-2.25</v>
-      </c>
-      <c r="R142">
-        <v>1.975</v>
-      </c>
-      <c r="S142">
-        <v>1.875</v>
-      </c>
-      <c r="T142">
-        <v>3.5</v>
-      </c>
-      <c r="U142">
-        <v>1.95</v>
-      </c>
-      <c r="V142">
-        <v>1.9</v>
-      </c>
-      <c r="W142">
-        <v>-1</v>
-      </c>
-      <c r="X142">
-        <v>-1</v>
-      </c>
-      <c r="Y142">
-        <v>14</v>
-      </c>
-      <c r="Z142">
-        <v>-1</v>
-      </c>
-      <c r="AA142">
-        <v>0.875</v>
-      </c>
-      <c r="AB142">
-        <v>-1</v>
-      </c>
       <c r="AC142">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13174,7 +13174,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6390066</v>
+        <v>6390442</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13186,73 +13186,73 @@
         <v>45039.5625</v>
       </c>
       <c r="F143" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G143" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I143">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J143" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K143">
-        <v>3</v>
+        <v>1.333</v>
       </c>
       <c r="L143">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M143">
-        <v>2.15</v>
+        <v>8</v>
       </c>
       <c r="N143">
-        <v>2.8</v>
+        <v>1.3</v>
       </c>
       <c r="O143">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="P143">
-        <v>2.25</v>
+        <v>8.5</v>
       </c>
       <c r="Q143">
-        <v>0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R143">
+        <v>1.975</v>
+      </c>
+      <c r="S143">
+        <v>1.875</v>
+      </c>
+      <c r="T143">
+        <v>3.75</v>
+      </c>
+      <c r="U143">
+        <v>2.025</v>
+      </c>
+      <c r="V143">
         <v>1.825</v>
       </c>
-      <c r="S143">
-        <v>2.025</v>
-      </c>
-      <c r="T143">
-        <v>3</v>
-      </c>
-      <c r="U143">
-        <v>1.8</v>
-      </c>
-      <c r="V143">
-        <v>2.05</v>
-      </c>
       <c r="W143">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X143">
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z143">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA143">
+        <v>-1</v>
+      </c>
+      <c r="AB143">
         <v>1.025</v>
-      </c>
-      <c r="AB143">
-        <v>0.8</v>
       </c>
       <c r="AC143">
         <v>-1</v>
@@ -13263,7 +13263,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6390442</v>
+        <v>6389865</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13275,73 +13275,73 @@
         <v>45039.5625</v>
       </c>
       <c r="F144" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G144" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H144">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I144">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J144" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K144">
-        <v>1.333</v>
+        <v>3.5</v>
       </c>
       <c r="L144">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M144">
-        <v>8</v>
+        <v>1.95</v>
       </c>
       <c r="N144">
-        <v>1.3</v>
+        <v>2.8</v>
       </c>
       <c r="O144">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="P144">
-        <v>8.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q144">
-        <v>-1.75</v>
+        <v>0.25</v>
       </c>
       <c r="R144">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S144">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T144">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U144">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V144">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W144">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X144">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y144">
         <v>-1</v>
       </c>
       <c r="Z144">
-        <v>0.9750000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="AA144">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB144">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AC144">
         <v>-1</v>
@@ -13352,7 +13352,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6390693</v>
+        <v>6389819</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13364,40 +13364,40 @@
         <v>45039.5625</v>
       </c>
       <c r="F145" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G145" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H145">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I145">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J145" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K145">
-        <v>2.5</v>
+        <v>5.25</v>
       </c>
       <c r="L145">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M145">
-        <v>2.45</v>
+        <v>1.533</v>
       </c>
       <c r="N145">
-        <v>2.4</v>
+        <v>6.5</v>
       </c>
       <c r="O145">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="P145">
-        <v>2.45</v>
+        <v>1.4</v>
       </c>
       <c r="Q145">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="R145">
         <v>1.9</v>
@@ -13415,19 +13415,19 @@
         <v>1.85</v>
       </c>
       <c r="W145">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X145">
         <v>-1</v>
       </c>
       <c r="Y145">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z145">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA145">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB145">
         <v>1</v>
@@ -13542,7 +13542,7 @@
         <v>45045.55208333334</v>
       </c>
       <c r="F147" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G147" t="s">
         <v>29</v>
@@ -13990,7 +13990,7 @@
         <v>38</v>
       </c>
       <c r="G152" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H152">
         <v>3</v>
@@ -14165,7 +14165,7 @@
         <v>45059.55208333334</v>
       </c>
       <c r="F154" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G154" t="s">
         <v>42</v>
@@ -14613,7 +14613,7 @@
         <v>42</v>
       </c>
       <c r="G159" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H159">
         <v>2</v>
@@ -14969,7 +14969,7 @@
         <v>29</v>
       </c>
       <c r="G163" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H163">
         <v>0</v>
@@ -15233,7 +15233,7 @@
         <v>45080.64583333334</v>
       </c>
       <c r="F166" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G166" t="s">
         <v>38</v>
@@ -15948,7 +15948,7 @@
         <v>33</v>
       </c>
       <c r="G174" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H174">
         <v>1</v>
@@ -16479,7 +16479,7 @@
         <v>45143.55208333334</v>
       </c>
       <c r="F180" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G180" t="s">
         <v>44</v>
@@ -17357,7 +17357,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>6810007</v>
+        <v>7030334</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17369,55 +17369,55 @@
         <v>45151.45833333334</v>
       </c>
       <c r="F190" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G190" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H190">
         <v>0</v>
       </c>
       <c r="I190">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J190" t="s">
         <v>49</v>
       </c>
       <c r="K190">
-        <v>4.75</v>
+        <v>2.75</v>
       </c>
       <c r="L190">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M190">
-        <v>1.571</v>
+        <v>2.25</v>
       </c>
       <c r="N190">
-        <v>7</v>
+        <v>2.4</v>
       </c>
       <c r="O190">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P190">
-        <v>1.333</v>
+        <v>2.55</v>
       </c>
       <c r="Q190">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="R190">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S190">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T190">
         <v>3</v>
       </c>
       <c r="U190">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V190">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W190">
         <v>-1</v>
@@ -17426,19 +17426,19 @@
         <v>-1</v>
       </c>
       <c r="Y190">
-        <v>0.333</v>
+        <v>1.55</v>
       </c>
       <c r="Z190">
         <v>-1</v>
       </c>
       <c r="AA190">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB190">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC190">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="191" spans="1:29">
@@ -17446,7 +17446,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>7030334</v>
+        <v>6810007</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17458,55 +17458,55 @@
         <v>45151.45833333334</v>
       </c>
       <c r="F191" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G191" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H191">
         <v>0</v>
       </c>
       <c r="I191">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J191" t="s">
         <v>49</v>
       </c>
       <c r="K191">
-        <v>2.75</v>
+        <v>4.75</v>
       </c>
       <c r="L191">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M191">
-        <v>2.25</v>
+        <v>1.571</v>
       </c>
       <c r="N191">
-        <v>2.4</v>
+        <v>7</v>
       </c>
       <c r="O191">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P191">
-        <v>2.55</v>
+        <v>1.333</v>
       </c>
       <c r="Q191">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="R191">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S191">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T191">
         <v>3</v>
       </c>
       <c r="U191">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V191">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W191">
         <v>-1</v>
@@ -17515,19 +17515,19 @@
         <v>-1</v>
       </c>
       <c r="Y191">
-        <v>1.55</v>
+        <v>0.333</v>
       </c>
       <c r="Z191">
         <v>-1</v>
       </c>
       <c r="AA191">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB191">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC191">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="192" spans="1:29">
@@ -17817,7 +17817,7 @@
         <v>29</v>
       </c>
       <c r="G195" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H195">
         <v>0</v>
@@ -18707,7 +18707,7 @@
         <v>46</v>
       </c>
       <c r="G205" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H205">
         <v>0</v>
@@ -18971,7 +18971,7 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F208" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G208" t="s">
         <v>38</v>
@@ -19686,7 +19686,7 @@
         <v>47</v>
       </c>
       <c r="G216" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H216">
         <v>2</v>
@@ -20751,7 +20751,7 @@
         <v>45193.45833333334</v>
       </c>
       <c r="F228" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G228" t="s">
         <v>43</v>
@@ -21288,7 +21288,7 @@
         <v>45</v>
       </c>
       <c r="G234" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H234">
         <v>2</v>
@@ -22086,7 +22086,7 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F243" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G243" t="s">
         <v>37</v>
@@ -23154,7 +23154,7 @@
         <v>45221.45833333334</v>
       </c>
       <c r="F255" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G255" t="s">
         <v>42</v>
@@ -23513,7 +23513,7 @@
         <v>40</v>
       </c>
       <c r="G259" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H259">
         <v>0</v>
@@ -24489,7 +24489,7 @@
         <v>45235.39583333334</v>
       </c>
       <c r="F270" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G270" t="s">
         <v>36</v>
@@ -25204,7 +25204,7 @@
         <v>41</v>
       </c>
       <c r="G278" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H278">
         <v>0</v>
@@ -25646,7 +25646,7 @@
         <v>45255.5</v>
       </c>
       <c r="F283" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G283" t="s">
         <v>30</v>
@@ -26895,7 +26895,7 @@
         <v>43</v>
       </c>
       <c r="G297" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H297">
         <v>2</v>
@@ -27070,7 +27070,7 @@
         <v>45269.5</v>
       </c>
       <c r="F299" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G299" t="s">
         <v>33</v>
@@ -27785,7 +27785,7 @@
         <v>37</v>
       </c>
       <c r="G307" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H307">
         <v>1</v>
@@ -28405,7 +28405,7 @@
         <v>45280.60416666666</v>
       </c>
       <c r="F314" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G314" t="s">
         <v>45</v>
@@ -29194,7 +29194,7 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>6810142</v>
+        <v>6810145</v>
       </c>
       <c r="C323" t="s">
         <v>28</v>
@@ -29206,76 +29206,76 @@
         <v>45286.5</v>
       </c>
       <c r="F323" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G323" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H323">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I323">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J323" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K323">
-        <v>1.75</v>
+        <v>7</v>
       </c>
       <c r="L323">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M323">
-        <v>4</v>
+        <v>1.4</v>
       </c>
       <c r="N323">
+        <v>8.5</v>
+      </c>
+      <c r="O323">
+        <v>5.75</v>
+      </c>
+      <c r="P323">
+        <v>1.285</v>
+      </c>
+      <c r="Q323">
+        <v>1.5</v>
+      </c>
+      <c r="R323">
+        <v>2.025</v>
+      </c>
+      <c r="S323">
+        <v>1.825</v>
+      </c>
+      <c r="T323">
+        <v>3.25</v>
+      </c>
+      <c r="U323">
+        <v>2.05</v>
+      </c>
+      <c r="V323">
         <v>1.8</v>
       </c>
-      <c r="O323">
-        <v>3.8</v>
-      </c>
-      <c r="P323">
-        <v>3.8</v>
-      </c>
-      <c r="Q323">
-        <v>-0.5</v>
-      </c>
-      <c r="R323">
-        <v>1.825</v>
-      </c>
-      <c r="S323">
-        <v>2.025</v>
-      </c>
-      <c r="T323">
-        <v>3</v>
-      </c>
-      <c r="U323">
-        <v>1.975</v>
-      </c>
-      <c r="V323">
-        <v>1.875</v>
-      </c>
       <c r="W323">
+        <v>-1</v>
+      </c>
+      <c r="X323">
+        <v>-1</v>
+      </c>
+      <c r="Y323">
+        <v>0.2849999999999999</v>
+      </c>
+      <c r="Z323">
+        <v>-1</v>
+      </c>
+      <c r="AA323">
+        <v>0.825</v>
+      </c>
+      <c r="AB323">
+        <v>-1</v>
+      </c>
+      <c r="AC323">
         <v>0.8</v>
-      </c>
-      <c r="X323">
-        <v>-1</v>
-      </c>
-      <c r="Y323">
-        <v>-1</v>
-      </c>
-      <c r="Z323">
-        <v>0.825</v>
-      </c>
-      <c r="AA323">
-        <v>-1</v>
-      </c>
-      <c r="AB323">
-        <v>0</v>
-      </c>
-      <c r="AC323">
-        <v>-0</v>
       </c>
     </row>
     <row r="324" spans="1:29">
@@ -29283,7 +29283,7 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>6810145</v>
+        <v>6810142</v>
       </c>
       <c r="C324" t="s">
         <v>28</v>
@@ -29295,76 +29295,76 @@
         <v>45286.5</v>
       </c>
       <c r="F324" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G324" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H324">
+        <v>3</v>
+      </c>
+      <c r="I324">
         <v>0</v>
       </c>
-      <c r="I324">
-        <v>2</v>
-      </c>
       <c r="J324" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K324">
-        <v>7</v>
+        <v>1.75</v>
       </c>
       <c r="L324">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M324">
-        <v>1.4</v>
+        <v>4</v>
       </c>
       <c r="N324">
-        <v>8.5</v>
+        <v>1.8</v>
       </c>
       <c r="O324">
-        <v>5.75</v>
+        <v>3.8</v>
       </c>
       <c r="P324">
-        <v>1.285</v>
+        <v>3.8</v>
       </c>
       <c r="Q324">
-        <v>1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R324">
+        <v>1.825</v>
+      </c>
+      <c r="S324">
         <v>2.025</v>
       </c>
-      <c r="S324">
-        <v>1.825</v>
-      </c>
       <c r="T324">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U324">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="V324">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W324">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X324">
         <v>-1</v>
       </c>
       <c r="Y324">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z324">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA324">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB324">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC324">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="325" spans="1:29">
@@ -29654,7 +29654,7 @@
         <v>36</v>
       </c>
       <c r="G328" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H328">
         <v>2</v>
@@ -29921,7 +29921,7 @@
         <v>34</v>
       </c>
       <c r="G331" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H331">
         <v>1</v>
@@ -30452,7 +30452,7 @@
         <v>45317.69791666666</v>
       </c>
       <c r="F337" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G337" t="s">
         <v>29</v>
@@ -31256,7 +31256,7 @@
         <v>38</v>
       </c>
       <c r="G346" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H346">
         <v>4</v>
@@ -31508,7 +31508,7 @@
         <v>347</v>
       </c>
       <c r="B349">
-        <v>6810162</v>
+        <v>6810164</v>
       </c>
       <c r="C349" t="s">
         <v>28</v>
@@ -31520,76 +31520,76 @@
         <v>45322.70833333334</v>
       </c>
       <c r="F349" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G349" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="H349">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I349">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J349" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K349">
-        <v>4</v>
+        <v>1.2</v>
       </c>
       <c r="L349">
-        <v>3.6</v>
+        <v>7</v>
       </c>
       <c r="M349">
-        <v>1.85</v>
+        <v>12</v>
       </c>
       <c r="N349">
-        <v>3.1</v>
+        <v>1.142</v>
       </c>
       <c r="O349">
-        <v>3.2</v>
+        <v>8.5</v>
       </c>
       <c r="P349">
-        <v>2.3</v>
+        <v>15</v>
       </c>
       <c r="Q349">
-        <v>0.25</v>
+        <v>-2.25</v>
       </c>
       <c r="R349">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S349">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T349">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="U349">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V349">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W349">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X349">
         <v>-1</v>
       </c>
       <c r="Y349">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z349">
         <v>-1</v>
       </c>
       <c r="AA349">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AB349">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC349">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="350" spans="1:29">
@@ -31597,7 +31597,7 @@
         <v>348</v>
       </c>
       <c r="B350">
-        <v>6810164</v>
+        <v>6810162</v>
       </c>
       <c r="C350" t="s">
         <v>28</v>
@@ -31609,76 +31609,76 @@
         <v>45322.70833333334</v>
       </c>
       <c r="F350" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G350" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="H350">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I350">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J350" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K350">
-        <v>1.2</v>
+        <v>4</v>
       </c>
       <c r="L350">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="M350">
-        <v>12</v>
+        <v>1.85</v>
       </c>
       <c r="N350">
-        <v>1.142</v>
+        <v>3.1</v>
       </c>
       <c r="O350">
-        <v>8.5</v>
+        <v>3.2</v>
       </c>
       <c r="P350">
-        <v>15</v>
+        <v>2.3</v>
       </c>
       <c r="Q350">
-        <v>-2.25</v>
+        <v>0.25</v>
       </c>
       <c r="R350">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S350">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T350">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="U350">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V350">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W350">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X350">
         <v>-1</v>
       </c>
       <c r="Y350">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z350">
         <v>-1</v>
       </c>
       <c r="AA350">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="AB350">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC350">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="351" spans="1:29">
@@ -31891,31 +31891,31 @@
         <v>2.2</v>
       </c>
       <c r="N353">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="O353">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P353">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="Q353">
         <v>0.25</v>
       </c>
       <c r="R353">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S353">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T353">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U353">
+        <v>1.8</v>
+      </c>
+      <c r="V353">
         <v>2.05</v>
-      </c>
-      <c r="V353">
-        <v>1.8</v>
       </c>
       <c r="W353">
         <v>0</v>
@@ -31986,10 +31986,10 @@
         <v>2.5</v>
       </c>
       <c r="U354">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V354">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W354">
         <v>0</v>
@@ -32051,10 +32051,10 @@
         <v>-0.5</v>
       </c>
       <c r="R355">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S355">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T355">
         <v>2.75</v>
@@ -32086,7 +32086,7 @@
         <v>354</v>
       </c>
       <c r="B356">
-        <v>6810177</v>
+        <v>6810174</v>
       </c>
       <c r="C356" t="s">
         <v>28</v>
@@ -32095,49 +32095,49 @@
         <v>28</v>
       </c>
       <c r="E356" s="2">
-        <v>45325.69791666666</v>
+        <v>45325.59375</v>
       </c>
       <c r="F356" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G356" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="K356">
-        <v>2.8</v>
+        <v>1.909</v>
       </c>
       <c r="L356">
+        <v>3.75</v>
+      </c>
+      <c r="M356">
+        <v>3.5</v>
+      </c>
+      <c r="N356">
+        <v>2</v>
+      </c>
+      <c r="O356">
+        <v>3.6</v>
+      </c>
+      <c r="P356">
         <v>3.4</v>
       </c>
-      <c r="M356">
-        <v>2.375</v>
-      </c>
-      <c r="N356">
-        <v>2.8</v>
-      </c>
-      <c r="O356">
-        <v>3.4</v>
-      </c>
-      <c r="P356">
-        <v>2.375</v>
-      </c>
       <c r="Q356">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R356">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S356">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T356">
         <v>2.75</v>
       </c>
       <c r="U356">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V356">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W356">
         <v>0</v>
@@ -32160,7 +32160,7 @@
         <v>355</v>
       </c>
       <c r="B357">
-        <v>6810178</v>
+        <v>6810177</v>
       </c>
       <c r="C357" t="s">
         <v>28</v>
@@ -32169,49 +32169,49 @@
         <v>28</v>
       </c>
       <c r="E357" s="2">
-        <v>45326.39583333334</v>
+        <v>45325.69791666666</v>
       </c>
       <c r="F357" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G357" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K357">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="L357">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M357">
-        <v>1.95</v>
+        <v>2.375</v>
       </c>
       <c r="N357">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="O357">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P357">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="Q357">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R357">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S357">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T357">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U357">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V357">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W357">
         <v>0</v>
@@ -32234,7 +32234,7 @@
         <v>356</v>
       </c>
       <c r="B358">
-        <v>6810172</v>
+        <v>6810178</v>
       </c>
       <c r="C358" t="s">
         <v>28</v>
@@ -32243,40 +32243,40 @@
         <v>28</v>
       </c>
       <c r="E358" s="2">
-        <v>45326.5</v>
+        <v>45326.39583333334</v>
       </c>
       <c r="F358" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G358" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K358">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="L358">
         <v>3.5</v>
       </c>
       <c r="M358">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="N358">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="O358">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P358">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="Q358">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R358">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S358">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T358">
         <v>2.5</v>
@@ -32308,7 +32308,7 @@
         <v>357</v>
       </c>
       <c r="B359">
-        <v>6810173</v>
+        <v>6810172</v>
       </c>
       <c r="C359" t="s">
         <v>28</v>
@@ -32317,40 +32317,40 @@
         <v>28</v>
       </c>
       <c r="E359" s="2">
-        <v>45326.60416666666</v>
+        <v>45326.5</v>
       </c>
       <c r="F359" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G359" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K359">
-        <v>2.375</v>
+        <v>3.2</v>
       </c>
       <c r="L359">
+        <v>3.5</v>
+      </c>
+      <c r="M359">
+        <v>2.1</v>
+      </c>
+      <c r="N359">
+        <v>3</v>
+      </c>
+      <c r="O359">
         <v>3.4</v>
       </c>
-      <c r="M359">
-        <v>2.8</v>
-      </c>
-      <c r="N359">
-        <v>2.2</v>
-      </c>
-      <c r="O359">
-        <v>3.5</v>
-      </c>
       <c r="P359">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="Q359">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R359">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S359">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T359">
         <v>2.5</v>
@@ -32382,7 +32382,7 @@
         <v>358</v>
       </c>
       <c r="B360">
-        <v>6810170</v>
+        <v>6810173</v>
       </c>
       <c r="C360" t="s">
         <v>28</v>
@@ -32391,49 +32391,49 @@
         <v>28</v>
       </c>
       <c r="E360" s="2">
-        <v>45326.63541666666</v>
+        <v>45326.60416666666</v>
       </c>
       <c r="F360" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G360" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="K360">
-        <v>1.833</v>
+        <v>2.375</v>
       </c>
       <c r="L360">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M360">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="N360">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="O360">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P360">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q360">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R360">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S360">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T360">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U360">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V360">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W360">
         <v>0</v>
@@ -32448,6 +32448,80 @@
         <v>0</v>
       </c>
       <c r="AA360">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:27">
+      <c r="A361" s="1">
+        <v>359</v>
+      </c>
+      <c r="B361">
+        <v>6810170</v>
+      </c>
+      <c r="C361" t="s">
+        <v>28</v>
+      </c>
+      <c r="D361" t="s">
+        <v>28</v>
+      </c>
+      <c r="E361" s="2">
+        <v>45326.63541666666</v>
+      </c>
+      <c r="F361" t="s">
+        <v>31</v>
+      </c>
+      <c r="G361" t="s">
+        <v>46</v>
+      </c>
+      <c r="K361">
+        <v>1.833</v>
+      </c>
+      <c r="L361">
+        <v>3.75</v>
+      </c>
+      <c r="M361">
+        <v>3.8</v>
+      </c>
+      <c r="N361">
+        <v>1.85</v>
+      </c>
+      <c r="O361">
+        <v>3.6</v>
+      </c>
+      <c r="P361">
+        <v>3.8</v>
+      </c>
+      <c r="Q361">
+        <v>-0.5</v>
+      </c>
+      <c r="R361">
+        <v>1.875</v>
+      </c>
+      <c r="S361">
+        <v>1.975</v>
+      </c>
+      <c r="T361">
+        <v>2.75</v>
+      </c>
+      <c r="U361">
+        <v>1.975</v>
+      </c>
+      <c r="V361">
+        <v>1.875</v>
+      </c>
+      <c r="W361">
+        <v>0</v>
+      </c>
+      <c r="X361">
+        <v>0</v>
+      </c>
+      <c r="Y361">
+        <v>0</v>
+      </c>
+      <c r="Z361">
+        <v>0</v>
+      </c>
+      <c r="AA361">
         <v>0</v>
       </c>
     </row>

--- a/Belgium First Division A/Belgium First Division A.xlsx
+++ b/Belgium First Division A/Belgium First Division A.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1819" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1815" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -528,7 +528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC361"/>
+  <dimension ref="A1:AC360"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1604,7 +1604,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6114951</v>
+        <v>5208566</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1616,76 +1616,76 @@
         <v>44940.59375</v>
       </c>
       <c r="F13" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K13">
+        <v>1.75</v>
+      </c>
+      <c r="L13">
+        <v>3.8</v>
+      </c>
+      <c r="M13">
+        <v>4.2</v>
+      </c>
+      <c r="N13">
+        <v>1.666</v>
+      </c>
+      <c r="O13">
+        <v>4</v>
+      </c>
+      <c r="P13">
+        <v>4.5</v>
+      </c>
+      <c r="Q13">
+        <v>-0.75</v>
+      </c>
+      <c r="R13">
+        <v>1.875</v>
+      </c>
+      <c r="S13">
+        <v>1.975</v>
+      </c>
+      <c r="T13">
         <v>2.75</v>
       </c>
-      <c r="L13">
-        <v>3.4</v>
-      </c>
-      <c r="M13">
-        <v>2.45</v>
-      </c>
-      <c r="N13">
-        <v>2.8</v>
-      </c>
-      <c r="O13">
-        <v>3.3</v>
-      </c>
-      <c r="P13">
-        <v>2.45</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13">
-        <v>2.05</v>
-      </c>
-      <c r="S13">
-        <v>1.8</v>
-      </c>
-      <c r="T13">
-        <v>2.5</v>
-      </c>
       <c r="U13">
+        <v>1.825</v>
+      </c>
+      <c r="V13">
         <v>2.025</v>
       </c>
-      <c r="V13">
-        <v>1.825</v>
-      </c>
       <c r="W13">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X13">
         <v>-1</v>
       </c>
       <c r="Y13">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z13">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA13">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB13">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AC13">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1693,7 +1693,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5208566</v>
+        <v>6114951</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1705,76 +1705,76 @@
         <v>44940.59375</v>
       </c>
       <c r="F14" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G14" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K14">
-        <v>1.75</v>
+        <v>2.75</v>
       </c>
       <c r="L14">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M14">
-        <v>4.2</v>
+        <v>2.45</v>
       </c>
       <c r="N14">
-        <v>1.666</v>
+        <v>2.8</v>
       </c>
       <c r="O14">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P14">
-        <v>4.5</v>
+        <v>2.45</v>
       </c>
       <c r="Q14">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R14">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S14">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T14">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U14">
+        <v>2.025</v>
+      </c>
+      <c r="V14">
         <v>1.825</v>
       </c>
-      <c r="V14">
-        <v>2.025</v>
-      </c>
       <c r="W14">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X14">
         <v>-1</v>
       </c>
       <c r="Y14">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z14">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA14">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB14">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC14">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -3117,7 +3117,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>5208575</v>
+        <v>5208577</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3129,40 +3129,40 @@
         <v>44947.59375</v>
       </c>
       <c r="F30" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G30" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I30">
         <v>2</v>
       </c>
       <c r="J30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K30">
-        <v>1.95</v>
+        <v>2.625</v>
       </c>
       <c r="L30">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M30">
+        <v>2.4</v>
+      </c>
+      <c r="N30">
+        <v>3.2</v>
+      </c>
+      <c r="O30">
         <v>3.4</v>
       </c>
-      <c r="N30">
-        <v>1.75</v>
-      </c>
-      <c r="O30">
-        <v>3.6</v>
-      </c>
       <c r="P30">
-        <v>4</v>
+        <v>2.05</v>
       </c>
       <c r="Q30">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R30">
         <v>2.025</v>
@@ -3171,34 +3171,34 @@
         <v>1.825</v>
       </c>
       <c r="T30">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U30">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V30">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W30">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X30">
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z30">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AA30">
+        <v>0.825</v>
+      </c>
+      <c r="AB30">
+        <v>0.475</v>
+      </c>
+      <c r="AC30">
         <v>-0.5</v>
-      </c>
-      <c r="AB30">
-        <v>1</v>
-      </c>
-      <c r="AC30">
-        <v>-1</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3206,7 +3206,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>5208577</v>
+        <v>5208575</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3218,40 +3218,40 @@
         <v>44947.59375</v>
       </c>
       <c r="F31" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G31" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I31">
         <v>2</v>
       </c>
       <c r="J31" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K31">
-        <v>2.625</v>
+        <v>1.95</v>
       </c>
       <c r="L31">
+        <v>3.5</v>
+      </c>
+      <c r="M31">
         <v>3.4</v>
       </c>
-      <c r="M31">
-        <v>2.4</v>
-      </c>
       <c r="N31">
-        <v>3.2</v>
+        <v>1.75</v>
       </c>
       <c r="O31">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P31">
-        <v>2.05</v>
+        <v>4</v>
       </c>
       <c r="Q31">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R31">
         <v>2.025</v>
@@ -3260,34 +3260,34 @@
         <v>1.825</v>
       </c>
       <c r="T31">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U31">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V31">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W31">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X31">
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z31">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA31">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB31">
-        <v>0.475</v>
+        <v>1</v>
       </c>
       <c r="AC31">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -7211,7 +7211,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>5208727</v>
+        <v>5208597</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7223,76 +7223,76 @@
         <v>44982.59375</v>
       </c>
       <c r="F76" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G76" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I76">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J76" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K76">
-        <v>3.25</v>
+        <v>1.333</v>
       </c>
       <c r="L76">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="M76">
-        <v>2.1</v>
+        <v>7.5</v>
       </c>
       <c r="N76">
-        <v>4</v>
+        <v>1.4</v>
       </c>
       <c r="O76">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="P76">
-        <v>1.909</v>
+        <v>6.5</v>
       </c>
       <c r="Q76">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R76">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S76">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T76">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U76">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V76">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W76">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X76">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y76">
         <v>-1</v>
       </c>
       <c r="Z76">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA76">
         <v>-1</v>
       </c>
       <c r="AB76">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC76">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7300,7 +7300,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>5208597</v>
+        <v>5208727</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7312,76 +7312,76 @@
         <v>44982.59375</v>
       </c>
       <c r="F77" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G77" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H77">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I77">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J77" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K77">
-        <v>1.333</v>
+        <v>3.25</v>
       </c>
       <c r="L77">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="M77">
-        <v>7.5</v>
+        <v>2.1</v>
       </c>
       <c r="N77">
-        <v>1.4</v>
+        <v>4</v>
       </c>
       <c r="O77">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="P77">
-        <v>6.5</v>
+        <v>1.909</v>
       </c>
       <c r="Q77">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R77">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S77">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T77">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U77">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V77">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W77">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X77">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y77">
         <v>-1</v>
       </c>
       <c r="Z77">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA77">
         <v>-1</v>
       </c>
       <c r="AB77">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC77">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -9614,7 +9614,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>5208613</v>
+        <v>5208612</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9626,76 +9626,76 @@
         <v>45003.59375</v>
       </c>
       <c r="F103" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G103" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H103">
+        <v>2</v>
+      </c>
+      <c r="I103">
         <v>1</v>
       </c>
-      <c r="I103">
-        <v>2</v>
-      </c>
       <c r="J103" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K103">
-        <v>3.3</v>
+        <v>1.45</v>
       </c>
       <c r="L103">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M103">
-        <v>2.05</v>
+        <v>6</v>
       </c>
       <c r="N103">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
       <c r="O103">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P103">
-        <v>2.3</v>
+        <v>6.5</v>
       </c>
       <c r="Q103">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R103">
+        <v>2</v>
+      </c>
+      <c r="S103">
         <v>1.85</v>
       </c>
-      <c r="S103">
-        <v>2</v>
-      </c>
       <c r="T103">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U103">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V103">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W103">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X103">
         <v>-1</v>
       </c>
       <c r="Y103">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z103">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA103">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="AB103">
-        <v>0.45</v>
+        <v>1.025</v>
       </c>
       <c r="AC103">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9703,7 +9703,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>5208612</v>
+        <v>5208613</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9715,76 +9715,76 @@
         <v>45003.59375</v>
       </c>
       <c r="F104" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G104" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I104">
+        <v>2</v>
+      </c>
+      <c r="J104" t="s">
+        <v>49</v>
+      </c>
+      <c r="K104">
+        <v>3.3</v>
+      </c>
+      <c r="L104">
+        <v>3.3</v>
+      </c>
+      <c r="M104">
+        <v>2.05</v>
+      </c>
+      <c r="N104">
+        <v>2.8</v>
+      </c>
+      <c r="O104">
+        <v>3.3</v>
+      </c>
+      <c r="P104">
+        <v>2.3</v>
+      </c>
+      <c r="Q104">
+        <v>0.25</v>
+      </c>
+      <c r="R104">
+        <v>1.85</v>
+      </c>
+      <c r="S104">
+        <v>2</v>
+      </c>
+      <c r="T104">
+        <v>2.75</v>
+      </c>
+      <c r="U104">
+        <v>1.9</v>
+      </c>
+      <c r="V104">
+        <v>1.95</v>
+      </c>
+      <c r="W104">
+        <v>-1</v>
+      </c>
+      <c r="X104">
+        <v>-1</v>
+      </c>
+      <c r="Y104">
+        <v>1.3</v>
+      </c>
+      <c r="Z104">
+        <v>-1</v>
+      </c>
+      <c r="AA104">
         <v>1</v>
       </c>
-      <c r="J104" t="s">
-        <v>50</v>
-      </c>
-      <c r="K104">
-        <v>1.45</v>
-      </c>
-      <c r="L104">
-        <v>4</v>
-      </c>
-      <c r="M104">
-        <v>6</v>
-      </c>
-      <c r="N104">
-        <v>1.5</v>
-      </c>
-      <c r="O104">
-        <v>3.75</v>
-      </c>
-      <c r="P104">
-        <v>6.5</v>
-      </c>
-      <c r="Q104">
-        <v>-1</v>
-      </c>
-      <c r="R104">
-        <v>2</v>
-      </c>
-      <c r="S104">
-        <v>1.85</v>
-      </c>
-      <c r="T104">
-        <v>2.25</v>
-      </c>
-      <c r="U104">
-        <v>2.025</v>
-      </c>
-      <c r="V104">
-        <v>1.825</v>
-      </c>
-      <c r="W104">
-        <v>0.5</v>
-      </c>
-      <c r="X104">
-        <v>-1</v>
-      </c>
-      <c r="Y104">
-        <v>-1</v>
-      </c>
-      <c r="Z104">
-        <v>0</v>
-      </c>
-      <c r="AA104">
-        <v>-0</v>
-      </c>
       <c r="AB104">
-        <v>1.025</v>
+        <v>0.45</v>
       </c>
       <c r="AC104">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -13085,7 +13085,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6390693</v>
+        <v>6390442</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13097,58 +13097,58 @@
         <v>45039.5625</v>
       </c>
       <c r="F142" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G142" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H142">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I142">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J142" t="s">
         <v>50</v>
       </c>
       <c r="K142">
-        <v>2.5</v>
+        <v>1.333</v>
       </c>
       <c r="L142">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M142">
-        <v>2.45</v>
+        <v>8</v>
       </c>
       <c r="N142">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="O142">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="P142">
-        <v>2.45</v>
+        <v>8.5</v>
       </c>
       <c r="Q142">
-        <v>0</v>
+        <v>-1.75</v>
       </c>
       <c r="R142">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S142">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T142">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U142">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V142">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W142">
-        <v>1.4</v>
+        <v>0.3</v>
       </c>
       <c r="X142">
         <v>-1</v>
@@ -13157,13 +13157,13 @@
         <v>-1</v>
       </c>
       <c r="Z142">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA142">
         <v>-1</v>
       </c>
       <c r="AB142">
-        <v>1</v>
+        <v>1.025</v>
       </c>
       <c r="AC142">
         <v>-1</v>
@@ -13174,7 +13174,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6390442</v>
+        <v>6389865</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13186,73 +13186,73 @@
         <v>45039.5625</v>
       </c>
       <c r="F143" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G143" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H143">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I143">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J143" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K143">
-        <v>1.333</v>
+        <v>3.5</v>
       </c>
       <c r="L143">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M143">
-        <v>8</v>
+        <v>1.95</v>
       </c>
       <c r="N143">
-        <v>1.3</v>
+        <v>2.8</v>
       </c>
       <c r="O143">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="P143">
-        <v>8.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q143">
-        <v>-1.75</v>
+        <v>0.25</v>
       </c>
       <c r="R143">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S143">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T143">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U143">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V143">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W143">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X143">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y143">
         <v>-1</v>
       </c>
       <c r="Z143">
-        <v>0.9750000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="AA143">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB143">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AC143">
         <v>-1</v>
@@ -13263,7 +13263,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6389865</v>
+        <v>6389819</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13275,73 +13275,73 @@
         <v>45039.5625</v>
       </c>
       <c r="F144" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G144" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H144">
         <v>2</v>
       </c>
       <c r="I144">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J144" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K144">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="L144">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M144">
+        <v>1.533</v>
+      </c>
+      <c r="N144">
+        <v>6.5</v>
+      </c>
+      <c r="O144">
+        <v>4.75</v>
+      </c>
+      <c r="P144">
+        <v>1.4</v>
+      </c>
+      <c r="Q144">
+        <v>1.25</v>
+      </c>
+      <c r="R144">
+        <v>1.9</v>
+      </c>
+      <c r="S144">
         <v>1.95</v>
       </c>
-      <c r="N144">
-        <v>2.8</v>
-      </c>
-      <c r="O144">
-        <v>3.5</v>
-      </c>
-      <c r="P144">
-        <v>2.3</v>
-      </c>
-      <c r="Q144">
-        <v>0.25</v>
-      </c>
-      <c r="R144">
-        <v>1.8</v>
-      </c>
-      <c r="S144">
-        <v>2.05</v>
-      </c>
       <c r="T144">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U144">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V144">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W144">
         <v>-1</v>
       </c>
       <c r="X144">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y144">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z144">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA144">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB144">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AC144">
         <v>-1</v>
@@ -13352,7 +13352,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6389819</v>
+        <v>6390693</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13364,40 +13364,40 @@
         <v>45039.5625</v>
       </c>
       <c r="F145" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G145" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I145">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J145" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K145">
-        <v>5.25</v>
+        <v>2.5</v>
       </c>
       <c r="L145">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M145">
-        <v>1.533</v>
+        <v>2.45</v>
       </c>
       <c r="N145">
-        <v>6.5</v>
+        <v>2.4</v>
       </c>
       <c r="O145">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="P145">
-        <v>1.4</v>
+        <v>2.45</v>
       </c>
       <c r="Q145">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="R145">
         <v>1.9</v>
@@ -13415,19 +13415,19 @@
         <v>1.85</v>
       </c>
       <c r="W145">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X145">
         <v>-1</v>
       </c>
       <c r="Y145">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z145">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA145">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB145">
         <v>1</v>
@@ -17357,7 +17357,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>7030334</v>
+        <v>6810007</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17369,55 +17369,55 @@
         <v>45151.45833333334</v>
       </c>
       <c r="F190" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G190" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H190">
         <v>0</v>
       </c>
       <c r="I190">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J190" t="s">
         <v>49</v>
       </c>
       <c r="K190">
-        <v>2.75</v>
+        <v>4.75</v>
       </c>
       <c r="L190">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M190">
-        <v>2.25</v>
+        <v>1.571</v>
       </c>
       <c r="N190">
-        <v>2.4</v>
+        <v>7</v>
       </c>
       <c r="O190">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P190">
-        <v>2.55</v>
+        <v>1.333</v>
       </c>
       <c r="Q190">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="R190">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S190">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T190">
         <v>3</v>
       </c>
       <c r="U190">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V190">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W190">
         <v>-1</v>
@@ -17426,19 +17426,19 @@
         <v>-1</v>
       </c>
       <c r="Y190">
-        <v>1.55</v>
+        <v>0.333</v>
       </c>
       <c r="Z190">
         <v>-1</v>
       </c>
       <c r="AA190">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB190">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC190">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="191" spans="1:29">
@@ -17446,7 +17446,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>6810007</v>
+        <v>7030334</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17458,55 +17458,55 @@
         <v>45151.45833333334</v>
       </c>
       <c r="F191" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G191" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H191">
         <v>0</v>
       </c>
       <c r="I191">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J191" t="s">
         <v>49</v>
       </c>
       <c r="K191">
-        <v>4.75</v>
+        <v>2.75</v>
       </c>
       <c r="L191">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M191">
-        <v>1.571</v>
+        <v>2.25</v>
       </c>
       <c r="N191">
-        <v>7</v>
+        <v>2.4</v>
       </c>
       <c r="O191">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P191">
-        <v>1.333</v>
+        <v>2.55</v>
       </c>
       <c r="Q191">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="R191">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S191">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T191">
         <v>3</v>
       </c>
       <c r="U191">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V191">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W191">
         <v>-1</v>
@@ -17515,19 +17515,19 @@
         <v>-1</v>
       </c>
       <c r="Y191">
-        <v>0.333</v>
+        <v>1.55</v>
       </c>
       <c r="Z191">
         <v>-1</v>
       </c>
       <c r="AA191">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB191">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC191">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="192" spans="1:29">
@@ -30618,7 +30618,7 @@
         <v>337</v>
       </c>
       <c r="B339">
-        <v>6810159</v>
+        <v>6810158</v>
       </c>
       <c r="C339" t="s">
         <v>28</v>
@@ -30630,73 +30630,73 @@
         <v>45318.69791666666</v>
       </c>
       <c r="F339" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G339" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H339">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I339">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J339" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K339">
-        <v>5.5</v>
+        <v>1.363</v>
       </c>
       <c r="L339">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="M339">
-        <v>1.5</v>
+        <v>6.5</v>
       </c>
       <c r="N339">
-        <v>6</v>
+        <v>1.444</v>
       </c>
       <c r="O339">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P339">
-        <v>1.45</v>
+        <v>5.75</v>
       </c>
       <c r="Q339">
-        <v>1.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R339">
+        <v>2</v>
+      </c>
+      <c r="S339">
+        <v>1.85</v>
+      </c>
+      <c r="T339">
+        <v>3</v>
+      </c>
+      <c r="U339">
+        <v>2.025</v>
+      </c>
+      <c r="V339">
         <v>1.825</v>
       </c>
-      <c r="S339">
-        <v>2.025</v>
-      </c>
-      <c r="T339">
-        <v>2.75</v>
-      </c>
-      <c r="U339">
-        <v>1.95</v>
-      </c>
-      <c r="V339">
-        <v>1.9</v>
-      </c>
       <c r="W339">
         <v>-1</v>
       </c>
       <c r="X339">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y339">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z339">
         <v>-1</v>
       </c>
       <c r="AA339">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB339">
         <v>1.025</v>
-      </c>
-      <c r="AB339">
-        <v>0.95</v>
       </c>
       <c r="AC339">
         <v>-1</v>
@@ -30707,7 +30707,7 @@
         <v>338</v>
       </c>
       <c r="B340">
-        <v>6810158</v>
+        <v>6810159</v>
       </c>
       <c r="C340" t="s">
         <v>28</v>
@@ -30719,73 +30719,73 @@
         <v>45318.69791666666</v>
       </c>
       <c r="F340" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G340" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H340">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I340">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J340" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K340">
-        <v>1.363</v>
+        <v>5.5</v>
       </c>
       <c r="L340">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="M340">
-        <v>6.5</v>
+        <v>1.5</v>
       </c>
       <c r="N340">
-        <v>1.444</v>
+        <v>6</v>
       </c>
       <c r="O340">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P340">
-        <v>5.75</v>
+        <v>1.45</v>
       </c>
       <c r="Q340">
-        <v>-1.25</v>
+        <v>1.25</v>
       </c>
       <c r="R340">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S340">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T340">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U340">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V340">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W340">
         <v>-1</v>
       </c>
       <c r="X340">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y340">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z340">
         <v>-1</v>
       </c>
       <c r="AA340">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AB340">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AC340">
         <v>-1</v>
@@ -31330,7 +31330,7 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>6810165</v>
+        <v>6810168</v>
       </c>
       <c r="C347" t="s">
         <v>28</v>
@@ -31342,58 +31342,58 @@
         <v>45322.61458333334</v>
       </c>
       <c r="F347" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G347" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H347">
+        <v>2</v>
+      </c>
+      <c r="I347">
         <v>1</v>
-      </c>
-      <c r="I347">
-        <v>0</v>
       </c>
       <c r="J347" t="s">
         <v>50</v>
       </c>
       <c r="K347">
-        <v>1.6</v>
+        <v>4.5</v>
       </c>
       <c r="L347">
+        <v>4.2</v>
+      </c>
+      <c r="M347">
+        <v>1.666</v>
+      </c>
+      <c r="N347">
+        <v>4.333</v>
+      </c>
+      <c r="O347">
         <v>4</v>
       </c>
-      <c r="M347">
-        <v>5</v>
-      </c>
-      <c r="N347">
-        <v>1.8</v>
-      </c>
-      <c r="O347">
-        <v>3.75</v>
-      </c>
       <c r="P347">
-        <v>4.2</v>
+        <v>1.7</v>
       </c>
       <c r="Q347">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R347">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S347">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T347">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U347">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V347">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W347">
-        <v>0.8</v>
+        <v>3.333</v>
       </c>
       <c r="X347">
         <v>-1</v>
@@ -31402,16 +31402,16 @@
         <v>-1</v>
       </c>
       <c r="Z347">
-        <v>0.5249999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA347">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB347">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC347">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="348" spans="1:29">
@@ -31419,7 +31419,7 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>6810168</v>
+        <v>6810165</v>
       </c>
       <c r="C348" t="s">
         <v>28</v>
@@ -31431,58 +31431,58 @@
         <v>45322.61458333334</v>
       </c>
       <c r="F348" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G348" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H348">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I348">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J348" t="s">
         <v>50</v>
       </c>
       <c r="K348">
-        <v>4.5</v>
+        <v>1.6</v>
       </c>
       <c r="L348">
+        <v>4</v>
+      </c>
+      <c r="M348">
+        <v>5</v>
+      </c>
+      <c r="N348">
+        <v>1.8</v>
+      </c>
+      <c r="O348">
+        <v>3.75</v>
+      </c>
+      <c r="P348">
         <v>4.2</v>
       </c>
-      <c r="M348">
-        <v>1.666</v>
-      </c>
-      <c r="N348">
-        <v>4.333</v>
-      </c>
-      <c r="O348">
-        <v>4</v>
-      </c>
-      <c r="P348">
-        <v>1.7</v>
-      </c>
       <c r="Q348">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R348">
+        <v>2.05</v>
+      </c>
+      <c r="S348">
+        <v>1.8</v>
+      </c>
+      <c r="T348">
+        <v>2.75</v>
+      </c>
+      <c r="U348">
         <v>1.95</v>
       </c>
-      <c r="S348">
+      <c r="V348">
         <v>1.9</v>
       </c>
-      <c r="T348">
-        <v>3</v>
-      </c>
-      <c r="U348">
-        <v>1.975</v>
-      </c>
-      <c r="V348">
-        <v>1.875</v>
-      </c>
       <c r="W348">
-        <v>3.333</v>
+        <v>0.8</v>
       </c>
       <c r="X348">
         <v>-1</v>
@@ -31491,16 +31491,16 @@
         <v>-1</v>
       </c>
       <c r="Z348">
-        <v>0.95</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AA348">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB348">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC348">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="349" spans="1:29">
@@ -31508,7 +31508,7 @@
         <v>347</v>
       </c>
       <c r="B349">
-        <v>6810164</v>
+        <v>6810162</v>
       </c>
       <c r="C349" t="s">
         <v>28</v>
@@ -31520,76 +31520,76 @@
         <v>45322.70833333334</v>
       </c>
       <c r="F349" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G349" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="H349">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I349">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J349" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K349">
-        <v>1.2</v>
+        <v>4</v>
       </c>
       <c r="L349">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="M349">
-        <v>12</v>
+        <v>1.85</v>
       </c>
       <c r="N349">
-        <v>1.142</v>
+        <v>3.1</v>
       </c>
       <c r="O349">
-        <v>8.5</v>
+        <v>3.2</v>
       </c>
       <c r="P349">
-        <v>15</v>
+        <v>2.3</v>
       </c>
       <c r="Q349">
-        <v>-2.25</v>
+        <v>0.25</v>
       </c>
       <c r="R349">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S349">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T349">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="U349">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V349">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W349">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X349">
         <v>-1</v>
       </c>
       <c r="Y349">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z349">
         <v>-1</v>
       </c>
       <c r="AA349">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="AB349">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC349">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="350" spans="1:29">
@@ -31597,7 +31597,7 @@
         <v>348</v>
       </c>
       <c r="B350">
-        <v>6810162</v>
+        <v>6810164</v>
       </c>
       <c r="C350" t="s">
         <v>28</v>
@@ -31609,76 +31609,76 @@
         <v>45322.70833333334</v>
       </c>
       <c r="F350" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G350" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I350">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J350" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K350">
-        <v>4</v>
+        <v>1.2</v>
       </c>
       <c r="L350">
-        <v>3.6</v>
+        <v>7</v>
       </c>
       <c r="M350">
-        <v>1.85</v>
+        <v>12</v>
       </c>
       <c r="N350">
-        <v>3.1</v>
+        <v>1.142</v>
       </c>
       <c r="O350">
-        <v>3.2</v>
+        <v>8.5</v>
       </c>
       <c r="P350">
-        <v>2.3</v>
+        <v>15</v>
       </c>
       <c r="Q350">
-        <v>0.25</v>
+        <v>-2.25</v>
       </c>
       <c r="R350">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S350">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T350">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="U350">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V350">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W350">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X350">
         <v>-1</v>
       </c>
       <c r="Y350">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z350">
         <v>-1</v>
       </c>
       <c r="AA350">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AB350">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC350">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="351" spans="1:29">
@@ -31891,31 +31891,31 @@
         <v>2.2</v>
       </c>
       <c r="N353">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="O353">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P353">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="Q353">
         <v>0.25</v>
       </c>
       <c r="R353">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S353">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T353">
         <v>2.25</v>
       </c>
       <c r="U353">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V353">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="W353">
         <v>0</v>
@@ -31965,31 +31965,31 @@
         <v>2.1</v>
       </c>
       <c r="N354">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="O354">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P354">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="Q354">
         <v>0.25</v>
       </c>
       <c r="R354">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S354">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T354">
         <v>2.5</v>
       </c>
       <c r="U354">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V354">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W354">
         <v>0</v>
@@ -32086,7 +32086,7 @@
         <v>354</v>
       </c>
       <c r="B356">
-        <v>6810174</v>
+        <v>6810177</v>
       </c>
       <c r="C356" t="s">
         <v>28</v>
@@ -32095,49 +32095,49 @@
         <v>28</v>
       </c>
       <c r="E356" s="2">
-        <v>45325.59375</v>
+        <v>45325.69791666666</v>
       </c>
       <c r="F356" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G356" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="K356">
-        <v>1.909</v>
+        <v>2.8</v>
       </c>
       <c r="L356">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M356">
-        <v>3.5</v>
+        <v>2.375</v>
       </c>
       <c r="N356">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="O356">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P356">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="Q356">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R356">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S356">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T356">
         <v>2.75</v>
       </c>
       <c r="U356">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V356">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W356">
         <v>0</v>
@@ -32160,7 +32160,7 @@
         <v>355</v>
       </c>
       <c r="B357">
-        <v>6810177</v>
+        <v>6810178</v>
       </c>
       <c r="C357" t="s">
         <v>28</v>
@@ -32169,49 +32169,49 @@
         <v>28</v>
       </c>
       <c r="E357" s="2">
-        <v>45325.69791666666</v>
+        <v>45326.39583333334</v>
       </c>
       <c r="F357" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G357" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K357">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="L357">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M357">
-        <v>2.375</v>
+        <v>1.95</v>
       </c>
       <c r="N357">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="O357">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P357">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="Q357">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R357">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S357">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T357">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U357">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V357">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W357">
         <v>0</v>
@@ -32234,7 +32234,7 @@
         <v>356</v>
       </c>
       <c r="B358">
-        <v>6810178</v>
+        <v>6810172</v>
       </c>
       <c r="C358" t="s">
         <v>28</v>
@@ -32243,40 +32243,40 @@
         <v>28</v>
       </c>
       <c r="E358" s="2">
-        <v>45326.39583333334</v>
+        <v>45326.5</v>
       </c>
       <c r="F358" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G358" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K358">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="L358">
         <v>3.5</v>
       </c>
       <c r="M358">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="N358">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="O358">
         <v>3.5</v>
       </c>
       <c r="P358">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="Q358">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R358">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S358">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T358">
         <v>2.5</v>
@@ -32308,7 +32308,7 @@
         <v>357</v>
       </c>
       <c r="B359">
-        <v>6810172</v>
+        <v>6810173</v>
       </c>
       <c r="C359" t="s">
         <v>28</v>
@@ -32317,40 +32317,40 @@
         <v>28</v>
       </c>
       <c r="E359" s="2">
-        <v>45326.5</v>
+        <v>45326.60416666666</v>
       </c>
       <c r="F359" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G359" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K359">
-        <v>3.2</v>
+        <v>2.375</v>
       </c>
       <c r="L359">
+        <v>3.4</v>
+      </c>
+      <c r="M359">
+        <v>2.8</v>
+      </c>
+      <c r="N359">
+        <v>2.2</v>
+      </c>
+      <c r="O359">
         <v>3.5</v>
       </c>
-      <c r="M359">
-        <v>2.1</v>
-      </c>
-      <c r="N359">
+      <c r="P359">
         <v>3</v>
       </c>
-      <c r="O359">
-        <v>3.4</v>
-      </c>
-      <c r="P359">
-        <v>2.25</v>
-      </c>
       <c r="Q359">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R359">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S359">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T359">
         <v>2.5</v>
@@ -32382,7 +32382,7 @@
         <v>358</v>
       </c>
       <c r="B360">
-        <v>6810173</v>
+        <v>6810170</v>
       </c>
       <c r="C360" t="s">
         <v>28</v>
@@ -32391,49 +32391,49 @@
         <v>28</v>
       </c>
       <c r="E360" s="2">
-        <v>45326.60416666666</v>
+        <v>45326.63541666666</v>
       </c>
       <c r="F360" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G360" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="K360">
-        <v>2.375</v>
+        <v>1.833</v>
       </c>
       <c r="L360">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M360">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="N360">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="O360">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P360">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="Q360">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R360">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S360">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T360">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U360">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V360">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W360">
         <v>0</v>
@@ -32448,80 +32448,6 @@
         <v>0</v>
       </c>
       <c r="AA360">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="361" spans="1:27">
-      <c r="A361" s="1">
-        <v>359</v>
-      </c>
-      <c r="B361">
-        <v>6810170</v>
-      </c>
-      <c r="C361" t="s">
-        <v>28</v>
-      </c>
-      <c r="D361" t="s">
-        <v>28</v>
-      </c>
-      <c r="E361" s="2">
-        <v>45326.63541666666</v>
-      </c>
-      <c r="F361" t="s">
-        <v>31</v>
-      </c>
-      <c r="G361" t="s">
-        <v>46</v>
-      </c>
-      <c r="K361">
-        <v>1.833</v>
-      </c>
-      <c r="L361">
-        <v>3.75</v>
-      </c>
-      <c r="M361">
-        <v>3.8</v>
-      </c>
-      <c r="N361">
-        <v>1.85</v>
-      </c>
-      <c r="O361">
-        <v>3.6</v>
-      </c>
-      <c r="P361">
-        <v>3.8</v>
-      </c>
-      <c r="Q361">
-        <v>-0.5</v>
-      </c>
-      <c r="R361">
-        <v>1.875</v>
-      </c>
-      <c r="S361">
-        <v>1.975</v>
-      </c>
-      <c r="T361">
-        <v>2.75</v>
-      </c>
-      <c r="U361">
-        <v>1.975</v>
-      </c>
-      <c r="V361">
-        <v>1.875</v>
-      </c>
-      <c r="W361">
-        <v>0</v>
-      </c>
-      <c r="X361">
-        <v>0</v>
-      </c>
-      <c r="Y361">
-        <v>0</v>
-      </c>
-      <c r="Z361">
-        <v>0</v>
-      </c>
-      <c r="AA361">
         <v>0</v>
       </c>
     </row>

--- a/Belgium First Division A/Belgium First Division A.xlsx
+++ b/Belgium First Division A/Belgium First Division A.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1815" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1855" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -528,7 +528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC360"/>
+  <dimension ref="A1:AC368"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1604,7 +1604,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5208566</v>
+        <v>6114951</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1616,76 +1616,76 @@
         <v>44940.59375</v>
       </c>
       <c r="F13" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G13" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K13">
-        <v>1.75</v>
+        <v>2.75</v>
       </c>
       <c r="L13">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M13">
-        <v>4.2</v>
+        <v>2.45</v>
       </c>
       <c r="N13">
-        <v>1.666</v>
+        <v>2.8</v>
       </c>
       <c r="O13">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P13">
-        <v>4.5</v>
+        <v>2.45</v>
       </c>
       <c r="Q13">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R13">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S13">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T13">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U13">
+        <v>2.025</v>
+      </c>
+      <c r="V13">
         <v>1.825</v>
       </c>
-      <c r="V13">
-        <v>2.025</v>
-      </c>
       <c r="W13">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X13">
         <v>-1</v>
       </c>
       <c r="Y13">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z13">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA13">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB13">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC13">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1693,7 +1693,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6114951</v>
+        <v>5208566</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1705,76 +1705,76 @@
         <v>44940.59375</v>
       </c>
       <c r="F14" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K14">
+        <v>1.75</v>
+      </c>
+      <c r="L14">
+        <v>3.8</v>
+      </c>
+      <c r="M14">
+        <v>4.2</v>
+      </c>
+      <c r="N14">
+        <v>1.666</v>
+      </c>
+      <c r="O14">
+        <v>4</v>
+      </c>
+      <c r="P14">
+        <v>4.5</v>
+      </c>
+      <c r="Q14">
+        <v>-0.75</v>
+      </c>
+      <c r="R14">
+        <v>1.875</v>
+      </c>
+      <c r="S14">
+        <v>1.975</v>
+      </c>
+      <c r="T14">
         <v>2.75</v>
       </c>
-      <c r="L14">
-        <v>3.4</v>
-      </c>
-      <c r="M14">
-        <v>2.45</v>
-      </c>
-      <c r="N14">
-        <v>2.8</v>
-      </c>
-      <c r="O14">
-        <v>3.3</v>
-      </c>
-      <c r="P14">
-        <v>2.45</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="R14">
-        <v>2.05</v>
-      </c>
-      <c r="S14">
-        <v>1.8</v>
-      </c>
-      <c r="T14">
-        <v>2.5</v>
-      </c>
       <c r="U14">
+        <v>1.825</v>
+      </c>
+      <c r="V14">
         <v>2.025</v>
       </c>
-      <c r="V14">
-        <v>1.825</v>
-      </c>
       <c r="W14">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X14">
         <v>-1</v>
       </c>
       <c r="Y14">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z14">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA14">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB14">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AC14">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -2494,7 +2494,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5208701</v>
+        <v>5208571</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2506,76 +2506,76 @@
         <v>44944.60416666666</v>
       </c>
       <c r="F23" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G23" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K23">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="L23">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M23">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="N23">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="O23">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P23">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="Q23">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R23">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S23">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T23">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U23">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V23">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W23">
         <v>-1</v>
       </c>
       <c r="X23">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y23">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z23">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA23">
+        <v>0.875</v>
+      </c>
+      <c r="AB23">
+        <v>0.5</v>
+      </c>
+      <c r="AC23">
         <v>-0.5</v>
-      </c>
-      <c r="AB23">
-        <v>-1</v>
-      </c>
-      <c r="AC23">
-        <v>0.8</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2583,7 +2583,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5208571</v>
+        <v>5208701</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2595,76 +2595,76 @@
         <v>44944.60416666666</v>
       </c>
       <c r="F24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G24" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K24">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="L24">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M24">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="N24">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="O24">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P24">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="Q24">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R24">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S24">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T24">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U24">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V24">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W24">
         <v>-1</v>
       </c>
       <c r="X24">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y24">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z24">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AA24">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB24">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC24">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2672,7 +2672,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5208569</v>
+        <v>5208568</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2684,73 +2684,73 @@
         <v>44944.69791666666</v>
       </c>
       <c r="F25" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G25" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H25">
+        <v>2</v>
+      </c>
+      <c r="I25">
         <v>3</v>
       </c>
-      <c r="I25">
-        <v>2</v>
-      </c>
       <c r="J25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K25">
-        <v>1.85</v>
+        <v>1.4</v>
       </c>
       <c r="L25">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M25">
-        <v>3.8</v>
+        <v>6.5</v>
       </c>
       <c r="N25">
-        <v>1.666</v>
+        <v>1.7</v>
       </c>
       <c r="O25">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P25">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="Q25">
         <v>-0.75</v>
       </c>
       <c r="R25">
+        <v>1.925</v>
+      </c>
+      <c r="S25">
+        <v>1.925</v>
+      </c>
+      <c r="T25">
+        <v>2.75</v>
+      </c>
+      <c r="U25">
+        <v>1.975</v>
+      </c>
+      <c r="V25">
         <v>1.875</v>
       </c>
-      <c r="S25">
-        <v>1.975</v>
-      </c>
-      <c r="T25">
-        <v>2.5</v>
-      </c>
-      <c r="U25">
-        <v>1.95</v>
-      </c>
-      <c r="V25">
-        <v>1.9</v>
-      </c>
       <c r="W25">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X25">
         <v>-1</v>
       </c>
       <c r="Y25">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z25">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA25">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB25">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC25">
         <v>-1</v>
@@ -2761,7 +2761,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>5208568</v>
+        <v>5208569</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2773,73 +2773,73 @@
         <v>44944.69791666666</v>
       </c>
       <c r="F26" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G26" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J26" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K26">
-        <v>1.4</v>
+        <v>1.85</v>
       </c>
       <c r="L26">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M26">
-        <v>6.5</v>
+        <v>3.8</v>
       </c>
       <c r="N26">
-        <v>1.7</v>
+        <v>1.666</v>
       </c>
       <c r="O26">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P26">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="Q26">
         <v>-0.75</v>
       </c>
       <c r="R26">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S26">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T26">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U26">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V26">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W26">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X26">
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z26">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA26">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AB26">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC26">
         <v>-1</v>
@@ -3117,7 +3117,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>5208577</v>
+        <v>5208575</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3129,40 +3129,40 @@
         <v>44947.59375</v>
       </c>
       <c r="F30" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G30" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I30">
         <v>2</v>
       </c>
       <c r="J30" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K30">
-        <v>2.625</v>
+        <v>1.95</v>
       </c>
       <c r="L30">
+        <v>3.5</v>
+      </c>
+      <c r="M30">
         <v>3.4</v>
       </c>
-      <c r="M30">
-        <v>2.4</v>
-      </c>
       <c r="N30">
-        <v>3.2</v>
+        <v>1.75</v>
       </c>
       <c r="O30">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P30">
-        <v>2.05</v>
+        <v>4</v>
       </c>
       <c r="Q30">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R30">
         <v>2.025</v>
@@ -3171,34 +3171,34 @@
         <v>1.825</v>
       </c>
       <c r="T30">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U30">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V30">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W30">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X30">
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z30">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA30">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB30">
-        <v>0.475</v>
+        <v>1</v>
       </c>
       <c r="AC30">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3206,7 +3206,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>5208575</v>
+        <v>5208577</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3218,40 +3218,40 @@
         <v>44947.59375</v>
       </c>
       <c r="F31" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G31" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I31">
         <v>2</v>
       </c>
       <c r="J31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K31">
-        <v>1.95</v>
+        <v>2.625</v>
       </c>
       <c r="L31">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M31">
+        <v>2.4</v>
+      </c>
+      <c r="N31">
+        <v>3.2</v>
+      </c>
+      <c r="O31">
         <v>3.4</v>
       </c>
-      <c r="N31">
-        <v>1.75</v>
-      </c>
-      <c r="O31">
-        <v>3.6</v>
-      </c>
       <c r="P31">
-        <v>4</v>
+        <v>2.05</v>
       </c>
       <c r="Q31">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R31">
         <v>2.025</v>
@@ -3260,34 +3260,34 @@
         <v>1.825</v>
       </c>
       <c r="T31">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U31">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V31">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W31">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X31">
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z31">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AA31">
+        <v>0.825</v>
+      </c>
+      <c r="AB31">
+        <v>0.475</v>
+      </c>
+      <c r="AC31">
         <v>-0.5</v>
-      </c>
-      <c r="AB31">
-        <v>1</v>
-      </c>
-      <c r="AC31">
-        <v>-1</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -4808,7 +4808,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6192613</v>
+        <v>6192614</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4820,76 +4820,76 @@
         <v>44961.59375</v>
       </c>
       <c r="F49" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G49" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I49">
         <v>1</v>
       </c>
       <c r="J49" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K49">
-        <v>3.25</v>
+        <v>2.55</v>
       </c>
       <c r="L49">
+        <v>3.4</v>
+      </c>
+      <c r="M49">
+        <v>2.45</v>
+      </c>
+      <c r="N49">
+        <v>3.6</v>
+      </c>
+      <c r="O49">
         <v>3.5</v>
       </c>
-      <c r="M49">
-        <v>2.05</v>
-      </c>
-      <c r="N49">
-        <v>4.5</v>
-      </c>
-      <c r="O49">
-        <v>3.75</v>
-      </c>
       <c r="P49">
-        <v>1.75</v>
+        <v>1.909</v>
       </c>
       <c r="Q49">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R49">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S49">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T49">
         <v>2.5</v>
       </c>
       <c r="U49">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V49">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W49">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="X49">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y49">
         <v>-1</v>
       </c>
       <c r="Z49">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA49">
         <v>-1</v>
       </c>
       <c r="AB49">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC49">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -4897,7 +4897,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6192614</v>
+        <v>6192613</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4909,76 +4909,76 @@
         <v>44961.59375</v>
       </c>
       <c r="F50" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G50" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I50">
         <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K50">
-        <v>2.55</v>
+        <v>3.25</v>
       </c>
       <c r="L50">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M50">
-        <v>2.45</v>
+        <v>2.05</v>
       </c>
       <c r="N50">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="O50">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P50">
-        <v>1.909</v>
+        <v>1.75</v>
       </c>
       <c r="Q50">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R50">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S50">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T50">
         <v>2.5</v>
       </c>
       <c r="U50">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V50">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W50">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="X50">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y50">
         <v>-1</v>
       </c>
       <c r="Z50">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA50">
+        <v>-1</v>
+      </c>
+      <c r="AB50">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA50">
-        <v>-1</v>
-      </c>
-      <c r="AB50">
-        <v>-1</v>
-      </c>
       <c r="AC50">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -5520,7 +5520,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>5208718</v>
+        <v>5208587</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5532,76 +5532,76 @@
         <v>44967.69791666666</v>
       </c>
       <c r="F57" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G57" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I57">
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K57">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="L57">
         <v>3.4</v>
       </c>
       <c r="M57">
-        <v>2.45</v>
+        <v>2.9</v>
       </c>
       <c r="N57">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="O57">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P57">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="Q57">
         <v>0</v>
       </c>
       <c r="R57">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S57">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T57">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U57">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V57">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="W57">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X57">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y57">
         <v>-1</v>
       </c>
       <c r="Z57">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA57">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB57">
-        <v>0.4875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC57">
-        <v>-0.5</v>
+        <v>0.5249999999999999</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5609,7 +5609,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>5208587</v>
+        <v>5208718</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5621,76 +5621,76 @@
         <v>44967.69791666666</v>
       </c>
       <c r="F58" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G58" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I58">
         <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K58">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="L58">
         <v>3.4</v>
       </c>
       <c r="M58">
-        <v>2.9</v>
+        <v>2.45</v>
       </c>
       <c r="N58">
+        <v>2.55</v>
+      </c>
+      <c r="O58">
+        <v>3.4</v>
+      </c>
+      <c r="P58">
         <v>2.5</v>
-      </c>
-      <c r="O58">
-        <v>3.2</v>
-      </c>
-      <c r="P58">
-        <v>2.8</v>
       </c>
       <c r="Q58">
         <v>0</v>
       </c>
       <c r="R58">
+        <v>1.95</v>
+      </c>
+      <c r="S58">
+        <v>1.9</v>
+      </c>
+      <c r="T58">
+        <v>2.75</v>
+      </c>
+      <c r="U58">
+        <v>1.975</v>
+      </c>
+      <c r="V58">
         <v>1.875</v>
       </c>
-      <c r="S58">
-        <v>1.975</v>
-      </c>
-      <c r="T58">
-        <v>2.25</v>
-      </c>
-      <c r="U58">
-        <v>1.8</v>
-      </c>
-      <c r="V58">
-        <v>2.05</v>
-      </c>
       <c r="W58">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X58">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y58">
         <v>-1</v>
       </c>
       <c r="Z58">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA58">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB58">
+        <v>0.4875</v>
+      </c>
+      <c r="AC58">
         <v>-0.5</v>
-      </c>
-      <c r="AC58">
-        <v>0.5249999999999999</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -6410,7 +6410,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>5208593</v>
+        <v>5208596</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6422,55 +6422,55 @@
         <v>44975.59375</v>
       </c>
       <c r="F67" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G67" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J67" t="s">
         <v>48</v>
       </c>
       <c r="K67">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="L67">
         <v>3.4</v>
       </c>
       <c r="M67">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="N67">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="O67">
         <v>3.4</v>
       </c>
       <c r="P67">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="Q67">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R67">
+        <v>1.975</v>
+      </c>
+      <c r="S67">
         <v>1.875</v>
       </c>
-      <c r="S67">
+      <c r="T67">
+        <v>2.75</v>
+      </c>
+      <c r="U67">
+        <v>1.875</v>
+      </c>
+      <c r="V67">
         <v>1.975</v>
-      </c>
-      <c r="T67">
-        <v>2.5</v>
-      </c>
-      <c r="U67">
-        <v>1.925</v>
-      </c>
-      <c r="V67">
-        <v>1.925</v>
       </c>
       <c r="W67">
         <v>-1</v>
@@ -6482,16 +6482,16 @@
         <v>-1</v>
       </c>
       <c r="Z67">
-        <v>0.875</v>
+        <v>0.4875</v>
       </c>
       <c r="AA67">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB67">
         <v>-1</v>
       </c>
       <c r="AC67">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6499,7 +6499,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>5208596</v>
+        <v>5208593</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6511,55 +6511,55 @@
         <v>44975.59375</v>
       </c>
       <c r="F68" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G68" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" t="s">
         <v>48</v>
       </c>
       <c r="K68">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="L68">
         <v>3.4</v>
       </c>
       <c r="M68">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="N68">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="O68">
         <v>3.4</v>
       </c>
       <c r="P68">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="Q68">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R68">
+        <v>1.875</v>
+      </c>
+      <c r="S68">
         <v>1.975</v>
       </c>
-      <c r="S68">
-        <v>1.875</v>
-      </c>
       <c r="T68">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U68">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V68">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W68">
         <v>-1</v>
@@ -6571,16 +6571,16 @@
         <v>-1</v>
       </c>
       <c r="Z68">
-        <v>0.4875</v>
+        <v>0.875</v>
       </c>
       <c r="AA68">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB68">
         <v>-1</v>
       </c>
       <c r="AC68">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -7211,7 +7211,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>5208597</v>
+        <v>5208727</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7223,76 +7223,76 @@
         <v>44982.59375</v>
       </c>
       <c r="F76" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G76" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H76">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I76">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J76" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K76">
-        <v>1.333</v>
+        <v>3.25</v>
       </c>
       <c r="L76">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="M76">
-        <v>7.5</v>
+        <v>2.1</v>
       </c>
       <c r="N76">
-        <v>1.4</v>
+        <v>4</v>
       </c>
       <c r="O76">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="P76">
-        <v>6.5</v>
+        <v>1.909</v>
       </c>
       <c r="Q76">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R76">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S76">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T76">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U76">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V76">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W76">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X76">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y76">
         <v>-1</v>
       </c>
       <c r="Z76">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA76">
         <v>-1</v>
       </c>
       <c r="AB76">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC76">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7300,7 +7300,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>5208727</v>
+        <v>5208597</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7312,76 +7312,76 @@
         <v>44982.59375</v>
       </c>
       <c r="F77" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G77" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I77">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J77" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K77">
-        <v>3.25</v>
+        <v>1.333</v>
       </c>
       <c r="L77">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="M77">
-        <v>2.1</v>
+        <v>7.5</v>
       </c>
       <c r="N77">
-        <v>4</v>
+        <v>1.4</v>
       </c>
       <c r="O77">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="P77">
-        <v>1.909</v>
+        <v>6.5</v>
       </c>
       <c r="Q77">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R77">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S77">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T77">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U77">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V77">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W77">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X77">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y77">
         <v>-1</v>
       </c>
       <c r="Z77">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA77">
         <v>-1</v>
       </c>
       <c r="AB77">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC77">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -10415,7 +10415,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>5356593</v>
+        <v>5351637</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10427,55 +10427,55 @@
         <v>45017.55208333334</v>
       </c>
       <c r="F112" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G112" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J112" t="s">
         <v>49</v>
       </c>
       <c r="K112">
-        <v>2</v>
+        <v>6.5</v>
       </c>
       <c r="L112">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M112">
-        <v>3.25</v>
+        <v>1.444</v>
       </c>
       <c r="N112">
-        <v>2.1</v>
+        <v>9.5</v>
       </c>
       <c r="O112">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P112">
-        <v>3.1</v>
+        <v>1.285</v>
       </c>
       <c r="Q112">
-        <v>-0.25</v>
+        <v>1.5</v>
       </c>
       <c r="R112">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S112">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T112">
         <v>2.75</v>
       </c>
       <c r="U112">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V112">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W112">
         <v>-1</v>
@@ -10484,16 +10484,16 @@
         <v>-1</v>
       </c>
       <c r="Y112">
-        <v>2.1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="Z112">
         <v>-1</v>
       </c>
       <c r="AA112">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB112">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC112">
         <v>-1</v>
@@ -10504,7 +10504,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>5351637</v>
+        <v>5356593</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10516,55 +10516,55 @@
         <v>45017.55208333334</v>
       </c>
       <c r="F113" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G113" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J113" t="s">
         <v>49</v>
       </c>
       <c r="K113">
-        <v>6.5</v>
+        <v>2</v>
       </c>
       <c r="L113">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M113">
-        <v>1.444</v>
+        <v>3.25</v>
       </c>
       <c r="N113">
-        <v>9.5</v>
+        <v>2.1</v>
       </c>
       <c r="O113">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P113">
-        <v>1.285</v>
+        <v>3.1</v>
       </c>
       <c r="Q113">
-        <v>1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R113">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S113">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T113">
         <v>2.75</v>
       </c>
       <c r="U113">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V113">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W113">
         <v>-1</v>
@@ -10573,16 +10573,16 @@
         <v>-1</v>
       </c>
       <c r="Y113">
-        <v>0.2849999999999999</v>
+        <v>2.1</v>
       </c>
       <c r="Z113">
         <v>-1</v>
       </c>
       <c r="AA113">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB113">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AC113">
         <v>-1</v>
@@ -11127,7 +11127,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>5394553</v>
+        <v>5391100</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11139,76 +11139,76 @@
         <v>45024.45833333334</v>
       </c>
       <c r="F120" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G120" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J120" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K120">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L120">
         <v>3.5</v>
       </c>
       <c r="M120">
+        <v>3.3</v>
+      </c>
+      <c r="N120">
+        <v>2</v>
+      </c>
+      <c r="O120">
         <v>3.6</v>
       </c>
-      <c r="N120">
-        <v>2.25</v>
-      </c>
-      <c r="O120">
-        <v>3.4</v>
-      </c>
       <c r="P120">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="Q120">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R120">
+        <v>2.025</v>
+      </c>
+      <c r="S120">
+        <v>1.825</v>
+      </c>
+      <c r="T120">
+        <v>3</v>
+      </c>
+      <c r="U120">
         <v>1.95</v>
       </c>
-      <c r="S120">
+      <c r="V120">
         <v>1.9</v>
       </c>
-      <c r="T120">
-        <v>2.75</v>
-      </c>
-      <c r="U120">
-        <v>1.875</v>
-      </c>
-      <c r="V120">
-        <v>1.975</v>
-      </c>
       <c r="W120">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X120">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y120">
         <v>-1</v>
       </c>
       <c r="Z120">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA120">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB120">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC120">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11216,7 +11216,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>5391100</v>
+        <v>5394553</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11228,76 +11228,76 @@
         <v>45024.45833333334</v>
       </c>
       <c r="F121" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G121" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H121">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J121" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K121">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L121">
         <v>3.5</v>
       </c>
       <c r="M121">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="N121">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="O121">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P121">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="Q121">
+        <v>-0.25</v>
+      </c>
+      <c r="R121">
+        <v>1.95</v>
+      </c>
+      <c r="S121">
+        <v>1.9</v>
+      </c>
+      <c r="T121">
+        <v>2.75</v>
+      </c>
+      <c r="U121">
+        <v>1.875</v>
+      </c>
+      <c r="V121">
+        <v>1.975</v>
+      </c>
+      <c r="W121">
+        <v>-1</v>
+      </c>
+      <c r="X121">
+        <v>2.4</v>
+      </c>
+      <c r="Y121">
+        <v>-1</v>
+      </c>
+      <c r="Z121">
         <v>-0.5</v>
       </c>
-      <c r="R121">
-        <v>2.025</v>
-      </c>
-      <c r="S121">
-        <v>1.825</v>
-      </c>
-      <c r="T121">
-        <v>3</v>
-      </c>
-      <c r="U121">
-        <v>1.95</v>
-      </c>
-      <c r="V121">
-        <v>1.9</v>
-      </c>
-      <c r="W121">
-        <v>1</v>
-      </c>
-      <c r="X121">
-        <v>-1</v>
-      </c>
-      <c r="Y121">
-        <v>-1</v>
-      </c>
-      <c r="Z121">
-        <v>1.025</v>
-      </c>
       <c r="AA121">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB121">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC121">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -12017,7 +12017,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>5424406</v>
+        <v>5424405</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12029,73 +12029,73 @@
         <v>45031.55208333334</v>
       </c>
       <c r="F130" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G130" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I130">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J130" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K130">
-        <v>2.4</v>
+        <v>1.75</v>
       </c>
       <c r="L130">
         <v>3.5</v>
       </c>
       <c r="M130">
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="N130">
-        <v>2.4</v>
+        <v>1.65</v>
       </c>
       <c r="O130">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P130">
-        <v>2.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q130">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R130">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S130">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T130">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U130">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V130">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W130">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X130">
         <v>-1</v>
       </c>
       <c r="Y130">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z130">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA130">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB130">
-        <v>1.025</v>
+        <v>1</v>
       </c>
       <c r="AC130">
         <v>-1</v>
@@ -12106,7 +12106,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>5424405</v>
+        <v>5424406</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12118,73 +12118,73 @@
         <v>45031.55208333334</v>
       </c>
       <c r="F131" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G131" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H131">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I131">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J131" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K131">
-        <v>1.75</v>
+        <v>2.4</v>
       </c>
       <c r="L131">
         <v>3.5</v>
       </c>
       <c r="M131">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="N131">
-        <v>1.65</v>
+        <v>2.4</v>
       </c>
       <c r="O131">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P131">
-        <v>5.25</v>
+        <v>2.75</v>
       </c>
       <c r="Q131">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R131">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S131">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T131">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U131">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V131">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W131">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X131">
         <v>-1</v>
       </c>
       <c r="Y131">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z131">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA131">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB131">
-        <v>1</v>
+        <v>1.025</v>
       </c>
       <c r="AC131">
         <v>-1</v>
@@ -12818,7 +12818,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6390066</v>
+        <v>6390693</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12830,73 +12830,73 @@
         <v>45039.5625</v>
       </c>
       <c r="F139" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G139" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I139">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J139" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K139">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="L139">
         <v>3.6</v>
       </c>
       <c r="M139">
-        <v>2.15</v>
+        <v>2.45</v>
       </c>
       <c r="N139">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="O139">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P139">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
       <c r="Q139">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R139">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S139">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T139">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U139">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V139">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="W139">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X139">
         <v>-1</v>
       </c>
       <c r="Y139">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z139">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA139">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB139">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AC139">
         <v>-1</v>
@@ -12907,7 +12907,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6390043</v>
+        <v>6390066</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12919,55 +12919,55 @@
         <v>45039.5625</v>
       </c>
       <c r="F140" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G140" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I140">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J140" t="s">
         <v>49</v>
       </c>
       <c r="K140">
-        <v>1.222</v>
+        <v>3</v>
       </c>
       <c r="L140">
-        <v>5.75</v>
+        <v>3.6</v>
       </c>
       <c r="M140">
-        <v>11</v>
+        <v>2.15</v>
       </c>
       <c r="N140">
-        <v>1.142</v>
+        <v>2.8</v>
       </c>
       <c r="O140">
-        <v>7.5</v>
+        <v>3.6</v>
       </c>
       <c r="P140">
-        <v>15</v>
+        <v>2.25</v>
       </c>
       <c r="Q140">
-        <v>-2.25</v>
+        <v>0.25</v>
       </c>
       <c r="R140">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S140">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T140">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U140">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V140">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="W140">
         <v>-1</v>
@@ -12976,19 +12976,19 @@
         <v>-1</v>
       </c>
       <c r="Y140">
-        <v>14</v>
+        <v>1.25</v>
       </c>
       <c r="Z140">
         <v>-1</v>
       </c>
       <c r="AA140">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AB140">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC140">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -12996,7 +12996,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6385540</v>
+        <v>6389819</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13008,55 +13008,55 @@
         <v>45039.5625</v>
       </c>
       <c r="F141" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G141" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H141">
         <v>2</v>
       </c>
       <c r="I141">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J141" t="s">
         <v>49</v>
       </c>
       <c r="K141">
-        <v>1.363</v>
+        <v>5.25</v>
       </c>
       <c r="L141">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="M141">
-        <v>7</v>
+        <v>1.533</v>
       </c>
       <c r="N141">
-        <v>1.55</v>
+        <v>6.5</v>
       </c>
       <c r="O141">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="P141">
-        <v>5</v>
+        <v>1.4</v>
       </c>
       <c r="Q141">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="R141">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S141">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T141">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U141">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V141">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W141">
         <v>-1</v>
@@ -13065,16 +13065,16 @@
         <v>-1</v>
       </c>
       <c r="Y141">
-        <v>4</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z141">
         <v>-1</v>
       </c>
       <c r="AA141">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AB141">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AC141">
         <v>-1</v>
@@ -13085,7 +13085,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6390442</v>
+        <v>6389865</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13097,73 +13097,73 @@
         <v>45039.5625</v>
       </c>
       <c r="F142" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G142" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H142">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I142">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J142" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K142">
-        <v>1.333</v>
+        <v>3.5</v>
       </c>
       <c r="L142">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M142">
-        <v>8</v>
+        <v>1.95</v>
       </c>
       <c r="N142">
-        <v>1.3</v>
+        <v>2.8</v>
       </c>
       <c r="O142">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="P142">
-        <v>8.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q142">
-        <v>-1.75</v>
+        <v>0.25</v>
       </c>
       <c r="R142">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S142">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T142">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U142">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V142">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W142">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X142">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y142">
         <v>-1</v>
       </c>
       <c r="Z142">
-        <v>0.9750000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="AA142">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB142">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AC142">
         <v>-1</v>
@@ -13174,7 +13174,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6389865</v>
+        <v>6390043</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13186,49 +13186,49 @@
         <v>45039.5625</v>
       </c>
       <c r="F143" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G143" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I143">
         <v>2</v>
       </c>
       <c r="J143" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K143">
+        <v>1.222</v>
+      </c>
+      <c r="L143">
+        <v>5.75</v>
+      </c>
+      <c r="M143">
+        <v>11</v>
+      </c>
+      <c r="N143">
+        <v>1.142</v>
+      </c>
+      <c r="O143">
+        <v>7.5</v>
+      </c>
+      <c r="P143">
+        <v>15</v>
+      </c>
+      <c r="Q143">
+        <v>-2.25</v>
+      </c>
+      <c r="R143">
+        <v>1.975</v>
+      </c>
+      <c r="S143">
+        <v>1.875</v>
+      </c>
+      <c r="T143">
         <v>3.5</v>
-      </c>
-      <c r="L143">
-        <v>3.6</v>
-      </c>
-      <c r="M143">
-        <v>1.95</v>
-      </c>
-      <c r="N143">
-        <v>2.8</v>
-      </c>
-      <c r="O143">
-        <v>3.5</v>
-      </c>
-      <c r="P143">
-        <v>2.3</v>
-      </c>
-      <c r="Q143">
-        <v>0.25</v>
-      </c>
-      <c r="R143">
-        <v>1.8</v>
-      </c>
-      <c r="S143">
-        <v>2.05</v>
-      </c>
-      <c r="T143">
-        <v>3</v>
       </c>
       <c r="U143">
         <v>1.95</v>
@@ -13240,22 +13240,22 @@
         <v>-1</v>
       </c>
       <c r="X143">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y143">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="Z143">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA143">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB143">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC143">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13263,7 +13263,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6389819</v>
+        <v>6385540</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13275,55 +13275,55 @@
         <v>45039.5625</v>
       </c>
       <c r="F144" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G144" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H144">
         <v>2</v>
       </c>
       <c r="I144">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J144" t="s">
         <v>49</v>
       </c>
       <c r="K144">
-        <v>5.25</v>
+        <v>1.363</v>
       </c>
       <c r="L144">
+        <v>5</v>
+      </c>
+      <c r="M144">
+        <v>7</v>
+      </c>
+      <c r="N144">
+        <v>1.55</v>
+      </c>
+      <c r="O144">
         <v>4.2</v>
       </c>
-      <c r="M144">
-        <v>1.533</v>
-      </c>
-      <c r="N144">
-        <v>6.5</v>
-      </c>
-      <c r="O144">
-        <v>4.75</v>
-      </c>
       <c r="P144">
-        <v>1.4</v>
+        <v>5</v>
       </c>
       <c r="Q144">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="R144">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S144">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T144">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U144">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V144">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W144">
         <v>-1</v>
@@ -13332,16 +13332,16 @@
         <v>-1</v>
       </c>
       <c r="Y144">
-        <v>0.3999999999999999</v>
+        <v>4</v>
       </c>
       <c r="Z144">
         <v>-1</v>
       </c>
       <c r="AA144">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AB144">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AC144">
         <v>-1</v>
@@ -13352,7 +13352,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6390693</v>
+        <v>6390442</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13364,58 +13364,58 @@
         <v>45039.5625</v>
       </c>
       <c r="F145" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G145" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H145">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I145">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J145" t="s">
         <v>50</v>
       </c>
       <c r="K145">
-        <v>2.5</v>
+        <v>1.333</v>
       </c>
       <c r="L145">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M145">
-        <v>2.45</v>
+        <v>8</v>
       </c>
       <c r="N145">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="O145">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="P145">
-        <v>2.45</v>
+        <v>8.5</v>
       </c>
       <c r="Q145">
-        <v>0</v>
+        <v>-1.75</v>
       </c>
       <c r="R145">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S145">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T145">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U145">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V145">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W145">
-        <v>1.4</v>
+        <v>0.3</v>
       </c>
       <c r="X145">
         <v>-1</v>
@@ -13424,13 +13424,13 @@
         <v>-1</v>
       </c>
       <c r="Z145">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA145">
         <v>-1</v>
       </c>
       <c r="AB145">
-        <v>1</v>
+        <v>1.025</v>
       </c>
       <c r="AC145">
         <v>-1</v>
@@ -15221,7 +15221,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6576985</v>
+        <v>6576986</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15233,58 +15233,58 @@
         <v>45080.64583333334</v>
       </c>
       <c r="F166" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G166" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I166">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J166" t="s">
         <v>50</v>
       </c>
       <c r="K166">
-        <v>1.727</v>
+        <v>1.5</v>
       </c>
       <c r="L166">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="M166">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="N166">
-        <v>1.45</v>
+        <v>1.363</v>
       </c>
       <c r="O166">
-        <v>5</v>
+        <v>5.75</v>
       </c>
       <c r="P166">
-        <v>5.75</v>
+        <v>6.5</v>
       </c>
       <c r="Q166">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R166">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S166">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T166">
         <v>3.5</v>
       </c>
       <c r="U166">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V166">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W166">
-        <v>0.45</v>
+        <v>0.363</v>
       </c>
       <c r="X166">
         <v>-1</v>
@@ -15293,16 +15293,16 @@
         <v>-1</v>
       </c>
       <c r="Z166">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AA166">
         <v>-1</v>
       </c>
       <c r="AB166">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC166">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15310,7 +15310,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6576986</v>
+        <v>6576985</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15322,58 +15322,58 @@
         <v>45080.64583333334</v>
       </c>
       <c r="F167" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G167" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H167">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J167" t="s">
         <v>50</v>
       </c>
       <c r="K167">
-        <v>1.5</v>
+        <v>1.727</v>
       </c>
       <c r="L167">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="M167">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="N167">
-        <v>1.363</v>
+        <v>1.45</v>
       </c>
       <c r="O167">
+        <v>5</v>
+      </c>
+      <c r="P167">
         <v>5.75</v>
       </c>
-      <c r="P167">
-        <v>6.5</v>
-      </c>
       <c r="Q167">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R167">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S167">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T167">
         <v>3.5</v>
       </c>
       <c r="U167">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V167">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W167">
-        <v>0.363</v>
+        <v>0.45</v>
       </c>
       <c r="X167">
         <v>-1</v>
@@ -15382,16 +15382,16 @@
         <v>-1</v>
       </c>
       <c r="Z167">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AA167">
         <v>-1</v>
       </c>
       <c r="AB167">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC167">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15399,7 +15399,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6576065</v>
+        <v>6576988</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15411,73 +15411,73 @@
         <v>45081.5625</v>
       </c>
       <c r="F168" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G168" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H168">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I168">
+        <v>2</v>
+      </c>
+      <c r="J168" t="s">
+        <v>48</v>
+      </c>
+      <c r="K168">
+        <v>2.4</v>
+      </c>
+      <c r="L168">
+        <v>3.6</v>
+      </c>
+      <c r="M168">
+        <v>2.7</v>
+      </c>
+      <c r="N168">
+        <v>2.4</v>
+      </c>
+      <c r="O168">
+        <v>3.6</v>
+      </c>
+      <c r="P168">
+        <v>2.7</v>
+      </c>
+      <c r="Q168">
+        <v>-0.25</v>
+      </c>
+      <c r="R168">
+        <v>2.05</v>
+      </c>
+      <c r="S168">
+        <v>1.75</v>
+      </c>
+      <c r="T168">
         <v>3</v>
       </c>
-      <c r="J168" t="s">
-        <v>49</v>
-      </c>
-      <c r="K168">
-        <v>1.75</v>
-      </c>
-      <c r="L168">
-        <v>3.8</v>
-      </c>
-      <c r="M168">
-        <v>4.2</v>
-      </c>
-      <c r="N168">
-        <v>1.55</v>
-      </c>
-      <c r="O168">
-        <v>4.333</v>
-      </c>
-      <c r="P168">
-        <v>4.75</v>
-      </c>
-      <c r="Q168">
-        <v>-1</v>
-      </c>
-      <c r="R168">
-        <v>1.975</v>
-      </c>
-      <c r="S168">
-        <v>1.875</v>
-      </c>
-      <c r="T168">
-        <v>3.25</v>
-      </c>
       <c r="U168">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V168">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W168">
         <v>-1</v>
       </c>
       <c r="X168">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y168">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z168">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA168">
-        <v>0.875</v>
+        <v>0.375</v>
       </c>
       <c r="AB168">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AC168">
         <v>-1</v>
@@ -15488,7 +15488,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>6576988</v>
+        <v>6576065</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15500,73 +15500,73 @@
         <v>45081.5625</v>
       </c>
       <c r="F169" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G169" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I169">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J169" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K169">
-        <v>2.4</v>
+        <v>1.75</v>
       </c>
       <c r="L169">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M169">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="N169">
-        <v>2.4</v>
+        <v>1.55</v>
       </c>
       <c r="O169">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P169">
-        <v>2.7</v>
+        <v>4.75</v>
       </c>
       <c r="Q169">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R169">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S169">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="T169">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U169">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V169">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W169">
         <v>-1</v>
       </c>
       <c r="X169">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y169">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z169">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA169">
-        <v>0.375</v>
+        <v>0.875</v>
       </c>
       <c r="AB169">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AC169">
         <v>-1</v>
@@ -18069,7 +18069,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>6810015</v>
+        <v>6810012</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18081,61 +18081,61 @@
         <v>45158.45833333334</v>
       </c>
       <c r="F198" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G198" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J198" t="s">
         <v>48</v>
       </c>
       <c r="K198">
-        <v>1.45</v>
+        <v>1.533</v>
       </c>
       <c r="L198">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="M198">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="N198">
-        <v>1.533</v>
+        <v>1.6</v>
       </c>
       <c r="O198">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P198">
-        <v>6</v>
+        <v>5.25</v>
       </c>
       <c r="Q198">
         <v>-1</v>
       </c>
       <c r="R198">
+        <v>1.975</v>
+      </c>
+      <c r="S198">
+        <v>1.875</v>
+      </c>
+      <c r="T198">
+        <v>3</v>
+      </c>
+      <c r="U198">
         <v>1.9</v>
       </c>
-      <c r="S198">
+      <c r="V198">
         <v>1.95</v>
       </c>
-      <c r="T198">
-        <v>2.5</v>
-      </c>
-      <c r="U198">
-        <v>1.8</v>
-      </c>
-      <c r="V198">
-        <v>2.05</v>
-      </c>
       <c r="W198">
         <v>-1</v>
       </c>
       <c r="X198">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Y198">
         <v>-1</v>
@@ -18144,13 +18144,13 @@
         <v>-1</v>
       </c>
       <c r="AA198">
+        <v>0.875</v>
+      </c>
+      <c r="AB198">
+        <v>-1</v>
+      </c>
+      <c r="AC198">
         <v>0.95</v>
-      </c>
-      <c r="AB198">
-        <v>0.8</v>
-      </c>
-      <c r="AC198">
-        <v>-1</v>
       </c>
     </row>
     <row r="199" spans="1:29">
@@ -18158,7 +18158,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>6810012</v>
+        <v>6810015</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18170,61 +18170,61 @@
         <v>45158.45833333334</v>
       </c>
       <c r="F199" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G199" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J199" t="s">
         <v>48</v>
       </c>
       <c r="K199">
+        <v>1.45</v>
+      </c>
+      <c r="L199">
+        <v>4.5</v>
+      </c>
+      <c r="M199">
+        <v>7</v>
+      </c>
+      <c r="N199">
         <v>1.533</v>
       </c>
-      <c r="L199">
+      <c r="O199">
         <v>4.2</v>
       </c>
-      <c r="M199">
-        <v>5.5</v>
-      </c>
-      <c r="N199">
-        <v>1.6</v>
-      </c>
-      <c r="O199">
-        <v>4</v>
-      </c>
       <c r="P199">
-        <v>5.25</v>
+        <v>6</v>
       </c>
       <c r="Q199">
         <v>-1</v>
       </c>
       <c r="R199">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S199">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T199">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U199">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V199">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W199">
         <v>-1</v>
       </c>
       <c r="X199">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Y199">
         <v>-1</v>
@@ -18233,13 +18233,13 @@
         <v>-1</v>
       </c>
       <c r="AA199">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AB199">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC199">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="200" spans="1:29">
@@ -28838,7 +28838,7 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>6810130</v>
+        <v>6810132</v>
       </c>
       <c r="C319" t="s">
         <v>28</v>
@@ -28850,76 +28850,76 @@
         <v>45283.59375</v>
       </c>
       <c r="F319" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="G319" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H319">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I319">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J319" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K319">
-        <v>1.363</v>
+        <v>2.2</v>
       </c>
       <c r="L319">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="M319">
-        <v>7.5</v>
+        <v>3.2</v>
       </c>
       <c r="N319">
-        <v>1.333</v>
+        <v>2.3</v>
       </c>
       <c r="O319">
-        <v>5.25</v>
+        <v>3.3</v>
       </c>
       <c r="P319">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="Q319">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R319">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S319">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T319">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U319">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V319">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W319">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X319">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Y319">
         <v>-1</v>
       </c>
       <c r="Z319">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA319">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB319">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC319">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320" spans="1:29">
@@ -28927,7 +28927,7 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>6810132</v>
+        <v>6810130</v>
       </c>
       <c r="C320" t="s">
         <v>28</v>
@@ -28939,76 +28939,76 @@
         <v>45283.59375</v>
       </c>
       <c r="F320" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G320" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H320">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I320">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J320" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K320">
-        <v>2.2</v>
+        <v>1.363</v>
       </c>
       <c r="L320">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="M320">
-        <v>3.2</v>
+        <v>7.5</v>
       </c>
       <c r="N320">
-        <v>2.3</v>
+        <v>1.333</v>
       </c>
       <c r="O320">
-        <v>3.3</v>
+        <v>5.25</v>
       </c>
       <c r="P320">
+        <v>8</v>
+      </c>
+      <c r="Q320">
+        <v>-1.5</v>
+      </c>
+      <c r="R320">
+        <v>1.9</v>
+      </c>
+      <c r="S320">
+        <v>1.95</v>
+      </c>
+      <c r="T320">
         <v>3</v>
       </c>
-      <c r="Q320">
-        <v>-0.25</v>
-      </c>
-      <c r="R320">
-        <v>2</v>
-      </c>
-      <c r="S320">
-        <v>1.85</v>
-      </c>
-      <c r="T320">
-        <v>2.25</v>
-      </c>
       <c r="U320">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V320">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W320">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X320">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Y320">
         <v>-1</v>
       </c>
       <c r="Z320">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA320">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB320">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC320">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="321" spans="1:29">
@@ -29639,7 +29639,7 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>6810139</v>
+        <v>6810143</v>
       </c>
       <c r="C328" t="s">
         <v>28</v>
@@ -29651,58 +29651,58 @@
         <v>45287.69791666666</v>
       </c>
       <c r="F328" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G328" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H328">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I328">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J328" t="s">
         <v>50</v>
       </c>
       <c r="K328">
-        <v>1.869</v>
+        <v>2.05</v>
       </c>
       <c r="L328">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="M328">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="N328">
-        <v>2.05</v>
+        <v>2.375</v>
       </c>
       <c r="O328">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P328">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q328">
         <v>-0.25</v>
       </c>
       <c r="R328">
+        <v>2.025</v>
+      </c>
+      <c r="S328">
         <v>1.825</v>
       </c>
-      <c r="S328">
+      <c r="T328">
+        <v>2.25</v>
+      </c>
+      <c r="U328">
         <v>2.025</v>
       </c>
-      <c r="T328">
-        <v>2.75</v>
-      </c>
-      <c r="U328">
-        <v>1.9</v>
-      </c>
       <c r="V328">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W328">
-        <v>1.05</v>
+        <v>1.375</v>
       </c>
       <c r="X328">
         <v>-1</v>
@@ -29711,16 +29711,16 @@
         <v>-1</v>
       </c>
       <c r="Z328">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AA328">
         <v>-1</v>
       </c>
       <c r="AB328">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC328">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="329" spans="1:29">
@@ -29728,7 +29728,7 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>6810143</v>
+        <v>6810139</v>
       </c>
       <c r="C329" t="s">
         <v>28</v>
@@ -29740,58 +29740,58 @@
         <v>45287.69791666666</v>
       </c>
       <c r="F329" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G329" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H329">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I329">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J329" t="s">
         <v>50</v>
       </c>
       <c r="K329">
+        <v>1.869</v>
+      </c>
+      <c r="L329">
+        <v>3.7</v>
+      </c>
+      <c r="M329">
+        <v>3.8</v>
+      </c>
+      <c r="N329">
         <v>2.05</v>
       </c>
-      <c r="L329">
-        <v>3.4</v>
-      </c>
-      <c r="M329">
-        <v>3.5</v>
-      </c>
-      <c r="N329">
-        <v>2.375</v>
-      </c>
       <c r="O329">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P329">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="Q329">
         <v>-0.25</v>
       </c>
       <c r="R329">
+        <v>1.825</v>
+      </c>
+      <c r="S329">
         <v>2.025</v>
       </c>
-      <c r="S329">
-        <v>1.825</v>
-      </c>
       <c r="T329">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U329">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V329">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W329">
-        <v>1.375</v>
+        <v>1.05</v>
       </c>
       <c r="X329">
         <v>-1</v>
@@ -29800,16 +29800,16 @@
         <v>-1</v>
       </c>
       <c r="Z329">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AA329">
         <v>-1</v>
       </c>
       <c r="AB329">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC329">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="330" spans="1:29">
@@ -30618,7 +30618,7 @@
         <v>337</v>
       </c>
       <c r="B339">
-        <v>6810158</v>
+        <v>6810159</v>
       </c>
       <c r="C339" t="s">
         <v>28</v>
@@ -30630,73 +30630,73 @@
         <v>45318.69791666666</v>
       </c>
       <c r="F339" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G339" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H339">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I339">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J339" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K339">
-        <v>1.363</v>
+        <v>5.5</v>
       </c>
       <c r="L339">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="M339">
-        <v>6.5</v>
+        <v>1.5</v>
       </c>
       <c r="N339">
-        <v>1.444</v>
+        <v>6</v>
       </c>
       <c r="O339">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P339">
-        <v>5.75</v>
+        <v>1.45</v>
       </c>
       <c r="Q339">
-        <v>-1.25</v>
+        <v>1.25</v>
       </c>
       <c r="R339">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S339">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T339">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U339">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V339">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W339">
         <v>-1</v>
       </c>
       <c r="X339">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y339">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z339">
         <v>-1</v>
       </c>
       <c r="AA339">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AB339">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AC339">
         <v>-1</v>
@@ -30707,7 +30707,7 @@
         <v>338</v>
       </c>
       <c r="B340">
-        <v>6810159</v>
+        <v>6810158</v>
       </c>
       <c r="C340" t="s">
         <v>28</v>
@@ -30719,73 +30719,73 @@
         <v>45318.69791666666</v>
       </c>
       <c r="F340" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G340" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H340">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I340">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J340" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K340">
-        <v>5.5</v>
+        <v>1.363</v>
       </c>
       <c r="L340">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="M340">
-        <v>1.5</v>
+        <v>6.5</v>
       </c>
       <c r="N340">
-        <v>6</v>
+        <v>1.444</v>
       </c>
       <c r="O340">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P340">
-        <v>1.45</v>
+        <v>5.75</v>
       </c>
       <c r="Q340">
-        <v>1.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R340">
+        <v>2</v>
+      </c>
+      <c r="S340">
+        <v>1.85</v>
+      </c>
+      <c r="T340">
+        <v>3</v>
+      </c>
+      <c r="U340">
+        <v>2.025</v>
+      </c>
+      <c r="V340">
         <v>1.825</v>
       </c>
-      <c r="S340">
-        <v>2.025</v>
-      </c>
-      <c r="T340">
-        <v>2.75</v>
-      </c>
-      <c r="U340">
-        <v>1.95</v>
-      </c>
-      <c r="V340">
-        <v>1.9</v>
-      </c>
       <c r="W340">
         <v>-1</v>
       </c>
       <c r="X340">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y340">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z340">
         <v>-1</v>
       </c>
       <c r="AA340">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB340">
         <v>1.025</v>
-      </c>
-      <c r="AB340">
-        <v>0.95</v>
       </c>
       <c r="AC340">
         <v>-1</v>
@@ -31508,7 +31508,7 @@
         <v>347</v>
       </c>
       <c r="B349">
-        <v>6810162</v>
+        <v>6810164</v>
       </c>
       <c r="C349" t="s">
         <v>28</v>
@@ -31520,76 +31520,76 @@
         <v>45322.70833333334</v>
       </c>
       <c r="F349" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G349" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="H349">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I349">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J349" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K349">
-        <v>4</v>
+        <v>1.2</v>
       </c>
       <c r="L349">
-        <v>3.6</v>
+        <v>7</v>
       </c>
       <c r="M349">
-        <v>1.85</v>
+        <v>12</v>
       </c>
       <c r="N349">
-        <v>3.1</v>
+        <v>1.142</v>
       </c>
       <c r="O349">
-        <v>3.2</v>
+        <v>8.5</v>
       </c>
       <c r="P349">
-        <v>2.3</v>
+        <v>15</v>
       </c>
       <c r="Q349">
-        <v>0.25</v>
+        <v>-2.25</v>
       </c>
       <c r="R349">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S349">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T349">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="U349">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V349">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W349">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X349">
         <v>-1</v>
       </c>
       <c r="Y349">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z349">
         <v>-1</v>
       </c>
       <c r="AA349">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AB349">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC349">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="350" spans="1:29">
@@ -31597,7 +31597,7 @@
         <v>348</v>
       </c>
       <c r="B350">
-        <v>6810164</v>
+        <v>6810162</v>
       </c>
       <c r="C350" t="s">
         <v>28</v>
@@ -31609,76 +31609,76 @@
         <v>45322.70833333334</v>
       </c>
       <c r="F350" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G350" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="H350">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I350">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J350" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K350">
-        <v>1.2</v>
+        <v>4</v>
       </c>
       <c r="L350">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="M350">
-        <v>12</v>
+        <v>1.85</v>
       </c>
       <c r="N350">
-        <v>1.142</v>
+        <v>3.1</v>
       </c>
       <c r="O350">
-        <v>8.5</v>
+        <v>3.2</v>
       </c>
       <c r="P350">
-        <v>15</v>
+        <v>2.3</v>
       </c>
       <c r="Q350">
-        <v>-2.25</v>
+        <v>0.25</v>
       </c>
       <c r="R350">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S350">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T350">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="U350">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V350">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W350">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X350">
         <v>-1</v>
       </c>
       <c r="Y350">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z350">
         <v>-1</v>
       </c>
       <c r="AA350">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="AB350">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC350">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="351" spans="1:29">
@@ -31686,7 +31686,7 @@
         <v>349</v>
       </c>
       <c r="B351">
-        <v>6810166</v>
+        <v>6810163</v>
       </c>
       <c r="C351" t="s">
         <v>28</v>
@@ -31698,73 +31698,73 @@
         <v>45323.6875</v>
       </c>
       <c r="F351" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G351" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H351">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I351">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J351" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K351">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="L351">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M351">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="N351">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="O351">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P351">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="Q351">
         <v>0.25</v>
       </c>
       <c r="R351">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S351">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T351">
         <v>2.5</v>
       </c>
       <c r="U351">
+        <v>1.975</v>
+      </c>
+      <c r="V351">
         <v>1.875</v>
       </c>
-      <c r="V351">
-        <v>1.975</v>
-      </c>
       <c r="W351">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="X351">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y351">
         <v>-1</v>
       </c>
       <c r="Z351">
-        <v>0.4625</v>
+        <v>0.95</v>
       </c>
       <c r="AA351">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB351">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC351">
         <v>-1</v>
@@ -31775,7 +31775,7 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>6810163</v>
+        <v>6810166</v>
       </c>
       <c r="C352" t="s">
         <v>28</v>
@@ -31787,79 +31787,79 @@
         <v>45323.6875</v>
       </c>
       <c r="F352" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G352" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H352">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I352">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J352" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K352">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L352">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M352">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="N352">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="O352">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P352">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="Q352">
         <v>0.25</v>
       </c>
       <c r="R352">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S352">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T352">
         <v>2.5</v>
       </c>
       <c r="U352">
+        <v>1.875</v>
+      </c>
+      <c r="V352">
         <v>1.975</v>
       </c>
-      <c r="V352">
-        <v>1.875</v>
-      </c>
       <c r="W352">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="X352">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y352">
         <v>-1</v>
       </c>
       <c r="Z352">
-        <v>0.95</v>
+        <v>0.4625</v>
       </c>
       <c r="AA352">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB352">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC352">
         <v>-1</v>
       </c>
     </row>
-    <row r="353" spans="1:27">
+    <row r="353" spans="1:29">
       <c r="A353" s="1">
         <v>351</v>
       </c>
@@ -31881,6 +31881,15 @@
       <c r="G353" t="s">
         <v>29</v>
       </c>
+      <c r="H353">
+        <v>2</v>
+      </c>
+      <c r="I353">
+        <v>2</v>
+      </c>
+      <c r="J353" t="s">
+        <v>48</v>
+      </c>
       <c r="K353">
         <v>3.1</v>
       </c>
@@ -31903,42 +31912,48 @@
         <v>0.25</v>
       </c>
       <c r="R353">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S353">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T353">
         <v>2.25</v>
       </c>
       <c r="U353">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V353">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W353">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X353">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="Y353">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z353">
-        <v>0</v>
+        <v>0.4625</v>
       </c>
       <c r="AA353">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="354" spans="1:27">
+        <v>-0.5</v>
+      </c>
+      <c r="AB353">
+        <v>0.875</v>
+      </c>
+      <c r="AC353">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="354" spans="1:29">
       <c r="A354" s="1">
         <v>352</v>
       </c>
       <c r="B354">
-        <v>6810171</v>
+        <v>6810174</v>
       </c>
       <c r="C354" t="s">
         <v>28</v>
@@ -31950,69 +31965,84 @@
         <v>45325.59375</v>
       </c>
       <c r="F354" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G354" t="s">
-        <v>44</v>
+        <v>37</v>
+      </c>
+      <c r="H354">
+        <v>0</v>
+      </c>
+      <c r="I354">
+        <v>3</v>
+      </c>
+      <c r="J354" t="s">
+        <v>49</v>
       </c>
       <c r="K354">
-        <v>3.2</v>
+        <v>1.909</v>
       </c>
       <c r="L354">
+        <v>3.75</v>
+      </c>
+      <c r="M354">
         <v>3.5</v>
       </c>
-      <c r="M354">
-        <v>2.1</v>
-      </c>
       <c r="N354">
-        <v>3.4</v>
+        <v>1.909</v>
       </c>
       <c r="O354">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P354">
-        <v>2.05</v>
+        <v>3.8</v>
       </c>
       <c r="Q354">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R354">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S354">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T354">
         <v>2.5</v>
       </c>
       <c r="U354">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V354">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W354">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X354">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y354">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="Z354">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA354">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="355" spans="1:27">
+        <v>0.925</v>
+      </c>
+      <c r="AB354">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AC354">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="355" spans="1:29">
       <c r="A355" s="1">
         <v>353</v>
       </c>
       <c r="B355">
-        <v>6810174</v>
+        <v>6810171</v>
       </c>
       <c r="C355" t="s">
         <v>28</v>
@@ -32024,31 +32054,40 @@
         <v>45325.59375</v>
       </c>
       <c r="F355" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G355" t="s">
-        <v>37</v>
+        <v>44</v>
+      </c>
+      <c r="H355">
+        <v>1</v>
+      </c>
+      <c r="I355">
+        <v>0</v>
+      </c>
+      <c r="J355" t="s">
+        <v>50</v>
       </c>
       <c r="K355">
-        <v>1.909</v>
+        <v>3.2</v>
       </c>
       <c r="L355">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M355">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="N355">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="O355">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P355">
-        <v>3.4</v>
+        <v>2.05</v>
       </c>
       <c r="Q355">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R355">
         <v>2</v>
@@ -32057,31 +32096,37 @@
         <v>1.85</v>
       </c>
       <c r="T355">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U355">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V355">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W355">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="X355">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y355">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z355">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA355">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="356" spans="1:27">
+        <v>-1</v>
+      </c>
+      <c r="AB355">
+        <v>-1</v>
+      </c>
+      <c r="AC355">
+        <v>0.925</v>
+      </c>
+    </row>
+    <row r="356" spans="1:29">
       <c r="A356" s="1">
         <v>354</v>
       </c>
@@ -32103,6 +32148,15 @@
       <c r="G356" t="s">
         <v>43</v>
       </c>
+      <c r="H356">
+        <v>0</v>
+      </c>
+      <c r="I356">
+        <v>1</v>
+      </c>
+      <c r="J356" t="s">
+        <v>49</v>
+      </c>
       <c r="K356">
         <v>2.8</v>
       </c>
@@ -32116,7 +32170,7 @@
         <v>3.1</v>
       </c>
       <c r="O356">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P356">
         <v>2.2</v>
@@ -32125,37 +32179,43 @@
         <v>0.25</v>
       </c>
       <c r="R356">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S356">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T356">
         <v>2.75</v>
       </c>
       <c r="U356">
+        <v>1.875</v>
+      </c>
+      <c r="V356">
         <v>1.975</v>
       </c>
-      <c r="V356">
-        <v>1.875</v>
-      </c>
       <c r="W356">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X356">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y356">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="Z356">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA356">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="357" spans="1:27">
+        <v>0.95</v>
+      </c>
+      <c r="AB356">
+        <v>-1</v>
+      </c>
+      <c r="AC356">
+        <v>0.9750000000000001</v>
+      </c>
+    </row>
+    <row r="357" spans="1:29">
       <c r="A357" s="1">
         <v>355</v>
       </c>
@@ -32177,6 +32237,15 @@
       <c r="G357" t="s">
         <v>41</v>
       </c>
+      <c r="H357">
+        <v>2</v>
+      </c>
+      <c r="I357">
+        <v>1</v>
+      </c>
+      <c r="J357" t="s">
+        <v>50</v>
+      </c>
       <c r="K357">
         <v>3.5</v>
       </c>
@@ -32187,49 +32256,55 @@
         <v>1.95</v>
       </c>
       <c r="N357">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="O357">
         <v>3.5</v>
       </c>
       <c r="P357">
-        <v>1.909</v>
+        <v>1.95</v>
       </c>
       <c r="Q357">
         <v>0.5</v>
       </c>
       <c r="R357">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S357">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T357">
+        <v>2.75</v>
+      </c>
+      <c r="U357">
+        <v>1.925</v>
+      </c>
+      <c r="V357">
+        <v>1.925</v>
+      </c>
+      <c r="W357">
         <v>2.5</v>
       </c>
-      <c r="U357">
-        <v>1.825</v>
-      </c>
-      <c r="V357">
-        <v>2.025</v>
-      </c>
-      <c r="W357">
-        <v>0</v>
-      </c>
       <c r="X357">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y357">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z357">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA357">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="358" spans="1:27">
+        <v>-1</v>
+      </c>
+      <c r="AB357">
+        <v>0.4625</v>
+      </c>
+      <c r="AC357">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="358" spans="1:29">
       <c r="A358" s="1">
         <v>356</v>
       </c>
@@ -32251,6 +32326,15 @@
       <c r="G358" t="s">
         <v>40</v>
       </c>
+      <c r="H358">
+        <v>0</v>
+      </c>
+      <c r="I358">
+        <v>1</v>
+      </c>
+      <c r="J358" t="s">
+        <v>49</v>
+      </c>
       <c r="K358">
         <v>3.2</v>
       </c>
@@ -32264,46 +32348,52 @@
         <v>3.1</v>
       </c>
       <c r="O358">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P358">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Q358">
         <v>0.25</v>
       </c>
       <c r="R358">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S358">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T358">
         <v>2.5</v>
       </c>
       <c r="U358">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V358">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W358">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X358">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y358">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="Z358">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA358">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="359" spans="1:27">
+        <v>1.05</v>
+      </c>
+      <c r="AB358">
+        <v>-1</v>
+      </c>
+      <c r="AC358">
+        <v>0.8500000000000001</v>
+      </c>
+    </row>
+    <row r="359" spans="1:29">
       <c r="A359" s="1">
         <v>357</v>
       </c>
@@ -32325,6 +32415,15 @@
       <c r="G359" t="s">
         <v>42</v>
       </c>
+      <c r="H359">
+        <v>1</v>
+      </c>
+      <c r="I359">
+        <v>0</v>
+      </c>
+      <c r="J359" t="s">
+        <v>50</v>
+      </c>
       <c r="K359">
         <v>2.375</v>
       </c>
@@ -32335,22 +32434,22 @@
         <v>2.8</v>
       </c>
       <c r="N359">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O359">
         <v>3.5</v>
       </c>
       <c r="P359">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="Q359">
         <v>-0.25</v>
       </c>
       <c r="R359">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S359">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T359">
         <v>2.5</v>
@@ -32362,22 +32461,28 @@
         <v>2.025</v>
       </c>
       <c r="W359">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="X359">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y359">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z359">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA359">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="360" spans="1:27">
+        <v>-1</v>
+      </c>
+      <c r="AB359">
+        <v>-1</v>
+      </c>
+      <c r="AC359">
+        <v>1.025</v>
+      </c>
+    </row>
+    <row r="360" spans="1:29">
       <c r="A360" s="1">
         <v>358</v>
       </c>
@@ -32399,6 +32504,15 @@
       <c r="G360" t="s">
         <v>46</v>
       </c>
+      <c r="H360">
+        <v>4</v>
+      </c>
+      <c r="I360">
+        <v>1</v>
+      </c>
+      <c r="J360" t="s">
+        <v>50</v>
+      </c>
       <c r="K360">
         <v>1.833</v>
       </c>
@@ -32409,45 +32523,643 @@
         <v>3.8</v>
       </c>
       <c r="N360">
+        <v>1.666</v>
+      </c>
+      <c r="O360">
+        <v>3.8</v>
+      </c>
+      <c r="P360">
+        <v>4.75</v>
+      </c>
+      <c r="Q360">
+        <v>-0.75</v>
+      </c>
+      <c r="R360">
         <v>1.85</v>
       </c>
-      <c r="O360">
-        <v>3.6</v>
-      </c>
-      <c r="P360">
-        <v>3.8</v>
-      </c>
-      <c r="Q360">
-        <v>-0.5</v>
-      </c>
-      <c r="R360">
-        <v>1.875</v>
-      </c>
       <c r="S360">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T360">
         <v>2.75</v>
       </c>
       <c r="U360">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V360">
+        <v>1.9</v>
+      </c>
+      <c r="W360">
+        <v>0.6659999999999999</v>
+      </c>
+      <c r="X360">
+        <v>-1</v>
+      </c>
+      <c r="Y360">
+        <v>-1</v>
+      </c>
+      <c r="Z360">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA360">
+        <v>-1</v>
+      </c>
+      <c r="AB360">
+        <v>0.95</v>
+      </c>
+      <c r="AC360">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="361" spans="1:29">
+      <c r="A361" s="1">
+        <v>359</v>
+      </c>
+      <c r="B361">
+        <v>6810183</v>
+      </c>
+      <c r="C361" t="s">
+        <v>28</v>
+      </c>
+      <c r="D361" t="s">
+        <v>28</v>
+      </c>
+      <c r="E361" s="2">
+        <v>45331.69791666666</v>
+      </c>
+      <c r="F361" t="s">
+        <v>46</v>
+      </c>
+      <c r="G361" t="s">
+        <v>45</v>
+      </c>
+      <c r="K361">
+        <v>1.5</v>
+      </c>
+      <c r="L361">
+        <v>4</v>
+      </c>
+      <c r="M361">
+        <v>5.75</v>
+      </c>
+      <c r="N361">
+        <v>1.5</v>
+      </c>
+      <c r="O361">
+        <v>4.333</v>
+      </c>
+      <c r="P361">
+        <v>6</v>
+      </c>
+      <c r="Q361">
+        <v>-1</v>
+      </c>
+      <c r="R361">
+        <v>1.9</v>
+      </c>
+      <c r="S361">
+        <v>1.95</v>
+      </c>
+      <c r="T361">
+        <v>2.75</v>
+      </c>
+      <c r="U361">
+        <v>2</v>
+      </c>
+      <c r="V361">
         <v>1.85</v>
       </c>
-      <c r="W360">
+      <c r="W361">
         <v>0</v>
       </c>
-      <c r="X360">
+      <c r="X361">
         <v>0</v>
       </c>
-      <c r="Y360">
+      <c r="Y361">
         <v>0</v>
       </c>
-      <c r="Z360">
+      <c r="Z361">
         <v>0</v>
       </c>
-      <c r="AA360">
+      <c r="AA361">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:29">
+      <c r="A362" s="1">
+        <v>360</v>
+      </c>
+      <c r="B362">
+        <v>6810184</v>
+      </c>
+      <c r="C362" t="s">
+        <v>28</v>
+      </c>
+      <c r="D362" t="s">
+        <v>28</v>
+      </c>
+      <c r="E362" s="2">
+        <v>45332.5</v>
+      </c>
+      <c r="F362" t="s">
+        <v>29</v>
+      </c>
+      <c r="G362" t="s">
+        <v>37</v>
+      </c>
+      <c r="K362">
+        <v>1.833</v>
+      </c>
+      <c r="L362">
+        <v>3.6</v>
+      </c>
+      <c r="M362">
+        <v>3.75</v>
+      </c>
+      <c r="N362">
+        <v>1.833</v>
+      </c>
+      <c r="O362">
+        <v>3.75</v>
+      </c>
+      <c r="P362">
+        <v>4</v>
+      </c>
+      <c r="Q362">
+        <v>-0.5</v>
+      </c>
+      <c r="R362">
+        <v>1.875</v>
+      </c>
+      <c r="S362">
+        <v>1.975</v>
+      </c>
+      <c r="T362">
+        <v>2.75</v>
+      </c>
+      <c r="U362">
+        <v>2.025</v>
+      </c>
+      <c r="V362">
+        <v>1.825</v>
+      </c>
+      <c r="W362">
+        <v>0</v>
+      </c>
+      <c r="X362">
+        <v>0</v>
+      </c>
+      <c r="Y362">
+        <v>0</v>
+      </c>
+      <c r="Z362">
+        <v>0</v>
+      </c>
+      <c r="AA362">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:29">
+      <c r="A363" s="1">
+        <v>361</v>
+      </c>
+      <c r="B363">
+        <v>6810186</v>
+      </c>
+      <c r="C363" t="s">
+        <v>28</v>
+      </c>
+      <c r="D363" t="s">
+        <v>28</v>
+      </c>
+      <c r="E363" s="2">
+        <v>45332.59375</v>
+      </c>
+      <c r="F363" t="s">
+        <v>43</v>
+      </c>
+      <c r="G363" t="s">
+        <v>38</v>
+      </c>
+      <c r="K363">
+        <v>1.285</v>
+      </c>
+      <c r="L363">
+        <v>5.5</v>
+      </c>
+      <c r="M363">
+        <v>8.5</v>
+      </c>
+      <c r="N363">
+        <v>1.3</v>
+      </c>
+      <c r="O363">
+        <v>6</v>
+      </c>
+      <c r="P363">
+        <v>8.5</v>
+      </c>
+      <c r="Q363">
+        <v>-1.5</v>
+      </c>
+      <c r="R363">
+        <v>1.825</v>
+      </c>
+      <c r="S363">
+        <v>2.025</v>
+      </c>
+      <c r="T363">
+        <v>3</v>
+      </c>
+      <c r="U363">
+        <v>1.875</v>
+      </c>
+      <c r="V363">
+        <v>1.975</v>
+      </c>
+      <c r="W363">
+        <v>0</v>
+      </c>
+      <c r="X363">
+        <v>0</v>
+      </c>
+      <c r="Y363">
+        <v>0</v>
+      </c>
+      <c r="Z363">
+        <v>0</v>
+      </c>
+      <c r="AA363">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:29">
+      <c r="A364" s="1">
+        <v>362</v>
+      </c>
+      <c r="B364">
+        <v>6810185</v>
+      </c>
+      <c r="C364" t="s">
+        <v>28</v>
+      </c>
+      <c r="D364" t="s">
+        <v>28</v>
+      </c>
+      <c r="E364" s="2">
+        <v>45332.69791666666</v>
+      </c>
+      <c r="F364" t="s">
+        <v>41</v>
+      </c>
+      <c r="G364" t="s">
+        <v>30</v>
+      </c>
+      <c r="K364">
+        <v>1.2</v>
+      </c>
+      <c r="L364">
+        <v>6.5</v>
+      </c>
+      <c r="M364">
+        <v>9.5</v>
+      </c>
+      <c r="N364">
+        <v>1.222</v>
+      </c>
+      <c r="O364">
+        <v>7</v>
+      </c>
+      <c r="P364">
+        <v>9.5</v>
+      </c>
+      <c r="Q364">
+        <v>-1.75</v>
+      </c>
+      <c r="R364">
+        <v>1.825</v>
+      </c>
+      <c r="S364">
+        <v>2.025</v>
+      </c>
+      <c r="T364">
+        <v>3.25</v>
+      </c>
+      <c r="U364">
+        <v>1.875</v>
+      </c>
+      <c r="V364">
+        <v>1.975</v>
+      </c>
+      <c r="W364">
+        <v>0</v>
+      </c>
+      <c r="X364">
+        <v>0</v>
+      </c>
+      <c r="Y364">
+        <v>0</v>
+      </c>
+      <c r="Z364">
+        <v>0</v>
+      </c>
+      <c r="AA364">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:29">
+      <c r="A365" s="1">
+        <v>363</v>
+      </c>
+      <c r="B365">
+        <v>6810179</v>
+      </c>
+      <c r="C365" t="s">
+        <v>28</v>
+      </c>
+      <c r="D365" t="s">
+        <v>28</v>
+      </c>
+      <c r="E365" s="2">
+        <v>45333.39583333334</v>
+      </c>
+      <c r="F365" t="s">
+        <v>47</v>
+      </c>
+      <c r="G365" t="s">
+        <v>33</v>
+      </c>
+      <c r="K365">
+        <v>5.25</v>
+      </c>
+      <c r="L365">
+        <v>4</v>
+      </c>
+      <c r="M365">
+        <v>1.55</v>
+      </c>
+      <c r="N365">
+        <v>5</v>
+      </c>
+      <c r="O365">
+        <v>4.2</v>
+      </c>
+      <c r="P365">
+        <v>1.615</v>
+      </c>
+      <c r="Q365">
+        <v>1</v>
+      </c>
+      <c r="R365">
+        <v>1.8</v>
+      </c>
+      <c r="S365">
+        <v>2.05</v>
+      </c>
+      <c r="T365">
+        <v>2.75</v>
+      </c>
+      <c r="U365">
+        <v>1.825</v>
+      </c>
+      <c r="V365">
+        <v>2.025</v>
+      </c>
+      <c r="W365">
+        <v>0</v>
+      </c>
+      <c r="X365">
+        <v>0</v>
+      </c>
+      <c r="Y365">
+        <v>0</v>
+      </c>
+      <c r="Z365">
+        <v>0</v>
+      </c>
+      <c r="AA365">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="1:29">
+      <c r="A366" s="1">
+        <v>364</v>
+      </c>
+      <c r="B366">
+        <v>6810182</v>
+      </c>
+      <c r="C366" t="s">
+        <v>28</v>
+      </c>
+      <c r="D366" t="s">
+        <v>28</v>
+      </c>
+      <c r="E366" s="2">
+        <v>45333.5</v>
+      </c>
+      <c r="F366" t="s">
+        <v>40</v>
+      </c>
+      <c r="G366" t="s">
+        <v>34</v>
+      </c>
+      <c r="K366">
+        <v>3.8</v>
+      </c>
+      <c r="L366">
+        <v>3.6</v>
+      </c>
+      <c r="M366">
+        <v>1.85</v>
+      </c>
+      <c r="N366">
+        <v>3.75</v>
+      </c>
+      <c r="O366">
+        <v>3.6</v>
+      </c>
+      <c r="P366">
+        <v>1.909</v>
+      </c>
+      <c r="Q366">
+        <v>0.5</v>
+      </c>
+      <c r="R366">
+        <v>1.9</v>
+      </c>
+      <c r="S366">
+        <v>1.95</v>
+      </c>
+      <c r="T366">
+        <v>2.75</v>
+      </c>
+      <c r="U366">
+        <v>1.95</v>
+      </c>
+      <c r="V366">
+        <v>1.9</v>
+      </c>
+      <c r="W366">
+        <v>0</v>
+      </c>
+      <c r="X366">
+        <v>0</v>
+      </c>
+      <c r="Y366">
+        <v>0</v>
+      </c>
+      <c r="Z366">
+        <v>0</v>
+      </c>
+      <c r="AA366">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="1:29">
+      <c r="A367" s="1">
+        <v>365</v>
+      </c>
+      <c r="B367">
+        <v>6810180</v>
+      </c>
+      <c r="C367" t="s">
+        <v>28</v>
+      </c>
+      <c r="D367" t="s">
+        <v>28</v>
+      </c>
+      <c r="E367" s="2">
+        <v>45333.60416666666</v>
+      </c>
+      <c r="F367" t="s">
+        <v>44</v>
+      </c>
+      <c r="G367" t="s">
+        <v>36</v>
+      </c>
+      <c r="K367">
+        <v>3.6</v>
+      </c>
+      <c r="L367">
+        <v>3.4</v>
+      </c>
+      <c r="M367">
+        <v>2</v>
+      </c>
+      <c r="N367">
+        <v>3.75</v>
+      </c>
+      <c r="O367">
+        <v>3.4</v>
+      </c>
+      <c r="P367">
+        <v>2</v>
+      </c>
+      <c r="Q367">
+        <v>0.5</v>
+      </c>
+      <c r="R367">
+        <v>1.8</v>
+      </c>
+      <c r="S367">
+        <v>2.05</v>
+      </c>
+      <c r="T367">
+        <v>2.5</v>
+      </c>
+      <c r="U367">
+        <v>1.9</v>
+      </c>
+      <c r="V367">
+        <v>1.95</v>
+      </c>
+      <c r="W367">
+        <v>0</v>
+      </c>
+      <c r="X367">
+        <v>0</v>
+      </c>
+      <c r="Y367">
+        <v>0</v>
+      </c>
+      <c r="Z367">
+        <v>0</v>
+      </c>
+      <c r="AA367">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="1:29">
+      <c r="A368" s="1">
+        <v>366</v>
+      </c>
+      <c r="B368">
+        <v>6810181</v>
+      </c>
+      <c r="C368" t="s">
+        <v>28</v>
+      </c>
+      <c r="D368" t="s">
+        <v>28</v>
+      </c>
+      <c r="E368" s="2">
+        <v>45333.63541666666</v>
+      </c>
+      <c r="F368" t="s">
+        <v>42</v>
+      </c>
+      <c r="G368" t="s">
+        <v>31</v>
+      </c>
+      <c r="K368">
+        <v>2.05</v>
+      </c>
+      <c r="L368">
+        <v>3.6</v>
+      </c>
+      <c r="M368">
+        <v>3.2</v>
+      </c>
+      <c r="N368">
+        <v>2.05</v>
+      </c>
+      <c r="O368">
+        <v>3.75</v>
+      </c>
+      <c r="P368">
+        <v>3.25</v>
+      </c>
+      <c r="Q368">
+        <v>-0.25</v>
+      </c>
+      <c r="R368">
+        <v>1.85</v>
+      </c>
+      <c r="S368">
+        <v>2</v>
+      </c>
+      <c r="T368">
+        <v>2.75</v>
+      </c>
+      <c r="U368">
+        <v>1.925</v>
+      </c>
+      <c r="V368">
+        <v>1.925</v>
+      </c>
+      <c r="W368">
+        <v>0</v>
+      </c>
+      <c r="X368">
+        <v>0</v>
+      </c>
+      <c r="Y368">
+        <v>0</v>
+      </c>
+      <c r="Z368">
+        <v>0</v>
+      </c>
+      <c r="AA368">
         <v>0</v>
       </c>
     </row>

--- a/Belgium First Division A/Belgium First Division A.xlsx
+++ b/Belgium First Division A/Belgium First Division A.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1855" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1844" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -528,7 +528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC368"/>
+  <dimension ref="A1:AC365"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1604,7 +1604,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6114951</v>
+        <v>5208566</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1616,76 +1616,76 @@
         <v>44940.59375</v>
       </c>
       <c r="F13" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K13">
+        <v>1.75</v>
+      </c>
+      <c r="L13">
+        <v>3.8</v>
+      </c>
+      <c r="M13">
+        <v>4.2</v>
+      </c>
+      <c r="N13">
+        <v>1.666</v>
+      </c>
+      <c r="O13">
+        <v>4</v>
+      </c>
+      <c r="P13">
+        <v>4.5</v>
+      </c>
+      <c r="Q13">
+        <v>-0.75</v>
+      </c>
+      <c r="R13">
+        <v>1.875</v>
+      </c>
+      <c r="S13">
+        <v>1.975</v>
+      </c>
+      <c r="T13">
         <v>2.75</v>
       </c>
-      <c r="L13">
-        <v>3.4</v>
-      </c>
-      <c r="M13">
-        <v>2.45</v>
-      </c>
-      <c r="N13">
-        <v>2.8</v>
-      </c>
-      <c r="O13">
-        <v>3.3</v>
-      </c>
-      <c r="P13">
-        <v>2.45</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13">
-        <v>2.05</v>
-      </c>
-      <c r="S13">
-        <v>1.8</v>
-      </c>
-      <c r="T13">
-        <v>2.5</v>
-      </c>
       <c r="U13">
+        <v>1.825</v>
+      </c>
+      <c r="V13">
         <v>2.025</v>
       </c>
-      <c r="V13">
-        <v>1.825</v>
-      </c>
       <c r="W13">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X13">
         <v>-1</v>
       </c>
       <c r="Y13">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z13">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA13">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB13">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AC13">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1693,7 +1693,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5208566</v>
+        <v>6114951</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1705,76 +1705,76 @@
         <v>44940.59375</v>
       </c>
       <c r="F14" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G14" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K14">
-        <v>1.75</v>
+        <v>2.75</v>
       </c>
       <c r="L14">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M14">
-        <v>4.2</v>
+        <v>2.45</v>
       </c>
       <c r="N14">
-        <v>1.666</v>
+        <v>2.8</v>
       </c>
       <c r="O14">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P14">
-        <v>4.5</v>
+        <v>2.45</v>
       </c>
       <c r="Q14">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R14">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S14">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T14">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U14">
+        <v>2.025</v>
+      </c>
+      <c r="V14">
         <v>1.825</v>
       </c>
-      <c r="V14">
-        <v>2.025</v>
-      </c>
       <c r="W14">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X14">
         <v>-1</v>
       </c>
       <c r="Y14">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z14">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA14">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB14">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC14">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -2494,7 +2494,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5208571</v>
+        <v>5208701</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2506,76 +2506,76 @@
         <v>44944.60416666666</v>
       </c>
       <c r="F23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G23" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K23">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="L23">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M23">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="N23">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="O23">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P23">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="Q23">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R23">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S23">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T23">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U23">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V23">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W23">
         <v>-1</v>
       </c>
       <c r="X23">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y23">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z23">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AA23">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB23">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC23">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2583,7 +2583,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5208701</v>
+        <v>5208571</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2595,76 +2595,76 @@
         <v>44944.60416666666</v>
       </c>
       <c r="F24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G24" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J24" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K24">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="L24">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M24">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="N24">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="O24">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P24">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="Q24">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R24">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S24">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T24">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U24">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V24">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W24">
         <v>-1</v>
       </c>
       <c r="X24">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y24">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z24">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA24">
+        <v>0.875</v>
+      </c>
+      <c r="AB24">
+        <v>0.5</v>
+      </c>
+      <c r="AC24">
         <v>-0.5</v>
-      </c>
-      <c r="AB24">
-        <v>-1</v>
-      </c>
-      <c r="AC24">
-        <v>0.8</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -3117,7 +3117,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>5208575</v>
+        <v>5208577</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3129,40 +3129,40 @@
         <v>44947.59375</v>
       </c>
       <c r="F30" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G30" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I30">
         <v>2</v>
       </c>
       <c r="J30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K30">
-        <v>1.95</v>
+        <v>2.625</v>
       </c>
       <c r="L30">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M30">
+        <v>2.4</v>
+      </c>
+      <c r="N30">
+        <v>3.2</v>
+      </c>
+      <c r="O30">
         <v>3.4</v>
       </c>
-      <c r="N30">
-        <v>1.75</v>
-      </c>
-      <c r="O30">
-        <v>3.6</v>
-      </c>
       <c r="P30">
-        <v>4</v>
+        <v>2.05</v>
       </c>
       <c r="Q30">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R30">
         <v>2.025</v>
@@ -3171,34 +3171,34 @@
         <v>1.825</v>
       </c>
       <c r="T30">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U30">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V30">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W30">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X30">
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z30">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AA30">
+        <v>0.825</v>
+      </c>
+      <c r="AB30">
+        <v>0.475</v>
+      </c>
+      <c r="AC30">
         <v>-0.5</v>
-      </c>
-      <c r="AB30">
-        <v>1</v>
-      </c>
-      <c r="AC30">
-        <v>-1</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3206,7 +3206,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>5208577</v>
+        <v>5208575</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3218,40 +3218,40 @@
         <v>44947.59375</v>
       </c>
       <c r="F31" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G31" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I31">
         <v>2</v>
       </c>
       <c r="J31" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K31">
-        <v>2.625</v>
+        <v>1.95</v>
       </c>
       <c r="L31">
+        <v>3.5</v>
+      </c>
+      <c r="M31">
         <v>3.4</v>
       </c>
-      <c r="M31">
-        <v>2.4</v>
-      </c>
       <c r="N31">
-        <v>3.2</v>
+        <v>1.75</v>
       </c>
       <c r="O31">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P31">
-        <v>2.05</v>
+        <v>4</v>
       </c>
       <c r="Q31">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R31">
         <v>2.025</v>
@@ -3260,34 +3260,34 @@
         <v>1.825</v>
       </c>
       <c r="T31">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U31">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V31">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W31">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X31">
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z31">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA31">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB31">
-        <v>0.475</v>
+        <v>1</v>
       </c>
       <c r="AC31">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -4808,7 +4808,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6192614</v>
+        <v>6192613</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4820,76 +4820,76 @@
         <v>44961.59375</v>
       </c>
       <c r="F49" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G49" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I49">
         <v>1</v>
       </c>
       <c r="J49" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K49">
-        <v>2.55</v>
+        <v>3.25</v>
       </c>
       <c r="L49">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M49">
-        <v>2.45</v>
+        <v>2.05</v>
       </c>
       <c r="N49">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="O49">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P49">
-        <v>1.909</v>
+        <v>1.75</v>
       </c>
       <c r="Q49">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R49">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S49">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T49">
         <v>2.5</v>
       </c>
       <c r="U49">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V49">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W49">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="X49">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y49">
         <v>-1</v>
       </c>
       <c r="Z49">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA49">
+        <v>-1</v>
+      </c>
+      <c r="AB49">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA49">
-        <v>-1</v>
-      </c>
-      <c r="AB49">
-        <v>-1</v>
-      </c>
       <c r="AC49">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -4897,7 +4897,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6192613</v>
+        <v>6192614</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4909,76 +4909,76 @@
         <v>44961.59375</v>
       </c>
       <c r="F50" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G50" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I50">
         <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K50">
-        <v>3.25</v>
+        <v>2.55</v>
       </c>
       <c r="L50">
+        <v>3.4</v>
+      </c>
+      <c r="M50">
+        <v>2.45</v>
+      </c>
+      <c r="N50">
+        <v>3.6</v>
+      </c>
+      <c r="O50">
         <v>3.5</v>
       </c>
-      <c r="M50">
-        <v>2.05</v>
-      </c>
-      <c r="N50">
-        <v>4.5</v>
-      </c>
-      <c r="O50">
-        <v>3.75</v>
-      </c>
       <c r="P50">
-        <v>1.75</v>
+        <v>1.909</v>
       </c>
       <c r="Q50">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R50">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S50">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T50">
         <v>2.5</v>
       </c>
       <c r="U50">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V50">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W50">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="X50">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y50">
         <v>-1</v>
       </c>
       <c r="Z50">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA50">
         <v>-1</v>
       </c>
       <c r="AB50">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC50">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -5520,7 +5520,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>5208587</v>
+        <v>5208718</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5532,76 +5532,76 @@
         <v>44967.69791666666</v>
       </c>
       <c r="F57" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G57" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I57">
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K57">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="L57">
         <v>3.4</v>
       </c>
       <c r="M57">
-        <v>2.9</v>
+        <v>2.45</v>
       </c>
       <c r="N57">
+        <v>2.55</v>
+      </c>
+      <c r="O57">
+        <v>3.4</v>
+      </c>
+      <c r="P57">
         <v>2.5</v>
-      </c>
-      <c r="O57">
-        <v>3.2</v>
-      </c>
-      <c r="P57">
-        <v>2.8</v>
       </c>
       <c r="Q57">
         <v>0</v>
       </c>
       <c r="R57">
+        <v>1.95</v>
+      </c>
+      <c r="S57">
+        <v>1.9</v>
+      </c>
+      <c r="T57">
+        <v>2.75</v>
+      </c>
+      <c r="U57">
+        <v>1.975</v>
+      </c>
+      <c r="V57">
         <v>1.875</v>
       </c>
-      <c r="S57">
-        <v>1.975</v>
-      </c>
-      <c r="T57">
-        <v>2.25</v>
-      </c>
-      <c r="U57">
-        <v>1.8</v>
-      </c>
-      <c r="V57">
-        <v>2.05</v>
-      </c>
       <c r="W57">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X57">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y57">
         <v>-1</v>
       </c>
       <c r="Z57">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA57">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB57">
+        <v>0.4875</v>
+      </c>
+      <c r="AC57">
         <v>-0.5</v>
-      </c>
-      <c r="AC57">
-        <v>0.5249999999999999</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5609,7 +5609,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>5208718</v>
+        <v>5208587</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5621,76 +5621,76 @@
         <v>44967.69791666666</v>
       </c>
       <c r="F58" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G58" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I58">
         <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K58">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="L58">
         <v>3.4</v>
       </c>
       <c r="M58">
-        <v>2.45</v>
+        <v>2.9</v>
       </c>
       <c r="N58">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="O58">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P58">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="Q58">
         <v>0</v>
       </c>
       <c r="R58">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S58">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T58">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U58">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V58">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="W58">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X58">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y58">
         <v>-1</v>
       </c>
       <c r="Z58">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA58">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB58">
-        <v>0.4875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC58">
-        <v>-0.5</v>
+        <v>0.5249999999999999</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -9614,7 +9614,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>5208612</v>
+        <v>5208613</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9626,76 +9626,76 @@
         <v>45003.59375</v>
       </c>
       <c r="F103" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G103" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I103">
+        <v>2</v>
+      </c>
+      <c r="J103" t="s">
+        <v>49</v>
+      </c>
+      <c r="K103">
+        <v>3.3</v>
+      </c>
+      <c r="L103">
+        <v>3.3</v>
+      </c>
+      <c r="M103">
+        <v>2.05</v>
+      </c>
+      <c r="N103">
+        <v>2.8</v>
+      </c>
+      <c r="O103">
+        <v>3.3</v>
+      </c>
+      <c r="P103">
+        <v>2.3</v>
+      </c>
+      <c r="Q103">
+        <v>0.25</v>
+      </c>
+      <c r="R103">
+        <v>1.85</v>
+      </c>
+      <c r="S103">
+        <v>2</v>
+      </c>
+      <c r="T103">
+        <v>2.75</v>
+      </c>
+      <c r="U103">
+        <v>1.9</v>
+      </c>
+      <c r="V103">
+        <v>1.95</v>
+      </c>
+      <c r="W103">
+        <v>-1</v>
+      </c>
+      <c r="X103">
+        <v>-1</v>
+      </c>
+      <c r="Y103">
+        <v>1.3</v>
+      </c>
+      <c r="Z103">
+        <v>-1</v>
+      </c>
+      <c r="AA103">
         <v>1</v>
       </c>
-      <c r="J103" t="s">
-        <v>50</v>
-      </c>
-      <c r="K103">
-        <v>1.45</v>
-      </c>
-      <c r="L103">
-        <v>4</v>
-      </c>
-      <c r="M103">
-        <v>6</v>
-      </c>
-      <c r="N103">
-        <v>1.5</v>
-      </c>
-      <c r="O103">
-        <v>3.75</v>
-      </c>
-      <c r="P103">
-        <v>6.5</v>
-      </c>
-      <c r="Q103">
-        <v>-1</v>
-      </c>
-      <c r="R103">
-        <v>2</v>
-      </c>
-      <c r="S103">
-        <v>1.85</v>
-      </c>
-      <c r="T103">
-        <v>2.25</v>
-      </c>
-      <c r="U103">
-        <v>2.025</v>
-      </c>
-      <c r="V103">
-        <v>1.825</v>
-      </c>
-      <c r="W103">
-        <v>0.5</v>
-      </c>
-      <c r="X103">
-        <v>-1</v>
-      </c>
-      <c r="Y103">
-        <v>-1</v>
-      </c>
-      <c r="Z103">
-        <v>0</v>
-      </c>
-      <c r="AA103">
-        <v>-0</v>
-      </c>
       <c r="AB103">
-        <v>1.025</v>
+        <v>0.45</v>
       </c>
       <c r="AC103">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9703,7 +9703,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>5208613</v>
+        <v>5208612</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9715,76 +9715,76 @@
         <v>45003.59375</v>
       </c>
       <c r="F104" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G104" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H104">
+        <v>2</v>
+      </c>
+      <c r="I104">
         <v>1</v>
       </c>
-      <c r="I104">
-        <v>2</v>
-      </c>
       <c r="J104" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K104">
-        <v>3.3</v>
+        <v>1.45</v>
       </c>
       <c r="L104">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M104">
-        <v>2.05</v>
+        <v>6</v>
       </c>
       <c r="N104">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
       <c r="O104">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P104">
-        <v>2.3</v>
+        <v>6.5</v>
       </c>
       <c r="Q104">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R104">
+        <v>2</v>
+      </c>
+      <c r="S104">
         <v>1.85</v>
       </c>
-      <c r="S104">
-        <v>2</v>
-      </c>
       <c r="T104">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U104">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V104">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W104">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X104">
         <v>-1</v>
       </c>
       <c r="Y104">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z104">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA104">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="AB104">
-        <v>0.45</v>
+        <v>1.025</v>
       </c>
       <c r="AC104">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -12818,7 +12818,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6390693</v>
+        <v>6390442</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12830,58 +12830,58 @@
         <v>45039.5625</v>
       </c>
       <c r="F139" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G139" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H139">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I139">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J139" t="s">
         <v>50</v>
       </c>
       <c r="K139">
-        <v>2.5</v>
+        <v>1.333</v>
       </c>
       <c r="L139">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M139">
-        <v>2.45</v>
+        <v>8</v>
       </c>
       <c r="N139">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="O139">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="P139">
-        <v>2.45</v>
+        <v>8.5</v>
       </c>
       <c r="Q139">
-        <v>0</v>
+        <v>-1.75</v>
       </c>
       <c r="R139">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S139">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T139">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U139">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V139">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W139">
-        <v>1.4</v>
+        <v>0.3</v>
       </c>
       <c r="X139">
         <v>-1</v>
@@ -12890,13 +12890,13 @@
         <v>-1</v>
       </c>
       <c r="Z139">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA139">
         <v>-1</v>
       </c>
       <c r="AB139">
-        <v>1</v>
+        <v>1.025</v>
       </c>
       <c r="AC139">
         <v>-1</v>
@@ -12907,7 +12907,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6390066</v>
+        <v>6385540</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12919,10 +12919,10 @@
         <v>45039.5625</v>
       </c>
       <c r="F140" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G140" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H140">
         <v>2</v>
@@ -12934,40 +12934,40 @@
         <v>49</v>
       </c>
       <c r="K140">
-        <v>3</v>
+        <v>1.363</v>
       </c>
       <c r="L140">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M140">
-        <v>2.15</v>
+        <v>7</v>
       </c>
       <c r="N140">
-        <v>2.8</v>
+        <v>1.55</v>
       </c>
       <c r="O140">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P140">
-        <v>2.25</v>
+        <v>5</v>
       </c>
       <c r="Q140">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R140">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S140">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T140">
         <v>3</v>
       </c>
       <c r="U140">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V140">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W140">
         <v>-1</v>
@@ -12976,16 +12976,16 @@
         <v>-1</v>
       </c>
       <c r="Y140">
-        <v>1.25</v>
+        <v>4</v>
       </c>
       <c r="Z140">
         <v>-1</v>
       </c>
       <c r="AA140">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AB140">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AC140">
         <v>-1</v>
@@ -12996,7 +12996,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6389819</v>
+        <v>6390043</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13008,56 +13008,56 @@
         <v>45039.5625</v>
       </c>
       <c r="F141" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G141" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I141">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J141" t="s">
         <v>49</v>
       </c>
       <c r="K141">
-        <v>5.25</v>
+        <v>1.222</v>
       </c>
       <c r="L141">
-        <v>4.2</v>
+        <v>5.75</v>
       </c>
       <c r="M141">
-        <v>1.533</v>
+        <v>11</v>
       </c>
       <c r="N141">
-        <v>6.5</v>
+        <v>1.142</v>
       </c>
       <c r="O141">
-        <v>4.75</v>
+        <v>7.5</v>
       </c>
       <c r="P141">
-        <v>1.4</v>
+        <v>15</v>
       </c>
       <c r="Q141">
-        <v>1.25</v>
+        <v>-2.25</v>
       </c>
       <c r="R141">
+        <v>1.975</v>
+      </c>
+      <c r="S141">
+        <v>1.875</v>
+      </c>
+      <c r="T141">
+        <v>3.5</v>
+      </c>
+      <c r="U141">
+        <v>1.95</v>
+      </c>
+      <c r="V141">
         <v>1.9</v>
       </c>
-      <c r="S141">
-        <v>1.95</v>
-      </c>
-      <c r="T141">
-        <v>3.25</v>
-      </c>
-      <c r="U141">
-        <v>2</v>
-      </c>
-      <c r="V141">
-        <v>1.85</v>
-      </c>
       <c r="W141">
         <v>-1</v>
       </c>
@@ -13065,19 +13065,19 @@
         <v>-1</v>
       </c>
       <c r="Y141">
-        <v>0.3999999999999999</v>
+        <v>14</v>
       </c>
       <c r="Z141">
         <v>-1</v>
       </c>
       <c r="AA141">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AB141">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC141">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13085,7 +13085,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6389865</v>
+        <v>6390066</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13097,73 +13097,73 @@
         <v>45039.5625</v>
       </c>
       <c r="F142" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G142" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H142">
         <v>2</v>
       </c>
       <c r="I142">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J142" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K142">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="L142">
         <v>3.6</v>
       </c>
       <c r="M142">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="N142">
         <v>2.8</v>
       </c>
       <c r="O142">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P142">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="Q142">
         <v>0.25</v>
       </c>
       <c r="R142">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S142">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T142">
         <v>3</v>
       </c>
       <c r="U142">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V142">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="W142">
         <v>-1</v>
       </c>
       <c r="X142">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y142">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z142">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA142">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AB142">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AC142">
         <v>-1</v>
@@ -13174,7 +13174,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6390043</v>
+        <v>6389865</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13186,49 +13186,49 @@
         <v>45039.5625</v>
       </c>
       <c r="F143" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G143" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I143">
         <v>2</v>
       </c>
       <c r="J143" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K143">
-        <v>1.222</v>
+        <v>3.5</v>
       </c>
       <c r="L143">
-        <v>5.75</v>
+        <v>3.6</v>
       </c>
       <c r="M143">
-        <v>11</v>
+        <v>1.95</v>
       </c>
       <c r="N143">
-        <v>1.142</v>
+        <v>2.8</v>
       </c>
       <c r="O143">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="P143">
-        <v>15</v>
+        <v>2.3</v>
       </c>
       <c r="Q143">
-        <v>-2.25</v>
+        <v>0.25</v>
       </c>
       <c r="R143">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S143">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T143">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U143">
         <v>1.95</v>
@@ -13240,22 +13240,22 @@
         <v>-1</v>
       </c>
       <c r="X143">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y143">
-        <v>14</v>
+        <v>-1</v>
       </c>
       <c r="Z143">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA143">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB143">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC143">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13263,7 +13263,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6385540</v>
+        <v>6390693</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13275,73 +13275,73 @@
         <v>45039.5625</v>
       </c>
       <c r="F144" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G144" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I144">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J144" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K144">
-        <v>1.363</v>
+        <v>2.5</v>
       </c>
       <c r="L144">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M144">
-        <v>7</v>
+        <v>2.45</v>
       </c>
       <c r="N144">
-        <v>1.55</v>
+        <v>2.4</v>
       </c>
       <c r="O144">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P144">
-        <v>5</v>
+        <v>2.45</v>
       </c>
       <c r="Q144">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R144">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S144">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T144">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U144">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V144">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W144">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X144">
         <v>-1</v>
       </c>
       <c r="Y144">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z144">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA144">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB144">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AC144">
         <v>-1</v>
@@ -13352,7 +13352,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6390442</v>
+        <v>6389819</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13364,73 +13364,73 @@
         <v>45039.5625</v>
       </c>
       <c r="F145" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G145" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H145">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I145">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J145" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K145">
-        <v>1.333</v>
+        <v>5.25</v>
       </c>
       <c r="L145">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="M145">
-        <v>8</v>
+        <v>1.533</v>
       </c>
       <c r="N145">
-        <v>1.3</v>
+        <v>6.5</v>
       </c>
       <c r="O145">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="P145">
-        <v>8.5</v>
+        <v>1.4</v>
       </c>
       <c r="Q145">
-        <v>-1.75</v>
+        <v>1.25</v>
       </c>
       <c r="R145">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S145">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T145">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U145">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V145">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W145">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X145">
         <v>-1</v>
       </c>
       <c r="Y145">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z145">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA145">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB145">
-        <v>1.025</v>
+        <v>1</v>
       </c>
       <c r="AC145">
         <v>-1</v>
@@ -15221,7 +15221,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6576986</v>
+        <v>6576985</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15233,58 +15233,58 @@
         <v>45080.64583333334</v>
       </c>
       <c r="F166" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G166" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H166">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I166">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J166" t="s">
         <v>50</v>
       </c>
       <c r="K166">
-        <v>1.5</v>
+        <v>1.727</v>
       </c>
       <c r="L166">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="M166">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="N166">
-        <v>1.363</v>
+        <v>1.45</v>
       </c>
       <c r="O166">
+        <v>5</v>
+      </c>
+      <c r="P166">
         <v>5.75</v>
       </c>
-      <c r="P166">
-        <v>6.5</v>
-      </c>
       <c r="Q166">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R166">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S166">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T166">
         <v>3.5</v>
       </c>
       <c r="U166">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V166">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W166">
-        <v>0.363</v>
+        <v>0.45</v>
       </c>
       <c r="X166">
         <v>-1</v>
@@ -15293,16 +15293,16 @@
         <v>-1</v>
       </c>
       <c r="Z166">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AA166">
         <v>-1</v>
       </c>
       <c r="AB166">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC166">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15310,7 +15310,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6576985</v>
+        <v>6576986</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15322,58 +15322,58 @@
         <v>45080.64583333334</v>
       </c>
       <c r="F167" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G167" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J167" t="s">
         <v>50</v>
       </c>
       <c r="K167">
-        <v>1.727</v>
+        <v>1.5</v>
       </c>
       <c r="L167">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="M167">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="N167">
-        <v>1.45</v>
+        <v>1.363</v>
       </c>
       <c r="O167">
-        <v>5</v>
+        <v>5.75</v>
       </c>
       <c r="P167">
-        <v>5.75</v>
+        <v>6.5</v>
       </c>
       <c r="Q167">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R167">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S167">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T167">
         <v>3.5</v>
       </c>
       <c r="U167">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V167">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W167">
-        <v>0.45</v>
+        <v>0.363</v>
       </c>
       <c r="X167">
         <v>-1</v>
@@ -15382,16 +15382,16 @@
         <v>-1</v>
       </c>
       <c r="Z167">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AA167">
         <v>-1</v>
       </c>
       <c r="AB167">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC167">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -17357,7 +17357,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>6810007</v>
+        <v>7030334</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17369,55 +17369,55 @@
         <v>45151.45833333334</v>
       </c>
       <c r="F190" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G190" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H190">
         <v>0</v>
       </c>
       <c r="I190">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J190" t="s">
         <v>49</v>
       </c>
       <c r="K190">
-        <v>4.75</v>
+        <v>2.75</v>
       </c>
       <c r="L190">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M190">
-        <v>1.571</v>
+        <v>2.25</v>
       </c>
       <c r="N190">
-        <v>7</v>
+        <v>2.4</v>
       </c>
       <c r="O190">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P190">
-        <v>1.333</v>
+        <v>2.55</v>
       </c>
       <c r="Q190">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="R190">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S190">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T190">
         <v>3</v>
       </c>
       <c r="U190">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V190">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W190">
         <v>-1</v>
@@ -17426,19 +17426,19 @@
         <v>-1</v>
       </c>
       <c r="Y190">
-        <v>0.333</v>
+        <v>1.55</v>
       </c>
       <c r="Z190">
         <v>-1</v>
       </c>
       <c r="AA190">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB190">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC190">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="191" spans="1:29">
@@ -17446,7 +17446,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>7030334</v>
+        <v>6810007</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17458,55 +17458,55 @@
         <v>45151.45833333334</v>
       </c>
       <c r="F191" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G191" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H191">
         <v>0</v>
       </c>
       <c r="I191">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J191" t="s">
         <v>49</v>
       </c>
       <c r="K191">
-        <v>2.75</v>
+        <v>4.75</v>
       </c>
       <c r="L191">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M191">
-        <v>2.25</v>
+        <v>1.571</v>
       </c>
       <c r="N191">
-        <v>2.4</v>
+        <v>7</v>
       </c>
       <c r="O191">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P191">
-        <v>2.55</v>
+        <v>1.333</v>
       </c>
       <c r="Q191">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="R191">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S191">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T191">
         <v>3</v>
       </c>
       <c r="U191">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V191">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W191">
         <v>-1</v>
@@ -17515,19 +17515,19 @@
         <v>-1</v>
       </c>
       <c r="Y191">
-        <v>1.55</v>
+        <v>0.333</v>
       </c>
       <c r="Z191">
         <v>-1</v>
       </c>
       <c r="AA191">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB191">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC191">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="192" spans="1:29">
@@ -18069,7 +18069,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>6810012</v>
+        <v>6810015</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18081,61 +18081,61 @@
         <v>45158.45833333334</v>
       </c>
       <c r="F198" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G198" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J198" t="s">
         <v>48</v>
       </c>
       <c r="K198">
+        <v>1.45</v>
+      </c>
+      <c r="L198">
+        <v>4.5</v>
+      </c>
+      <c r="M198">
+        <v>7</v>
+      </c>
+      <c r="N198">
         <v>1.533</v>
       </c>
-      <c r="L198">
+      <c r="O198">
         <v>4.2</v>
       </c>
-      <c r="M198">
-        <v>5.5</v>
-      </c>
-      <c r="N198">
-        <v>1.6</v>
-      </c>
-      <c r="O198">
-        <v>4</v>
-      </c>
       <c r="P198">
-        <v>5.25</v>
+        <v>6</v>
       </c>
       <c r="Q198">
         <v>-1</v>
       </c>
       <c r="R198">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S198">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T198">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U198">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V198">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W198">
         <v>-1</v>
       </c>
       <c r="X198">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Y198">
         <v>-1</v>
@@ -18144,13 +18144,13 @@
         <v>-1</v>
       </c>
       <c r="AA198">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AB198">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC198">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="199" spans="1:29">
@@ -18158,7 +18158,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>6810015</v>
+        <v>6810012</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18170,61 +18170,61 @@
         <v>45158.45833333334</v>
       </c>
       <c r="F199" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G199" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J199" t="s">
         <v>48</v>
       </c>
       <c r="K199">
-        <v>1.45</v>
+        <v>1.533</v>
       </c>
       <c r="L199">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="M199">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="N199">
-        <v>1.533</v>
+        <v>1.6</v>
       </c>
       <c r="O199">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P199">
-        <v>6</v>
+        <v>5.25</v>
       </c>
       <c r="Q199">
         <v>-1</v>
       </c>
       <c r="R199">
+        <v>1.975</v>
+      </c>
+      <c r="S199">
+        <v>1.875</v>
+      </c>
+      <c r="T199">
+        <v>3</v>
+      </c>
+      <c r="U199">
         <v>1.9</v>
       </c>
-      <c r="S199">
+      <c r="V199">
         <v>1.95</v>
       </c>
-      <c r="T199">
-        <v>2.5</v>
-      </c>
-      <c r="U199">
-        <v>1.8</v>
-      </c>
-      <c r="V199">
-        <v>2.05</v>
-      </c>
       <c r="W199">
         <v>-1</v>
       </c>
       <c r="X199">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Y199">
         <v>-1</v>
@@ -18233,13 +18233,13 @@
         <v>-1</v>
       </c>
       <c r="AA199">
+        <v>0.875</v>
+      </c>
+      <c r="AB199">
+        <v>-1</v>
+      </c>
+      <c r="AC199">
         <v>0.95</v>
-      </c>
-      <c r="AB199">
-        <v>0.8</v>
-      </c>
-      <c r="AC199">
-        <v>-1</v>
       </c>
     </row>
     <row r="200" spans="1:29">
@@ -30618,7 +30618,7 @@
         <v>337</v>
       </c>
       <c r="B339">
-        <v>6810159</v>
+        <v>6810158</v>
       </c>
       <c r="C339" t="s">
         <v>28</v>
@@ -30630,73 +30630,73 @@
         <v>45318.69791666666</v>
       </c>
       <c r="F339" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G339" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H339">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I339">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J339" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K339">
-        <v>5.5</v>
+        <v>1.363</v>
       </c>
       <c r="L339">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="M339">
-        <v>1.5</v>
+        <v>6.5</v>
       </c>
       <c r="N339">
-        <v>6</v>
+        <v>1.444</v>
       </c>
       <c r="O339">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P339">
-        <v>1.45</v>
+        <v>5.75</v>
       </c>
       <c r="Q339">
-        <v>1.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R339">
+        <v>2</v>
+      </c>
+      <c r="S339">
+        <v>1.85</v>
+      </c>
+      <c r="T339">
+        <v>3</v>
+      </c>
+      <c r="U339">
+        <v>2.025</v>
+      </c>
+      <c r="V339">
         <v>1.825</v>
       </c>
-      <c r="S339">
-        <v>2.025</v>
-      </c>
-      <c r="T339">
-        <v>2.75</v>
-      </c>
-      <c r="U339">
-        <v>1.95</v>
-      </c>
-      <c r="V339">
-        <v>1.9</v>
-      </c>
       <c r="W339">
         <v>-1</v>
       </c>
       <c r="X339">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y339">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z339">
         <v>-1</v>
       </c>
       <c r="AA339">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB339">
         <v>1.025</v>
-      </c>
-      <c r="AB339">
-        <v>0.95</v>
       </c>
       <c r="AC339">
         <v>-1</v>
@@ -30707,7 +30707,7 @@
         <v>338</v>
       </c>
       <c r="B340">
-        <v>6810158</v>
+        <v>6810159</v>
       </c>
       <c r="C340" t="s">
         <v>28</v>
@@ -30719,73 +30719,73 @@
         <v>45318.69791666666</v>
       </c>
       <c r="F340" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G340" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H340">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I340">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J340" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K340">
-        <v>1.363</v>
+        <v>5.5</v>
       </c>
       <c r="L340">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="M340">
-        <v>6.5</v>
+        <v>1.5</v>
       </c>
       <c r="N340">
-        <v>1.444</v>
+        <v>6</v>
       </c>
       <c r="O340">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P340">
-        <v>5.75</v>
+        <v>1.45</v>
       </c>
       <c r="Q340">
-        <v>-1.25</v>
+        <v>1.25</v>
       </c>
       <c r="R340">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S340">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T340">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U340">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V340">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W340">
         <v>-1</v>
       </c>
       <c r="X340">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y340">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z340">
         <v>-1</v>
       </c>
       <c r="AA340">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AB340">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AC340">
         <v>-1</v>
@@ -31152,7 +31152,7 @@
         <v>343</v>
       </c>
       <c r="B345">
-        <v>6810167</v>
+        <v>6810169</v>
       </c>
       <c r="C345" t="s">
         <v>28</v>
@@ -31164,73 +31164,73 @@
         <v>45321.6875</v>
       </c>
       <c r="F345" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G345" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H345">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I345">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J345" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K345">
-        <v>1.125</v>
+        <v>3.4</v>
       </c>
       <c r="L345">
-        <v>8.5</v>
+        <v>3.8</v>
       </c>
       <c r="M345">
-        <v>17</v>
+        <v>1.95</v>
       </c>
       <c r="N345">
-        <v>1.125</v>
+        <v>3.3</v>
       </c>
       <c r="O345">
-        <v>8.5</v>
+        <v>3.6</v>
       </c>
       <c r="P345">
-        <v>17</v>
+        <v>2.05</v>
       </c>
       <c r="Q345">
-        <v>-2.25</v>
+        <v>0.25</v>
       </c>
       <c r="R345">
+        <v>2</v>
+      </c>
+      <c r="S345">
         <v>1.85</v>
       </c>
-      <c r="S345">
-        <v>2</v>
-      </c>
       <c r="T345">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U345">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V345">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W345">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X345">
-        <v>7.5</v>
+        <v>-1</v>
       </c>
       <c r="Y345">
         <v>-1</v>
       </c>
       <c r="Z345">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA345">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB345">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC345">
         <v>-1</v>
@@ -31241,7 +31241,7 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>6810169</v>
+        <v>6810167</v>
       </c>
       <c r="C346" t="s">
         <v>28</v>
@@ -31253,73 +31253,73 @@
         <v>45321.6875</v>
       </c>
       <c r="F346" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G346" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="H346">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I346">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J346" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K346">
-        <v>3.4</v>
+        <v>1.125</v>
       </c>
       <c r="L346">
-        <v>3.8</v>
+        <v>8.5</v>
       </c>
       <c r="M346">
+        <v>17</v>
+      </c>
+      <c r="N346">
+        <v>1.125</v>
+      </c>
+      <c r="O346">
+        <v>8.5</v>
+      </c>
+      <c r="P346">
+        <v>17</v>
+      </c>
+      <c r="Q346">
+        <v>-2.25</v>
+      </c>
+      <c r="R346">
+        <v>1.85</v>
+      </c>
+      <c r="S346">
+        <v>2</v>
+      </c>
+      <c r="T346">
+        <v>3.5</v>
+      </c>
+      <c r="U346">
+        <v>1.9</v>
+      </c>
+      <c r="V346">
         <v>1.95</v>
       </c>
-      <c r="N346">
-        <v>3.3</v>
-      </c>
-      <c r="O346">
-        <v>3.6</v>
-      </c>
-      <c r="P346">
-        <v>2.05</v>
-      </c>
-      <c r="Q346">
-        <v>0.25</v>
-      </c>
-      <c r="R346">
-        <v>2</v>
-      </c>
-      <c r="S346">
-        <v>1.85</v>
-      </c>
-      <c r="T346">
-        <v>2.75</v>
-      </c>
-      <c r="U346">
-        <v>1.975</v>
-      </c>
-      <c r="V346">
-        <v>1.875</v>
-      </c>
       <c r="W346">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X346">
-        <v>-1</v>
+        <v>7.5</v>
       </c>
       <c r="Y346">
         <v>-1</v>
       </c>
       <c r="Z346">
+        <v>-1</v>
+      </c>
+      <c r="AA346">
         <v>1</v>
       </c>
-      <c r="AA346">
-        <v>-1</v>
-      </c>
       <c r="AB346">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC346">
         <v>-1</v>
@@ -31330,7 +31330,7 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>6810168</v>
+        <v>6810165</v>
       </c>
       <c r="C347" t="s">
         <v>28</v>
@@ -31342,58 +31342,58 @@
         <v>45322.61458333334</v>
       </c>
       <c r="F347" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G347" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H347">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I347">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J347" t="s">
         <v>50</v>
       </c>
       <c r="K347">
-        <v>4.5</v>
+        <v>1.6</v>
       </c>
       <c r="L347">
+        <v>4</v>
+      </c>
+      <c r="M347">
+        <v>5</v>
+      </c>
+      <c r="N347">
+        <v>1.8</v>
+      </c>
+      <c r="O347">
+        <v>3.75</v>
+      </c>
+      <c r="P347">
         <v>4.2</v>
       </c>
-      <c r="M347">
-        <v>1.666</v>
-      </c>
-      <c r="N347">
-        <v>4.333</v>
-      </c>
-      <c r="O347">
-        <v>4</v>
-      </c>
-      <c r="P347">
-        <v>1.7</v>
-      </c>
       <c r="Q347">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R347">
+        <v>2.05</v>
+      </c>
+      <c r="S347">
+        <v>1.8</v>
+      </c>
+      <c r="T347">
+        <v>2.75</v>
+      </c>
+      <c r="U347">
         <v>1.95</v>
       </c>
-      <c r="S347">
+      <c r="V347">
         <v>1.9</v>
       </c>
-      <c r="T347">
-        <v>3</v>
-      </c>
-      <c r="U347">
-        <v>1.975</v>
-      </c>
-      <c r="V347">
-        <v>1.875</v>
-      </c>
       <c r="W347">
-        <v>3.333</v>
+        <v>0.8</v>
       </c>
       <c r="X347">
         <v>-1</v>
@@ -31402,16 +31402,16 @@
         <v>-1</v>
       </c>
       <c r="Z347">
-        <v>0.95</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AA347">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB347">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC347">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="348" spans="1:29">
@@ -31419,7 +31419,7 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>6810165</v>
+        <v>6810168</v>
       </c>
       <c r="C348" t="s">
         <v>28</v>
@@ -31431,58 +31431,58 @@
         <v>45322.61458333334</v>
       </c>
       <c r="F348" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G348" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H348">
+        <v>2</v>
+      </c>
+      <c r="I348">
         <v>1</v>
-      </c>
-      <c r="I348">
-        <v>0</v>
       </c>
       <c r="J348" t="s">
         <v>50</v>
       </c>
       <c r="K348">
-        <v>1.6</v>
+        <v>4.5</v>
       </c>
       <c r="L348">
+        <v>4.2</v>
+      </c>
+      <c r="M348">
+        <v>1.666</v>
+      </c>
+      <c r="N348">
+        <v>4.333</v>
+      </c>
+      <c r="O348">
         <v>4</v>
       </c>
-      <c r="M348">
-        <v>5</v>
-      </c>
-      <c r="N348">
-        <v>1.8</v>
-      </c>
-      <c r="O348">
-        <v>3.75</v>
-      </c>
       <c r="P348">
-        <v>4.2</v>
+        <v>1.7</v>
       </c>
       <c r="Q348">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R348">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S348">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T348">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U348">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V348">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W348">
-        <v>0.8</v>
+        <v>3.333</v>
       </c>
       <c r="X348">
         <v>-1</v>
@@ -31491,16 +31491,16 @@
         <v>-1</v>
       </c>
       <c r="Z348">
-        <v>0.5249999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA348">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB348">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC348">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="349" spans="1:29">
@@ -31686,7 +31686,7 @@
         <v>349</v>
       </c>
       <c r="B351">
-        <v>6810163</v>
+        <v>6810166</v>
       </c>
       <c r="C351" t="s">
         <v>28</v>
@@ -31698,73 +31698,73 @@
         <v>45323.6875</v>
       </c>
       <c r="F351" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G351" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H351">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I351">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J351" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K351">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L351">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M351">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="N351">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="O351">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P351">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="Q351">
         <v>0.25</v>
       </c>
       <c r="R351">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S351">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T351">
         <v>2.5</v>
       </c>
       <c r="U351">
+        <v>1.875</v>
+      </c>
+      <c r="V351">
         <v>1.975</v>
       </c>
-      <c r="V351">
-        <v>1.875</v>
-      </c>
       <c r="W351">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="X351">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y351">
         <v>-1</v>
       </c>
       <c r="Z351">
-        <v>0.95</v>
+        <v>0.4625</v>
       </c>
       <c r="AA351">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB351">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC351">
         <v>-1</v>
@@ -31775,7 +31775,7 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>6810166</v>
+        <v>6810163</v>
       </c>
       <c r="C352" t="s">
         <v>28</v>
@@ -31787,73 +31787,73 @@
         <v>45323.6875</v>
       </c>
       <c r="F352" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G352" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H352">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I352">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J352" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K352">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="L352">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M352">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="N352">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="O352">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P352">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="Q352">
         <v>0.25</v>
       </c>
       <c r="R352">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S352">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T352">
         <v>2.5</v>
       </c>
       <c r="U352">
+        <v>1.975</v>
+      </c>
+      <c r="V352">
         <v>1.875</v>
       </c>
-      <c r="V352">
-        <v>1.975</v>
-      </c>
       <c r="W352">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="X352">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y352">
         <v>-1</v>
       </c>
       <c r="Z352">
-        <v>0.4625</v>
+        <v>0.95</v>
       </c>
       <c r="AA352">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB352">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC352">
         <v>-1</v>
@@ -32593,6 +32593,15 @@
       <c r="G361" t="s">
         <v>45</v>
       </c>
+      <c r="H361">
+        <v>1</v>
+      </c>
+      <c r="I361">
+        <v>0</v>
+      </c>
+      <c r="J361" t="s">
+        <v>50</v>
+      </c>
       <c r="K361">
         <v>1.5</v>
       </c>
@@ -32603,46 +32612,52 @@
         <v>5.75</v>
       </c>
       <c r="N361">
-        <v>1.5</v>
+        <v>1.533</v>
       </c>
       <c r="O361">
         <v>4.333</v>
       </c>
       <c r="P361">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="Q361">
         <v>-1</v>
       </c>
       <c r="R361">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S361">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T361">
         <v>2.75</v>
       </c>
       <c r="U361">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V361">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W361">
-        <v>0</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X361">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y361">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z361">
         <v>0</v>
       </c>
       <c r="AA361">
-        <v>0</v>
+        <v>-0</v>
+      </c>
+      <c r="AB361">
+        <v>-1</v>
+      </c>
+      <c r="AC361">
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="362" spans="1:29">
@@ -32650,7 +32665,7 @@
         <v>360</v>
       </c>
       <c r="B362">
-        <v>6810184</v>
+        <v>6810179</v>
       </c>
       <c r="C362" t="s">
         <v>28</v>
@@ -32659,49 +32674,49 @@
         <v>28</v>
       </c>
       <c r="E362" s="2">
-        <v>45332.5</v>
+        <v>45333.39583333334</v>
       </c>
       <c r="F362" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="G362" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K362">
-        <v>1.833</v>
+        <v>5.25</v>
       </c>
       <c r="L362">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M362">
-        <v>3.75</v>
+        <v>1.55</v>
       </c>
       <c r="N362">
-        <v>1.833</v>
+        <v>5</v>
       </c>
       <c r="O362">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P362">
-        <v>4</v>
+        <v>1.615</v>
       </c>
       <c r="Q362">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R362">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S362">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T362">
         <v>2.75</v>
       </c>
       <c r="U362">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V362">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W362">
         <v>0</v>
@@ -32724,7 +32739,7 @@
         <v>361</v>
       </c>
       <c r="B363">
-        <v>6810186</v>
+        <v>6810182</v>
       </c>
       <c r="C363" t="s">
         <v>28</v>
@@ -32733,34 +32748,34 @@
         <v>28</v>
       </c>
       <c r="E363" s="2">
-        <v>45332.59375</v>
+        <v>45333.5</v>
       </c>
       <c r="F363" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G363" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K363">
-        <v>1.285</v>
+        <v>3.8</v>
       </c>
       <c r="L363">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="M363">
-        <v>8.5</v>
+        <v>1.85</v>
       </c>
       <c r="N363">
-        <v>1.3</v>
+        <v>3.5</v>
       </c>
       <c r="O363">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="P363">
-        <v>8.5</v>
+        <v>2</v>
       </c>
       <c r="Q363">
-        <v>-1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R363">
         <v>1.825</v>
@@ -32769,13 +32784,13 @@
         <v>2.025</v>
       </c>
       <c r="T363">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U363">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V363">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W363">
         <v>0</v>
@@ -32798,7 +32813,7 @@
         <v>362</v>
       </c>
       <c r="B364">
-        <v>6810185</v>
+        <v>6810180</v>
       </c>
       <c r="C364" t="s">
         <v>28</v>
@@ -32807,34 +32822,34 @@
         <v>28</v>
       </c>
       <c r="E364" s="2">
-        <v>45332.69791666666</v>
+        <v>45333.60416666666</v>
       </c>
       <c r="F364" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G364" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="K364">
-        <v>1.2</v>
+        <v>3.6</v>
       </c>
       <c r="L364">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="M364">
-        <v>9.5</v>
+        <v>2</v>
       </c>
       <c r="N364">
-        <v>1.222</v>
+        <v>3.75</v>
       </c>
       <c r="O364">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="P364">
-        <v>9.5</v>
+        <v>2</v>
       </c>
       <c r="Q364">
-        <v>-1.75</v>
+        <v>0.5</v>
       </c>
       <c r="R364">
         <v>1.825</v>
@@ -32843,13 +32858,13 @@
         <v>2.025</v>
       </c>
       <c r="T364">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U364">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V364">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W364">
         <v>0</v>
@@ -32872,7 +32887,7 @@
         <v>363</v>
       </c>
       <c r="B365">
-        <v>6810179</v>
+        <v>6810181</v>
       </c>
       <c r="C365" t="s">
         <v>28</v>
@@ -32881,49 +32896,49 @@
         <v>28</v>
       </c>
       <c r="E365" s="2">
-        <v>45333.39583333334</v>
+        <v>45333.63541666666</v>
       </c>
       <c r="F365" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G365" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K365">
-        <v>5.25</v>
+        <v>2.05</v>
       </c>
       <c r="L365">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M365">
-        <v>1.55</v>
+        <v>3.2</v>
       </c>
       <c r="N365">
-        <v>5</v>
+        <v>2.15</v>
       </c>
       <c r="O365">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P365">
-        <v>1.615</v>
+        <v>3.1</v>
       </c>
       <c r="Q365">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R365">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S365">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T365">
         <v>2.75</v>
       </c>
       <c r="U365">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V365">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W365">
         <v>0</v>
@@ -32938,228 +32953,6 @@
         <v>0</v>
       </c>
       <c r="AA365">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="366" spans="1:29">
-      <c r="A366" s="1">
-        <v>364</v>
-      </c>
-      <c r="B366">
-        <v>6810182</v>
-      </c>
-      <c r="C366" t="s">
-        <v>28</v>
-      </c>
-      <c r="D366" t="s">
-        <v>28</v>
-      </c>
-      <c r="E366" s="2">
-        <v>45333.5</v>
-      </c>
-      <c r="F366" t="s">
-        <v>40</v>
-      </c>
-      <c r="G366" t="s">
-        <v>34</v>
-      </c>
-      <c r="K366">
-        <v>3.8</v>
-      </c>
-      <c r="L366">
-        <v>3.6</v>
-      </c>
-      <c r="M366">
-        <v>1.85</v>
-      </c>
-      <c r="N366">
-        <v>3.75</v>
-      </c>
-      <c r="O366">
-        <v>3.6</v>
-      </c>
-      <c r="P366">
-        <v>1.909</v>
-      </c>
-      <c r="Q366">
-        <v>0.5</v>
-      </c>
-      <c r="R366">
-        <v>1.9</v>
-      </c>
-      <c r="S366">
-        <v>1.95</v>
-      </c>
-      <c r="T366">
-        <v>2.75</v>
-      </c>
-      <c r="U366">
-        <v>1.95</v>
-      </c>
-      <c r="V366">
-        <v>1.9</v>
-      </c>
-      <c r="W366">
-        <v>0</v>
-      </c>
-      <c r="X366">
-        <v>0</v>
-      </c>
-      <c r="Y366">
-        <v>0</v>
-      </c>
-      <c r="Z366">
-        <v>0</v>
-      </c>
-      <c r="AA366">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="367" spans="1:29">
-      <c r="A367" s="1">
-        <v>365</v>
-      </c>
-      <c r="B367">
-        <v>6810180</v>
-      </c>
-      <c r="C367" t="s">
-        <v>28</v>
-      </c>
-      <c r="D367" t="s">
-        <v>28</v>
-      </c>
-      <c r="E367" s="2">
-        <v>45333.60416666666</v>
-      </c>
-      <c r="F367" t="s">
-        <v>44</v>
-      </c>
-      <c r="G367" t="s">
-        <v>36</v>
-      </c>
-      <c r="K367">
-        <v>3.6</v>
-      </c>
-      <c r="L367">
-        <v>3.4</v>
-      </c>
-      <c r="M367">
-        <v>2</v>
-      </c>
-      <c r="N367">
-        <v>3.75</v>
-      </c>
-      <c r="O367">
-        <v>3.4</v>
-      </c>
-      <c r="P367">
-        <v>2</v>
-      </c>
-      <c r="Q367">
-        <v>0.5</v>
-      </c>
-      <c r="R367">
-        <v>1.8</v>
-      </c>
-      <c r="S367">
-        <v>2.05</v>
-      </c>
-      <c r="T367">
-        <v>2.5</v>
-      </c>
-      <c r="U367">
-        <v>1.9</v>
-      </c>
-      <c r="V367">
-        <v>1.95</v>
-      </c>
-      <c r="W367">
-        <v>0</v>
-      </c>
-      <c r="X367">
-        <v>0</v>
-      </c>
-      <c r="Y367">
-        <v>0</v>
-      </c>
-      <c r="Z367">
-        <v>0</v>
-      </c>
-      <c r="AA367">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="368" spans="1:29">
-      <c r="A368" s="1">
-        <v>366</v>
-      </c>
-      <c r="B368">
-        <v>6810181</v>
-      </c>
-      <c r="C368" t="s">
-        <v>28</v>
-      </c>
-      <c r="D368" t="s">
-        <v>28</v>
-      </c>
-      <c r="E368" s="2">
-        <v>45333.63541666666</v>
-      </c>
-      <c r="F368" t="s">
-        <v>42</v>
-      </c>
-      <c r="G368" t="s">
-        <v>31</v>
-      </c>
-      <c r="K368">
-        <v>2.05</v>
-      </c>
-      <c r="L368">
-        <v>3.6</v>
-      </c>
-      <c r="M368">
-        <v>3.2</v>
-      </c>
-      <c r="N368">
-        <v>2.05</v>
-      </c>
-      <c r="O368">
-        <v>3.75</v>
-      </c>
-      <c r="P368">
-        <v>3.25</v>
-      </c>
-      <c r="Q368">
-        <v>-0.25</v>
-      </c>
-      <c r="R368">
-        <v>1.85</v>
-      </c>
-      <c r="S368">
-        <v>2</v>
-      </c>
-      <c r="T368">
-        <v>2.75</v>
-      </c>
-      <c r="U368">
-        <v>1.925</v>
-      </c>
-      <c r="V368">
-        <v>1.925</v>
-      </c>
-      <c r="W368">
-        <v>0</v>
-      </c>
-      <c r="X368">
-        <v>0</v>
-      </c>
-      <c r="Y368">
-        <v>0</v>
-      </c>
-      <c r="Z368">
-        <v>0</v>
-      </c>
-      <c r="AA368">
         <v>0</v>
       </c>
     </row>

--- a/Belgium First Division A/Belgium First Division A.xlsx
+++ b/Belgium First Division A/Belgium First Division A.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1844" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1895" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -528,7 +528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC365"/>
+  <dimension ref="A1:AC376"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2316,7 +2316,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5208702</v>
+        <v>5208698</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2328,76 +2328,76 @@
         <v>44943.69791666666</v>
       </c>
       <c r="F21" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G21" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H21">
         <v>2</v>
       </c>
       <c r="I21">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K21">
-        <v>4.2</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M21">
-        <v>1.75</v>
+        <v>3.5</v>
       </c>
       <c r="N21">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="O21">
         <v>3.6</v>
       </c>
       <c r="P21">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q21">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R21">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S21">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T21">
         <v>2.75</v>
       </c>
       <c r="U21">
+        <v>2.025</v>
+      </c>
+      <c r="V21">
         <v>1.825</v>
       </c>
-      <c r="V21">
-        <v>2.025</v>
-      </c>
       <c r="W21">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X21">
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z21">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA21">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB21">
+        <v>-1</v>
+      </c>
+      <c r="AC21">
         <v>0.825</v>
-      </c>
-      <c r="AC21">
-        <v>-1</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2405,7 +2405,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5208698</v>
+        <v>5208702</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2417,76 +2417,76 @@
         <v>44943.69791666666</v>
       </c>
       <c r="F22" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G22" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H22">
         <v>2</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>4.2</v>
       </c>
       <c r="L22">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M22">
-        <v>3.5</v>
+        <v>1.75</v>
       </c>
       <c r="N22">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="O22">
         <v>3.6</v>
       </c>
       <c r="P22">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="Q22">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R22">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S22">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T22">
         <v>2.75</v>
       </c>
       <c r="U22">
+        <v>1.825</v>
+      </c>
+      <c r="V22">
         <v>2.025</v>
       </c>
-      <c r="V22">
-        <v>1.825</v>
-      </c>
       <c r="W22">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X22">
         <v>-1</v>
       </c>
       <c r="Y22">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z22">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA22">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB22">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC22">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -3117,7 +3117,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>5208577</v>
+        <v>5208575</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3129,40 +3129,40 @@
         <v>44947.59375</v>
       </c>
       <c r="F30" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G30" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I30">
         <v>2</v>
       </c>
       <c r="J30" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K30">
-        <v>2.625</v>
+        <v>1.95</v>
       </c>
       <c r="L30">
+        <v>3.5</v>
+      </c>
+      <c r="M30">
         <v>3.4</v>
       </c>
-      <c r="M30">
-        <v>2.4</v>
-      </c>
       <c r="N30">
-        <v>3.2</v>
+        <v>1.75</v>
       </c>
       <c r="O30">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P30">
-        <v>2.05</v>
+        <v>4</v>
       </c>
       <c r="Q30">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R30">
         <v>2.025</v>
@@ -3171,34 +3171,34 @@
         <v>1.825</v>
       </c>
       <c r="T30">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U30">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V30">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W30">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X30">
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z30">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA30">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB30">
-        <v>0.475</v>
+        <v>1</v>
       </c>
       <c r="AC30">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3206,7 +3206,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>5208575</v>
+        <v>5208577</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3218,40 +3218,40 @@
         <v>44947.59375</v>
       </c>
       <c r="F31" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G31" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I31">
         <v>2</v>
       </c>
       <c r="J31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K31">
-        <v>1.95</v>
+        <v>2.625</v>
       </c>
       <c r="L31">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M31">
+        <v>2.4</v>
+      </c>
+      <c r="N31">
+        <v>3.2</v>
+      </c>
+      <c r="O31">
         <v>3.4</v>
       </c>
-      <c r="N31">
-        <v>1.75</v>
-      </c>
-      <c r="O31">
-        <v>3.6</v>
-      </c>
       <c r="P31">
-        <v>4</v>
+        <v>2.05</v>
       </c>
       <c r="Q31">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R31">
         <v>2.025</v>
@@ -3260,34 +3260,34 @@
         <v>1.825</v>
       </c>
       <c r="T31">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U31">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V31">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W31">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X31">
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z31">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AA31">
+        <v>0.825</v>
+      </c>
+      <c r="AB31">
+        <v>0.475</v>
+      </c>
+      <c r="AC31">
         <v>-0.5</v>
-      </c>
-      <c r="AB31">
-        <v>1</v>
-      </c>
-      <c r="AC31">
-        <v>-1</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -6410,7 +6410,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>5208596</v>
+        <v>5208593</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6422,55 +6422,55 @@
         <v>44975.59375</v>
       </c>
       <c r="F67" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G67" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J67" t="s">
         <v>48</v>
       </c>
       <c r="K67">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="L67">
         <v>3.4</v>
       </c>
       <c r="M67">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="N67">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="O67">
         <v>3.4</v>
       </c>
       <c r="P67">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="Q67">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R67">
+        <v>1.875</v>
+      </c>
+      <c r="S67">
         <v>1.975</v>
       </c>
-      <c r="S67">
-        <v>1.875</v>
-      </c>
       <c r="T67">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U67">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V67">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W67">
         <v>-1</v>
@@ -6482,16 +6482,16 @@
         <v>-1</v>
       </c>
       <c r="Z67">
-        <v>0.4875</v>
+        <v>0.875</v>
       </c>
       <c r="AA67">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB67">
         <v>-1</v>
       </c>
       <c r="AC67">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6499,7 +6499,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>5208593</v>
+        <v>5208596</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6511,55 +6511,55 @@
         <v>44975.59375</v>
       </c>
       <c r="F68" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G68" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J68" t="s">
         <v>48</v>
       </c>
       <c r="K68">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="L68">
         <v>3.4</v>
       </c>
       <c r="M68">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="N68">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="O68">
         <v>3.4</v>
       </c>
       <c r="P68">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="Q68">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R68">
+        <v>1.975</v>
+      </c>
+      <c r="S68">
         <v>1.875</v>
       </c>
-      <c r="S68">
+      <c r="T68">
+        <v>2.75</v>
+      </c>
+      <c r="U68">
+        <v>1.875</v>
+      </c>
+      <c r="V68">
         <v>1.975</v>
-      </c>
-      <c r="T68">
-        <v>2.5</v>
-      </c>
-      <c r="U68">
-        <v>1.925</v>
-      </c>
-      <c r="V68">
-        <v>1.925</v>
       </c>
       <c r="W68">
         <v>-1</v>
@@ -6571,16 +6571,16 @@
         <v>-1</v>
       </c>
       <c r="Z68">
-        <v>0.875</v>
+        <v>0.4875</v>
       </c>
       <c r="AA68">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB68">
         <v>-1</v>
       </c>
       <c r="AC68">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -8813,7 +8813,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>5208610</v>
+        <v>5208609</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8825,73 +8825,73 @@
         <v>44996.59375</v>
       </c>
       <c r="F94" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G94" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="H94">
+        <v>3</v>
+      </c>
+      <c r="I94">
+        <v>1</v>
+      </c>
+      <c r="J94" t="s">
+        <v>50</v>
+      </c>
+      <c r="K94">
+        <v>1.615</v>
+      </c>
+      <c r="L94">
         <v>4</v>
       </c>
-      <c r="I94">
+      <c r="M94">
+        <v>4.75</v>
+      </c>
+      <c r="N94">
+        <v>1.615</v>
+      </c>
+      <c r="O94">
         <v>4</v>
       </c>
-      <c r="J94" t="s">
-        <v>48</v>
-      </c>
-      <c r="K94">
-        <v>2.25</v>
-      </c>
-      <c r="L94">
-        <v>3.4</v>
-      </c>
-      <c r="M94">
-        <v>2.9</v>
-      </c>
-      <c r="N94">
-        <v>2.5</v>
-      </c>
-      <c r="O94">
-        <v>3.4</v>
-      </c>
       <c r="P94">
-        <v>2.6</v>
+        <v>4.5</v>
       </c>
       <c r="Q94">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R94">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S94">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T94">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U94">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V94">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W94">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X94">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y94">
         <v>-1</v>
       </c>
       <c r="Z94">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AA94">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB94">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AC94">
         <v>-1</v>
@@ -8902,7 +8902,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>5208609</v>
+        <v>5208610</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8914,73 +8914,73 @@
         <v>44996.59375</v>
       </c>
       <c r="F95" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G95" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="H95">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I95">
+        <v>4</v>
+      </c>
+      <c r="J95" t="s">
+        <v>48</v>
+      </c>
+      <c r="K95">
+        <v>2.25</v>
+      </c>
+      <c r="L95">
+        <v>3.4</v>
+      </c>
+      <c r="M95">
+        <v>2.9</v>
+      </c>
+      <c r="N95">
+        <v>2.5</v>
+      </c>
+      <c r="O95">
+        <v>3.4</v>
+      </c>
+      <c r="P95">
+        <v>2.6</v>
+      </c>
+      <c r="Q95">
+        <v>0</v>
+      </c>
+      <c r="R95">
+        <v>1.875</v>
+      </c>
+      <c r="S95">
+        <v>1.975</v>
+      </c>
+      <c r="T95">
+        <v>2.75</v>
+      </c>
+      <c r="U95">
+        <v>2</v>
+      </c>
+      <c r="V95">
+        <v>1.85</v>
+      </c>
+      <c r="W95">
+        <v>-1</v>
+      </c>
+      <c r="X95">
+        <v>2.4</v>
+      </c>
+      <c r="Y95">
+        <v>-1</v>
+      </c>
+      <c r="Z95">
+        <v>0</v>
+      </c>
+      <c r="AA95">
+        <v>-0</v>
+      </c>
+      <c r="AB95">
         <v>1</v>
-      </c>
-      <c r="J95" t="s">
-        <v>50</v>
-      </c>
-      <c r="K95">
-        <v>1.615</v>
-      </c>
-      <c r="L95">
-        <v>4</v>
-      </c>
-      <c r="M95">
-        <v>4.75</v>
-      </c>
-      <c r="N95">
-        <v>1.615</v>
-      </c>
-      <c r="O95">
-        <v>4</v>
-      </c>
-      <c r="P95">
-        <v>4.5</v>
-      </c>
-      <c r="Q95">
-        <v>-1</v>
-      </c>
-      <c r="R95">
-        <v>2.05</v>
-      </c>
-      <c r="S95">
-        <v>1.8</v>
-      </c>
-      <c r="T95">
-        <v>3</v>
-      </c>
-      <c r="U95">
-        <v>1.95</v>
-      </c>
-      <c r="V95">
-        <v>1.9</v>
-      </c>
-      <c r="W95">
-        <v>0.615</v>
-      </c>
-      <c r="X95">
-        <v>-1</v>
-      </c>
-      <c r="Y95">
-        <v>-1</v>
-      </c>
-      <c r="Z95">
-        <v>1.05</v>
-      </c>
-      <c r="AA95">
-        <v>-1</v>
-      </c>
-      <c r="AB95">
-        <v>0.95</v>
       </c>
       <c r="AC95">
         <v>-1</v>
@@ -9614,7 +9614,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>5208613</v>
+        <v>5208612</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9626,76 +9626,76 @@
         <v>45003.59375</v>
       </c>
       <c r="F103" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G103" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H103">
+        <v>2</v>
+      </c>
+      <c r="I103">
         <v>1</v>
       </c>
-      <c r="I103">
-        <v>2</v>
-      </c>
       <c r="J103" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K103">
-        <v>3.3</v>
+        <v>1.45</v>
       </c>
       <c r="L103">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M103">
-        <v>2.05</v>
+        <v>6</v>
       </c>
       <c r="N103">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
       <c r="O103">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P103">
-        <v>2.3</v>
+        <v>6.5</v>
       </c>
       <c r="Q103">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R103">
+        <v>2</v>
+      </c>
+      <c r="S103">
         <v>1.85</v>
       </c>
-      <c r="S103">
-        <v>2</v>
-      </c>
       <c r="T103">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U103">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V103">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W103">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X103">
         <v>-1</v>
       </c>
       <c r="Y103">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z103">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA103">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="AB103">
-        <v>0.45</v>
+        <v>1.025</v>
       </c>
       <c r="AC103">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9703,7 +9703,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>5208612</v>
+        <v>5208613</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9715,76 +9715,76 @@
         <v>45003.59375</v>
       </c>
       <c r="F104" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G104" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I104">
+        <v>2</v>
+      </c>
+      <c r="J104" t="s">
+        <v>49</v>
+      </c>
+      <c r="K104">
+        <v>3.3</v>
+      </c>
+      <c r="L104">
+        <v>3.3</v>
+      </c>
+      <c r="M104">
+        <v>2.05</v>
+      </c>
+      <c r="N104">
+        <v>2.8</v>
+      </c>
+      <c r="O104">
+        <v>3.3</v>
+      </c>
+      <c r="P104">
+        <v>2.3</v>
+      </c>
+      <c r="Q104">
+        <v>0.25</v>
+      </c>
+      <c r="R104">
+        <v>1.85</v>
+      </c>
+      <c r="S104">
+        <v>2</v>
+      </c>
+      <c r="T104">
+        <v>2.75</v>
+      </c>
+      <c r="U104">
+        <v>1.9</v>
+      </c>
+      <c r="V104">
+        <v>1.95</v>
+      </c>
+      <c r="W104">
+        <v>-1</v>
+      </c>
+      <c r="X104">
+        <v>-1</v>
+      </c>
+      <c r="Y104">
+        <v>1.3</v>
+      </c>
+      <c r="Z104">
+        <v>-1</v>
+      </c>
+      <c r="AA104">
         <v>1</v>
       </c>
-      <c r="J104" t="s">
-        <v>50</v>
-      </c>
-      <c r="K104">
-        <v>1.45</v>
-      </c>
-      <c r="L104">
-        <v>4</v>
-      </c>
-      <c r="M104">
-        <v>6</v>
-      </c>
-      <c r="N104">
-        <v>1.5</v>
-      </c>
-      <c r="O104">
-        <v>3.75</v>
-      </c>
-      <c r="P104">
-        <v>6.5</v>
-      </c>
-      <c r="Q104">
-        <v>-1</v>
-      </c>
-      <c r="R104">
-        <v>2</v>
-      </c>
-      <c r="S104">
-        <v>1.85</v>
-      </c>
-      <c r="T104">
-        <v>2.25</v>
-      </c>
-      <c r="U104">
-        <v>2.025</v>
-      </c>
-      <c r="V104">
-        <v>1.825</v>
-      </c>
-      <c r="W104">
-        <v>0.5</v>
-      </c>
-      <c r="X104">
-        <v>-1</v>
-      </c>
-      <c r="Y104">
-        <v>-1</v>
-      </c>
-      <c r="Z104">
-        <v>0</v>
-      </c>
-      <c r="AA104">
-        <v>-0</v>
-      </c>
       <c r="AB104">
-        <v>1.025</v>
+        <v>0.45</v>
       </c>
       <c r="AC104">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -10415,7 +10415,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>5351637</v>
+        <v>5356593</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10427,55 +10427,55 @@
         <v>45017.55208333334</v>
       </c>
       <c r="F112" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G112" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J112" t="s">
         <v>49</v>
       </c>
       <c r="K112">
-        <v>6.5</v>
+        <v>2</v>
       </c>
       <c r="L112">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M112">
-        <v>1.444</v>
+        <v>3.25</v>
       </c>
       <c r="N112">
-        <v>9.5</v>
+        <v>2.1</v>
       </c>
       <c r="O112">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P112">
-        <v>1.285</v>
+        <v>3.1</v>
       </c>
       <c r="Q112">
-        <v>1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R112">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S112">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T112">
         <v>2.75</v>
       </c>
       <c r="U112">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V112">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W112">
         <v>-1</v>
@@ -10484,16 +10484,16 @@
         <v>-1</v>
       </c>
       <c r="Y112">
-        <v>0.2849999999999999</v>
+        <v>2.1</v>
       </c>
       <c r="Z112">
         <v>-1</v>
       </c>
       <c r="AA112">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB112">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AC112">
         <v>-1</v>
@@ -10504,7 +10504,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>5356593</v>
+        <v>5351637</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10516,55 +10516,55 @@
         <v>45017.55208333334</v>
       </c>
       <c r="F113" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G113" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J113" t="s">
         <v>49</v>
       </c>
       <c r="K113">
-        <v>2</v>
+        <v>6.5</v>
       </c>
       <c r="L113">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M113">
-        <v>3.25</v>
+        <v>1.444</v>
       </c>
       <c r="N113">
-        <v>2.1</v>
+        <v>9.5</v>
       </c>
       <c r="O113">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P113">
-        <v>3.1</v>
+        <v>1.285</v>
       </c>
       <c r="Q113">
-        <v>-0.25</v>
+        <v>1.5</v>
       </c>
       <c r="R113">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S113">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T113">
         <v>2.75</v>
       </c>
       <c r="U113">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V113">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W113">
         <v>-1</v>
@@ -10573,16 +10573,16 @@
         <v>-1</v>
       </c>
       <c r="Y113">
-        <v>2.1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="Z113">
         <v>-1</v>
       </c>
       <c r="AA113">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB113">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC113">
         <v>-1</v>
@@ -12907,7 +12907,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6385540</v>
+        <v>6390066</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12919,10 +12919,10 @@
         <v>45039.5625</v>
       </c>
       <c r="F140" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G140" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H140">
         <v>2</v>
@@ -12934,40 +12934,40 @@
         <v>49</v>
       </c>
       <c r="K140">
-        <v>1.363</v>
+        <v>3</v>
       </c>
       <c r="L140">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M140">
-        <v>7</v>
+        <v>2.15</v>
       </c>
       <c r="N140">
-        <v>1.55</v>
+        <v>2.8</v>
       </c>
       <c r="O140">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P140">
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="Q140">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R140">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S140">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T140">
         <v>3</v>
       </c>
       <c r="U140">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V140">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="W140">
         <v>-1</v>
@@ -12976,16 +12976,16 @@
         <v>-1</v>
       </c>
       <c r="Y140">
-        <v>4</v>
+        <v>1.25</v>
       </c>
       <c r="Z140">
         <v>-1</v>
       </c>
       <c r="AA140">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AB140">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AC140">
         <v>-1</v>
@@ -13085,7 +13085,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6390066</v>
+        <v>6389865</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13097,73 +13097,73 @@
         <v>45039.5625</v>
       </c>
       <c r="F142" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G142" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H142">
         <v>2</v>
       </c>
       <c r="I142">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J142" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K142">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="L142">
         <v>3.6</v>
       </c>
       <c r="M142">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="N142">
         <v>2.8</v>
       </c>
       <c r="O142">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P142">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="Q142">
         <v>0.25</v>
       </c>
       <c r="R142">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S142">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T142">
         <v>3</v>
       </c>
       <c r="U142">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V142">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="W142">
         <v>-1</v>
       </c>
       <c r="X142">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y142">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z142">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA142">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AB142">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AC142">
         <v>-1</v>
@@ -13174,7 +13174,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6389865</v>
+        <v>6385540</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13186,73 +13186,73 @@
         <v>45039.5625</v>
       </c>
       <c r="F143" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G143" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H143">
         <v>2</v>
       </c>
       <c r="I143">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J143" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K143">
-        <v>3.5</v>
+        <v>1.363</v>
       </c>
       <c r="L143">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M143">
-        <v>1.95</v>
+        <v>7</v>
       </c>
       <c r="N143">
-        <v>2.8</v>
+        <v>1.55</v>
       </c>
       <c r="O143">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P143">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="Q143">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R143">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S143">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T143">
         <v>3</v>
       </c>
       <c r="U143">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V143">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W143">
         <v>-1</v>
       </c>
       <c r="X143">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y143">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z143">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA143">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB143">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC143">
         <v>-1</v>
@@ -15399,7 +15399,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6576988</v>
+        <v>6576065</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15411,73 +15411,73 @@
         <v>45081.5625</v>
       </c>
       <c r="F168" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G168" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I168">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J168" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K168">
-        <v>2.4</v>
+        <v>1.75</v>
       </c>
       <c r="L168">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M168">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="N168">
-        <v>2.4</v>
+        <v>1.55</v>
       </c>
       <c r="O168">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P168">
-        <v>2.7</v>
+        <v>4.75</v>
       </c>
       <c r="Q168">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R168">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S168">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="T168">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U168">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V168">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W168">
         <v>-1</v>
       </c>
       <c r="X168">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y168">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z168">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA168">
-        <v>0.375</v>
+        <v>0.875</v>
       </c>
       <c r="AB168">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AC168">
         <v>-1</v>
@@ -15488,7 +15488,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>6576065</v>
+        <v>6576988</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15500,73 +15500,73 @@
         <v>45081.5625</v>
       </c>
       <c r="F169" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G169" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H169">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I169">
+        <v>2</v>
+      </c>
+      <c r="J169" t="s">
+        <v>48</v>
+      </c>
+      <c r="K169">
+        <v>2.4</v>
+      </c>
+      <c r="L169">
+        <v>3.6</v>
+      </c>
+      <c r="M169">
+        <v>2.7</v>
+      </c>
+      <c r="N169">
+        <v>2.4</v>
+      </c>
+      <c r="O169">
+        <v>3.6</v>
+      </c>
+      <c r="P169">
+        <v>2.7</v>
+      </c>
+      <c r="Q169">
+        <v>-0.25</v>
+      </c>
+      <c r="R169">
+        <v>2.05</v>
+      </c>
+      <c r="S169">
+        <v>1.75</v>
+      </c>
+      <c r="T169">
         <v>3</v>
       </c>
-      <c r="J169" t="s">
-        <v>49</v>
-      </c>
-      <c r="K169">
-        <v>1.75</v>
-      </c>
-      <c r="L169">
-        <v>3.8</v>
-      </c>
-      <c r="M169">
-        <v>4.2</v>
-      </c>
-      <c r="N169">
-        <v>1.55</v>
-      </c>
-      <c r="O169">
-        <v>4.333</v>
-      </c>
-      <c r="P169">
-        <v>4.75</v>
-      </c>
-      <c r="Q169">
-        <v>-1</v>
-      </c>
-      <c r="R169">
-        <v>1.975</v>
-      </c>
-      <c r="S169">
-        <v>1.875</v>
-      </c>
-      <c r="T169">
-        <v>3.25</v>
-      </c>
       <c r="U169">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V169">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W169">
         <v>-1</v>
       </c>
       <c r="X169">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y169">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z169">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA169">
-        <v>0.875</v>
+        <v>0.375</v>
       </c>
       <c r="AB169">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AC169">
         <v>-1</v>
@@ -18069,7 +18069,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>6810015</v>
+        <v>6810012</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18081,61 +18081,61 @@
         <v>45158.45833333334</v>
       </c>
       <c r="F198" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G198" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J198" t="s">
         <v>48</v>
       </c>
       <c r="K198">
-        <v>1.45</v>
+        <v>1.533</v>
       </c>
       <c r="L198">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="M198">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="N198">
-        <v>1.533</v>
+        <v>1.6</v>
       </c>
       <c r="O198">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P198">
-        <v>6</v>
+        <v>5.25</v>
       </c>
       <c r="Q198">
         <v>-1</v>
       </c>
       <c r="R198">
+        <v>1.975</v>
+      </c>
+      <c r="S198">
+        <v>1.875</v>
+      </c>
+      <c r="T198">
+        <v>3</v>
+      </c>
+      <c r="U198">
         <v>1.9</v>
       </c>
-      <c r="S198">
+      <c r="V198">
         <v>1.95</v>
       </c>
-      <c r="T198">
-        <v>2.5</v>
-      </c>
-      <c r="U198">
-        <v>1.8</v>
-      </c>
-      <c r="V198">
-        <v>2.05</v>
-      </c>
       <c r="W198">
         <v>-1</v>
       </c>
       <c r="X198">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Y198">
         <v>-1</v>
@@ -18144,13 +18144,13 @@
         <v>-1</v>
       </c>
       <c r="AA198">
+        <v>0.875</v>
+      </c>
+      <c r="AB198">
+        <v>-1</v>
+      </c>
+      <c r="AC198">
         <v>0.95</v>
-      </c>
-      <c r="AB198">
-        <v>0.8</v>
-      </c>
-      <c r="AC198">
-        <v>-1</v>
       </c>
     </row>
     <row r="199" spans="1:29">
@@ -18158,7 +18158,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>6810012</v>
+        <v>6810015</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18170,61 +18170,61 @@
         <v>45158.45833333334</v>
       </c>
       <c r="F199" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G199" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J199" t="s">
         <v>48</v>
       </c>
       <c r="K199">
+        <v>1.45</v>
+      </c>
+      <c r="L199">
+        <v>4.5</v>
+      </c>
+      <c r="M199">
+        <v>7</v>
+      </c>
+      <c r="N199">
         <v>1.533</v>
       </c>
-      <c r="L199">
+      <c r="O199">
         <v>4.2</v>
       </c>
-      <c r="M199">
-        <v>5.5</v>
-      </c>
-      <c r="N199">
-        <v>1.6</v>
-      </c>
-      <c r="O199">
-        <v>4</v>
-      </c>
       <c r="P199">
-        <v>5.25</v>
+        <v>6</v>
       </c>
       <c r="Q199">
         <v>-1</v>
       </c>
       <c r="R199">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S199">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T199">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U199">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V199">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W199">
         <v>-1</v>
       </c>
       <c r="X199">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Y199">
         <v>-1</v>
@@ -18233,13 +18233,13 @@
         <v>-1</v>
       </c>
       <c r="AA199">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AB199">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC199">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="200" spans="1:29">
@@ -28838,7 +28838,7 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>6810132</v>
+        <v>6810130</v>
       </c>
       <c r="C319" t="s">
         <v>28</v>
@@ -28850,76 +28850,76 @@
         <v>45283.59375</v>
       </c>
       <c r="F319" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G319" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H319">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I319">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J319" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K319">
-        <v>2.2</v>
+        <v>1.363</v>
       </c>
       <c r="L319">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="M319">
-        <v>3.2</v>
+        <v>7.5</v>
       </c>
       <c r="N319">
-        <v>2.3</v>
+        <v>1.333</v>
       </c>
       <c r="O319">
-        <v>3.3</v>
+        <v>5.25</v>
       </c>
       <c r="P319">
+        <v>8</v>
+      </c>
+      <c r="Q319">
+        <v>-1.5</v>
+      </c>
+      <c r="R319">
+        <v>1.9</v>
+      </c>
+      <c r="S319">
+        <v>1.95</v>
+      </c>
+      <c r="T319">
         <v>3</v>
       </c>
-      <c r="Q319">
-        <v>-0.25</v>
-      </c>
-      <c r="R319">
-        <v>2</v>
-      </c>
-      <c r="S319">
-        <v>1.85</v>
-      </c>
-      <c r="T319">
-        <v>2.25</v>
-      </c>
       <c r="U319">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V319">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W319">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X319">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Y319">
         <v>-1</v>
       </c>
       <c r="Z319">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA319">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB319">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC319">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="320" spans="1:29">
@@ -28927,7 +28927,7 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>6810130</v>
+        <v>6810132</v>
       </c>
       <c r="C320" t="s">
         <v>28</v>
@@ -28939,76 +28939,76 @@
         <v>45283.59375</v>
       </c>
       <c r="F320" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="G320" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H320">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I320">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J320" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K320">
-        <v>1.363</v>
+        <v>2.2</v>
       </c>
       <c r="L320">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="M320">
-        <v>7.5</v>
+        <v>3.2</v>
       </c>
       <c r="N320">
-        <v>1.333</v>
+        <v>2.3</v>
       </c>
       <c r="O320">
-        <v>5.25</v>
+        <v>3.3</v>
       </c>
       <c r="P320">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="Q320">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R320">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S320">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T320">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U320">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V320">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W320">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X320">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Y320">
         <v>-1</v>
       </c>
       <c r="Z320">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA320">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB320">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC320">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="321" spans="1:29">
@@ -29194,7 +29194,7 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>6810145</v>
+        <v>6810142</v>
       </c>
       <c r="C323" t="s">
         <v>28</v>
@@ -29206,76 +29206,76 @@
         <v>45286.5</v>
       </c>
       <c r="F323" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G323" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H323">
+        <v>3</v>
+      </c>
+      <c r="I323">
         <v>0</v>
       </c>
-      <c r="I323">
-        <v>2</v>
-      </c>
       <c r="J323" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K323">
-        <v>7</v>
+        <v>1.75</v>
       </c>
       <c r="L323">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M323">
-        <v>1.4</v>
+        <v>4</v>
       </c>
       <c r="N323">
-        <v>8.5</v>
+        <v>1.8</v>
       </c>
       <c r="O323">
-        <v>5.75</v>
+        <v>3.8</v>
       </c>
       <c r="P323">
-        <v>1.285</v>
+        <v>3.8</v>
       </c>
       <c r="Q323">
-        <v>1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R323">
+        <v>1.825</v>
+      </c>
+      <c r="S323">
         <v>2.025</v>
       </c>
-      <c r="S323">
-        <v>1.825</v>
-      </c>
       <c r="T323">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U323">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="V323">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W323">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X323">
         <v>-1</v>
       </c>
       <c r="Y323">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z323">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA323">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB323">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC323">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="324" spans="1:29">
@@ -29283,7 +29283,7 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>6810142</v>
+        <v>6810145</v>
       </c>
       <c r="C324" t="s">
         <v>28</v>
@@ -29295,76 +29295,76 @@
         <v>45286.5</v>
       </c>
       <c r="F324" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G324" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H324">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I324">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J324" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K324">
-        <v>1.75</v>
+        <v>7</v>
       </c>
       <c r="L324">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M324">
-        <v>4</v>
+        <v>1.4</v>
       </c>
       <c r="N324">
+        <v>8.5</v>
+      </c>
+      <c r="O324">
+        <v>5.75</v>
+      </c>
+      <c r="P324">
+        <v>1.285</v>
+      </c>
+      <c r="Q324">
+        <v>1.5</v>
+      </c>
+      <c r="R324">
+        <v>2.025</v>
+      </c>
+      <c r="S324">
+        <v>1.825</v>
+      </c>
+      <c r="T324">
+        <v>3.25</v>
+      </c>
+      <c r="U324">
+        <v>2.05</v>
+      </c>
+      <c r="V324">
         <v>1.8</v>
       </c>
-      <c r="O324">
-        <v>3.8</v>
-      </c>
-      <c r="P324">
-        <v>3.8</v>
-      </c>
-      <c r="Q324">
-        <v>-0.5</v>
-      </c>
-      <c r="R324">
-        <v>1.825</v>
-      </c>
-      <c r="S324">
-        <v>2.025</v>
-      </c>
-      <c r="T324">
-        <v>3</v>
-      </c>
-      <c r="U324">
-        <v>1.975</v>
-      </c>
-      <c r="V324">
-        <v>1.875</v>
-      </c>
       <c r="W324">
+        <v>-1</v>
+      </c>
+      <c r="X324">
+        <v>-1</v>
+      </c>
+      <c r="Y324">
+        <v>0.2849999999999999</v>
+      </c>
+      <c r="Z324">
+        <v>-1</v>
+      </c>
+      <c r="AA324">
+        <v>0.825</v>
+      </c>
+      <c r="AB324">
+        <v>-1</v>
+      </c>
+      <c r="AC324">
         <v>0.8</v>
-      </c>
-      <c r="X324">
-        <v>-1</v>
-      </c>
-      <c r="Y324">
-        <v>-1</v>
-      </c>
-      <c r="Z324">
-        <v>0.825</v>
-      </c>
-      <c r="AA324">
-        <v>-1</v>
-      </c>
-      <c r="AB324">
-        <v>0</v>
-      </c>
-      <c r="AC324">
-        <v>-0</v>
       </c>
     </row>
     <row r="325" spans="1:29">
@@ -29639,7 +29639,7 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>6810143</v>
+        <v>6810139</v>
       </c>
       <c r="C328" t="s">
         <v>28</v>
@@ -29651,58 +29651,58 @@
         <v>45287.69791666666</v>
       </c>
       <c r="F328" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G328" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H328">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I328">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J328" t="s">
         <v>50</v>
       </c>
       <c r="K328">
+        <v>1.869</v>
+      </c>
+      <c r="L328">
+        <v>3.7</v>
+      </c>
+      <c r="M328">
+        <v>3.8</v>
+      </c>
+      <c r="N328">
         <v>2.05</v>
       </c>
-      <c r="L328">
-        <v>3.4</v>
-      </c>
-      <c r="M328">
-        <v>3.5</v>
-      </c>
-      <c r="N328">
-        <v>2.375</v>
-      </c>
       <c r="O328">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P328">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="Q328">
         <v>-0.25</v>
       </c>
       <c r="R328">
+        <v>1.825</v>
+      </c>
+      <c r="S328">
         <v>2.025</v>
       </c>
-      <c r="S328">
-        <v>1.825</v>
-      </c>
       <c r="T328">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U328">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V328">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W328">
-        <v>1.375</v>
+        <v>1.05</v>
       </c>
       <c r="X328">
         <v>-1</v>
@@ -29711,16 +29711,16 @@
         <v>-1</v>
       </c>
       <c r="Z328">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AA328">
         <v>-1</v>
       </c>
       <c r="AB328">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC328">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="329" spans="1:29">
@@ -29728,7 +29728,7 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>6810139</v>
+        <v>6810143</v>
       </c>
       <c r="C329" t="s">
         <v>28</v>
@@ -29740,58 +29740,58 @@
         <v>45287.69791666666</v>
       </c>
       <c r="F329" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G329" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H329">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I329">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J329" t="s">
         <v>50</v>
       </c>
       <c r="K329">
-        <v>1.869</v>
+        <v>2.05</v>
       </c>
       <c r="L329">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="M329">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="N329">
-        <v>2.05</v>
+        <v>2.375</v>
       </c>
       <c r="O329">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P329">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q329">
         <v>-0.25</v>
       </c>
       <c r="R329">
+        <v>2.025</v>
+      </c>
+      <c r="S329">
         <v>1.825</v>
       </c>
-      <c r="S329">
+      <c r="T329">
+        <v>2.25</v>
+      </c>
+      <c r="U329">
         <v>2.025</v>
       </c>
-      <c r="T329">
-        <v>2.75</v>
-      </c>
-      <c r="U329">
-        <v>1.9</v>
-      </c>
       <c r="V329">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W329">
-        <v>1.05</v>
+        <v>1.375</v>
       </c>
       <c r="X329">
         <v>-1</v>
@@ -29800,16 +29800,16 @@
         <v>-1</v>
       </c>
       <c r="Z329">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AA329">
         <v>-1</v>
       </c>
       <c r="AB329">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC329">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="330" spans="1:29">
@@ -31330,7 +31330,7 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>6810165</v>
+        <v>6810168</v>
       </c>
       <c r="C347" t="s">
         <v>28</v>
@@ -31342,58 +31342,58 @@
         <v>45322.61458333334</v>
       </c>
       <c r="F347" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G347" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H347">
+        <v>2</v>
+      </c>
+      <c r="I347">
         <v>1</v>
-      </c>
-      <c r="I347">
-        <v>0</v>
       </c>
       <c r="J347" t="s">
         <v>50</v>
       </c>
       <c r="K347">
-        <v>1.6</v>
+        <v>4.5</v>
       </c>
       <c r="L347">
+        <v>4.2</v>
+      </c>
+      <c r="M347">
+        <v>1.666</v>
+      </c>
+      <c r="N347">
+        <v>4.333</v>
+      </c>
+      <c r="O347">
         <v>4</v>
       </c>
-      <c r="M347">
-        <v>5</v>
-      </c>
-      <c r="N347">
-        <v>1.8</v>
-      </c>
-      <c r="O347">
-        <v>3.75</v>
-      </c>
       <c r="P347">
-        <v>4.2</v>
+        <v>1.7</v>
       </c>
       <c r="Q347">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R347">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S347">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T347">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U347">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V347">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W347">
-        <v>0.8</v>
+        <v>3.333</v>
       </c>
       <c r="X347">
         <v>-1</v>
@@ -31402,16 +31402,16 @@
         <v>-1</v>
       </c>
       <c r="Z347">
-        <v>0.5249999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA347">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB347">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC347">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="348" spans="1:29">
@@ -31419,7 +31419,7 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>6810168</v>
+        <v>6810165</v>
       </c>
       <c r="C348" t="s">
         <v>28</v>
@@ -31431,58 +31431,58 @@
         <v>45322.61458333334</v>
       </c>
       <c r="F348" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G348" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H348">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I348">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J348" t="s">
         <v>50</v>
       </c>
       <c r="K348">
-        <v>4.5</v>
+        <v>1.6</v>
       </c>
       <c r="L348">
+        <v>4</v>
+      </c>
+      <c r="M348">
+        <v>5</v>
+      </c>
+      <c r="N348">
+        <v>1.8</v>
+      </c>
+      <c r="O348">
+        <v>3.75</v>
+      </c>
+      <c r="P348">
         <v>4.2</v>
       </c>
-      <c r="M348">
-        <v>1.666</v>
-      </c>
-      <c r="N348">
-        <v>4.333</v>
-      </c>
-      <c r="O348">
-        <v>4</v>
-      </c>
-      <c r="P348">
-        <v>1.7</v>
-      </c>
       <c r="Q348">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R348">
+        <v>2.05</v>
+      </c>
+      <c r="S348">
+        <v>1.8</v>
+      </c>
+      <c r="T348">
+        <v>2.75</v>
+      </c>
+      <c r="U348">
         <v>1.95</v>
       </c>
-      <c r="S348">
+      <c r="V348">
         <v>1.9</v>
       </c>
-      <c r="T348">
-        <v>3</v>
-      </c>
-      <c r="U348">
-        <v>1.975</v>
-      </c>
-      <c r="V348">
-        <v>1.875</v>
-      </c>
       <c r="W348">
-        <v>3.333</v>
+        <v>0.8</v>
       </c>
       <c r="X348">
         <v>-1</v>
@@ -31491,16 +31491,16 @@
         <v>-1</v>
       </c>
       <c r="Z348">
-        <v>0.95</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AA348">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB348">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC348">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="349" spans="1:29">
@@ -31686,7 +31686,7 @@
         <v>349</v>
       </c>
       <c r="B351">
-        <v>6810166</v>
+        <v>6810163</v>
       </c>
       <c r="C351" t="s">
         <v>28</v>
@@ -31698,73 +31698,73 @@
         <v>45323.6875</v>
       </c>
       <c r="F351" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G351" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H351">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I351">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J351" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K351">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="L351">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M351">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="N351">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="O351">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P351">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="Q351">
         <v>0.25</v>
       </c>
       <c r="R351">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S351">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T351">
         <v>2.5</v>
       </c>
       <c r="U351">
+        <v>1.975</v>
+      </c>
+      <c r="V351">
         <v>1.875</v>
       </c>
-      <c r="V351">
-        <v>1.975</v>
-      </c>
       <c r="W351">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="X351">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y351">
         <v>-1</v>
       </c>
       <c r="Z351">
-        <v>0.4625</v>
+        <v>0.95</v>
       </c>
       <c r="AA351">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB351">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC351">
         <v>-1</v>
@@ -31775,7 +31775,7 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>6810163</v>
+        <v>6810166</v>
       </c>
       <c r="C352" t="s">
         <v>28</v>
@@ -31787,73 +31787,73 @@
         <v>45323.6875</v>
       </c>
       <c r="F352" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G352" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H352">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I352">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J352" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K352">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L352">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M352">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="N352">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="O352">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P352">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="Q352">
         <v>0.25</v>
       </c>
       <c r="R352">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S352">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T352">
         <v>2.5</v>
       </c>
       <c r="U352">
+        <v>1.875</v>
+      </c>
+      <c r="V352">
         <v>1.975</v>
       </c>
-      <c r="V352">
-        <v>1.875</v>
-      </c>
       <c r="W352">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="X352">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y352">
         <v>-1</v>
       </c>
       <c r="Z352">
-        <v>0.95</v>
+        <v>0.4625</v>
       </c>
       <c r="AA352">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB352">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC352">
         <v>-1</v>
@@ -32665,7 +32665,7 @@
         <v>360</v>
       </c>
       <c r="B362">
-        <v>6810179</v>
+        <v>6810184</v>
       </c>
       <c r="C362" t="s">
         <v>28</v>
@@ -32674,43 +32674,52 @@
         <v>28</v>
       </c>
       <c r="E362" s="2">
-        <v>45333.39583333334</v>
+        <v>45332.5</v>
       </c>
       <c r="F362" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="G362" t="s">
-        <v>33</v>
+        <v>37</v>
+      </c>
+      <c r="H362">
+        <v>1</v>
+      </c>
+      <c r="I362">
+        <v>0</v>
+      </c>
+      <c r="J362" t="s">
+        <v>50</v>
       </c>
       <c r="K362">
-        <v>5.25</v>
+        <v>1.833</v>
       </c>
       <c r="L362">
+        <v>3.6</v>
+      </c>
+      <c r="M362">
+        <v>3.75</v>
+      </c>
+      <c r="N362">
+        <v>1.909</v>
+      </c>
+      <c r="O362">
+        <v>3.5</v>
+      </c>
+      <c r="P362">
         <v>4</v>
       </c>
-      <c r="M362">
-        <v>1.55</v>
-      </c>
-      <c r="N362">
-        <v>5</v>
-      </c>
-      <c r="O362">
-        <v>4.2</v>
-      </c>
-      <c r="P362">
-        <v>1.615</v>
-      </c>
       <c r="Q362">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R362">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S362">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T362">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U362">
         <v>1.975</v>
@@ -32719,19 +32728,25 @@
         <v>1.875</v>
       </c>
       <c r="W362">
-        <v>0</v>
+        <v>0.909</v>
       </c>
       <c r="X362">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y362">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z362">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA362">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB362">
+        <v>-1</v>
+      </c>
+      <c r="AC362">
+        <v>0.875</v>
       </c>
     </row>
     <row r="363" spans="1:29">
@@ -32739,7 +32754,7 @@
         <v>361</v>
       </c>
       <c r="B363">
-        <v>6810182</v>
+        <v>6810186</v>
       </c>
       <c r="C363" t="s">
         <v>28</v>
@@ -32748,64 +32763,79 @@
         <v>28</v>
       </c>
       <c r="E363" s="2">
-        <v>45333.5</v>
+        <v>45332.59375</v>
       </c>
       <c r="F363" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G363" t="s">
-        <v>34</v>
+        <v>38</v>
+      </c>
+      <c r="H363">
+        <v>2</v>
+      </c>
+      <c r="I363">
+        <v>2</v>
+      </c>
+      <c r="J363" t="s">
+        <v>48</v>
       </c>
       <c r="K363">
-        <v>3.8</v>
+        <v>1.285</v>
       </c>
       <c r="L363">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="M363">
+        <v>8.5</v>
+      </c>
+      <c r="N363">
+        <v>1.285</v>
+      </c>
+      <c r="O363">
+        <v>6</v>
+      </c>
+      <c r="P363">
+        <v>9</v>
+      </c>
+      <c r="Q363">
+        <v>-1.75</v>
+      </c>
+      <c r="R363">
+        <v>2.025</v>
+      </c>
+      <c r="S363">
+        <v>1.825</v>
+      </c>
+      <c r="T363">
+        <v>3</v>
+      </c>
+      <c r="U363">
         <v>1.85</v>
       </c>
-      <c r="N363">
-        <v>3.5</v>
-      </c>
-      <c r="O363">
-        <v>3.5</v>
-      </c>
-      <c r="P363">
-        <v>2</v>
-      </c>
-      <c r="Q363">
-        <v>0.5</v>
-      </c>
-      <c r="R363">
-        <v>1.825</v>
-      </c>
-      <c r="S363">
-        <v>2.025</v>
-      </c>
-      <c r="T363">
-        <v>2.75</v>
-      </c>
-      <c r="U363">
-        <v>2.025</v>
-      </c>
       <c r="V363">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W363">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X363">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Y363">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z363">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA363">
-        <v>0</v>
+        <v>0.825</v>
+      </c>
+      <c r="AB363">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AC363">
+        <v>-1</v>
       </c>
     </row>
     <row r="364" spans="1:29">
@@ -32813,7 +32843,7 @@
         <v>362</v>
       </c>
       <c r="B364">
-        <v>6810180</v>
+        <v>6810185</v>
       </c>
       <c r="C364" t="s">
         <v>28</v>
@@ -32822,64 +32852,79 @@
         <v>28</v>
       </c>
       <c r="E364" s="2">
-        <v>45333.60416666666</v>
+        <v>45332.69791666666</v>
       </c>
       <c r="F364" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G364" t="s">
-        <v>36</v>
+        <v>30</v>
+      </c>
+      <c r="H364">
+        <v>4</v>
+      </c>
+      <c r="I364">
+        <v>0</v>
+      </c>
+      <c r="J364" t="s">
+        <v>50</v>
       </c>
       <c r="K364">
-        <v>3.6</v>
+        <v>1.2</v>
       </c>
       <c r="L364">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="M364">
-        <v>2</v>
+        <v>9.5</v>
       </c>
       <c r="N364">
-        <v>3.75</v>
+        <v>1.222</v>
       </c>
       <c r="O364">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="P364">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="Q364">
-        <v>0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R364">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S364">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T364">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U364">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V364">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W364">
-        <v>0</v>
+        <v>0.222</v>
       </c>
       <c r="X364">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y364">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z364">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA364">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB364">
+        <v>1</v>
+      </c>
+      <c r="AC364">
+        <v>-1</v>
       </c>
     </row>
     <row r="365" spans="1:29">
@@ -32887,7 +32932,7 @@
         <v>363</v>
       </c>
       <c r="B365">
-        <v>6810181</v>
+        <v>6810179</v>
       </c>
       <c r="C365" t="s">
         <v>28</v>
@@ -32896,63 +32941,937 @@
         <v>28</v>
       </c>
       <c r="E365" s="2">
-        <v>45333.63541666666</v>
+        <v>45333.39583333334</v>
       </c>
       <c r="F365" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G365" t="s">
-        <v>31</v>
+        <v>33</v>
+      </c>
+      <c r="H365">
+        <v>0</v>
+      </c>
+      <c r="I365">
+        <v>4</v>
+      </c>
+      <c r="J365" t="s">
+        <v>49</v>
       </c>
       <c r="K365">
-        <v>2.05</v>
+        <v>5.25</v>
       </c>
       <c r="L365">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M365">
-        <v>3.2</v>
+        <v>1.55</v>
       </c>
       <c r="N365">
-        <v>2.15</v>
+        <v>4.75</v>
       </c>
       <c r="O365">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P365">
-        <v>3.1</v>
+        <v>1.666</v>
       </c>
       <c r="Q365">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R365">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="S365">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T365">
         <v>2.75</v>
       </c>
       <c r="U365">
+        <v>2.025</v>
+      </c>
+      <c r="V365">
+        <v>1.825</v>
+      </c>
+      <c r="W365">
+        <v>-1</v>
+      </c>
+      <c r="X365">
+        <v>-1</v>
+      </c>
+      <c r="Y365">
+        <v>0.6659999999999999</v>
+      </c>
+      <c r="Z365">
+        <v>-1</v>
+      </c>
+      <c r="AA365">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB365">
+        <v>1.025</v>
+      </c>
+      <c r="AC365">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="366" spans="1:29">
+      <c r="A366" s="1">
+        <v>364</v>
+      </c>
+      <c r="B366">
+        <v>6810182</v>
+      </c>
+      <c r="C366" t="s">
+        <v>28</v>
+      </c>
+      <c r="D366" t="s">
+        <v>28</v>
+      </c>
+      <c r="E366" s="2">
+        <v>45333.5</v>
+      </c>
+      <c r="F366" t="s">
+        <v>40</v>
+      </c>
+      <c r="G366" t="s">
+        <v>34</v>
+      </c>
+      <c r="H366">
+        <v>1</v>
+      </c>
+      <c r="I366">
+        <v>1</v>
+      </c>
+      <c r="J366" t="s">
+        <v>48</v>
+      </c>
+      <c r="K366">
+        <v>3.8</v>
+      </c>
+      <c r="L366">
+        <v>3.6</v>
+      </c>
+      <c r="M366">
+        <v>1.85</v>
+      </c>
+      <c r="N366">
+        <v>3.75</v>
+      </c>
+      <c r="O366">
+        <v>3.5</v>
+      </c>
+      <c r="P366">
+        <v>1.95</v>
+      </c>
+      <c r="Q366">
+        <v>0.5</v>
+      </c>
+      <c r="R366">
+        <v>1.9</v>
+      </c>
+      <c r="S366">
+        <v>1.95</v>
+      </c>
+      <c r="T366">
+        <v>2.5</v>
+      </c>
+      <c r="U366">
+        <v>1.825</v>
+      </c>
+      <c r="V366">
+        <v>2.025</v>
+      </c>
+      <c r="W366">
+        <v>-1</v>
+      </c>
+      <c r="X366">
+        <v>2.5</v>
+      </c>
+      <c r="Y366">
+        <v>-1</v>
+      </c>
+      <c r="Z366">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA366">
+        <v>-1</v>
+      </c>
+      <c r="AB366">
+        <v>-1</v>
+      </c>
+      <c r="AC366">
+        <v>1.025</v>
+      </c>
+    </row>
+    <row r="367" spans="1:29">
+      <c r="A367" s="1">
+        <v>365</v>
+      </c>
+      <c r="B367">
+        <v>6810180</v>
+      </c>
+      <c r="C367" t="s">
+        <v>28</v>
+      </c>
+      <c r="D367" t="s">
+        <v>28</v>
+      </c>
+      <c r="E367" s="2">
+        <v>45333.60416666666</v>
+      </c>
+      <c r="F367" t="s">
+        <v>44</v>
+      </c>
+      <c r="G367" t="s">
+        <v>36</v>
+      </c>
+      <c r="H367">
+        <v>1</v>
+      </c>
+      <c r="I367">
+        <v>3</v>
+      </c>
+      <c r="J367" t="s">
+        <v>49</v>
+      </c>
+      <c r="K367">
+        <v>3.6</v>
+      </c>
+      <c r="L367">
+        <v>3.4</v>
+      </c>
+      <c r="M367">
+        <v>2</v>
+      </c>
+      <c r="N367">
+        <v>3.6</v>
+      </c>
+      <c r="O367">
+        <v>3.4</v>
+      </c>
+      <c r="P367">
+        <v>2.05</v>
+      </c>
+      <c r="Q367">
+        <v>0.5</v>
+      </c>
+      <c r="R367">
+        <v>1.825</v>
+      </c>
+      <c r="S367">
+        <v>2.025</v>
+      </c>
+      <c r="T367">
+        <v>2.5</v>
+      </c>
+      <c r="U367">
+        <v>1.875</v>
+      </c>
+      <c r="V367">
         <v>1.975</v>
       </c>
-      <c r="V365">
+      <c r="W367">
+        <v>-1</v>
+      </c>
+      <c r="X367">
+        <v>-1</v>
+      </c>
+      <c r="Y367">
+        <v>1.05</v>
+      </c>
+      <c r="Z367">
+        <v>-1</v>
+      </c>
+      <c r="AA367">
+        <v>1.025</v>
+      </c>
+      <c r="AB367">
+        <v>0.875</v>
+      </c>
+      <c r="AC367">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="368" spans="1:29">
+      <c r="A368" s="1">
+        <v>366</v>
+      </c>
+      <c r="B368">
+        <v>6810181</v>
+      </c>
+      <c r="C368" t="s">
+        <v>28</v>
+      </c>
+      <c r="D368" t="s">
+        <v>28</v>
+      </c>
+      <c r="E368" s="2">
+        <v>45333.63541666666</v>
+      </c>
+      <c r="F368" t="s">
+        <v>42</v>
+      </c>
+      <c r="G368" t="s">
+        <v>31</v>
+      </c>
+      <c r="H368">
+        <v>1</v>
+      </c>
+      <c r="I368">
+        <v>2</v>
+      </c>
+      <c r="J368" t="s">
+        <v>49</v>
+      </c>
+      <c r="K368">
+        <v>2.05</v>
+      </c>
+      <c r="L368">
+        <v>3.6</v>
+      </c>
+      <c r="M368">
+        <v>3.2</v>
+      </c>
+      <c r="N368">
+        <v>2.45</v>
+      </c>
+      <c r="O368">
+        <v>3.6</v>
+      </c>
+      <c r="P368">
+        <v>2.7</v>
+      </c>
+      <c r="Q368">
+        <v>0</v>
+      </c>
+      <c r="R368">
+        <v>1.8</v>
+      </c>
+      <c r="S368">
+        <v>2.05</v>
+      </c>
+      <c r="T368">
+        <v>2.75</v>
+      </c>
+      <c r="U368">
+        <v>1.925</v>
+      </c>
+      <c r="V368">
+        <v>1.925</v>
+      </c>
+      <c r="W368">
+        <v>-1</v>
+      </c>
+      <c r="X368">
+        <v>-1</v>
+      </c>
+      <c r="Y368">
+        <v>1.7</v>
+      </c>
+      <c r="Z368">
+        <v>-1</v>
+      </c>
+      <c r="AA368">
+        <v>1.05</v>
+      </c>
+      <c r="AB368">
+        <v>0.4625</v>
+      </c>
+      <c r="AC368">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="369" spans="1:27">
+      <c r="A369" s="1">
+        <v>367</v>
+      </c>
+      <c r="B369">
+        <v>6810189</v>
+      </c>
+      <c r="C369" t="s">
+        <v>28</v>
+      </c>
+      <c r="D369" t="s">
+        <v>28</v>
+      </c>
+      <c r="E369" s="2">
+        <v>45338.69791666666</v>
+      </c>
+      <c r="F369" t="s">
+        <v>38</v>
+      </c>
+      <c r="G369" t="s">
+        <v>29</v>
+      </c>
+      <c r="K369">
+        <v>2.375</v>
+      </c>
+      <c r="L369">
+        <v>3.4</v>
+      </c>
+      <c r="M369">
+        <v>2.9</v>
+      </c>
+      <c r="N369">
+        <v>2.375</v>
+      </c>
+      <c r="O369">
+        <v>3.3</v>
+      </c>
+      <c r="P369">
+        <v>3</v>
+      </c>
+      <c r="Q369">
+        <v>-0.25</v>
+      </c>
+      <c r="R369">
+        <v>2.05</v>
+      </c>
+      <c r="S369">
+        <v>1.8</v>
+      </c>
+      <c r="T369">
+        <v>2.5</v>
+      </c>
+      <c r="U369">
+        <v>1.95</v>
+      </c>
+      <c r="V369">
+        <v>1.9</v>
+      </c>
+      <c r="W369">
+        <v>0</v>
+      </c>
+      <c r="X369">
+        <v>0</v>
+      </c>
+      <c r="Y369">
+        <v>0</v>
+      </c>
+      <c r="Z369">
+        <v>0</v>
+      </c>
+      <c r="AA369">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="1:27">
+      <c r="A370" s="1">
+        <v>368</v>
+      </c>
+      <c r="B370">
+        <v>6810193</v>
+      </c>
+      <c r="C370" t="s">
+        <v>28</v>
+      </c>
+      <c r="D370" t="s">
+        <v>28</v>
+      </c>
+      <c r="E370" s="2">
+        <v>45339.5</v>
+      </c>
+      <c r="F370" t="s">
+        <v>34</v>
+      </c>
+      <c r="G370" t="s">
+        <v>47</v>
+      </c>
+      <c r="K370">
+        <v>1.3</v>
+      </c>
+      <c r="L370">
+        <v>5.75</v>
+      </c>
+      <c r="M370">
+        <v>9</v>
+      </c>
+      <c r="N370">
+        <v>1.285</v>
+      </c>
+      <c r="O370">
+        <v>6</v>
+      </c>
+      <c r="P370">
+        <v>9.5</v>
+      </c>
+      <c r="Q370">
+        <v>-1.75</v>
+      </c>
+      <c r="R370">
+        <v>2.025</v>
+      </c>
+      <c r="S370">
+        <v>1.825</v>
+      </c>
+      <c r="T370">
+        <v>3</v>
+      </c>
+      <c r="U370">
+        <v>1.85</v>
+      </c>
+      <c r="V370">
+        <v>2</v>
+      </c>
+      <c r="W370">
+        <v>0</v>
+      </c>
+      <c r="X370">
+        <v>0</v>
+      </c>
+      <c r="Y370">
+        <v>0</v>
+      </c>
+      <c r="Z370">
+        <v>0</v>
+      </c>
+      <c r="AA370">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="1:27">
+      <c r="A371" s="1">
+        <v>369</v>
+      </c>
+      <c r="B371">
+        <v>6810192</v>
+      </c>
+      <c r="C371" t="s">
+        <v>28</v>
+      </c>
+      <c r="D371" t="s">
+        <v>28</v>
+      </c>
+      <c r="E371" s="2">
+        <v>45339.59375</v>
+      </c>
+      <c r="F371" t="s">
+        <v>37</v>
+      </c>
+      <c r="G371" t="s">
+        <v>44</v>
+      </c>
+      <c r="K371">
+        <v>2.25</v>
+      </c>
+      <c r="L371">
+        <v>3.4</v>
+      </c>
+      <c r="M371">
+        <v>3.1</v>
+      </c>
+      <c r="N371">
+        <v>2.3</v>
+      </c>
+      <c r="O371">
+        <v>3.5</v>
+      </c>
+      <c r="P371">
+        <v>3</v>
+      </c>
+      <c r="Q371">
+        <v>-0.25</v>
+      </c>
+      <c r="R371">
+        <v>2.025</v>
+      </c>
+      <c r="S371">
+        <v>1.825</v>
+      </c>
+      <c r="T371">
+        <v>2.5</v>
+      </c>
+      <c r="U371">
         <v>1.875</v>
       </c>
-      <c r="W365">
+      <c r="V371">
+        <v>1.975</v>
+      </c>
+      <c r="W371">
         <v>0</v>
       </c>
-      <c r="X365">
+      <c r="X371">
         <v>0</v>
       </c>
-      <c r="Y365">
+      <c r="Y371">
         <v>0</v>
       </c>
-      <c r="Z365">
+      <c r="Z371">
         <v>0</v>
       </c>
-      <c r="AA365">
+      <c r="AA371">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372" spans="1:27">
+      <c r="A372" s="1">
+        <v>370</v>
+      </c>
+      <c r="B372">
+        <v>6810188</v>
+      </c>
+      <c r="C372" t="s">
+        <v>28</v>
+      </c>
+      <c r="D372" t="s">
+        <v>28</v>
+      </c>
+      <c r="E372" s="2">
+        <v>45339.69791666666</v>
+      </c>
+      <c r="F372" t="s">
+        <v>33</v>
+      </c>
+      <c r="G372" t="s">
+        <v>40</v>
+      </c>
+      <c r="K372">
+        <v>1.533</v>
+      </c>
+      <c r="L372">
+        <v>4.2</v>
+      </c>
+      <c r="M372">
+        <v>6</v>
+      </c>
+      <c r="N372">
+        <v>1.571</v>
+      </c>
+      <c r="O372">
+        <v>4</v>
+      </c>
+      <c r="P372">
+        <v>5.75</v>
+      </c>
+      <c r="Q372">
+        <v>-1</v>
+      </c>
+      <c r="R372">
+        <v>2</v>
+      </c>
+      <c r="S372">
+        <v>1.85</v>
+      </c>
+      <c r="T372">
+        <v>2.75</v>
+      </c>
+      <c r="U372">
+        <v>2.025</v>
+      </c>
+      <c r="V372">
+        <v>1.825</v>
+      </c>
+      <c r="W372">
+        <v>0</v>
+      </c>
+      <c r="X372">
+        <v>0</v>
+      </c>
+      <c r="Y372">
+        <v>0</v>
+      </c>
+      <c r="Z372">
+        <v>0</v>
+      </c>
+      <c r="AA372">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" spans="1:27">
+      <c r="A373" s="1">
+        <v>371</v>
+      </c>
+      <c r="B373">
+        <v>6810194</v>
+      </c>
+      <c r="C373" t="s">
+        <v>28</v>
+      </c>
+      <c r="D373" t="s">
+        <v>28</v>
+      </c>
+      <c r="E373" s="2">
+        <v>45340.39583333334</v>
+      </c>
+      <c r="F373" t="s">
+        <v>31</v>
+      </c>
+      <c r="G373" t="s">
+        <v>41</v>
+      </c>
+      <c r="K373">
+        <v>3</v>
+      </c>
+      <c r="L373">
+        <v>3.6</v>
+      </c>
+      <c r="M373">
+        <v>2.25</v>
+      </c>
+      <c r="N373">
+        <v>3.4</v>
+      </c>
+      <c r="O373">
+        <v>3.75</v>
+      </c>
+      <c r="P373">
+        <v>2.05</v>
+      </c>
+      <c r="Q373">
+        <v>0.5</v>
+      </c>
+      <c r="R373">
+        <v>1.825</v>
+      </c>
+      <c r="S373">
+        <v>2.025</v>
+      </c>
+      <c r="T373">
+        <v>2.75</v>
+      </c>
+      <c r="U373">
+        <v>2</v>
+      </c>
+      <c r="V373">
+        <v>1.85</v>
+      </c>
+      <c r="W373">
+        <v>0</v>
+      </c>
+      <c r="X373">
+        <v>0</v>
+      </c>
+      <c r="Y373">
+        <v>0</v>
+      </c>
+      <c r="Z373">
+        <v>0</v>
+      </c>
+      <c r="AA373">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="1:27">
+      <c r="A374" s="1">
+        <v>372</v>
+      </c>
+      <c r="B374">
+        <v>6810190</v>
+      </c>
+      <c r="C374" t="s">
+        <v>28</v>
+      </c>
+      <c r="D374" t="s">
+        <v>28</v>
+      </c>
+      <c r="E374" s="2">
+        <v>45340.5</v>
+      </c>
+      <c r="F374" t="s">
+        <v>45</v>
+      </c>
+      <c r="G374" t="s">
+        <v>43</v>
+      </c>
+      <c r="K374">
+        <v>6</v>
+      </c>
+      <c r="L374">
+        <v>4.75</v>
+      </c>
+      <c r="M374">
+        <v>1.444</v>
+      </c>
+      <c r="N374">
+        <v>7.5</v>
+      </c>
+      <c r="O374">
+        <v>5.25</v>
+      </c>
+      <c r="P374">
+        <v>1.363</v>
+      </c>
+      <c r="Q374">
+        <v>1.5</v>
+      </c>
+      <c r="R374">
+        <v>1.825</v>
+      </c>
+      <c r="S374">
+        <v>2.025</v>
+      </c>
+      <c r="T374">
+        <v>3</v>
+      </c>
+      <c r="U374">
+        <v>1.95</v>
+      </c>
+      <c r="V374">
+        <v>1.9</v>
+      </c>
+      <c r="W374">
+        <v>0</v>
+      </c>
+      <c r="X374">
+        <v>0</v>
+      </c>
+      <c r="Y374">
+        <v>0</v>
+      </c>
+      <c r="Z374">
+        <v>0</v>
+      </c>
+      <c r="AA374">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="1:27">
+      <c r="A375" s="1">
+        <v>373</v>
+      </c>
+      <c r="B375">
+        <v>6810187</v>
+      </c>
+      <c r="C375" t="s">
+        <v>28</v>
+      </c>
+      <c r="D375" t="s">
+        <v>28</v>
+      </c>
+      <c r="E375" s="2">
+        <v>45340.60416666666</v>
+      </c>
+      <c r="F375" t="s">
+        <v>36</v>
+      </c>
+      <c r="G375" t="s">
+        <v>46</v>
+      </c>
+      <c r="K375">
+        <v>1.571</v>
+      </c>
+      <c r="L375">
+        <v>4</v>
+      </c>
+      <c r="M375">
+        <v>6</v>
+      </c>
+      <c r="N375">
+        <v>1.615</v>
+      </c>
+      <c r="O375">
+        <v>3.75</v>
+      </c>
+      <c r="P375">
+        <v>5.75</v>
+      </c>
+      <c r="Q375">
+        <v>-0.75</v>
+      </c>
+      <c r="R375">
+        <v>1.8</v>
+      </c>
+      <c r="S375">
+        <v>2.05</v>
+      </c>
+      <c r="T375">
+        <v>2.5</v>
+      </c>
+      <c r="U375">
+        <v>1.85</v>
+      </c>
+      <c r="V375">
+        <v>2</v>
+      </c>
+      <c r="W375">
+        <v>0</v>
+      </c>
+      <c r="X375">
+        <v>0</v>
+      </c>
+      <c r="Y375">
+        <v>0</v>
+      </c>
+      <c r="Z375">
+        <v>0</v>
+      </c>
+      <c r="AA375">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="1:27">
+      <c r="A376" s="1">
+        <v>374</v>
+      </c>
+      <c r="B376">
+        <v>6810191</v>
+      </c>
+      <c r="C376" t="s">
+        <v>28</v>
+      </c>
+      <c r="D376" t="s">
+        <v>28</v>
+      </c>
+      <c r="E376" s="2">
+        <v>45340.63541666666</v>
+      </c>
+      <c r="F376" t="s">
+        <v>30</v>
+      </c>
+      <c r="G376" t="s">
+        <v>42</v>
+      </c>
+      <c r="K376">
+        <v>5</v>
+      </c>
+      <c r="L376">
+        <v>4</v>
+      </c>
+      <c r="M376">
+        <v>1.65</v>
+      </c>
+      <c r="N376">
+        <v>5</v>
+      </c>
+      <c r="O376">
+        <v>4</v>
+      </c>
+      <c r="P376">
+        <v>1.666</v>
+      </c>
+      <c r="Q376">
+        <v>0.75</v>
+      </c>
+      <c r="R376">
+        <v>1.95</v>
+      </c>
+      <c r="S376">
+        <v>1.9</v>
+      </c>
+      <c r="T376">
+        <v>2.75</v>
+      </c>
+      <c r="U376">
+        <v>1.875</v>
+      </c>
+      <c r="V376">
+        <v>1.975</v>
+      </c>
+      <c r="W376">
+        <v>0</v>
+      </c>
+      <c r="X376">
+        <v>0</v>
+      </c>
+      <c r="Y376">
+        <v>0</v>
+      </c>
+      <c r="Z376">
+        <v>0</v>
+      </c>
+      <c r="AA376">
         <v>0</v>
       </c>
     </row>

--- a/Belgium First Division A/Belgium First Division A.xlsx
+++ b/Belgium First Division A/Belgium First Division A.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1895" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1896" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -1604,7 +1604,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5208566</v>
+        <v>6114951</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1616,76 +1616,76 @@
         <v>44940.59375</v>
       </c>
       <c r="F13" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G13" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K13">
-        <v>1.75</v>
+        <v>2.75</v>
       </c>
       <c r="L13">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M13">
-        <v>4.2</v>
+        <v>2.45</v>
       </c>
       <c r="N13">
-        <v>1.666</v>
+        <v>2.8</v>
       </c>
       <c r="O13">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P13">
-        <v>4.5</v>
+        <v>2.45</v>
       </c>
       <c r="Q13">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R13">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S13">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T13">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U13">
+        <v>2.025</v>
+      </c>
+      <c r="V13">
         <v>1.825</v>
       </c>
-      <c r="V13">
-        <v>2.025</v>
-      </c>
       <c r="W13">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X13">
         <v>-1</v>
       </c>
       <c r="Y13">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z13">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA13">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB13">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC13">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1693,7 +1693,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6114951</v>
+        <v>5208566</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1705,76 +1705,76 @@
         <v>44940.59375</v>
       </c>
       <c r="F14" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K14">
+        <v>1.75</v>
+      </c>
+      <c r="L14">
+        <v>3.8</v>
+      </c>
+      <c r="M14">
+        <v>4.2</v>
+      </c>
+      <c r="N14">
+        <v>1.666</v>
+      </c>
+      <c r="O14">
+        <v>4</v>
+      </c>
+      <c r="P14">
+        <v>4.5</v>
+      </c>
+      <c r="Q14">
+        <v>-0.75</v>
+      </c>
+      <c r="R14">
+        <v>1.875</v>
+      </c>
+      <c r="S14">
+        <v>1.975</v>
+      </c>
+      <c r="T14">
         <v>2.75</v>
       </c>
-      <c r="L14">
-        <v>3.4</v>
-      </c>
-      <c r="M14">
-        <v>2.45</v>
-      </c>
-      <c r="N14">
-        <v>2.8</v>
-      </c>
-      <c r="O14">
-        <v>3.3</v>
-      </c>
-      <c r="P14">
-        <v>2.45</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="R14">
-        <v>2.05</v>
-      </c>
-      <c r="S14">
-        <v>1.8</v>
-      </c>
-      <c r="T14">
-        <v>2.5</v>
-      </c>
       <c r="U14">
+        <v>1.825</v>
+      </c>
+      <c r="V14">
         <v>2.025</v>
       </c>
-      <c r="V14">
-        <v>1.825</v>
-      </c>
       <c r="W14">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X14">
         <v>-1</v>
       </c>
       <c r="Y14">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z14">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA14">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB14">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AC14">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -2494,7 +2494,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5208701</v>
+        <v>5208571</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2506,76 +2506,76 @@
         <v>44944.60416666666</v>
       </c>
       <c r="F23" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G23" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K23">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="L23">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M23">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="N23">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="O23">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P23">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="Q23">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R23">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S23">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T23">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U23">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V23">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W23">
         <v>-1</v>
       </c>
       <c r="X23">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y23">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z23">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA23">
+        <v>0.875</v>
+      </c>
+      <c r="AB23">
+        <v>0.5</v>
+      </c>
+      <c r="AC23">
         <v>-0.5</v>
-      </c>
-      <c r="AB23">
-        <v>-1</v>
-      </c>
-      <c r="AC23">
-        <v>0.8</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2583,7 +2583,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5208571</v>
+        <v>5208701</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2595,76 +2595,76 @@
         <v>44944.60416666666</v>
       </c>
       <c r="F24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G24" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K24">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="L24">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M24">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="N24">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="O24">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P24">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="Q24">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R24">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S24">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T24">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U24">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V24">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W24">
         <v>-1</v>
       </c>
       <c r="X24">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y24">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z24">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AA24">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB24">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC24">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2672,7 +2672,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5208568</v>
+        <v>5208569</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2684,73 +2684,73 @@
         <v>44944.69791666666</v>
       </c>
       <c r="F25" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G25" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J25" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K25">
-        <v>1.4</v>
+        <v>1.85</v>
       </c>
       <c r="L25">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M25">
-        <v>6.5</v>
+        <v>3.8</v>
       </c>
       <c r="N25">
-        <v>1.7</v>
+        <v>1.666</v>
       </c>
       <c r="O25">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P25">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="Q25">
         <v>-0.75</v>
       </c>
       <c r="R25">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S25">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T25">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U25">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V25">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W25">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X25">
         <v>-1</v>
       </c>
       <c r="Y25">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z25">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA25">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AB25">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC25">
         <v>-1</v>
@@ -2761,7 +2761,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>5208569</v>
+        <v>5208568</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2773,73 +2773,73 @@
         <v>44944.69791666666</v>
       </c>
       <c r="F26" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G26" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H26">
+        <v>2</v>
+      </c>
+      <c r="I26">
         <v>3</v>
       </c>
-      <c r="I26">
-        <v>2</v>
-      </c>
       <c r="J26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K26">
-        <v>1.85</v>
+        <v>1.4</v>
       </c>
       <c r="L26">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M26">
-        <v>3.8</v>
+        <v>6.5</v>
       </c>
       <c r="N26">
-        <v>1.666</v>
+        <v>1.7</v>
       </c>
       <c r="O26">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P26">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="Q26">
         <v>-0.75</v>
       </c>
       <c r="R26">
+        <v>1.925</v>
+      </c>
+      <c r="S26">
+        <v>1.925</v>
+      </c>
+      <c r="T26">
+        <v>2.75</v>
+      </c>
+      <c r="U26">
+        <v>1.975</v>
+      </c>
+      <c r="V26">
         <v>1.875</v>
       </c>
-      <c r="S26">
-        <v>1.975</v>
-      </c>
-      <c r="T26">
-        <v>2.5</v>
-      </c>
-      <c r="U26">
-        <v>1.95</v>
-      </c>
-      <c r="V26">
-        <v>1.9</v>
-      </c>
       <c r="W26">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X26">
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z26">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA26">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB26">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC26">
         <v>-1</v>
@@ -3918,7 +3918,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>5208580</v>
+        <v>5208579</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3930,34 +3930,34 @@
         <v>44954.59375</v>
       </c>
       <c r="F39" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G39" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J39" t="s">
         <v>48</v>
       </c>
       <c r="K39">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="L39">
         <v>3.4</v>
       </c>
       <c r="M39">
+        <v>3</v>
+      </c>
+      <c r="N39">
+        <v>2.2</v>
+      </c>
+      <c r="O39">
         <v>3.2</v>
-      </c>
-      <c r="N39">
-        <v>2.1</v>
-      </c>
-      <c r="O39">
-        <v>3.4</v>
       </c>
       <c r="P39">
         <v>3.1</v>
@@ -3966,25 +3966,25 @@
         <v>-0.25</v>
       </c>
       <c r="R39">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S39">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T39">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U39">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V39">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W39">
         <v>-1</v>
       </c>
       <c r="X39">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="Y39">
         <v>-1</v>
@@ -3993,13 +3993,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA39">
-        <v>0.475</v>
+        <v>0.4375</v>
       </c>
       <c r="AB39">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC39">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4007,7 +4007,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>5208579</v>
+        <v>5208580</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4019,34 +4019,34 @@
         <v>44954.59375</v>
       </c>
       <c r="F40" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J40" t="s">
         <v>48</v>
       </c>
       <c r="K40">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="L40">
         <v>3.4</v>
       </c>
       <c r="M40">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="N40">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="O40">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P40">
         <v>3.1</v>
@@ -4055,25 +4055,25 @@
         <v>-0.25</v>
       </c>
       <c r="R40">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S40">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T40">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U40">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V40">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W40">
         <v>-1</v>
       </c>
       <c r="X40">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="Y40">
         <v>-1</v>
@@ -4082,13 +4082,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA40">
-        <v>0.4375</v>
+        <v>0.475</v>
       </c>
       <c r="AB40">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC40">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -9614,7 +9614,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>5208612</v>
+        <v>5208613</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9626,76 +9626,76 @@
         <v>45003.59375</v>
       </c>
       <c r="F103" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G103" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I103">
+        <v>2</v>
+      </c>
+      <c r="J103" t="s">
+        <v>49</v>
+      </c>
+      <c r="K103">
+        <v>3.3</v>
+      </c>
+      <c r="L103">
+        <v>3.3</v>
+      </c>
+      <c r="M103">
+        <v>2.05</v>
+      </c>
+      <c r="N103">
+        <v>2.8</v>
+      </c>
+      <c r="O103">
+        <v>3.3</v>
+      </c>
+      <c r="P103">
+        <v>2.3</v>
+      </c>
+      <c r="Q103">
+        <v>0.25</v>
+      </c>
+      <c r="R103">
+        <v>1.85</v>
+      </c>
+      <c r="S103">
+        <v>2</v>
+      </c>
+      <c r="T103">
+        <v>2.75</v>
+      </c>
+      <c r="U103">
+        <v>1.9</v>
+      </c>
+      <c r="V103">
+        <v>1.95</v>
+      </c>
+      <c r="W103">
+        <v>-1</v>
+      </c>
+      <c r="X103">
+        <v>-1</v>
+      </c>
+      <c r="Y103">
+        <v>1.3</v>
+      </c>
+      <c r="Z103">
+        <v>-1</v>
+      </c>
+      <c r="AA103">
         <v>1</v>
       </c>
-      <c r="J103" t="s">
-        <v>50</v>
-      </c>
-      <c r="K103">
-        <v>1.45</v>
-      </c>
-      <c r="L103">
-        <v>4</v>
-      </c>
-      <c r="M103">
-        <v>6</v>
-      </c>
-      <c r="N103">
-        <v>1.5</v>
-      </c>
-      <c r="O103">
-        <v>3.75</v>
-      </c>
-      <c r="P103">
-        <v>6.5</v>
-      </c>
-      <c r="Q103">
-        <v>-1</v>
-      </c>
-      <c r="R103">
-        <v>2</v>
-      </c>
-      <c r="S103">
-        <v>1.85</v>
-      </c>
-      <c r="T103">
-        <v>2.25</v>
-      </c>
-      <c r="U103">
-        <v>2.025</v>
-      </c>
-      <c r="V103">
-        <v>1.825</v>
-      </c>
-      <c r="W103">
-        <v>0.5</v>
-      </c>
-      <c r="X103">
-        <v>-1</v>
-      </c>
-      <c r="Y103">
-        <v>-1</v>
-      </c>
-      <c r="Z103">
-        <v>0</v>
-      </c>
-      <c r="AA103">
-        <v>-0</v>
-      </c>
       <c r="AB103">
-        <v>1.025</v>
+        <v>0.45</v>
       </c>
       <c r="AC103">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9703,7 +9703,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>5208613</v>
+        <v>5208612</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9715,76 +9715,76 @@
         <v>45003.59375</v>
       </c>
       <c r="F104" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G104" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H104">
+        <v>2</v>
+      </c>
+      <c r="I104">
         <v>1</v>
       </c>
-      <c r="I104">
-        <v>2</v>
-      </c>
       <c r="J104" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K104">
-        <v>3.3</v>
+        <v>1.45</v>
       </c>
       <c r="L104">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M104">
-        <v>2.05</v>
+        <v>6</v>
       </c>
       <c r="N104">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
       <c r="O104">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P104">
-        <v>2.3</v>
+        <v>6.5</v>
       </c>
       <c r="Q104">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R104">
+        <v>2</v>
+      </c>
+      <c r="S104">
         <v>1.85</v>
       </c>
-      <c r="S104">
-        <v>2</v>
-      </c>
       <c r="T104">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U104">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V104">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W104">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X104">
         <v>-1</v>
       </c>
       <c r="Y104">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z104">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA104">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="AB104">
-        <v>0.45</v>
+        <v>1.025</v>
       </c>
       <c r="AC104">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -11127,7 +11127,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>5391100</v>
+        <v>5394553</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11139,76 +11139,76 @@
         <v>45024.45833333334</v>
       </c>
       <c r="F120" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G120" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H120">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J120" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K120">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L120">
         <v>3.5</v>
       </c>
       <c r="M120">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="N120">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="O120">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P120">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="Q120">
+        <v>-0.25</v>
+      </c>
+      <c r="R120">
+        <v>1.95</v>
+      </c>
+      <c r="S120">
+        <v>1.9</v>
+      </c>
+      <c r="T120">
+        <v>2.75</v>
+      </c>
+      <c r="U120">
+        <v>1.875</v>
+      </c>
+      <c r="V120">
+        <v>1.975</v>
+      </c>
+      <c r="W120">
+        <v>-1</v>
+      </c>
+      <c r="X120">
+        <v>2.4</v>
+      </c>
+      <c r="Y120">
+        <v>-1</v>
+      </c>
+      <c r="Z120">
         <v>-0.5</v>
       </c>
-      <c r="R120">
-        <v>2.025</v>
-      </c>
-      <c r="S120">
-        <v>1.825</v>
-      </c>
-      <c r="T120">
-        <v>3</v>
-      </c>
-      <c r="U120">
-        <v>1.95</v>
-      </c>
-      <c r="V120">
-        <v>1.9</v>
-      </c>
-      <c r="W120">
-        <v>1</v>
-      </c>
-      <c r="X120">
-        <v>-1</v>
-      </c>
-      <c r="Y120">
-        <v>-1</v>
-      </c>
-      <c r="Z120">
-        <v>1.025</v>
-      </c>
       <c r="AA120">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB120">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC120">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11216,7 +11216,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>5394553</v>
+        <v>5391100</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11228,76 +11228,76 @@
         <v>45024.45833333334</v>
       </c>
       <c r="F121" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G121" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J121" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K121">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L121">
         <v>3.5</v>
       </c>
       <c r="M121">
+        <v>3.3</v>
+      </c>
+      <c r="N121">
+        <v>2</v>
+      </c>
+      <c r="O121">
         <v>3.6</v>
       </c>
-      <c r="N121">
-        <v>2.25</v>
-      </c>
-      <c r="O121">
-        <v>3.4</v>
-      </c>
       <c r="P121">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="Q121">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R121">
+        <v>2.025</v>
+      </c>
+      <c r="S121">
+        <v>1.825</v>
+      </c>
+      <c r="T121">
+        <v>3</v>
+      </c>
+      <c r="U121">
         <v>1.95</v>
       </c>
-      <c r="S121">
+      <c r="V121">
         <v>1.9</v>
       </c>
-      <c r="T121">
-        <v>2.75</v>
-      </c>
-      <c r="U121">
-        <v>1.875</v>
-      </c>
-      <c r="V121">
-        <v>1.975</v>
-      </c>
       <c r="W121">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X121">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y121">
         <v>-1</v>
       </c>
       <c r="Z121">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA121">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB121">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC121">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -12017,7 +12017,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>5424405</v>
+        <v>5424406</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12029,73 +12029,73 @@
         <v>45031.55208333334</v>
       </c>
       <c r="F130" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G130" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H130">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I130">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J130" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K130">
-        <v>1.75</v>
+        <v>2.4</v>
       </c>
       <c r="L130">
         <v>3.5</v>
       </c>
       <c r="M130">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="N130">
-        <v>1.65</v>
+        <v>2.4</v>
       </c>
       <c r="O130">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P130">
-        <v>5.25</v>
+        <v>2.75</v>
       </c>
       <c r="Q130">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R130">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S130">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T130">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U130">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V130">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W130">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X130">
         <v>-1</v>
       </c>
       <c r="Y130">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z130">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA130">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB130">
-        <v>1</v>
+        <v>1.025</v>
       </c>
       <c r="AC130">
         <v>-1</v>
@@ -12106,7 +12106,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>5424406</v>
+        <v>5424405</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12118,73 +12118,73 @@
         <v>45031.55208333334</v>
       </c>
       <c r="F131" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G131" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I131">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J131" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K131">
-        <v>2.4</v>
+        <v>1.75</v>
       </c>
       <c r="L131">
         <v>3.5</v>
       </c>
       <c r="M131">
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="N131">
-        <v>2.4</v>
+        <v>1.65</v>
       </c>
       <c r="O131">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P131">
-        <v>2.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q131">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R131">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S131">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T131">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U131">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V131">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W131">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X131">
         <v>-1</v>
       </c>
       <c r="Y131">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z131">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA131">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB131">
-        <v>1.025</v>
+        <v>1</v>
       </c>
       <c r="AC131">
         <v>-1</v>
@@ -12818,7 +12818,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6390442</v>
+        <v>6390066</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12830,73 +12830,73 @@
         <v>45039.5625</v>
       </c>
       <c r="F139" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G139" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H139">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I139">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J139" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K139">
-        <v>1.333</v>
+        <v>3</v>
       </c>
       <c r="L139">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M139">
-        <v>8</v>
+        <v>2.15</v>
       </c>
       <c r="N139">
-        <v>1.3</v>
+        <v>2.8</v>
       </c>
       <c r="O139">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="P139">
-        <v>8.5</v>
+        <v>2.25</v>
       </c>
       <c r="Q139">
-        <v>-1.75</v>
+        <v>0.25</v>
       </c>
       <c r="R139">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S139">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T139">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U139">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V139">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W139">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X139">
         <v>-1</v>
       </c>
       <c r="Y139">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z139">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA139">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB139">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
       <c r="AC139">
         <v>-1</v>
@@ -12907,7 +12907,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6390066</v>
+        <v>6390442</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12919,73 +12919,73 @@
         <v>45039.5625</v>
       </c>
       <c r="F140" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G140" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I140">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J140" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K140">
-        <v>3</v>
+        <v>1.333</v>
       </c>
       <c r="L140">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M140">
-        <v>2.15</v>
+        <v>8</v>
       </c>
       <c r="N140">
-        <v>2.8</v>
+        <v>1.3</v>
       </c>
       <c r="O140">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="P140">
-        <v>2.25</v>
+        <v>8.5</v>
       </c>
       <c r="Q140">
-        <v>0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R140">
+        <v>1.975</v>
+      </c>
+      <c r="S140">
+        <v>1.875</v>
+      </c>
+      <c r="T140">
+        <v>3.75</v>
+      </c>
+      <c r="U140">
+        <v>2.025</v>
+      </c>
+      <c r="V140">
         <v>1.825</v>
       </c>
-      <c r="S140">
-        <v>2.025</v>
-      </c>
-      <c r="T140">
-        <v>3</v>
-      </c>
-      <c r="U140">
-        <v>1.8</v>
-      </c>
-      <c r="V140">
-        <v>2.05</v>
-      </c>
       <c r="W140">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X140">
         <v>-1</v>
       </c>
       <c r="Y140">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z140">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA140">
+        <v>-1</v>
+      </c>
+      <c r="AB140">
         <v>1.025</v>
-      </c>
-      <c r="AB140">
-        <v>0.8</v>
       </c>
       <c r="AC140">
         <v>-1</v>
@@ -12996,7 +12996,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6390043</v>
+        <v>6390693</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13008,76 +13008,76 @@
         <v>45039.5625</v>
       </c>
       <c r="F141" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G141" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H141">
+        <v>3</v>
+      </c>
+      <c r="I141">
+        <v>2</v>
+      </c>
+      <c r="J141" t="s">
+        <v>50</v>
+      </c>
+      <c r="K141">
+        <v>2.5</v>
+      </c>
+      <c r="L141">
+        <v>3.6</v>
+      </c>
+      <c r="M141">
+        <v>2.45</v>
+      </c>
+      <c r="N141">
+        <v>2.4</v>
+      </c>
+      <c r="O141">
+        <v>3.8</v>
+      </c>
+      <c r="P141">
+        <v>2.45</v>
+      </c>
+      <c r="Q141">
+        <v>0</v>
+      </c>
+      <c r="R141">
+        <v>1.9</v>
+      </c>
+      <c r="S141">
+        <v>1.95</v>
+      </c>
+      <c r="T141">
+        <v>3.25</v>
+      </c>
+      <c r="U141">
+        <v>2</v>
+      </c>
+      <c r="V141">
+        <v>1.85</v>
+      </c>
+      <c r="W141">
+        <v>1.4</v>
+      </c>
+      <c r="X141">
+        <v>-1</v>
+      </c>
+      <c r="Y141">
+        <v>-1</v>
+      </c>
+      <c r="Z141">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA141">
+        <v>-1</v>
+      </c>
+      <c r="AB141">
         <v>1</v>
       </c>
-      <c r="I141">
-        <v>2</v>
-      </c>
-      <c r="J141" t="s">
-        <v>49</v>
-      </c>
-      <c r="K141">
-        <v>1.222</v>
-      </c>
-      <c r="L141">
-        <v>5.75</v>
-      </c>
-      <c r="M141">
-        <v>11</v>
-      </c>
-      <c r="N141">
-        <v>1.142</v>
-      </c>
-      <c r="O141">
-        <v>7.5</v>
-      </c>
-      <c r="P141">
-        <v>15</v>
-      </c>
-      <c r="Q141">
-        <v>-2.25</v>
-      </c>
-      <c r="R141">
-        <v>1.975</v>
-      </c>
-      <c r="S141">
-        <v>1.875</v>
-      </c>
-      <c r="T141">
-        <v>3.5</v>
-      </c>
-      <c r="U141">
-        <v>1.95</v>
-      </c>
-      <c r="V141">
-        <v>1.9</v>
-      </c>
-      <c r="W141">
-        <v>-1</v>
-      </c>
-      <c r="X141">
-        <v>-1</v>
-      </c>
-      <c r="Y141">
-        <v>14</v>
-      </c>
-      <c r="Z141">
-        <v>-1</v>
-      </c>
-      <c r="AA141">
-        <v>0.875</v>
-      </c>
-      <c r="AB141">
-        <v>-1</v>
-      </c>
       <c r="AC141">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13085,7 +13085,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6389865</v>
+        <v>6390043</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13097,49 +13097,49 @@
         <v>45039.5625</v>
       </c>
       <c r="F142" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G142" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I142">
         <v>2</v>
       </c>
       <c r="J142" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K142">
+        <v>1.222</v>
+      </c>
+      <c r="L142">
+        <v>5.75</v>
+      </c>
+      <c r="M142">
+        <v>11</v>
+      </c>
+      <c r="N142">
+        <v>1.142</v>
+      </c>
+      <c r="O142">
+        <v>7.5</v>
+      </c>
+      <c r="P142">
+        <v>15</v>
+      </c>
+      <c r="Q142">
+        <v>-2.25</v>
+      </c>
+      <c r="R142">
+        <v>1.975</v>
+      </c>
+      <c r="S142">
+        <v>1.875</v>
+      </c>
+      <c r="T142">
         <v>3.5</v>
-      </c>
-      <c r="L142">
-        <v>3.6</v>
-      </c>
-      <c r="M142">
-        <v>1.95</v>
-      </c>
-      <c r="N142">
-        <v>2.8</v>
-      </c>
-      <c r="O142">
-        <v>3.5</v>
-      </c>
-      <c r="P142">
-        <v>2.3</v>
-      </c>
-      <c r="Q142">
-        <v>0.25</v>
-      </c>
-      <c r="R142">
-        <v>1.8</v>
-      </c>
-      <c r="S142">
-        <v>2.05</v>
-      </c>
-      <c r="T142">
-        <v>3</v>
       </c>
       <c r="U142">
         <v>1.95</v>
@@ -13151,22 +13151,22 @@
         <v>-1</v>
       </c>
       <c r="X142">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y142">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="Z142">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA142">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB142">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC142">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13174,7 +13174,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6385540</v>
+        <v>6389819</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13186,55 +13186,55 @@
         <v>45039.5625</v>
       </c>
       <c r="F143" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G143" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H143">
         <v>2</v>
       </c>
       <c r="I143">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J143" t="s">
         <v>49</v>
       </c>
       <c r="K143">
-        <v>1.363</v>
+        <v>5.25</v>
       </c>
       <c r="L143">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="M143">
-        <v>7</v>
+        <v>1.533</v>
       </c>
       <c r="N143">
-        <v>1.55</v>
+        <v>6.5</v>
       </c>
       <c r="O143">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="P143">
-        <v>5</v>
+        <v>1.4</v>
       </c>
       <c r="Q143">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="R143">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S143">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T143">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U143">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V143">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W143">
         <v>-1</v>
@@ -13243,16 +13243,16 @@
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>4</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z143">
         <v>-1</v>
       </c>
       <c r="AA143">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AB143">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AC143">
         <v>-1</v>
@@ -13263,7 +13263,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6390693</v>
+        <v>6389865</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13275,73 +13275,73 @@
         <v>45039.5625</v>
       </c>
       <c r="F144" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G144" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H144">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I144">
         <v>2</v>
       </c>
       <c r="J144" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K144">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="L144">
         <v>3.6</v>
       </c>
       <c r="M144">
-        <v>2.45</v>
+        <v>1.95</v>
       </c>
       <c r="N144">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="O144">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P144">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="Q144">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R144">
+        <v>1.8</v>
+      </c>
+      <c r="S144">
+        <v>2.05</v>
+      </c>
+      <c r="T144">
+        <v>3</v>
+      </c>
+      <c r="U144">
+        <v>1.95</v>
+      </c>
+      <c r="V144">
         <v>1.9</v>
       </c>
-      <c r="S144">
-        <v>1.95</v>
-      </c>
-      <c r="T144">
-        <v>3.25</v>
-      </c>
-      <c r="U144">
-        <v>2</v>
-      </c>
-      <c r="V144">
-        <v>1.85</v>
-      </c>
       <c r="W144">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X144">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y144">
         <v>-1</v>
       </c>
       <c r="Z144">
-        <v>0.8999999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="AA144">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB144">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AC144">
         <v>-1</v>
@@ -13352,7 +13352,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6389819</v>
+        <v>6385540</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13364,55 +13364,55 @@
         <v>45039.5625</v>
       </c>
       <c r="F145" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G145" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H145">
         <v>2</v>
       </c>
       <c r="I145">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J145" t="s">
         <v>49</v>
       </c>
       <c r="K145">
-        <v>5.25</v>
+        <v>1.363</v>
       </c>
       <c r="L145">
+        <v>5</v>
+      </c>
+      <c r="M145">
+        <v>7</v>
+      </c>
+      <c r="N145">
+        <v>1.55</v>
+      </c>
+      <c r="O145">
         <v>4.2</v>
       </c>
-      <c r="M145">
-        <v>1.533</v>
-      </c>
-      <c r="N145">
-        <v>6.5</v>
-      </c>
-      <c r="O145">
-        <v>4.75</v>
-      </c>
       <c r="P145">
-        <v>1.4</v>
+        <v>5</v>
       </c>
       <c r="Q145">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="R145">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S145">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T145">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U145">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V145">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W145">
         <v>-1</v>
@@ -13421,16 +13421,16 @@
         <v>-1</v>
       </c>
       <c r="Y145">
-        <v>0.3999999999999999</v>
+        <v>4</v>
       </c>
       <c r="Z145">
         <v>-1</v>
       </c>
       <c r="AA145">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AB145">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AC145">
         <v>-1</v>
@@ -17357,7 +17357,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>7030334</v>
+        <v>6810007</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17369,55 +17369,55 @@
         <v>45151.45833333334</v>
       </c>
       <c r="F190" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G190" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H190">
         <v>0</v>
       </c>
       <c r="I190">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J190" t="s">
         <v>49</v>
       </c>
       <c r="K190">
-        <v>2.75</v>
+        <v>4.75</v>
       </c>
       <c r="L190">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M190">
-        <v>2.25</v>
+        <v>1.571</v>
       </c>
       <c r="N190">
-        <v>2.4</v>
+        <v>7</v>
       </c>
       <c r="O190">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P190">
-        <v>2.55</v>
+        <v>1.333</v>
       </c>
       <c r="Q190">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="R190">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S190">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T190">
         <v>3</v>
       </c>
       <c r="U190">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V190">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W190">
         <v>-1</v>
@@ -17426,19 +17426,19 @@
         <v>-1</v>
       </c>
       <c r="Y190">
-        <v>1.55</v>
+        <v>0.333</v>
       </c>
       <c r="Z190">
         <v>-1</v>
       </c>
       <c r="AA190">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB190">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC190">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="191" spans="1:29">
@@ -17446,7 +17446,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>6810007</v>
+        <v>7030334</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17458,55 +17458,55 @@
         <v>45151.45833333334</v>
       </c>
       <c r="F191" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G191" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H191">
         <v>0</v>
       </c>
       <c r="I191">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J191" t="s">
         <v>49</v>
       </c>
       <c r="K191">
-        <v>4.75</v>
+        <v>2.75</v>
       </c>
       <c r="L191">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M191">
-        <v>1.571</v>
+        <v>2.25</v>
       </c>
       <c r="N191">
-        <v>7</v>
+        <v>2.4</v>
       </c>
       <c r="O191">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P191">
-        <v>1.333</v>
+        <v>2.55</v>
       </c>
       <c r="Q191">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="R191">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S191">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T191">
         <v>3</v>
       </c>
       <c r="U191">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V191">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W191">
         <v>-1</v>
@@ -17515,19 +17515,19 @@
         <v>-1</v>
       </c>
       <c r="Y191">
-        <v>0.333</v>
+        <v>1.55</v>
       </c>
       <c r="Z191">
         <v>-1</v>
       </c>
       <c r="AA191">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB191">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC191">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="192" spans="1:29">
@@ -28838,7 +28838,7 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>6810130</v>
+        <v>6810132</v>
       </c>
       <c r="C319" t="s">
         <v>28</v>
@@ -28850,76 +28850,76 @@
         <v>45283.59375</v>
       </c>
       <c r="F319" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="G319" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H319">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I319">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J319" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K319">
-        <v>1.363</v>
+        <v>2.2</v>
       </c>
       <c r="L319">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="M319">
-        <v>7.5</v>
+        <v>3.2</v>
       </c>
       <c r="N319">
-        <v>1.333</v>
+        <v>2.3</v>
       </c>
       <c r="O319">
-        <v>5.25</v>
+        <v>3.3</v>
       </c>
       <c r="P319">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="Q319">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R319">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S319">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T319">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U319">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V319">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W319">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X319">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Y319">
         <v>-1</v>
       </c>
       <c r="Z319">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA319">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB319">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC319">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320" spans="1:29">
@@ -28927,7 +28927,7 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>6810132</v>
+        <v>6810130</v>
       </c>
       <c r="C320" t="s">
         <v>28</v>
@@ -28939,76 +28939,76 @@
         <v>45283.59375</v>
       </c>
       <c r="F320" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G320" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H320">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I320">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J320" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K320">
-        <v>2.2</v>
+        <v>1.363</v>
       </c>
       <c r="L320">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="M320">
-        <v>3.2</v>
+        <v>7.5</v>
       </c>
       <c r="N320">
-        <v>2.3</v>
+        <v>1.333</v>
       </c>
       <c r="O320">
-        <v>3.3</v>
+        <v>5.25</v>
       </c>
       <c r="P320">
+        <v>8</v>
+      </c>
+      <c r="Q320">
+        <v>-1.5</v>
+      </c>
+      <c r="R320">
+        <v>1.9</v>
+      </c>
+      <c r="S320">
+        <v>1.95</v>
+      </c>
+      <c r="T320">
         <v>3</v>
       </c>
-      <c r="Q320">
-        <v>-0.25</v>
-      </c>
-      <c r="R320">
-        <v>2</v>
-      </c>
-      <c r="S320">
-        <v>1.85</v>
-      </c>
-      <c r="T320">
-        <v>2.25</v>
-      </c>
       <c r="U320">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V320">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W320">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X320">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Y320">
         <v>-1</v>
       </c>
       <c r="Z320">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA320">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB320">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC320">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="321" spans="1:29">
@@ -29194,7 +29194,7 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>6810142</v>
+        <v>6810145</v>
       </c>
       <c r="C323" t="s">
         <v>28</v>
@@ -29206,76 +29206,76 @@
         <v>45286.5</v>
       </c>
       <c r="F323" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G323" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H323">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I323">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J323" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K323">
-        <v>1.75</v>
+        <v>7</v>
       </c>
       <c r="L323">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M323">
-        <v>4</v>
+        <v>1.4</v>
       </c>
       <c r="N323">
+        <v>8.5</v>
+      </c>
+      <c r="O323">
+        <v>5.75</v>
+      </c>
+      <c r="P323">
+        <v>1.285</v>
+      </c>
+      <c r="Q323">
+        <v>1.5</v>
+      </c>
+      <c r="R323">
+        <v>2.025</v>
+      </c>
+      <c r="S323">
+        <v>1.825</v>
+      </c>
+      <c r="T323">
+        <v>3.25</v>
+      </c>
+      <c r="U323">
+        <v>2.05</v>
+      </c>
+      <c r="V323">
         <v>1.8</v>
       </c>
-      <c r="O323">
-        <v>3.8</v>
-      </c>
-      <c r="P323">
-        <v>3.8</v>
-      </c>
-      <c r="Q323">
-        <v>-0.5</v>
-      </c>
-      <c r="R323">
-        <v>1.825</v>
-      </c>
-      <c r="S323">
-        <v>2.025</v>
-      </c>
-      <c r="T323">
-        <v>3</v>
-      </c>
-      <c r="U323">
-        <v>1.975</v>
-      </c>
-      <c r="V323">
-        <v>1.875</v>
-      </c>
       <c r="W323">
+        <v>-1</v>
+      </c>
+      <c r="X323">
+        <v>-1</v>
+      </c>
+      <c r="Y323">
+        <v>0.2849999999999999</v>
+      </c>
+      <c r="Z323">
+        <v>-1</v>
+      </c>
+      <c r="AA323">
+        <v>0.825</v>
+      </c>
+      <c r="AB323">
+        <v>-1</v>
+      </c>
+      <c r="AC323">
         <v>0.8</v>
-      </c>
-      <c r="X323">
-        <v>-1</v>
-      </c>
-      <c r="Y323">
-        <v>-1</v>
-      </c>
-      <c r="Z323">
-        <v>0.825</v>
-      </c>
-      <c r="AA323">
-        <v>-1</v>
-      </c>
-      <c r="AB323">
-        <v>0</v>
-      </c>
-      <c r="AC323">
-        <v>-0</v>
       </c>
     </row>
     <row r="324" spans="1:29">
@@ -29283,7 +29283,7 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>6810145</v>
+        <v>6810142</v>
       </c>
       <c r="C324" t="s">
         <v>28</v>
@@ -29295,76 +29295,76 @@
         <v>45286.5</v>
       </c>
       <c r="F324" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G324" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H324">
+        <v>3</v>
+      </c>
+      <c r="I324">
         <v>0</v>
       </c>
-      <c r="I324">
-        <v>2</v>
-      </c>
       <c r="J324" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K324">
-        <v>7</v>
+        <v>1.75</v>
       </c>
       <c r="L324">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M324">
-        <v>1.4</v>
+        <v>4</v>
       </c>
       <c r="N324">
-        <v>8.5</v>
+        <v>1.8</v>
       </c>
       <c r="O324">
-        <v>5.75</v>
+        <v>3.8</v>
       </c>
       <c r="P324">
-        <v>1.285</v>
+        <v>3.8</v>
       </c>
       <c r="Q324">
-        <v>1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R324">
+        <v>1.825</v>
+      </c>
+      <c r="S324">
         <v>2.025</v>
       </c>
-      <c r="S324">
-        <v>1.825</v>
-      </c>
       <c r="T324">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U324">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="V324">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W324">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X324">
         <v>-1</v>
       </c>
       <c r="Y324">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z324">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA324">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB324">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC324">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="325" spans="1:29">
@@ -30618,7 +30618,7 @@
         <v>337</v>
       </c>
       <c r="B339">
-        <v>6810158</v>
+        <v>6810159</v>
       </c>
       <c r="C339" t="s">
         <v>28</v>
@@ -30630,73 +30630,73 @@
         <v>45318.69791666666</v>
       </c>
       <c r="F339" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G339" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H339">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I339">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J339" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K339">
-        <v>1.363</v>
+        <v>5.5</v>
       </c>
       <c r="L339">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="M339">
-        <v>6.5</v>
+        <v>1.5</v>
       </c>
       <c r="N339">
-        <v>1.444</v>
+        <v>6</v>
       </c>
       <c r="O339">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P339">
-        <v>5.75</v>
+        <v>1.45</v>
       </c>
       <c r="Q339">
-        <v>-1.25</v>
+        <v>1.25</v>
       </c>
       <c r="R339">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S339">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T339">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U339">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V339">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W339">
         <v>-1</v>
       </c>
       <c r="X339">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y339">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z339">
         <v>-1</v>
       </c>
       <c r="AA339">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AB339">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AC339">
         <v>-1</v>
@@ -30707,7 +30707,7 @@
         <v>338</v>
       </c>
       <c r="B340">
-        <v>6810159</v>
+        <v>6810158</v>
       </c>
       <c r="C340" t="s">
         <v>28</v>
@@ -30719,73 +30719,73 @@
         <v>45318.69791666666</v>
       </c>
       <c r="F340" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G340" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H340">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I340">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J340" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K340">
-        <v>5.5</v>
+        <v>1.363</v>
       </c>
       <c r="L340">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="M340">
-        <v>1.5</v>
+        <v>6.5</v>
       </c>
       <c r="N340">
-        <v>6</v>
+        <v>1.444</v>
       </c>
       <c r="O340">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P340">
-        <v>1.45</v>
+        <v>5.75</v>
       </c>
       <c r="Q340">
-        <v>1.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R340">
+        <v>2</v>
+      </c>
+      <c r="S340">
+        <v>1.85</v>
+      </c>
+      <c r="T340">
+        <v>3</v>
+      </c>
+      <c r="U340">
+        <v>2.025</v>
+      </c>
+      <c r="V340">
         <v>1.825</v>
       </c>
-      <c r="S340">
-        <v>2.025</v>
-      </c>
-      <c r="T340">
-        <v>2.75</v>
-      </c>
-      <c r="U340">
-        <v>1.95</v>
-      </c>
-      <c r="V340">
-        <v>1.9</v>
-      </c>
       <c r="W340">
         <v>-1</v>
       </c>
       <c r="X340">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y340">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z340">
         <v>-1</v>
       </c>
       <c r="AA340">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB340">
         <v>1.025</v>
-      </c>
-      <c r="AB340">
-        <v>0.95</v>
       </c>
       <c r="AC340">
         <v>-1</v>
@@ -31330,7 +31330,7 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>6810168</v>
+        <v>6810165</v>
       </c>
       <c r="C347" t="s">
         <v>28</v>
@@ -31342,58 +31342,58 @@
         <v>45322.61458333334</v>
       </c>
       <c r="F347" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G347" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H347">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I347">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J347" t="s">
         <v>50</v>
       </c>
       <c r="K347">
-        <v>4.5</v>
+        <v>1.6</v>
       </c>
       <c r="L347">
+        <v>4</v>
+      </c>
+      <c r="M347">
+        <v>5</v>
+      </c>
+      <c r="N347">
+        <v>1.8</v>
+      </c>
+      <c r="O347">
+        <v>3.75</v>
+      </c>
+      <c r="P347">
         <v>4.2</v>
       </c>
-      <c r="M347">
-        <v>1.666</v>
-      </c>
-      <c r="N347">
-        <v>4.333</v>
-      </c>
-      <c r="O347">
-        <v>4</v>
-      </c>
-      <c r="P347">
-        <v>1.7</v>
-      </c>
       <c r="Q347">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R347">
+        <v>2.05</v>
+      </c>
+      <c r="S347">
+        <v>1.8</v>
+      </c>
+      <c r="T347">
+        <v>2.75</v>
+      </c>
+      <c r="U347">
         <v>1.95</v>
       </c>
-      <c r="S347">
+      <c r="V347">
         <v>1.9</v>
       </c>
-      <c r="T347">
-        <v>3</v>
-      </c>
-      <c r="U347">
-        <v>1.975</v>
-      </c>
-      <c r="V347">
-        <v>1.875</v>
-      </c>
       <c r="W347">
-        <v>3.333</v>
+        <v>0.8</v>
       </c>
       <c r="X347">
         <v>-1</v>
@@ -31402,16 +31402,16 @@
         <v>-1</v>
       </c>
       <c r="Z347">
-        <v>0.95</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AA347">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB347">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC347">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="348" spans="1:29">
@@ -31419,7 +31419,7 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>6810165</v>
+        <v>6810168</v>
       </c>
       <c r="C348" t="s">
         <v>28</v>
@@ -31431,58 +31431,58 @@
         <v>45322.61458333334</v>
       </c>
       <c r="F348" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G348" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H348">
+        <v>2</v>
+      </c>
+      <c r="I348">
         <v>1</v>
-      </c>
-      <c r="I348">
-        <v>0</v>
       </c>
       <c r="J348" t="s">
         <v>50</v>
       </c>
       <c r="K348">
-        <v>1.6</v>
+        <v>4.5</v>
       </c>
       <c r="L348">
+        <v>4.2</v>
+      </c>
+      <c r="M348">
+        <v>1.666</v>
+      </c>
+      <c r="N348">
+        <v>4.333</v>
+      </c>
+      <c r="O348">
         <v>4</v>
       </c>
-      <c r="M348">
-        <v>5</v>
-      </c>
-      <c r="N348">
-        <v>1.8</v>
-      </c>
-      <c r="O348">
-        <v>3.75</v>
-      </c>
       <c r="P348">
-        <v>4.2</v>
+        <v>1.7</v>
       </c>
       <c r="Q348">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R348">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S348">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T348">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U348">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V348">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W348">
-        <v>0.8</v>
+        <v>3.333</v>
       </c>
       <c r="X348">
         <v>-1</v>
@@ -31491,16 +31491,16 @@
         <v>-1</v>
       </c>
       <c r="Z348">
-        <v>0.5249999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA348">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB348">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC348">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="349" spans="1:29">
@@ -31686,7 +31686,7 @@
         <v>349</v>
       </c>
       <c r="B351">
-        <v>6810163</v>
+        <v>6810166</v>
       </c>
       <c r="C351" t="s">
         <v>28</v>
@@ -31698,73 +31698,73 @@
         <v>45323.6875</v>
       </c>
       <c r="F351" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G351" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H351">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I351">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J351" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K351">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L351">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M351">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="N351">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="O351">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P351">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="Q351">
         <v>0.25</v>
       </c>
       <c r="R351">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S351">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T351">
         <v>2.5</v>
       </c>
       <c r="U351">
+        <v>1.875</v>
+      </c>
+      <c r="V351">
         <v>1.975</v>
       </c>
-      <c r="V351">
-        <v>1.875</v>
-      </c>
       <c r="W351">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="X351">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y351">
         <v>-1</v>
       </c>
       <c r="Z351">
-        <v>0.95</v>
+        <v>0.4625</v>
       </c>
       <c r="AA351">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB351">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC351">
         <v>-1</v>
@@ -31775,7 +31775,7 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>6810166</v>
+        <v>6810163</v>
       </c>
       <c r="C352" t="s">
         <v>28</v>
@@ -31787,73 +31787,73 @@
         <v>45323.6875</v>
       </c>
       <c r="F352" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G352" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H352">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I352">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J352" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K352">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="L352">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M352">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="N352">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="O352">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P352">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="Q352">
         <v>0.25</v>
       </c>
       <c r="R352">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S352">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T352">
         <v>2.5</v>
       </c>
       <c r="U352">
+        <v>1.975</v>
+      </c>
+      <c r="V352">
         <v>1.875</v>
       </c>
-      <c r="V352">
-        <v>1.975</v>
-      </c>
       <c r="W352">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="X352">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y352">
         <v>-1</v>
       </c>
       <c r="Z352">
-        <v>0.4625</v>
+        <v>0.95</v>
       </c>
       <c r="AA352">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB352">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC352">
         <v>-1</v>
@@ -31953,7 +31953,7 @@
         <v>352</v>
       </c>
       <c r="B354">
-        <v>6810174</v>
+        <v>6810171</v>
       </c>
       <c r="C354" t="s">
         <v>28</v>
@@ -31965,76 +31965,76 @@
         <v>45325.59375</v>
       </c>
       <c r="F354" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G354" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H354">
+        <v>1</v>
+      </c>
+      <c r="I354">
         <v>0</v>
       </c>
-      <c r="I354">
-        <v>3</v>
-      </c>
       <c r="J354" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K354">
-        <v>1.909</v>
+        <v>3.2</v>
       </c>
       <c r="L354">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M354">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="N354">
-        <v>1.909</v>
+        <v>3.4</v>
       </c>
       <c r="O354">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P354">
-        <v>3.8</v>
+        <v>2.05</v>
       </c>
       <c r="Q354">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R354">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S354">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T354">
         <v>2.5</v>
       </c>
       <c r="U354">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V354">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W354">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X354">
         <v>-1</v>
       </c>
       <c r="Y354">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z354">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA354">
+        <v>-1</v>
+      </c>
+      <c r="AB354">
+        <v>-1</v>
+      </c>
+      <c r="AC354">
         <v>0.925</v>
-      </c>
-      <c r="AB354">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC354">
-        <v>-1</v>
       </c>
     </row>
     <row r="355" spans="1:29">
@@ -32042,7 +32042,7 @@
         <v>353</v>
       </c>
       <c r="B355">
-        <v>6810171</v>
+        <v>6810174</v>
       </c>
       <c r="C355" t="s">
         <v>28</v>
@@ -32054,76 +32054,76 @@
         <v>45325.59375</v>
       </c>
       <c r="F355" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G355" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H355">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I355">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J355" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K355">
-        <v>3.2</v>
+        <v>1.909</v>
       </c>
       <c r="L355">
+        <v>3.75</v>
+      </c>
+      <c r="M355">
         <v>3.5</v>
       </c>
-      <c r="M355">
-        <v>2.1</v>
-      </c>
       <c r="N355">
-        <v>3.4</v>
+        <v>1.909</v>
       </c>
       <c r="O355">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P355">
-        <v>2.05</v>
+        <v>3.8</v>
       </c>
       <c r="Q355">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R355">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S355">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T355">
         <v>2.5</v>
       </c>
       <c r="U355">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V355">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W355">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X355">
         <v>-1</v>
       </c>
       <c r="Y355">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z355">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA355">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB355">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC355">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="356" spans="1:29">
@@ -33283,7 +33283,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="369" spans="1:27">
+    <row r="369" spans="1:29">
       <c r="A369" s="1">
         <v>367</v>
       </c>
@@ -33305,6 +33305,15 @@
       <c r="G369" t="s">
         <v>29</v>
       </c>
+      <c r="H369">
+        <v>2</v>
+      </c>
+      <c r="I369">
+        <v>1</v>
+      </c>
+      <c r="J369" t="s">
+        <v>50</v>
+      </c>
       <c r="K369">
         <v>2.375</v>
       </c>
@@ -33315,13 +33324,13 @@
         <v>2.9</v>
       </c>
       <c r="N369">
-        <v>2.375</v>
+        <v>2.45</v>
       </c>
       <c r="O369">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P369">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="Q369">
         <v>-0.25</v>
@@ -33330,34 +33339,40 @@
         <v>2.05</v>
       </c>
       <c r="S369">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T369">
         <v>2.5</v>
       </c>
       <c r="U369">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V369">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W369">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="X369">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y369">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z369">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AA369">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="370" spans="1:27">
+        <v>-1</v>
+      </c>
+      <c r="AB369">
+        <v>1.025</v>
+      </c>
+      <c r="AC369">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="370" spans="1:29">
       <c r="A370" s="1">
         <v>368</v>
       </c>
@@ -33431,7 +33446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:27">
+    <row r="371" spans="1:29">
       <c r="A371" s="1">
         <v>369</v>
       </c>
@@ -33466,7 +33481,7 @@
         <v>2.3</v>
       </c>
       <c r="O371">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P371">
         <v>3</v>
@@ -33484,10 +33499,10 @@
         <v>2.5</v>
       </c>
       <c r="U371">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V371">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W371">
         <v>0</v>
@@ -33505,7 +33520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:27">
+    <row r="372" spans="1:29">
       <c r="A372" s="1">
         <v>370</v>
       </c>
@@ -33549,19 +33564,19 @@
         <v>-1</v>
       </c>
       <c r="R372">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S372">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T372">
         <v>2.75</v>
       </c>
       <c r="U372">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V372">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W372">
         <v>0</v>
@@ -33579,7 +33594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:27">
+    <row r="373" spans="1:29">
       <c r="A373" s="1">
         <v>371</v>
       </c>
@@ -33623,10 +33638,10 @@
         <v>0.5</v>
       </c>
       <c r="R373">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S373">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T373">
         <v>2.75</v>
@@ -33653,7 +33668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:27">
+    <row r="374" spans="1:29">
       <c r="A374" s="1">
         <v>372</v>
       </c>
@@ -33727,7 +33742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:27">
+    <row r="375" spans="1:29">
       <c r="A375" s="1">
         <v>373</v>
       </c>
@@ -33801,7 +33816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:27">
+    <row r="376" spans="1:29">
       <c r="A376" s="1">
         <v>374</v>
       </c>

--- a/Belgium First Division A/Belgium First Division A.xlsx
+++ b/Belgium First Division A/Belgium First Division A.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1896" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1884" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -109,10 +109,10 @@
     <t>Eupen</t>
   </si>
   <si>
-    <t>KV Oostende</t>
+    <t>Cercle Brugge</t>
   </si>
   <si>
-    <t>Cercle Brugge</t>
+    <t>KV Oostende</t>
   </si>
   <si>
     <t>Antwerp</t>
@@ -528,7 +528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC376"/>
+  <dimension ref="A1:AC373"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -803,7 +803,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5208561</v>
+        <v>5208691</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -818,46 +818,46 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
         <v>1</v>
-      </c>
-      <c r="I4">
-        <v>2</v>
       </c>
       <c r="J4" t="s">
         <v>49</v>
       </c>
       <c r="K4">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="L4">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M4">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="N4">
-        <v>1.7</v>
+        <v>2.15</v>
       </c>
       <c r="O4">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P4">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="Q4">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R4">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S4">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T4">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U4">
         <v>1.925</v>
@@ -872,19 +872,19 @@
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="Z4">
         <v>-1</v>
       </c>
       <c r="AA4">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB4">
+        <v>-1</v>
+      </c>
+      <c r="AC4">
         <v>0.925</v>
-      </c>
-      <c r="AC4">
-        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -892,7 +892,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5208691</v>
+        <v>5208561</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -907,46 +907,46 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J5" t="s">
         <v>49</v>
       </c>
       <c r="K5">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="L5">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M5">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="N5">
-        <v>2.15</v>
+        <v>1.7</v>
       </c>
       <c r="O5">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P5">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="Q5">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R5">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S5">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T5">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U5">
         <v>1.925</v>
@@ -961,19 +961,19 @@
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="Z5">
         <v>-1</v>
       </c>
       <c r="AA5">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB5">
         <v>0.925</v>
       </c>
-      <c r="AB5">
-        <v>-1</v>
-      </c>
       <c r="AC5">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1708,7 +1708,7 @@
         <v>40</v>
       </c>
       <c r="G14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H14">
         <v>2</v>
@@ -2153,7 +2153,7 @@
         <v>44</v>
       </c>
       <c r="G19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H19">
         <v>2</v>
@@ -2494,7 +2494,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5208701</v>
+        <v>5208571</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2509,73 +2509,73 @@
         <v>32</v>
       </c>
       <c r="G23" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K23">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="L23">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M23">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="N23">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="O23">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P23">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="Q23">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R23">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S23">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T23">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U23">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V23">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W23">
         <v>-1</v>
       </c>
       <c r="X23">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y23">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z23">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA23">
+        <v>0.875</v>
+      </c>
+      <c r="AB23">
+        <v>0.5</v>
+      </c>
+      <c r="AC23">
         <v>-0.5</v>
-      </c>
-      <c r="AB23">
-        <v>-1</v>
-      </c>
-      <c r="AC23">
-        <v>0.8</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2583,7 +2583,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5208571</v>
+        <v>5208701</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2598,73 +2598,73 @@
         <v>31</v>
       </c>
       <c r="G24" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K24">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="L24">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M24">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="N24">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="O24">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P24">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="Q24">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R24">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S24">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T24">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U24">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V24">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W24">
         <v>-1</v>
       </c>
       <c r="X24">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y24">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z24">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AA24">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB24">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC24">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -3218,10 +3218,10 @@
         <v>44947.59375</v>
       </c>
       <c r="F31" t="s">
+        <v>32</v>
+      </c>
+      <c r="G31" t="s">
         <v>31</v>
-      </c>
-      <c r="G31" t="s">
-        <v>32</v>
       </c>
       <c r="H31">
         <v>1</v>
@@ -3918,7 +3918,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>5208580</v>
+        <v>5208579</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3930,34 +3930,34 @@
         <v>44954.59375</v>
       </c>
       <c r="F39" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G39" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J39" t="s">
         <v>48</v>
       </c>
       <c r="K39">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="L39">
         <v>3.4</v>
       </c>
       <c r="M39">
+        <v>3</v>
+      </c>
+      <c r="N39">
+        <v>2.2</v>
+      </c>
+      <c r="O39">
         <v>3.2</v>
-      </c>
-      <c r="N39">
-        <v>2.1</v>
-      </c>
-      <c r="O39">
-        <v>3.4</v>
       </c>
       <c r="P39">
         <v>3.1</v>
@@ -3966,25 +3966,25 @@
         <v>-0.25</v>
       </c>
       <c r="R39">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S39">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T39">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U39">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V39">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W39">
         <v>-1</v>
       </c>
       <c r="X39">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="Y39">
         <v>-1</v>
@@ -3993,13 +3993,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA39">
-        <v>0.475</v>
+        <v>0.4375</v>
       </c>
       <c r="AB39">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC39">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4007,7 +4007,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>5208579</v>
+        <v>5208580</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4019,34 +4019,34 @@
         <v>44954.59375</v>
       </c>
       <c r="F40" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J40" t="s">
         <v>48</v>
       </c>
       <c r="K40">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="L40">
         <v>3.4</v>
       </c>
       <c r="M40">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="N40">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="O40">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P40">
         <v>3.1</v>
@@ -4055,25 +4055,25 @@
         <v>-0.25</v>
       </c>
       <c r="R40">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S40">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T40">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U40">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V40">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W40">
         <v>-1</v>
       </c>
       <c r="X40">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="Y40">
         <v>-1</v>
@@ -4082,13 +4082,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA40">
-        <v>0.4375</v>
+        <v>0.475</v>
       </c>
       <c r="AB40">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC40">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4286,7 +4286,7 @@
         <v>44955.5</v>
       </c>
       <c r="F43" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G43" t="s">
         <v>42</v>
@@ -4642,7 +4642,7 @@
         <v>44960.69791666666</v>
       </c>
       <c r="F47" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G47" t="s">
         <v>36</v>
@@ -4731,7 +4731,7 @@
         <v>44961.5</v>
       </c>
       <c r="F48" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G48" t="s">
         <v>29</v>
@@ -5446,7 +5446,7 @@
         <v>37</v>
       </c>
       <c r="G56" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -6158,7 +6158,7 @@
         <v>35</v>
       </c>
       <c r="G64" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H64">
         <v>1</v>
@@ -6511,7 +6511,7 @@
         <v>44975.59375</v>
       </c>
       <c r="F68" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G68" t="s">
         <v>44</v>
@@ -6689,7 +6689,7 @@
         <v>44976.39583333334</v>
       </c>
       <c r="F70" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G70" t="s">
         <v>41</v>
@@ -7226,7 +7226,7 @@
         <v>30</v>
       </c>
       <c r="G76" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H76">
         <v>2</v>
@@ -7315,7 +7315,7 @@
         <v>34</v>
       </c>
       <c r="G77" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H77">
         <v>3</v>
@@ -7846,7 +7846,7 @@
         <v>44988.69791666666</v>
       </c>
       <c r="F83" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G83" t="s">
         <v>41</v>
@@ -8024,7 +8024,7 @@
         <v>44989.59375</v>
       </c>
       <c r="F85" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G85" t="s">
         <v>39</v>
@@ -8828,7 +8828,7 @@
         <v>30</v>
       </c>
       <c r="G94" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H94">
         <v>4</v>
@@ -9362,7 +9362,7 @@
         <v>36</v>
       </c>
       <c r="G100" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H100">
         <v>2</v>
@@ -9448,7 +9448,7 @@
         <v>45002.69791666666</v>
       </c>
       <c r="F101" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G101" t="s">
         <v>34</v>
@@ -9614,7 +9614,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>5208613</v>
+        <v>5208612</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9626,76 +9626,76 @@
         <v>45003.59375</v>
       </c>
       <c r="F103" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="G103" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H103">
+        <v>2</v>
+      </c>
+      <c r="I103">
         <v>1</v>
       </c>
-      <c r="I103">
-        <v>2</v>
-      </c>
       <c r="J103" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K103">
-        <v>3.3</v>
+        <v>1.45</v>
       </c>
       <c r="L103">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M103">
-        <v>2.05</v>
+        <v>6</v>
       </c>
       <c r="N103">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
       <c r="O103">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P103">
-        <v>2.3</v>
+        <v>6.5</v>
       </c>
       <c r="Q103">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R103">
+        <v>2</v>
+      </c>
+      <c r="S103">
         <v>1.85</v>
       </c>
-      <c r="S103">
-        <v>2</v>
-      </c>
       <c r="T103">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U103">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V103">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W103">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X103">
         <v>-1</v>
       </c>
       <c r="Y103">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z103">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA103">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="AB103">
-        <v>0.45</v>
+        <v>1.025</v>
       </c>
       <c r="AC103">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9703,7 +9703,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>5208612</v>
+        <v>5208613</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9715,76 +9715,76 @@
         <v>45003.59375</v>
       </c>
       <c r="F104" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G104" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I104">
+        <v>2</v>
+      </c>
+      <c r="J104" t="s">
+        <v>49</v>
+      </c>
+      <c r="K104">
+        <v>3.3</v>
+      </c>
+      <c r="L104">
+        <v>3.3</v>
+      </c>
+      <c r="M104">
+        <v>2.05</v>
+      </c>
+      <c r="N104">
+        <v>2.8</v>
+      </c>
+      <c r="O104">
+        <v>3.3</v>
+      </c>
+      <c r="P104">
+        <v>2.3</v>
+      </c>
+      <c r="Q104">
+        <v>0.25</v>
+      </c>
+      <c r="R104">
+        <v>1.85</v>
+      </c>
+      <c r="S104">
+        <v>2</v>
+      </c>
+      <c r="T104">
+        <v>2.75</v>
+      </c>
+      <c r="U104">
+        <v>1.9</v>
+      </c>
+      <c r="V104">
+        <v>1.95</v>
+      </c>
+      <c r="W104">
+        <v>-1</v>
+      </c>
+      <c r="X104">
+        <v>-1</v>
+      </c>
+      <c r="Y104">
+        <v>1.3</v>
+      </c>
+      <c r="Z104">
+        <v>-1</v>
+      </c>
+      <c r="AA104">
         <v>1</v>
       </c>
-      <c r="J104" t="s">
-        <v>50</v>
-      </c>
-      <c r="K104">
-        <v>1.45</v>
-      </c>
-      <c r="L104">
-        <v>4</v>
-      </c>
-      <c r="M104">
-        <v>6</v>
-      </c>
-      <c r="N104">
-        <v>1.5</v>
-      </c>
-      <c r="O104">
-        <v>3.75</v>
-      </c>
-      <c r="P104">
-        <v>6.5</v>
-      </c>
-      <c r="Q104">
-        <v>-1</v>
-      </c>
-      <c r="R104">
-        <v>2</v>
-      </c>
-      <c r="S104">
-        <v>1.85</v>
-      </c>
-      <c r="T104">
-        <v>2.25</v>
-      </c>
-      <c r="U104">
-        <v>2.025</v>
-      </c>
-      <c r="V104">
-        <v>1.825</v>
-      </c>
-      <c r="W104">
-        <v>0.5</v>
-      </c>
-      <c r="X104">
-        <v>-1</v>
-      </c>
-      <c r="Y104">
-        <v>-1</v>
-      </c>
-      <c r="Z104">
-        <v>0</v>
-      </c>
-      <c r="AA104">
-        <v>-0</v>
-      </c>
       <c r="AB104">
-        <v>1.025</v>
+        <v>0.45</v>
       </c>
       <c r="AC104">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -10338,7 +10338,7 @@
         <v>45017.45833333334</v>
       </c>
       <c r="F111" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G111" t="s">
         <v>45</v>
@@ -10605,7 +10605,7 @@
         <v>45017.65625</v>
       </c>
       <c r="F114" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G114" t="s">
         <v>29</v>
@@ -11587,7 +11587,7 @@
         <v>33</v>
       </c>
       <c r="G125" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H125">
         <v>2</v>
@@ -11765,7 +11765,7 @@
         <v>46</v>
       </c>
       <c r="G127" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H127">
         <v>5</v>
@@ -12029,7 +12029,7 @@
         <v>45031.55208333334</v>
       </c>
       <c r="F130" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G130" t="s">
         <v>37</v>
@@ -12118,7 +12118,7 @@
         <v>45031.55208333334</v>
       </c>
       <c r="F131" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G131" t="s">
         <v>46</v>
@@ -12833,7 +12833,7 @@
         <v>35</v>
       </c>
       <c r="G139" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H139">
         <v>2</v>
@@ -13100,7 +13100,7 @@
         <v>42</v>
       </c>
       <c r="G142" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H142">
         <v>1</v>
@@ -13542,7 +13542,7 @@
         <v>45045.55208333334</v>
       </c>
       <c r="F147" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G147" t="s">
         <v>29</v>
@@ -13990,7 +13990,7 @@
         <v>38</v>
       </c>
       <c r="G152" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H152">
         <v>3</v>
@@ -14165,7 +14165,7 @@
         <v>45059.55208333334</v>
       </c>
       <c r="F154" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G154" t="s">
         <v>42</v>
@@ -14613,7 +14613,7 @@
         <v>42</v>
       </c>
       <c r="G159" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H159">
         <v>2</v>
@@ -14969,7 +14969,7 @@
         <v>29</v>
       </c>
       <c r="G163" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H163">
         <v>0</v>
@@ -15233,7 +15233,7 @@
         <v>45080.64583333334</v>
       </c>
       <c r="F166" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G166" t="s">
         <v>38</v>
@@ -15948,7 +15948,7 @@
         <v>33</v>
       </c>
       <c r="G174" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H174">
         <v>1</v>
@@ -16479,7 +16479,7 @@
         <v>45143.55208333334</v>
       </c>
       <c r="F180" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G180" t="s">
         <v>44</v>
@@ -17369,7 +17369,7 @@
         <v>45151.45833333334</v>
       </c>
       <c r="F190" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G190" t="s">
         <v>34</v>
@@ -17817,7 +17817,7 @@
         <v>29</v>
       </c>
       <c r="G195" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H195">
         <v>0</v>
@@ -18707,7 +18707,7 @@
         <v>46</v>
       </c>
       <c r="G205" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H205">
         <v>0</v>
@@ -18971,7 +18971,7 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F208" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G208" t="s">
         <v>38</v>
@@ -19686,7 +19686,7 @@
         <v>47</v>
       </c>
       <c r="G216" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H216">
         <v>2</v>
@@ -20751,7 +20751,7 @@
         <v>45193.45833333334</v>
       </c>
       <c r="F228" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G228" t="s">
         <v>43</v>
@@ -21288,7 +21288,7 @@
         <v>45</v>
       </c>
       <c r="G234" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H234">
         <v>2</v>
@@ -22086,7 +22086,7 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F243" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G243" t="s">
         <v>37</v>
@@ -23154,7 +23154,7 @@
         <v>45221.45833333334</v>
       </c>
       <c r="F255" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G255" t="s">
         <v>42</v>
@@ -23513,7 +23513,7 @@
         <v>40</v>
       </c>
       <c r="G259" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H259">
         <v>0</v>
@@ -24489,7 +24489,7 @@
         <v>45235.39583333334</v>
       </c>
       <c r="F270" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G270" t="s">
         <v>36</v>
@@ -25204,7 +25204,7 @@
         <v>41</v>
       </c>
       <c r="G278" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H278">
         <v>0</v>
@@ -25646,7 +25646,7 @@
         <v>45255.5</v>
       </c>
       <c r="F283" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G283" t="s">
         <v>30</v>
@@ -26895,7 +26895,7 @@
         <v>43</v>
       </c>
       <c r="G297" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H297">
         <v>2</v>
@@ -27070,7 +27070,7 @@
         <v>45269.5</v>
       </c>
       <c r="F299" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G299" t="s">
         <v>33</v>
@@ -27785,7 +27785,7 @@
         <v>37</v>
       </c>
       <c r="G307" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H307">
         <v>1</v>
@@ -28405,7 +28405,7 @@
         <v>45280.60416666666</v>
       </c>
       <c r="F314" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G314" t="s">
         <v>45</v>
@@ -28838,7 +28838,7 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>6810130</v>
+        <v>6810132</v>
       </c>
       <c r="C319" t="s">
         <v>28</v>
@@ -28850,76 +28850,76 @@
         <v>45283.59375</v>
       </c>
       <c r="F319" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="G319" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H319">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I319">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J319" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K319">
-        <v>1.363</v>
+        <v>2.2</v>
       </c>
       <c r="L319">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="M319">
-        <v>7.5</v>
+        <v>3.2</v>
       </c>
       <c r="N319">
-        <v>1.333</v>
+        <v>2.3</v>
       </c>
       <c r="O319">
-        <v>5.25</v>
+        <v>3.3</v>
       </c>
       <c r="P319">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="Q319">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R319">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S319">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T319">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U319">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V319">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W319">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X319">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Y319">
         <v>-1</v>
       </c>
       <c r="Z319">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA319">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB319">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC319">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320" spans="1:29">
@@ -28927,7 +28927,7 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>6810132</v>
+        <v>6810130</v>
       </c>
       <c r="C320" t="s">
         <v>28</v>
@@ -28939,76 +28939,76 @@
         <v>45283.59375</v>
       </c>
       <c r="F320" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G320" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H320">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I320">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J320" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K320">
-        <v>2.2</v>
+        <v>1.363</v>
       </c>
       <c r="L320">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="M320">
-        <v>3.2</v>
+        <v>7.5</v>
       </c>
       <c r="N320">
-        <v>2.3</v>
+        <v>1.333</v>
       </c>
       <c r="O320">
-        <v>3.3</v>
+        <v>5.25</v>
       </c>
       <c r="P320">
+        <v>8</v>
+      </c>
+      <c r="Q320">
+        <v>-1.5</v>
+      </c>
+      <c r="R320">
+        <v>1.9</v>
+      </c>
+      <c r="S320">
+        <v>1.95</v>
+      </c>
+      <c r="T320">
         <v>3</v>
       </c>
-      <c r="Q320">
-        <v>-0.25</v>
-      </c>
-      <c r="R320">
-        <v>2</v>
-      </c>
-      <c r="S320">
-        <v>1.85</v>
-      </c>
-      <c r="T320">
-        <v>2.25</v>
-      </c>
       <c r="U320">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V320">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W320">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X320">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Y320">
         <v>-1</v>
       </c>
       <c r="Z320">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA320">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB320">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC320">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="321" spans="1:29">
@@ -29743,7 +29743,7 @@
         <v>36</v>
       </c>
       <c r="G329" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H329">
         <v>2</v>
@@ -29921,7 +29921,7 @@
         <v>34</v>
       </c>
       <c r="G331" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H331">
         <v>1</v>
@@ -30452,7 +30452,7 @@
         <v>45317.69791666666</v>
       </c>
       <c r="F337" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G337" t="s">
         <v>29</v>
@@ -31167,7 +31167,7 @@
         <v>38</v>
       </c>
       <c r="G345" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H345">
         <v>4</v>
@@ -32499,7 +32499,7 @@
         <v>45326.63541666666</v>
       </c>
       <c r="F360" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G360" t="s">
         <v>46</v>
@@ -33214,7 +33214,7 @@
         <v>42</v>
       </c>
       <c r="G368" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H368">
         <v>1</v>
@@ -33377,7 +33377,7 @@
         <v>368</v>
       </c>
       <c r="B370">
-        <v>6810193</v>
+        <v>6810194</v>
       </c>
       <c r="C370" t="s">
         <v>28</v>
@@ -33386,34 +33386,34 @@
         <v>28</v>
       </c>
       <c r="E370" s="2">
-        <v>45339.5</v>
+        <v>45340.39583333334</v>
       </c>
       <c r="F370" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G370" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="K370">
-        <v>1.3</v>
+        <v>3</v>
       </c>
       <c r="L370">
-        <v>5.75</v>
+        <v>3.6</v>
       </c>
       <c r="M370">
-        <v>9</v>
+        <v>2.25</v>
       </c>
       <c r="N370">
-        <v>1.3</v>
+        <v>3.4</v>
       </c>
       <c r="O370">
-        <v>5.75</v>
+        <v>3.75</v>
       </c>
       <c r="P370">
-        <v>8.5</v>
+        <v>2.05</v>
       </c>
       <c r="Q370">
-        <v>-1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R370">
         <v>1.85</v>
@@ -33422,13 +33422,13 @@
         <v>2</v>
       </c>
       <c r="T370">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U370">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V370">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W370">
         <v>0</v>
@@ -33451,7 +33451,7 @@
         <v>369</v>
       </c>
       <c r="B371">
-        <v>6810192</v>
+        <v>6810190</v>
       </c>
       <c r="C371" t="s">
         <v>28</v>
@@ -33460,49 +33460,49 @@
         <v>28</v>
       </c>
       <c r="E371" s="2">
-        <v>45339.59375</v>
+        <v>45340.5</v>
       </c>
       <c r="F371" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G371" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K371">
-        <v>2.25</v>
+        <v>6</v>
       </c>
       <c r="L371">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="M371">
-        <v>3.1</v>
+        <v>1.444</v>
       </c>
       <c r="N371">
-        <v>2.375</v>
+        <v>7.5</v>
       </c>
       <c r="O371">
-        <v>3.3</v>
+        <v>5.25</v>
       </c>
       <c r="P371">
+        <v>1.363</v>
+      </c>
+      <c r="Q371">
+        <v>1.5</v>
+      </c>
+      <c r="R371">
+        <v>1.825</v>
+      </c>
+      <c r="S371">
+        <v>2.025</v>
+      </c>
+      <c r="T371">
         <v>3</v>
       </c>
-      <c r="Q371">
-        <v>-0.25</v>
-      </c>
-      <c r="R371">
-        <v>2.05</v>
-      </c>
-      <c r="S371">
-        <v>1.8</v>
-      </c>
-      <c r="T371">
-        <v>2.25</v>
-      </c>
       <c r="U371">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V371">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="W371">
         <v>0</v>
@@ -33525,7 +33525,7 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>6810188</v>
+        <v>6810187</v>
       </c>
       <c r="C372" t="s">
         <v>28</v>
@@ -33534,49 +33534,49 @@
         <v>28</v>
       </c>
       <c r="E372" s="2">
-        <v>45339.69791666666</v>
+        <v>45340.60416666666</v>
       </c>
       <c r="F372" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G372" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="K372">
-        <v>1.533</v>
+        <v>1.571</v>
       </c>
       <c r="L372">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M372">
         <v>6</v>
       </c>
       <c r="N372">
-        <v>1.571</v>
+        <v>1.65</v>
       </c>
       <c r="O372">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P372">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="Q372">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R372">
+        <v>1.825</v>
+      </c>
+      <c r="S372">
         <v>2.025</v>
       </c>
-      <c r="S372">
-        <v>1.825</v>
-      </c>
       <c r="T372">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U372">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V372">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W372">
         <v>0</v>
@@ -33599,7 +33599,7 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>6810194</v>
+        <v>6810191</v>
       </c>
       <c r="C373" t="s">
         <v>28</v>
@@ -33608,49 +33608,49 @@
         <v>28</v>
       </c>
       <c r="E373" s="2">
-        <v>45340.39583333334</v>
+        <v>45340.63541666666</v>
       </c>
       <c r="F373" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G373" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K373">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L373">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M373">
-        <v>2.25</v>
+        <v>1.65</v>
       </c>
       <c r="N373">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="O373">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P373">
-        <v>2.05</v>
+        <v>1.727</v>
       </c>
       <c r="Q373">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R373">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S373">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T373">
         <v>2.75</v>
       </c>
       <c r="U373">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V373">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W373">
         <v>0</v>
@@ -33665,228 +33665,6 @@
         <v>0</v>
       </c>
       <c r="AA373">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="374" spans="1:29">
-      <c r="A374" s="1">
-        <v>372</v>
-      </c>
-      <c r="B374">
-        <v>6810190</v>
-      </c>
-      <c r="C374" t="s">
-        <v>28</v>
-      </c>
-      <c r="D374" t="s">
-        <v>28</v>
-      </c>
-      <c r="E374" s="2">
-        <v>45340.5</v>
-      </c>
-      <c r="F374" t="s">
-        <v>45</v>
-      </c>
-      <c r="G374" t="s">
-        <v>43</v>
-      </c>
-      <c r="K374">
-        <v>6</v>
-      </c>
-      <c r="L374">
-        <v>4.75</v>
-      </c>
-      <c r="M374">
-        <v>1.444</v>
-      </c>
-      <c r="N374">
-        <v>7.5</v>
-      </c>
-      <c r="O374">
-        <v>5.25</v>
-      </c>
-      <c r="P374">
-        <v>1.363</v>
-      </c>
-      <c r="Q374">
-        <v>1.5</v>
-      </c>
-      <c r="R374">
-        <v>1.825</v>
-      </c>
-      <c r="S374">
-        <v>2.025</v>
-      </c>
-      <c r="T374">
-        <v>3</v>
-      </c>
-      <c r="U374">
-        <v>1.975</v>
-      </c>
-      <c r="V374">
-        <v>1.875</v>
-      </c>
-      <c r="W374">
-        <v>0</v>
-      </c>
-      <c r="X374">
-        <v>0</v>
-      </c>
-      <c r="Y374">
-        <v>0</v>
-      </c>
-      <c r="Z374">
-        <v>0</v>
-      </c>
-      <c r="AA374">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="375" spans="1:29">
-      <c r="A375" s="1">
-        <v>373</v>
-      </c>
-      <c r="B375">
-        <v>6810187</v>
-      </c>
-      <c r="C375" t="s">
-        <v>28</v>
-      </c>
-      <c r="D375" t="s">
-        <v>28</v>
-      </c>
-      <c r="E375" s="2">
-        <v>45340.60416666666</v>
-      </c>
-      <c r="F375" t="s">
-        <v>36</v>
-      </c>
-      <c r="G375" t="s">
-        <v>46</v>
-      </c>
-      <c r="K375">
-        <v>1.571</v>
-      </c>
-      <c r="L375">
-        <v>4</v>
-      </c>
-      <c r="M375">
-        <v>6</v>
-      </c>
-      <c r="N375">
-        <v>1.615</v>
-      </c>
-      <c r="O375">
-        <v>3.8</v>
-      </c>
-      <c r="P375">
-        <v>5.75</v>
-      </c>
-      <c r="Q375">
-        <v>-1</v>
-      </c>
-      <c r="R375">
-        <v>2.1</v>
-      </c>
-      <c r="S375">
-        <v>1.775</v>
-      </c>
-      <c r="T375">
-        <v>2.5</v>
-      </c>
-      <c r="U375">
-        <v>1.85</v>
-      </c>
-      <c r="V375">
-        <v>2</v>
-      </c>
-      <c r="W375">
-        <v>0</v>
-      </c>
-      <c r="X375">
-        <v>0</v>
-      </c>
-      <c r="Y375">
-        <v>0</v>
-      </c>
-      <c r="Z375">
-        <v>0</v>
-      </c>
-      <c r="AA375">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="376" spans="1:29">
-      <c r="A376" s="1">
-        <v>374</v>
-      </c>
-      <c r="B376">
-        <v>6810191</v>
-      </c>
-      <c r="C376" t="s">
-        <v>28</v>
-      </c>
-      <c r="D376" t="s">
-        <v>28</v>
-      </c>
-      <c r="E376" s="2">
-        <v>45340.63541666666</v>
-      </c>
-      <c r="F376" t="s">
-        <v>30</v>
-      </c>
-      <c r="G376" t="s">
-        <v>42</v>
-      </c>
-      <c r="K376">
-        <v>5</v>
-      </c>
-      <c r="L376">
-        <v>4</v>
-      </c>
-      <c r="M376">
-        <v>1.65</v>
-      </c>
-      <c r="N376">
-        <v>5</v>
-      </c>
-      <c r="O376">
-        <v>4</v>
-      </c>
-      <c r="P376">
-        <v>1.666</v>
-      </c>
-      <c r="Q376">
-        <v>0.75</v>
-      </c>
-      <c r="R376">
-        <v>1.975</v>
-      </c>
-      <c r="S376">
-        <v>1.875</v>
-      </c>
-      <c r="T376">
-        <v>2.75</v>
-      </c>
-      <c r="U376">
-        <v>1.875</v>
-      </c>
-      <c r="V376">
-        <v>1.975</v>
-      </c>
-      <c r="W376">
-        <v>0</v>
-      </c>
-      <c r="X376">
-        <v>0</v>
-      </c>
-      <c r="Y376">
-        <v>0</v>
-      </c>
-      <c r="Z376">
-        <v>0</v>
-      </c>
-      <c r="AA376">
         <v>0</v>
       </c>
     </row>

--- a/Belgium First Division A/Belgium First Division A.xlsx
+++ b/Belgium First Division A/Belgium First Division A.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1884" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1903" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -528,7 +528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC373"/>
+  <dimension ref="A1:AC376"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2316,7 +2316,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5208698</v>
+        <v>5208702</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2328,76 +2328,76 @@
         <v>44943.69791666666</v>
       </c>
       <c r="F21" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G21" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H21">
         <v>2</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>4.2</v>
       </c>
       <c r="L21">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M21">
-        <v>3.5</v>
+        <v>1.75</v>
       </c>
       <c r="N21">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="O21">
         <v>3.6</v>
       </c>
       <c r="P21">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="Q21">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R21">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S21">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T21">
         <v>2.75</v>
       </c>
       <c r="U21">
+        <v>1.825</v>
+      </c>
+      <c r="V21">
         <v>2.025</v>
       </c>
-      <c r="V21">
-        <v>1.825</v>
-      </c>
       <c r="W21">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X21">
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z21">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA21">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB21">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC21">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2405,7 +2405,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5208702</v>
+        <v>5208698</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2417,76 +2417,76 @@
         <v>44943.69791666666</v>
       </c>
       <c r="F22" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G22" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H22">
         <v>2</v>
       </c>
       <c r="I22">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K22">
-        <v>4.2</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M22">
-        <v>1.75</v>
+        <v>3.5</v>
       </c>
       <c r="N22">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="O22">
         <v>3.6</v>
       </c>
       <c r="P22">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q22">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R22">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S22">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T22">
         <v>2.75</v>
       </c>
       <c r="U22">
+        <v>2.025</v>
+      </c>
+      <c r="V22">
         <v>1.825</v>
       </c>
-      <c r="V22">
-        <v>2.025</v>
-      </c>
       <c r="W22">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X22">
         <v>-1</v>
       </c>
       <c r="Y22">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z22">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA22">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB22">
+        <v>-1</v>
+      </c>
+      <c r="AC22">
         <v>0.825</v>
-      </c>
-      <c r="AC22">
-        <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2494,7 +2494,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5208571</v>
+        <v>5208701</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2506,76 +2506,76 @@
         <v>44944.60416666666</v>
       </c>
       <c r="F23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G23" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K23">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="L23">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M23">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="N23">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="O23">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P23">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="Q23">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R23">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S23">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T23">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U23">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V23">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W23">
         <v>-1</v>
       </c>
       <c r="X23">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y23">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z23">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AA23">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB23">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC23">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2583,7 +2583,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5208701</v>
+        <v>5208571</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2595,76 +2595,76 @@
         <v>44944.60416666666</v>
       </c>
       <c r="F24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G24" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J24" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K24">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="L24">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M24">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="N24">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="O24">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P24">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="Q24">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R24">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S24">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T24">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U24">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V24">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W24">
         <v>-1</v>
       </c>
       <c r="X24">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y24">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z24">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA24">
+        <v>0.875</v>
+      </c>
+      <c r="AB24">
+        <v>0.5</v>
+      </c>
+      <c r="AC24">
         <v>-0.5</v>
-      </c>
-      <c r="AB24">
-        <v>-1</v>
-      </c>
-      <c r="AC24">
-        <v>0.8</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2672,7 +2672,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5208569</v>
+        <v>5208568</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2684,73 +2684,73 @@
         <v>44944.69791666666</v>
       </c>
       <c r="F25" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G25" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H25">
+        <v>2</v>
+      </c>
+      <c r="I25">
         <v>3</v>
       </c>
-      <c r="I25">
-        <v>2</v>
-      </c>
       <c r="J25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K25">
-        <v>1.85</v>
+        <v>1.4</v>
       </c>
       <c r="L25">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M25">
-        <v>3.8</v>
+        <v>6.5</v>
       </c>
       <c r="N25">
-        <v>1.666</v>
+        <v>1.7</v>
       </c>
       <c r="O25">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P25">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="Q25">
         <v>-0.75</v>
       </c>
       <c r="R25">
+        <v>1.925</v>
+      </c>
+      <c r="S25">
+        <v>1.925</v>
+      </c>
+      <c r="T25">
+        <v>2.75</v>
+      </c>
+      <c r="U25">
+        <v>1.975</v>
+      </c>
+      <c r="V25">
         <v>1.875</v>
       </c>
-      <c r="S25">
-        <v>1.975</v>
-      </c>
-      <c r="T25">
-        <v>2.5</v>
-      </c>
-      <c r="U25">
-        <v>1.95</v>
-      </c>
-      <c r="V25">
-        <v>1.9</v>
-      </c>
       <c r="W25">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X25">
         <v>-1</v>
       </c>
       <c r="Y25">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z25">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA25">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB25">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC25">
         <v>-1</v>
@@ -2761,7 +2761,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>5208568</v>
+        <v>5208569</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2773,73 +2773,73 @@
         <v>44944.69791666666</v>
       </c>
       <c r="F26" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G26" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J26" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K26">
-        <v>1.4</v>
+        <v>1.85</v>
       </c>
       <c r="L26">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M26">
-        <v>6.5</v>
+        <v>3.8</v>
       </c>
       <c r="N26">
-        <v>1.7</v>
+        <v>1.666</v>
       </c>
       <c r="O26">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P26">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="Q26">
         <v>-0.75</v>
       </c>
       <c r="R26">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S26">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T26">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U26">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V26">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W26">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X26">
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z26">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA26">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AB26">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC26">
         <v>-1</v>
@@ -7211,7 +7211,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>5208727</v>
+        <v>5208597</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7223,76 +7223,76 @@
         <v>44982.59375</v>
       </c>
       <c r="F76" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G76" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I76">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J76" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K76">
-        <v>3.25</v>
+        <v>1.333</v>
       </c>
       <c r="L76">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="M76">
-        <v>2.1</v>
+        <v>7.5</v>
       </c>
       <c r="N76">
-        <v>4</v>
+        <v>1.4</v>
       </c>
       <c r="O76">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="P76">
-        <v>1.909</v>
+        <v>6.5</v>
       </c>
       <c r="Q76">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R76">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S76">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T76">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U76">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V76">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W76">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X76">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y76">
         <v>-1</v>
       </c>
       <c r="Z76">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA76">
         <v>-1</v>
       </c>
       <c r="AB76">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC76">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7300,7 +7300,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>5208597</v>
+        <v>5208727</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7312,76 +7312,76 @@
         <v>44982.59375</v>
       </c>
       <c r="F77" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G77" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H77">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I77">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J77" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K77">
-        <v>1.333</v>
+        <v>3.25</v>
       </c>
       <c r="L77">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="M77">
-        <v>7.5</v>
+        <v>2.1</v>
       </c>
       <c r="N77">
-        <v>1.4</v>
+        <v>4</v>
       </c>
       <c r="O77">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="P77">
-        <v>6.5</v>
+        <v>1.909</v>
       </c>
       <c r="Q77">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R77">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S77">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T77">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U77">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V77">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W77">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X77">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y77">
         <v>-1</v>
       </c>
       <c r="Z77">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA77">
         <v>-1</v>
       </c>
       <c r="AB77">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC77">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -9614,7 +9614,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>5208612</v>
+        <v>5208613</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9626,76 +9626,76 @@
         <v>45003.59375</v>
       </c>
       <c r="F103" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G103" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I103">
+        <v>2</v>
+      </c>
+      <c r="J103" t="s">
+        <v>49</v>
+      </c>
+      <c r="K103">
+        <v>3.3</v>
+      </c>
+      <c r="L103">
+        <v>3.3</v>
+      </c>
+      <c r="M103">
+        <v>2.05</v>
+      </c>
+      <c r="N103">
+        <v>2.8</v>
+      </c>
+      <c r="O103">
+        <v>3.3</v>
+      </c>
+      <c r="P103">
+        <v>2.3</v>
+      </c>
+      <c r="Q103">
+        <v>0.25</v>
+      </c>
+      <c r="R103">
+        <v>1.85</v>
+      </c>
+      <c r="S103">
+        <v>2</v>
+      </c>
+      <c r="T103">
+        <v>2.75</v>
+      </c>
+      <c r="U103">
+        <v>1.9</v>
+      </c>
+      <c r="V103">
+        <v>1.95</v>
+      </c>
+      <c r="W103">
+        <v>-1</v>
+      </c>
+      <c r="X103">
+        <v>-1</v>
+      </c>
+      <c r="Y103">
+        <v>1.3</v>
+      </c>
+      <c r="Z103">
+        <v>-1</v>
+      </c>
+      <c r="AA103">
         <v>1</v>
       </c>
-      <c r="J103" t="s">
-        <v>50</v>
-      </c>
-      <c r="K103">
-        <v>1.45</v>
-      </c>
-      <c r="L103">
-        <v>4</v>
-      </c>
-      <c r="M103">
-        <v>6</v>
-      </c>
-      <c r="N103">
-        <v>1.5</v>
-      </c>
-      <c r="O103">
-        <v>3.75</v>
-      </c>
-      <c r="P103">
-        <v>6.5</v>
-      </c>
-      <c r="Q103">
-        <v>-1</v>
-      </c>
-      <c r="R103">
-        <v>2</v>
-      </c>
-      <c r="S103">
-        <v>1.85</v>
-      </c>
-      <c r="T103">
-        <v>2.25</v>
-      </c>
-      <c r="U103">
-        <v>2.025</v>
-      </c>
-      <c r="V103">
-        <v>1.825</v>
-      </c>
-      <c r="W103">
-        <v>0.5</v>
-      </c>
-      <c r="X103">
-        <v>-1</v>
-      </c>
-      <c r="Y103">
-        <v>-1</v>
-      </c>
-      <c r="Z103">
-        <v>0</v>
-      </c>
-      <c r="AA103">
-        <v>-0</v>
-      </c>
       <c r="AB103">
-        <v>1.025</v>
+        <v>0.45</v>
       </c>
       <c r="AC103">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9703,7 +9703,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>5208613</v>
+        <v>5208612</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9715,76 +9715,76 @@
         <v>45003.59375</v>
       </c>
       <c r="F104" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G104" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H104">
+        <v>2</v>
+      </c>
+      <c r="I104">
         <v>1</v>
       </c>
-      <c r="I104">
-        <v>2</v>
-      </c>
       <c r="J104" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K104">
-        <v>3.3</v>
+        <v>1.45</v>
       </c>
       <c r="L104">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M104">
-        <v>2.05</v>
+        <v>6</v>
       </c>
       <c r="N104">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
       <c r="O104">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P104">
-        <v>2.3</v>
+        <v>6.5</v>
       </c>
       <c r="Q104">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R104">
+        <v>2</v>
+      </c>
+      <c r="S104">
         <v>1.85</v>
       </c>
-      <c r="S104">
-        <v>2</v>
-      </c>
       <c r="T104">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U104">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V104">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W104">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X104">
         <v>-1</v>
       </c>
       <c r="Y104">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z104">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA104">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="AB104">
-        <v>0.45</v>
+        <v>1.025</v>
       </c>
       <c r="AC104">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -10415,7 +10415,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>5356593</v>
+        <v>5351637</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10427,55 +10427,55 @@
         <v>45017.55208333334</v>
       </c>
       <c r="F112" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G112" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J112" t="s">
         <v>49</v>
       </c>
       <c r="K112">
-        <v>2</v>
+        <v>6.5</v>
       </c>
       <c r="L112">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M112">
-        <v>3.25</v>
+        <v>1.444</v>
       </c>
       <c r="N112">
-        <v>2.1</v>
+        <v>9.5</v>
       </c>
       <c r="O112">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P112">
-        <v>3.1</v>
+        <v>1.285</v>
       </c>
       <c r="Q112">
-        <v>-0.25</v>
+        <v>1.5</v>
       </c>
       <c r="R112">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S112">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T112">
         <v>2.75</v>
       </c>
       <c r="U112">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V112">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W112">
         <v>-1</v>
@@ -10484,16 +10484,16 @@
         <v>-1</v>
       </c>
       <c r="Y112">
-        <v>2.1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="Z112">
         <v>-1</v>
       </c>
       <c r="AA112">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB112">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC112">
         <v>-1</v>
@@ -10504,7 +10504,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>5351637</v>
+        <v>5356593</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10516,55 +10516,55 @@
         <v>45017.55208333334</v>
       </c>
       <c r="F113" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G113" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J113" t="s">
         <v>49</v>
       </c>
       <c r="K113">
-        <v>6.5</v>
+        <v>2</v>
       </c>
       <c r="L113">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M113">
-        <v>1.444</v>
+        <v>3.25</v>
       </c>
       <c r="N113">
-        <v>9.5</v>
+        <v>2.1</v>
       </c>
       <c r="O113">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P113">
-        <v>1.285</v>
+        <v>3.1</v>
       </c>
       <c r="Q113">
-        <v>1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R113">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S113">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T113">
         <v>2.75</v>
       </c>
       <c r="U113">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V113">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W113">
         <v>-1</v>
@@ -10573,16 +10573,16 @@
         <v>-1</v>
       </c>
       <c r="Y113">
-        <v>0.2849999999999999</v>
+        <v>2.1</v>
       </c>
       <c r="Z113">
         <v>-1</v>
       </c>
       <c r="AA113">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB113">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AC113">
         <v>-1</v>
@@ -12017,7 +12017,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>5424406</v>
+        <v>5424405</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12029,73 +12029,73 @@
         <v>45031.55208333334</v>
       </c>
       <c r="F130" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G130" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I130">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J130" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K130">
-        <v>2.4</v>
+        <v>1.75</v>
       </c>
       <c r="L130">
         <v>3.5</v>
       </c>
       <c r="M130">
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="N130">
-        <v>2.4</v>
+        <v>1.65</v>
       </c>
       <c r="O130">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P130">
-        <v>2.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q130">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R130">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S130">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T130">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U130">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V130">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W130">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X130">
         <v>-1</v>
       </c>
       <c r="Y130">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z130">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA130">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB130">
-        <v>1.025</v>
+        <v>1</v>
       </c>
       <c r="AC130">
         <v>-1</v>
@@ -12106,7 +12106,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>5424405</v>
+        <v>5424406</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12118,73 +12118,73 @@
         <v>45031.55208333334</v>
       </c>
       <c r="F131" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G131" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H131">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I131">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J131" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K131">
-        <v>1.75</v>
+        <v>2.4</v>
       </c>
       <c r="L131">
         <v>3.5</v>
       </c>
       <c r="M131">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="N131">
-        <v>1.65</v>
+        <v>2.4</v>
       </c>
       <c r="O131">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P131">
-        <v>5.25</v>
+        <v>2.75</v>
       </c>
       <c r="Q131">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R131">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S131">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T131">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U131">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V131">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W131">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X131">
         <v>-1</v>
       </c>
       <c r="Y131">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z131">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA131">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB131">
-        <v>1</v>
+        <v>1.025</v>
       </c>
       <c r="AC131">
         <v>-1</v>
@@ -12818,7 +12818,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6390066</v>
+        <v>6385540</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12830,10 +12830,10 @@
         <v>45039.5625</v>
       </c>
       <c r="F139" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G139" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H139">
         <v>2</v>
@@ -12845,40 +12845,40 @@
         <v>49</v>
       </c>
       <c r="K139">
-        <v>3</v>
+        <v>1.363</v>
       </c>
       <c r="L139">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M139">
-        <v>2.15</v>
+        <v>7</v>
       </c>
       <c r="N139">
-        <v>2.8</v>
+        <v>1.55</v>
       </c>
       <c r="O139">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P139">
-        <v>2.25</v>
+        <v>5</v>
       </c>
       <c r="Q139">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R139">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S139">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T139">
         <v>3</v>
       </c>
       <c r="U139">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V139">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W139">
         <v>-1</v>
@@ -12887,16 +12887,16 @@
         <v>-1</v>
       </c>
       <c r="Y139">
-        <v>1.25</v>
+        <v>4</v>
       </c>
       <c r="Z139">
         <v>-1</v>
       </c>
       <c r="AA139">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AB139">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AC139">
         <v>-1</v>
@@ -12907,7 +12907,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6390442</v>
+        <v>6390693</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12919,58 +12919,58 @@
         <v>45039.5625</v>
       </c>
       <c r="F140" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G140" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H140">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I140">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J140" t="s">
         <v>50</v>
       </c>
       <c r="K140">
-        <v>1.333</v>
+        <v>2.5</v>
       </c>
       <c r="L140">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M140">
-        <v>8</v>
+        <v>2.45</v>
       </c>
       <c r="N140">
-        <v>1.3</v>
+        <v>2.4</v>
       </c>
       <c r="O140">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="P140">
-        <v>8.5</v>
+        <v>2.45</v>
       </c>
       <c r="Q140">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="R140">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S140">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T140">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U140">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V140">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W140">
-        <v>0.3</v>
+        <v>1.4</v>
       </c>
       <c r="X140">
         <v>-1</v>
@@ -12979,13 +12979,13 @@
         <v>-1</v>
       </c>
       <c r="Z140">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA140">
         <v>-1</v>
       </c>
       <c r="AB140">
-        <v>1.025</v>
+        <v>1</v>
       </c>
       <c r="AC140">
         <v>-1</v>
@@ -12996,7 +12996,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6390693</v>
+        <v>6390442</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13008,58 +13008,58 @@
         <v>45039.5625</v>
       </c>
       <c r="F141" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G141" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H141">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I141">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J141" t="s">
         <v>50</v>
       </c>
       <c r="K141">
-        <v>2.5</v>
+        <v>1.333</v>
       </c>
       <c r="L141">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M141">
-        <v>2.45</v>
+        <v>8</v>
       </c>
       <c r="N141">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="O141">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="P141">
-        <v>2.45</v>
+        <v>8.5</v>
       </c>
       <c r="Q141">
-        <v>0</v>
+        <v>-1.75</v>
       </c>
       <c r="R141">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S141">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T141">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U141">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V141">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W141">
-        <v>1.4</v>
+        <v>0.3</v>
       </c>
       <c r="X141">
         <v>-1</v>
@@ -13068,13 +13068,13 @@
         <v>-1</v>
       </c>
       <c r="Z141">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA141">
         <v>-1</v>
       </c>
       <c r="AB141">
-        <v>1</v>
+        <v>1.025</v>
       </c>
       <c r="AC141">
         <v>-1</v>
@@ -13085,7 +13085,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6390043</v>
+        <v>6389819</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13097,55 +13097,55 @@
         <v>45039.5625</v>
       </c>
       <c r="F142" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G142" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I142">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J142" t="s">
         <v>49</v>
       </c>
       <c r="K142">
-        <v>1.222</v>
+        <v>5.25</v>
       </c>
       <c r="L142">
-        <v>5.75</v>
+        <v>4.2</v>
       </c>
       <c r="M142">
-        <v>11</v>
+        <v>1.533</v>
       </c>
       <c r="N142">
-        <v>1.142</v>
+        <v>6.5</v>
       </c>
       <c r="O142">
-        <v>7.5</v>
+        <v>4.75</v>
       </c>
       <c r="P142">
-        <v>15</v>
+        <v>1.4</v>
       </c>
       <c r="Q142">
-        <v>-2.25</v>
+        <v>1.25</v>
       </c>
       <c r="R142">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S142">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T142">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U142">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V142">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W142">
         <v>-1</v>
@@ -13154,19 +13154,19 @@
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>14</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z142">
         <v>-1</v>
       </c>
       <c r="AA142">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AB142">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC142">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13174,7 +13174,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6389819</v>
+        <v>6390043</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13186,56 +13186,56 @@
         <v>45039.5625</v>
       </c>
       <c r="F143" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G143" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I143">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J143" t="s">
         <v>49</v>
       </c>
       <c r="K143">
-        <v>5.25</v>
+        <v>1.222</v>
       </c>
       <c r="L143">
-        <v>4.2</v>
+        <v>5.75</v>
       </c>
       <c r="M143">
-        <v>1.533</v>
+        <v>11</v>
       </c>
       <c r="N143">
-        <v>6.5</v>
+        <v>1.142</v>
       </c>
       <c r="O143">
-        <v>4.75</v>
+        <v>7.5</v>
       </c>
       <c r="P143">
-        <v>1.4</v>
+        <v>15</v>
       </c>
       <c r="Q143">
-        <v>1.25</v>
+        <v>-2.25</v>
       </c>
       <c r="R143">
+        <v>1.975</v>
+      </c>
+      <c r="S143">
+        <v>1.875</v>
+      </c>
+      <c r="T143">
+        <v>3.5</v>
+      </c>
+      <c r="U143">
+        <v>1.95</v>
+      </c>
+      <c r="V143">
         <v>1.9</v>
       </c>
-      <c r="S143">
-        <v>1.95</v>
-      </c>
-      <c r="T143">
-        <v>3.25</v>
-      </c>
-      <c r="U143">
-        <v>2</v>
-      </c>
-      <c r="V143">
-        <v>1.85</v>
-      </c>
       <c r="W143">
         <v>-1</v>
       </c>
@@ -13243,19 +13243,19 @@
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>0.3999999999999999</v>
+        <v>14</v>
       </c>
       <c r="Z143">
         <v>-1</v>
       </c>
       <c r="AA143">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AB143">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC143">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13263,7 +13263,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6389865</v>
+        <v>6390066</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13275,73 +13275,73 @@
         <v>45039.5625</v>
       </c>
       <c r="F144" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G144" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H144">
         <v>2</v>
       </c>
       <c r="I144">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J144" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K144">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="L144">
         <v>3.6</v>
       </c>
       <c r="M144">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="N144">
         <v>2.8</v>
       </c>
       <c r="O144">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P144">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="Q144">
         <v>0.25</v>
       </c>
       <c r="R144">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S144">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T144">
         <v>3</v>
       </c>
       <c r="U144">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V144">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="W144">
         <v>-1</v>
       </c>
       <c r="X144">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y144">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z144">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA144">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AB144">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AC144">
         <v>-1</v>
@@ -13352,7 +13352,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6385540</v>
+        <v>6389865</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13364,73 +13364,73 @@
         <v>45039.5625</v>
       </c>
       <c r="F145" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G145" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H145">
         <v>2</v>
       </c>
       <c r="I145">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J145" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K145">
-        <v>1.363</v>
+        <v>3.5</v>
       </c>
       <c r="L145">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M145">
-        <v>7</v>
+        <v>1.95</v>
       </c>
       <c r="N145">
-        <v>1.55</v>
+        <v>2.8</v>
       </c>
       <c r="O145">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P145">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="Q145">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R145">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S145">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T145">
         <v>3</v>
       </c>
       <c r="U145">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V145">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W145">
         <v>-1</v>
       </c>
       <c r="X145">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y145">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z145">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA145">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AB145">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AC145">
         <v>-1</v>
@@ -15221,7 +15221,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6576985</v>
+        <v>6576986</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15233,58 +15233,58 @@
         <v>45080.64583333334</v>
       </c>
       <c r="F166" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G166" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I166">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J166" t="s">
         <v>50</v>
       </c>
       <c r="K166">
-        <v>1.727</v>
+        <v>1.5</v>
       </c>
       <c r="L166">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="M166">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="N166">
-        <v>1.45</v>
+        <v>1.363</v>
       </c>
       <c r="O166">
-        <v>5</v>
+        <v>5.75</v>
       </c>
       <c r="P166">
-        <v>5.75</v>
+        <v>6.5</v>
       </c>
       <c r="Q166">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R166">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S166">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T166">
         <v>3.5</v>
       </c>
       <c r="U166">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V166">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W166">
-        <v>0.45</v>
+        <v>0.363</v>
       </c>
       <c r="X166">
         <v>-1</v>
@@ -15293,16 +15293,16 @@
         <v>-1</v>
       </c>
       <c r="Z166">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AA166">
         <v>-1</v>
       </c>
       <c r="AB166">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC166">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15310,7 +15310,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6576986</v>
+        <v>6576985</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15322,58 +15322,58 @@
         <v>45080.64583333334</v>
       </c>
       <c r="F167" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G167" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H167">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J167" t="s">
         <v>50</v>
       </c>
       <c r="K167">
-        <v>1.5</v>
+        <v>1.727</v>
       </c>
       <c r="L167">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="M167">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="N167">
-        <v>1.363</v>
+        <v>1.45</v>
       </c>
       <c r="O167">
+        <v>5</v>
+      </c>
+      <c r="P167">
         <v>5.75</v>
       </c>
-      <c r="P167">
-        <v>6.5</v>
-      </c>
       <c r="Q167">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R167">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S167">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T167">
         <v>3.5</v>
       </c>
       <c r="U167">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V167">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W167">
-        <v>0.363</v>
+        <v>0.45</v>
       </c>
       <c r="X167">
         <v>-1</v>
@@ -15382,16 +15382,16 @@
         <v>-1</v>
       </c>
       <c r="Z167">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AA167">
         <v>-1</v>
       </c>
       <c r="AB167">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC167">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15399,7 +15399,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6576065</v>
+        <v>6576988</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15411,73 +15411,73 @@
         <v>45081.5625</v>
       </c>
       <c r="F168" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G168" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H168">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I168">
+        <v>2</v>
+      </c>
+      <c r="J168" t="s">
+        <v>48</v>
+      </c>
+      <c r="K168">
+        <v>2.4</v>
+      </c>
+      <c r="L168">
+        <v>3.6</v>
+      </c>
+      <c r="M168">
+        <v>2.7</v>
+      </c>
+      <c r="N168">
+        <v>2.4</v>
+      </c>
+      <c r="O168">
+        <v>3.6</v>
+      </c>
+      <c r="P168">
+        <v>2.7</v>
+      </c>
+      <c r="Q168">
+        <v>-0.25</v>
+      </c>
+      <c r="R168">
+        <v>2.05</v>
+      </c>
+      <c r="S168">
+        <v>1.75</v>
+      </c>
+      <c r="T168">
         <v>3</v>
       </c>
-      <c r="J168" t="s">
-        <v>49</v>
-      </c>
-      <c r="K168">
-        <v>1.75</v>
-      </c>
-      <c r="L168">
-        <v>3.8</v>
-      </c>
-      <c r="M168">
-        <v>4.2</v>
-      </c>
-      <c r="N168">
-        <v>1.55</v>
-      </c>
-      <c r="O168">
-        <v>4.333</v>
-      </c>
-      <c r="P168">
-        <v>4.75</v>
-      </c>
-      <c r="Q168">
-        <v>-1</v>
-      </c>
-      <c r="R168">
-        <v>1.975</v>
-      </c>
-      <c r="S168">
-        <v>1.875</v>
-      </c>
-      <c r="T168">
-        <v>3.25</v>
-      </c>
       <c r="U168">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V168">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W168">
         <v>-1</v>
       </c>
       <c r="X168">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y168">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z168">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA168">
-        <v>0.875</v>
+        <v>0.375</v>
       </c>
       <c r="AB168">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AC168">
         <v>-1</v>
@@ -15488,7 +15488,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>6576988</v>
+        <v>6576065</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15500,73 +15500,73 @@
         <v>45081.5625</v>
       </c>
       <c r="F169" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G169" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I169">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J169" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K169">
-        <v>2.4</v>
+        <v>1.75</v>
       </c>
       <c r="L169">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M169">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="N169">
-        <v>2.4</v>
+        <v>1.55</v>
       </c>
       <c r="O169">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P169">
-        <v>2.7</v>
+        <v>4.75</v>
       </c>
       <c r="Q169">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R169">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S169">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="T169">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U169">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V169">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W169">
         <v>-1</v>
       </c>
       <c r="X169">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y169">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z169">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA169">
-        <v>0.375</v>
+        <v>0.875</v>
       </c>
       <c r="AB169">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AC169">
         <v>-1</v>
@@ -18069,7 +18069,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>6810015</v>
+        <v>6810012</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18081,61 +18081,61 @@
         <v>45158.45833333334</v>
       </c>
       <c r="F198" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G198" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J198" t="s">
         <v>48</v>
       </c>
       <c r="K198">
-        <v>1.45</v>
+        <v>1.533</v>
       </c>
       <c r="L198">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="M198">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="N198">
-        <v>1.533</v>
+        <v>1.6</v>
       </c>
       <c r="O198">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P198">
-        <v>6</v>
+        <v>5.25</v>
       </c>
       <c r="Q198">
         <v>-1</v>
       </c>
       <c r="R198">
+        <v>1.975</v>
+      </c>
+      <c r="S198">
+        <v>1.875</v>
+      </c>
+      <c r="T198">
+        <v>3</v>
+      </c>
+      <c r="U198">
         <v>1.9</v>
       </c>
-      <c r="S198">
+      <c r="V198">
         <v>1.95</v>
       </c>
-      <c r="T198">
-        <v>2.5</v>
-      </c>
-      <c r="U198">
-        <v>1.8</v>
-      </c>
-      <c r="V198">
-        <v>2.05</v>
-      </c>
       <c r="W198">
         <v>-1</v>
       </c>
       <c r="X198">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Y198">
         <v>-1</v>
@@ -18144,13 +18144,13 @@
         <v>-1</v>
       </c>
       <c r="AA198">
+        <v>0.875</v>
+      </c>
+      <c r="AB198">
+        <v>-1</v>
+      </c>
+      <c r="AC198">
         <v>0.95</v>
-      </c>
-      <c r="AB198">
-        <v>0.8</v>
-      </c>
-      <c r="AC198">
-        <v>-1</v>
       </c>
     </row>
     <row r="199" spans="1:29">
@@ -18158,7 +18158,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>6810012</v>
+        <v>6810015</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18170,61 +18170,61 @@
         <v>45158.45833333334</v>
       </c>
       <c r="F199" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G199" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J199" t="s">
         <v>48</v>
       </c>
       <c r="K199">
+        <v>1.45</v>
+      </c>
+      <c r="L199">
+        <v>4.5</v>
+      </c>
+      <c r="M199">
+        <v>7</v>
+      </c>
+      <c r="N199">
         <v>1.533</v>
       </c>
-      <c r="L199">
+      <c r="O199">
         <v>4.2</v>
       </c>
-      <c r="M199">
-        <v>5.5</v>
-      </c>
-      <c r="N199">
-        <v>1.6</v>
-      </c>
-      <c r="O199">
-        <v>4</v>
-      </c>
       <c r="P199">
-        <v>5.25</v>
+        <v>6</v>
       </c>
       <c r="Q199">
         <v>-1</v>
       </c>
       <c r="R199">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S199">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T199">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U199">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V199">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W199">
         <v>-1</v>
       </c>
       <c r="X199">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Y199">
         <v>-1</v>
@@ -18233,13 +18233,13 @@
         <v>-1</v>
       </c>
       <c r="AA199">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AB199">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC199">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="200" spans="1:29">
@@ -29639,7 +29639,7 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>6810143</v>
+        <v>6810139</v>
       </c>
       <c r="C328" t="s">
         <v>28</v>
@@ -29651,58 +29651,58 @@
         <v>45287.69791666666</v>
       </c>
       <c r="F328" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G328" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H328">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I328">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J328" t="s">
         <v>50</v>
       </c>
       <c r="K328">
+        <v>1.869</v>
+      </c>
+      <c r="L328">
+        <v>3.7</v>
+      </c>
+      <c r="M328">
+        <v>3.8</v>
+      </c>
+      <c r="N328">
         <v>2.05</v>
       </c>
-      <c r="L328">
-        <v>3.4</v>
-      </c>
-      <c r="M328">
-        <v>3.5</v>
-      </c>
-      <c r="N328">
-        <v>2.375</v>
-      </c>
       <c r="O328">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P328">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="Q328">
         <v>-0.25</v>
       </c>
       <c r="R328">
+        <v>1.825</v>
+      </c>
+      <c r="S328">
         <v>2.025</v>
       </c>
-      <c r="S328">
-        <v>1.825</v>
-      </c>
       <c r="T328">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U328">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V328">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W328">
-        <v>1.375</v>
+        <v>1.05</v>
       </c>
       <c r="X328">
         <v>-1</v>
@@ -29711,16 +29711,16 @@
         <v>-1</v>
       </c>
       <c r="Z328">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AA328">
         <v>-1</v>
       </c>
       <c r="AB328">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC328">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="329" spans="1:29">
@@ -29728,7 +29728,7 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>6810139</v>
+        <v>6810143</v>
       </c>
       <c r="C329" t="s">
         <v>28</v>
@@ -29740,58 +29740,58 @@
         <v>45287.69791666666</v>
       </c>
       <c r="F329" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G329" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H329">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I329">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J329" t="s">
         <v>50</v>
       </c>
       <c r="K329">
-        <v>1.869</v>
+        <v>2.05</v>
       </c>
       <c r="L329">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="M329">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="N329">
-        <v>2.05</v>
+        <v>2.375</v>
       </c>
       <c r="O329">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P329">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q329">
         <v>-0.25</v>
       </c>
       <c r="R329">
+        <v>2.025</v>
+      </c>
+      <c r="S329">
         <v>1.825</v>
       </c>
-      <c r="S329">
+      <c r="T329">
+        <v>2.25</v>
+      </c>
+      <c r="U329">
         <v>2.025</v>
       </c>
-      <c r="T329">
-        <v>2.75</v>
-      </c>
-      <c r="U329">
-        <v>1.9</v>
-      </c>
       <c r="V329">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W329">
-        <v>1.05</v>
+        <v>1.375</v>
       </c>
       <c r="X329">
         <v>-1</v>
@@ -29800,16 +29800,16 @@
         <v>-1</v>
       </c>
       <c r="Z329">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AA329">
         <v>-1</v>
       </c>
       <c r="AB329">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC329">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="330" spans="1:29">
@@ -30618,7 +30618,7 @@
         <v>337</v>
       </c>
       <c r="B339">
-        <v>6810158</v>
+        <v>6810159</v>
       </c>
       <c r="C339" t="s">
         <v>28</v>
@@ -30630,73 +30630,73 @@
         <v>45318.69791666666</v>
       </c>
       <c r="F339" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G339" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H339">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I339">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J339" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K339">
-        <v>1.363</v>
+        <v>5.5</v>
       </c>
       <c r="L339">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="M339">
-        <v>6.5</v>
+        <v>1.5</v>
       </c>
       <c r="N339">
-        <v>1.444</v>
+        <v>6</v>
       </c>
       <c r="O339">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P339">
-        <v>5.75</v>
+        <v>1.45</v>
       </c>
       <c r="Q339">
-        <v>-1.25</v>
+        <v>1.25</v>
       </c>
       <c r="R339">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S339">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T339">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U339">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V339">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W339">
         <v>-1</v>
       </c>
       <c r="X339">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y339">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z339">
         <v>-1</v>
       </c>
       <c r="AA339">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AB339">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AC339">
         <v>-1</v>
@@ -30707,7 +30707,7 @@
         <v>338</v>
       </c>
       <c r="B340">
-        <v>6810159</v>
+        <v>6810158</v>
       </c>
       <c r="C340" t="s">
         <v>28</v>
@@ -30719,73 +30719,73 @@
         <v>45318.69791666666</v>
       </c>
       <c r="F340" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G340" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H340">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I340">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J340" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K340">
-        <v>5.5</v>
+        <v>1.363</v>
       </c>
       <c r="L340">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="M340">
-        <v>1.5</v>
+        <v>6.5</v>
       </c>
       <c r="N340">
-        <v>6</v>
+        <v>1.444</v>
       </c>
       <c r="O340">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P340">
-        <v>1.45</v>
+        <v>5.75</v>
       </c>
       <c r="Q340">
-        <v>1.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R340">
+        <v>2</v>
+      </c>
+      <c r="S340">
+        <v>1.85</v>
+      </c>
+      <c r="T340">
+        <v>3</v>
+      </c>
+      <c r="U340">
+        <v>2.025</v>
+      </c>
+      <c r="V340">
         <v>1.825</v>
       </c>
-      <c r="S340">
-        <v>2.025</v>
-      </c>
-      <c r="T340">
-        <v>2.75</v>
-      </c>
-      <c r="U340">
-        <v>1.95</v>
-      </c>
-      <c r="V340">
-        <v>1.9</v>
-      </c>
       <c r="W340">
         <v>-1</v>
       </c>
       <c r="X340">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y340">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z340">
         <v>-1</v>
       </c>
       <c r="AA340">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB340">
         <v>1.025</v>
-      </c>
-      <c r="AB340">
-        <v>0.95</v>
       </c>
       <c r="AC340">
         <v>-1</v>
@@ -31508,7 +31508,7 @@
         <v>347</v>
       </c>
       <c r="B349">
-        <v>6810164</v>
+        <v>6810162</v>
       </c>
       <c r="C349" t="s">
         <v>28</v>
@@ -31520,76 +31520,76 @@
         <v>45322.70833333334</v>
       </c>
       <c r="F349" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G349" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="H349">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I349">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J349" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K349">
-        <v>1.2</v>
+        <v>4</v>
       </c>
       <c r="L349">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="M349">
-        <v>12</v>
+        <v>1.85</v>
       </c>
       <c r="N349">
-        <v>1.142</v>
+        <v>3.1</v>
       </c>
       <c r="O349">
-        <v>8.5</v>
+        <v>3.2</v>
       </c>
       <c r="P349">
-        <v>15</v>
+        <v>2.3</v>
       </c>
       <c r="Q349">
-        <v>-2.25</v>
+        <v>0.25</v>
       </c>
       <c r="R349">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S349">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T349">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="U349">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V349">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W349">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X349">
         <v>-1</v>
       </c>
       <c r="Y349">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z349">
         <v>-1</v>
       </c>
       <c r="AA349">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="AB349">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC349">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="350" spans="1:29">
@@ -31597,7 +31597,7 @@
         <v>348</v>
       </c>
       <c r="B350">
-        <v>6810162</v>
+        <v>6810164</v>
       </c>
       <c r="C350" t="s">
         <v>28</v>
@@ -31609,76 +31609,76 @@
         <v>45322.70833333334</v>
       </c>
       <c r="F350" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G350" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I350">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J350" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K350">
-        <v>4</v>
+        <v>1.2</v>
       </c>
       <c r="L350">
-        <v>3.6</v>
+        <v>7</v>
       </c>
       <c r="M350">
-        <v>1.85</v>
+        <v>12</v>
       </c>
       <c r="N350">
-        <v>3.1</v>
+        <v>1.142</v>
       </c>
       <c r="O350">
-        <v>3.2</v>
+        <v>8.5</v>
       </c>
       <c r="P350">
-        <v>2.3</v>
+        <v>15</v>
       </c>
       <c r="Q350">
-        <v>0.25</v>
+        <v>-2.25</v>
       </c>
       <c r="R350">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S350">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T350">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="U350">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V350">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W350">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X350">
         <v>-1</v>
       </c>
       <c r="Y350">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z350">
         <v>-1</v>
       </c>
       <c r="AA350">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AB350">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC350">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="351" spans="1:29">
@@ -31686,7 +31686,7 @@
         <v>349</v>
       </c>
       <c r="B351">
-        <v>6810166</v>
+        <v>6810163</v>
       </c>
       <c r="C351" t="s">
         <v>28</v>
@@ -31698,73 +31698,73 @@
         <v>45323.6875</v>
       </c>
       <c r="F351" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G351" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H351">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I351">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J351" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K351">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="L351">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M351">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="N351">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="O351">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P351">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="Q351">
         <v>0.25</v>
       </c>
       <c r="R351">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S351">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T351">
         <v>2.5</v>
       </c>
       <c r="U351">
+        <v>1.975</v>
+      </c>
+      <c r="V351">
         <v>1.875</v>
       </c>
-      <c r="V351">
-        <v>1.975</v>
-      </c>
       <c r="W351">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="X351">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y351">
         <v>-1</v>
       </c>
       <c r="Z351">
-        <v>0.4625</v>
+        <v>0.95</v>
       </c>
       <c r="AA351">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB351">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC351">
         <v>-1</v>
@@ -31775,7 +31775,7 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>6810163</v>
+        <v>6810166</v>
       </c>
       <c r="C352" t="s">
         <v>28</v>
@@ -31787,73 +31787,73 @@
         <v>45323.6875</v>
       </c>
       <c r="F352" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G352" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H352">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I352">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J352" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K352">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L352">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M352">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="N352">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="O352">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P352">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="Q352">
         <v>0.25</v>
       </c>
       <c r="R352">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S352">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T352">
         <v>2.5</v>
       </c>
       <c r="U352">
+        <v>1.875</v>
+      </c>
+      <c r="V352">
         <v>1.975</v>
       </c>
-      <c r="V352">
-        <v>1.875</v>
-      </c>
       <c r="W352">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="X352">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y352">
         <v>-1</v>
       </c>
       <c r="Z352">
-        <v>0.95</v>
+        <v>0.4625</v>
       </c>
       <c r="AA352">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB352">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC352">
         <v>-1</v>
@@ -31953,7 +31953,7 @@
         <v>352</v>
       </c>
       <c r="B354">
-        <v>6810171</v>
+        <v>6810174</v>
       </c>
       <c r="C354" t="s">
         <v>28</v>
@@ -31965,76 +31965,76 @@
         <v>45325.59375</v>
       </c>
       <c r="F354" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G354" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H354">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I354">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J354" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K354">
-        <v>3.2</v>
+        <v>1.909</v>
       </c>
       <c r="L354">
+        <v>3.75</v>
+      </c>
+      <c r="M354">
         <v>3.5</v>
       </c>
-      <c r="M354">
-        <v>2.1</v>
-      </c>
       <c r="N354">
-        <v>3.4</v>
+        <v>1.909</v>
       </c>
       <c r="O354">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P354">
-        <v>2.05</v>
+        <v>3.8</v>
       </c>
       <c r="Q354">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R354">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S354">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T354">
         <v>2.5</v>
       </c>
       <c r="U354">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V354">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W354">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X354">
         <v>-1</v>
       </c>
       <c r="Y354">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z354">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA354">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB354">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC354">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="355" spans="1:29">
@@ -32042,7 +32042,7 @@
         <v>353</v>
       </c>
       <c r="B355">
-        <v>6810174</v>
+        <v>6810171</v>
       </c>
       <c r="C355" t="s">
         <v>28</v>
@@ -32054,76 +32054,76 @@
         <v>45325.59375</v>
       </c>
       <c r="F355" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G355" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H355">
+        <v>1</v>
+      </c>
+      <c r="I355">
         <v>0</v>
       </c>
-      <c r="I355">
-        <v>3</v>
-      </c>
       <c r="J355" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K355">
-        <v>1.909</v>
+        <v>3.2</v>
       </c>
       <c r="L355">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M355">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="N355">
-        <v>1.909</v>
+        <v>3.4</v>
       </c>
       <c r="O355">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P355">
-        <v>3.8</v>
+        <v>2.05</v>
       </c>
       <c r="Q355">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R355">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S355">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T355">
         <v>2.5</v>
       </c>
       <c r="U355">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V355">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W355">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X355">
         <v>-1</v>
       </c>
       <c r="Y355">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z355">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA355">
+        <v>-1</v>
+      </c>
+      <c r="AB355">
+        <v>-1</v>
+      </c>
+      <c r="AC355">
         <v>0.925</v>
-      </c>
-      <c r="AB355">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC355">
-        <v>-1</v>
       </c>
     </row>
     <row r="356" spans="1:29">
@@ -33377,7 +33377,7 @@
         <v>368</v>
       </c>
       <c r="B370">
-        <v>6810194</v>
+        <v>6810193</v>
       </c>
       <c r="C370" t="s">
         <v>28</v>
@@ -33386,64 +33386,79 @@
         <v>28</v>
       </c>
       <c r="E370" s="2">
-        <v>45340.39583333334</v>
+        <v>45339.5</v>
       </c>
       <c r="F370" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G370" t="s">
-        <v>41</v>
+        <v>47</v>
+      </c>
+      <c r="H370">
+        <v>3</v>
+      </c>
+      <c r="I370">
+        <v>1</v>
+      </c>
+      <c r="J370" t="s">
+        <v>50</v>
       </c>
       <c r="K370">
+        <v>1.3</v>
+      </c>
+      <c r="L370">
+        <v>5.75</v>
+      </c>
+      <c r="M370">
+        <v>9</v>
+      </c>
+      <c r="N370">
+        <v>1.333</v>
+      </c>
+      <c r="O370">
+        <v>5.75</v>
+      </c>
+      <c r="P370">
+        <v>8</v>
+      </c>
+      <c r="Q370">
+        <v>-1.5</v>
+      </c>
+      <c r="R370">
+        <v>1.875</v>
+      </c>
+      <c r="S370">
+        <v>1.975</v>
+      </c>
+      <c r="T370">
         <v>3</v>
       </c>
-      <c r="L370">
-        <v>3.6</v>
-      </c>
-      <c r="M370">
-        <v>2.25</v>
-      </c>
-      <c r="N370">
-        <v>3.4</v>
-      </c>
-      <c r="O370">
-        <v>3.75</v>
-      </c>
-      <c r="P370">
-        <v>2.05</v>
-      </c>
-      <c r="Q370">
-        <v>0.5</v>
-      </c>
-      <c r="R370">
-        <v>1.85</v>
-      </c>
-      <c r="S370">
-        <v>2</v>
-      </c>
-      <c r="T370">
-        <v>2.75</v>
-      </c>
       <c r="U370">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V370">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W370">
-        <v>0</v>
+        <v>0.333</v>
       </c>
       <c r="X370">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y370">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z370">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA370">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB370">
+        <v>0.825</v>
+      </c>
+      <c r="AC370">
+        <v>-1</v>
       </c>
     </row>
     <row r="371" spans="1:29">
@@ -33451,7 +33466,7 @@
         <v>369</v>
       </c>
       <c r="B371">
-        <v>6810190</v>
+        <v>6810192</v>
       </c>
       <c r="C371" t="s">
         <v>28</v>
@@ -33460,64 +33475,79 @@
         <v>28</v>
       </c>
       <c r="E371" s="2">
-        <v>45340.5</v>
+        <v>45339.59375</v>
       </c>
       <c r="F371" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G371" t="s">
-        <v>43</v>
+        <v>44</v>
+      </c>
+      <c r="H371">
+        <v>0</v>
+      </c>
+      <c r="I371">
+        <v>0</v>
+      </c>
+      <c r="J371" t="s">
+        <v>48</v>
       </c>
       <c r="K371">
-        <v>6</v>
+        <v>2.25</v>
       </c>
       <c r="L371">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="M371">
-        <v>1.444</v>
+        <v>3.1</v>
       </c>
       <c r="N371">
-        <v>7.5</v>
+        <v>2.3</v>
       </c>
       <c r="O371">
-        <v>5.25</v>
+        <v>3.3</v>
       </c>
       <c r="P371">
-        <v>1.363</v>
+        <v>3.1</v>
       </c>
       <c r="Q371">
-        <v>1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R371">
+        <v>2</v>
+      </c>
+      <c r="S371">
+        <v>1.85</v>
+      </c>
+      <c r="T371">
+        <v>2.5</v>
+      </c>
+      <c r="U371">
+        <v>2.025</v>
+      </c>
+      <c r="V371">
         <v>1.825</v>
       </c>
-      <c r="S371">
-        <v>2.025</v>
-      </c>
-      <c r="T371">
-        <v>3</v>
-      </c>
-      <c r="U371">
-        <v>1.975</v>
-      </c>
-      <c r="V371">
-        <v>1.875</v>
-      </c>
       <c r="W371">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X371">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="Y371">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z371">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA371">
-        <v>0</v>
+        <v>0.425</v>
+      </c>
+      <c r="AB371">
+        <v>-1</v>
+      </c>
+      <c r="AC371">
+        <v>0.825</v>
       </c>
     </row>
     <row r="372" spans="1:29">
@@ -33525,7 +33555,7 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>6810187</v>
+        <v>6810188</v>
       </c>
       <c r="C372" t="s">
         <v>28</v>
@@ -33534,64 +33564,79 @@
         <v>28</v>
       </c>
       <c r="E372" s="2">
-        <v>45340.60416666666</v>
+        <v>45339.69791666666</v>
       </c>
       <c r="F372" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G372" t="s">
-        <v>46</v>
+        <v>40</v>
+      </c>
+      <c r="H372">
+        <v>0</v>
+      </c>
+      <c r="I372">
+        <v>1</v>
+      </c>
+      <c r="J372" t="s">
+        <v>49</v>
       </c>
       <c r="K372">
-        <v>1.571</v>
+        <v>1.533</v>
       </c>
       <c r="L372">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M372">
         <v>6</v>
       </c>
       <c r="N372">
-        <v>1.65</v>
+        <v>1.571</v>
       </c>
       <c r="O372">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P372">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="Q372">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R372">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="S372">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T372">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U372">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V372">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W372">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X372">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y372">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="Z372">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA372">
-        <v>0</v>
+        <v>0.875</v>
+      </c>
+      <c r="AB372">
+        <v>-1</v>
+      </c>
+      <c r="AC372">
+        <v>0.875</v>
       </c>
     </row>
     <row r="373" spans="1:29">
@@ -33599,7 +33644,7 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>6810191</v>
+        <v>6810194</v>
       </c>
       <c r="C373" t="s">
         <v>28</v>
@@ -33608,64 +33653,346 @@
         <v>28</v>
       </c>
       <c r="E373" s="2">
-        <v>45340.63541666666</v>
+        <v>45340.39583333334</v>
       </c>
       <c r="F373" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G373" t="s">
-        <v>42</v>
+        <v>41</v>
+      </c>
+      <c r="H373">
+        <v>1</v>
+      </c>
+      <c r="I373">
+        <v>1</v>
+      </c>
+      <c r="J373" t="s">
+        <v>48</v>
       </c>
       <c r="K373">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L373">
+        <v>3.6</v>
+      </c>
+      <c r="M373">
+        <v>2.25</v>
+      </c>
+      <c r="N373">
+        <v>3.75</v>
+      </c>
+      <c r="O373">
         <v>4</v>
       </c>
-      <c r="M373">
-        <v>1.65</v>
-      </c>
-      <c r="N373">
-        <v>4.75</v>
-      </c>
-      <c r="O373">
-        <v>3.8</v>
-      </c>
       <c r="P373">
-        <v>1.727</v>
+        <v>1.85</v>
       </c>
       <c r="Q373">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R373">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S373">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T373">
         <v>2.75</v>
       </c>
       <c r="U373">
+        <v>1.825</v>
+      </c>
+      <c r="V373">
+        <v>2.025</v>
+      </c>
+      <c r="W373">
+        <v>-1</v>
+      </c>
+      <c r="X373">
+        <v>3</v>
+      </c>
+      <c r="Y373">
+        <v>-1</v>
+      </c>
+      <c r="Z373">
+        <v>0.925</v>
+      </c>
+      <c r="AA373">
+        <v>-1</v>
+      </c>
+      <c r="AB373">
+        <v>-1</v>
+      </c>
+      <c r="AC373">
+        <v>1.025</v>
+      </c>
+    </row>
+    <row r="374" spans="1:29">
+      <c r="A374" s="1">
+        <v>372</v>
+      </c>
+      <c r="B374">
+        <v>6810190</v>
+      </c>
+      <c r="C374" t="s">
+        <v>28</v>
+      </c>
+      <c r="D374" t="s">
+        <v>28</v>
+      </c>
+      <c r="E374" s="2">
+        <v>45340.5</v>
+      </c>
+      <c r="F374" t="s">
+        <v>45</v>
+      </c>
+      <c r="G374" t="s">
+        <v>43</v>
+      </c>
+      <c r="H374">
+        <v>1</v>
+      </c>
+      <c r="I374">
+        <v>3</v>
+      </c>
+      <c r="J374" t="s">
+        <v>49</v>
+      </c>
+      <c r="K374">
+        <v>6</v>
+      </c>
+      <c r="L374">
+        <v>4.75</v>
+      </c>
+      <c r="M374">
+        <v>1.444</v>
+      </c>
+      <c r="N374">
+        <v>7</v>
+      </c>
+      <c r="O374">
+        <v>5</v>
+      </c>
+      <c r="P374">
+        <v>1.363</v>
+      </c>
+      <c r="Q374">
+        <v>1.5</v>
+      </c>
+      <c r="R374">
+        <v>1.8</v>
+      </c>
+      <c r="S374">
+        <v>2.05</v>
+      </c>
+      <c r="T374">
+        <v>3</v>
+      </c>
+      <c r="U374">
+        <v>1.95</v>
+      </c>
+      <c r="V374">
+        <v>1.9</v>
+      </c>
+      <c r="W374">
+        <v>-1</v>
+      </c>
+      <c r="X374">
+        <v>-1</v>
+      </c>
+      <c r="Y374">
+        <v>0.363</v>
+      </c>
+      <c r="Z374">
+        <v>-1</v>
+      </c>
+      <c r="AA374">
+        <v>1.05</v>
+      </c>
+      <c r="AB374">
+        <v>0.95</v>
+      </c>
+      <c r="AC374">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="375" spans="1:29">
+      <c r="A375" s="1">
+        <v>373</v>
+      </c>
+      <c r="B375">
+        <v>6810187</v>
+      </c>
+      <c r="C375" t="s">
+        <v>28</v>
+      </c>
+      <c r="D375" t="s">
+        <v>28</v>
+      </c>
+      <c r="E375" s="2">
+        <v>45340.60416666666</v>
+      </c>
+      <c r="F375" t="s">
+        <v>36</v>
+      </c>
+      <c r="G375" t="s">
+        <v>46</v>
+      </c>
+      <c r="H375">
+        <v>4</v>
+      </c>
+      <c r="I375">
+        <v>1</v>
+      </c>
+      <c r="J375" t="s">
+        <v>50</v>
+      </c>
+      <c r="K375">
+        <v>1.571</v>
+      </c>
+      <c r="L375">
+        <v>4</v>
+      </c>
+      <c r="M375">
+        <v>6</v>
+      </c>
+      <c r="N375">
+        <v>1.727</v>
+      </c>
+      <c r="O375">
+        <v>3.75</v>
+      </c>
+      <c r="P375">
+        <v>5.25</v>
+      </c>
+      <c r="Q375">
+        <v>-0.75</v>
+      </c>
+      <c r="R375">
+        <v>1.95</v>
+      </c>
+      <c r="S375">
+        <v>1.9</v>
+      </c>
+      <c r="T375">
+        <v>2.75</v>
+      </c>
+      <c r="U375">
+        <v>2</v>
+      </c>
+      <c r="V375">
+        <v>1.85</v>
+      </c>
+      <c r="W375">
+        <v>0.7270000000000001</v>
+      </c>
+      <c r="X375">
+        <v>-1</v>
+      </c>
+      <c r="Y375">
+        <v>-1</v>
+      </c>
+      <c r="Z375">
+        <v>0.95</v>
+      </c>
+      <c r="AA375">
+        <v>-1</v>
+      </c>
+      <c r="AB375">
+        <v>1</v>
+      </c>
+      <c r="AC375">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="376" spans="1:29">
+      <c r="A376" s="1">
+        <v>374</v>
+      </c>
+      <c r="B376">
+        <v>6810191</v>
+      </c>
+      <c r="C376" t="s">
+        <v>28</v>
+      </c>
+      <c r="D376" t="s">
+        <v>28</v>
+      </c>
+      <c r="E376" s="2">
+        <v>45340.63541666666</v>
+      </c>
+      <c r="F376" t="s">
+        <v>30</v>
+      </c>
+      <c r="G376" t="s">
+        <v>42</v>
+      </c>
+      <c r="H376">
+        <v>0</v>
+      </c>
+      <c r="I376">
+        <v>2</v>
+      </c>
+      <c r="J376" t="s">
+        <v>49</v>
+      </c>
+      <c r="K376">
+        <v>5</v>
+      </c>
+      <c r="L376">
+        <v>4</v>
+      </c>
+      <c r="M376">
+        <v>1.65</v>
+      </c>
+      <c r="N376">
+        <v>4.75</v>
+      </c>
+      <c r="O376">
+        <v>3.5</v>
+      </c>
+      <c r="P376">
+        <v>1.8</v>
+      </c>
+      <c r="Q376">
+        <v>0.5</v>
+      </c>
+      <c r="R376">
+        <v>2.05</v>
+      </c>
+      <c r="S376">
+        <v>1.8</v>
+      </c>
+      <c r="T376">
+        <v>2.5</v>
+      </c>
+      <c r="U376">
         <v>1.875</v>
       </c>
-      <c r="V373">
+      <c r="V376">
         <v>1.975</v>
       </c>
-      <c r="W373">
-        <v>0</v>
-      </c>
-      <c r="X373">
-        <v>0</v>
-      </c>
-      <c r="Y373">
-        <v>0</v>
-      </c>
-      <c r="Z373">
-        <v>0</v>
-      </c>
-      <c r="AA373">
-        <v>0</v>
+      <c r="W376">
+        <v>-1</v>
+      </c>
+      <c r="X376">
+        <v>-1</v>
+      </c>
+      <c r="Y376">
+        <v>0.8</v>
+      </c>
+      <c r="Z376">
+        <v>-1</v>
+      </c>
+      <c r="AA376">
+        <v>0.8</v>
+      </c>
+      <c r="AB376">
+        <v>-1</v>
+      </c>
+      <c r="AC376">
+        <v>0.9750000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/Belgium First Division A/Belgium First Division A.xlsx
+++ b/Belgium First Division A/Belgium First Division A.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1903" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1935" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -109,10 +109,10 @@
     <t>Eupen</t>
   </si>
   <si>
-    <t>Cercle Brugge</t>
+    <t>KV Oostende</t>
   </si>
   <si>
-    <t>KV Oostende</t>
+    <t>Cercle Brugge</t>
   </si>
   <si>
     <t>Antwerp</t>
@@ -528,7 +528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC376"/>
+  <dimension ref="A1:AC384"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -803,7 +803,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5208691</v>
+        <v>5208561</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -818,46 +818,46 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J4" t="s">
         <v>49</v>
       </c>
       <c r="K4">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="L4">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M4">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="N4">
-        <v>2.15</v>
+        <v>1.7</v>
       </c>
       <c r="O4">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P4">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="Q4">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R4">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S4">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T4">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U4">
         <v>1.925</v>
@@ -872,19 +872,19 @@
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="Z4">
         <v>-1</v>
       </c>
       <c r="AA4">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB4">
         <v>0.925</v>
       </c>
-      <c r="AB4">
-        <v>-1</v>
-      </c>
       <c r="AC4">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -892,7 +892,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5208561</v>
+        <v>5208691</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -907,46 +907,46 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
         <v>1</v>
-      </c>
-      <c r="I5">
-        <v>2</v>
       </c>
       <c r="J5" t="s">
         <v>49</v>
       </c>
       <c r="K5">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="L5">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M5">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="N5">
-        <v>1.7</v>
+        <v>2.15</v>
       </c>
       <c r="O5">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P5">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="Q5">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R5">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S5">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T5">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U5">
         <v>1.925</v>
@@ -961,19 +961,19 @@
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="Z5">
         <v>-1</v>
       </c>
       <c r="AA5">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB5">
+        <v>-1</v>
+      </c>
+      <c r="AC5">
         <v>0.925</v>
-      </c>
-      <c r="AC5">
-        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1708,7 +1708,7 @@
         <v>40</v>
       </c>
       <c r="G14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H14">
         <v>2</v>
@@ -2153,7 +2153,7 @@
         <v>44</v>
       </c>
       <c r="G19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H19">
         <v>2</v>
@@ -2316,7 +2316,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5208702</v>
+        <v>5208698</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2328,76 +2328,76 @@
         <v>44943.69791666666</v>
       </c>
       <c r="F21" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G21" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H21">
         <v>2</v>
       </c>
       <c r="I21">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K21">
-        <v>4.2</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M21">
-        <v>1.75</v>
+        <v>3.5</v>
       </c>
       <c r="N21">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="O21">
         <v>3.6</v>
       </c>
       <c r="P21">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q21">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R21">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S21">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T21">
         <v>2.75</v>
       </c>
       <c r="U21">
+        <v>2.025</v>
+      </c>
+      <c r="V21">
         <v>1.825</v>
       </c>
-      <c r="V21">
-        <v>2.025</v>
-      </c>
       <c r="W21">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X21">
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z21">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA21">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB21">
+        <v>-1</v>
+      </c>
+      <c r="AC21">
         <v>0.825</v>
-      </c>
-      <c r="AC21">
-        <v>-1</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2405,7 +2405,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5208698</v>
+        <v>5208702</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2417,76 +2417,76 @@
         <v>44943.69791666666</v>
       </c>
       <c r="F22" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G22" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H22">
         <v>2</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>4.2</v>
       </c>
       <c r="L22">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M22">
-        <v>3.5</v>
+        <v>1.75</v>
       </c>
       <c r="N22">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="O22">
         <v>3.6</v>
       </c>
       <c r="P22">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="Q22">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R22">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S22">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T22">
         <v>2.75</v>
       </c>
       <c r="U22">
+        <v>1.825</v>
+      </c>
+      <c r="V22">
         <v>2.025</v>
       </c>
-      <c r="V22">
-        <v>1.825</v>
-      </c>
       <c r="W22">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X22">
         <v>-1</v>
       </c>
       <c r="Y22">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z22">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA22">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB22">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC22">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2494,7 +2494,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5208701</v>
+        <v>5208571</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2509,73 +2509,73 @@
         <v>31</v>
       </c>
       <c r="G23" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K23">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="L23">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M23">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="N23">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="O23">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P23">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="Q23">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R23">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S23">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T23">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U23">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V23">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W23">
         <v>-1</v>
       </c>
       <c r="X23">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y23">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z23">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA23">
+        <v>0.875</v>
+      </c>
+      <c r="AB23">
+        <v>0.5</v>
+      </c>
+      <c r="AC23">
         <v>-0.5</v>
-      </c>
-      <c r="AB23">
-        <v>-1</v>
-      </c>
-      <c r="AC23">
-        <v>0.8</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2583,7 +2583,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5208571</v>
+        <v>5208701</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2598,73 +2598,73 @@
         <v>32</v>
       </c>
       <c r="G24" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K24">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="L24">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M24">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="N24">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="O24">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P24">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="Q24">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R24">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S24">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T24">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U24">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V24">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W24">
         <v>-1</v>
       </c>
       <c r="X24">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y24">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z24">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AA24">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB24">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC24">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -3218,10 +3218,10 @@
         <v>44947.59375</v>
       </c>
       <c r="F31" t="s">
+        <v>31</v>
+      </c>
+      <c r="G31" t="s">
         <v>32</v>
-      </c>
-      <c r="G31" t="s">
-        <v>31</v>
       </c>
       <c r="H31">
         <v>1</v>
@@ -4022,7 +4022,7 @@
         <v>45</v>
       </c>
       <c r="G40" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H40">
         <v>2</v>
@@ -4286,7 +4286,7 @@
         <v>44955.5</v>
       </c>
       <c r="F43" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G43" t="s">
         <v>42</v>
@@ -4642,7 +4642,7 @@
         <v>44960.69791666666</v>
       </c>
       <c r="F47" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G47" t="s">
         <v>36</v>
@@ -4731,7 +4731,7 @@
         <v>44961.5</v>
       </c>
       <c r="F48" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G48" t="s">
         <v>29</v>
@@ -4808,7 +4808,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6192613</v>
+        <v>6192614</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4820,76 +4820,76 @@
         <v>44961.59375</v>
       </c>
       <c r="F49" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G49" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I49">
         <v>1</v>
       </c>
       <c r="J49" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K49">
-        <v>3.25</v>
+        <v>2.55</v>
       </c>
       <c r="L49">
+        <v>3.4</v>
+      </c>
+      <c r="M49">
+        <v>2.45</v>
+      </c>
+      <c r="N49">
+        <v>3.6</v>
+      </c>
+      <c r="O49">
         <v>3.5</v>
       </c>
-      <c r="M49">
-        <v>2.05</v>
-      </c>
-      <c r="N49">
-        <v>4.5</v>
-      </c>
-      <c r="O49">
-        <v>3.75</v>
-      </c>
       <c r="P49">
-        <v>1.75</v>
+        <v>1.909</v>
       </c>
       <c r="Q49">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R49">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S49">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T49">
         <v>2.5</v>
       </c>
       <c r="U49">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V49">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W49">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="X49">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y49">
         <v>-1</v>
       </c>
       <c r="Z49">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA49">
         <v>-1</v>
       </c>
       <c r="AB49">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC49">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -4897,7 +4897,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6192614</v>
+        <v>6192613</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4909,76 +4909,76 @@
         <v>44961.59375</v>
       </c>
       <c r="F50" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G50" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I50">
         <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K50">
-        <v>2.55</v>
+        <v>3.25</v>
       </c>
       <c r="L50">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M50">
-        <v>2.45</v>
+        <v>2.05</v>
       </c>
       <c r="N50">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="O50">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P50">
-        <v>1.909</v>
+        <v>1.75</v>
       </c>
       <c r="Q50">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R50">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S50">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T50">
         <v>2.5</v>
       </c>
       <c r="U50">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V50">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W50">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="X50">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y50">
         <v>-1</v>
       </c>
       <c r="Z50">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA50">
+        <v>-1</v>
+      </c>
+      <c r="AB50">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA50">
-        <v>-1</v>
-      </c>
-      <c r="AB50">
-        <v>-1</v>
-      </c>
       <c r="AC50">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -5446,7 +5446,7 @@
         <v>37</v>
       </c>
       <c r="G56" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -6158,7 +6158,7 @@
         <v>35</v>
       </c>
       <c r="G64" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H64">
         <v>1</v>
@@ -6410,7 +6410,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>5208593</v>
+        <v>5208596</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6422,55 +6422,55 @@
         <v>44975.59375</v>
       </c>
       <c r="F67" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G67" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J67" t="s">
         <v>48</v>
       </c>
       <c r="K67">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="L67">
         <v>3.4</v>
       </c>
       <c r="M67">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="N67">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="O67">
         <v>3.4</v>
       </c>
       <c r="P67">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="Q67">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R67">
+        <v>1.975</v>
+      </c>
+      <c r="S67">
         <v>1.875</v>
       </c>
-      <c r="S67">
+      <c r="T67">
+        <v>2.75</v>
+      </c>
+      <c r="U67">
+        <v>1.875</v>
+      </c>
+      <c r="V67">
         <v>1.975</v>
-      </c>
-      <c r="T67">
-        <v>2.5</v>
-      </c>
-      <c r="U67">
-        <v>1.925</v>
-      </c>
-      <c r="V67">
-        <v>1.925</v>
       </c>
       <c r="W67">
         <v>-1</v>
@@ -6482,16 +6482,16 @@
         <v>-1</v>
       </c>
       <c r="Z67">
-        <v>0.875</v>
+        <v>0.4875</v>
       </c>
       <c r="AA67">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB67">
         <v>-1</v>
       </c>
       <c r="AC67">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6499,7 +6499,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>5208596</v>
+        <v>5208593</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6511,55 +6511,55 @@
         <v>44975.59375</v>
       </c>
       <c r="F68" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G68" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" t="s">
         <v>48</v>
       </c>
       <c r="K68">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="L68">
         <v>3.4</v>
       </c>
       <c r="M68">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="N68">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="O68">
         <v>3.4</v>
       </c>
       <c r="P68">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="Q68">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R68">
+        <v>1.875</v>
+      </c>
+      <c r="S68">
         <v>1.975</v>
       </c>
-      <c r="S68">
-        <v>1.875</v>
-      </c>
       <c r="T68">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U68">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V68">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W68">
         <v>-1</v>
@@ -6571,16 +6571,16 @@
         <v>-1</v>
       </c>
       <c r="Z68">
-        <v>0.4875</v>
+        <v>0.875</v>
       </c>
       <c r="AA68">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB68">
         <v>-1</v>
       </c>
       <c r="AC68">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6689,7 +6689,7 @@
         <v>44976.39583333334</v>
       </c>
       <c r="F70" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G70" t="s">
         <v>41</v>
@@ -7226,7 +7226,7 @@
         <v>34</v>
       </c>
       <c r="G76" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H76">
         <v>3</v>
@@ -7315,7 +7315,7 @@
         <v>30</v>
       </c>
       <c r="G77" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H77">
         <v>2</v>
@@ -7846,7 +7846,7 @@
         <v>44988.69791666666</v>
       </c>
       <c r="F83" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G83" t="s">
         <v>41</v>
@@ -8012,7 +8012,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>5208603</v>
+        <v>5208601</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8024,58 +8024,58 @@
         <v>44989.59375</v>
       </c>
       <c r="F85" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G85" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H85">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J85" t="s">
         <v>50</v>
       </c>
       <c r="K85">
-        <v>1.444</v>
+        <v>1.85</v>
       </c>
       <c r="L85">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M85">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="N85">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="O85">
-        <v>5.25</v>
+        <v>3.4</v>
       </c>
       <c r="P85">
-        <v>10</v>
+        <v>3.3</v>
       </c>
       <c r="Q85">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R85">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S85">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T85">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U85">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V85">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W85">
-        <v>0.3</v>
+        <v>1.1</v>
       </c>
       <c r="X85">
         <v>-1</v>
@@ -8084,13 +8084,13 @@
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA85">
         <v>-1</v>
       </c>
       <c r="AB85">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC85">
         <v>-1</v>
@@ -8101,7 +8101,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>5208601</v>
+        <v>5208603</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8113,58 +8113,58 @@
         <v>44989.59375</v>
       </c>
       <c r="F86" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G86" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H86">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J86" t="s">
         <v>50</v>
       </c>
       <c r="K86">
-        <v>1.85</v>
+        <v>1.444</v>
       </c>
       <c r="L86">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M86">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="N86">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="O86">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="P86">
-        <v>3.3</v>
+        <v>10</v>
       </c>
       <c r="Q86">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R86">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S86">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T86">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U86">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V86">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W86">
-        <v>1.1</v>
+        <v>0.3</v>
       </c>
       <c r="X86">
         <v>-1</v>
@@ -8173,13 +8173,13 @@
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA86">
         <v>-1</v>
       </c>
       <c r="AB86">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC86">
         <v>-1</v>
@@ -8813,7 +8813,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>5208610</v>
+        <v>5208609</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8825,73 +8825,73 @@
         <v>44996.59375</v>
       </c>
       <c r="F94" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G94" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="H94">
+        <v>3</v>
+      </c>
+      <c r="I94">
+        <v>1</v>
+      </c>
+      <c r="J94" t="s">
+        <v>50</v>
+      </c>
+      <c r="K94">
+        <v>1.615</v>
+      </c>
+      <c r="L94">
         <v>4</v>
       </c>
-      <c r="I94">
+      <c r="M94">
+        <v>4.75</v>
+      </c>
+      <c r="N94">
+        <v>1.615</v>
+      </c>
+      <c r="O94">
         <v>4</v>
       </c>
-      <c r="J94" t="s">
-        <v>48</v>
-      </c>
-      <c r="K94">
-        <v>2.25</v>
-      </c>
-      <c r="L94">
-        <v>3.4</v>
-      </c>
-      <c r="M94">
-        <v>2.9</v>
-      </c>
-      <c r="N94">
-        <v>2.5</v>
-      </c>
-      <c r="O94">
-        <v>3.4</v>
-      </c>
       <c r="P94">
-        <v>2.6</v>
+        <v>4.5</v>
       </c>
       <c r="Q94">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R94">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S94">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T94">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U94">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V94">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W94">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X94">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y94">
         <v>-1</v>
       </c>
       <c r="Z94">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AA94">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB94">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AC94">
         <v>-1</v>
@@ -8902,7 +8902,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>5208609</v>
+        <v>5208610</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8914,73 +8914,73 @@
         <v>44996.59375</v>
       </c>
       <c r="F95" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G95" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H95">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I95">
+        <v>4</v>
+      </c>
+      <c r="J95" t="s">
+        <v>48</v>
+      </c>
+      <c r="K95">
+        <v>2.25</v>
+      </c>
+      <c r="L95">
+        <v>3.4</v>
+      </c>
+      <c r="M95">
+        <v>2.9</v>
+      </c>
+      <c r="N95">
+        <v>2.5</v>
+      </c>
+      <c r="O95">
+        <v>3.4</v>
+      </c>
+      <c r="P95">
+        <v>2.6</v>
+      </c>
+      <c r="Q95">
+        <v>0</v>
+      </c>
+      <c r="R95">
+        <v>1.875</v>
+      </c>
+      <c r="S95">
+        <v>1.975</v>
+      </c>
+      <c r="T95">
+        <v>2.75</v>
+      </c>
+      <c r="U95">
+        <v>2</v>
+      </c>
+      <c r="V95">
+        <v>1.85</v>
+      </c>
+      <c r="W95">
+        <v>-1</v>
+      </c>
+      <c r="X95">
+        <v>2.4</v>
+      </c>
+      <c r="Y95">
+        <v>-1</v>
+      </c>
+      <c r="Z95">
+        <v>0</v>
+      </c>
+      <c r="AA95">
+        <v>-0</v>
+      </c>
+      <c r="AB95">
         <v>1</v>
-      </c>
-      <c r="J95" t="s">
-        <v>50</v>
-      </c>
-      <c r="K95">
-        <v>1.615</v>
-      </c>
-      <c r="L95">
-        <v>4</v>
-      </c>
-      <c r="M95">
-        <v>4.75</v>
-      </c>
-      <c r="N95">
-        <v>1.615</v>
-      </c>
-      <c r="O95">
-        <v>4</v>
-      </c>
-      <c r="P95">
-        <v>4.5</v>
-      </c>
-      <c r="Q95">
-        <v>-1</v>
-      </c>
-      <c r="R95">
-        <v>2.05</v>
-      </c>
-      <c r="S95">
-        <v>1.8</v>
-      </c>
-      <c r="T95">
-        <v>3</v>
-      </c>
-      <c r="U95">
-        <v>1.95</v>
-      </c>
-      <c r="V95">
-        <v>1.9</v>
-      </c>
-      <c r="W95">
-        <v>0.615</v>
-      </c>
-      <c r="X95">
-        <v>-1</v>
-      </c>
-      <c r="Y95">
-        <v>-1</v>
-      </c>
-      <c r="Z95">
-        <v>1.05</v>
-      </c>
-      <c r="AA95">
-        <v>-1</v>
-      </c>
-      <c r="AB95">
-        <v>0.95</v>
       </c>
       <c r="AC95">
         <v>-1</v>
@@ -9362,7 +9362,7 @@
         <v>36</v>
       </c>
       <c r="G100" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H100">
         <v>2</v>
@@ -9448,7 +9448,7 @@
         <v>45002.69791666666</v>
       </c>
       <c r="F101" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G101" t="s">
         <v>34</v>
@@ -9626,7 +9626,7 @@
         <v>45003.59375</v>
       </c>
       <c r="F103" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G103" t="s">
         <v>38</v>
@@ -10338,7 +10338,7 @@
         <v>45017.45833333334</v>
       </c>
       <c r="F111" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G111" t="s">
         <v>45</v>
@@ -10605,7 +10605,7 @@
         <v>45017.65625</v>
       </c>
       <c r="F114" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G114" t="s">
         <v>29</v>
@@ -11127,7 +11127,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>5394553</v>
+        <v>5391100</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11139,76 +11139,76 @@
         <v>45024.45833333334</v>
       </c>
       <c r="F120" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G120" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J120" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K120">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L120">
         <v>3.5</v>
       </c>
       <c r="M120">
+        <v>3.3</v>
+      </c>
+      <c r="N120">
+        <v>2</v>
+      </c>
+      <c r="O120">
         <v>3.6</v>
       </c>
-      <c r="N120">
-        <v>2.25</v>
-      </c>
-      <c r="O120">
-        <v>3.4</v>
-      </c>
       <c r="P120">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="Q120">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R120">
+        <v>2.025</v>
+      </c>
+      <c r="S120">
+        <v>1.825</v>
+      </c>
+      <c r="T120">
+        <v>3</v>
+      </c>
+      <c r="U120">
         <v>1.95</v>
       </c>
-      <c r="S120">
+      <c r="V120">
         <v>1.9</v>
       </c>
-      <c r="T120">
-        <v>2.75</v>
-      </c>
-      <c r="U120">
-        <v>1.875</v>
-      </c>
-      <c r="V120">
-        <v>1.975</v>
-      </c>
       <c r="W120">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X120">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y120">
         <v>-1</v>
       </c>
       <c r="Z120">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA120">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB120">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC120">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11216,7 +11216,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>5391100</v>
+        <v>5394553</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11228,76 +11228,76 @@
         <v>45024.45833333334</v>
       </c>
       <c r="F121" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G121" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H121">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J121" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K121">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L121">
         <v>3.5</v>
       </c>
       <c r="M121">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="N121">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="O121">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P121">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="Q121">
+        <v>-0.25</v>
+      </c>
+      <c r="R121">
+        <v>1.95</v>
+      </c>
+      <c r="S121">
+        <v>1.9</v>
+      </c>
+      <c r="T121">
+        <v>2.75</v>
+      </c>
+      <c r="U121">
+        <v>1.875</v>
+      </c>
+      <c r="V121">
+        <v>1.975</v>
+      </c>
+      <c r="W121">
+        <v>-1</v>
+      </c>
+      <c r="X121">
+        <v>2.4</v>
+      </c>
+      <c r="Y121">
+        <v>-1</v>
+      </c>
+      <c r="Z121">
         <v>-0.5</v>
       </c>
-      <c r="R121">
-        <v>2.025</v>
-      </c>
-      <c r="S121">
-        <v>1.825</v>
-      </c>
-      <c r="T121">
-        <v>3</v>
-      </c>
-      <c r="U121">
-        <v>1.95</v>
-      </c>
-      <c r="V121">
-        <v>1.9</v>
-      </c>
-      <c r="W121">
-        <v>1</v>
-      </c>
-      <c r="X121">
-        <v>-1</v>
-      </c>
-      <c r="Y121">
-        <v>-1</v>
-      </c>
-      <c r="Z121">
-        <v>1.025</v>
-      </c>
       <c r="AA121">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB121">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC121">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11587,7 +11587,7 @@
         <v>33</v>
       </c>
       <c r="G125" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H125">
         <v>2</v>
@@ -11765,7 +11765,7 @@
         <v>46</v>
       </c>
       <c r="G127" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H127">
         <v>5</v>
@@ -12017,7 +12017,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>5424405</v>
+        <v>5424406</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12032,70 +12032,70 @@
         <v>31</v>
       </c>
       <c r="G130" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H130">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I130">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J130" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K130">
-        <v>1.75</v>
+        <v>2.4</v>
       </c>
       <c r="L130">
         <v>3.5</v>
       </c>
       <c r="M130">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="N130">
-        <v>1.65</v>
+        <v>2.4</v>
       </c>
       <c r="O130">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P130">
-        <v>5.25</v>
+        <v>2.75</v>
       </c>
       <c r="Q130">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R130">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S130">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T130">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U130">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V130">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W130">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X130">
         <v>-1</v>
       </c>
       <c r="Y130">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z130">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA130">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB130">
-        <v>1</v>
+        <v>1.025</v>
       </c>
       <c r="AC130">
         <v>-1</v>
@@ -12106,7 +12106,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>5424406</v>
+        <v>5424405</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12121,70 +12121,70 @@
         <v>32</v>
       </c>
       <c r="G131" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I131">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J131" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K131">
-        <v>2.4</v>
+        <v>1.75</v>
       </c>
       <c r="L131">
         <v>3.5</v>
       </c>
       <c r="M131">
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="N131">
-        <v>2.4</v>
+        <v>1.65</v>
       </c>
       <c r="O131">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P131">
-        <v>2.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q131">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R131">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S131">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T131">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U131">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V131">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W131">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X131">
         <v>-1</v>
       </c>
       <c r="Y131">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z131">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA131">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB131">
-        <v>1.025</v>
+        <v>1</v>
       </c>
       <c r="AC131">
         <v>-1</v>
@@ -12907,7 +12907,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6390693</v>
+        <v>6389865</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12919,73 +12919,73 @@
         <v>45039.5625</v>
       </c>
       <c r="F140" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G140" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H140">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I140">
         <v>2</v>
       </c>
       <c r="J140" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K140">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="L140">
         <v>3.6</v>
       </c>
       <c r="M140">
-        <v>2.45</v>
+        <v>1.95</v>
       </c>
       <c r="N140">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="O140">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P140">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="Q140">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R140">
+        <v>1.8</v>
+      </c>
+      <c r="S140">
+        <v>2.05</v>
+      </c>
+      <c r="T140">
+        <v>3</v>
+      </c>
+      <c r="U140">
+        <v>1.95</v>
+      </c>
+      <c r="V140">
         <v>1.9</v>
       </c>
-      <c r="S140">
-        <v>1.95</v>
-      </c>
-      <c r="T140">
-        <v>3.25</v>
-      </c>
-      <c r="U140">
-        <v>2</v>
-      </c>
-      <c r="V140">
-        <v>1.85</v>
-      </c>
       <c r="W140">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X140">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y140">
         <v>-1</v>
       </c>
       <c r="Z140">
-        <v>0.8999999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="AA140">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB140">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AC140">
         <v>-1</v>
@@ -12996,7 +12996,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6390442</v>
+        <v>6389819</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13008,73 +13008,73 @@
         <v>45039.5625</v>
       </c>
       <c r="F141" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G141" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H141">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I141">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J141" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K141">
-        <v>1.333</v>
+        <v>5.25</v>
       </c>
       <c r="L141">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="M141">
-        <v>8</v>
+        <v>1.533</v>
       </c>
       <c r="N141">
-        <v>1.3</v>
+        <v>6.5</v>
       </c>
       <c r="O141">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="P141">
-        <v>8.5</v>
+        <v>1.4</v>
       </c>
       <c r="Q141">
-        <v>-1.75</v>
+        <v>1.25</v>
       </c>
       <c r="R141">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S141">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T141">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U141">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V141">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W141">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X141">
         <v>-1</v>
       </c>
       <c r="Y141">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z141">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA141">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB141">
-        <v>1.025</v>
+        <v>1</v>
       </c>
       <c r="AC141">
         <v>-1</v>
@@ -13085,7 +13085,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6389819</v>
+        <v>6390066</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13097,73 +13097,73 @@
         <v>45039.5625</v>
       </c>
       <c r="F142" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G142" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H142">
         <v>2</v>
       </c>
       <c r="I142">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J142" t="s">
         <v>49</v>
       </c>
       <c r="K142">
-        <v>5.25</v>
+        <v>3</v>
       </c>
       <c r="L142">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M142">
-        <v>1.533</v>
+        <v>2.15</v>
       </c>
       <c r="N142">
-        <v>6.5</v>
+        <v>2.8</v>
       </c>
       <c r="O142">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P142">
-        <v>1.4</v>
+        <v>2.25</v>
       </c>
       <c r="Q142">
+        <v>0.25</v>
+      </c>
+      <c r="R142">
+        <v>1.825</v>
+      </c>
+      <c r="S142">
+        <v>2.025</v>
+      </c>
+      <c r="T142">
+        <v>3</v>
+      </c>
+      <c r="U142">
+        <v>1.8</v>
+      </c>
+      <c r="V142">
+        <v>2.05</v>
+      </c>
+      <c r="W142">
+        <v>-1</v>
+      </c>
+      <c r="X142">
+        <v>-1</v>
+      </c>
+      <c r="Y142">
         <v>1.25</v>
       </c>
-      <c r="R142">
-        <v>1.9</v>
-      </c>
-      <c r="S142">
-        <v>1.95</v>
-      </c>
-      <c r="T142">
-        <v>3.25</v>
-      </c>
-      <c r="U142">
-        <v>2</v>
-      </c>
-      <c r="V142">
-        <v>1.85</v>
-      </c>
-      <c r="W142">
-        <v>-1</v>
-      </c>
-      <c r="X142">
-        <v>-1</v>
-      </c>
-      <c r="Y142">
-        <v>0.3999999999999999</v>
-      </c>
       <c r="Z142">
         <v>-1</v>
       </c>
       <c r="AA142">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AB142">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AC142">
         <v>-1</v>
@@ -13189,7 +13189,7 @@
         <v>42</v>
       </c>
       <c r="G143" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H143">
         <v>1</v>
@@ -13263,7 +13263,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6390066</v>
+        <v>6390442</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13275,73 +13275,73 @@
         <v>45039.5625</v>
       </c>
       <c r="F144" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G144" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I144">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J144" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K144">
-        <v>3</v>
+        <v>1.333</v>
       </c>
       <c r="L144">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M144">
-        <v>2.15</v>
+        <v>8</v>
       </c>
       <c r="N144">
-        <v>2.8</v>
+        <v>1.3</v>
       </c>
       <c r="O144">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="P144">
-        <v>2.25</v>
+        <v>8.5</v>
       </c>
       <c r="Q144">
-        <v>0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R144">
+        <v>1.975</v>
+      </c>
+      <c r="S144">
+        <v>1.875</v>
+      </c>
+      <c r="T144">
+        <v>3.75</v>
+      </c>
+      <c r="U144">
+        <v>2.025</v>
+      </c>
+      <c r="V144">
         <v>1.825</v>
       </c>
-      <c r="S144">
-        <v>2.025</v>
-      </c>
-      <c r="T144">
-        <v>3</v>
-      </c>
-      <c r="U144">
-        <v>1.8</v>
-      </c>
-      <c r="V144">
-        <v>2.05</v>
-      </c>
       <c r="W144">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X144">
         <v>-1</v>
       </c>
       <c r="Y144">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z144">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA144">
+        <v>-1</v>
+      </c>
+      <c r="AB144">
         <v>1.025</v>
-      </c>
-      <c r="AB144">
-        <v>0.8</v>
       </c>
       <c r="AC144">
         <v>-1</v>
@@ -13352,7 +13352,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6389865</v>
+        <v>6390693</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13364,73 +13364,73 @@
         <v>45039.5625</v>
       </c>
       <c r="F145" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G145" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I145">
         <v>2</v>
       </c>
       <c r="J145" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K145">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="L145">
         <v>3.6</v>
       </c>
       <c r="M145">
+        <v>2.45</v>
+      </c>
+      <c r="N145">
+        <v>2.4</v>
+      </c>
+      <c r="O145">
+        <v>3.8</v>
+      </c>
+      <c r="P145">
+        <v>2.45</v>
+      </c>
+      <c r="Q145">
+        <v>0</v>
+      </c>
+      <c r="R145">
+        <v>1.9</v>
+      </c>
+      <c r="S145">
         <v>1.95</v>
       </c>
-      <c r="N145">
-        <v>2.8</v>
-      </c>
-      <c r="O145">
-        <v>3.5</v>
-      </c>
-      <c r="P145">
-        <v>2.3</v>
-      </c>
-      <c r="Q145">
-        <v>0.25</v>
-      </c>
-      <c r="R145">
-        <v>1.8</v>
-      </c>
-      <c r="S145">
-        <v>2.05</v>
-      </c>
       <c r="T145">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U145">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V145">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W145">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X145">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y145">
         <v>-1</v>
       </c>
       <c r="Z145">
-        <v>0.4</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA145">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB145">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AC145">
         <v>-1</v>
@@ -13542,7 +13542,7 @@
         <v>45045.55208333334</v>
       </c>
       <c r="F147" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G147" t="s">
         <v>29</v>
@@ -13990,7 +13990,7 @@
         <v>38</v>
       </c>
       <c r="G152" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H152">
         <v>3</v>
@@ -14165,7 +14165,7 @@
         <v>45059.55208333334</v>
       </c>
       <c r="F154" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G154" t="s">
         <v>42</v>
@@ -14613,7 +14613,7 @@
         <v>42</v>
       </c>
       <c r="G159" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H159">
         <v>2</v>
@@ -14969,7 +14969,7 @@
         <v>29</v>
       </c>
       <c r="G163" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H163">
         <v>0</v>
@@ -15322,7 +15322,7 @@
         <v>45080.64583333334</v>
       </c>
       <c r="F167" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G167" t="s">
         <v>38</v>
@@ -15948,7 +15948,7 @@
         <v>33</v>
       </c>
       <c r="G174" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H174">
         <v>1</v>
@@ -16479,7 +16479,7 @@
         <v>45143.55208333334</v>
       </c>
       <c r="F180" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G180" t="s">
         <v>44</v>
@@ -17357,7 +17357,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>7030334</v>
+        <v>6810007</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17369,55 +17369,55 @@
         <v>45151.45833333334</v>
       </c>
       <c r="F190" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G190" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H190">
         <v>0</v>
       </c>
       <c r="I190">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J190" t="s">
         <v>49</v>
       </c>
       <c r="K190">
-        <v>2.75</v>
+        <v>4.75</v>
       </c>
       <c r="L190">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M190">
-        <v>2.25</v>
+        <v>1.571</v>
       </c>
       <c r="N190">
-        <v>2.4</v>
+        <v>7</v>
       </c>
       <c r="O190">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P190">
-        <v>2.55</v>
+        <v>1.333</v>
       </c>
       <c r="Q190">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="R190">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S190">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T190">
         <v>3</v>
       </c>
       <c r="U190">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V190">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W190">
         <v>-1</v>
@@ -17426,19 +17426,19 @@
         <v>-1</v>
       </c>
       <c r="Y190">
-        <v>1.55</v>
+        <v>0.333</v>
       </c>
       <c r="Z190">
         <v>-1</v>
       </c>
       <c r="AA190">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB190">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC190">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="191" spans="1:29">
@@ -17446,7 +17446,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>6810007</v>
+        <v>7030334</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17458,55 +17458,55 @@
         <v>45151.45833333334</v>
       </c>
       <c r="F191" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G191" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H191">
         <v>0</v>
       </c>
       <c r="I191">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J191" t="s">
         <v>49</v>
       </c>
       <c r="K191">
-        <v>4.75</v>
+        <v>2.75</v>
       </c>
       <c r="L191">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M191">
-        <v>1.571</v>
+        <v>2.25</v>
       </c>
       <c r="N191">
-        <v>7</v>
+        <v>2.4</v>
       </c>
       <c r="O191">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P191">
-        <v>1.333</v>
+        <v>2.55</v>
       </c>
       <c r="Q191">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="R191">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S191">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T191">
         <v>3</v>
       </c>
       <c r="U191">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V191">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W191">
         <v>-1</v>
@@ -17515,19 +17515,19 @@
         <v>-1</v>
       </c>
       <c r="Y191">
-        <v>0.333</v>
+        <v>1.55</v>
       </c>
       <c r="Z191">
         <v>-1</v>
       </c>
       <c r="AA191">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB191">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC191">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="192" spans="1:29">
@@ -17817,7 +17817,7 @@
         <v>29</v>
       </c>
       <c r="G195" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H195">
         <v>0</v>
@@ -18069,7 +18069,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>6810012</v>
+        <v>6810015</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18081,61 +18081,61 @@
         <v>45158.45833333334</v>
       </c>
       <c r="F198" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G198" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J198" t="s">
         <v>48</v>
       </c>
       <c r="K198">
+        <v>1.45</v>
+      </c>
+      <c r="L198">
+        <v>4.5</v>
+      </c>
+      <c r="M198">
+        <v>7</v>
+      </c>
+      <c r="N198">
         <v>1.533</v>
       </c>
-      <c r="L198">
+      <c r="O198">
         <v>4.2</v>
       </c>
-      <c r="M198">
-        <v>5.5</v>
-      </c>
-      <c r="N198">
-        <v>1.6</v>
-      </c>
-      <c r="O198">
-        <v>4</v>
-      </c>
       <c r="P198">
-        <v>5.25</v>
+        <v>6</v>
       </c>
       <c r="Q198">
         <v>-1</v>
       </c>
       <c r="R198">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S198">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T198">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U198">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V198">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W198">
         <v>-1</v>
       </c>
       <c r="X198">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Y198">
         <v>-1</v>
@@ -18144,13 +18144,13 @@
         <v>-1</v>
       </c>
       <c r="AA198">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AB198">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC198">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="199" spans="1:29">
@@ -18158,7 +18158,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>6810015</v>
+        <v>6810012</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18170,61 +18170,61 @@
         <v>45158.45833333334</v>
       </c>
       <c r="F199" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G199" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J199" t="s">
         <v>48</v>
       </c>
       <c r="K199">
-        <v>1.45</v>
+        <v>1.533</v>
       </c>
       <c r="L199">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="M199">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="N199">
-        <v>1.533</v>
+        <v>1.6</v>
       </c>
       <c r="O199">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P199">
-        <v>6</v>
+        <v>5.25</v>
       </c>
       <c r="Q199">
         <v>-1</v>
       </c>
       <c r="R199">
+        <v>1.975</v>
+      </c>
+      <c r="S199">
+        <v>1.875</v>
+      </c>
+      <c r="T199">
+        <v>3</v>
+      </c>
+      <c r="U199">
         <v>1.9</v>
       </c>
-      <c r="S199">
+      <c r="V199">
         <v>1.95</v>
       </c>
-      <c r="T199">
-        <v>2.5</v>
-      </c>
-      <c r="U199">
-        <v>1.8</v>
-      </c>
-      <c r="V199">
-        <v>2.05</v>
-      </c>
       <c r="W199">
         <v>-1</v>
       </c>
       <c r="X199">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Y199">
         <v>-1</v>
@@ -18233,13 +18233,13 @@
         <v>-1</v>
       </c>
       <c r="AA199">
+        <v>0.875</v>
+      </c>
+      <c r="AB199">
+        <v>-1</v>
+      </c>
+      <c r="AC199">
         <v>0.95</v>
-      </c>
-      <c r="AB199">
-        <v>0.8</v>
-      </c>
-      <c r="AC199">
-        <v>-1</v>
       </c>
     </row>
     <row r="200" spans="1:29">
@@ -18707,7 +18707,7 @@
         <v>46</v>
       </c>
       <c r="G205" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H205">
         <v>0</v>
@@ -18971,7 +18971,7 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F208" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G208" t="s">
         <v>38</v>
@@ -19686,7 +19686,7 @@
         <v>47</v>
       </c>
       <c r="G216" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H216">
         <v>2</v>
@@ -20751,7 +20751,7 @@
         <v>45193.45833333334</v>
       </c>
       <c r="F228" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G228" t="s">
         <v>43</v>
@@ -21288,7 +21288,7 @@
         <v>45</v>
       </c>
       <c r="G234" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H234">
         <v>2</v>
@@ -22086,7 +22086,7 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F243" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G243" t="s">
         <v>37</v>
@@ -23154,7 +23154,7 @@
         <v>45221.45833333334</v>
       </c>
       <c r="F255" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G255" t="s">
         <v>42</v>
@@ -23513,7 +23513,7 @@
         <v>40</v>
       </c>
       <c r="G259" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H259">
         <v>0</v>
@@ -24489,7 +24489,7 @@
         <v>45235.39583333334</v>
       </c>
       <c r="F270" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G270" t="s">
         <v>36</v>
@@ -25204,7 +25204,7 @@
         <v>41</v>
       </c>
       <c r="G278" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H278">
         <v>0</v>
@@ -25646,7 +25646,7 @@
         <v>45255.5</v>
       </c>
       <c r="F283" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G283" t="s">
         <v>30</v>
@@ -26895,7 +26895,7 @@
         <v>43</v>
       </c>
       <c r="G297" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H297">
         <v>2</v>
@@ -27070,7 +27070,7 @@
         <v>45269.5</v>
       </c>
       <c r="F299" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G299" t="s">
         <v>33</v>
@@ -27785,7 +27785,7 @@
         <v>37</v>
       </c>
       <c r="G307" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H307">
         <v>1</v>
@@ -28405,7 +28405,7 @@
         <v>45280.60416666666</v>
       </c>
       <c r="F314" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G314" t="s">
         <v>45</v>
@@ -29194,7 +29194,7 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>6810145</v>
+        <v>6810142</v>
       </c>
       <c r="C323" t="s">
         <v>28</v>
@@ -29206,76 +29206,76 @@
         <v>45286.5</v>
       </c>
       <c r="F323" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G323" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H323">
+        <v>3</v>
+      </c>
+      <c r="I323">
         <v>0</v>
       </c>
-      <c r="I323">
-        <v>2</v>
-      </c>
       <c r="J323" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K323">
-        <v>7</v>
+        <v>1.75</v>
       </c>
       <c r="L323">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M323">
-        <v>1.4</v>
+        <v>4</v>
       </c>
       <c r="N323">
-        <v>8.5</v>
+        <v>1.8</v>
       </c>
       <c r="O323">
-        <v>5.75</v>
+        <v>3.8</v>
       </c>
       <c r="P323">
-        <v>1.285</v>
+        <v>3.8</v>
       </c>
       <c r="Q323">
-        <v>1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R323">
+        <v>1.825</v>
+      </c>
+      <c r="S323">
         <v>2.025</v>
       </c>
-      <c r="S323">
-        <v>1.825</v>
-      </c>
       <c r="T323">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U323">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="V323">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W323">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X323">
         <v>-1</v>
       </c>
       <c r="Y323">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z323">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA323">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB323">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC323">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="324" spans="1:29">
@@ -29283,7 +29283,7 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>6810142</v>
+        <v>6810145</v>
       </c>
       <c r="C324" t="s">
         <v>28</v>
@@ -29295,76 +29295,76 @@
         <v>45286.5</v>
       </c>
       <c r="F324" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G324" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H324">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I324">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J324" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K324">
-        <v>1.75</v>
+        <v>7</v>
       </c>
       <c r="L324">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M324">
-        <v>4</v>
+        <v>1.4</v>
       </c>
       <c r="N324">
+        <v>8.5</v>
+      </c>
+      <c r="O324">
+        <v>5.75</v>
+      </c>
+      <c r="P324">
+        <v>1.285</v>
+      </c>
+      <c r="Q324">
+        <v>1.5</v>
+      </c>
+      <c r="R324">
+        <v>2.025</v>
+      </c>
+      <c r="S324">
+        <v>1.825</v>
+      </c>
+      <c r="T324">
+        <v>3.25</v>
+      </c>
+      <c r="U324">
+        <v>2.05</v>
+      </c>
+      <c r="V324">
         <v>1.8</v>
       </c>
-      <c r="O324">
-        <v>3.8</v>
-      </c>
-      <c r="P324">
-        <v>3.8</v>
-      </c>
-      <c r="Q324">
-        <v>-0.5</v>
-      </c>
-      <c r="R324">
-        <v>1.825</v>
-      </c>
-      <c r="S324">
-        <v>2.025</v>
-      </c>
-      <c r="T324">
-        <v>3</v>
-      </c>
-      <c r="U324">
-        <v>1.975</v>
-      </c>
-      <c r="V324">
-        <v>1.875</v>
-      </c>
       <c r="W324">
+        <v>-1</v>
+      </c>
+      <c r="X324">
+        <v>-1</v>
+      </c>
+      <c r="Y324">
+        <v>0.2849999999999999</v>
+      </c>
+      <c r="Z324">
+        <v>-1</v>
+      </c>
+      <c r="AA324">
+        <v>0.825</v>
+      </c>
+      <c r="AB324">
+        <v>-1</v>
+      </c>
+      <c r="AC324">
         <v>0.8</v>
-      </c>
-      <c r="X324">
-        <v>-1</v>
-      </c>
-      <c r="Y324">
-        <v>-1</v>
-      </c>
-      <c r="Z324">
-        <v>0.825</v>
-      </c>
-      <c r="AA324">
-        <v>-1</v>
-      </c>
-      <c r="AB324">
-        <v>0</v>
-      </c>
-      <c r="AC324">
-        <v>-0</v>
       </c>
     </row>
     <row r="325" spans="1:29">
@@ -29639,7 +29639,7 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>6810139</v>
+        <v>6810143</v>
       </c>
       <c r="C328" t="s">
         <v>28</v>
@@ -29651,58 +29651,58 @@
         <v>45287.69791666666</v>
       </c>
       <c r="F328" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G328" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H328">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I328">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J328" t="s">
         <v>50</v>
       </c>
       <c r="K328">
-        <v>1.869</v>
+        <v>2.05</v>
       </c>
       <c r="L328">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="M328">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="N328">
-        <v>2.05</v>
+        <v>2.375</v>
       </c>
       <c r="O328">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P328">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q328">
         <v>-0.25</v>
       </c>
       <c r="R328">
+        <v>2.025</v>
+      </c>
+      <c r="S328">
         <v>1.825</v>
       </c>
-      <c r="S328">
+      <c r="T328">
+        <v>2.25</v>
+      </c>
+      <c r="U328">
         <v>2.025</v>
       </c>
-      <c r="T328">
-        <v>2.75</v>
-      </c>
-      <c r="U328">
-        <v>1.9</v>
-      </c>
       <c r="V328">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W328">
-        <v>1.05</v>
+        <v>1.375</v>
       </c>
       <c r="X328">
         <v>-1</v>
@@ -29711,16 +29711,16 @@
         <v>-1</v>
       </c>
       <c r="Z328">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AA328">
         <v>-1</v>
       </c>
       <c r="AB328">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC328">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="329" spans="1:29">
@@ -29728,7 +29728,7 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>6810143</v>
+        <v>6810139</v>
       </c>
       <c r="C329" t="s">
         <v>28</v>
@@ -29740,58 +29740,58 @@
         <v>45287.69791666666</v>
       </c>
       <c r="F329" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G329" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H329">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I329">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J329" t="s">
         <v>50</v>
       </c>
       <c r="K329">
+        <v>1.869</v>
+      </c>
+      <c r="L329">
+        <v>3.7</v>
+      </c>
+      <c r="M329">
+        <v>3.8</v>
+      </c>
+      <c r="N329">
         <v>2.05</v>
       </c>
-      <c r="L329">
-        <v>3.4</v>
-      </c>
-      <c r="M329">
-        <v>3.5</v>
-      </c>
-      <c r="N329">
-        <v>2.375</v>
-      </c>
       <c r="O329">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P329">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="Q329">
         <v>-0.25</v>
       </c>
       <c r="R329">
+        <v>1.825</v>
+      </c>
+      <c r="S329">
         <v>2.025</v>
       </c>
-      <c r="S329">
-        <v>1.825</v>
-      </c>
       <c r="T329">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U329">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V329">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W329">
-        <v>1.375</v>
+        <v>1.05</v>
       </c>
       <c r="X329">
         <v>-1</v>
@@ -29800,16 +29800,16 @@
         <v>-1</v>
       </c>
       <c r="Z329">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AA329">
         <v>-1</v>
       </c>
       <c r="AB329">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC329">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="330" spans="1:29">
@@ -29921,7 +29921,7 @@
         <v>34</v>
       </c>
       <c r="G331" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H331">
         <v>1</v>
@@ -30452,7 +30452,7 @@
         <v>45317.69791666666</v>
       </c>
       <c r="F337" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G337" t="s">
         <v>29</v>
@@ -30618,7 +30618,7 @@
         <v>337</v>
       </c>
       <c r="B339">
-        <v>6810159</v>
+        <v>6810158</v>
       </c>
       <c r="C339" t="s">
         <v>28</v>
@@ -30630,73 +30630,73 @@
         <v>45318.69791666666</v>
       </c>
       <c r="F339" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G339" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H339">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I339">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J339" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K339">
-        <v>5.5</v>
+        <v>1.363</v>
       </c>
       <c r="L339">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="M339">
-        <v>1.5</v>
+        <v>6.5</v>
       </c>
       <c r="N339">
-        <v>6</v>
+        <v>1.444</v>
       </c>
       <c r="O339">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P339">
-        <v>1.45</v>
+        <v>5.75</v>
       </c>
       <c r="Q339">
-        <v>1.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R339">
+        <v>2</v>
+      </c>
+      <c r="S339">
+        <v>1.85</v>
+      </c>
+      <c r="T339">
+        <v>3</v>
+      </c>
+      <c r="U339">
+        <v>2.025</v>
+      </c>
+      <c r="V339">
         <v>1.825</v>
       </c>
-      <c r="S339">
-        <v>2.025</v>
-      </c>
-      <c r="T339">
-        <v>2.75</v>
-      </c>
-      <c r="U339">
-        <v>1.95</v>
-      </c>
-      <c r="V339">
-        <v>1.9</v>
-      </c>
       <c r="W339">
         <v>-1</v>
       </c>
       <c r="X339">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y339">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z339">
         <v>-1</v>
       </c>
       <c r="AA339">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB339">
         <v>1.025</v>
-      </c>
-      <c r="AB339">
-        <v>0.95</v>
       </c>
       <c r="AC339">
         <v>-1</v>
@@ -30707,7 +30707,7 @@
         <v>338</v>
       </c>
       <c r="B340">
-        <v>6810158</v>
+        <v>6810159</v>
       </c>
       <c r="C340" t="s">
         <v>28</v>
@@ -30719,73 +30719,73 @@
         <v>45318.69791666666</v>
       </c>
       <c r="F340" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G340" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H340">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I340">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J340" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K340">
-        <v>1.363</v>
+        <v>5.5</v>
       </c>
       <c r="L340">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="M340">
-        <v>6.5</v>
+        <v>1.5</v>
       </c>
       <c r="N340">
-        <v>1.444</v>
+        <v>6</v>
       </c>
       <c r="O340">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P340">
-        <v>5.75</v>
+        <v>1.45</v>
       </c>
       <c r="Q340">
-        <v>-1.25</v>
+        <v>1.25</v>
       </c>
       <c r="R340">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S340">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T340">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U340">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V340">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W340">
         <v>-1</v>
       </c>
       <c r="X340">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y340">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z340">
         <v>-1</v>
       </c>
       <c r="AA340">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AB340">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AC340">
         <v>-1</v>
@@ -31167,7 +31167,7 @@
         <v>38</v>
       </c>
       <c r="G345" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H345">
         <v>4</v>
@@ -31330,7 +31330,7 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>6810165</v>
+        <v>6810168</v>
       </c>
       <c r="C347" t="s">
         <v>28</v>
@@ -31342,58 +31342,58 @@
         <v>45322.61458333334</v>
       </c>
       <c r="F347" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G347" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H347">
+        <v>2</v>
+      </c>
+      <c r="I347">
         <v>1</v>
-      </c>
-      <c r="I347">
-        <v>0</v>
       </c>
       <c r="J347" t="s">
         <v>50</v>
       </c>
       <c r="K347">
-        <v>1.6</v>
+        <v>4.5</v>
       </c>
       <c r="L347">
+        <v>4.2</v>
+      </c>
+      <c r="M347">
+        <v>1.666</v>
+      </c>
+      <c r="N347">
+        <v>4.333</v>
+      </c>
+      <c r="O347">
         <v>4</v>
       </c>
-      <c r="M347">
-        <v>5</v>
-      </c>
-      <c r="N347">
-        <v>1.8</v>
-      </c>
-      <c r="O347">
-        <v>3.75</v>
-      </c>
       <c r="P347">
-        <v>4.2</v>
+        <v>1.7</v>
       </c>
       <c r="Q347">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R347">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S347">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T347">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U347">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V347">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W347">
-        <v>0.8</v>
+        <v>3.333</v>
       </c>
       <c r="X347">
         <v>-1</v>
@@ -31402,16 +31402,16 @@
         <v>-1</v>
       </c>
       <c r="Z347">
-        <v>0.5249999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA347">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB347">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC347">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="348" spans="1:29">
@@ -31419,7 +31419,7 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>6810168</v>
+        <v>6810165</v>
       </c>
       <c r="C348" t="s">
         <v>28</v>
@@ -31431,58 +31431,58 @@
         <v>45322.61458333334</v>
       </c>
       <c r="F348" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G348" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H348">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I348">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J348" t="s">
         <v>50</v>
       </c>
       <c r="K348">
-        <v>4.5</v>
+        <v>1.6</v>
       </c>
       <c r="L348">
+        <v>4</v>
+      </c>
+      <c r="M348">
+        <v>5</v>
+      </c>
+      <c r="N348">
+        <v>1.8</v>
+      </c>
+      <c r="O348">
+        <v>3.75</v>
+      </c>
+      <c r="P348">
         <v>4.2</v>
       </c>
-      <c r="M348">
-        <v>1.666</v>
-      </c>
-      <c r="N348">
-        <v>4.333</v>
-      </c>
-      <c r="O348">
-        <v>4</v>
-      </c>
-      <c r="P348">
-        <v>1.7</v>
-      </c>
       <c r="Q348">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R348">
+        <v>2.05</v>
+      </c>
+      <c r="S348">
+        <v>1.8</v>
+      </c>
+      <c r="T348">
+        <v>2.75</v>
+      </c>
+      <c r="U348">
         <v>1.95</v>
       </c>
-      <c r="S348">
+      <c r="V348">
         <v>1.9</v>
       </c>
-      <c r="T348">
-        <v>3</v>
-      </c>
-      <c r="U348">
-        <v>1.975</v>
-      </c>
-      <c r="V348">
-        <v>1.875</v>
-      </c>
       <c r="W348">
-        <v>3.333</v>
+        <v>0.8</v>
       </c>
       <c r="X348">
         <v>-1</v>
@@ -31491,16 +31491,16 @@
         <v>-1</v>
       </c>
       <c r="Z348">
-        <v>0.95</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AA348">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB348">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC348">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="349" spans="1:29">
@@ -32499,7 +32499,7 @@
         <v>45326.63541666666</v>
       </c>
       <c r="F360" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G360" t="s">
         <v>46</v>
@@ -33214,7 +33214,7 @@
         <v>42</v>
       </c>
       <c r="G368" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H368">
         <v>1</v>
@@ -33656,7 +33656,7 @@
         <v>45340.39583333334</v>
       </c>
       <c r="F373" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G373" t="s">
         <v>41</v>
@@ -33993,6 +33993,598 @@
       </c>
       <c r="AC376">
         <v>0.9750000000000001</v>
+      </c>
+    </row>
+    <row r="377" spans="1:29">
+      <c r="A377" s="1">
+        <v>375</v>
+      </c>
+      <c r="B377">
+        <v>6810198</v>
+      </c>
+      <c r="C377" t="s">
+        <v>28</v>
+      </c>
+      <c r="D377" t="s">
+        <v>28</v>
+      </c>
+      <c r="E377" s="2">
+        <v>45345.69791666666</v>
+      </c>
+      <c r="F377" t="s">
+        <v>44</v>
+      </c>
+      <c r="G377" t="s">
+        <v>34</v>
+      </c>
+      <c r="K377">
+        <v>4.2</v>
+      </c>
+      <c r="L377">
+        <v>3.75</v>
+      </c>
+      <c r="M377">
+        <v>1.8</v>
+      </c>
+      <c r="N377">
+        <v>4.333</v>
+      </c>
+      <c r="O377">
+        <v>3.75</v>
+      </c>
+      <c r="P377">
+        <v>1.8</v>
+      </c>
+      <c r="Q377">
+        <v>0.75</v>
+      </c>
+      <c r="R377">
+        <v>1.825</v>
+      </c>
+      <c r="S377">
+        <v>2.025</v>
+      </c>
+      <c r="T377">
+        <v>2.75</v>
+      </c>
+      <c r="U377">
+        <v>1.95</v>
+      </c>
+      <c r="V377">
+        <v>1.9</v>
+      </c>
+      <c r="W377">
+        <v>0</v>
+      </c>
+      <c r="X377">
+        <v>0</v>
+      </c>
+      <c r="Y377">
+        <v>0</v>
+      </c>
+      <c r="Z377">
+        <v>0</v>
+      </c>
+      <c r="AA377">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="1:29">
+      <c r="A378" s="1">
+        <v>376</v>
+      </c>
+      <c r="B378">
+        <v>6810200</v>
+      </c>
+      <c r="C378" t="s">
+        <v>28</v>
+      </c>
+      <c r="D378" t="s">
+        <v>28</v>
+      </c>
+      <c r="E378" s="2">
+        <v>45346.5</v>
+      </c>
+      <c r="F378" t="s">
+        <v>47</v>
+      </c>
+      <c r="G378" t="s">
+        <v>37</v>
+      </c>
+      <c r="K378">
+        <v>2.8</v>
+      </c>
+      <c r="L378">
+        <v>3.4</v>
+      </c>
+      <c r="M378">
+        <v>2.4</v>
+      </c>
+      <c r="N378">
+        <v>2.8</v>
+      </c>
+      <c r="O378">
+        <v>3.4</v>
+      </c>
+      <c r="P378">
+        <v>2.375</v>
+      </c>
+      <c r="Q378">
+        <v>0.25</v>
+      </c>
+      <c r="R378">
+        <v>1.775</v>
+      </c>
+      <c r="S378">
+        <v>2.1</v>
+      </c>
+      <c r="T378">
+        <v>2.5</v>
+      </c>
+      <c r="U378">
+        <v>1.9</v>
+      </c>
+      <c r="V378">
+        <v>1.95</v>
+      </c>
+      <c r="W378">
+        <v>0</v>
+      </c>
+      <c r="X378">
+        <v>0</v>
+      </c>
+      <c r="Y378">
+        <v>0</v>
+      </c>
+      <c r="Z378">
+        <v>0</v>
+      </c>
+      <c r="AA378">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="1:29">
+      <c r="A379" s="1">
+        <v>377</v>
+      </c>
+      <c r="B379">
+        <v>6810195</v>
+      </c>
+      <c r="C379" t="s">
+        <v>28</v>
+      </c>
+      <c r="D379" t="s">
+        <v>28</v>
+      </c>
+      <c r="E379" s="2">
+        <v>45346.59375</v>
+      </c>
+      <c r="F379" t="s">
+        <v>46</v>
+      </c>
+      <c r="G379" t="s">
+        <v>38</v>
+      </c>
+      <c r="K379">
+        <v>1.95</v>
+      </c>
+      <c r="L379">
+        <v>3.4</v>
+      </c>
+      <c r="M379">
+        <v>3.8</v>
+      </c>
+      <c r="N379">
+        <v>2.1</v>
+      </c>
+      <c r="O379">
+        <v>3.3</v>
+      </c>
+      <c r="P379">
+        <v>3.5</v>
+      </c>
+      <c r="Q379">
+        <v>-0.25</v>
+      </c>
+      <c r="R379">
+        <v>1.8</v>
+      </c>
+      <c r="S379">
+        <v>2.05</v>
+      </c>
+      <c r="T379">
+        <v>2.5</v>
+      </c>
+      <c r="U379">
+        <v>1.9</v>
+      </c>
+      <c r="V379">
+        <v>1.95</v>
+      </c>
+      <c r="W379">
+        <v>0</v>
+      </c>
+      <c r="X379">
+        <v>0</v>
+      </c>
+      <c r="Y379">
+        <v>0</v>
+      </c>
+      <c r="Z379">
+        <v>0</v>
+      </c>
+      <c r="AA379">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="1:29">
+      <c r="A380" s="1">
+        <v>378</v>
+      </c>
+      <c r="B380">
+        <v>6810197</v>
+      </c>
+      <c r="C380" t="s">
+        <v>28</v>
+      </c>
+      <c r="D380" t="s">
+        <v>28</v>
+      </c>
+      <c r="E380" s="2">
+        <v>45346.69791666666</v>
+      </c>
+      <c r="F380" t="s">
+        <v>40</v>
+      </c>
+      <c r="G380" t="s">
+        <v>45</v>
+      </c>
+      <c r="K380">
+        <v>1.65</v>
+      </c>
+      <c r="L380">
+        <v>3.8</v>
+      </c>
+      <c r="M380">
+        <v>5</v>
+      </c>
+      <c r="N380">
+        <v>1.65</v>
+      </c>
+      <c r="O380">
+        <v>3.8</v>
+      </c>
+      <c r="P380">
+        <v>5</v>
+      </c>
+      <c r="Q380">
+        <v>-0.75</v>
+      </c>
+      <c r="R380">
+        <v>1.8</v>
+      </c>
+      <c r="S380">
+        <v>2.05</v>
+      </c>
+      <c r="T380">
+        <v>2.75</v>
+      </c>
+      <c r="U380">
+        <v>2.025</v>
+      </c>
+      <c r="V380">
+        <v>1.825</v>
+      </c>
+      <c r="W380">
+        <v>0</v>
+      </c>
+      <c r="X380">
+        <v>0</v>
+      </c>
+      <c r="Y380">
+        <v>0</v>
+      </c>
+      <c r="Z380">
+        <v>0</v>
+      </c>
+      <c r="AA380">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="1:29">
+      <c r="A381" s="1">
+        <v>379</v>
+      </c>
+      <c r="B381">
+        <v>6810202</v>
+      </c>
+      <c r="C381" t="s">
+        <v>28</v>
+      </c>
+      <c r="D381" t="s">
+        <v>28</v>
+      </c>
+      <c r="E381" s="2">
+        <v>45347.39583333334</v>
+      </c>
+      <c r="F381" t="s">
+        <v>41</v>
+      </c>
+      <c r="G381" t="s">
+        <v>36</v>
+      </c>
+      <c r="K381">
+        <v>1.666</v>
+      </c>
+      <c r="L381">
+        <v>3.75</v>
+      </c>
+      <c r="M381">
+        <v>5</v>
+      </c>
+      <c r="N381">
+        <v>1.666</v>
+      </c>
+      <c r="O381">
+        <v>3.75</v>
+      </c>
+      <c r="P381">
+        <v>5</v>
+      </c>
+      <c r="Q381">
+        <v>-0.75</v>
+      </c>
+      <c r="R381">
+        <v>1.875</v>
+      </c>
+      <c r="S381">
+        <v>1.975</v>
+      </c>
+      <c r="T381">
+        <v>2.75</v>
+      </c>
+      <c r="U381">
+        <v>1.925</v>
+      </c>
+      <c r="V381">
+        <v>1.925</v>
+      </c>
+      <c r="W381">
+        <v>0</v>
+      </c>
+      <c r="X381">
+        <v>0</v>
+      </c>
+      <c r="Y381">
+        <v>0</v>
+      </c>
+      <c r="Z381">
+        <v>0</v>
+      </c>
+      <c r="AA381">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="1:29">
+      <c r="A382" s="1">
+        <v>380</v>
+      </c>
+      <c r="B382">
+        <v>6810196</v>
+      </c>
+      <c r="C382" t="s">
+        <v>28</v>
+      </c>
+      <c r="D382" t="s">
+        <v>28</v>
+      </c>
+      <c r="E382" s="2">
+        <v>45347.5</v>
+      </c>
+      <c r="F382" t="s">
+        <v>42</v>
+      </c>
+      <c r="G382" t="s">
+        <v>33</v>
+      </c>
+      <c r="K382">
+        <v>2.25</v>
+      </c>
+      <c r="L382">
+        <v>3.4</v>
+      </c>
+      <c r="M382">
+        <v>3.1</v>
+      </c>
+      <c r="N382">
+        <v>2.25</v>
+      </c>
+      <c r="O382">
+        <v>3.3</v>
+      </c>
+      <c r="P382">
+        <v>3.2</v>
+      </c>
+      <c r="Q382">
+        <v>-0.25</v>
+      </c>
+      <c r="R382">
+        <v>1.975</v>
+      </c>
+      <c r="S382">
+        <v>1.875</v>
+      </c>
+      <c r="T382">
+        <v>2.5</v>
+      </c>
+      <c r="U382">
+        <v>1.825</v>
+      </c>
+      <c r="V382">
+        <v>2.025</v>
+      </c>
+      <c r="W382">
+        <v>0</v>
+      </c>
+      <c r="X382">
+        <v>0</v>
+      </c>
+      <c r="Y382">
+        <v>0</v>
+      </c>
+      <c r="Z382">
+        <v>0</v>
+      </c>
+      <c r="AA382">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="1:29">
+      <c r="A383" s="1">
+        <v>381</v>
+      </c>
+      <c r="B383">
+        <v>6810201</v>
+      </c>
+      <c r="C383" t="s">
+        <v>28</v>
+      </c>
+      <c r="D383" t="s">
+        <v>28</v>
+      </c>
+      <c r="E383" s="2">
+        <v>45347.60416666666</v>
+      </c>
+      <c r="F383" t="s">
+        <v>43</v>
+      </c>
+      <c r="G383" t="s">
+        <v>29</v>
+      </c>
+      <c r="K383">
+        <v>1.4</v>
+      </c>
+      <c r="L383">
+        <v>4.75</v>
+      </c>
+      <c r="M383">
+        <v>7</v>
+      </c>
+      <c r="N383">
+        <v>1.363</v>
+      </c>
+      <c r="O383">
+        <v>4.75</v>
+      </c>
+      <c r="P383">
+        <v>8</v>
+      </c>
+      <c r="Q383">
+        <v>-1.25</v>
+      </c>
+      <c r="R383">
+        <v>1.875</v>
+      </c>
+      <c r="S383">
+        <v>1.975</v>
+      </c>
+      <c r="T383">
+        <v>2.75</v>
+      </c>
+      <c r="U383">
+        <v>1.9</v>
+      </c>
+      <c r="V383">
+        <v>1.95</v>
+      </c>
+      <c r="W383">
+        <v>0</v>
+      </c>
+      <c r="X383">
+        <v>0</v>
+      </c>
+      <c r="Y383">
+        <v>0</v>
+      </c>
+      <c r="Z383">
+        <v>0</v>
+      </c>
+      <c r="AA383">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" spans="1:29">
+      <c r="A384" s="1">
+        <v>382</v>
+      </c>
+      <c r="B384">
+        <v>6810199</v>
+      </c>
+      <c r="C384" t="s">
+        <v>28</v>
+      </c>
+      <c r="D384" t="s">
+        <v>28</v>
+      </c>
+      <c r="E384" s="2">
+        <v>45347.63541666666</v>
+      </c>
+      <c r="F384" t="s">
+        <v>30</v>
+      </c>
+      <c r="G384" t="s">
+        <v>32</v>
+      </c>
+      <c r="K384">
+        <v>5</v>
+      </c>
+      <c r="L384">
+        <v>3.8</v>
+      </c>
+      <c r="M384">
+        <v>1.65</v>
+      </c>
+      <c r="N384">
+        <v>4.75</v>
+      </c>
+      <c r="O384">
+        <v>3.75</v>
+      </c>
+      <c r="P384">
+        <v>1.7</v>
+      </c>
+      <c r="Q384">
+        <v>0.75</v>
+      </c>
+      <c r="R384">
+        <v>1.95</v>
+      </c>
+      <c r="S384">
+        <v>1.9</v>
+      </c>
+      <c r="T384">
+        <v>2.75</v>
+      </c>
+      <c r="U384">
+        <v>1.975</v>
+      </c>
+      <c r="V384">
+        <v>1.875</v>
+      </c>
+      <c r="W384">
+        <v>0</v>
+      </c>
+      <c r="X384">
+        <v>0</v>
+      </c>
+      <c r="Y384">
+        <v>0</v>
+      </c>
+      <c r="Z384">
+        <v>0</v>
+      </c>
+      <c r="AA384">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Belgium First Division A/Belgium First Division A.xlsx
+++ b/Belgium First Division A/Belgium First Division A.xlsx
@@ -1604,7 +1604,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6114951</v>
+        <v>5208566</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1616,76 +1616,76 @@
         <v>44940.59375</v>
       </c>
       <c r="F13" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K13">
+        <v>1.75</v>
+      </c>
+      <c r="L13">
+        <v>3.8</v>
+      </c>
+      <c r="M13">
+        <v>4.2</v>
+      </c>
+      <c r="N13">
+        <v>1.666</v>
+      </c>
+      <c r="O13">
+        <v>4</v>
+      </c>
+      <c r="P13">
+        <v>4.5</v>
+      </c>
+      <c r="Q13">
+        <v>-0.75</v>
+      </c>
+      <c r="R13">
+        <v>1.875</v>
+      </c>
+      <c r="S13">
+        <v>1.975</v>
+      </c>
+      <c r="T13">
         <v>2.75</v>
       </c>
-      <c r="L13">
-        <v>3.4</v>
-      </c>
-      <c r="M13">
-        <v>2.45</v>
-      </c>
-      <c r="N13">
-        <v>2.8</v>
-      </c>
-      <c r="O13">
-        <v>3.3</v>
-      </c>
-      <c r="P13">
-        <v>2.45</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13">
-        <v>2.05</v>
-      </c>
-      <c r="S13">
-        <v>1.8</v>
-      </c>
-      <c r="T13">
-        <v>2.5</v>
-      </c>
       <c r="U13">
+        <v>1.825</v>
+      </c>
+      <c r="V13">
         <v>2.025</v>
       </c>
-      <c r="V13">
-        <v>1.825</v>
-      </c>
       <c r="W13">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X13">
         <v>-1</v>
       </c>
       <c r="Y13">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z13">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA13">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB13">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AC13">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1693,7 +1693,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5208566</v>
+        <v>6114951</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1705,76 +1705,76 @@
         <v>44940.59375</v>
       </c>
       <c r="F14" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G14" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K14">
-        <v>1.75</v>
+        <v>2.75</v>
       </c>
       <c r="L14">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M14">
-        <v>4.2</v>
+        <v>2.45</v>
       </c>
       <c r="N14">
-        <v>1.666</v>
+        <v>2.8</v>
       </c>
       <c r="O14">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P14">
-        <v>4.5</v>
+        <v>2.45</v>
       </c>
       <c r="Q14">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R14">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S14">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T14">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U14">
+        <v>2.025</v>
+      </c>
+      <c r="V14">
         <v>1.825</v>
       </c>
-      <c r="V14">
-        <v>2.025</v>
-      </c>
       <c r="W14">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X14">
         <v>-1</v>
       </c>
       <c r="Y14">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z14">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA14">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB14">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC14">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -2672,7 +2672,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5208568</v>
+        <v>5208569</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2684,73 +2684,73 @@
         <v>44944.69791666666</v>
       </c>
       <c r="F25" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G25" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J25" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K25">
-        <v>1.4</v>
+        <v>1.85</v>
       </c>
       <c r="L25">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M25">
-        <v>6.5</v>
+        <v>3.8</v>
       </c>
       <c r="N25">
-        <v>1.7</v>
+        <v>1.666</v>
       </c>
       <c r="O25">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P25">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="Q25">
         <v>-0.75</v>
       </c>
       <c r="R25">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S25">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T25">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U25">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V25">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W25">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X25">
         <v>-1</v>
       </c>
       <c r="Y25">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z25">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA25">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AB25">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC25">
         <v>-1</v>
@@ -2761,7 +2761,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>5208569</v>
+        <v>5208568</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2773,73 +2773,73 @@
         <v>44944.69791666666</v>
       </c>
       <c r="F26" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G26" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H26">
+        <v>2</v>
+      </c>
+      <c r="I26">
         <v>3</v>
       </c>
-      <c r="I26">
-        <v>2</v>
-      </c>
       <c r="J26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K26">
-        <v>1.85</v>
+        <v>1.4</v>
       </c>
       <c r="L26">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M26">
-        <v>3.8</v>
+        <v>6.5</v>
       </c>
       <c r="N26">
-        <v>1.666</v>
+        <v>1.7</v>
       </c>
       <c r="O26">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P26">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="Q26">
         <v>-0.75</v>
       </c>
       <c r="R26">
+        <v>1.925</v>
+      </c>
+      <c r="S26">
+        <v>1.925</v>
+      </c>
+      <c r="T26">
+        <v>2.75</v>
+      </c>
+      <c r="U26">
+        <v>1.975</v>
+      </c>
+      <c r="V26">
         <v>1.875</v>
       </c>
-      <c r="S26">
-        <v>1.975</v>
-      </c>
-      <c r="T26">
-        <v>2.5</v>
-      </c>
-      <c r="U26">
-        <v>1.95</v>
-      </c>
-      <c r="V26">
-        <v>1.9</v>
-      </c>
       <c r="W26">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X26">
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z26">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA26">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB26">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC26">
         <v>-1</v>
@@ -3117,7 +3117,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>5208575</v>
+        <v>5208577</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3129,40 +3129,40 @@
         <v>44947.59375</v>
       </c>
       <c r="F30" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G30" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="H30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I30">
         <v>2</v>
       </c>
       <c r="J30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K30">
-        <v>1.95</v>
+        <v>2.625</v>
       </c>
       <c r="L30">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M30">
+        <v>2.4</v>
+      </c>
+      <c r="N30">
+        <v>3.2</v>
+      </c>
+      <c r="O30">
         <v>3.4</v>
       </c>
-      <c r="N30">
-        <v>1.75</v>
-      </c>
-      <c r="O30">
-        <v>3.6</v>
-      </c>
       <c r="P30">
-        <v>4</v>
+        <v>2.05</v>
       </c>
       <c r="Q30">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R30">
         <v>2.025</v>
@@ -3171,34 +3171,34 @@
         <v>1.825</v>
       </c>
       <c r="T30">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U30">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V30">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W30">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X30">
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z30">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AA30">
+        <v>0.825</v>
+      </c>
+      <c r="AB30">
+        <v>0.475</v>
+      </c>
+      <c r="AC30">
         <v>-0.5</v>
-      </c>
-      <c r="AB30">
-        <v>1</v>
-      </c>
-      <c r="AC30">
-        <v>-1</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3206,7 +3206,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>5208577</v>
+        <v>5208575</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3218,40 +3218,40 @@
         <v>44947.59375</v>
       </c>
       <c r="F31" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G31" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I31">
         <v>2</v>
       </c>
       <c r="J31" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K31">
-        <v>2.625</v>
+        <v>1.95</v>
       </c>
       <c r="L31">
+        <v>3.5</v>
+      </c>
+      <c r="M31">
         <v>3.4</v>
       </c>
-      <c r="M31">
-        <v>2.4</v>
-      </c>
       <c r="N31">
-        <v>3.2</v>
+        <v>1.75</v>
       </c>
       <c r="O31">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P31">
-        <v>2.05</v>
+        <v>4</v>
       </c>
       <c r="Q31">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R31">
         <v>2.025</v>
@@ -3260,34 +3260,34 @@
         <v>1.825</v>
       </c>
       <c r="T31">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U31">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V31">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W31">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X31">
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z31">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA31">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB31">
-        <v>0.475</v>
+        <v>1</v>
       </c>
       <c r="AC31">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -4808,7 +4808,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6192614</v>
+        <v>6192613</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4820,76 +4820,76 @@
         <v>44961.59375</v>
       </c>
       <c r="F49" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G49" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I49">
         <v>1</v>
       </c>
       <c r="J49" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K49">
-        <v>2.55</v>
+        <v>3.25</v>
       </c>
       <c r="L49">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M49">
-        <v>2.45</v>
+        <v>2.05</v>
       </c>
       <c r="N49">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="O49">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P49">
-        <v>1.909</v>
+        <v>1.75</v>
       </c>
       <c r="Q49">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R49">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S49">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T49">
         <v>2.5</v>
       </c>
       <c r="U49">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V49">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W49">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="X49">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y49">
         <v>-1</v>
       </c>
       <c r="Z49">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA49">
+        <v>-1</v>
+      </c>
+      <c r="AB49">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA49">
-        <v>-1</v>
-      </c>
-      <c r="AB49">
-        <v>-1</v>
-      </c>
       <c r="AC49">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -4897,7 +4897,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6192613</v>
+        <v>6192614</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4909,76 +4909,76 @@
         <v>44961.59375</v>
       </c>
       <c r="F50" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G50" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I50">
         <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K50">
-        <v>3.25</v>
+        <v>2.55</v>
       </c>
       <c r="L50">
+        <v>3.4</v>
+      </c>
+      <c r="M50">
+        <v>2.45</v>
+      </c>
+      <c r="N50">
+        <v>3.6</v>
+      </c>
+      <c r="O50">
         <v>3.5</v>
       </c>
-      <c r="M50">
-        <v>2.05</v>
-      </c>
-      <c r="N50">
-        <v>4.5</v>
-      </c>
-      <c r="O50">
-        <v>3.75</v>
-      </c>
       <c r="P50">
-        <v>1.75</v>
+        <v>1.909</v>
       </c>
       <c r="Q50">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R50">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S50">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T50">
         <v>2.5</v>
       </c>
       <c r="U50">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V50">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W50">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="X50">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y50">
         <v>-1</v>
       </c>
       <c r="Z50">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA50">
         <v>-1</v>
       </c>
       <c r="AB50">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC50">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -5520,7 +5520,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>5208718</v>
+        <v>5208587</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5532,76 +5532,76 @@
         <v>44967.69791666666</v>
       </c>
       <c r="F57" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G57" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I57">
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K57">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="L57">
         <v>3.4</v>
       </c>
       <c r="M57">
-        <v>2.45</v>
+        <v>2.9</v>
       </c>
       <c r="N57">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="O57">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P57">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="Q57">
         <v>0</v>
       </c>
       <c r="R57">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S57">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T57">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U57">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V57">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="W57">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X57">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y57">
         <v>-1</v>
       </c>
       <c r="Z57">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA57">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB57">
-        <v>0.4875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC57">
-        <v>-0.5</v>
+        <v>0.5249999999999999</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5609,7 +5609,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>5208587</v>
+        <v>5208718</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5621,76 +5621,76 @@
         <v>44967.69791666666</v>
       </c>
       <c r="F58" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G58" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I58">
         <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K58">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="L58">
         <v>3.4</v>
       </c>
       <c r="M58">
-        <v>2.9</v>
+        <v>2.45</v>
       </c>
       <c r="N58">
+        <v>2.55</v>
+      </c>
+      <c r="O58">
+        <v>3.4</v>
+      </c>
+      <c r="P58">
         <v>2.5</v>
-      </c>
-      <c r="O58">
-        <v>3.2</v>
-      </c>
-      <c r="P58">
-        <v>2.8</v>
       </c>
       <c r="Q58">
         <v>0</v>
       </c>
       <c r="R58">
+        <v>1.95</v>
+      </c>
+      <c r="S58">
+        <v>1.9</v>
+      </c>
+      <c r="T58">
+        <v>2.75</v>
+      </c>
+      <c r="U58">
+        <v>1.975</v>
+      </c>
+      <c r="V58">
         <v>1.875</v>
       </c>
-      <c r="S58">
-        <v>1.975</v>
-      </c>
-      <c r="T58">
-        <v>2.25</v>
-      </c>
-      <c r="U58">
-        <v>1.8</v>
-      </c>
-      <c r="V58">
-        <v>2.05</v>
-      </c>
       <c r="W58">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X58">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y58">
         <v>-1</v>
       </c>
       <c r="Z58">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA58">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB58">
+        <v>0.4875</v>
+      </c>
+      <c r="AC58">
         <v>-0.5</v>
-      </c>
-      <c r="AC58">
-        <v>0.5249999999999999</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -8012,7 +8012,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>5208601</v>
+        <v>5208603</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8024,58 +8024,58 @@
         <v>44989.59375</v>
       </c>
       <c r="F85" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G85" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H85">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J85" t="s">
         <v>50</v>
       </c>
       <c r="K85">
-        <v>1.85</v>
+        <v>1.444</v>
       </c>
       <c r="L85">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M85">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="N85">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="O85">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="P85">
-        <v>3.3</v>
+        <v>10</v>
       </c>
       <c r="Q85">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R85">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S85">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T85">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U85">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V85">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W85">
-        <v>1.1</v>
+        <v>0.3</v>
       </c>
       <c r="X85">
         <v>-1</v>
@@ -8084,13 +8084,13 @@
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA85">
         <v>-1</v>
       </c>
       <c r="AB85">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC85">
         <v>-1</v>
@@ -8101,7 +8101,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>5208603</v>
+        <v>5208601</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8113,58 +8113,58 @@
         <v>44989.59375</v>
       </c>
       <c r="F86" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G86" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H86">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J86" t="s">
         <v>50</v>
       </c>
       <c r="K86">
-        <v>1.444</v>
+        <v>1.85</v>
       </c>
       <c r="L86">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M86">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="N86">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="O86">
-        <v>5.25</v>
+        <v>3.4</v>
       </c>
       <c r="P86">
-        <v>10</v>
+        <v>3.3</v>
       </c>
       <c r="Q86">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R86">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S86">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T86">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U86">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V86">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W86">
-        <v>0.3</v>
+        <v>1.1</v>
       </c>
       <c r="X86">
         <v>-1</v>
@@ -8173,13 +8173,13 @@
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA86">
         <v>-1</v>
       </c>
       <c r="AB86">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC86">
         <v>-1</v>
@@ -8813,7 +8813,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>5208609</v>
+        <v>5208610</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8825,73 +8825,73 @@
         <v>44996.59375</v>
       </c>
       <c r="F94" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G94" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H94">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I94">
+        <v>4</v>
+      </c>
+      <c r="J94" t="s">
+        <v>48</v>
+      </c>
+      <c r="K94">
+        <v>2.25</v>
+      </c>
+      <c r="L94">
+        <v>3.4</v>
+      </c>
+      <c r="M94">
+        <v>2.9</v>
+      </c>
+      <c r="N94">
+        <v>2.5</v>
+      </c>
+      <c r="O94">
+        <v>3.4</v>
+      </c>
+      <c r="P94">
+        <v>2.6</v>
+      </c>
+      <c r="Q94">
+        <v>0</v>
+      </c>
+      <c r="R94">
+        <v>1.875</v>
+      </c>
+      <c r="S94">
+        <v>1.975</v>
+      </c>
+      <c r="T94">
+        <v>2.75</v>
+      </c>
+      <c r="U94">
+        <v>2</v>
+      </c>
+      <c r="V94">
+        <v>1.85</v>
+      </c>
+      <c r="W94">
+        <v>-1</v>
+      </c>
+      <c r="X94">
+        <v>2.4</v>
+      </c>
+      <c r="Y94">
+        <v>-1</v>
+      </c>
+      <c r="Z94">
+        <v>0</v>
+      </c>
+      <c r="AA94">
+        <v>-0</v>
+      </c>
+      <c r="AB94">
         <v>1</v>
-      </c>
-      <c r="J94" t="s">
-        <v>50</v>
-      </c>
-      <c r="K94">
-        <v>1.615</v>
-      </c>
-      <c r="L94">
-        <v>4</v>
-      </c>
-      <c r="M94">
-        <v>4.75</v>
-      </c>
-      <c r="N94">
-        <v>1.615</v>
-      </c>
-      <c r="O94">
-        <v>4</v>
-      </c>
-      <c r="P94">
-        <v>4.5</v>
-      </c>
-      <c r="Q94">
-        <v>-1</v>
-      </c>
-      <c r="R94">
-        <v>2.05</v>
-      </c>
-      <c r="S94">
-        <v>1.8</v>
-      </c>
-      <c r="T94">
-        <v>3</v>
-      </c>
-      <c r="U94">
-        <v>1.95</v>
-      </c>
-      <c r="V94">
-        <v>1.9</v>
-      </c>
-      <c r="W94">
-        <v>0.615</v>
-      </c>
-      <c r="X94">
-        <v>-1</v>
-      </c>
-      <c r="Y94">
-        <v>-1</v>
-      </c>
-      <c r="Z94">
-        <v>1.05</v>
-      </c>
-      <c r="AA94">
-        <v>-1</v>
-      </c>
-      <c r="AB94">
-        <v>0.95</v>
       </c>
       <c r="AC94">
         <v>-1</v>
@@ -8902,7 +8902,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>5208610</v>
+        <v>5208609</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8914,73 +8914,73 @@
         <v>44996.59375</v>
       </c>
       <c r="F95" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G95" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="H95">
+        <v>3</v>
+      </c>
+      <c r="I95">
+        <v>1</v>
+      </c>
+      <c r="J95" t="s">
+        <v>50</v>
+      </c>
+      <c r="K95">
+        <v>1.615</v>
+      </c>
+      <c r="L95">
         <v>4</v>
       </c>
-      <c r="I95">
+      <c r="M95">
+        <v>4.75</v>
+      </c>
+      <c r="N95">
+        <v>1.615</v>
+      </c>
+      <c r="O95">
         <v>4</v>
       </c>
-      <c r="J95" t="s">
-        <v>48</v>
-      </c>
-      <c r="K95">
-        <v>2.25</v>
-      </c>
-      <c r="L95">
-        <v>3.4</v>
-      </c>
-      <c r="M95">
-        <v>2.9</v>
-      </c>
-      <c r="N95">
-        <v>2.5</v>
-      </c>
-      <c r="O95">
-        <v>3.4</v>
-      </c>
       <c r="P95">
-        <v>2.6</v>
+        <v>4.5</v>
       </c>
       <c r="Q95">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R95">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S95">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T95">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U95">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V95">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W95">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X95">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y95">
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AA95">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB95">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AC95">
         <v>-1</v>
@@ -9614,7 +9614,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>5208613</v>
+        <v>5208612</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9626,76 +9626,76 @@
         <v>45003.59375</v>
       </c>
       <c r="F103" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="G103" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H103">
+        <v>2</v>
+      </c>
+      <c r="I103">
         <v>1</v>
       </c>
-      <c r="I103">
-        <v>2</v>
-      </c>
       <c r="J103" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K103">
-        <v>3.3</v>
+        <v>1.45</v>
       </c>
       <c r="L103">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M103">
-        <v>2.05</v>
+        <v>6</v>
       </c>
       <c r="N103">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
       <c r="O103">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P103">
-        <v>2.3</v>
+        <v>6.5</v>
       </c>
       <c r="Q103">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R103">
+        <v>2</v>
+      </c>
+      <c r="S103">
         <v>1.85</v>
       </c>
-      <c r="S103">
-        <v>2</v>
-      </c>
       <c r="T103">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U103">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V103">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W103">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X103">
         <v>-1</v>
       </c>
       <c r="Y103">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z103">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA103">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="AB103">
-        <v>0.45</v>
+        <v>1.025</v>
       </c>
       <c r="AC103">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9703,7 +9703,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>5208612</v>
+        <v>5208613</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9715,76 +9715,76 @@
         <v>45003.59375</v>
       </c>
       <c r="F104" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G104" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I104">
+        <v>2</v>
+      </c>
+      <c r="J104" t="s">
+        <v>49</v>
+      </c>
+      <c r="K104">
+        <v>3.3</v>
+      </c>
+      <c r="L104">
+        <v>3.3</v>
+      </c>
+      <c r="M104">
+        <v>2.05</v>
+      </c>
+      <c r="N104">
+        <v>2.8</v>
+      </c>
+      <c r="O104">
+        <v>3.3</v>
+      </c>
+      <c r="P104">
+        <v>2.3</v>
+      </c>
+      <c r="Q104">
+        <v>0.25</v>
+      </c>
+      <c r="R104">
+        <v>1.85</v>
+      </c>
+      <c r="S104">
+        <v>2</v>
+      </c>
+      <c r="T104">
+        <v>2.75</v>
+      </c>
+      <c r="U104">
+        <v>1.9</v>
+      </c>
+      <c r="V104">
+        <v>1.95</v>
+      </c>
+      <c r="W104">
+        <v>-1</v>
+      </c>
+      <c r="X104">
+        <v>-1</v>
+      </c>
+      <c r="Y104">
+        <v>1.3</v>
+      </c>
+      <c r="Z104">
+        <v>-1</v>
+      </c>
+      <c r="AA104">
         <v>1</v>
       </c>
-      <c r="J104" t="s">
-        <v>50</v>
-      </c>
-      <c r="K104">
-        <v>1.45</v>
-      </c>
-      <c r="L104">
-        <v>4</v>
-      </c>
-      <c r="M104">
-        <v>6</v>
-      </c>
-      <c r="N104">
-        <v>1.5</v>
-      </c>
-      <c r="O104">
-        <v>3.75</v>
-      </c>
-      <c r="P104">
-        <v>6.5</v>
-      </c>
-      <c r="Q104">
-        <v>-1</v>
-      </c>
-      <c r="R104">
-        <v>2</v>
-      </c>
-      <c r="S104">
-        <v>1.85</v>
-      </c>
-      <c r="T104">
-        <v>2.25</v>
-      </c>
-      <c r="U104">
-        <v>2.025</v>
-      </c>
-      <c r="V104">
-        <v>1.825</v>
-      </c>
-      <c r="W104">
-        <v>0.5</v>
-      </c>
-      <c r="X104">
-        <v>-1</v>
-      </c>
-      <c r="Y104">
-        <v>-1</v>
-      </c>
-      <c r="Z104">
-        <v>0</v>
-      </c>
-      <c r="AA104">
-        <v>-0</v>
-      </c>
       <c r="AB104">
-        <v>1.025</v>
+        <v>0.45</v>
       </c>
       <c r="AC104">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -10415,7 +10415,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>5351637</v>
+        <v>5356593</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10427,55 +10427,55 @@
         <v>45017.55208333334</v>
       </c>
       <c r="F112" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G112" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J112" t="s">
         <v>49</v>
       </c>
       <c r="K112">
-        <v>6.5</v>
+        <v>2</v>
       </c>
       <c r="L112">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M112">
-        <v>1.444</v>
+        <v>3.25</v>
       </c>
       <c r="N112">
-        <v>9.5</v>
+        <v>2.1</v>
       </c>
       <c r="O112">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P112">
-        <v>1.285</v>
+        <v>3.1</v>
       </c>
       <c r="Q112">
-        <v>1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R112">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S112">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T112">
         <v>2.75</v>
       </c>
       <c r="U112">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V112">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W112">
         <v>-1</v>
@@ -10484,16 +10484,16 @@
         <v>-1</v>
       </c>
       <c r="Y112">
-        <v>0.2849999999999999</v>
+        <v>2.1</v>
       </c>
       <c r="Z112">
         <v>-1</v>
       </c>
       <c r="AA112">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB112">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AC112">
         <v>-1</v>
@@ -10504,7 +10504,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>5356593</v>
+        <v>5351637</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10516,55 +10516,55 @@
         <v>45017.55208333334</v>
       </c>
       <c r="F113" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G113" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J113" t="s">
         <v>49</v>
       </c>
       <c r="K113">
-        <v>2</v>
+        <v>6.5</v>
       </c>
       <c r="L113">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M113">
-        <v>3.25</v>
+        <v>1.444</v>
       </c>
       <c r="N113">
-        <v>2.1</v>
+        <v>9.5</v>
       </c>
       <c r="O113">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P113">
-        <v>3.1</v>
+        <v>1.285</v>
       </c>
       <c r="Q113">
-        <v>-0.25</v>
+        <v>1.5</v>
       </c>
       <c r="R113">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S113">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T113">
         <v>2.75</v>
       </c>
       <c r="U113">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V113">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W113">
         <v>-1</v>
@@ -10573,16 +10573,16 @@
         <v>-1</v>
       </c>
       <c r="Y113">
-        <v>2.1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="Z113">
         <v>-1</v>
       </c>
       <c r="AA113">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB113">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC113">
         <v>-1</v>
@@ -12017,7 +12017,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>5424406</v>
+        <v>5424405</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12029,73 +12029,73 @@
         <v>45031.55208333334</v>
       </c>
       <c r="F130" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G130" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I130">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J130" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K130">
-        <v>2.4</v>
+        <v>1.75</v>
       </c>
       <c r="L130">
         <v>3.5</v>
       </c>
       <c r="M130">
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="N130">
-        <v>2.4</v>
+        <v>1.65</v>
       </c>
       <c r="O130">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P130">
-        <v>2.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q130">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R130">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S130">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T130">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U130">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V130">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W130">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X130">
         <v>-1</v>
       </c>
       <c r="Y130">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z130">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA130">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB130">
-        <v>1.025</v>
+        <v>1</v>
       </c>
       <c r="AC130">
         <v>-1</v>
@@ -12106,7 +12106,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>5424405</v>
+        <v>5424406</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12118,73 +12118,73 @@
         <v>45031.55208333334</v>
       </c>
       <c r="F131" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G131" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H131">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I131">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J131" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K131">
-        <v>1.75</v>
+        <v>2.4</v>
       </c>
       <c r="L131">
         <v>3.5</v>
       </c>
       <c r="M131">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="N131">
-        <v>1.65</v>
+        <v>2.4</v>
       </c>
       <c r="O131">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P131">
-        <v>5.25</v>
+        <v>2.75</v>
       </c>
       <c r="Q131">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R131">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S131">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T131">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U131">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V131">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W131">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X131">
         <v>-1</v>
       </c>
       <c r="Y131">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z131">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA131">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB131">
-        <v>1</v>
+        <v>1.025</v>
       </c>
       <c r="AC131">
         <v>-1</v>
@@ -12818,7 +12818,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6385540</v>
+        <v>6389865</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12830,73 +12830,73 @@
         <v>45039.5625</v>
       </c>
       <c r="F139" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G139" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H139">
         <v>2</v>
       </c>
       <c r="I139">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J139" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K139">
-        <v>1.363</v>
+        <v>3.5</v>
       </c>
       <c r="L139">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M139">
-        <v>7</v>
+        <v>1.95</v>
       </c>
       <c r="N139">
-        <v>1.55</v>
+        <v>2.8</v>
       </c>
       <c r="O139">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P139">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="Q139">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R139">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S139">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T139">
         <v>3</v>
       </c>
       <c r="U139">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V139">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W139">
         <v>-1</v>
       </c>
       <c r="X139">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y139">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z139">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA139">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AB139">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AC139">
         <v>-1</v>
@@ -12907,7 +12907,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6389865</v>
+        <v>6385540</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12919,73 +12919,73 @@
         <v>45039.5625</v>
       </c>
       <c r="F140" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G140" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H140">
         <v>2</v>
       </c>
       <c r="I140">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J140" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K140">
-        <v>3.5</v>
+        <v>1.363</v>
       </c>
       <c r="L140">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M140">
-        <v>1.95</v>
+        <v>7</v>
       </c>
       <c r="N140">
-        <v>2.8</v>
+        <v>1.55</v>
       </c>
       <c r="O140">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P140">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="Q140">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R140">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S140">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T140">
         <v>3</v>
       </c>
       <c r="U140">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V140">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W140">
         <v>-1</v>
       </c>
       <c r="X140">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y140">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z140">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA140">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB140">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC140">
         <v>-1</v>
@@ -12996,7 +12996,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6389819</v>
+        <v>6390043</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13008,56 +13008,56 @@
         <v>45039.5625</v>
       </c>
       <c r="F141" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G141" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I141">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J141" t="s">
         <v>49</v>
       </c>
       <c r="K141">
-        <v>5.25</v>
+        <v>1.222</v>
       </c>
       <c r="L141">
-        <v>4.2</v>
+        <v>5.75</v>
       </c>
       <c r="M141">
-        <v>1.533</v>
+        <v>11</v>
       </c>
       <c r="N141">
-        <v>6.5</v>
+        <v>1.142</v>
       </c>
       <c r="O141">
-        <v>4.75</v>
+        <v>7.5</v>
       </c>
       <c r="P141">
-        <v>1.4</v>
+        <v>15</v>
       </c>
       <c r="Q141">
-        <v>1.25</v>
+        <v>-2.25</v>
       </c>
       <c r="R141">
+        <v>1.975</v>
+      </c>
+      <c r="S141">
+        <v>1.875</v>
+      </c>
+      <c r="T141">
+        <v>3.5</v>
+      </c>
+      <c r="U141">
+        <v>1.95</v>
+      </c>
+      <c r="V141">
         <v>1.9</v>
       </c>
-      <c r="S141">
-        <v>1.95</v>
-      </c>
-      <c r="T141">
-        <v>3.25</v>
-      </c>
-      <c r="U141">
-        <v>2</v>
-      </c>
-      <c r="V141">
-        <v>1.85</v>
-      </c>
       <c r="W141">
         <v>-1</v>
       </c>
@@ -13065,19 +13065,19 @@
         <v>-1</v>
       </c>
       <c r="Y141">
-        <v>0.3999999999999999</v>
+        <v>14</v>
       </c>
       <c r="Z141">
         <v>-1</v>
       </c>
       <c r="AA141">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AB141">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC141">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13085,7 +13085,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6390066</v>
+        <v>6390693</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13097,73 +13097,73 @@
         <v>45039.5625</v>
       </c>
       <c r="F142" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G142" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I142">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J142" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K142">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="L142">
         <v>3.6</v>
       </c>
       <c r="M142">
-        <v>2.15</v>
+        <v>2.45</v>
       </c>
       <c r="N142">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="O142">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P142">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
       <c r="Q142">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R142">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S142">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T142">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U142">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V142">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="W142">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X142">
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z142">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA142">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB142">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AC142">
         <v>-1</v>
@@ -13174,7 +13174,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6390043</v>
+        <v>6390442</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13186,40 +13186,40 @@
         <v>45039.5625</v>
       </c>
       <c r="F143" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G143" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I143">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J143" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K143">
-        <v>1.222</v>
+        <v>1.333</v>
       </c>
       <c r="L143">
-        <v>5.75</v>
+        <v>5</v>
       </c>
       <c r="M143">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="N143">
-        <v>1.142</v>
+        <v>1.3</v>
       </c>
       <c r="O143">
-        <v>7.5</v>
+        <v>5.25</v>
       </c>
       <c r="P143">
-        <v>15</v>
+        <v>8.5</v>
       </c>
       <c r="Q143">
-        <v>-2.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R143">
         <v>1.975</v>
@@ -13228,34 +13228,34 @@
         <v>1.875</v>
       </c>
       <c r="T143">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U143">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V143">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W143">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X143">
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>14</v>
+        <v>-1</v>
       </c>
       <c r="Z143">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA143">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB143">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC143">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13263,7 +13263,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6390442</v>
+        <v>6390066</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13275,73 +13275,73 @@
         <v>45039.5625</v>
       </c>
       <c r="F144" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G144" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H144">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I144">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J144" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K144">
-        <v>1.333</v>
+        <v>3</v>
       </c>
       <c r="L144">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M144">
-        <v>8</v>
+        <v>2.15</v>
       </c>
       <c r="N144">
-        <v>1.3</v>
+        <v>2.8</v>
       </c>
       <c r="O144">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="P144">
-        <v>8.5</v>
+        <v>2.25</v>
       </c>
       <c r="Q144">
-        <v>-1.75</v>
+        <v>0.25</v>
       </c>
       <c r="R144">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S144">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T144">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U144">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V144">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W144">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X144">
         <v>-1</v>
       </c>
       <c r="Y144">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z144">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA144">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB144">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
       <c r="AC144">
         <v>-1</v>
@@ -13352,7 +13352,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6390693</v>
+        <v>6389819</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13364,40 +13364,40 @@
         <v>45039.5625</v>
       </c>
       <c r="F145" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G145" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H145">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I145">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J145" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K145">
-        <v>2.5</v>
+        <v>5.25</v>
       </c>
       <c r="L145">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M145">
-        <v>2.45</v>
+        <v>1.533</v>
       </c>
       <c r="N145">
-        <v>2.4</v>
+        <v>6.5</v>
       </c>
       <c r="O145">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="P145">
-        <v>2.45</v>
+        <v>1.4</v>
       </c>
       <c r="Q145">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="R145">
         <v>1.9</v>
@@ -13415,19 +13415,19 @@
         <v>1.85</v>
       </c>
       <c r="W145">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X145">
         <v>-1</v>
       </c>
       <c r="Y145">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z145">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA145">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB145">
         <v>1</v>
@@ -15221,7 +15221,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6576986</v>
+        <v>6576985</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15233,58 +15233,58 @@
         <v>45080.64583333334</v>
       </c>
       <c r="F166" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G166" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H166">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I166">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J166" t="s">
         <v>50</v>
       </c>
       <c r="K166">
-        <v>1.5</v>
+        <v>1.727</v>
       </c>
       <c r="L166">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="M166">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="N166">
-        <v>1.363</v>
+        <v>1.45</v>
       </c>
       <c r="O166">
+        <v>5</v>
+      </c>
+      <c r="P166">
         <v>5.75</v>
       </c>
-      <c r="P166">
-        <v>6.5</v>
-      </c>
       <c r="Q166">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R166">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S166">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T166">
         <v>3.5</v>
       </c>
       <c r="U166">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V166">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W166">
-        <v>0.363</v>
+        <v>0.45</v>
       </c>
       <c r="X166">
         <v>-1</v>
@@ -15293,16 +15293,16 @@
         <v>-1</v>
       </c>
       <c r="Z166">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AA166">
         <v>-1</v>
       </c>
       <c r="AB166">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC166">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15310,7 +15310,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6576985</v>
+        <v>6576986</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15322,58 +15322,58 @@
         <v>45080.64583333334</v>
       </c>
       <c r="F167" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G167" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J167" t="s">
         <v>50</v>
       </c>
       <c r="K167">
-        <v>1.727</v>
+        <v>1.5</v>
       </c>
       <c r="L167">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="M167">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="N167">
-        <v>1.45</v>
+        <v>1.363</v>
       </c>
       <c r="O167">
-        <v>5</v>
+        <v>5.75</v>
       </c>
       <c r="P167">
-        <v>5.75</v>
+        <v>6.5</v>
       </c>
       <c r="Q167">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R167">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S167">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T167">
         <v>3.5</v>
       </c>
       <c r="U167">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V167">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W167">
-        <v>0.45</v>
+        <v>0.363</v>
       </c>
       <c r="X167">
         <v>-1</v>
@@ -15382,16 +15382,16 @@
         <v>-1</v>
       </c>
       <c r="Z167">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AA167">
         <v>-1</v>
       </c>
       <c r="AB167">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC167">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -29194,7 +29194,7 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>6810142</v>
+        <v>6810145</v>
       </c>
       <c r="C323" t="s">
         <v>28</v>
@@ -29206,76 +29206,76 @@
         <v>45286.5</v>
       </c>
       <c r="F323" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G323" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H323">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I323">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J323" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K323">
-        <v>1.75</v>
+        <v>7</v>
       </c>
       <c r="L323">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M323">
-        <v>4</v>
+        <v>1.4</v>
       </c>
       <c r="N323">
+        <v>8.5</v>
+      </c>
+      <c r="O323">
+        <v>5.75</v>
+      </c>
+      <c r="P323">
+        <v>1.285</v>
+      </c>
+      <c r="Q323">
+        <v>1.5</v>
+      </c>
+      <c r="R323">
+        <v>2.025</v>
+      </c>
+      <c r="S323">
+        <v>1.825</v>
+      </c>
+      <c r="T323">
+        <v>3.25</v>
+      </c>
+      <c r="U323">
+        <v>2.05</v>
+      </c>
+      <c r="V323">
         <v>1.8</v>
       </c>
-      <c r="O323">
-        <v>3.8</v>
-      </c>
-      <c r="P323">
-        <v>3.8</v>
-      </c>
-      <c r="Q323">
-        <v>-0.5</v>
-      </c>
-      <c r="R323">
-        <v>1.825</v>
-      </c>
-      <c r="S323">
-        <v>2.025</v>
-      </c>
-      <c r="T323">
-        <v>3</v>
-      </c>
-      <c r="U323">
-        <v>1.975</v>
-      </c>
-      <c r="V323">
-        <v>1.875</v>
-      </c>
       <c r="W323">
+        <v>-1</v>
+      </c>
+      <c r="X323">
+        <v>-1</v>
+      </c>
+      <c r="Y323">
+        <v>0.2849999999999999</v>
+      </c>
+      <c r="Z323">
+        <v>-1</v>
+      </c>
+      <c r="AA323">
+        <v>0.825</v>
+      </c>
+      <c r="AB323">
+        <v>-1</v>
+      </c>
+      <c r="AC323">
         <v>0.8</v>
-      </c>
-      <c r="X323">
-        <v>-1</v>
-      </c>
-      <c r="Y323">
-        <v>-1</v>
-      </c>
-      <c r="Z323">
-        <v>0.825</v>
-      </c>
-      <c r="AA323">
-        <v>-1</v>
-      </c>
-      <c r="AB323">
-        <v>0</v>
-      </c>
-      <c r="AC323">
-        <v>-0</v>
       </c>
     </row>
     <row r="324" spans="1:29">
@@ -29283,7 +29283,7 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>6810145</v>
+        <v>6810142</v>
       </c>
       <c r="C324" t="s">
         <v>28</v>
@@ -29295,76 +29295,76 @@
         <v>45286.5</v>
       </c>
       <c r="F324" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G324" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H324">
+        <v>3</v>
+      </c>
+      <c r="I324">
         <v>0</v>
       </c>
-      <c r="I324">
-        <v>2</v>
-      </c>
       <c r="J324" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K324">
-        <v>7</v>
+        <v>1.75</v>
       </c>
       <c r="L324">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M324">
-        <v>1.4</v>
+        <v>4</v>
       </c>
       <c r="N324">
-        <v>8.5</v>
+        <v>1.8</v>
       </c>
       <c r="O324">
-        <v>5.75</v>
+        <v>3.8</v>
       </c>
       <c r="P324">
-        <v>1.285</v>
+        <v>3.8</v>
       </c>
       <c r="Q324">
-        <v>1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R324">
+        <v>1.825</v>
+      </c>
+      <c r="S324">
         <v>2.025</v>
       </c>
-      <c r="S324">
-        <v>1.825</v>
-      </c>
       <c r="T324">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U324">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="V324">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W324">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X324">
         <v>-1</v>
       </c>
       <c r="Y324">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z324">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA324">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB324">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC324">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="325" spans="1:29">
@@ -29639,7 +29639,7 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>6810143</v>
+        <v>6810139</v>
       </c>
       <c r="C328" t="s">
         <v>28</v>
@@ -29651,58 +29651,58 @@
         <v>45287.69791666666</v>
       </c>
       <c r="F328" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G328" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H328">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I328">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J328" t="s">
         <v>50</v>
       </c>
       <c r="K328">
+        <v>1.869</v>
+      </c>
+      <c r="L328">
+        <v>3.7</v>
+      </c>
+      <c r="M328">
+        <v>3.8</v>
+      </c>
+      <c r="N328">
         <v>2.05</v>
       </c>
-      <c r="L328">
-        <v>3.4</v>
-      </c>
-      <c r="M328">
-        <v>3.5</v>
-      </c>
-      <c r="N328">
-        <v>2.375</v>
-      </c>
       <c r="O328">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P328">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="Q328">
         <v>-0.25</v>
       </c>
       <c r="R328">
+        <v>1.825</v>
+      </c>
+      <c r="S328">
         <v>2.025</v>
       </c>
-      <c r="S328">
-        <v>1.825</v>
-      </c>
       <c r="T328">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U328">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V328">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W328">
-        <v>1.375</v>
+        <v>1.05</v>
       </c>
       <c r="X328">
         <v>-1</v>
@@ -29711,16 +29711,16 @@
         <v>-1</v>
       </c>
       <c r="Z328">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AA328">
         <v>-1</v>
       </c>
       <c r="AB328">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC328">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="329" spans="1:29">
@@ -29728,7 +29728,7 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>6810139</v>
+        <v>6810143</v>
       </c>
       <c r="C329" t="s">
         <v>28</v>
@@ -29740,58 +29740,58 @@
         <v>45287.69791666666</v>
       </c>
       <c r="F329" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G329" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H329">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I329">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J329" t="s">
         <v>50</v>
       </c>
       <c r="K329">
-        <v>1.869</v>
+        <v>2.05</v>
       </c>
       <c r="L329">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="M329">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="N329">
-        <v>2.05</v>
+        <v>2.375</v>
       </c>
       <c r="O329">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P329">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q329">
         <v>-0.25</v>
       </c>
       <c r="R329">
+        <v>2.025</v>
+      </c>
+      <c r="S329">
         <v>1.825</v>
       </c>
-      <c r="S329">
+      <c r="T329">
+        <v>2.25</v>
+      </c>
+      <c r="U329">
         <v>2.025</v>
       </c>
-      <c r="T329">
-        <v>2.75</v>
-      </c>
-      <c r="U329">
-        <v>1.9</v>
-      </c>
       <c r="V329">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W329">
-        <v>1.05</v>
+        <v>1.375</v>
       </c>
       <c r="X329">
         <v>-1</v>
@@ -29800,16 +29800,16 @@
         <v>-1</v>
       </c>
       <c r="Z329">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AA329">
         <v>-1</v>
       </c>
       <c r="AB329">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC329">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="330" spans="1:29">
@@ -31152,7 +31152,7 @@
         <v>343</v>
       </c>
       <c r="B345">
-        <v>6810169</v>
+        <v>6810167</v>
       </c>
       <c r="C345" t="s">
         <v>28</v>
@@ -31164,73 +31164,73 @@
         <v>45321.6875</v>
       </c>
       <c r="F345" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G345" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="H345">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I345">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J345" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K345">
-        <v>3.4</v>
+        <v>1.125</v>
       </c>
       <c r="L345">
-        <v>3.8</v>
+        <v>8.5</v>
       </c>
       <c r="M345">
+        <v>17</v>
+      </c>
+      <c r="N345">
+        <v>1.125</v>
+      </c>
+      <c r="O345">
+        <v>8.5</v>
+      </c>
+      <c r="P345">
+        <v>17</v>
+      </c>
+      <c r="Q345">
+        <v>-2.25</v>
+      </c>
+      <c r="R345">
+        <v>1.85</v>
+      </c>
+      <c r="S345">
+        <v>2</v>
+      </c>
+      <c r="T345">
+        <v>3.5</v>
+      </c>
+      <c r="U345">
+        <v>1.9</v>
+      </c>
+      <c r="V345">
         <v>1.95</v>
       </c>
-      <c r="N345">
-        <v>3.3</v>
-      </c>
-      <c r="O345">
-        <v>3.6</v>
-      </c>
-      <c r="P345">
-        <v>2.05</v>
-      </c>
-      <c r="Q345">
-        <v>0.25</v>
-      </c>
-      <c r="R345">
-        <v>2</v>
-      </c>
-      <c r="S345">
-        <v>1.85</v>
-      </c>
-      <c r="T345">
-        <v>2.75</v>
-      </c>
-      <c r="U345">
-        <v>1.975</v>
-      </c>
-      <c r="V345">
-        <v>1.875</v>
-      </c>
       <c r="W345">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X345">
-        <v>-1</v>
+        <v>7.5</v>
       </c>
       <c r="Y345">
         <v>-1</v>
       </c>
       <c r="Z345">
+        <v>-1</v>
+      </c>
+      <c r="AA345">
         <v>1</v>
       </c>
-      <c r="AA345">
-        <v>-1</v>
-      </c>
       <c r="AB345">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC345">
         <v>-1</v>
@@ -31241,7 +31241,7 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>6810167</v>
+        <v>6810169</v>
       </c>
       <c r="C346" t="s">
         <v>28</v>
@@ -31253,73 +31253,73 @@
         <v>45321.6875</v>
       </c>
       <c r="F346" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G346" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="H346">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I346">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J346" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K346">
-        <v>1.125</v>
+        <v>3.4</v>
       </c>
       <c r="L346">
-        <v>8.5</v>
+        <v>3.8</v>
       </c>
       <c r="M346">
-        <v>17</v>
+        <v>1.95</v>
       </c>
       <c r="N346">
-        <v>1.125</v>
+        <v>3.3</v>
       </c>
       <c r="O346">
-        <v>8.5</v>
+        <v>3.6</v>
       </c>
       <c r="P346">
-        <v>17</v>
+        <v>2.05</v>
       </c>
       <c r="Q346">
-        <v>-2.25</v>
+        <v>0.25</v>
       </c>
       <c r="R346">
+        <v>2</v>
+      </c>
+      <c r="S346">
         <v>1.85</v>
       </c>
-      <c r="S346">
-        <v>2</v>
-      </c>
       <c r="T346">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U346">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V346">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W346">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X346">
-        <v>7.5</v>
+        <v>-1</v>
       </c>
       <c r="Y346">
         <v>-1</v>
       </c>
       <c r="Z346">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA346">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB346">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC346">
         <v>-1</v>
@@ -31330,7 +31330,7 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>6810168</v>
+        <v>6810165</v>
       </c>
       <c r="C347" t="s">
         <v>28</v>
@@ -31342,58 +31342,58 @@
         <v>45322.61458333334</v>
       </c>
       <c r="F347" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G347" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H347">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I347">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J347" t="s">
         <v>50</v>
       </c>
       <c r="K347">
-        <v>4.5</v>
+        <v>1.6</v>
       </c>
       <c r="L347">
+        <v>4</v>
+      </c>
+      <c r="M347">
+        <v>5</v>
+      </c>
+      <c r="N347">
+        <v>1.8</v>
+      </c>
+      <c r="O347">
+        <v>3.75</v>
+      </c>
+      <c r="P347">
         <v>4.2</v>
       </c>
-      <c r="M347">
-        <v>1.666</v>
-      </c>
-      <c r="N347">
-        <v>4.333</v>
-      </c>
-      <c r="O347">
-        <v>4</v>
-      </c>
-      <c r="P347">
-        <v>1.7</v>
-      </c>
       <c r="Q347">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R347">
+        <v>2.05</v>
+      </c>
+      <c r="S347">
+        <v>1.8</v>
+      </c>
+      <c r="T347">
+        <v>2.75</v>
+      </c>
+      <c r="U347">
         <v>1.95</v>
       </c>
-      <c r="S347">
+      <c r="V347">
         <v>1.9</v>
       </c>
-      <c r="T347">
-        <v>3</v>
-      </c>
-      <c r="U347">
-        <v>1.975</v>
-      </c>
-      <c r="V347">
-        <v>1.875</v>
-      </c>
       <c r="W347">
-        <v>3.333</v>
+        <v>0.8</v>
       </c>
       <c r="X347">
         <v>-1</v>
@@ -31402,16 +31402,16 @@
         <v>-1</v>
       </c>
       <c r="Z347">
-        <v>0.95</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AA347">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB347">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC347">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="348" spans="1:29">
@@ -31419,7 +31419,7 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>6810165</v>
+        <v>6810168</v>
       </c>
       <c r="C348" t="s">
         <v>28</v>
@@ -31431,58 +31431,58 @@
         <v>45322.61458333334</v>
       </c>
       <c r="F348" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G348" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H348">
+        <v>2</v>
+      </c>
+      <c r="I348">
         <v>1</v>
-      </c>
-      <c r="I348">
-        <v>0</v>
       </c>
       <c r="J348" t="s">
         <v>50</v>
       </c>
       <c r="K348">
-        <v>1.6</v>
+        <v>4.5</v>
       </c>
       <c r="L348">
+        <v>4.2</v>
+      </c>
+      <c r="M348">
+        <v>1.666</v>
+      </c>
+      <c r="N348">
+        <v>4.333</v>
+      </c>
+      <c r="O348">
         <v>4</v>
       </c>
-      <c r="M348">
-        <v>5</v>
-      </c>
-      <c r="N348">
-        <v>1.8</v>
-      </c>
-      <c r="O348">
-        <v>3.75</v>
-      </c>
       <c r="P348">
-        <v>4.2</v>
+        <v>1.7</v>
       </c>
       <c r="Q348">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R348">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S348">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T348">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U348">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V348">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W348">
-        <v>0.8</v>
+        <v>3.333</v>
       </c>
       <c r="X348">
         <v>-1</v>
@@ -31491,16 +31491,16 @@
         <v>-1</v>
       </c>
       <c r="Z348">
-        <v>0.5249999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA348">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB348">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC348">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="349" spans="1:29">
@@ -31508,7 +31508,7 @@
         <v>347</v>
       </c>
       <c r="B349">
-        <v>6810162</v>
+        <v>6810164</v>
       </c>
       <c r="C349" t="s">
         <v>28</v>
@@ -31520,76 +31520,76 @@
         <v>45322.70833333334</v>
       </c>
       <c r="F349" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G349" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="H349">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I349">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J349" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K349">
-        <v>4</v>
+        <v>1.2</v>
       </c>
       <c r="L349">
-        <v>3.6</v>
+        <v>7</v>
       </c>
       <c r="M349">
-        <v>1.85</v>
+        <v>12</v>
       </c>
       <c r="N349">
-        <v>3.1</v>
+        <v>1.142</v>
       </c>
       <c r="O349">
-        <v>3.2</v>
+        <v>8.5</v>
       </c>
       <c r="P349">
-        <v>2.3</v>
+        <v>15</v>
       </c>
       <c r="Q349">
-        <v>0.25</v>
+        <v>-2.25</v>
       </c>
       <c r="R349">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S349">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T349">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="U349">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V349">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W349">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X349">
         <v>-1</v>
       </c>
       <c r="Y349">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z349">
         <v>-1</v>
       </c>
       <c r="AA349">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AB349">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC349">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="350" spans="1:29">
@@ -31597,7 +31597,7 @@
         <v>348</v>
       </c>
       <c r="B350">
-        <v>6810164</v>
+        <v>6810162</v>
       </c>
       <c r="C350" t="s">
         <v>28</v>
@@ -31609,76 +31609,76 @@
         <v>45322.70833333334</v>
       </c>
       <c r="F350" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G350" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="H350">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I350">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J350" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K350">
-        <v>1.2</v>
+        <v>4</v>
       </c>
       <c r="L350">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="M350">
-        <v>12</v>
+        <v>1.85</v>
       </c>
       <c r="N350">
-        <v>1.142</v>
+        <v>3.1</v>
       </c>
       <c r="O350">
-        <v>8.5</v>
+        <v>3.2</v>
       </c>
       <c r="P350">
-        <v>15</v>
+        <v>2.3</v>
       </c>
       <c r="Q350">
-        <v>-2.25</v>
+        <v>0.25</v>
       </c>
       <c r="R350">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S350">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T350">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="U350">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V350">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W350">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X350">
         <v>-1</v>
       </c>
       <c r="Y350">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z350">
         <v>-1</v>
       </c>
       <c r="AA350">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="AB350">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC350">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="351" spans="1:29">
@@ -34048,10 +34048,10 @@
         <v>2.75</v>
       </c>
       <c r="U377">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V377">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W377">
         <v>0</v>
@@ -34101,22 +34101,22 @@
         <v>2.4</v>
       </c>
       <c r="N378">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="O378">
         <v>3.4</v>
       </c>
       <c r="P378">
-        <v>2.375</v>
+        <v>2.45</v>
       </c>
       <c r="Q378">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R378">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="S378">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="T378">
         <v>2.5</v>
@@ -34261,10 +34261,10 @@
         <v>-0.75</v>
       </c>
       <c r="R380">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S380">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T380">
         <v>2.75</v>
@@ -34335,19 +34335,19 @@
         <v>-0.75</v>
       </c>
       <c r="R381">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S381">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T381">
         <v>2.75</v>
       </c>
       <c r="U381">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V381">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W381">
         <v>0</v>
@@ -34557,10 +34557,10 @@
         <v>0.75</v>
       </c>
       <c r="R384">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S384">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T384">
         <v>2.75</v>

--- a/Belgium First Division A/Belgium First Division A.xlsx
+++ b/Belgium First Division A/Belgium First Division A.xlsx
@@ -109,10 +109,10 @@
     <t>Eupen</t>
   </si>
   <si>
-    <t>KV Oostende</t>
+    <t>Cercle Brugge</t>
   </si>
   <si>
-    <t>Cercle Brugge</t>
+    <t>KV Oostende</t>
   </si>
   <si>
     <t>Antwerp</t>
@@ -803,7 +803,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5208561</v>
+        <v>5208691</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -818,46 +818,46 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
         <v>1</v>
-      </c>
-      <c r="I4">
-        <v>2</v>
       </c>
       <c r="J4" t="s">
         <v>49</v>
       </c>
       <c r="K4">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="L4">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M4">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="N4">
-        <v>1.7</v>
+        <v>2.15</v>
       </c>
       <c r="O4">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P4">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="Q4">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R4">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S4">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T4">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U4">
         <v>1.925</v>
@@ -872,19 +872,19 @@
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="Z4">
         <v>-1</v>
       </c>
       <c r="AA4">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB4">
+        <v>-1</v>
+      </c>
+      <c r="AC4">
         <v>0.925</v>
-      </c>
-      <c r="AC4">
-        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -892,7 +892,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5208691</v>
+        <v>5208561</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -907,46 +907,46 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J5" t="s">
         <v>49</v>
       </c>
       <c r="K5">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="L5">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M5">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="N5">
-        <v>2.15</v>
+        <v>1.7</v>
       </c>
       <c r="O5">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P5">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="Q5">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R5">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S5">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T5">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U5">
         <v>1.925</v>
@@ -961,19 +961,19 @@
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="Z5">
         <v>-1</v>
       </c>
       <c r="AA5">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB5">
         <v>0.925</v>
       </c>
-      <c r="AB5">
-        <v>-1</v>
-      </c>
       <c r="AC5">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1619,7 +1619,7 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H13">
         <v>2</v>
@@ -2153,7 +2153,7 @@
         <v>44</v>
       </c>
       <c r="G19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H19">
         <v>2</v>
@@ -2316,7 +2316,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5208698</v>
+        <v>5208702</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2328,76 +2328,76 @@
         <v>44943.69791666666</v>
       </c>
       <c r="F21" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G21" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H21">
         <v>2</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>4.2</v>
       </c>
       <c r="L21">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M21">
-        <v>3.5</v>
+        <v>1.75</v>
       </c>
       <c r="N21">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="O21">
         <v>3.6</v>
       </c>
       <c r="P21">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="Q21">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R21">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S21">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T21">
         <v>2.75</v>
       </c>
       <c r="U21">
+        <v>1.825</v>
+      </c>
+      <c r="V21">
         <v>2.025</v>
       </c>
-      <c r="V21">
-        <v>1.825</v>
-      </c>
       <c r="W21">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X21">
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z21">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA21">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB21">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC21">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2405,7 +2405,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5208702</v>
+        <v>5208698</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2417,76 +2417,76 @@
         <v>44943.69791666666</v>
       </c>
       <c r="F22" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G22" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H22">
         <v>2</v>
       </c>
       <c r="I22">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K22">
-        <v>4.2</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M22">
-        <v>1.75</v>
+        <v>3.5</v>
       </c>
       <c r="N22">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="O22">
         <v>3.6</v>
       </c>
       <c r="P22">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q22">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R22">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S22">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T22">
         <v>2.75</v>
       </c>
       <c r="U22">
+        <v>2.025</v>
+      </c>
+      <c r="V22">
         <v>1.825</v>
       </c>
-      <c r="V22">
-        <v>2.025</v>
-      </c>
       <c r="W22">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X22">
         <v>-1</v>
       </c>
       <c r="Y22">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z22">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA22">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB22">
+        <v>-1</v>
+      </c>
+      <c r="AC22">
         <v>0.825</v>
-      </c>
-      <c r="AC22">
-        <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2506,7 +2506,7 @@
         <v>44944.60416666666</v>
       </c>
       <c r="F23" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G23" t="s">
         <v>33</v>
@@ -2595,7 +2595,7 @@
         <v>44944.60416666666</v>
       </c>
       <c r="F24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G24" t="s">
         <v>43</v>
@@ -3117,7 +3117,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>5208577</v>
+        <v>5208575</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3129,40 +3129,40 @@
         <v>44947.59375</v>
       </c>
       <c r="F30" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G30" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I30">
         <v>2</v>
       </c>
       <c r="J30" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K30">
-        <v>2.625</v>
+        <v>1.95</v>
       </c>
       <c r="L30">
+        <v>3.5</v>
+      </c>
+      <c r="M30">
         <v>3.4</v>
       </c>
-      <c r="M30">
-        <v>2.4</v>
-      </c>
       <c r="N30">
-        <v>3.2</v>
+        <v>1.75</v>
       </c>
       <c r="O30">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P30">
-        <v>2.05</v>
+        <v>4</v>
       </c>
       <c r="Q30">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R30">
         <v>2.025</v>
@@ -3171,34 +3171,34 @@
         <v>1.825</v>
       </c>
       <c r="T30">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U30">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V30">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W30">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X30">
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z30">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA30">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB30">
-        <v>0.475</v>
+        <v>1</v>
       </c>
       <c r="AC30">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3206,7 +3206,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>5208575</v>
+        <v>5208577</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3218,40 +3218,40 @@
         <v>44947.59375</v>
       </c>
       <c r="F31" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G31" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I31">
         <v>2</v>
       </c>
       <c r="J31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K31">
-        <v>1.95</v>
+        <v>2.625</v>
       </c>
       <c r="L31">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M31">
+        <v>2.4</v>
+      </c>
+      <c r="N31">
+        <v>3.2</v>
+      </c>
+      <c r="O31">
         <v>3.4</v>
       </c>
-      <c r="N31">
-        <v>1.75</v>
-      </c>
-      <c r="O31">
-        <v>3.6</v>
-      </c>
       <c r="P31">
-        <v>4</v>
+        <v>2.05</v>
       </c>
       <c r="Q31">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R31">
         <v>2.025</v>
@@ -3260,34 +3260,34 @@
         <v>1.825</v>
       </c>
       <c r="T31">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U31">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V31">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W31">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X31">
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z31">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AA31">
+        <v>0.825</v>
+      </c>
+      <c r="AB31">
+        <v>0.475</v>
+      </c>
+      <c r="AC31">
         <v>-0.5</v>
-      </c>
-      <c r="AB31">
-        <v>1</v>
-      </c>
-      <c r="AC31">
-        <v>-1</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3918,7 +3918,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>5208579</v>
+        <v>5208580</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3930,34 +3930,34 @@
         <v>44954.59375</v>
       </c>
       <c r="F39" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J39" t="s">
         <v>48</v>
       </c>
       <c r="K39">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="L39">
         <v>3.4</v>
       </c>
       <c r="M39">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="N39">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="O39">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P39">
         <v>3.1</v>
@@ -3966,25 +3966,25 @@
         <v>-0.25</v>
       </c>
       <c r="R39">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S39">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T39">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U39">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V39">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W39">
         <v>-1</v>
       </c>
       <c r="X39">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="Y39">
         <v>-1</v>
@@ -3993,13 +3993,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA39">
-        <v>0.4375</v>
+        <v>0.475</v>
       </c>
       <c r="AB39">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC39">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4007,7 +4007,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>5208580</v>
+        <v>5208579</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4019,34 +4019,34 @@
         <v>44954.59375</v>
       </c>
       <c r="F40" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G40" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J40" t="s">
         <v>48</v>
       </c>
       <c r="K40">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="L40">
         <v>3.4</v>
       </c>
       <c r="M40">
+        <v>3</v>
+      </c>
+      <c r="N40">
+        <v>2.2</v>
+      </c>
+      <c r="O40">
         <v>3.2</v>
-      </c>
-      <c r="N40">
-        <v>2.1</v>
-      </c>
-      <c r="O40">
-        <v>3.4</v>
       </c>
       <c r="P40">
         <v>3.1</v>
@@ -4055,25 +4055,25 @@
         <v>-0.25</v>
       </c>
       <c r="R40">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S40">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T40">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U40">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V40">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W40">
         <v>-1</v>
       </c>
       <c r="X40">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="Y40">
         <v>-1</v>
@@ -4082,13 +4082,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA40">
-        <v>0.475</v>
+        <v>0.4375</v>
       </c>
       <c r="AB40">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC40">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4286,7 +4286,7 @@
         <v>44955.5</v>
       </c>
       <c r="F43" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G43" t="s">
         <v>42</v>
@@ -4642,7 +4642,7 @@
         <v>44960.69791666666</v>
       </c>
       <c r="F47" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G47" t="s">
         <v>36</v>
@@ -4731,7 +4731,7 @@
         <v>44961.5</v>
       </c>
       <c r="F48" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G48" t="s">
         <v>29</v>
@@ -5446,7 +5446,7 @@
         <v>37</v>
       </c>
       <c r="G56" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -5520,7 +5520,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>5208587</v>
+        <v>5208718</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5532,76 +5532,76 @@
         <v>44967.69791666666</v>
       </c>
       <c r="F57" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G57" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I57">
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K57">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="L57">
         <v>3.4</v>
       </c>
       <c r="M57">
-        <v>2.9</v>
+        <v>2.45</v>
       </c>
       <c r="N57">
+        <v>2.55</v>
+      </c>
+      <c r="O57">
+        <v>3.4</v>
+      </c>
+      <c r="P57">
         <v>2.5</v>
-      </c>
-      <c r="O57">
-        <v>3.2</v>
-      </c>
-      <c r="P57">
-        <v>2.8</v>
       </c>
       <c r="Q57">
         <v>0</v>
       </c>
       <c r="R57">
+        <v>1.95</v>
+      </c>
+      <c r="S57">
+        <v>1.9</v>
+      </c>
+      <c r="T57">
+        <v>2.75</v>
+      </c>
+      <c r="U57">
+        <v>1.975</v>
+      </c>
+      <c r="V57">
         <v>1.875</v>
       </c>
-      <c r="S57">
-        <v>1.975</v>
-      </c>
-      <c r="T57">
-        <v>2.25</v>
-      </c>
-      <c r="U57">
-        <v>1.8</v>
-      </c>
-      <c r="V57">
-        <v>2.05</v>
-      </c>
       <c r="W57">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X57">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y57">
         <v>-1</v>
       </c>
       <c r="Z57">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA57">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB57">
+        <v>0.4875</v>
+      </c>
+      <c r="AC57">
         <v>-0.5</v>
-      </c>
-      <c r="AC57">
-        <v>0.5249999999999999</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5609,7 +5609,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>5208718</v>
+        <v>5208587</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5621,76 +5621,76 @@
         <v>44967.69791666666</v>
       </c>
       <c r="F58" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G58" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I58">
         <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K58">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="L58">
         <v>3.4</v>
       </c>
       <c r="M58">
-        <v>2.45</v>
+        <v>2.9</v>
       </c>
       <c r="N58">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="O58">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P58">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="Q58">
         <v>0</v>
       </c>
       <c r="R58">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S58">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T58">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U58">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V58">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="W58">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X58">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y58">
         <v>-1</v>
       </c>
       <c r="Z58">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA58">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB58">
-        <v>0.4875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC58">
-        <v>-0.5</v>
+        <v>0.5249999999999999</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -6158,7 +6158,7 @@
         <v>35</v>
       </c>
       <c r="G64" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H64">
         <v>1</v>
@@ -6410,7 +6410,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>5208596</v>
+        <v>5208593</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6422,55 +6422,55 @@
         <v>44975.59375</v>
       </c>
       <c r="F67" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G67" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J67" t="s">
         <v>48</v>
       </c>
       <c r="K67">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="L67">
         <v>3.4</v>
       </c>
       <c r="M67">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="N67">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="O67">
         <v>3.4</v>
       </c>
       <c r="P67">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="Q67">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R67">
+        <v>1.875</v>
+      </c>
+      <c r="S67">
         <v>1.975</v>
       </c>
-      <c r="S67">
-        <v>1.875</v>
-      </c>
       <c r="T67">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U67">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V67">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W67">
         <v>-1</v>
@@ -6482,16 +6482,16 @@
         <v>-1</v>
       </c>
       <c r="Z67">
-        <v>0.4875</v>
+        <v>0.875</v>
       </c>
       <c r="AA67">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB67">
         <v>-1</v>
       </c>
       <c r="AC67">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6499,7 +6499,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>5208593</v>
+        <v>5208596</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6511,55 +6511,55 @@
         <v>44975.59375</v>
       </c>
       <c r="F68" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G68" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J68" t="s">
         <v>48</v>
       </c>
       <c r="K68">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="L68">
         <v>3.4</v>
       </c>
       <c r="M68">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="N68">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="O68">
         <v>3.4</v>
       </c>
       <c r="P68">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="Q68">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R68">
+        <v>1.975</v>
+      </c>
+      <c r="S68">
         <v>1.875</v>
       </c>
-      <c r="S68">
+      <c r="T68">
+        <v>2.75</v>
+      </c>
+      <c r="U68">
+        <v>1.875</v>
+      </c>
+      <c r="V68">
         <v>1.975</v>
-      </c>
-      <c r="T68">
-        <v>2.5</v>
-      </c>
-      <c r="U68">
-        <v>1.925</v>
-      </c>
-      <c r="V68">
-        <v>1.925</v>
       </c>
       <c r="W68">
         <v>-1</v>
@@ -6571,16 +6571,16 @@
         <v>-1</v>
       </c>
       <c r="Z68">
-        <v>0.875</v>
+        <v>0.4875</v>
       </c>
       <c r="AA68">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB68">
         <v>-1</v>
       </c>
       <c r="AC68">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6689,7 +6689,7 @@
         <v>44976.39583333334</v>
       </c>
       <c r="F70" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G70" t="s">
         <v>41</v>
@@ -7211,7 +7211,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>5208597</v>
+        <v>5208727</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7223,76 +7223,76 @@
         <v>44982.59375</v>
       </c>
       <c r="F76" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G76" t="s">
         <v>31</v>
       </c>
       <c r="H76">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I76">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J76" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K76">
-        <v>1.333</v>
+        <v>3.25</v>
       </c>
       <c r="L76">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="M76">
-        <v>7.5</v>
+        <v>2.1</v>
       </c>
       <c r="N76">
-        <v>1.4</v>
+        <v>4</v>
       </c>
       <c r="O76">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="P76">
-        <v>6.5</v>
+        <v>1.909</v>
       </c>
       <c r="Q76">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R76">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S76">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T76">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U76">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V76">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W76">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X76">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y76">
         <v>-1</v>
       </c>
       <c r="Z76">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA76">
         <v>-1</v>
       </c>
       <c r="AB76">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC76">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7300,7 +7300,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>5208727</v>
+        <v>5208597</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7312,76 +7312,76 @@
         <v>44982.59375</v>
       </c>
       <c r="F77" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G77" t="s">
         <v>32</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I77">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J77" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K77">
-        <v>3.25</v>
+        <v>1.333</v>
       </c>
       <c r="L77">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="M77">
-        <v>2.1</v>
+        <v>7.5</v>
       </c>
       <c r="N77">
-        <v>4</v>
+        <v>1.4</v>
       </c>
       <c r="O77">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="P77">
-        <v>1.909</v>
+        <v>6.5</v>
       </c>
       <c r="Q77">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R77">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S77">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T77">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U77">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V77">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W77">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X77">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y77">
         <v>-1</v>
       </c>
       <c r="Z77">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA77">
         <v>-1</v>
       </c>
       <c r="AB77">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC77">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7846,7 +7846,7 @@
         <v>44988.69791666666</v>
       </c>
       <c r="F83" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G83" t="s">
         <v>41</v>
@@ -8024,7 +8024,7 @@
         <v>44989.59375</v>
       </c>
       <c r="F85" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G85" t="s">
         <v>39</v>
@@ -8813,7 +8813,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>5208610</v>
+        <v>5208609</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8825,73 +8825,73 @@
         <v>44996.59375</v>
       </c>
       <c r="F94" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G94" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="H94">
+        <v>3</v>
+      </c>
+      <c r="I94">
+        <v>1</v>
+      </c>
+      <c r="J94" t="s">
+        <v>50</v>
+      </c>
+      <c r="K94">
+        <v>1.615</v>
+      </c>
+      <c r="L94">
         <v>4</v>
       </c>
-      <c r="I94">
+      <c r="M94">
+        <v>4.75</v>
+      </c>
+      <c r="N94">
+        <v>1.615</v>
+      </c>
+      <c r="O94">
         <v>4</v>
       </c>
-      <c r="J94" t="s">
-        <v>48</v>
-      </c>
-      <c r="K94">
-        <v>2.25</v>
-      </c>
-      <c r="L94">
-        <v>3.4</v>
-      </c>
-      <c r="M94">
-        <v>2.9</v>
-      </c>
-      <c r="N94">
-        <v>2.5</v>
-      </c>
-      <c r="O94">
-        <v>3.4</v>
-      </c>
       <c r="P94">
-        <v>2.6</v>
+        <v>4.5</v>
       </c>
       <c r="Q94">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R94">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S94">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T94">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U94">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V94">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W94">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X94">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y94">
         <v>-1</v>
       </c>
       <c r="Z94">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AA94">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB94">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AC94">
         <v>-1</v>
@@ -8902,7 +8902,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>5208609</v>
+        <v>5208610</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8914,73 +8914,73 @@
         <v>44996.59375</v>
       </c>
       <c r="F95" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G95" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="H95">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I95">
+        <v>4</v>
+      </c>
+      <c r="J95" t="s">
+        <v>48</v>
+      </c>
+      <c r="K95">
+        <v>2.25</v>
+      </c>
+      <c r="L95">
+        <v>3.4</v>
+      </c>
+      <c r="M95">
+        <v>2.9</v>
+      </c>
+      <c r="N95">
+        <v>2.5</v>
+      </c>
+      <c r="O95">
+        <v>3.4</v>
+      </c>
+      <c r="P95">
+        <v>2.6</v>
+      </c>
+      <c r="Q95">
+        <v>0</v>
+      </c>
+      <c r="R95">
+        <v>1.875</v>
+      </c>
+      <c r="S95">
+        <v>1.975</v>
+      </c>
+      <c r="T95">
+        <v>2.75</v>
+      </c>
+      <c r="U95">
+        <v>2</v>
+      </c>
+      <c r="V95">
+        <v>1.85</v>
+      </c>
+      <c r="W95">
+        <v>-1</v>
+      </c>
+      <c r="X95">
+        <v>2.4</v>
+      </c>
+      <c r="Y95">
+        <v>-1</v>
+      </c>
+      <c r="Z95">
+        <v>0</v>
+      </c>
+      <c r="AA95">
+        <v>-0</v>
+      </c>
+      <c r="AB95">
         <v>1</v>
-      </c>
-      <c r="J95" t="s">
-        <v>50</v>
-      </c>
-      <c r="K95">
-        <v>1.615</v>
-      </c>
-      <c r="L95">
-        <v>4</v>
-      </c>
-      <c r="M95">
-        <v>4.75</v>
-      </c>
-      <c r="N95">
-        <v>1.615</v>
-      </c>
-      <c r="O95">
-        <v>4</v>
-      </c>
-      <c r="P95">
-        <v>4.5</v>
-      </c>
-      <c r="Q95">
-        <v>-1</v>
-      </c>
-      <c r="R95">
-        <v>2.05</v>
-      </c>
-      <c r="S95">
-        <v>1.8</v>
-      </c>
-      <c r="T95">
-        <v>3</v>
-      </c>
-      <c r="U95">
-        <v>1.95</v>
-      </c>
-      <c r="V95">
-        <v>1.9</v>
-      </c>
-      <c r="W95">
-        <v>0.615</v>
-      </c>
-      <c r="X95">
-        <v>-1</v>
-      </c>
-      <c r="Y95">
-        <v>-1</v>
-      </c>
-      <c r="Z95">
-        <v>1.05</v>
-      </c>
-      <c r="AA95">
-        <v>-1</v>
-      </c>
-      <c r="AB95">
-        <v>0.95</v>
       </c>
       <c r="AC95">
         <v>-1</v>
@@ -9362,7 +9362,7 @@
         <v>36</v>
       </c>
       <c r="G100" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H100">
         <v>2</v>
@@ -9448,7 +9448,7 @@
         <v>45002.69791666666</v>
       </c>
       <c r="F101" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G101" t="s">
         <v>34</v>
@@ -9715,7 +9715,7 @@
         <v>45003.59375</v>
       </c>
       <c r="F104" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G104" t="s">
         <v>38</v>
@@ -10338,7 +10338,7 @@
         <v>45017.45833333334</v>
       </c>
       <c r="F111" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G111" t="s">
         <v>45</v>
@@ -10605,7 +10605,7 @@
         <v>45017.65625</v>
       </c>
       <c r="F114" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G114" t="s">
         <v>29</v>
@@ -11127,7 +11127,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>5391100</v>
+        <v>5394553</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11139,76 +11139,76 @@
         <v>45024.45833333334</v>
       </c>
       <c r="F120" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G120" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H120">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J120" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K120">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L120">
         <v>3.5</v>
       </c>
       <c r="M120">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="N120">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="O120">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P120">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="Q120">
+        <v>-0.25</v>
+      </c>
+      <c r="R120">
+        <v>1.95</v>
+      </c>
+      <c r="S120">
+        <v>1.9</v>
+      </c>
+      <c r="T120">
+        <v>2.75</v>
+      </c>
+      <c r="U120">
+        <v>1.875</v>
+      </c>
+      <c r="V120">
+        <v>1.975</v>
+      </c>
+      <c r="W120">
+        <v>-1</v>
+      </c>
+      <c r="X120">
+        <v>2.4</v>
+      </c>
+      <c r="Y120">
+        <v>-1</v>
+      </c>
+      <c r="Z120">
         <v>-0.5</v>
       </c>
-      <c r="R120">
-        <v>2.025</v>
-      </c>
-      <c r="S120">
-        <v>1.825</v>
-      </c>
-      <c r="T120">
-        <v>3</v>
-      </c>
-      <c r="U120">
-        <v>1.95</v>
-      </c>
-      <c r="V120">
-        <v>1.9</v>
-      </c>
-      <c r="W120">
-        <v>1</v>
-      </c>
-      <c r="X120">
-        <v>-1</v>
-      </c>
-      <c r="Y120">
-        <v>-1</v>
-      </c>
-      <c r="Z120">
-        <v>1.025</v>
-      </c>
       <c r="AA120">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB120">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC120">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11216,7 +11216,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>5394553</v>
+        <v>5391100</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11228,76 +11228,76 @@
         <v>45024.45833333334</v>
       </c>
       <c r="F121" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G121" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J121" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K121">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L121">
         <v>3.5</v>
       </c>
       <c r="M121">
+        <v>3.3</v>
+      </c>
+      <c r="N121">
+        <v>2</v>
+      </c>
+      <c r="O121">
         <v>3.6</v>
       </c>
-      <c r="N121">
-        <v>2.25</v>
-      </c>
-      <c r="O121">
-        <v>3.4</v>
-      </c>
       <c r="P121">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="Q121">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R121">
+        <v>2.025</v>
+      </c>
+      <c r="S121">
+        <v>1.825</v>
+      </c>
+      <c r="T121">
+        <v>3</v>
+      </c>
+      <c r="U121">
         <v>1.95</v>
       </c>
-      <c r="S121">
+      <c r="V121">
         <v>1.9</v>
       </c>
-      <c r="T121">
-        <v>2.75</v>
-      </c>
-      <c r="U121">
-        <v>1.875</v>
-      </c>
-      <c r="V121">
-        <v>1.975</v>
-      </c>
       <c r="W121">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X121">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y121">
         <v>-1</v>
       </c>
       <c r="Z121">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA121">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB121">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC121">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11587,7 +11587,7 @@
         <v>33</v>
       </c>
       <c r="G125" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H125">
         <v>2</v>
@@ -11765,7 +11765,7 @@
         <v>46</v>
       </c>
       <c r="G127" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H127">
         <v>5</v>
@@ -12017,7 +12017,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>5424405</v>
+        <v>5424406</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12032,70 +12032,70 @@
         <v>32</v>
       </c>
       <c r="G130" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H130">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I130">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J130" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K130">
-        <v>1.75</v>
+        <v>2.4</v>
       </c>
       <c r="L130">
         <v>3.5</v>
       </c>
       <c r="M130">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="N130">
-        <v>1.65</v>
+        <v>2.4</v>
       </c>
       <c r="O130">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P130">
-        <v>5.25</v>
+        <v>2.75</v>
       </c>
       <c r="Q130">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R130">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S130">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T130">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U130">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V130">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W130">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X130">
         <v>-1</v>
       </c>
       <c r="Y130">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z130">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA130">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB130">
-        <v>1</v>
+        <v>1.025</v>
       </c>
       <c r="AC130">
         <v>-1</v>
@@ -12106,7 +12106,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>5424406</v>
+        <v>5424405</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12121,70 +12121,70 @@
         <v>31</v>
       </c>
       <c r="G131" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I131">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J131" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K131">
-        <v>2.4</v>
+        <v>1.75</v>
       </c>
       <c r="L131">
         <v>3.5</v>
       </c>
       <c r="M131">
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="N131">
-        <v>2.4</v>
+        <v>1.65</v>
       </c>
       <c r="O131">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P131">
-        <v>2.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q131">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R131">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S131">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T131">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U131">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V131">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W131">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X131">
         <v>-1</v>
       </c>
       <c r="Y131">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z131">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA131">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB131">
-        <v>1.025</v>
+        <v>1</v>
       </c>
       <c r="AC131">
         <v>-1</v>
@@ -12818,7 +12818,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6389865</v>
+        <v>6390693</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12830,73 +12830,73 @@
         <v>45039.5625</v>
       </c>
       <c r="F139" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G139" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I139">
         <v>2</v>
       </c>
       <c r="J139" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K139">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="L139">
         <v>3.6</v>
       </c>
       <c r="M139">
+        <v>2.45</v>
+      </c>
+      <c r="N139">
+        <v>2.4</v>
+      </c>
+      <c r="O139">
+        <v>3.8</v>
+      </c>
+      <c r="P139">
+        <v>2.45</v>
+      </c>
+      <c r="Q139">
+        <v>0</v>
+      </c>
+      <c r="R139">
+        <v>1.9</v>
+      </c>
+      <c r="S139">
         <v>1.95</v>
       </c>
-      <c r="N139">
-        <v>2.8</v>
-      </c>
-      <c r="O139">
-        <v>3.5</v>
-      </c>
-      <c r="P139">
-        <v>2.3</v>
-      </c>
-      <c r="Q139">
-        <v>0.25</v>
-      </c>
-      <c r="R139">
-        <v>1.8</v>
-      </c>
-      <c r="S139">
-        <v>2.05</v>
-      </c>
       <c r="T139">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U139">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V139">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W139">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X139">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y139">
         <v>-1</v>
       </c>
       <c r="Z139">
-        <v>0.4</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA139">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB139">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AC139">
         <v>-1</v>
@@ -12907,7 +12907,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6385540</v>
+        <v>6390043</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12919,55 +12919,55 @@
         <v>45039.5625</v>
       </c>
       <c r="F140" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G140" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I140">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J140" t="s">
         <v>49</v>
       </c>
       <c r="K140">
-        <v>1.363</v>
+        <v>1.222</v>
       </c>
       <c r="L140">
-        <v>5</v>
+        <v>5.75</v>
       </c>
       <c r="M140">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="N140">
-        <v>1.55</v>
+        <v>1.142</v>
       </c>
       <c r="O140">
-        <v>4.2</v>
+        <v>7.5</v>
       </c>
       <c r="P140">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="Q140">
-        <v>-1</v>
+        <v>-2.25</v>
       </c>
       <c r="R140">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S140">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T140">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U140">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V140">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W140">
         <v>-1</v>
@@ -12976,19 +12976,19 @@
         <v>-1</v>
       </c>
       <c r="Y140">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="Z140">
         <v>-1</v>
       </c>
       <c r="AA140">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AB140">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC140">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -12996,7 +12996,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6390043</v>
+        <v>6389865</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13008,49 +13008,49 @@
         <v>45039.5625</v>
       </c>
       <c r="F141" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G141" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I141">
         <v>2</v>
       </c>
       <c r="J141" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K141">
-        <v>1.222</v>
+        <v>3.5</v>
       </c>
       <c r="L141">
-        <v>5.75</v>
+        <v>3.6</v>
       </c>
       <c r="M141">
-        <v>11</v>
+        <v>1.95</v>
       </c>
       <c r="N141">
-        <v>1.142</v>
+        <v>2.8</v>
       </c>
       <c r="O141">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="P141">
-        <v>15</v>
+        <v>2.3</v>
       </c>
       <c r="Q141">
-        <v>-2.25</v>
+        <v>0.25</v>
       </c>
       <c r="R141">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S141">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T141">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U141">
         <v>1.95</v>
@@ -13062,22 +13062,22 @@
         <v>-1</v>
       </c>
       <c r="X141">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y141">
-        <v>14</v>
+        <v>-1</v>
       </c>
       <c r="Z141">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA141">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB141">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC141">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13085,7 +13085,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6390693</v>
+        <v>6390442</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13097,58 +13097,58 @@
         <v>45039.5625</v>
       </c>
       <c r="F142" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G142" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H142">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I142">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J142" t="s">
         <v>50</v>
       </c>
       <c r="K142">
-        <v>2.5</v>
+        <v>1.333</v>
       </c>
       <c r="L142">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M142">
-        <v>2.45</v>
+        <v>8</v>
       </c>
       <c r="N142">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="O142">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="P142">
-        <v>2.45</v>
+        <v>8.5</v>
       </c>
       <c r="Q142">
-        <v>0</v>
+        <v>-1.75</v>
       </c>
       <c r="R142">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S142">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T142">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U142">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V142">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W142">
-        <v>1.4</v>
+        <v>0.3</v>
       </c>
       <c r="X142">
         <v>-1</v>
@@ -13157,13 +13157,13 @@
         <v>-1</v>
       </c>
       <c r="Z142">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA142">
         <v>-1</v>
       </c>
       <c r="AB142">
-        <v>1</v>
+        <v>1.025</v>
       </c>
       <c r="AC142">
         <v>-1</v>
@@ -13174,7 +13174,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6390442</v>
+        <v>6390066</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13186,73 +13186,73 @@
         <v>45039.5625</v>
       </c>
       <c r="F143" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G143" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H143">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I143">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J143" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K143">
-        <v>1.333</v>
+        <v>3</v>
       </c>
       <c r="L143">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M143">
-        <v>8</v>
+        <v>2.15</v>
       </c>
       <c r="N143">
-        <v>1.3</v>
+        <v>2.8</v>
       </c>
       <c r="O143">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="P143">
-        <v>8.5</v>
+        <v>2.25</v>
       </c>
       <c r="Q143">
-        <v>-1.75</v>
+        <v>0.25</v>
       </c>
       <c r="R143">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S143">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T143">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U143">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V143">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W143">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X143">
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z143">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA143">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB143">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
       <c r="AC143">
         <v>-1</v>
@@ -13263,7 +13263,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6390066</v>
+        <v>6389819</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13275,55 +13275,55 @@
         <v>45039.5625</v>
       </c>
       <c r="F144" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G144" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="H144">
         <v>2</v>
       </c>
       <c r="I144">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J144" t="s">
         <v>49</v>
       </c>
       <c r="K144">
-        <v>3</v>
+        <v>5.25</v>
       </c>
       <c r="L144">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M144">
-        <v>2.15</v>
+        <v>1.533</v>
       </c>
       <c r="N144">
-        <v>2.8</v>
+        <v>6.5</v>
       </c>
       <c r="O144">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P144">
-        <v>2.25</v>
+        <v>1.4</v>
       </c>
       <c r="Q144">
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R144">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S144">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T144">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U144">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V144">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="W144">
         <v>-1</v>
@@ -13332,16 +13332,16 @@
         <v>-1</v>
       </c>
       <c r="Y144">
-        <v>1.25</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z144">
         <v>-1</v>
       </c>
       <c r="AA144">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AB144">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AC144">
         <v>-1</v>
@@ -13352,7 +13352,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6389819</v>
+        <v>6385540</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13364,55 +13364,55 @@
         <v>45039.5625</v>
       </c>
       <c r="F145" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G145" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H145">
         <v>2</v>
       </c>
       <c r="I145">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J145" t="s">
         <v>49</v>
       </c>
       <c r="K145">
-        <v>5.25</v>
+        <v>1.363</v>
       </c>
       <c r="L145">
+        <v>5</v>
+      </c>
+      <c r="M145">
+        <v>7</v>
+      </c>
+      <c r="N145">
+        <v>1.55</v>
+      </c>
+      <c r="O145">
         <v>4.2</v>
       </c>
-      <c r="M145">
-        <v>1.533</v>
-      </c>
-      <c r="N145">
-        <v>6.5</v>
-      </c>
-      <c r="O145">
-        <v>4.75</v>
-      </c>
       <c r="P145">
-        <v>1.4</v>
+        <v>5</v>
       </c>
       <c r="Q145">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="R145">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S145">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T145">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U145">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V145">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W145">
         <v>-1</v>
@@ -13421,16 +13421,16 @@
         <v>-1</v>
       </c>
       <c r="Y145">
-        <v>0.3999999999999999</v>
+        <v>4</v>
       </c>
       <c r="Z145">
         <v>-1</v>
       </c>
       <c r="AA145">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AB145">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AC145">
         <v>-1</v>
@@ -13542,7 +13542,7 @@
         <v>45045.55208333334</v>
       </c>
       <c r="F147" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G147" t="s">
         <v>29</v>
@@ -13990,7 +13990,7 @@
         <v>38</v>
       </c>
       <c r="G152" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H152">
         <v>3</v>
@@ -14165,7 +14165,7 @@
         <v>45059.55208333334</v>
       </c>
       <c r="F154" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G154" t="s">
         <v>42</v>
@@ -14613,7 +14613,7 @@
         <v>42</v>
       </c>
       <c r="G159" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H159">
         <v>2</v>
@@ -14969,7 +14969,7 @@
         <v>29</v>
       </c>
       <c r="G163" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H163">
         <v>0</v>
@@ -15233,7 +15233,7 @@
         <v>45080.64583333334</v>
       </c>
       <c r="F166" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G166" t="s">
         <v>38</v>
@@ -15948,7 +15948,7 @@
         <v>33</v>
       </c>
       <c r="G174" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H174">
         <v>1</v>
@@ -16479,7 +16479,7 @@
         <v>45143.55208333334</v>
       </c>
       <c r="F180" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G180" t="s">
         <v>44</v>
@@ -17357,7 +17357,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>6810007</v>
+        <v>7030334</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17369,55 +17369,55 @@
         <v>45151.45833333334</v>
       </c>
       <c r="F190" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G190" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H190">
         <v>0</v>
       </c>
       <c r="I190">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J190" t="s">
         <v>49</v>
       </c>
       <c r="K190">
-        <v>4.75</v>
+        <v>2.75</v>
       </c>
       <c r="L190">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M190">
-        <v>1.571</v>
+        <v>2.25</v>
       </c>
       <c r="N190">
-        <v>7</v>
+        <v>2.4</v>
       </c>
       <c r="O190">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P190">
-        <v>1.333</v>
+        <v>2.55</v>
       </c>
       <c r="Q190">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="R190">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S190">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T190">
         <v>3</v>
       </c>
       <c r="U190">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V190">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W190">
         <v>-1</v>
@@ -17426,19 +17426,19 @@
         <v>-1</v>
       </c>
       <c r="Y190">
-        <v>0.333</v>
+        <v>1.55</v>
       </c>
       <c r="Z190">
         <v>-1</v>
       </c>
       <c r="AA190">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB190">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC190">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="191" spans="1:29">
@@ -17446,7 +17446,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>7030334</v>
+        <v>6810007</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17458,55 +17458,55 @@
         <v>45151.45833333334</v>
       </c>
       <c r="F191" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G191" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H191">
         <v>0</v>
       </c>
       <c r="I191">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J191" t="s">
         <v>49</v>
       </c>
       <c r="K191">
-        <v>2.75</v>
+        <v>4.75</v>
       </c>
       <c r="L191">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M191">
-        <v>2.25</v>
+        <v>1.571</v>
       </c>
       <c r="N191">
-        <v>2.4</v>
+        <v>7</v>
       </c>
       <c r="O191">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P191">
-        <v>2.55</v>
+        <v>1.333</v>
       </c>
       <c r="Q191">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="R191">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S191">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T191">
         <v>3</v>
       </c>
       <c r="U191">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V191">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W191">
         <v>-1</v>
@@ -17515,19 +17515,19 @@
         <v>-1</v>
       </c>
       <c r="Y191">
-        <v>1.55</v>
+        <v>0.333</v>
       </c>
       <c r="Z191">
         <v>-1</v>
       </c>
       <c r="AA191">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB191">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC191">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="192" spans="1:29">
@@ -17817,7 +17817,7 @@
         <v>29</v>
       </c>
       <c r="G195" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H195">
         <v>0</v>
@@ -18069,7 +18069,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>6810015</v>
+        <v>6810012</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18081,61 +18081,61 @@
         <v>45158.45833333334</v>
       </c>
       <c r="F198" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G198" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J198" t="s">
         <v>48</v>
       </c>
       <c r="K198">
-        <v>1.45</v>
+        <v>1.533</v>
       </c>
       <c r="L198">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="M198">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="N198">
-        <v>1.533</v>
+        <v>1.6</v>
       </c>
       <c r="O198">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P198">
-        <v>6</v>
+        <v>5.25</v>
       </c>
       <c r="Q198">
         <v>-1</v>
       </c>
       <c r="R198">
+        <v>1.975</v>
+      </c>
+      <c r="S198">
+        <v>1.875</v>
+      </c>
+      <c r="T198">
+        <v>3</v>
+      </c>
+      <c r="U198">
         <v>1.9</v>
       </c>
-      <c r="S198">
+      <c r="V198">
         <v>1.95</v>
       </c>
-      <c r="T198">
-        <v>2.5</v>
-      </c>
-      <c r="U198">
-        <v>1.8</v>
-      </c>
-      <c r="V198">
-        <v>2.05</v>
-      </c>
       <c r="W198">
         <v>-1</v>
       </c>
       <c r="X198">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Y198">
         <v>-1</v>
@@ -18144,13 +18144,13 @@
         <v>-1</v>
       </c>
       <c r="AA198">
+        <v>0.875</v>
+      </c>
+      <c r="AB198">
+        <v>-1</v>
+      </c>
+      <c r="AC198">
         <v>0.95</v>
-      </c>
-      <c r="AB198">
-        <v>0.8</v>
-      </c>
-      <c r="AC198">
-        <v>-1</v>
       </c>
     </row>
     <row r="199" spans="1:29">
@@ -18158,7 +18158,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>6810012</v>
+        <v>6810015</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18170,61 +18170,61 @@
         <v>45158.45833333334</v>
       </c>
       <c r="F199" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G199" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J199" t="s">
         <v>48</v>
       </c>
       <c r="K199">
+        <v>1.45</v>
+      </c>
+      <c r="L199">
+        <v>4.5</v>
+      </c>
+      <c r="M199">
+        <v>7</v>
+      </c>
+      <c r="N199">
         <v>1.533</v>
       </c>
-      <c r="L199">
+      <c r="O199">
         <v>4.2</v>
       </c>
-      <c r="M199">
-        <v>5.5</v>
-      </c>
-      <c r="N199">
-        <v>1.6</v>
-      </c>
-      <c r="O199">
-        <v>4</v>
-      </c>
       <c r="P199">
-        <v>5.25</v>
+        <v>6</v>
       </c>
       <c r="Q199">
         <v>-1</v>
       </c>
       <c r="R199">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S199">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T199">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U199">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V199">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W199">
         <v>-1</v>
       </c>
       <c r="X199">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Y199">
         <v>-1</v>
@@ -18233,13 +18233,13 @@
         <v>-1</v>
       </c>
       <c r="AA199">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AB199">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC199">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="200" spans="1:29">
@@ -18707,7 +18707,7 @@
         <v>46</v>
       </c>
       <c r="G205" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H205">
         <v>0</v>
@@ -18971,7 +18971,7 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F208" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G208" t="s">
         <v>38</v>
@@ -19686,7 +19686,7 @@
         <v>47</v>
       </c>
       <c r="G216" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H216">
         <v>2</v>
@@ -20751,7 +20751,7 @@
         <v>45193.45833333334</v>
       </c>
       <c r="F228" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G228" t="s">
         <v>43</v>
@@ -21288,7 +21288,7 @@
         <v>45</v>
       </c>
       <c r="G234" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H234">
         <v>2</v>
@@ -22086,7 +22086,7 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F243" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G243" t="s">
         <v>37</v>
@@ -23154,7 +23154,7 @@
         <v>45221.45833333334</v>
       </c>
       <c r="F255" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G255" t="s">
         <v>42</v>
@@ -23513,7 +23513,7 @@
         <v>40</v>
       </c>
       <c r="G259" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H259">
         <v>0</v>
@@ -24489,7 +24489,7 @@
         <v>45235.39583333334</v>
       </c>
       <c r="F270" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G270" t="s">
         <v>36</v>
@@ -25204,7 +25204,7 @@
         <v>41</v>
       </c>
       <c r="G278" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H278">
         <v>0</v>
@@ -25646,7 +25646,7 @@
         <v>45255.5</v>
       </c>
       <c r="F283" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G283" t="s">
         <v>30</v>
@@ -26895,7 +26895,7 @@
         <v>43</v>
       </c>
       <c r="G297" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H297">
         <v>2</v>
@@ -27070,7 +27070,7 @@
         <v>45269.5</v>
       </c>
       <c r="F299" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G299" t="s">
         <v>33</v>
@@ -27785,7 +27785,7 @@
         <v>37</v>
       </c>
       <c r="G307" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H307">
         <v>1</v>
@@ -28405,7 +28405,7 @@
         <v>45280.60416666666</v>
       </c>
       <c r="F314" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G314" t="s">
         <v>45</v>
@@ -29654,7 +29654,7 @@
         <v>36</v>
       </c>
       <c r="G328" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H328">
         <v>2</v>
@@ -29921,7 +29921,7 @@
         <v>34</v>
       </c>
       <c r="G331" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H331">
         <v>1</v>
@@ -30452,7 +30452,7 @@
         <v>45317.69791666666</v>
       </c>
       <c r="F337" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G337" t="s">
         <v>29</v>
@@ -30618,7 +30618,7 @@
         <v>337</v>
       </c>
       <c r="B339">
-        <v>6810158</v>
+        <v>6810159</v>
       </c>
       <c r="C339" t="s">
         <v>28</v>
@@ -30630,73 +30630,73 @@
         <v>45318.69791666666</v>
       </c>
       <c r="F339" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G339" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H339">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I339">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J339" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K339">
-        <v>1.363</v>
+        <v>5.5</v>
       </c>
       <c r="L339">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="M339">
-        <v>6.5</v>
+        <v>1.5</v>
       </c>
       <c r="N339">
-        <v>1.444</v>
+        <v>6</v>
       </c>
       <c r="O339">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P339">
-        <v>5.75</v>
+        <v>1.45</v>
       </c>
       <c r="Q339">
-        <v>-1.25</v>
+        <v>1.25</v>
       </c>
       <c r="R339">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S339">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T339">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U339">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V339">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W339">
         <v>-1</v>
       </c>
       <c r="X339">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y339">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z339">
         <v>-1</v>
       </c>
       <c r="AA339">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AB339">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AC339">
         <v>-1</v>
@@ -30707,7 +30707,7 @@
         <v>338</v>
       </c>
       <c r="B340">
-        <v>6810159</v>
+        <v>6810158</v>
       </c>
       <c r="C340" t="s">
         <v>28</v>
@@ -30719,73 +30719,73 @@
         <v>45318.69791666666</v>
       </c>
       <c r="F340" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G340" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H340">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I340">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J340" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K340">
-        <v>5.5</v>
+        <v>1.363</v>
       </c>
       <c r="L340">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="M340">
-        <v>1.5</v>
+        <v>6.5</v>
       </c>
       <c r="N340">
-        <v>6</v>
+        <v>1.444</v>
       </c>
       <c r="O340">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P340">
-        <v>1.45</v>
+        <v>5.75</v>
       </c>
       <c r="Q340">
-        <v>1.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R340">
+        <v>2</v>
+      </c>
+      <c r="S340">
+        <v>1.85</v>
+      </c>
+      <c r="T340">
+        <v>3</v>
+      </c>
+      <c r="U340">
+        <v>2.025</v>
+      </c>
+      <c r="V340">
         <v>1.825</v>
       </c>
-      <c r="S340">
-        <v>2.025</v>
-      </c>
-      <c r="T340">
-        <v>2.75</v>
-      </c>
-      <c r="U340">
-        <v>1.95</v>
-      </c>
-      <c r="V340">
-        <v>1.9</v>
-      </c>
       <c r="W340">
         <v>-1</v>
       </c>
       <c r="X340">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y340">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z340">
         <v>-1</v>
       </c>
       <c r="AA340">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB340">
         <v>1.025</v>
-      </c>
-      <c r="AB340">
-        <v>0.95</v>
       </c>
       <c r="AC340">
         <v>-1</v>
@@ -31152,7 +31152,7 @@
         <v>343</v>
       </c>
       <c r="B345">
-        <v>6810167</v>
+        <v>6810169</v>
       </c>
       <c r="C345" t="s">
         <v>28</v>
@@ -31164,73 +31164,73 @@
         <v>45321.6875</v>
       </c>
       <c r="F345" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G345" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H345">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I345">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J345" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K345">
-        <v>1.125</v>
+        <v>3.4</v>
       </c>
       <c r="L345">
-        <v>8.5</v>
+        <v>3.8</v>
       </c>
       <c r="M345">
-        <v>17</v>
+        <v>1.95</v>
       </c>
       <c r="N345">
-        <v>1.125</v>
+        <v>3.3</v>
       </c>
       <c r="O345">
-        <v>8.5</v>
+        <v>3.6</v>
       </c>
       <c r="P345">
-        <v>17</v>
+        <v>2.05</v>
       </c>
       <c r="Q345">
-        <v>-2.25</v>
+        <v>0.25</v>
       </c>
       <c r="R345">
+        <v>2</v>
+      </c>
+      <c r="S345">
         <v>1.85</v>
       </c>
-      <c r="S345">
-        <v>2</v>
-      </c>
       <c r="T345">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U345">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V345">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W345">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X345">
-        <v>7.5</v>
+        <v>-1</v>
       </c>
       <c r="Y345">
         <v>-1</v>
       </c>
       <c r="Z345">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA345">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB345">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC345">
         <v>-1</v>
@@ -31241,7 +31241,7 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>6810169</v>
+        <v>6810167</v>
       </c>
       <c r="C346" t="s">
         <v>28</v>
@@ -31253,73 +31253,73 @@
         <v>45321.6875</v>
       </c>
       <c r="F346" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G346" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="H346">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I346">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J346" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K346">
-        <v>3.4</v>
+        <v>1.125</v>
       </c>
       <c r="L346">
-        <v>3.8</v>
+        <v>8.5</v>
       </c>
       <c r="M346">
+        <v>17</v>
+      </c>
+      <c r="N346">
+        <v>1.125</v>
+      </c>
+      <c r="O346">
+        <v>8.5</v>
+      </c>
+      <c r="P346">
+        <v>17</v>
+      </c>
+      <c r="Q346">
+        <v>-2.25</v>
+      </c>
+      <c r="R346">
+        <v>1.85</v>
+      </c>
+      <c r="S346">
+        <v>2</v>
+      </c>
+      <c r="T346">
+        <v>3.5</v>
+      </c>
+      <c r="U346">
+        <v>1.9</v>
+      </c>
+      <c r="V346">
         <v>1.95</v>
       </c>
-      <c r="N346">
-        <v>3.3</v>
-      </c>
-      <c r="O346">
-        <v>3.6</v>
-      </c>
-      <c r="P346">
-        <v>2.05</v>
-      </c>
-      <c r="Q346">
-        <v>0.25</v>
-      </c>
-      <c r="R346">
-        <v>2</v>
-      </c>
-      <c r="S346">
-        <v>1.85</v>
-      </c>
-      <c r="T346">
-        <v>2.75</v>
-      </c>
-      <c r="U346">
-        <v>1.975</v>
-      </c>
-      <c r="V346">
-        <v>1.875</v>
-      </c>
       <c r="W346">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X346">
-        <v>-1</v>
+        <v>7.5</v>
       </c>
       <c r="Y346">
         <v>-1</v>
       </c>
       <c r="Z346">
+        <v>-1</v>
+      </c>
+      <c r="AA346">
         <v>1</v>
       </c>
-      <c r="AA346">
-        <v>-1</v>
-      </c>
       <c r="AB346">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC346">
         <v>-1</v>
@@ -31330,7 +31330,7 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>6810165</v>
+        <v>6810168</v>
       </c>
       <c r="C347" t="s">
         <v>28</v>
@@ -31342,58 +31342,58 @@
         <v>45322.61458333334</v>
       </c>
       <c r="F347" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G347" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H347">
+        <v>2</v>
+      </c>
+      <c r="I347">
         <v>1</v>
-      </c>
-      <c r="I347">
-        <v>0</v>
       </c>
       <c r="J347" t="s">
         <v>50</v>
       </c>
       <c r="K347">
-        <v>1.6</v>
+        <v>4.5</v>
       </c>
       <c r="L347">
+        <v>4.2</v>
+      </c>
+      <c r="M347">
+        <v>1.666</v>
+      </c>
+      <c r="N347">
+        <v>4.333</v>
+      </c>
+      <c r="O347">
         <v>4</v>
       </c>
-      <c r="M347">
-        <v>5</v>
-      </c>
-      <c r="N347">
-        <v>1.8</v>
-      </c>
-      <c r="O347">
-        <v>3.75</v>
-      </c>
       <c r="P347">
-        <v>4.2</v>
+        <v>1.7</v>
       </c>
       <c r="Q347">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R347">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S347">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T347">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U347">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V347">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W347">
-        <v>0.8</v>
+        <v>3.333</v>
       </c>
       <c r="X347">
         <v>-1</v>
@@ -31402,16 +31402,16 @@
         <v>-1</v>
       </c>
       <c r="Z347">
-        <v>0.5249999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA347">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB347">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC347">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="348" spans="1:29">
@@ -31419,7 +31419,7 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>6810168</v>
+        <v>6810165</v>
       </c>
       <c r="C348" t="s">
         <v>28</v>
@@ -31431,58 +31431,58 @@
         <v>45322.61458333334</v>
       </c>
       <c r="F348" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G348" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H348">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I348">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J348" t="s">
         <v>50</v>
       </c>
       <c r="K348">
-        <v>4.5</v>
+        <v>1.6</v>
       </c>
       <c r="L348">
+        <v>4</v>
+      </c>
+      <c r="M348">
+        <v>5</v>
+      </c>
+      <c r="N348">
+        <v>1.8</v>
+      </c>
+      <c r="O348">
+        <v>3.75</v>
+      </c>
+      <c r="P348">
         <v>4.2</v>
       </c>
-      <c r="M348">
-        <v>1.666</v>
-      </c>
-      <c r="N348">
-        <v>4.333</v>
-      </c>
-      <c r="O348">
-        <v>4</v>
-      </c>
-      <c r="P348">
-        <v>1.7</v>
-      </c>
       <c r="Q348">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R348">
+        <v>2.05</v>
+      </c>
+      <c r="S348">
+        <v>1.8</v>
+      </c>
+      <c r="T348">
+        <v>2.75</v>
+      </c>
+      <c r="U348">
         <v>1.95</v>
       </c>
-      <c r="S348">
+      <c r="V348">
         <v>1.9</v>
       </c>
-      <c r="T348">
-        <v>3</v>
-      </c>
-      <c r="U348">
-        <v>1.975</v>
-      </c>
-      <c r="V348">
-        <v>1.875</v>
-      </c>
       <c r="W348">
-        <v>3.333</v>
+        <v>0.8</v>
       </c>
       <c r="X348">
         <v>-1</v>
@@ -31491,16 +31491,16 @@
         <v>-1</v>
       </c>
       <c r="Z348">
-        <v>0.95</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AA348">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB348">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC348">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="349" spans="1:29">
@@ -31508,7 +31508,7 @@
         <v>347</v>
       </c>
       <c r="B349">
-        <v>6810164</v>
+        <v>6810162</v>
       </c>
       <c r="C349" t="s">
         <v>28</v>
@@ -31520,76 +31520,76 @@
         <v>45322.70833333334</v>
       </c>
       <c r="F349" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G349" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="H349">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I349">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J349" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K349">
-        <v>1.2</v>
+        <v>4</v>
       </c>
       <c r="L349">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="M349">
-        <v>12</v>
+        <v>1.85</v>
       </c>
       <c r="N349">
-        <v>1.142</v>
+        <v>3.1</v>
       </c>
       <c r="O349">
-        <v>8.5</v>
+        <v>3.2</v>
       </c>
       <c r="P349">
-        <v>15</v>
+        <v>2.3</v>
       </c>
       <c r="Q349">
-        <v>-2.25</v>
+        <v>0.25</v>
       </c>
       <c r="R349">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S349">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T349">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="U349">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V349">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W349">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X349">
         <v>-1</v>
       </c>
       <c r="Y349">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z349">
         <v>-1</v>
       </c>
       <c r="AA349">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="AB349">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC349">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="350" spans="1:29">
@@ -31597,7 +31597,7 @@
         <v>348</v>
       </c>
       <c r="B350">
-        <v>6810162</v>
+        <v>6810164</v>
       </c>
       <c r="C350" t="s">
         <v>28</v>
@@ -31609,76 +31609,76 @@
         <v>45322.70833333334</v>
       </c>
       <c r="F350" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G350" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I350">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J350" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K350">
-        <v>4</v>
+        <v>1.2</v>
       </c>
       <c r="L350">
-        <v>3.6</v>
+        <v>7</v>
       </c>
       <c r="M350">
-        <v>1.85</v>
+        <v>12</v>
       </c>
       <c r="N350">
-        <v>3.1</v>
+        <v>1.142</v>
       </c>
       <c r="O350">
-        <v>3.2</v>
+        <v>8.5</v>
       </c>
       <c r="P350">
-        <v>2.3</v>
+        <v>15</v>
       </c>
       <c r="Q350">
-        <v>0.25</v>
+        <v>-2.25</v>
       </c>
       <c r="R350">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S350">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T350">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="U350">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V350">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W350">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X350">
         <v>-1</v>
       </c>
       <c r="Y350">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z350">
         <v>-1</v>
       </c>
       <c r="AA350">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AB350">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC350">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="351" spans="1:29">
@@ -32499,7 +32499,7 @@
         <v>45326.63541666666</v>
       </c>
       <c r="F360" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G360" t="s">
         <v>46</v>
@@ -33214,7 +33214,7 @@
         <v>42</v>
       </c>
       <c r="G368" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H368">
         <v>1</v>
@@ -33656,7 +33656,7 @@
         <v>45340.39583333334</v>
       </c>
       <c r="F373" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G373" t="s">
         <v>41</v>
@@ -34175,13 +34175,13 @@
         <v>3.8</v>
       </c>
       <c r="N379">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="O379">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P379">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q379">
         <v>-0.25</v>
@@ -34335,19 +34335,19 @@
         <v>-0.75</v>
       </c>
       <c r="R381">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S381">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T381">
         <v>2.75</v>
       </c>
       <c r="U381">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V381">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W381">
         <v>0</v>
@@ -34397,22 +34397,22 @@
         <v>3.1</v>
       </c>
       <c r="N382">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="O382">
         <v>3.3</v>
       </c>
       <c r="P382">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q382">
         <v>-0.25</v>
       </c>
       <c r="R382">
-        <v>1.975</v>
+        <v>2.1</v>
       </c>
       <c r="S382">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="T382">
         <v>2.5</v>
@@ -34533,7 +34533,7 @@
         <v>30</v>
       </c>
       <c r="G384" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K384">
         <v>5</v>

--- a/Belgium First Division A/Belgium First Division A.xlsx
+++ b/Belgium First Division A/Belgium First Division A.xlsx
@@ -109,10 +109,10 @@
     <t>Eupen</t>
   </si>
   <si>
-    <t>Cercle Brugge</t>
+    <t>KV Oostende</t>
   </si>
   <si>
-    <t>KV Oostende</t>
+    <t>Cercle Brugge</t>
   </si>
   <si>
     <t>Antwerp</t>
@@ -803,7 +803,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5208691</v>
+        <v>5208561</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -818,46 +818,46 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J4" t="s">
         <v>49</v>
       </c>
       <c r="K4">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="L4">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M4">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="N4">
-        <v>2.15</v>
+        <v>1.7</v>
       </c>
       <c r="O4">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P4">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="Q4">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R4">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S4">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T4">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U4">
         <v>1.925</v>
@@ -872,19 +872,19 @@
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="Z4">
         <v>-1</v>
       </c>
       <c r="AA4">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB4">
         <v>0.925</v>
       </c>
-      <c r="AB4">
-        <v>-1</v>
-      </c>
       <c r="AC4">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -892,7 +892,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5208561</v>
+        <v>5208691</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -907,46 +907,46 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
         <v>1</v>
-      </c>
-      <c r="I5">
-        <v>2</v>
       </c>
       <c r="J5" t="s">
         <v>49</v>
       </c>
       <c r="K5">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="L5">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M5">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="N5">
-        <v>1.7</v>
+        <v>2.15</v>
       </c>
       <c r="O5">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P5">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="Q5">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R5">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S5">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T5">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U5">
         <v>1.925</v>
@@ -961,19 +961,19 @@
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="Z5">
         <v>-1</v>
       </c>
       <c r="AA5">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB5">
+        <v>-1</v>
+      </c>
+      <c r="AC5">
         <v>0.925</v>
-      </c>
-      <c r="AC5">
-        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1619,7 +1619,7 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H13">
         <v>2</v>
@@ -2153,7 +2153,7 @@
         <v>44</v>
       </c>
       <c r="G19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H19">
         <v>2</v>
@@ -2316,7 +2316,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5208702</v>
+        <v>5208698</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2328,76 +2328,76 @@
         <v>44943.69791666666</v>
       </c>
       <c r="F21" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G21" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H21">
         <v>2</v>
       </c>
       <c r="I21">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K21">
-        <v>4.2</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M21">
-        <v>1.75</v>
+        <v>3.5</v>
       </c>
       <c r="N21">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="O21">
         <v>3.6</v>
       </c>
       <c r="P21">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q21">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R21">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S21">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T21">
         <v>2.75</v>
       </c>
       <c r="U21">
+        <v>2.025</v>
+      </c>
+      <c r="V21">
         <v>1.825</v>
       </c>
-      <c r="V21">
-        <v>2.025</v>
-      </c>
       <c r="W21">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X21">
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z21">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA21">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB21">
+        <v>-1</v>
+      </c>
+      <c r="AC21">
         <v>0.825</v>
-      </c>
-      <c r="AC21">
-        <v>-1</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2405,7 +2405,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5208698</v>
+        <v>5208702</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2417,76 +2417,76 @@
         <v>44943.69791666666</v>
       </c>
       <c r="F22" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G22" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H22">
         <v>2</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>4.2</v>
       </c>
       <c r="L22">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M22">
-        <v>3.5</v>
+        <v>1.75</v>
       </c>
       <c r="N22">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="O22">
         <v>3.6</v>
       </c>
       <c r="P22">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="Q22">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R22">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S22">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T22">
         <v>2.75</v>
       </c>
       <c r="U22">
+        <v>1.825</v>
+      </c>
+      <c r="V22">
         <v>2.025</v>
       </c>
-      <c r="V22">
-        <v>1.825</v>
-      </c>
       <c r="W22">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X22">
         <v>-1</v>
       </c>
       <c r="Y22">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z22">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA22">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB22">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC22">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2506,7 +2506,7 @@
         <v>44944.60416666666</v>
       </c>
       <c r="F23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G23" t="s">
         <v>33</v>
@@ -2595,7 +2595,7 @@
         <v>44944.60416666666</v>
       </c>
       <c r="F24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G24" t="s">
         <v>43</v>
@@ -3117,7 +3117,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>5208575</v>
+        <v>5208577</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3129,40 +3129,40 @@
         <v>44947.59375</v>
       </c>
       <c r="F30" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G30" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="H30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I30">
         <v>2</v>
       </c>
       <c r="J30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K30">
-        <v>1.95</v>
+        <v>2.625</v>
       </c>
       <c r="L30">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M30">
+        <v>2.4</v>
+      </c>
+      <c r="N30">
+        <v>3.2</v>
+      </c>
+      <c r="O30">
         <v>3.4</v>
       </c>
-      <c r="N30">
-        <v>1.75</v>
-      </c>
-      <c r="O30">
-        <v>3.6</v>
-      </c>
       <c r="P30">
-        <v>4</v>
+        <v>2.05</v>
       </c>
       <c r="Q30">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R30">
         <v>2.025</v>
@@ -3171,34 +3171,34 @@
         <v>1.825</v>
       </c>
       <c r="T30">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U30">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V30">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W30">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X30">
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z30">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AA30">
+        <v>0.825</v>
+      </c>
+      <c r="AB30">
+        <v>0.475</v>
+      </c>
+      <c r="AC30">
         <v>-0.5</v>
-      </c>
-      <c r="AB30">
-        <v>1</v>
-      </c>
-      <c r="AC30">
-        <v>-1</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3206,7 +3206,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>5208577</v>
+        <v>5208575</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3218,40 +3218,40 @@
         <v>44947.59375</v>
       </c>
       <c r="F31" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G31" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I31">
         <v>2</v>
       </c>
       <c r="J31" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K31">
-        <v>2.625</v>
+        <v>1.95</v>
       </c>
       <c r="L31">
+        <v>3.5</v>
+      </c>
+      <c r="M31">
         <v>3.4</v>
       </c>
-      <c r="M31">
-        <v>2.4</v>
-      </c>
       <c r="N31">
-        <v>3.2</v>
+        <v>1.75</v>
       </c>
       <c r="O31">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P31">
-        <v>2.05</v>
+        <v>4</v>
       </c>
       <c r="Q31">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R31">
         <v>2.025</v>
@@ -3260,34 +3260,34 @@
         <v>1.825</v>
       </c>
       <c r="T31">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U31">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V31">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W31">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X31">
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z31">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA31">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB31">
-        <v>0.475</v>
+        <v>1</v>
       </c>
       <c r="AC31">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3918,7 +3918,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>5208580</v>
+        <v>5208579</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3930,34 +3930,34 @@
         <v>44954.59375</v>
       </c>
       <c r="F39" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G39" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J39" t="s">
         <v>48</v>
       </c>
       <c r="K39">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="L39">
         <v>3.4</v>
       </c>
       <c r="M39">
+        <v>3</v>
+      </c>
+      <c r="N39">
+        <v>2.2</v>
+      </c>
+      <c r="O39">
         <v>3.2</v>
-      </c>
-      <c r="N39">
-        <v>2.1</v>
-      </c>
-      <c r="O39">
-        <v>3.4</v>
       </c>
       <c r="P39">
         <v>3.1</v>
@@ -3966,25 +3966,25 @@
         <v>-0.25</v>
       </c>
       <c r="R39">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S39">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T39">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U39">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V39">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W39">
         <v>-1</v>
       </c>
       <c r="X39">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="Y39">
         <v>-1</v>
@@ -3993,13 +3993,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA39">
-        <v>0.475</v>
+        <v>0.4375</v>
       </c>
       <c r="AB39">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC39">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4007,7 +4007,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>5208579</v>
+        <v>5208580</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4019,34 +4019,34 @@
         <v>44954.59375</v>
       </c>
       <c r="F40" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J40" t="s">
         <v>48</v>
       </c>
       <c r="K40">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="L40">
         <v>3.4</v>
       </c>
       <c r="M40">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="N40">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="O40">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P40">
         <v>3.1</v>
@@ -4055,25 +4055,25 @@
         <v>-0.25</v>
       </c>
       <c r="R40">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S40">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T40">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U40">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V40">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W40">
         <v>-1</v>
       </c>
       <c r="X40">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="Y40">
         <v>-1</v>
@@ -4082,13 +4082,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA40">
-        <v>0.4375</v>
+        <v>0.475</v>
       </c>
       <c r="AB40">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC40">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4286,7 +4286,7 @@
         <v>44955.5</v>
       </c>
       <c r="F43" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G43" t="s">
         <v>42</v>
@@ -4642,7 +4642,7 @@
         <v>44960.69791666666</v>
       </c>
       <c r="F47" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G47" t="s">
         <v>36</v>
@@ -4731,7 +4731,7 @@
         <v>44961.5</v>
       </c>
       <c r="F48" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G48" t="s">
         <v>29</v>
@@ -5446,7 +5446,7 @@
         <v>37</v>
       </c>
       <c r="G56" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -6158,7 +6158,7 @@
         <v>35</v>
       </c>
       <c r="G64" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H64">
         <v>1</v>
@@ -6410,7 +6410,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>5208593</v>
+        <v>5208596</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6422,55 +6422,55 @@
         <v>44975.59375</v>
       </c>
       <c r="F67" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G67" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J67" t="s">
         <v>48</v>
       </c>
       <c r="K67">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="L67">
         <v>3.4</v>
       </c>
       <c r="M67">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="N67">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="O67">
         <v>3.4</v>
       </c>
       <c r="P67">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="Q67">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R67">
+        <v>1.975</v>
+      </c>
+      <c r="S67">
         <v>1.875</v>
       </c>
-      <c r="S67">
+      <c r="T67">
+        <v>2.75</v>
+      </c>
+      <c r="U67">
+        <v>1.875</v>
+      </c>
+      <c r="V67">
         <v>1.975</v>
-      </c>
-      <c r="T67">
-        <v>2.5</v>
-      </c>
-      <c r="U67">
-        <v>1.925</v>
-      </c>
-      <c r="V67">
-        <v>1.925</v>
       </c>
       <c r="W67">
         <v>-1</v>
@@ -6482,16 +6482,16 @@
         <v>-1</v>
       </c>
       <c r="Z67">
-        <v>0.875</v>
+        <v>0.4875</v>
       </c>
       <c r="AA67">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB67">
         <v>-1</v>
       </c>
       <c r="AC67">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6499,7 +6499,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>5208596</v>
+        <v>5208593</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6511,55 +6511,55 @@
         <v>44975.59375</v>
       </c>
       <c r="F68" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G68" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" t="s">
         <v>48</v>
       </c>
       <c r="K68">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="L68">
         <v>3.4</v>
       </c>
       <c r="M68">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="N68">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="O68">
         <v>3.4</v>
       </c>
       <c r="P68">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="Q68">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R68">
+        <v>1.875</v>
+      </c>
+      <c r="S68">
         <v>1.975</v>
       </c>
-      <c r="S68">
-        <v>1.875</v>
-      </c>
       <c r="T68">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U68">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V68">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W68">
         <v>-1</v>
@@ -6571,16 +6571,16 @@
         <v>-1</v>
       </c>
       <c r="Z68">
-        <v>0.4875</v>
+        <v>0.875</v>
       </c>
       <c r="AA68">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB68">
         <v>-1</v>
       </c>
       <c r="AC68">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6689,7 +6689,7 @@
         <v>44976.39583333334</v>
       </c>
       <c r="F70" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G70" t="s">
         <v>41</v>
@@ -7211,7 +7211,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>5208727</v>
+        <v>5208597</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7223,76 +7223,76 @@
         <v>44982.59375</v>
       </c>
       <c r="F76" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G76" t="s">
         <v>31</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I76">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J76" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K76">
-        <v>3.25</v>
+        <v>1.333</v>
       </c>
       <c r="L76">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="M76">
-        <v>2.1</v>
+        <v>7.5</v>
       </c>
       <c r="N76">
-        <v>4</v>
+        <v>1.4</v>
       </c>
       <c r="O76">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="P76">
-        <v>1.909</v>
+        <v>6.5</v>
       </c>
       <c r="Q76">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R76">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S76">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T76">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U76">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V76">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W76">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X76">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y76">
         <v>-1</v>
       </c>
       <c r="Z76">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA76">
         <v>-1</v>
       </c>
       <c r="AB76">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC76">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7300,7 +7300,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>5208597</v>
+        <v>5208727</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7312,76 +7312,76 @@
         <v>44982.59375</v>
       </c>
       <c r="F77" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G77" t="s">
         <v>32</v>
       </c>
       <c r="H77">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I77">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J77" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K77">
-        <v>1.333</v>
+        <v>3.25</v>
       </c>
       <c r="L77">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="M77">
-        <v>7.5</v>
+        <v>2.1</v>
       </c>
       <c r="N77">
-        <v>1.4</v>
+        <v>4</v>
       </c>
       <c r="O77">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="P77">
-        <v>6.5</v>
+        <v>1.909</v>
       </c>
       <c r="Q77">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R77">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S77">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T77">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U77">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V77">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W77">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X77">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y77">
         <v>-1</v>
       </c>
       <c r="Z77">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA77">
         <v>-1</v>
       </c>
       <c r="AB77">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC77">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7846,7 +7846,7 @@
         <v>44988.69791666666</v>
       </c>
       <c r="F83" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G83" t="s">
         <v>41</v>
@@ -8012,7 +8012,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>5208603</v>
+        <v>5208601</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8024,58 +8024,58 @@
         <v>44989.59375</v>
       </c>
       <c r="F85" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G85" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H85">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J85" t="s">
         <v>50</v>
       </c>
       <c r="K85">
-        <v>1.444</v>
+        <v>1.85</v>
       </c>
       <c r="L85">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M85">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="N85">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="O85">
-        <v>5.25</v>
+        <v>3.4</v>
       </c>
       <c r="P85">
-        <v>10</v>
+        <v>3.3</v>
       </c>
       <c r="Q85">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R85">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S85">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T85">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U85">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V85">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W85">
-        <v>0.3</v>
+        <v>1.1</v>
       </c>
       <c r="X85">
         <v>-1</v>
@@ -8084,13 +8084,13 @@
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA85">
         <v>-1</v>
       </c>
       <c r="AB85">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC85">
         <v>-1</v>
@@ -8101,7 +8101,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>5208601</v>
+        <v>5208603</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8113,58 +8113,58 @@
         <v>44989.59375</v>
       </c>
       <c r="F86" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G86" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H86">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J86" t="s">
         <v>50</v>
       </c>
       <c r="K86">
-        <v>1.85</v>
+        <v>1.444</v>
       </c>
       <c r="L86">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M86">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="N86">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="O86">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="P86">
-        <v>3.3</v>
+        <v>10</v>
       </c>
       <c r="Q86">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R86">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S86">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T86">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U86">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V86">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W86">
-        <v>1.1</v>
+        <v>0.3</v>
       </c>
       <c r="X86">
         <v>-1</v>
@@ -8173,13 +8173,13 @@
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA86">
         <v>-1</v>
       </c>
       <c r="AB86">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC86">
         <v>-1</v>
@@ -8813,7 +8813,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>5208609</v>
+        <v>5208610</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8825,73 +8825,73 @@
         <v>44996.59375</v>
       </c>
       <c r="F94" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G94" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H94">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I94">
+        <v>4</v>
+      </c>
+      <c r="J94" t="s">
+        <v>48</v>
+      </c>
+      <c r="K94">
+        <v>2.25</v>
+      </c>
+      <c r="L94">
+        <v>3.4</v>
+      </c>
+      <c r="M94">
+        <v>2.9</v>
+      </c>
+      <c r="N94">
+        <v>2.5</v>
+      </c>
+      <c r="O94">
+        <v>3.4</v>
+      </c>
+      <c r="P94">
+        <v>2.6</v>
+      </c>
+      <c r="Q94">
+        <v>0</v>
+      </c>
+      <c r="R94">
+        <v>1.875</v>
+      </c>
+      <c r="S94">
+        <v>1.975</v>
+      </c>
+      <c r="T94">
+        <v>2.75</v>
+      </c>
+      <c r="U94">
+        <v>2</v>
+      </c>
+      <c r="V94">
+        <v>1.85</v>
+      </c>
+      <c r="W94">
+        <v>-1</v>
+      </c>
+      <c r="X94">
+        <v>2.4</v>
+      </c>
+      <c r="Y94">
+        <v>-1</v>
+      </c>
+      <c r="Z94">
+        <v>0</v>
+      </c>
+      <c r="AA94">
+        <v>-0</v>
+      </c>
+      <c r="AB94">
         <v>1</v>
-      </c>
-      <c r="J94" t="s">
-        <v>50</v>
-      </c>
-      <c r="K94">
-        <v>1.615</v>
-      </c>
-      <c r="L94">
-        <v>4</v>
-      </c>
-      <c r="M94">
-        <v>4.75</v>
-      </c>
-      <c r="N94">
-        <v>1.615</v>
-      </c>
-      <c r="O94">
-        <v>4</v>
-      </c>
-      <c r="P94">
-        <v>4.5</v>
-      </c>
-      <c r="Q94">
-        <v>-1</v>
-      </c>
-      <c r="R94">
-        <v>2.05</v>
-      </c>
-      <c r="S94">
-        <v>1.8</v>
-      </c>
-      <c r="T94">
-        <v>3</v>
-      </c>
-      <c r="U94">
-        <v>1.95</v>
-      </c>
-      <c r="V94">
-        <v>1.9</v>
-      </c>
-      <c r="W94">
-        <v>0.615</v>
-      </c>
-      <c r="X94">
-        <v>-1</v>
-      </c>
-      <c r="Y94">
-        <v>-1</v>
-      </c>
-      <c r="Z94">
-        <v>1.05</v>
-      </c>
-      <c r="AA94">
-        <v>-1</v>
-      </c>
-      <c r="AB94">
-        <v>0.95</v>
       </c>
       <c r="AC94">
         <v>-1</v>
@@ -8902,7 +8902,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>5208610</v>
+        <v>5208609</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8914,73 +8914,73 @@
         <v>44996.59375</v>
       </c>
       <c r="F95" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G95" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="H95">
+        <v>3</v>
+      </c>
+      <c r="I95">
+        <v>1</v>
+      </c>
+      <c r="J95" t="s">
+        <v>50</v>
+      </c>
+      <c r="K95">
+        <v>1.615</v>
+      </c>
+      <c r="L95">
         <v>4</v>
       </c>
-      <c r="I95">
+      <c r="M95">
+        <v>4.75</v>
+      </c>
+      <c r="N95">
+        <v>1.615</v>
+      </c>
+      <c r="O95">
         <v>4</v>
       </c>
-      <c r="J95" t="s">
-        <v>48</v>
-      </c>
-      <c r="K95">
-        <v>2.25</v>
-      </c>
-      <c r="L95">
-        <v>3.4</v>
-      </c>
-      <c r="M95">
-        <v>2.9</v>
-      </c>
-      <c r="N95">
-        <v>2.5</v>
-      </c>
-      <c r="O95">
-        <v>3.4</v>
-      </c>
       <c r="P95">
-        <v>2.6</v>
+        <v>4.5</v>
       </c>
       <c r="Q95">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R95">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S95">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T95">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U95">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V95">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W95">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X95">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y95">
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AA95">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB95">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AC95">
         <v>-1</v>
@@ -9362,7 +9362,7 @@
         <v>36</v>
       </c>
       <c r="G100" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H100">
         <v>2</v>
@@ -9448,7 +9448,7 @@
         <v>45002.69791666666</v>
       </c>
       <c r="F101" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G101" t="s">
         <v>34</v>
@@ -9614,7 +9614,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>5208612</v>
+        <v>5208613</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9626,76 +9626,76 @@
         <v>45003.59375</v>
       </c>
       <c r="F103" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G103" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I103">
+        <v>2</v>
+      </c>
+      <c r="J103" t="s">
+        <v>49</v>
+      </c>
+      <c r="K103">
+        <v>3.3</v>
+      </c>
+      <c r="L103">
+        <v>3.3</v>
+      </c>
+      <c r="M103">
+        <v>2.05</v>
+      </c>
+      <c r="N103">
+        <v>2.8</v>
+      </c>
+      <c r="O103">
+        <v>3.3</v>
+      </c>
+      <c r="P103">
+        <v>2.3</v>
+      </c>
+      <c r="Q103">
+        <v>0.25</v>
+      </c>
+      <c r="R103">
+        <v>1.85</v>
+      </c>
+      <c r="S103">
+        <v>2</v>
+      </c>
+      <c r="T103">
+        <v>2.75</v>
+      </c>
+      <c r="U103">
+        <v>1.9</v>
+      </c>
+      <c r="V103">
+        <v>1.95</v>
+      </c>
+      <c r="W103">
+        <v>-1</v>
+      </c>
+      <c r="X103">
+        <v>-1</v>
+      </c>
+      <c r="Y103">
+        <v>1.3</v>
+      </c>
+      <c r="Z103">
+        <v>-1</v>
+      </c>
+      <c r="AA103">
         <v>1</v>
       </c>
-      <c r="J103" t="s">
-        <v>50</v>
-      </c>
-      <c r="K103">
-        <v>1.45</v>
-      </c>
-      <c r="L103">
-        <v>4</v>
-      </c>
-      <c r="M103">
-        <v>6</v>
-      </c>
-      <c r="N103">
-        <v>1.5</v>
-      </c>
-      <c r="O103">
-        <v>3.75</v>
-      </c>
-      <c r="P103">
-        <v>6.5</v>
-      </c>
-      <c r="Q103">
-        <v>-1</v>
-      </c>
-      <c r="R103">
-        <v>2</v>
-      </c>
-      <c r="S103">
-        <v>1.85</v>
-      </c>
-      <c r="T103">
-        <v>2.25</v>
-      </c>
-      <c r="U103">
-        <v>2.025</v>
-      </c>
-      <c r="V103">
-        <v>1.825</v>
-      </c>
-      <c r="W103">
-        <v>0.5</v>
-      </c>
-      <c r="X103">
-        <v>-1</v>
-      </c>
-      <c r="Y103">
-        <v>-1</v>
-      </c>
-      <c r="Z103">
-        <v>0</v>
-      </c>
-      <c r="AA103">
-        <v>-0</v>
-      </c>
       <c r="AB103">
-        <v>1.025</v>
+        <v>0.45</v>
       </c>
       <c r="AC103">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9703,7 +9703,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>5208613</v>
+        <v>5208612</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9715,76 +9715,76 @@
         <v>45003.59375</v>
       </c>
       <c r="F104" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G104" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H104">
+        <v>2</v>
+      </c>
+      <c r="I104">
         <v>1</v>
       </c>
-      <c r="I104">
-        <v>2</v>
-      </c>
       <c r="J104" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K104">
-        <v>3.3</v>
+        <v>1.45</v>
       </c>
       <c r="L104">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M104">
-        <v>2.05</v>
+        <v>6</v>
       </c>
       <c r="N104">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
       <c r="O104">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P104">
-        <v>2.3</v>
+        <v>6.5</v>
       </c>
       <c r="Q104">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R104">
+        <v>2</v>
+      </c>
+      <c r="S104">
         <v>1.85</v>
       </c>
-      <c r="S104">
-        <v>2</v>
-      </c>
       <c r="T104">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U104">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V104">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W104">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X104">
         <v>-1</v>
       </c>
       <c r="Y104">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z104">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA104">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="AB104">
-        <v>0.45</v>
+        <v>1.025</v>
       </c>
       <c r="AC104">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -10338,7 +10338,7 @@
         <v>45017.45833333334</v>
       </c>
       <c r="F111" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G111" t="s">
         <v>45</v>
@@ -10605,7 +10605,7 @@
         <v>45017.65625</v>
       </c>
       <c r="F114" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G114" t="s">
         <v>29</v>
@@ -11587,7 +11587,7 @@
         <v>33</v>
       </c>
       <c r="G125" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H125">
         <v>2</v>
@@ -11765,7 +11765,7 @@
         <v>46</v>
       </c>
       <c r="G127" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H127">
         <v>5</v>
@@ -12029,7 +12029,7 @@
         <v>45031.55208333334</v>
       </c>
       <c r="F130" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G130" t="s">
         <v>37</v>
@@ -12118,7 +12118,7 @@
         <v>45031.55208333334</v>
       </c>
       <c r="F131" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G131" t="s">
         <v>46</v>
@@ -12818,7 +12818,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6390693</v>
+        <v>6385540</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12830,73 +12830,73 @@
         <v>45039.5625</v>
       </c>
       <c r="F139" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G139" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H139">
+        <v>2</v>
+      </c>
+      <c r="I139">
         <v>3</v>
       </c>
-      <c r="I139">
-        <v>2</v>
-      </c>
       <c r="J139" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K139">
-        <v>2.5</v>
+        <v>1.363</v>
       </c>
       <c r="L139">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M139">
-        <v>2.45</v>
+        <v>7</v>
       </c>
       <c r="N139">
-        <v>2.4</v>
+        <v>1.55</v>
       </c>
       <c r="O139">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P139">
-        <v>2.45</v>
+        <v>5</v>
       </c>
       <c r="Q139">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R139">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S139">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T139">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U139">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V139">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W139">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X139">
         <v>-1</v>
       </c>
       <c r="Y139">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z139">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA139">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB139">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AC139">
         <v>-1</v>
@@ -12907,7 +12907,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6390043</v>
+        <v>6390066</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12919,55 +12919,55 @@
         <v>45039.5625</v>
       </c>
       <c r="F140" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G140" t="s">
         <v>32</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I140">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J140" t="s">
         <v>49</v>
       </c>
       <c r="K140">
-        <v>1.222</v>
+        <v>3</v>
       </c>
       <c r="L140">
-        <v>5.75</v>
+        <v>3.6</v>
       </c>
       <c r="M140">
-        <v>11</v>
+        <v>2.15</v>
       </c>
       <c r="N140">
-        <v>1.142</v>
+        <v>2.8</v>
       </c>
       <c r="O140">
-        <v>7.5</v>
+        <v>3.6</v>
       </c>
       <c r="P140">
-        <v>15</v>
+        <v>2.25</v>
       </c>
       <c r="Q140">
-        <v>-2.25</v>
+        <v>0.25</v>
       </c>
       <c r="R140">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S140">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T140">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U140">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V140">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="W140">
         <v>-1</v>
@@ -12976,19 +12976,19 @@
         <v>-1</v>
       </c>
       <c r="Y140">
-        <v>14</v>
+        <v>1.25</v>
       </c>
       <c r="Z140">
         <v>-1</v>
       </c>
       <c r="AA140">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AB140">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC140">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -12996,7 +12996,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6389865</v>
+        <v>6390043</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13008,49 +13008,49 @@
         <v>45039.5625</v>
       </c>
       <c r="F141" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G141" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I141">
         <v>2</v>
       </c>
       <c r="J141" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K141">
+        <v>1.222</v>
+      </c>
+      <c r="L141">
+        <v>5.75</v>
+      </c>
+      <c r="M141">
+        <v>11</v>
+      </c>
+      <c r="N141">
+        <v>1.142</v>
+      </c>
+      <c r="O141">
+        <v>7.5</v>
+      </c>
+      <c r="P141">
+        <v>15</v>
+      </c>
+      <c r="Q141">
+        <v>-2.25</v>
+      </c>
+      <c r="R141">
+        <v>1.975</v>
+      </c>
+      <c r="S141">
+        <v>1.875</v>
+      </c>
+      <c r="T141">
         <v>3.5</v>
-      </c>
-      <c r="L141">
-        <v>3.6</v>
-      </c>
-      <c r="M141">
-        <v>1.95</v>
-      </c>
-      <c r="N141">
-        <v>2.8</v>
-      </c>
-      <c r="O141">
-        <v>3.5</v>
-      </c>
-      <c r="P141">
-        <v>2.3</v>
-      </c>
-      <c r="Q141">
-        <v>0.25</v>
-      </c>
-      <c r="R141">
-        <v>1.8</v>
-      </c>
-      <c r="S141">
-        <v>2.05</v>
-      </c>
-      <c r="T141">
-        <v>3</v>
       </c>
       <c r="U141">
         <v>1.95</v>
@@ -13062,22 +13062,22 @@
         <v>-1</v>
       </c>
       <c r="X141">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y141">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="Z141">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA141">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB141">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC141">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13085,7 +13085,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6390442</v>
+        <v>6389819</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13097,73 +13097,73 @@
         <v>45039.5625</v>
       </c>
       <c r="F142" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G142" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H142">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I142">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J142" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K142">
-        <v>1.333</v>
+        <v>5.25</v>
       </c>
       <c r="L142">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="M142">
-        <v>8</v>
+        <v>1.533</v>
       </c>
       <c r="N142">
-        <v>1.3</v>
+        <v>6.5</v>
       </c>
       <c r="O142">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="P142">
-        <v>8.5</v>
+        <v>1.4</v>
       </c>
       <c r="Q142">
-        <v>-1.75</v>
+        <v>1.25</v>
       </c>
       <c r="R142">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S142">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T142">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U142">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V142">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W142">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X142">
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z142">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA142">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB142">
-        <v>1.025</v>
+        <v>1</v>
       </c>
       <c r="AC142">
         <v>-1</v>
@@ -13174,7 +13174,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6390066</v>
+        <v>6390442</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13186,73 +13186,73 @@
         <v>45039.5625</v>
       </c>
       <c r="F143" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G143" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I143">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J143" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K143">
-        <v>3</v>
+        <v>1.333</v>
       </c>
       <c r="L143">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M143">
-        <v>2.15</v>
+        <v>8</v>
       </c>
       <c r="N143">
-        <v>2.8</v>
+        <v>1.3</v>
       </c>
       <c r="O143">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="P143">
-        <v>2.25</v>
+        <v>8.5</v>
       </c>
       <c r="Q143">
-        <v>0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R143">
+        <v>1.975</v>
+      </c>
+      <c r="S143">
+        <v>1.875</v>
+      </c>
+      <c r="T143">
+        <v>3.75</v>
+      </c>
+      <c r="U143">
+        <v>2.025</v>
+      </c>
+      <c r="V143">
         <v>1.825</v>
       </c>
-      <c r="S143">
-        <v>2.025</v>
-      </c>
-      <c r="T143">
-        <v>3</v>
-      </c>
-      <c r="U143">
-        <v>1.8</v>
-      </c>
-      <c r="V143">
-        <v>2.05</v>
-      </c>
       <c r="W143">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X143">
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z143">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA143">
+        <v>-1</v>
+      </c>
+      <c r="AB143">
         <v>1.025</v>
-      </c>
-      <c r="AB143">
-        <v>0.8</v>
       </c>
       <c r="AC143">
         <v>-1</v>
@@ -13263,7 +13263,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6389819</v>
+        <v>6390693</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13275,40 +13275,40 @@
         <v>45039.5625</v>
       </c>
       <c r="F144" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G144" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I144">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J144" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K144">
-        <v>5.25</v>
+        <v>2.5</v>
       </c>
       <c r="L144">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M144">
-        <v>1.533</v>
+        <v>2.45</v>
       </c>
       <c r="N144">
-        <v>6.5</v>
+        <v>2.4</v>
       </c>
       <c r="O144">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="P144">
-        <v>1.4</v>
+        <v>2.45</v>
       </c>
       <c r="Q144">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="R144">
         <v>1.9</v>
@@ -13326,19 +13326,19 @@
         <v>1.85</v>
       </c>
       <c r="W144">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X144">
         <v>-1</v>
       </c>
       <c r="Y144">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z144">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA144">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB144">
         <v>1</v>
@@ -13352,7 +13352,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6385540</v>
+        <v>6389865</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13364,73 +13364,73 @@
         <v>45039.5625</v>
       </c>
       <c r="F145" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G145" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H145">
         <v>2</v>
       </c>
       <c r="I145">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J145" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K145">
-        <v>1.363</v>
+        <v>3.5</v>
       </c>
       <c r="L145">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M145">
-        <v>7</v>
+        <v>1.95</v>
       </c>
       <c r="N145">
-        <v>1.55</v>
+        <v>2.8</v>
       </c>
       <c r="O145">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P145">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="Q145">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R145">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S145">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T145">
         <v>3</v>
       </c>
       <c r="U145">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V145">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W145">
         <v>-1</v>
       </c>
       <c r="X145">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y145">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z145">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA145">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AB145">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AC145">
         <v>-1</v>
@@ -13542,7 +13542,7 @@
         <v>45045.55208333334</v>
       </c>
       <c r="F147" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G147" t="s">
         <v>29</v>
@@ -13990,7 +13990,7 @@
         <v>38</v>
       </c>
       <c r="G152" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H152">
         <v>3</v>
@@ -14165,7 +14165,7 @@
         <v>45059.55208333334</v>
       </c>
       <c r="F154" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G154" t="s">
         <v>42</v>
@@ -14613,7 +14613,7 @@
         <v>42</v>
       </c>
       <c r="G159" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H159">
         <v>2</v>
@@ -14969,7 +14969,7 @@
         <v>29</v>
       </c>
       <c r="G163" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H163">
         <v>0</v>
@@ -15233,7 +15233,7 @@
         <v>45080.64583333334</v>
       </c>
       <c r="F166" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G166" t="s">
         <v>38</v>
@@ -15399,7 +15399,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6576988</v>
+        <v>6576065</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15411,73 +15411,73 @@
         <v>45081.5625</v>
       </c>
       <c r="F168" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G168" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I168">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J168" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K168">
-        <v>2.4</v>
+        <v>1.75</v>
       </c>
       <c r="L168">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M168">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="N168">
-        <v>2.4</v>
+        <v>1.55</v>
       </c>
       <c r="O168">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P168">
-        <v>2.7</v>
+        <v>4.75</v>
       </c>
       <c r="Q168">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R168">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S168">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="T168">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U168">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V168">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W168">
         <v>-1</v>
       </c>
       <c r="X168">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y168">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z168">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA168">
-        <v>0.375</v>
+        <v>0.875</v>
       </c>
       <c r="AB168">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AC168">
         <v>-1</v>
@@ -15488,7 +15488,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>6576065</v>
+        <v>6576988</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15500,73 +15500,73 @@
         <v>45081.5625</v>
       </c>
       <c r="F169" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G169" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H169">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I169">
+        <v>2</v>
+      </c>
+      <c r="J169" t="s">
+        <v>48</v>
+      </c>
+      <c r="K169">
+        <v>2.4</v>
+      </c>
+      <c r="L169">
+        <v>3.6</v>
+      </c>
+      <c r="M169">
+        <v>2.7</v>
+      </c>
+      <c r="N169">
+        <v>2.4</v>
+      </c>
+      <c r="O169">
+        <v>3.6</v>
+      </c>
+      <c r="P169">
+        <v>2.7</v>
+      </c>
+      <c r="Q169">
+        <v>-0.25</v>
+      </c>
+      <c r="R169">
+        <v>2.05</v>
+      </c>
+      <c r="S169">
+        <v>1.75</v>
+      </c>
+      <c r="T169">
         <v>3</v>
       </c>
-      <c r="J169" t="s">
-        <v>49</v>
-      </c>
-      <c r="K169">
-        <v>1.75</v>
-      </c>
-      <c r="L169">
-        <v>3.8</v>
-      </c>
-      <c r="M169">
-        <v>4.2</v>
-      </c>
-      <c r="N169">
-        <v>1.55</v>
-      </c>
-      <c r="O169">
-        <v>4.333</v>
-      </c>
-      <c r="P169">
-        <v>4.75</v>
-      </c>
-      <c r="Q169">
-        <v>-1</v>
-      </c>
-      <c r="R169">
-        <v>1.975</v>
-      </c>
-      <c r="S169">
-        <v>1.875</v>
-      </c>
-      <c r="T169">
-        <v>3.25</v>
-      </c>
       <c r="U169">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V169">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W169">
         <v>-1</v>
       </c>
       <c r="X169">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y169">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z169">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA169">
-        <v>0.875</v>
+        <v>0.375</v>
       </c>
       <c r="AB169">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AC169">
         <v>-1</v>
@@ -15948,7 +15948,7 @@
         <v>33</v>
       </c>
       <c r="G174" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H174">
         <v>1</v>
@@ -16479,7 +16479,7 @@
         <v>45143.55208333334</v>
       </c>
       <c r="F180" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G180" t="s">
         <v>44</v>
@@ -17369,7 +17369,7 @@
         <v>45151.45833333334</v>
       </c>
       <c r="F190" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G190" t="s">
         <v>34</v>
@@ -17817,7 +17817,7 @@
         <v>29</v>
       </c>
       <c r="G195" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H195">
         <v>0</v>
@@ -18707,7 +18707,7 @@
         <v>46</v>
       </c>
       <c r="G205" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H205">
         <v>0</v>
@@ -18971,7 +18971,7 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F208" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G208" t="s">
         <v>38</v>
@@ -19686,7 +19686,7 @@
         <v>47</v>
       </c>
       <c r="G216" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H216">
         <v>2</v>
@@ -20751,7 +20751,7 @@
         <v>45193.45833333334</v>
       </c>
       <c r="F228" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G228" t="s">
         <v>43</v>
@@ -21288,7 +21288,7 @@
         <v>45</v>
       </c>
       <c r="G234" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H234">
         <v>2</v>
@@ -22086,7 +22086,7 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F243" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G243" t="s">
         <v>37</v>
@@ -23154,7 +23154,7 @@
         <v>45221.45833333334</v>
       </c>
       <c r="F255" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G255" t="s">
         <v>42</v>
@@ -23513,7 +23513,7 @@
         <v>40</v>
       </c>
       <c r="G259" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H259">
         <v>0</v>
@@ -24489,7 +24489,7 @@
         <v>45235.39583333334</v>
       </c>
       <c r="F270" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G270" t="s">
         <v>36</v>
@@ -25204,7 +25204,7 @@
         <v>41</v>
       </c>
       <c r="G278" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H278">
         <v>0</v>
@@ -25646,7 +25646,7 @@
         <v>45255.5</v>
       </c>
       <c r="F283" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G283" t="s">
         <v>30</v>
@@ -26895,7 +26895,7 @@
         <v>43</v>
       </c>
       <c r="G297" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H297">
         <v>2</v>
@@ -27070,7 +27070,7 @@
         <v>45269.5</v>
       </c>
       <c r="F299" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G299" t="s">
         <v>33</v>
@@ -27785,7 +27785,7 @@
         <v>37</v>
       </c>
       <c r="G307" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H307">
         <v>1</v>
@@ -28405,7 +28405,7 @@
         <v>45280.60416666666</v>
       </c>
       <c r="F314" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G314" t="s">
         <v>45</v>
@@ -29654,7 +29654,7 @@
         <v>36</v>
       </c>
       <c r="G328" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H328">
         <v>2</v>
@@ -29921,7 +29921,7 @@
         <v>34</v>
       </c>
       <c r="G331" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H331">
         <v>1</v>
@@ -30452,7 +30452,7 @@
         <v>45317.69791666666</v>
       </c>
       <c r="F337" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G337" t="s">
         <v>29</v>
@@ -31152,7 +31152,7 @@
         <v>343</v>
       </c>
       <c r="B345">
-        <v>6810169</v>
+        <v>6810167</v>
       </c>
       <c r="C345" t="s">
         <v>28</v>
@@ -31164,73 +31164,73 @@
         <v>45321.6875</v>
       </c>
       <c r="F345" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G345" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="H345">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I345">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J345" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K345">
-        <v>3.4</v>
+        <v>1.125</v>
       </c>
       <c r="L345">
-        <v>3.8</v>
+        <v>8.5</v>
       </c>
       <c r="M345">
+        <v>17</v>
+      </c>
+      <c r="N345">
+        <v>1.125</v>
+      </c>
+      <c r="O345">
+        <v>8.5</v>
+      </c>
+      <c r="P345">
+        <v>17</v>
+      </c>
+      <c r="Q345">
+        <v>-2.25</v>
+      </c>
+      <c r="R345">
+        <v>1.85</v>
+      </c>
+      <c r="S345">
+        <v>2</v>
+      </c>
+      <c r="T345">
+        <v>3.5</v>
+      </c>
+      <c r="U345">
+        <v>1.9</v>
+      </c>
+      <c r="V345">
         <v>1.95</v>
       </c>
-      <c r="N345">
-        <v>3.3</v>
-      </c>
-      <c r="O345">
-        <v>3.6</v>
-      </c>
-      <c r="P345">
-        <v>2.05</v>
-      </c>
-      <c r="Q345">
-        <v>0.25</v>
-      </c>
-      <c r="R345">
-        <v>2</v>
-      </c>
-      <c r="S345">
-        <v>1.85</v>
-      </c>
-      <c r="T345">
-        <v>2.75</v>
-      </c>
-      <c r="U345">
-        <v>1.975</v>
-      </c>
-      <c r="V345">
-        <v>1.875</v>
-      </c>
       <c r="W345">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X345">
-        <v>-1</v>
+        <v>7.5</v>
       </c>
       <c r="Y345">
         <v>-1</v>
       </c>
       <c r="Z345">
+        <v>-1</v>
+      </c>
+      <c r="AA345">
         <v>1</v>
       </c>
-      <c r="AA345">
-        <v>-1</v>
-      </c>
       <c r="AB345">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC345">
         <v>-1</v>
@@ -31241,7 +31241,7 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>6810167</v>
+        <v>6810169</v>
       </c>
       <c r="C346" t="s">
         <v>28</v>
@@ -31253,73 +31253,73 @@
         <v>45321.6875</v>
       </c>
       <c r="F346" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G346" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="H346">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I346">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J346" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K346">
-        <v>1.125</v>
+        <v>3.4</v>
       </c>
       <c r="L346">
-        <v>8.5</v>
+        <v>3.8</v>
       </c>
       <c r="M346">
-        <v>17</v>
+        <v>1.95</v>
       </c>
       <c r="N346">
-        <v>1.125</v>
+        <v>3.3</v>
       </c>
       <c r="O346">
-        <v>8.5</v>
+        <v>3.6</v>
       </c>
       <c r="P346">
-        <v>17</v>
+        <v>2.05</v>
       </c>
       <c r="Q346">
-        <v>-2.25</v>
+        <v>0.25</v>
       </c>
       <c r="R346">
+        <v>2</v>
+      </c>
+      <c r="S346">
         <v>1.85</v>
       </c>
-      <c r="S346">
-        <v>2</v>
-      </c>
       <c r="T346">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U346">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V346">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W346">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X346">
-        <v>7.5</v>
+        <v>-1</v>
       </c>
       <c r="Y346">
         <v>-1</v>
       </c>
       <c r="Z346">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA346">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB346">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC346">
         <v>-1</v>
@@ -31508,7 +31508,7 @@
         <v>347</v>
       </c>
       <c r="B349">
-        <v>6810162</v>
+        <v>6810164</v>
       </c>
       <c r="C349" t="s">
         <v>28</v>
@@ -31520,76 +31520,76 @@
         <v>45322.70833333334</v>
       </c>
       <c r="F349" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G349" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="H349">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I349">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J349" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K349">
-        <v>4</v>
+        <v>1.2</v>
       </c>
       <c r="L349">
-        <v>3.6</v>
+        <v>7</v>
       </c>
       <c r="M349">
-        <v>1.85</v>
+        <v>12</v>
       </c>
       <c r="N349">
-        <v>3.1</v>
+        <v>1.142</v>
       </c>
       <c r="O349">
-        <v>3.2</v>
+        <v>8.5</v>
       </c>
       <c r="P349">
-        <v>2.3</v>
+        <v>15</v>
       </c>
       <c r="Q349">
-        <v>0.25</v>
+        <v>-2.25</v>
       </c>
       <c r="R349">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S349">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T349">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="U349">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V349">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W349">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X349">
         <v>-1</v>
       </c>
       <c r="Y349">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z349">
         <v>-1</v>
       </c>
       <c r="AA349">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AB349">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC349">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="350" spans="1:29">
@@ -31597,7 +31597,7 @@
         <v>348</v>
       </c>
       <c r="B350">
-        <v>6810164</v>
+        <v>6810162</v>
       </c>
       <c r="C350" t="s">
         <v>28</v>
@@ -31609,76 +31609,76 @@
         <v>45322.70833333334</v>
       </c>
       <c r="F350" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G350" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="H350">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I350">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J350" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K350">
-        <v>1.2</v>
+        <v>4</v>
       </c>
       <c r="L350">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="M350">
-        <v>12</v>
+        <v>1.85</v>
       </c>
       <c r="N350">
-        <v>1.142</v>
+        <v>3.1</v>
       </c>
       <c r="O350">
-        <v>8.5</v>
+        <v>3.2</v>
       </c>
       <c r="P350">
-        <v>15</v>
+        <v>2.3</v>
       </c>
       <c r="Q350">
-        <v>-2.25</v>
+        <v>0.25</v>
       </c>
       <c r="R350">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S350">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T350">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="U350">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V350">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W350">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X350">
         <v>-1</v>
       </c>
       <c r="Y350">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z350">
         <v>-1</v>
       </c>
       <c r="AA350">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="AB350">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC350">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="351" spans="1:29">
@@ -32499,7 +32499,7 @@
         <v>45326.63541666666</v>
       </c>
       <c r="F360" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G360" t="s">
         <v>46</v>
@@ -33214,7 +33214,7 @@
         <v>42</v>
       </c>
       <c r="G368" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H368">
         <v>1</v>
@@ -33656,7 +33656,7 @@
         <v>45340.39583333334</v>
       </c>
       <c r="F373" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G373" t="s">
         <v>41</v>
@@ -34027,31 +34027,31 @@
         <v>1.8</v>
       </c>
       <c r="N377">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="O377">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P377">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="Q377">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R377">
+        <v>1.875</v>
+      </c>
+      <c r="S377">
+        <v>1.975</v>
+      </c>
+      <c r="T377">
+        <v>2.5</v>
+      </c>
+      <c r="U377">
         <v>1.825</v>
       </c>
-      <c r="S377">
+      <c r="V377">
         <v>2.025</v>
-      </c>
-      <c r="T377">
-        <v>2.75</v>
-      </c>
-      <c r="U377">
-        <v>1.925</v>
-      </c>
-      <c r="V377">
-        <v>1.925</v>
       </c>
       <c r="W377">
         <v>0</v>
@@ -34122,10 +34122,10 @@
         <v>2.5</v>
       </c>
       <c r="U378">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V378">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W378">
         <v>0</v>
@@ -34178,28 +34178,28 @@
         <v>2.05</v>
       </c>
       <c r="O379">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P379">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="Q379">
         <v>-0.25</v>
       </c>
       <c r="R379">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S379">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="T379">
         <v>2.5</v>
       </c>
       <c r="U379">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V379">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W379">
         <v>0</v>
@@ -34335,10 +34335,10 @@
         <v>-0.75</v>
       </c>
       <c r="R381">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S381">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T381">
         <v>2.75</v>
@@ -34397,31 +34397,31 @@
         <v>3.1</v>
       </c>
       <c r="N382">
-        <v>2.375</v>
+        <v>2.45</v>
       </c>
       <c r="O382">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P382">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="Q382">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R382">
+        <v>1.775</v>
+      </c>
+      <c r="S382">
         <v>2.1</v>
-      </c>
-      <c r="S382">
-        <v>1.775</v>
       </c>
       <c r="T382">
         <v>2.5</v>
       </c>
       <c r="U382">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V382">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W382">
         <v>0</v>
@@ -34533,7 +34533,7 @@
         <v>30</v>
       </c>
       <c r="G384" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K384">
         <v>5</v>

--- a/Belgium First Division A/Belgium First Division A.xlsx
+++ b/Belgium First Division A/Belgium First Division A.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1935" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1936" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -2316,7 +2316,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5208698</v>
+        <v>5208702</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2328,76 +2328,76 @@
         <v>44943.69791666666</v>
       </c>
       <c r="F21" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G21" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H21">
         <v>2</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>4.2</v>
       </c>
       <c r="L21">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M21">
-        <v>3.5</v>
+        <v>1.75</v>
       </c>
       <c r="N21">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="O21">
         <v>3.6</v>
       </c>
       <c r="P21">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="Q21">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R21">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S21">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T21">
         <v>2.75</v>
       </c>
       <c r="U21">
+        <v>1.825</v>
+      </c>
+      <c r="V21">
         <v>2.025</v>
       </c>
-      <c r="V21">
-        <v>1.825</v>
-      </c>
       <c r="W21">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X21">
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z21">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA21">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB21">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC21">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2405,7 +2405,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5208702</v>
+        <v>5208698</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2417,76 +2417,76 @@
         <v>44943.69791666666</v>
       </c>
       <c r="F22" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G22" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H22">
         <v>2</v>
       </c>
       <c r="I22">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K22">
-        <v>4.2</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M22">
-        <v>1.75</v>
+        <v>3.5</v>
       </c>
       <c r="N22">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="O22">
         <v>3.6</v>
       </c>
       <c r="P22">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q22">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R22">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S22">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T22">
         <v>2.75</v>
       </c>
       <c r="U22">
+        <v>2.025</v>
+      </c>
+      <c r="V22">
         <v>1.825</v>
       </c>
-      <c r="V22">
-        <v>2.025</v>
-      </c>
       <c r="W22">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X22">
         <v>-1</v>
       </c>
       <c r="Y22">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z22">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA22">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB22">
+        <v>-1</v>
+      </c>
+      <c r="AC22">
         <v>0.825</v>
-      </c>
-      <c r="AC22">
-        <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2494,7 +2494,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5208571</v>
+        <v>5208701</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2506,76 +2506,76 @@
         <v>44944.60416666666</v>
       </c>
       <c r="F23" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G23" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K23">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="L23">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M23">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="N23">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="O23">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P23">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="Q23">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R23">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S23">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T23">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U23">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V23">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W23">
         <v>-1</v>
       </c>
       <c r="X23">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y23">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z23">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AA23">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB23">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC23">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2583,7 +2583,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5208701</v>
+        <v>5208571</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2595,76 +2595,76 @@
         <v>44944.60416666666</v>
       </c>
       <c r="F24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G24" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J24" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K24">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="L24">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M24">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="N24">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="O24">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P24">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="Q24">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R24">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S24">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T24">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U24">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V24">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W24">
         <v>-1</v>
       </c>
       <c r="X24">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y24">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z24">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA24">
+        <v>0.875</v>
+      </c>
+      <c r="AB24">
+        <v>0.5</v>
+      </c>
+      <c r="AC24">
         <v>-0.5</v>
-      </c>
-      <c r="AB24">
-        <v>-1</v>
-      </c>
-      <c r="AC24">
-        <v>0.8</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2672,7 +2672,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5208569</v>
+        <v>5208568</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2684,73 +2684,73 @@
         <v>44944.69791666666</v>
       </c>
       <c r="F25" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G25" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H25">
+        <v>2</v>
+      </c>
+      <c r="I25">
         <v>3</v>
       </c>
-      <c r="I25">
-        <v>2</v>
-      </c>
       <c r="J25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K25">
-        <v>1.85</v>
+        <v>1.4</v>
       </c>
       <c r="L25">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M25">
-        <v>3.8</v>
+        <v>6.5</v>
       </c>
       <c r="N25">
-        <v>1.666</v>
+        <v>1.7</v>
       </c>
       <c r="O25">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P25">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="Q25">
         <v>-0.75</v>
       </c>
       <c r="R25">
+        <v>1.925</v>
+      </c>
+      <c r="S25">
+        <v>1.925</v>
+      </c>
+      <c r="T25">
+        <v>2.75</v>
+      </c>
+      <c r="U25">
+        <v>1.975</v>
+      </c>
+      <c r="V25">
         <v>1.875</v>
       </c>
-      <c r="S25">
-        <v>1.975</v>
-      </c>
-      <c r="T25">
-        <v>2.5</v>
-      </c>
-      <c r="U25">
-        <v>1.95</v>
-      </c>
-      <c r="V25">
-        <v>1.9</v>
-      </c>
       <c r="W25">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X25">
         <v>-1</v>
       </c>
       <c r="Y25">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z25">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA25">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB25">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC25">
         <v>-1</v>
@@ -2761,7 +2761,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>5208568</v>
+        <v>5208569</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2773,73 +2773,73 @@
         <v>44944.69791666666</v>
       </c>
       <c r="F26" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G26" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J26" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K26">
-        <v>1.4</v>
+        <v>1.85</v>
       </c>
       <c r="L26">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M26">
-        <v>6.5</v>
+        <v>3.8</v>
       </c>
       <c r="N26">
-        <v>1.7</v>
+        <v>1.666</v>
       </c>
       <c r="O26">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P26">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="Q26">
         <v>-0.75</v>
       </c>
       <c r="R26">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S26">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T26">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U26">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V26">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W26">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X26">
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z26">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA26">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AB26">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC26">
         <v>-1</v>
@@ -3117,7 +3117,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>5208577</v>
+        <v>5208575</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3129,40 +3129,40 @@
         <v>44947.59375</v>
       </c>
       <c r="F30" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G30" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I30">
         <v>2</v>
       </c>
       <c r="J30" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K30">
-        <v>2.625</v>
+        <v>1.95</v>
       </c>
       <c r="L30">
+        <v>3.5</v>
+      </c>
+      <c r="M30">
         <v>3.4</v>
       </c>
-      <c r="M30">
-        <v>2.4</v>
-      </c>
       <c r="N30">
-        <v>3.2</v>
+        <v>1.75</v>
       </c>
       <c r="O30">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P30">
-        <v>2.05</v>
+        <v>4</v>
       </c>
       <c r="Q30">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R30">
         <v>2.025</v>
@@ -3171,34 +3171,34 @@
         <v>1.825</v>
       </c>
       <c r="T30">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U30">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V30">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W30">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X30">
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z30">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA30">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB30">
-        <v>0.475</v>
+        <v>1</v>
       </c>
       <c r="AC30">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3206,7 +3206,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>5208575</v>
+        <v>5208577</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3218,40 +3218,40 @@
         <v>44947.59375</v>
       </c>
       <c r="F31" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G31" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="H31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I31">
         <v>2</v>
       </c>
       <c r="J31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K31">
-        <v>1.95</v>
+        <v>2.625</v>
       </c>
       <c r="L31">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M31">
+        <v>2.4</v>
+      </c>
+      <c r="N31">
+        <v>3.2</v>
+      </c>
+      <c r="O31">
         <v>3.4</v>
       </c>
-      <c r="N31">
-        <v>1.75</v>
-      </c>
-      <c r="O31">
-        <v>3.6</v>
-      </c>
       <c r="P31">
-        <v>4</v>
+        <v>2.05</v>
       </c>
       <c r="Q31">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R31">
         <v>2.025</v>
@@ -3260,34 +3260,34 @@
         <v>1.825</v>
       </c>
       <c r="T31">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U31">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V31">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W31">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X31">
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z31">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AA31">
+        <v>0.825</v>
+      </c>
+      <c r="AB31">
+        <v>0.475</v>
+      </c>
+      <c r="AC31">
         <v>-0.5</v>
-      </c>
-      <c r="AB31">
-        <v>1</v>
-      </c>
-      <c r="AC31">
-        <v>-1</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -6410,7 +6410,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>5208596</v>
+        <v>5208593</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6422,55 +6422,55 @@
         <v>44975.59375</v>
       </c>
       <c r="F67" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G67" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J67" t="s">
         <v>48</v>
       </c>
       <c r="K67">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="L67">
         <v>3.4</v>
       </c>
       <c r="M67">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="N67">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="O67">
         <v>3.4</v>
       </c>
       <c r="P67">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="Q67">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R67">
+        <v>1.875</v>
+      </c>
+      <c r="S67">
         <v>1.975</v>
       </c>
-      <c r="S67">
-        <v>1.875</v>
-      </c>
       <c r="T67">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U67">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V67">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W67">
         <v>-1</v>
@@ -6482,16 +6482,16 @@
         <v>-1</v>
       </c>
       <c r="Z67">
-        <v>0.4875</v>
+        <v>0.875</v>
       </c>
       <c r="AA67">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB67">
         <v>-1</v>
       </c>
       <c r="AC67">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6499,7 +6499,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>5208593</v>
+        <v>5208596</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6511,55 +6511,55 @@
         <v>44975.59375</v>
       </c>
       <c r="F68" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G68" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J68" t="s">
         <v>48</v>
       </c>
       <c r="K68">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="L68">
         <v>3.4</v>
       </c>
       <c r="M68">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="N68">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="O68">
         <v>3.4</v>
       </c>
       <c r="P68">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="Q68">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R68">
+        <v>1.975</v>
+      </c>
+      <c r="S68">
         <v>1.875</v>
       </c>
-      <c r="S68">
+      <c r="T68">
+        <v>2.75</v>
+      </c>
+      <c r="U68">
+        <v>1.875</v>
+      </c>
+      <c r="V68">
         <v>1.975</v>
-      </c>
-      <c r="T68">
-        <v>2.5</v>
-      </c>
-      <c r="U68">
-        <v>1.925</v>
-      </c>
-      <c r="V68">
-        <v>1.925</v>
       </c>
       <c r="W68">
         <v>-1</v>
@@ -6571,16 +6571,16 @@
         <v>-1</v>
       </c>
       <c r="Z68">
-        <v>0.875</v>
+        <v>0.4875</v>
       </c>
       <c r="AA68">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB68">
         <v>-1</v>
       </c>
       <c r="AC68">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -7211,7 +7211,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>5208597</v>
+        <v>5208727</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7223,76 +7223,76 @@
         <v>44982.59375</v>
       </c>
       <c r="F76" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G76" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H76">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I76">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J76" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K76">
-        <v>1.333</v>
+        <v>3.25</v>
       </c>
       <c r="L76">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="M76">
-        <v>7.5</v>
+        <v>2.1</v>
       </c>
       <c r="N76">
-        <v>1.4</v>
+        <v>4</v>
       </c>
       <c r="O76">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="P76">
-        <v>6.5</v>
+        <v>1.909</v>
       </c>
       <c r="Q76">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R76">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S76">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T76">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U76">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V76">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W76">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X76">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y76">
         <v>-1</v>
       </c>
       <c r="Z76">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA76">
         <v>-1</v>
       </c>
       <c r="AB76">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC76">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7300,7 +7300,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>5208727</v>
+        <v>5208597</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7312,76 +7312,76 @@
         <v>44982.59375</v>
       </c>
       <c r="F77" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G77" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I77">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J77" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K77">
-        <v>3.25</v>
+        <v>1.333</v>
       </c>
       <c r="L77">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="M77">
-        <v>2.1</v>
+        <v>7.5</v>
       </c>
       <c r="N77">
-        <v>4</v>
+        <v>1.4</v>
       </c>
       <c r="O77">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="P77">
-        <v>1.909</v>
+        <v>6.5</v>
       </c>
       <c r="Q77">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R77">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S77">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T77">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U77">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V77">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W77">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X77">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y77">
         <v>-1</v>
       </c>
       <c r="Z77">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA77">
         <v>-1</v>
       </c>
       <c r="AB77">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC77">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -8012,7 +8012,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>5208601</v>
+        <v>5208603</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8024,58 +8024,58 @@
         <v>44989.59375</v>
       </c>
       <c r="F85" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G85" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H85">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J85" t="s">
         <v>50</v>
       </c>
       <c r="K85">
-        <v>1.85</v>
+        <v>1.444</v>
       </c>
       <c r="L85">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M85">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="N85">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="O85">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="P85">
-        <v>3.3</v>
+        <v>10</v>
       </c>
       <c r="Q85">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R85">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S85">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T85">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U85">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V85">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W85">
-        <v>1.1</v>
+        <v>0.3</v>
       </c>
       <c r="X85">
         <v>-1</v>
@@ -8084,13 +8084,13 @@
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA85">
         <v>-1</v>
       </c>
       <c r="AB85">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC85">
         <v>-1</v>
@@ -8101,7 +8101,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>5208603</v>
+        <v>5208601</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8113,58 +8113,58 @@
         <v>44989.59375</v>
       </c>
       <c r="F86" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G86" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H86">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J86" t="s">
         <v>50</v>
       </c>
       <c r="K86">
-        <v>1.444</v>
+        <v>1.85</v>
       </c>
       <c r="L86">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M86">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="N86">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="O86">
-        <v>5.25</v>
+        <v>3.4</v>
       </c>
       <c r="P86">
-        <v>10</v>
+        <v>3.3</v>
       </c>
       <c r="Q86">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R86">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S86">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T86">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U86">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V86">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W86">
-        <v>0.3</v>
+        <v>1.1</v>
       </c>
       <c r="X86">
         <v>-1</v>
@@ -8173,13 +8173,13 @@
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA86">
         <v>-1</v>
       </c>
       <c r="AB86">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC86">
         <v>-1</v>
@@ -10415,7 +10415,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>5356593</v>
+        <v>5351637</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10427,55 +10427,55 @@
         <v>45017.55208333334</v>
       </c>
       <c r="F112" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G112" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J112" t="s">
         <v>49</v>
       </c>
       <c r="K112">
-        <v>2</v>
+        <v>6.5</v>
       </c>
       <c r="L112">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M112">
-        <v>3.25</v>
+        <v>1.444</v>
       </c>
       <c r="N112">
-        <v>2.1</v>
+        <v>9.5</v>
       </c>
       <c r="O112">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P112">
-        <v>3.1</v>
+        <v>1.285</v>
       </c>
       <c r="Q112">
-        <v>-0.25</v>
+        <v>1.5</v>
       </c>
       <c r="R112">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S112">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T112">
         <v>2.75</v>
       </c>
       <c r="U112">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V112">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W112">
         <v>-1</v>
@@ -10484,16 +10484,16 @@
         <v>-1</v>
       </c>
       <c r="Y112">
-        <v>2.1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="Z112">
         <v>-1</v>
       </c>
       <c r="AA112">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB112">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC112">
         <v>-1</v>
@@ -10504,7 +10504,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>5351637</v>
+        <v>5356593</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10516,55 +10516,55 @@
         <v>45017.55208333334</v>
       </c>
       <c r="F113" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G113" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J113" t="s">
         <v>49</v>
       </c>
       <c r="K113">
-        <v>6.5</v>
+        <v>2</v>
       </c>
       <c r="L113">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M113">
-        <v>1.444</v>
+        <v>3.25</v>
       </c>
       <c r="N113">
-        <v>9.5</v>
+        <v>2.1</v>
       </c>
       <c r="O113">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P113">
-        <v>1.285</v>
+        <v>3.1</v>
       </c>
       <c r="Q113">
-        <v>1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R113">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S113">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T113">
         <v>2.75</v>
       </c>
       <c r="U113">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V113">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W113">
         <v>-1</v>
@@ -10573,16 +10573,16 @@
         <v>-1</v>
       </c>
       <c r="Y113">
-        <v>0.2849999999999999</v>
+        <v>2.1</v>
       </c>
       <c r="Z113">
         <v>-1</v>
       </c>
       <c r="AA113">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB113">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AC113">
         <v>-1</v>
@@ -12818,7 +12818,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6385540</v>
+        <v>6389819</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12830,55 +12830,55 @@
         <v>45039.5625</v>
       </c>
       <c r="F139" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G139" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H139">
         <v>2</v>
       </c>
       <c r="I139">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J139" t="s">
         <v>49</v>
       </c>
       <c r="K139">
-        <v>1.363</v>
+        <v>5.25</v>
       </c>
       <c r="L139">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="M139">
-        <v>7</v>
+        <v>1.533</v>
       </c>
       <c r="N139">
-        <v>1.55</v>
+        <v>6.5</v>
       </c>
       <c r="O139">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="P139">
-        <v>5</v>
+        <v>1.4</v>
       </c>
       <c r="Q139">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="R139">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S139">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T139">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U139">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V139">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W139">
         <v>-1</v>
@@ -12887,16 +12887,16 @@
         <v>-1</v>
       </c>
       <c r="Y139">
-        <v>4</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z139">
         <v>-1</v>
       </c>
       <c r="AA139">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AB139">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AC139">
         <v>-1</v>
@@ -12907,7 +12907,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6390066</v>
+        <v>6389865</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12919,73 +12919,73 @@
         <v>45039.5625</v>
       </c>
       <c r="F140" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G140" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H140">
         <v>2</v>
       </c>
       <c r="I140">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J140" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K140">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="L140">
         <v>3.6</v>
       </c>
       <c r="M140">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="N140">
         <v>2.8</v>
       </c>
       <c r="O140">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P140">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="Q140">
         <v>0.25</v>
       </c>
       <c r="R140">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S140">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T140">
         <v>3</v>
       </c>
       <c r="U140">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V140">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="W140">
         <v>-1</v>
       </c>
       <c r="X140">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y140">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z140">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA140">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AB140">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AC140">
         <v>-1</v>
@@ -12996,7 +12996,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6390043</v>
+        <v>6385540</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13008,56 +13008,56 @@
         <v>45039.5625</v>
       </c>
       <c r="F141" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G141" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I141">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J141" t="s">
         <v>49</v>
       </c>
       <c r="K141">
-        <v>1.222</v>
+        <v>1.363</v>
       </c>
       <c r="L141">
-        <v>5.75</v>
+        <v>5</v>
       </c>
       <c r="M141">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N141">
-        <v>1.142</v>
+        <v>1.55</v>
       </c>
       <c r="O141">
-        <v>7.5</v>
+        <v>4.2</v>
       </c>
       <c r="P141">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="Q141">
-        <v>-2.25</v>
+        <v>-1</v>
       </c>
       <c r="R141">
+        <v>1.925</v>
+      </c>
+      <c r="S141">
+        <v>1.925</v>
+      </c>
+      <c r="T141">
+        <v>3</v>
+      </c>
+      <c r="U141">
+        <v>1.875</v>
+      </c>
+      <c r="V141">
         <v>1.975</v>
       </c>
-      <c r="S141">
-        <v>1.875</v>
-      </c>
-      <c r="T141">
-        <v>3.5</v>
-      </c>
-      <c r="U141">
-        <v>1.95</v>
-      </c>
-      <c r="V141">
-        <v>1.9</v>
-      </c>
       <c r="W141">
         <v>-1</v>
       </c>
@@ -13065,19 +13065,19 @@
         <v>-1</v>
       </c>
       <c r="Y141">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="Z141">
         <v>-1</v>
       </c>
       <c r="AA141">
+        <v>0.925</v>
+      </c>
+      <c r="AB141">
         <v>0.875</v>
       </c>
-      <c r="AB141">
-        <v>-1</v>
-      </c>
       <c r="AC141">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13085,7 +13085,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6389819</v>
+        <v>6390043</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13097,56 +13097,56 @@
         <v>45039.5625</v>
       </c>
       <c r="F142" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G142" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I142">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J142" t="s">
         <v>49</v>
       </c>
       <c r="K142">
-        <v>5.25</v>
+        <v>1.222</v>
       </c>
       <c r="L142">
-        <v>4.2</v>
+        <v>5.75</v>
       </c>
       <c r="M142">
-        <v>1.533</v>
+        <v>11</v>
       </c>
       <c r="N142">
-        <v>6.5</v>
+        <v>1.142</v>
       </c>
       <c r="O142">
-        <v>4.75</v>
+        <v>7.5</v>
       </c>
       <c r="P142">
-        <v>1.4</v>
+        <v>15</v>
       </c>
       <c r="Q142">
-        <v>1.25</v>
+        <v>-2.25</v>
       </c>
       <c r="R142">
+        <v>1.975</v>
+      </c>
+      <c r="S142">
+        <v>1.875</v>
+      </c>
+      <c r="T142">
+        <v>3.5</v>
+      </c>
+      <c r="U142">
+        <v>1.95</v>
+      </c>
+      <c r="V142">
         <v>1.9</v>
       </c>
-      <c r="S142">
-        <v>1.95</v>
-      </c>
-      <c r="T142">
-        <v>3.25</v>
-      </c>
-      <c r="U142">
-        <v>2</v>
-      </c>
-      <c r="V142">
-        <v>1.85</v>
-      </c>
       <c r="W142">
         <v>-1</v>
       </c>
@@ -13154,19 +13154,19 @@
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>0.3999999999999999</v>
+        <v>14</v>
       </c>
       <c r="Z142">
         <v>-1</v>
       </c>
       <c r="AA142">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AB142">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC142">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13174,7 +13174,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6390442</v>
+        <v>6390066</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13186,73 +13186,73 @@
         <v>45039.5625</v>
       </c>
       <c r="F143" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G143" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H143">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I143">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J143" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K143">
-        <v>1.333</v>
+        <v>3</v>
       </c>
       <c r="L143">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M143">
-        <v>8</v>
+        <v>2.15</v>
       </c>
       <c r="N143">
-        <v>1.3</v>
+        <v>2.8</v>
       </c>
       <c r="O143">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="P143">
-        <v>8.5</v>
+        <v>2.25</v>
       </c>
       <c r="Q143">
-        <v>-1.75</v>
+        <v>0.25</v>
       </c>
       <c r="R143">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S143">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T143">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U143">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V143">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W143">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X143">
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z143">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA143">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB143">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
       <c r="AC143">
         <v>-1</v>
@@ -13352,7 +13352,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6389865</v>
+        <v>6390442</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13364,73 +13364,73 @@
         <v>45039.5625</v>
       </c>
       <c r="F145" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G145" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I145">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J145" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K145">
-        <v>3.5</v>
+        <v>1.333</v>
       </c>
       <c r="L145">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M145">
-        <v>1.95</v>
+        <v>8</v>
       </c>
       <c r="N145">
-        <v>2.8</v>
+        <v>1.3</v>
       </c>
       <c r="O145">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="P145">
-        <v>2.3</v>
+        <v>8.5</v>
       </c>
       <c r="Q145">
-        <v>0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R145">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S145">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T145">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U145">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V145">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W145">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X145">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y145">
         <v>-1</v>
       </c>
       <c r="Z145">
-        <v>0.4</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA145">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB145">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AC145">
         <v>-1</v>
@@ -17357,7 +17357,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>7030334</v>
+        <v>6810007</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17369,55 +17369,55 @@
         <v>45151.45833333334</v>
       </c>
       <c r="F190" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G190" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H190">
         <v>0</v>
       </c>
       <c r="I190">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J190" t="s">
         <v>49</v>
       </c>
       <c r="K190">
-        <v>2.75</v>
+        <v>4.75</v>
       </c>
       <c r="L190">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M190">
-        <v>2.25</v>
+        <v>1.571</v>
       </c>
       <c r="N190">
-        <v>2.4</v>
+        <v>7</v>
       </c>
       <c r="O190">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P190">
-        <v>2.55</v>
+        <v>1.333</v>
       </c>
       <c r="Q190">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="R190">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S190">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T190">
         <v>3</v>
       </c>
       <c r="U190">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V190">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W190">
         <v>-1</v>
@@ -17426,19 +17426,19 @@
         <v>-1</v>
       </c>
       <c r="Y190">
-        <v>1.55</v>
+        <v>0.333</v>
       </c>
       <c r="Z190">
         <v>-1</v>
       </c>
       <c r="AA190">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB190">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC190">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="191" spans="1:29">
@@ -17446,7 +17446,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>6810007</v>
+        <v>7030334</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17458,55 +17458,55 @@
         <v>45151.45833333334</v>
       </c>
       <c r="F191" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G191" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H191">
         <v>0</v>
       </c>
       <c r="I191">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J191" t="s">
         <v>49</v>
       </c>
       <c r="K191">
-        <v>4.75</v>
+        <v>2.75</v>
       </c>
       <c r="L191">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M191">
-        <v>1.571</v>
+        <v>2.25</v>
       </c>
       <c r="N191">
-        <v>7</v>
+        <v>2.4</v>
       </c>
       <c r="O191">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P191">
-        <v>1.333</v>
+        <v>2.55</v>
       </c>
       <c r="Q191">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="R191">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S191">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T191">
         <v>3</v>
       </c>
       <c r="U191">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V191">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W191">
         <v>-1</v>
@@ -17515,19 +17515,19 @@
         <v>-1</v>
       </c>
       <c r="Y191">
-        <v>0.333</v>
+        <v>1.55</v>
       </c>
       <c r="Z191">
         <v>-1</v>
       </c>
       <c r="AA191">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB191">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC191">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="192" spans="1:29">
@@ -28838,7 +28838,7 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>6810132</v>
+        <v>6810130</v>
       </c>
       <c r="C319" t="s">
         <v>28</v>
@@ -28850,76 +28850,76 @@
         <v>45283.59375</v>
       </c>
       <c r="F319" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G319" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H319">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I319">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J319" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K319">
-        <v>2.2</v>
+        <v>1.363</v>
       </c>
       <c r="L319">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="M319">
-        <v>3.2</v>
+        <v>7.5</v>
       </c>
       <c r="N319">
-        <v>2.3</v>
+        <v>1.333</v>
       </c>
       <c r="O319">
-        <v>3.3</v>
+        <v>5.25</v>
       </c>
       <c r="P319">
+        <v>8</v>
+      </c>
+      <c r="Q319">
+        <v>-1.5</v>
+      </c>
+      <c r="R319">
+        <v>1.9</v>
+      </c>
+      <c r="S319">
+        <v>1.95</v>
+      </c>
+      <c r="T319">
         <v>3</v>
       </c>
-      <c r="Q319">
-        <v>-0.25</v>
-      </c>
-      <c r="R319">
-        <v>2</v>
-      </c>
-      <c r="S319">
-        <v>1.85</v>
-      </c>
-      <c r="T319">
-        <v>2.25</v>
-      </c>
       <c r="U319">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V319">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W319">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X319">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Y319">
         <v>-1</v>
       </c>
       <c r="Z319">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA319">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB319">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC319">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="320" spans="1:29">
@@ -28927,7 +28927,7 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>6810130</v>
+        <v>6810132</v>
       </c>
       <c r="C320" t="s">
         <v>28</v>
@@ -28939,76 +28939,76 @@
         <v>45283.59375</v>
       </c>
       <c r="F320" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="G320" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H320">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I320">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J320" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K320">
-        <v>1.363</v>
+        <v>2.2</v>
       </c>
       <c r="L320">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="M320">
-        <v>7.5</v>
+        <v>3.2</v>
       </c>
       <c r="N320">
-        <v>1.333</v>
+        <v>2.3</v>
       </c>
       <c r="O320">
-        <v>5.25</v>
+        <v>3.3</v>
       </c>
       <c r="P320">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="Q320">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R320">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S320">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T320">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U320">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V320">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W320">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X320">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Y320">
         <v>-1</v>
       </c>
       <c r="Z320">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA320">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB320">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC320">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="321" spans="1:29">
@@ -29194,7 +29194,7 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>6810145</v>
+        <v>6810142</v>
       </c>
       <c r="C323" t="s">
         <v>28</v>
@@ -29206,76 +29206,76 @@
         <v>45286.5</v>
       </c>
       <c r="F323" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G323" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H323">
+        <v>3</v>
+      </c>
+      <c r="I323">
         <v>0</v>
       </c>
-      <c r="I323">
-        <v>2</v>
-      </c>
       <c r="J323" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K323">
-        <v>7</v>
+        <v>1.75</v>
       </c>
       <c r="L323">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M323">
-        <v>1.4</v>
+        <v>4</v>
       </c>
       <c r="N323">
-        <v>8.5</v>
+        <v>1.8</v>
       </c>
       <c r="O323">
-        <v>5.75</v>
+        <v>3.8</v>
       </c>
       <c r="P323">
-        <v>1.285</v>
+        <v>3.8</v>
       </c>
       <c r="Q323">
-        <v>1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R323">
+        <v>1.825</v>
+      </c>
+      <c r="S323">
         <v>2.025</v>
       </c>
-      <c r="S323">
-        <v>1.825</v>
-      </c>
       <c r="T323">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U323">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="V323">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W323">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X323">
         <v>-1</v>
       </c>
       <c r="Y323">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z323">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA323">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB323">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC323">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="324" spans="1:29">
@@ -29283,7 +29283,7 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>6810142</v>
+        <v>6810145</v>
       </c>
       <c r="C324" t="s">
         <v>28</v>
@@ -29295,76 +29295,76 @@
         <v>45286.5</v>
       </c>
       <c r="F324" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G324" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H324">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I324">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J324" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K324">
-        <v>1.75</v>
+        <v>7</v>
       </c>
       <c r="L324">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M324">
-        <v>4</v>
+        <v>1.4</v>
       </c>
       <c r="N324">
+        <v>8.5</v>
+      </c>
+      <c r="O324">
+        <v>5.75</v>
+      </c>
+      <c r="P324">
+        <v>1.285</v>
+      </c>
+      <c r="Q324">
+        <v>1.5</v>
+      </c>
+      <c r="R324">
+        <v>2.025</v>
+      </c>
+      <c r="S324">
+        <v>1.825</v>
+      </c>
+      <c r="T324">
+        <v>3.25</v>
+      </c>
+      <c r="U324">
+        <v>2.05</v>
+      </c>
+      <c r="V324">
         <v>1.8</v>
       </c>
-      <c r="O324">
-        <v>3.8</v>
-      </c>
-      <c r="P324">
-        <v>3.8</v>
-      </c>
-      <c r="Q324">
-        <v>-0.5</v>
-      </c>
-      <c r="R324">
-        <v>1.825</v>
-      </c>
-      <c r="S324">
-        <v>2.025</v>
-      </c>
-      <c r="T324">
-        <v>3</v>
-      </c>
-      <c r="U324">
-        <v>1.975</v>
-      </c>
-      <c r="V324">
-        <v>1.875</v>
-      </c>
       <c r="W324">
+        <v>-1</v>
+      </c>
+      <c r="X324">
+        <v>-1</v>
+      </c>
+      <c r="Y324">
+        <v>0.2849999999999999</v>
+      </c>
+      <c r="Z324">
+        <v>-1</v>
+      </c>
+      <c r="AA324">
+        <v>0.825</v>
+      </c>
+      <c r="AB324">
+        <v>-1</v>
+      </c>
+      <c r="AC324">
         <v>0.8</v>
-      </c>
-      <c r="X324">
-        <v>-1</v>
-      </c>
-      <c r="Y324">
-        <v>-1</v>
-      </c>
-      <c r="Z324">
-        <v>0.825</v>
-      </c>
-      <c r="AA324">
-        <v>-1</v>
-      </c>
-      <c r="AB324">
-        <v>0</v>
-      </c>
-      <c r="AC324">
-        <v>-0</v>
       </c>
     </row>
     <row r="325" spans="1:29">
@@ -29639,7 +29639,7 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>6810139</v>
+        <v>6810143</v>
       </c>
       <c r="C328" t="s">
         <v>28</v>
@@ -29651,58 +29651,58 @@
         <v>45287.69791666666</v>
       </c>
       <c r="F328" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G328" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H328">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I328">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J328" t="s">
         <v>50</v>
       </c>
       <c r="K328">
-        <v>1.869</v>
+        <v>2.05</v>
       </c>
       <c r="L328">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="M328">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="N328">
-        <v>2.05</v>
+        <v>2.375</v>
       </c>
       <c r="O328">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P328">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q328">
         <v>-0.25</v>
       </c>
       <c r="R328">
+        <v>2.025</v>
+      </c>
+      <c r="S328">
         <v>1.825</v>
       </c>
-      <c r="S328">
+      <c r="T328">
+        <v>2.25</v>
+      </c>
+      <c r="U328">
         <v>2.025</v>
       </c>
-      <c r="T328">
-        <v>2.75</v>
-      </c>
-      <c r="U328">
-        <v>1.9</v>
-      </c>
       <c r="V328">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W328">
-        <v>1.05</v>
+        <v>1.375</v>
       </c>
       <c r="X328">
         <v>-1</v>
@@ -29711,16 +29711,16 @@
         <v>-1</v>
       </c>
       <c r="Z328">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AA328">
         <v>-1</v>
       </c>
       <c r="AB328">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC328">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="329" spans="1:29">
@@ -29728,7 +29728,7 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>6810143</v>
+        <v>6810139</v>
       </c>
       <c r="C329" t="s">
         <v>28</v>
@@ -29740,58 +29740,58 @@
         <v>45287.69791666666</v>
       </c>
       <c r="F329" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G329" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H329">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I329">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J329" t="s">
         <v>50</v>
       </c>
       <c r="K329">
+        <v>1.869</v>
+      </c>
+      <c r="L329">
+        <v>3.7</v>
+      </c>
+      <c r="M329">
+        <v>3.8</v>
+      </c>
+      <c r="N329">
         <v>2.05</v>
       </c>
-      <c r="L329">
-        <v>3.4</v>
-      </c>
-      <c r="M329">
-        <v>3.5</v>
-      </c>
-      <c r="N329">
-        <v>2.375</v>
-      </c>
       <c r="O329">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P329">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="Q329">
         <v>-0.25</v>
       </c>
       <c r="R329">
+        <v>1.825</v>
+      </c>
+      <c r="S329">
         <v>2.025</v>
       </c>
-      <c r="S329">
-        <v>1.825</v>
-      </c>
       <c r="T329">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U329">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V329">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W329">
-        <v>1.375</v>
+        <v>1.05</v>
       </c>
       <c r="X329">
         <v>-1</v>
@@ -29800,16 +29800,16 @@
         <v>-1</v>
       </c>
       <c r="Z329">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AA329">
         <v>-1</v>
       </c>
       <c r="AB329">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC329">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="330" spans="1:29">
@@ -30618,7 +30618,7 @@
         <v>337</v>
       </c>
       <c r="B339">
-        <v>6810159</v>
+        <v>6810158</v>
       </c>
       <c r="C339" t="s">
         <v>28</v>
@@ -30630,73 +30630,73 @@
         <v>45318.69791666666</v>
       </c>
       <c r="F339" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G339" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H339">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I339">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J339" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K339">
-        <v>5.5</v>
+        <v>1.363</v>
       </c>
       <c r="L339">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="M339">
-        <v>1.5</v>
+        <v>6.5</v>
       </c>
       <c r="N339">
-        <v>6</v>
+        <v>1.444</v>
       </c>
       <c r="O339">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P339">
-        <v>1.45</v>
+        <v>5.75</v>
       </c>
       <c r="Q339">
-        <v>1.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R339">
+        <v>2</v>
+      </c>
+      <c r="S339">
+        <v>1.85</v>
+      </c>
+      <c r="T339">
+        <v>3</v>
+      </c>
+      <c r="U339">
+        <v>2.025</v>
+      </c>
+      <c r="V339">
         <v>1.825</v>
       </c>
-      <c r="S339">
-        <v>2.025</v>
-      </c>
-      <c r="T339">
-        <v>2.75</v>
-      </c>
-      <c r="U339">
-        <v>1.95</v>
-      </c>
-      <c r="V339">
-        <v>1.9</v>
-      </c>
       <c r="W339">
         <v>-1</v>
       </c>
       <c r="X339">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y339">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z339">
         <v>-1</v>
       </c>
       <c r="AA339">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB339">
         <v>1.025</v>
-      </c>
-      <c r="AB339">
-        <v>0.95</v>
       </c>
       <c r="AC339">
         <v>-1</v>
@@ -30707,7 +30707,7 @@
         <v>338</v>
       </c>
       <c r="B340">
-        <v>6810158</v>
+        <v>6810159</v>
       </c>
       <c r="C340" t="s">
         <v>28</v>
@@ -30719,73 +30719,73 @@
         <v>45318.69791666666</v>
       </c>
       <c r="F340" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G340" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H340">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I340">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J340" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K340">
-        <v>1.363</v>
+        <v>5.5</v>
       </c>
       <c r="L340">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="M340">
-        <v>6.5</v>
+        <v>1.5</v>
       </c>
       <c r="N340">
-        <v>1.444</v>
+        <v>6</v>
       </c>
       <c r="O340">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P340">
-        <v>5.75</v>
+        <v>1.45</v>
       </c>
       <c r="Q340">
-        <v>-1.25</v>
+        <v>1.25</v>
       </c>
       <c r="R340">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S340">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T340">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U340">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V340">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W340">
         <v>-1</v>
       </c>
       <c r="X340">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y340">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z340">
         <v>-1</v>
       </c>
       <c r="AA340">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AB340">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AC340">
         <v>-1</v>
@@ -31508,7 +31508,7 @@
         <v>347</v>
       </c>
       <c r="B349">
-        <v>6810164</v>
+        <v>6810162</v>
       </c>
       <c r="C349" t="s">
         <v>28</v>
@@ -31520,76 +31520,76 @@
         <v>45322.70833333334</v>
       </c>
       <c r="F349" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G349" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="H349">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I349">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J349" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K349">
-        <v>1.2</v>
+        <v>4</v>
       </c>
       <c r="L349">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="M349">
-        <v>12</v>
+        <v>1.85</v>
       </c>
       <c r="N349">
-        <v>1.142</v>
+        <v>3.1</v>
       </c>
       <c r="O349">
-        <v>8.5</v>
+        <v>3.2</v>
       </c>
       <c r="P349">
-        <v>15</v>
+        <v>2.3</v>
       </c>
       <c r="Q349">
-        <v>-2.25</v>
+        <v>0.25</v>
       </c>
       <c r="R349">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S349">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T349">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="U349">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V349">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W349">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X349">
         <v>-1</v>
       </c>
       <c r="Y349">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z349">
         <v>-1</v>
       </c>
       <c r="AA349">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="AB349">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC349">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="350" spans="1:29">
@@ -31597,7 +31597,7 @@
         <v>348</v>
       </c>
       <c r="B350">
-        <v>6810162</v>
+        <v>6810164</v>
       </c>
       <c r="C350" t="s">
         <v>28</v>
@@ -31609,76 +31609,76 @@
         <v>45322.70833333334</v>
       </c>
       <c r="F350" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G350" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I350">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J350" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K350">
-        <v>4</v>
+        <v>1.2</v>
       </c>
       <c r="L350">
-        <v>3.6</v>
+        <v>7</v>
       </c>
       <c r="M350">
-        <v>1.85</v>
+        <v>12</v>
       </c>
       <c r="N350">
-        <v>3.1</v>
+        <v>1.142</v>
       </c>
       <c r="O350">
-        <v>3.2</v>
+        <v>8.5</v>
       </c>
       <c r="P350">
-        <v>2.3</v>
+        <v>15</v>
       </c>
       <c r="Q350">
-        <v>0.25</v>
+        <v>-2.25</v>
       </c>
       <c r="R350">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S350">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T350">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="U350">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V350">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W350">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X350">
         <v>-1</v>
       </c>
       <c r="Y350">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z350">
         <v>-1</v>
       </c>
       <c r="AA350">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AB350">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC350">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="351" spans="1:29">
@@ -31953,7 +31953,7 @@
         <v>352</v>
       </c>
       <c r="B354">
-        <v>6810174</v>
+        <v>6810171</v>
       </c>
       <c r="C354" t="s">
         <v>28</v>
@@ -31965,76 +31965,76 @@
         <v>45325.59375</v>
       </c>
       <c r="F354" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G354" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H354">
+        <v>1</v>
+      </c>
+      <c r="I354">
         <v>0</v>
       </c>
-      <c r="I354">
-        <v>3</v>
-      </c>
       <c r="J354" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K354">
-        <v>1.909</v>
+        <v>3.2</v>
       </c>
       <c r="L354">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M354">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="N354">
-        <v>1.909</v>
+        <v>3.4</v>
       </c>
       <c r="O354">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P354">
-        <v>3.8</v>
+        <v>2.05</v>
       </c>
       <c r="Q354">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R354">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S354">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T354">
         <v>2.5</v>
       </c>
       <c r="U354">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V354">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W354">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X354">
         <v>-1</v>
       </c>
       <c r="Y354">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z354">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA354">
+        <v>-1</v>
+      </c>
+      <c r="AB354">
+        <v>-1</v>
+      </c>
+      <c r="AC354">
         <v>0.925</v>
-      </c>
-      <c r="AB354">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC354">
-        <v>-1</v>
       </c>
     </row>
     <row r="355" spans="1:29">
@@ -32042,7 +32042,7 @@
         <v>353</v>
       </c>
       <c r="B355">
-        <v>6810171</v>
+        <v>6810174</v>
       </c>
       <c r="C355" t="s">
         <v>28</v>
@@ -32054,76 +32054,76 @@
         <v>45325.59375</v>
       </c>
       <c r="F355" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G355" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H355">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I355">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J355" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K355">
-        <v>3.2</v>
+        <v>1.909</v>
       </c>
       <c r="L355">
+        <v>3.75</v>
+      </c>
+      <c r="M355">
         <v>3.5</v>
       </c>
-      <c r="M355">
-        <v>2.1</v>
-      </c>
       <c r="N355">
-        <v>3.4</v>
+        <v>1.909</v>
       </c>
       <c r="O355">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P355">
-        <v>2.05</v>
+        <v>3.8</v>
       </c>
       <c r="Q355">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R355">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S355">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T355">
         <v>2.5</v>
       </c>
       <c r="U355">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V355">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W355">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X355">
         <v>-1</v>
       </c>
       <c r="Y355">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z355">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA355">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB355">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC355">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="356" spans="1:29">
@@ -34017,6 +34017,15 @@
       <c r="G377" t="s">
         <v>34</v>
       </c>
+      <c r="H377">
+        <v>0</v>
+      </c>
+      <c r="I377">
+        <v>1</v>
+      </c>
+      <c r="J377" t="s">
+        <v>49</v>
+      </c>
       <c r="K377">
         <v>4.2</v>
       </c>
@@ -34027,10 +34036,10 @@
         <v>1.8</v>
       </c>
       <c r="N377">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="O377">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P377">
         <v>1.909</v>
@@ -34039,34 +34048,40 @@
         <v>0.5</v>
       </c>
       <c r="R377">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S377">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T377">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U377">
+        <v>2.025</v>
+      </c>
+      <c r="V377">
         <v>1.825</v>
       </c>
-      <c r="V377">
-        <v>2.025</v>
-      </c>
       <c r="W377">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X377">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y377">
-        <v>0</v>
+        <v>0.909</v>
       </c>
       <c r="Z377">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA377">
-        <v>0</v>
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB377">
+        <v>-1</v>
+      </c>
+      <c r="AC377">
+        <v>0.825</v>
       </c>
     </row>
     <row r="378" spans="1:29">
@@ -34113,19 +34128,19 @@
         <v>0</v>
       </c>
       <c r="R378">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S378">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T378">
         <v>2.5</v>
       </c>
       <c r="U378">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V378">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W378">
         <v>0</v>
@@ -34181,25 +34196,25 @@
         <v>3.3</v>
       </c>
       <c r="P379">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q379">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R379">
+        <v>2.1</v>
+      </c>
+      <c r="S379">
         <v>1.775</v>
-      </c>
-      <c r="S379">
-        <v>2.1</v>
       </c>
       <c r="T379">
         <v>2.5</v>
       </c>
       <c r="U379">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V379">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W379">
         <v>0</v>
@@ -34267,13 +34282,13 @@
         <v>2.025</v>
       </c>
       <c r="T380">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U380">
+        <v>1.825</v>
+      </c>
+      <c r="V380">
         <v>2.025</v>
-      </c>
-      <c r="V380">
-        <v>1.825</v>
       </c>
       <c r="W380">
         <v>0</v>
@@ -34409,19 +34424,19 @@
         <v>0</v>
       </c>
       <c r="R382">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S382">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="T382">
         <v>2.5</v>
       </c>
       <c r="U382">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V382">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W382">
         <v>0</v>

--- a/Belgium First Division A/Belgium First Division A.xlsx
+++ b/Belgium First Division A/Belgium First Division A.xlsx
@@ -109,10 +109,10 @@
     <t>Eupen</t>
   </si>
   <si>
-    <t>KV Oostende</t>
+    <t>Cercle Brugge</t>
   </si>
   <si>
-    <t>Cercle Brugge</t>
+    <t>KV Oostende</t>
   </si>
   <si>
     <t>Antwerp</t>
@@ -803,7 +803,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5208561</v>
+        <v>5208691</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -818,46 +818,46 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
         <v>1</v>
-      </c>
-      <c r="I4">
-        <v>2</v>
       </c>
       <c r="J4" t="s">
         <v>49</v>
       </c>
       <c r="K4">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="L4">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M4">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="N4">
-        <v>1.7</v>
+        <v>2.15</v>
       </c>
       <c r="O4">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P4">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="Q4">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R4">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S4">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T4">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U4">
         <v>1.925</v>
@@ -872,19 +872,19 @@
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="Z4">
         <v>-1</v>
       </c>
       <c r="AA4">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB4">
+        <v>-1</v>
+      </c>
+      <c r="AC4">
         <v>0.925</v>
-      </c>
-      <c r="AC4">
-        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -892,7 +892,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5208691</v>
+        <v>5208561</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -907,46 +907,46 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J5" t="s">
         <v>49</v>
       </c>
       <c r="K5">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="L5">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M5">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="N5">
-        <v>2.15</v>
+        <v>1.7</v>
       </c>
       <c r="O5">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P5">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="Q5">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R5">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S5">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T5">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U5">
         <v>1.925</v>
@@ -961,19 +961,19 @@
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="Z5">
         <v>-1</v>
       </c>
       <c r="AA5">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB5">
         <v>0.925</v>
       </c>
-      <c r="AB5">
-        <v>-1</v>
-      </c>
       <c r="AC5">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1619,7 +1619,7 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H13">
         <v>2</v>
@@ -2153,7 +2153,7 @@
         <v>44</v>
       </c>
       <c r="G19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H19">
         <v>2</v>
@@ -2506,7 +2506,7 @@
         <v>44944.60416666666</v>
       </c>
       <c r="F23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G23" t="s">
         <v>43</v>
@@ -2595,7 +2595,7 @@
         <v>44944.60416666666</v>
       </c>
       <c r="F24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G24" t="s">
         <v>33</v>
@@ -3117,7 +3117,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>5208575</v>
+        <v>5208577</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3129,40 +3129,40 @@
         <v>44947.59375</v>
       </c>
       <c r="F30" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G30" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I30">
         <v>2</v>
       </c>
       <c r="J30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K30">
-        <v>1.95</v>
+        <v>2.625</v>
       </c>
       <c r="L30">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M30">
+        <v>2.4</v>
+      </c>
+      <c r="N30">
+        <v>3.2</v>
+      </c>
+      <c r="O30">
         <v>3.4</v>
       </c>
-      <c r="N30">
-        <v>1.75</v>
-      </c>
-      <c r="O30">
-        <v>3.6</v>
-      </c>
       <c r="P30">
-        <v>4</v>
+        <v>2.05</v>
       </c>
       <c r="Q30">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R30">
         <v>2.025</v>
@@ -3171,34 +3171,34 @@
         <v>1.825</v>
       </c>
       <c r="T30">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U30">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V30">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W30">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X30">
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z30">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AA30">
+        <v>0.825</v>
+      </c>
+      <c r="AB30">
+        <v>0.475</v>
+      </c>
+      <c r="AC30">
         <v>-0.5</v>
-      </c>
-      <c r="AB30">
-        <v>1</v>
-      </c>
-      <c r="AC30">
-        <v>-1</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3206,7 +3206,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>5208577</v>
+        <v>5208575</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3218,40 +3218,40 @@
         <v>44947.59375</v>
       </c>
       <c r="F31" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G31" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I31">
         <v>2</v>
       </c>
       <c r="J31" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K31">
-        <v>2.625</v>
+        <v>1.95</v>
       </c>
       <c r="L31">
+        <v>3.5</v>
+      </c>
+      <c r="M31">
         <v>3.4</v>
       </c>
-      <c r="M31">
-        <v>2.4</v>
-      </c>
       <c r="N31">
-        <v>3.2</v>
+        <v>1.75</v>
       </c>
       <c r="O31">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P31">
-        <v>2.05</v>
+        <v>4</v>
       </c>
       <c r="Q31">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R31">
         <v>2.025</v>
@@ -3260,34 +3260,34 @@
         <v>1.825</v>
       </c>
       <c r="T31">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U31">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V31">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W31">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X31">
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z31">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA31">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB31">
-        <v>0.475</v>
+        <v>1</v>
       </c>
       <c r="AC31">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3918,7 +3918,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>5208579</v>
+        <v>5208580</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3930,34 +3930,34 @@
         <v>44954.59375</v>
       </c>
       <c r="F39" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J39" t="s">
         <v>48</v>
       </c>
       <c r="K39">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="L39">
         <v>3.4</v>
       </c>
       <c r="M39">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="N39">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="O39">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P39">
         <v>3.1</v>
@@ -3966,25 +3966,25 @@
         <v>-0.25</v>
       </c>
       <c r="R39">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S39">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T39">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U39">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V39">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W39">
         <v>-1</v>
       </c>
       <c r="X39">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="Y39">
         <v>-1</v>
@@ -3993,13 +3993,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA39">
-        <v>0.4375</v>
+        <v>0.475</v>
       </c>
       <c r="AB39">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC39">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4007,7 +4007,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>5208580</v>
+        <v>5208579</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4019,34 +4019,34 @@
         <v>44954.59375</v>
       </c>
       <c r="F40" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G40" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J40" t="s">
         <v>48</v>
       </c>
       <c r="K40">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="L40">
         <v>3.4</v>
       </c>
       <c r="M40">
+        <v>3</v>
+      </c>
+      <c r="N40">
+        <v>2.2</v>
+      </c>
+      <c r="O40">
         <v>3.2</v>
-      </c>
-      <c r="N40">
-        <v>2.1</v>
-      </c>
-      <c r="O40">
-        <v>3.4</v>
       </c>
       <c r="P40">
         <v>3.1</v>
@@ -4055,25 +4055,25 @@
         <v>-0.25</v>
       </c>
       <c r="R40">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S40">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T40">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U40">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V40">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W40">
         <v>-1</v>
       </c>
       <c r="X40">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="Y40">
         <v>-1</v>
@@ -4082,13 +4082,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA40">
-        <v>0.475</v>
+        <v>0.4375</v>
       </c>
       <c r="AB40">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC40">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4286,7 +4286,7 @@
         <v>44955.5</v>
       </c>
       <c r="F43" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G43" t="s">
         <v>42</v>
@@ -4642,7 +4642,7 @@
         <v>44960.69791666666</v>
       </c>
       <c r="F47" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G47" t="s">
         <v>36</v>
@@ -4731,7 +4731,7 @@
         <v>44961.5</v>
       </c>
       <c r="F48" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G48" t="s">
         <v>29</v>
@@ -5446,7 +5446,7 @@
         <v>37</v>
       </c>
       <c r="G56" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -6158,7 +6158,7 @@
         <v>35</v>
       </c>
       <c r="G64" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H64">
         <v>1</v>
@@ -6511,7 +6511,7 @@
         <v>44975.59375</v>
       </c>
       <c r="F68" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G68" t="s">
         <v>44</v>
@@ -6689,7 +6689,7 @@
         <v>44976.39583333334</v>
       </c>
       <c r="F70" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G70" t="s">
         <v>41</v>
@@ -7226,7 +7226,7 @@
         <v>30</v>
       </c>
       <c r="G76" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H76">
         <v>2</v>
@@ -7315,7 +7315,7 @@
         <v>34</v>
       </c>
       <c r="G77" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H77">
         <v>3</v>
@@ -7846,7 +7846,7 @@
         <v>44988.69791666666</v>
       </c>
       <c r="F83" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G83" t="s">
         <v>41</v>
@@ -8012,7 +8012,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>5208603</v>
+        <v>5208601</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8024,58 +8024,58 @@
         <v>44989.59375</v>
       </c>
       <c r="F85" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G85" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H85">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J85" t="s">
         <v>50</v>
       </c>
       <c r="K85">
-        <v>1.444</v>
+        <v>1.85</v>
       </c>
       <c r="L85">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M85">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="N85">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="O85">
-        <v>5.25</v>
+        <v>3.4</v>
       </c>
       <c r="P85">
-        <v>10</v>
+        <v>3.3</v>
       </c>
       <c r="Q85">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R85">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S85">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T85">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U85">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V85">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W85">
-        <v>0.3</v>
+        <v>1.1</v>
       </c>
       <c r="X85">
         <v>-1</v>
@@ -8084,13 +8084,13 @@
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA85">
         <v>-1</v>
       </c>
       <c r="AB85">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC85">
         <v>-1</v>
@@ -8101,7 +8101,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>5208601</v>
+        <v>5208603</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8113,58 +8113,58 @@
         <v>44989.59375</v>
       </c>
       <c r="F86" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G86" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H86">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J86" t="s">
         <v>50</v>
       </c>
       <c r="K86">
-        <v>1.85</v>
+        <v>1.444</v>
       </c>
       <c r="L86">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M86">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="N86">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="O86">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="P86">
-        <v>3.3</v>
+        <v>10</v>
       </c>
       <c r="Q86">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R86">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S86">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T86">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U86">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V86">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W86">
-        <v>1.1</v>
+        <v>0.3</v>
       </c>
       <c r="X86">
         <v>-1</v>
@@ -8173,13 +8173,13 @@
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA86">
         <v>-1</v>
       </c>
       <c r="AB86">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC86">
         <v>-1</v>
@@ -8828,7 +8828,7 @@
         <v>30</v>
       </c>
       <c r="G94" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H94">
         <v>4</v>
@@ -9362,7 +9362,7 @@
         <v>36</v>
       </c>
       <c r="G100" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H100">
         <v>2</v>
@@ -9448,7 +9448,7 @@
         <v>45002.69791666666</v>
       </c>
       <c r="F101" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G101" t="s">
         <v>34</v>
@@ -9626,7 +9626,7 @@
         <v>45003.59375</v>
       </c>
       <c r="F103" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G103" t="s">
         <v>38</v>
@@ -10338,7 +10338,7 @@
         <v>45017.45833333334</v>
       </c>
       <c r="F111" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G111" t="s">
         <v>45</v>
@@ -10605,7 +10605,7 @@
         <v>45017.65625</v>
       </c>
       <c r="F114" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G114" t="s">
         <v>29</v>
@@ -11587,7 +11587,7 @@
         <v>33</v>
       </c>
       <c r="G125" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H125">
         <v>2</v>
@@ -11765,7 +11765,7 @@
         <v>46</v>
       </c>
       <c r="G127" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H127">
         <v>5</v>
@@ -12029,7 +12029,7 @@
         <v>45031.55208333334</v>
       </c>
       <c r="F130" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G130" t="s">
         <v>37</v>
@@ -12118,7 +12118,7 @@
         <v>45031.55208333334</v>
       </c>
       <c r="F131" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G131" t="s">
         <v>46</v>
@@ -12818,7 +12818,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6389819</v>
+        <v>6390043</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12830,56 +12830,56 @@
         <v>45039.5625</v>
       </c>
       <c r="F139" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G139" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I139">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J139" t="s">
         <v>49</v>
       </c>
       <c r="K139">
-        <v>5.25</v>
+        <v>1.222</v>
       </c>
       <c r="L139">
-        <v>4.2</v>
+        <v>5.75</v>
       </c>
       <c r="M139">
-        <v>1.533</v>
+        <v>11</v>
       </c>
       <c r="N139">
-        <v>6.5</v>
+        <v>1.142</v>
       </c>
       <c r="O139">
-        <v>4.75</v>
+        <v>7.5</v>
       </c>
       <c r="P139">
-        <v>1.4</v>
+        <v>15</v>
       </c>
       <c r="Q139">
-        <v>1.25</v>
+        <v>-2.25</v>
       </c>
       <c r="R139">
+        <v>1.975</v>
+      </c>
+      <c r="S139">
+        <v>1.875</v>
+      </c>
+      <c r="T139">
+        <v>3.5</v>
+      </c>
+      <c r="U139">
+        <v>1.95</v>
+      </c>
+      <c r="V139">
         <v>1.9</v>
       </c>
-      <c r="S139">
-        <v>1.95</v>
-      </c>
-      <c r="T139">
-        <v>3.25</v>
-      </c>
-      <c r="U139">
-        <v>2</v>
-      </c>
-      <c r="V139">
-        <v>1.85</v>
-      </c>
       <c r="W139">
         <v>-1</v>
       </c>
@@ -12887,19 +12887,19 @@
         <v>-1</v>
       </c>
       <c r="Y139">
-        <v>0.3999999999999999</v>
+        <v>14</v>
       </c>
       <c r="Z139">
         <v>-1</v>
       </c>
       <c r="AA139">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AB139">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC139">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -13085,7 +13085,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6390043</v>
+        <v>6389819</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13097,55 +13097,55 @@
         <v>45039.5625</v>
       </c>
       <c r="F142" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G142" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I142">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J142" t="s">
         <v>49</v>
       </c>
       <c r="K142">
-        <v>1.222</v>
+        <v>5.25</v>
       </c>
       <c r="L142">
-        <v>5.75</v>
+        <v>4.2</v>
       </c>
       <c r="M142">
-        <v>11</v>
+        <v>1.533</v>
       </c>
       <c r="N142">
-        <v>1.142</v>
+        <v>6.5</v>
       </c>
       <c r="O142">
-        <v>7.5</v>
+        <v>4.75</v>
       </c>
       <c r="P142">
-        <v>15</v>
+        <v>1.4</v>
       </c>
       <c r="Q142">
-        <v>-2.25</v>
+        <v>1.25</v>
       </c>
       <c r="R142">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S142">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T142">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U142">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V142">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W142">
         <v>-1</v>
@@ -13154,19 +13154,19 @@
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>14</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z142">
         <v>-1</v>
       </c>
       <c r="AA142">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AB142">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC142">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13189,7 +13189,7 @@
         <v>35</v>
       </c>
       <c r="G143" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H143">
         <v>2</v>
@@ -13542,7 +13542,7 @@
         <v>45045.55208333334</v>
       </c>
       <c r="F147" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G147" t="s">
         <v>29</v>
@@ -13990,7 +13990,7 @@
         <v>38</v>
       </c>
       <c r="G152" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H152">
         <v>3</v>
@@ -14165,7 +14165,7 @@
         <v>45059.55208333334</v>
       </c>
       <c r="F154" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G154" t="s">
         <v>42</v>
@@ -14613,7 +14613,7 @@
         <v>42</v>
       </c>
       <c r="G159" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H159">
         <v>2</v>
@@ -14969,7 +14969,7 @@
         <v>29</v>
       </c>
       <c r="G163" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H163">
         <v>0</v>
@@ -15221,7 +15221,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6576985</v>
+        <v>6576986</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15233,58 +15233,58 @@
         <v>45080.64583333334</v>
       </c>
       <c r="F166" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G166" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I166">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J166" t="s">
         <v>50</v>
       </c>
       <c r="K166">
-        <v>1.727</v>
+        <v>1.5</v>
       </c>
       <c r="L166">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="M166">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="N166">
-        <v>1.45</v>
+        <v>1.363</v>
       </c>
       <c r="O166">
-        <v>5</v>
+        <v>5.75</v>
       </c>
       <c r="P166">
-        <v>5.75</v>
+        <v>6.5</v>
       </c>
       <c r="Q166">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R166">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S166">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T166">
         <v>3.5</v>
       </c>
       <c r="U166">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V166">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W166">
-        <v>0.45</v>
+        <v>0.363</v>
       </c>
       <c r="X166">
         <v>-1</v>
@@ -15293,16 +15293,16 @@
         <v>-1</v>
       </c>
       <c r="Z166">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AA166">
         <v>-1</v>
       </c>
       <c r="AB166">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC166">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15310,7 +15310,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6576986</v>
+        <v>6576985</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15322,58 +15322,58 @@
         <v>45080.64583333334</v>
       </c>
       <c r="F167" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G167" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H167">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J167" t="s">
         <v>50</v>
       </c>
       <c r="K167">
-        <v>1.5</v>
+        <v>1.727</v>
       </c>
       <c r="L167">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="M167">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="N167">
-        <v>1.363</v>
+        <v>1.45</v>
       </c>
       <c r="O167">
+        <v>5</v>
+      </c>
+      <c r="P167">
         <v>5.75</v>
       </c>
-      <c r="P167">
-        <v>6.5</v>
-      </c>
       <c r="Q167">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R167">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S167">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T167">
         <v>3.5</v>
       </c>
       <c r="U167">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V167">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W167">
-        <v>0.363</v>
+        <v>0.45</v>
       </c>
       <c r="X167">
         <v>-1</v>
@@ -15382,16 +15382,16 @@
         <v>-1</v>
       </c>
       <c r="Z167">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AA167">
         <v>-1</v>
       </c>
       <c r="AB167">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC167">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15948,7 +15948,7 @@
         <v>33</v>
       </c>
       <c r="G174" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H174">
         <v>1</v>
@@ -16479,7 +16479,7 @@
         <v>45143.55208333334</v>
       </c>
       <c r="F180" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G180" t="s">
         <v>44</v>
@@ -17458,7 +17458,7 @@
         <v>45151.45833333334</v>
       </c>
       <c r="F191" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G191" t="s">
         <v>34</v>
@@ -17817,7 +17817,7 @@
         <v>29</v>
       </c>
       <c r="G195" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H195">
         <v>0</v>
@@ -18707,7 +18707,7 @@
         <v>46</v>
       </c>
       <c r="G205" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H205">
         <v>0</v>
@@ -18971,7 +18971,7 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F208" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G208" t="s">
         <v>38</v>
@@ -19686,7 +19686,7 @@
         <v>47</v>
       </c>
       <c r="G216" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H216">
         <v>2</v>
@@ -20751,7 +20751,7 @@
         <v>45193.45833333334</v>
       </c>
       <c r="F228" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G228" t="s">
         <v>43</v>
@@ -21288,7 +21288,7 @@
         <v>45</v>
       </c>
       <c r="G234" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H234">
         <v>2</v>
@@ -22086,7 +22086,7 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F243" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G243" t="s">
         <v>37</v>
@@ -23154,7 +23154,7 @@
         <v>45221.45833333334</v>
       </c>
       <c r="F255" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G255" t="s">
         <v>42</v>
@@ -23513,7 +23513,7 @@
         <v>40</v>
       </c>
       <c r="G259" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H259">
         <v>0</v>
@@ -24489,7 +24489,7 @@
         <v>45235.39583333334</v>
       </c>
       <c r="F270" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G270" t="s">
         <v>36</v>
@@ -25204,7 +25204,7 @@
         <v>41</v>
       </c>
       <c r="G278" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H278">
         <v>0</v>
@@ -25646,7 +25646,7 @@
         <v>45255.5</v>
       </c>
       <c r="F283" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G283" t="s">
         <v>30</v>
@@ -26895,7 +26895,7 @@
         <v>43</v>
       </c>
       <c r="G297" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H297">
         <v>2</v>
@@ -27070,7 +27070,7 @@
         <v>45269.5</v>
       </c>
       <c r="F299" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G299" t="s">
         <v>33</v>
@@ -27785,7 +27785,7 @@
         <v>37</v>
       </c>
       <c r="G307" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H307">
         <v>1</v>
@@ -28405,7 +28405,7 @@
         <v>45280.60416666666</v>
       </c>
       <c r="F314" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G314" t="s">
         <v>45</v>
@@ -29194,7 +29194,7 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>6810142</v>
+        <v>6810145</v>
       </c>
       <c r="C323" t="s">
         <v>28</v>
@@ -29206,76 +29206,76 @@
         <v>45286.5</v>
       </c>
       <c r="F323" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G323" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H323">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I323">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J323" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K323">
-        <v>1.75</v>
+        <v>7</v>
       </c>
       <c r="L323">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M323">
-        <v>4</v>
+        <v>1.4</v>
       </c>
       <c r="N323">
+        <v>8.5</v>
+      </c>
+      <c r="O323">
+        <v>5.75</v>
+      </c>
+      <c r="P323">
+        <v>1.285</v>
+      </c>
+      <c r="Q323">
+        <v>1.5</v>
+      </c>
+      <c r="R323">
+        <v>2.025</v>
+      </c>
+      <c r="S323">
+        <v>1.825</v>
+      </c>
+      <c r="T323">
+        <v>3.25</v>
+      </c>
+      <c r="U323">
+        <v>2.05</v>
+      </c>
+      <c r="V323">
         <v>1.8</v>
       </c>
-      <c r="O323">
-        <v>3.8</v>
-      </c>
-      <c r="P323">
-        <v>3.8</v>
-      </c>
-      <c r="Q323">
-        <v>-0.5</v>
-      </c>
-      <c r="R323">
-        <v>1.825</v>
-      </c>
-      <c r="S323">
-        <v>2.025</v>
-      </c>
-      <c r="T323">
-        <v>3</v>
-      </c>
-      <c r="U323">
-        <v>1.975</v>
-      </c>
-      <c r="V323">
-        <v>1.875</v>
-      </c>
       <c r="W323">
+        <v>-1</v>
+      </c>
+      <c r="X323">
+        <v>-1</v>
+      </c>
+      <c r="Y323">
+        <v>0.2849999999999999</v>
+      </c>
+      <c r="Z323">
+        <v>-1</v>
+      </c>
+      <c r="AA323">
+        <v>0.825</v>
+      </c>
+      <c r="AB323">
+        <v>-1</v>
+      </c>
+      <c r="AC323">
         <v>0.8</v>
-      </c>
-      <c r="X323">
-        <v>-1</v>
-      </c>
-      <c r="Y323">
-        <v>-1</v>
-      </c>
-      <c r="Z323">
-        <v>0.825</v>
-      </c>
-      <c r="AA323">
-        <v>-1</v>
-      </c>
-      <c r="AB323">
-        <v>0</v>
-      </c>
-      <c r="AC323">
-        <v>-0</v>
       </c>
     </row>
     <row r="324" spans="1:29">
@@ -29283,7 +29283,7 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>6810145</v>
+        <v>6810142</v>
       </c>
       <c r="C324" t="s">
         <v>28</v>
@@ -29295,76 +29295,76 @@
         <v>45286.5</v>
       </c>
       <c r="F324" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G324" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H324">
+        <v>3</v>
+      </c>
+      <c r="I324">
         <v>0</v>
       </c>
-      <c r="I324">
-        <v>2</v>
-      </c>
       <c r="J324" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K324">
-        <v>7</v>
+        <v>1.75</v>
       </c>
       <c r="L324">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M324">
-        <v>1.4</v>
+        <v>4</v>
       </c>
       <c r="N324">
-        <v>8.5</v>
+        <v>1.8</v>
       </c>
       <c r="O324">
-        <v>5.75</v>
+        <v>3.8</v>
       </c>
       <c r="P324">
-        <v>1.285</v>
+        <v>3.8</v>
       </c>
       <c r="Q324">
-        <v>1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R324">
+        <v>1.825</v>
+      </c>
+      <c r="S324">
         <v>2.025</v>
       </c>
-      <c r="S324">
-        <v>1.825</v>
-      </c>
       <c r="T324">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U324">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="V324">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W324">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X324">
         <v>-1</v>
       </c>
       <c r="Y324">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z324">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA324">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB324">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC324">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="325" spans="1:29">
@@ -29743,7 +29743,7 @@
         <v>36</v>
       </c>
       <c r="G329" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H329">
         <v>2</v>
@@ -29921,7 +29921,7 @@
         <v>34</v>
       </c>
       <c r="G331" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H331">
         <v>1</v>
@@ -30452,7 +30452,7 @@
         <v>45317.69791666666</v>
       </c>
       <c r="F337" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G337" t="s">
         <v>29</v>
@@ -30618,7 +30618,7 @@
         <v>337</v>
       </c>
       <c r="B339">
-        <v>6810158</v>
+        <v>6810159</v>
       </c>
       <c r="C339" t="s">
         <v>28</v>
@@ -30630,73 +30630,73 @@
         <v>45318.69791666666</v>
       </c>
       <c r="F339" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G339" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H339">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I339">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J339" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K339">
-        <v>1.363</v>
+        <v>5.5</v>
       </c>
       <c r="L339">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="M339">
-        <v>6.5</v>
+        <v>1.5</v>
       </c>
       <c r="N339">
-        <v>1.444</v>
+        <v>6</v>
       </c>
       <c r="O339">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P339">
-        <v>5.75</v>
+        <v>1.45</v>
       </c>
       <c r="Q339">
-        <v>-1.25</v>
+        <v>1.25</v>
       </c>
       <c r="R339">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S339">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T339">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U339">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V339">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W339">
         <v>-1</v>
       </c>
       <c r="X339">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y339">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z339">
         <v>-1</v>
       </c>
       <c r="AA339">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AB339">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AC339">
         <v>-1</v>
@@ -30707,7 +30707,7 @@
         <v>338</v>
       </c>
       <c r="B340">
-        <v>6810159</v>
+        <v>6810158</v>
       </c>
       <c r="C340" t="s">
         <v>28</v>
@@ -30719,73 +30719,73 @@
         <v>45318.69791666666</v>
       </c>
       <c r="F340" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G340" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H340">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I340">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J340" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K340">
-        <v>5.5</v>
+        <v>1.363</v>
       </c>
       <c r="L340">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="M340">
-        <v>1.5</v>
+        <v>6.5</v>
       </c>
       <c r="N340">
-        <v>6</v>
+        <v>1.444</v>
       </c>
       <c r="O340">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P340">
-        <v>1.45</v>
+        <v>5.75</v>
       </c>
       <c r="Q340">
-        <v>1.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R340">
+        <v>2</v>
+      </c>
+      <c r="S340">
+        <v>1.85</v>
+      </c>
+      <c r="T340">
+        <v>3</v>
+      </c>
+      <c r="U340">
+        <v>2.025</v>
+      </c>
+      <c r="V340">
         <v>1.825</v>
       </c>
-      <c r="S340">
-        <v>2.025</v>
-      </c>
-      <c r="T340">
-        <v>2.75</v>
-      </c>
-      <c r="U340">
-        <v>1.95</v>
-      </c>
-      <c r="V340">
-        <v>1.9</v>
-      </c>
       <c r="W340">
         <v>-1</v>
       </c>
       <c r="X340">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y340">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z340">
         <v>-1</v>
       </c>
       <c r="AA340">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB340">
         <v>1.025</v>
-      </c>
-      <c r="AB340">
-        <v>0.95</v>
       </c>
       <c r="AC340">
         <v>-1</v>
@@ -31256,7 +31256,7 @@
         <v>38</v>
       </c>
       <c r="G346" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H346">
         <v>4</v>
@@ -31953,7 +31953,7 @@
         <v>352</v>
       </c>
       <c r="B354">
-        <v>6810171</v>
+        <v>6810174</v>
       </c>
       <c r="C354" t="s">
         <v>28</v>
@@ -31965,76 +31965,76 @@
         <v>45325.59375</v>
       </c>
       <c r="F354" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G354" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H354">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I354">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J354" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K354">
-        <v>3.2</v>
+        <v>1.909</v>
       </c>
       <c r="L354">
+        <v>3.75</v>
+      </c>
+      <c r="M354">
         <v>3.5</v>
       </c>
-      <c r="M354">
-        <v>2.1</v>
-      </c>
       <c r="N354">
-        <v>3.4</v>
+        <v>1.909</v>
       </c>
       <c r="O354">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P354">
-        <v>2.05</v>
+        <v>3.8</v>
       </c>
       <c r="Q354">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R354">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S354">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T354">
         <v>2.5</v>
       </c>
       <c r="U354">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V354">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W354">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X354">
         <v>-1</v>
       </c>
       <c r="Y354">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z354">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA354">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB354">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC354">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="355" spans="1:29">
@@ -32042,7 +32042,7 @@
         <v>353</v>
       </c>
       <c r="B355">
-        <v>6810174</v>
+        <v>6810171</v>
       </c>
       <c r="C355" t="s">
         <v>28</v>
@@ -32054,76 +32054,76 @@
         <v>45325.59375</v>
       </c>
       <c r="F355" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G355" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H355">
+        <v>1</v>
+      </c>
+      <c r="I355">
         <v>0</v>
       </c>
-      <c r="I355">
-        <v>3</v>
-      </c>
       <c r="J355" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K355">
-        <v>1.909</v>
+        <v>3.2</v>
       </c>
       <c r="L355">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M355">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="N355">
-        <v>1.909</v>
+        <v>3.4</v>
       </c>
       <c r="O355">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P355">
-        <v>3.8</v>
+        <v>2.05</v>
       </c>
       <c r="Q355">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R355">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S355">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T355">
         <v>2.5</v>
       </c>
       <c r="U355">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V355">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W355">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X355">
         <v>-1</v>
       </c>
       <c r="Y355">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z355">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA355">
+        <v>-1</v>
+      </c>
+      <c r="AB355">
+        <v>-1</v>
+      </c>
+      <c r="AC355">
         <v>0.925</v>
-      </c>
-      <c r="AB355">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC355">
-        <v>-1</v>
       </c>
     </row>
     <row r="356" spans="1:29">
@@ -32499,7 +32499,7 @@
         <v>45326.63541666666</v>
       </c>
       <c r="F360" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G360" t="s">
         <v>46</v>
@@ -33214,7 +33214,7 @@
         <v>42</v>
       </c>
       <c r="G368" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H368">
         <v>1</v>
@@ -33656,7 +33656,7 @@
         <v>45340.39583333334</v>
       </c>
       <c r="F373" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G373" t="s">
         <v>41</v>
@@ -34116,31 +34116,31 @@
         <v>2.4</v>
       </c>
       <c r="N378">
-        <v>2.75</v>
+        <v>2.625</v>
       </c>
       <c r="O378">
         <v>3.4</v>
       </c>
       <c r="P378">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="Q378">
         <v>0</v>
       </c>
       <c r="R378">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S378">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T378">
         <v>2.5</v>
       </c>
       <c r="U378">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V378">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W378">
         <v>0</v>
@@ -34193,28 +34193,28 @@
         <v>2.05</v>
       </c>
       <c r="O379">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P379">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="Q379">
         <v>-0.5</v>
       </c>
       <c r="R379">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S379">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T379">
         <v>2.5</v>
       </c>
       <c r="U379">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V379">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W379">
         <v>0</v>
@@ -34264,31 +34264,31 @@
         <v>5</v>
       </c>
       <c r="N380">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="O380">
         <v>3.8</v>
       </c>
       <c r="P380">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q380">
         <v>-0.75</v>
       </c>
       <c r="R380">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S380">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="T380">
         <v>2.5</v>
       </c>
       <c r="U380">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V380">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W380">
         <v>0</v>
@@ -34338,22 +34338,22 @@
         <v>5</v>
       </c>
       <c r="N381">
-        <v>1.666</v>
+        <v>1.727</v>
       </c>
       <c r="O381">
         <v>3.75</v>
       </c>
       <c r="P381">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="Q381">
         <v>-0.75</v>
       </c>
       <c r="R381">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S381">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T381">
         <v>2.75</v>
@@ -34498,10 +34498,10 @@
         <v>-1.25</v>
       </c>
       <c r="R383">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S383">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T383">
         <v>2.75</v>
@@ -34548,7 +34548,7 @@
         <v>30</v>
       </c>
       <c r="G384" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K384">
         <v>5</v>
@@ -34572,10 +34572,10 @@
         <v>0.75</v>
       </c>
       <c r="R384">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S384">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T384">
         <v>2.75</v>

--- a/Belgium First Division A/Belgium First Division A.xlsx
+++ b/Belgium First Division A/Belgium First Division A.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1936" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1939" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -109,10 +109,10 @@
     <t>Eupen</t>
   </si>
   <si>
-    <t>Cercle Brugge</t>
+    <t>KV Oostende</t>
   </si>
   <si>
-    <t>KV Oostende</t>
+    <t>Cercle Brugge</t>
   </si>
   <si>
     <t>Antwerp</t>
@@ -803,7 +803,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5208691</v>
+        <v>5208561</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -818,46 +818,46 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J4" t="s">
         <v>49</v>
       </c>
       <c r="K4">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="L4">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M4">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="N4">
-        <v>2.15</v>
+        <v>1.7</v>
       </c>
       <c r="O4">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P4">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="Q4">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R4">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S4">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T4">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U4">
         <v>1.925</v>
@@ -872,19 +872,19 @@
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="Z4">
         <v>-1</v>
       </c>
       <c r="AA4">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB4">
         <v>0.925</v>
       </c>
-      <c r="AB4">
-        <v>-1</v>
-      </c>
       <c r="AC4">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -892,7 +892,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5208561</v>
+        <v>5208691</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -907,46 +907,46 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
         <v>1</v>
-      </c>
-      <c r="I5">
-        <v>2</v>
       </c>
       <c r="J5" t="s">
         <v>49</v>
       </c>
       <c r="K5">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="L5">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M5">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="N5">
-        <v>1.7</v>
+        <v>2.15</v>
       </c>
       <c r="O5">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P5">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="Q5">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R5">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S5">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T5">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U5">
         <v>1.925</v>
@@ -961,19 +961,19 @@
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="Z5">
         <v>-1</v>
       </c>
       <c r="AA5">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB5">
+        <v>-1</v>
+      </c>
+      <c r="AC5">
         <v>0.925</v>
-      </c>
-      <c r="AC5">
-        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1619,7 +1619,7 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H13">
         <v>2</v>
@@ -2153,7 +2153,7 @@
         <v>44</v>
       </c>
       <c r="G19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H19">
         <v>2</v>
@@ -2506,7 +2506,7 @@
         <v>44944.60416666666</v>
       </c>
       <c r="F23" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G23" t="s">
         <v>43</v>
@@ -2595,7 +2595,7 @@
         <v>44944.60416666666</v>
       </c>
       <c r="F24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G24" t="s">
         <v>33</v>
@@ -2672,7 +2672,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5208568</v>
+        <v>5208569</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2684,73 +2684,73 @@
         <v>44944.69791666666</v>
       </c>
       <c r="F25" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G25" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J25" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K25">
-        <v>1.4</v>
+        <v>1.85</v>
       </c>
       <c r="L25">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M25">
-        <v>6.5</v>
+        <v>3.8</v>
       </c>
       <c r="N25">
-        <v>1.7</v>
+        <v>1.666</v>
       </c>
       <c r="O25">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P25">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="Q25">
         <v>-0.75</v>
       </c>
       <c r="R25">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S25">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T25">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U25">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V25">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W25">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X25">
         <v>-1</v>
       </c>
       <c r="Y25">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z25">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA25">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AB25">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC25">
         <v>-1</v>
@@ -2761,7 +2761,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>5208569</v>
+        <v>5208568</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2773,73 +2773,73 @@
         <v>44944.69791666666</v>
       </c>
       <c r="F26" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G26" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H26">
+        <v>2</v>
+      </c>
+      <c r="I26">
         <v>3</v>
       </c>
-      <c r="I26">
-        <v>2</v>
-      </c>
       <c r="J26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K26">
-        <v>1.85</v>
+        <v>1.4</v>
       </c>
       <c r="L26">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M26">
-        <v>3.8</v>
+        <v>6.5</v>
       </c>
       <c r="N26">
-        <v>1.666</v>
+        <v>1.7</v>
       </c>
       <c r="O26">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P26">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="Q26">
         <v>-0.75</v>
       </c>
       <c r="R26">
+        <v>1.925</v>
+      </c>
+      <c r="S26">
+        <v>1.925</v>
+      </c>
+      <c r="T26">
+        <v>2.75</v>
+      </c>
+      <c r="U26">
+        <v>1.975</v>
+      </c>
+      <c r="V26">
         <v>1.875</v>
       </c>
-      <c r="S26">
-        <v>1.975</v>
-      </c>
-      <c r="T26">
-        <v>2.5</v>
-      </c>
-      <c r="U26">
-        <v>1.95</v>
-      </c>
-      <c r="V26">
-        <v>1.9</v>
-      </c>
       <c r="W26">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X26">
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z26">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA26">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB26">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC26">
         <v>-1</v>
@@ -3117,7 +3117,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>5208577</v>
+        <v>5208575</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3129,40 +3129,40 @@
         <v>44947.59375</v>
       </c>
       <c r="F30" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G30" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I30">
         <v>2</v>
       </c>
       <c r="J30" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K30">
-        <v>2.625</v>
+        <v>1.95</v>
       </c>
       <c r="L30">
+        <v>3.5</v>
+      </c>
+      <c r="M30">
         <v>3.4</v>
       </c>
-      <c r="M30">
-        <v>2.4</v>
-      </c>
       <c r="N30">
-        <v>3.2</v>
+        <v>1.75</v>
       </c>
       <c r="O30">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P30">
-        <v>2.05</v>
+        <v>4</v>
       </c>
       <c r="Q30">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R30">
         <v>2.025</v>
@@ -3171,34 +3171,34 @@
         <v>1.825</v>
       </c>
       <c r="T30">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U30">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V30">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W30">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X30">
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z30">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA30">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB30">
-        <v>0.475</v>
+        <v>1</v>
       </c>
       <c r="AC30">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3206,7 +3206,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>5208575</v>
+        <v>5208577</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3218,40 +3218,40 @@
         <v>44947.59375</v>
       </c>
       <c r="F31" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G31" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="H31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I31">
         <v>2</v>
       </c>
       <c r="J31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K31">
-        <v>1.95</v>
+        <v>2.625</v>
       </c>
       <c r="L31">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M31">
+        <v>2.4</v>
+      </c>
+      <c r="N31">
+        <v>3.2</v>
+      </c>
+      <c r="O31">
         <v>3.4</v>
       </c>
-      <c r="N31">
-        <v>1.75</v>
-      </c>
-      <c r="O31">
-        <v>3.6</v>
-      </c>
       <c r="P31">
-        <v>4</v>
+        <v>2.05</v>
       </c>
       <c r="Q31">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R31">
         <v>2.025</v>
@@ -3260,34 +3260,34 @@
         <v>1.825</v>
       </c>
       <c r="T31">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U31">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V31">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W31">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X31">
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z31">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AA31">
+        <v>0.825</v>
+      </c>
+      <c r="AB31">
+        <v>0.475</v>
+      </c>
+      <c r="AC31">
         <v>-0.5</v>
-      </c>
-      <c r="AB31">
-        <v>1</v>
-      </c>
-      <c r="AC31">
-        <v>-1</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3918,7 +3918,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>5208580</v>
+        <v>5208579</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3930,34 +3930,34 @@
         <v>44954.59375</v>
       </c>
       <c r="F39" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G39" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J39" t="s">
         <v>48</v>
       </c>
       <c r="K39">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="L39">
         <v>3.4</v>
       </c>
       <c r="M39">
+        <v>3</v>
+      </c>
+      <c r="N39">
+        <v>2.2</v>
+      </c>
+      <c r="O39">
         <v>3.2</v>
-      </c>
-      <c r="N39">
-        <v>2.1</v>
-      </c>
-      <c r="O39">
-        <v>3.4</v>
       </c>
       <c r="P39">
         <v>3.1</v>
@@ -3966,25 +3966,25 @@
         <v>-0.25</v>
       </c>
       <c r="R39">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S39">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T39">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U39">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V39">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W39">
         <v>-1</v>
       </c>
       <c r="X39">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="Y39">
         <v>-1</v>
@@ -3993,13 +3993,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA39">
-        <v>0.475</v>
+        <v>0.4375</v>
       </c>
       <c r="AB39">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC39">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4007,7 +4007,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>5208579</v>
+        <v>5208580</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4019,34 +4019,34 @@
         <v>44954.59375</v>
       </c>
       <c r="F40" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J40" t="s">
         <v>48</v>
       </c>
       <c r="K40">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="L40">
         <v>3.4</v>
       </c>
       <c r="M40">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="N40">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="O40">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P40">
         <v>3.1</v>
@@ -4055,25 +4055,25 @@
         <v>-0.25</v>
       </c>
       <c r="R40">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S40">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T40">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U40">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V40">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W40">
         <v>-1</v>
       </c>
       <c r="X40">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="Y40">
         <v>-1</v>
@@ -4082,13 +4082,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA40">
-        <v>0.4375</v>
+        <v>0.475</v>
       </c>
       <c r="AB40">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC40">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4286,7 +4286,7 @@
         <v>44955.5</v>
       </c>
       <c r="F43" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G43" t="s">
         <v>42</v>
@@ -4642,7 +4642,7 @@
         <v>44960.69791666666</v>
       </c>
       <c r="F47" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G47" t="s">
         <v>36</v>
@@ -4731,7 +4731,7 @@
         <v>44961.5</v>
       </c>
       <c r="F48" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G48" t="s">
         <v>29</v>
@@ -5446,7 +5446,7 @@
         <v>37</v>
       </c>
       <c r="G56" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -6158,7 +6158,7 @@
         <v>35</v>
       </c>
       <c r="G64" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H64">
         <v>1</v>
@@ -6511,7 +6511,7 @@
         <v>44975.59375</v>
       </c>
       <c r="F68" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G68" t="s">
         <v>44</v>
@@ -6689,7 +6689,7 @@
         <v>44976.39583333334</v>
       </c>
       <c r="F70" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G70" t="s">
         <v>41</v>
@@ -7211,7 +7211,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>5208727</v>
+        <v>5208597</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7223,76 +7223,76 @@
         <v>44982.59375</v>
       </c>
       <c r="F76" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G76" t="s">
         <v>31</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I76">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J76" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K76">
-        <v>3.25</v>
+        <v>1.333</v>
       </c>
       <c r="L76">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="M76">
-        <v>2.1</v>
+        <v>7.5</v>
       </c>
       <c r="N76">
-        <v>4</v>
+        <v>1.4</v>
       </c>
       <c r="O76">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="P76">
-        <v>1.909</v>
+        <v>6.5</v>
       </c>
       <c r="Q76">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R76">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S76">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T76">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U76">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V76">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W76">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X76">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y76">
         <v>-1</v>
       </c>
       <c r="Z76">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA76">
         <v>-1</v>
       </c>
       <c r="AB76">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC76">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7300,7 +7300,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>5208597</v>
+        <v>5208727</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7312,76 +7312,76 @@
         <v>44982.59375</v>
       </c>
       <c r="F77" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G77" t="s">
         <v>32</v>
       </c>
       <c r="H77">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I77">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J77" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K77">
-        <v>1.333</v>
+        <v>3.25</v>
       </c>
       <c r="L77">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="M77">
-        <v>7.5</v>
+        <v>2.1</v>
       </c>
       <c r="N77">
-        <v>1.4</v>
+        <v>4</v>
       </c>
       <c r="O77">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="P77">
-        <v>6.5</v>
+        <v>1.909</v>
       </c>
       <c r="Q77">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R77">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S77">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T77">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U77">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V77">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W77">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X77">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y77">
         <v>-1</v>
       </c>
       <c r="Z77">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA77">
         <v>-1</v>
       </c>
       <c r="AB77">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC77">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7846,7 +7846,7 @@
         <v>44988.69791666666</v>
       </c>
       <c r="F83" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G83" t="s">
         <v>41</v>
@@ -8012,7 +8012,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>5208601</v>
+        <v>5208603</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8024,58 +8024,58 @@
         <v>44989.59375</v>
       </c>
       <c r="F85" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G85" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H85">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J85" t="s">
         <v>50</v>
       </c>
       <c r="K85">
-        <v>1.85</v>
+        <v>1.444</v>
       </c>
       <c r="L85">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M85">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="N85">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="O85">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="P85">
-        <v>3.3</v>
+        <v>10</v>
       </c>
       <c r="Q85">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R85">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S85">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T85">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U85">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V85">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W85">
-        <v>1.1</v>
+        <v>0.3</v>
       </c>
       <c r="X85">
         <v>-1</v>
@@ -8084,13 +8084,13 @@
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA85">
         <v>-1</v>
       </c>
       <c r="AB85">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC85">
         <v>-1</v>
@@ -8101,7 +8101,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>5208603</v>
+        <v>5208601</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8113,58 +8113,58 @@
         <v>44989.59375</v>
       </c>
       <c r="F86" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G86" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H86">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J86" t="s">
         <v>50</v>
       </c>
       <c r="K86">
-        <v>1.444</v>
+        <v>1.85</v>
       </c>
       <c r="L86">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M86">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="N86">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="O86">
-        <v>5.25</v>
+        <v>3.4</v>
       </c>
       <c r="P86">
-        <v>10</v>
+        <v>3.3</v>
       </c>
       <c r="Q86">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R86">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S86">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T86">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U86">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V86">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W86">
-        <v>0.3</v>
+        <v>1.1</v>
       </c>
       <c r="X86">
         <v>-1</v>
@@ -8173,13 +8173,13 @@
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA86">
         <v>-1</v>
       </c>
       <c r="AB86">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC86">
         <v>-1</v>
@@ -8813,7 +8813,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>5208610</v>
+        <v>5208609</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8825,73 +8825,73 @@
         <v>44996.59375</v>
       </c>
       <c r="F94" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G94" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="H94">
+        <v>3</v>
+      </c>
+      <c r="I94">
+        <v>1</v>
+      </c>
+      <c r="J94" t="s">
+        <v>50</v>
+      </c>
+      <c r="K94">
+        <v>1.615</v>
+      </c>
+      <c r="L94">
         <v>4</v>
       </c>
-      <c r="I94">
+      <c r="M94">
+        <v>4.75</v>
+      </c>
+      <c r="N94">
+        <v>1.615</v>
+      </c>
+      <c r="O94">
         <v>4</v>
       </c>
-      <c r="J94" t="s">
-        <v>48</v>
-      </c>
-      <c r="K94">
-        <v>2.25</v>
-      </c>
-      <c r="L94">
-        <v>3.4</v>
-      </c>
-      <c r="M94">
-        <v>2.9</v>
-      </c>
-      <c r="N94">
-        <v>2.5</v>
-      </c>
-      <c r="O94">
-        <v>3.4</v>
-      </c>
       <c r="P94">
-        <v>2.6</v>
+        <v>4.5</v>
       </c>
       <c r="Q94">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R94">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S94">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T94">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U94">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V94">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W94">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X94">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y94">
         <v>-1</v>
       </c>
       <c r="Z94">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AA94">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB94">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AC94">
         <v>-1</v>
@@ -8902,7 +8902,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>5208609</v>
+        <v>5208610</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8914,73 +8914,73 @@
         <v>44996.59375</v>
       </c>
       <c r="F95" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G95" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H95">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I95">
+        <v>4</v>
+      </c>
+      <c r="J95" t="s">
+        <v>48</v>
+      </c>
+      <c r="K95">
+        <v>2.25</v>
+      </c>
+      <c r="L95">
+        <v>3.4</v>
+      </c>
+      <c r="M95">
+        <v>2.9</v>
+      </c>
+      <c r="N95">
+        <v>2.5</v>
+      </c>
+      <c r="O95">
+        <v>3.4</v>
+      </c>
+      <c r="P95">
+        <v>2.6</v>
+      </c>
+      <c r="Q95">
+        <v>0</v>
+      </c>
+      <c r="R95">
+        <v>1.875</v>
+      </c>
+      <c r="S95">
+        <v>1.975</v>
+      </c>
+      <c r="T95">
+        <v>2.75</v>
+      </c>
+      <c r="U95">
+        <v>2</v>
+      </c>
+      <c r="V95">
+        <v>1.85</v>
+      </c>
+      <c r="W95">
+        <v>-1</v>
+      </c>
+      <c r="X95">
+        <v>2.4</v>
+      </c>
+      <c r="Y95">
+        <v>-1</v>
+      </c>
+      <c r="Z95">
+        <v>0</v>
+      </c>
+      <c r="AA95">
+        <v>-0</v>
+      </c>
+      <c r="AB95">
         <v>1</v>
-      </c>
-      <c r="J95" t="s">
-        <v>50</v>
-      </c>
-      <c r="K95">
-        <v>1.615</v>
-      </c>
-      <c r="L95">
-        <v>4</v>
-      </c>
-      <c r="M95">
-        <v>4.75</v>
-      </c>
-      <c r="N95">
-        <v>1.615</v>
-      </c>
-      <c r="O95">
-        <v>4</v>
-      </c>
-      <c r="P95">
-        <v>4.5</v>
-      </c>
-      <c r="Q95">
-        <v>-1</v>
-      </c>
-      <c r="R95">
-        <v>2.05</v>
-      </c>
-      <c r="S95">
-        <v>1.8</v>
-      </c>
-      <c r="T95">
-        <v>3</v>
-      </c>
-      <c r="U95">
-        <v>1.95</v>
-      </c>
-      <c r="V95">
-        <v>1.9</v>
-      </c>
-      <c r="W95">
-        <v>0.615</v>
-      </c>
-      <c r="X95">
-        <v>-1</v>
-      </c>
-      <c r="Y95">
-        <v>-1</v>
-      </c>
-      <c r="Z95">
-        <v>1.05</v>
-      </c>
-      <c r="AA95">
-        <v>-1</v>
-      </c>
-      <c r="AB95">
-        <v>0.95</v>
       </c>
       <c r="AC95">
         <v>-1</v>
@@ -9362,7 +9362,7 @@
         <v>36</v>
       </c>
       <c r="G100" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H100">
         <v>2</v>
@@ -9448,7 +9448,7 @@
         <v>45002.69791666666</v>
       </c>
       <c r="F101" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G101" t="s">
         <v>34</v>
@@ -9614,7 +9614,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>5208613</v>
+        <v>5208612</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9626,76 +9626,76 @@
         <v>45003.59375</v>
       </c>
       <c r="F103" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G103" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H103">
+        <v>2</v>
+      </c>
+      <c r="I103">
         <v>1</v>
       </c>
-      <c r="I103">
-        <v>2</v>
-      </c>
       <c r="J103" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K103">
-        <v>3.3</v>
+        <v>1.45</v>
       </c>
       <c r="L103">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M103">
-        <v>2.05</v>
+        <v>6</v>
       </c>
       <c r="N103">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
       <c r="O103">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P103">
-        <v>2.3</v>
+        <v>6.5</v>
       </c>
       <c r="Q103">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R103">
+        <v>2</v>
+      </c>
+      <c r="S103">
         <v>1.85</v>
       </c>
-      <c r="S103">
-        <v>2</v>
-      </c>
       <c r="T103">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U103">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V103">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W103">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X103">
         <v>-1</v>
       </c>
       <c r="Y103">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z103">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA103">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="AB103">
-        <v>0.45</v>
+        <v>1.025</v>
       </c>
       <c r="AC103">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9703,7 +9703,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>5208612</v>
+        <v>5208613</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9715,76 +9715,76 @@
         <v>45003.59375</v>
       </c>
       <c r="F104" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G104" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I104">
+        <v>2</v>
+      </c>
+      <c r="J104" t="s">
+        <v>49</v>
+      </c>
+      <c r="K104">
+        <v>3.3</v>
+      </c>
+      <c r="L104">
+        <v>3.3</v>
+      </c>
+      <c r="M104">
+        <v>2.05</v>
+      </c>
+      <c r="N104">
+        <v>2.8</v>
+      </c>
+      <c r="O104">
+        <v>3.3</v>
+      </c>
+      <c r="P104">
+        <v>2.3</v>
+      </c>
+      <c r="Q104">
+        <v>0.25</v>
+      </c>
+      <c r="R104">
+        <v>1.85</v>
+      </c>
+      <c r="S104">
+        <v>2</v>
+      </c>
+      <c r="T104">
+        <v>2.75</v>
+      </c>
+      <c r="U104">
+        <v>1.9</v>
+      </c>
+      <c r="V104">
+        <v>1.95</v>
+      </c>
+      <c r="W104">
+        <v>-1</v>
+      </c>
+      <c r="X104">
+        <v>-1</v>
+      </c>
+      <c r="Y104">
+        <v>1.3</v>
+      </c>
+      <c r="Z104">
+        <v>-1</v>
+      </c>
+      <c r="AA104">
         <v>1</v>
       </c>
-      <c r="J104" t="s">
-        <v>50</v>
-      </c>
-      <c r="K104">
-        <v>1.45</v>
-      </c>
-      <c r="L104">
-        <v>4</v>
-      </c>
-      <c r="M104">
-        <v>6</v>
-      </c>
-      <c r="N104">
-        <v>1.5</v>
-      </c>
-      <c r="O104">
-        <v>3.75</v>
-      </c>
-      <c r="P104">
-        <v>6.5</v>
-      </c>
-      <c r="Q104">
-        <v>-1</v>
-      </c>
-      <c r="R104">
-        <v>2</v>
-      </c>
-      <c r="S104">
-        <v>1.85</v>
-      </c>
-      <c r="T104">
-        <v>2.25</v>
-      </c>
-      <c r="U104">
-        <v>2.025</v>
-      </c>
-      <c r="V104">
-        <v>1.825</v>
-      </c>
-      <c r="W104">
-        <v>0.5</v>
-      </c>
-      <c r="X104">
-        <v>-1</v>
-      </c>
-      <c r="Y104">
-        <v>-1</v>
-      </c>
-      <c r="Z104">
-        <v>0</v>
-      </c>
-      <c r="AA104">
-        <v>-0</v>
-      </c>
       <c r="AB104">
-        <v>1.025</v>
+        <v>0.45</v>
       </c>
       <c r="AC104">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -10338,7 +10338,7 @@
         <v>45017.45833333334</v>
       </c>
       <c r="F111" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G111" t="s">
         <v>45</v>
@@ -10415,7 +10415,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>5351637</v>
+        <v>5356593</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10427,55 +10427,55 @@
         <v>45017.55208333334</v>
       </c>
       <c r="F112" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G112" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J112" t="s">
         <v>49</v>
       </c>
       <c r="K112">
-        <v>6.5</v>
+        <v>2</v>
       </c>
       <c r="L112">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M112">
-        <v>1.444</v>
+        <v>3.25</v>
       </c>
       <c r="N112">
-        <v>9.5</v>
+        <v>2.1</v>
       </c>
       <c r="O112">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P112">
-        <v>1.285</v>
+        <v>3.1</v>
       </c>
       <c r="Q112">
-        <v>1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R112">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S112">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T112">
         <v>2.75</v>
       </c>
       <c r="U112">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V112">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W112">
         <v>-1</v>
@@ -10484,16 +10484,16 @@
         <v>-1</v>
       </c>
       <c r="Y112">
-        <v>0.2849999999999999</v>
+        <v>2.1</v>
       </c>
       <c r="Z112">
         <v>-1</v>
       </c>
       <c r="AA112">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB112">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AC112">
         <v>-1</v>
@@ -10504,7 +10504,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>5356593</v>
+        <v>5351637</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10516,55 +10516,55 @@
         <v>45017.55208333334</v>
       </c>
       <c r="F113" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G113" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J113" t="s">
         <v>49</v>
       </c>
       <c r="K113">
-        <v>2</v>
+        <v>6.5</v>
       </c>
       <c r="L113">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M113">
-        <v>3.25</v>
+        <v>1.444</v>
       </c>
       <c r="N113">
-        <v>2.1</v>
+        <v>9.5</v>
       </c>
       <c r="O113">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P113">
-        <v>3.1</v>
+        <v>1.285</v>
       </c>
       <c r="Q113">
-        <v>-0.25</v>
+        <v>1.5</v>
       </c>
       <c r="R113">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S113">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T113">
         <v>2.75</v>
       </c>
       <c r="U113">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V113">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W113">
         <v>-1</v>
@@ -10573,16 +10573,16 @@
         <v>-1</v>
       </c>
       <c r="Y113">
-        <v>2.1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="Z113">
         <v>-1</v>
       </c>
       <c r="AA113">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB113">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC113">
         <v>-1</v>
@@ -10605,7 +10605,7 @@
         <v>45017.65625</v>
       </c>
       <c r="F114" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G114" t="s">
         <v>29</v>
@@ -11587,7 +11587,7 @@
         <v>33</v>
       </c>
       <c r="G125" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H125">
         <v>2</v>
@@ -11765,7 +11765,7 @@
         <v>46</v>
       </c>
       <c r="G127" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H127">
         <v>5</v>
@@ -12017,7 +12017,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>5424406</v>
+        <v>5424405</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12032,70 +12032,70 @@
         <v>32</v>
       </c>
       <c r="G130" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I130">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J130" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K130">
-        <v>2.4</v>
+        <v>1.75</v>
       </c>
       <c r="L130">
         <v>3.5</v>
       </c>
       <c r="M130">
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="N130">
-        <v>2.4</v>
+        <v>1.65</v>
       </c>
       <c r="O130">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P130">
-        <v>2.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q130">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R130">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S130">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T130">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U130">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V130">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W130">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X130">
         <v>-1</v>
       </c>
       <c r="Y130">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z130">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA130">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB130">
-        <v>1.025</v>
+        <v>1</v>
       </c>
       <c r="AC130">
         <v>-1</v>
@@ -12106,7 +12106,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>5424405</v>
+        <v>5424406</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12121,70 +12121,70 @@
         <v>31</v>
       </c>
       <c r="G131" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H131">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I131">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J131" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K131">
-        <v>1.75</v>
+        <v>2.4</v>
       </c>
       <c r="L131">
         <v>3.5</v>
       </c>
       <c r="M131">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="N131">
-        <v>1.65</v>
+        <v>2.4</v>
       </c>
       <c r="O131">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P131">
-        <v>5.25</v>
+        <v>2.75</v>
       </c>
       <c r="Q131">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R131">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S131">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T131">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U131">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V131">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W131">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X131">
         <v>-1</v>
       </c>
       <c r="Y131">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z131">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA131">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB131">
-        <v>1</v>
+        <v>1.025</v>
       </c>
       <c r="AC131">
         <v>-1</v>
@@ -12833,7 +12833,7 @@
         <v>42</v>
       </c>
       <c r="G139" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H139">
         <v>1</v>
@@ -12907,7 +12907,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6389865</v>
+        <v>6389819</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12919,73 +12919,73 @@
         <v>45039.5625</v>
       </c>
       <c r="F140" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G140" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H140">
         <v>2</v>
       </c>
       <c r="I140">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J140" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K140">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="L140">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M140">
+        <v>1.533</v>
+      </c>
+      <c r="N140">
+        <v>6.5</v>
+      </c>
+      <c r="O140">
+        <v>4.75</v>
+      </c>
+      <c r="P140">
+        <v>1.4</v>
+      </c>
+      <c r="Q140">
+        <v>1.25</v>
+      </c>
+      <c r="R140">
+        <v>1.9</v>
+      </c>
+      <c r="S140">
         <v>1.95</v>
       </c>
-      <c r="N140">
-        <v>2.8</v>
-      </c>
-      <c r="O140">
-        <v>3.5</v>
-      </c>
-      <c r="P140">
-        <v>2.3</v>
-      </c>
-      <c r="Q140">
-        <v>0.25</v>
-      </c>
-      <c r="R140">
-        <v>1.8</v>
-      </c>
-      <c r="S140">
-        <v>2.05</v>
-      </c>
       <c r="T140">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U140">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V140">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W140">
         <v>-1</v>
       </c>
       <c r="X140">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y140">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z140">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA140">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB140">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AC140">
         <v>-1</v>
@@ -13085,7 +13085,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6389819</v>
+        <v>6389865</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13097,73 +13097,73 @@
         <v>45039.5625</v>
       </c>
       <c r="F142" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G142" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H142">
         <v>2</v>
       </c>
       <c r="I142">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J142" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K142">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="L142">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M142">
-        <v>1.533</v>
+        <v>1.95</v>
       </c>
       <c r="N142">
-        <v>6.5</v>
+        <v>2.8</v>
       </c>
       <c r="O142">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P142">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="Q142">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R142">
+        <v>1.8</v>
+      </c>
+      <c r="S142">
+        <v>2.05</v>
+      </c>
+      <c r="T142">
+        <v>3</v>
+      </c>
+      <c r="U142">
+        <v>1.95</v>
+      </c>
+      <c r="V142">
         <v>1.9</v>
       </c>
-      <c r="S142">
-        <v>1.95</v>
-      </c>
-      <c r="T142">
-        <v>3.25</v>
-      </c>
-      <c r="U142">
-        <v>2</v>
-      </c>
-      <c r="V142">
-        <v>1.85</v>
-      </c>
       <c r="W142">
         <v>-1</v>
       </c>
       <c r="X142">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y142">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z142">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA142">
+        <v>-0.5</v>
+      </c>
+      <c r="AB142">
         <v>0.95</v>
-      </c>
-      <c r="AB142">
-        <v>1</v>
       </c>
       <c r="AC142">
         <v>-1</v>
@@ -13189,7 +13189,7 @@
         <v>35</v>
       </c>
       <c r="G143" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H143">
         <v>2</v>
@@ -13263,7 +13263,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6390693</v>
+        <v>6390442</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13275,58 +13275,58 @@
         <v>45039.5625</v>
       </c>
       <c r="F144" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G144" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H144">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I144">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J144" t="s">
         <v>50</v>
       </c>
       <c r="K144">
-        <v>2.5</v>
+        <v>1.333</v>
       </c>
       <c r="L144">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M144">
-        <v>2.45</v>
+        <v>8</v>
       </c>
       <c r="N144">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="O144">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="P144">
-        <v>2.45</v>
+        <v>8.5</v>
       </c>
       <c r="Q144">
-        <v>0</v>
+        <v>-1.75</v>
       </c>
       <c r="R144">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S144">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T144">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U144">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V144">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W144">
-        <v>1.4</v>
+        <v>0.3</v>
       </c>
       <c r="X144">
         <v>-1</v>
@@ -13335,13 +13335,13 @@
         <v>-1</v>
       </c>
       <c r="Z144">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA144">
         <v>-1</v>
       </c>
       <c r="AB144">
-        <v>1</v>
+        <v>1.025</v>
       </c>
       <c r="AC144">
         <v>-1</v>
@@ -13352,7 +13352,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6390442</v>
+        <v>6390693</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13364,58 +13364,58 @@
         <v>45039.5625</v>
       </c>
       <c r="F145" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G145" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H145">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I145">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J145" t="s">
         <v>50</v>
       </c>
       <c r="K145">
-        <v>1.333</v>
+        <v>2.5</v>
       </c>
       <c r="L145">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M145">
-        <v>8</v>
+        <v>2.45</v>
       </c>
       <c r="N145">
-        <v>1.3</v>
+        <v>2.4</v>
       </c>
       <c r="O145">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="P145">
-        <v>8.5</v>
+        <v>2.45</v>
       </c>
       <c r="Q145">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="R145">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S145">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T145">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U145">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V145">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W145">
-        <v>0.3</v>
+        <v>1.4</v>
       </c>
       <c r="X145">
         <v>-1</v>
@@ -13424,13 +13424,13 @@
         <v>-1</v>
       </c>
       <c r="Z145">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA145">
         <v>-1</v>
       </c>
       <c r="AB145">
-        <v>1.025</v>
+        <v>1</v>
       </c>
       <c r="AC145">
         <v>-1</v>
@@ -13542,7 +13542,7 @@
         <v>45045.55208333334</v>
       </c>
       <c r="F147" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G147" t="s">
         <v>29</v>
@@ -13990,7 +13990,7 @@
         <v>38</v>
       </c>
       <c r="G152" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H152">
         <v>3</v>
@@ -14165,7 +14165,7 @@
         <v>45059.55208333334</v>
       </c>
       <c r="F154" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G154" t="s">
         <v>42</v>
@@ -14613,7 +14613,7 @@
         <v>42</v>
       </c>
       <c r="G159" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H159">
         <v>2</v>
@@ -14969,7 +14969,7 @@
         <v>29</v>
       </c>
       <c r="G163" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H163">
         <v>0</v>
@@ -15221,7 +15221,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6576986</v>
+        <v>6576985</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15233,58 +15233,58 @@
         <v>45080.64583333334</v>
       </c>
       <c r="F166" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G166" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H166">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I166">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J166" t="s">
         <v>50</v>
       </c>
       <c r="K166">
-        <v>1.5</v>
+        <v>1.727</v>
       </c>
       <c r="L166">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="M166">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="N166">
-        <v>1.363</v>
+        <v>1.45</v>
       </c>
       <c r="O166">
+        <v>5</v>
+      </c>
+      <c r="P166">
         <v>5.75</v>
       </c>
-      <c r="P166">
-        <v>6.5</v>
-      </c>
       <c r="Q166">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R166">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S166">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T166">
         <v>3.5</v>
       </c>
       <c r="U166">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V166">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W166">
-        <v>0.363</v>
+        <v>0.45</v>
       </c>
       <c r="X166">
         <v>-1</v>
@@ -15293,16 +15293,16 @@
         <v>-1</v>
       </c>
       <c r="Z166">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AA166">
         <v>-1</v>
       </c>
       <c r="AB166">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC166">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15310,7 +15310,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6576985</v>
+        <v>6576986</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15322,58 +15322,58 @@
         <v>45080.64583333334</v>
       </c>
       <c r="F167" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G167" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J167" t="s">
         <v>50</v>
       </c>
       <c r="K167">
-        <v>1.727</v>
+        <v>1.5</v>
       </c>
       <c r="L167">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="M167">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="N167">
-        <v>1.45</v>
+        <v>1.363</v>
       </c>
       <c r="O167">
-        <v>5</v>
+        <v>5.75</v>
       </c>
       <c r="P167">
-        <v>5.75</v>
+        <v>6.5</v>
       </c>
       <c r="Q167">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R167">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S167">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T167">
         <v>3.5</v>
       </c>
       <c r="U167">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V167">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W167">
-        <v>0.45</v>
+        <v>0.363</v>
       </c>
       <c r="X167">
         <v>-1</v>
@@ -15382,16 +15382,16 @@
         <v>-1</v>
       </c>
       <c r="Z167">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AA167">
         <v>-1</v>
       </c>
       <c r="AB167">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC167">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15948,7 +15948,7 @@
         <v>33</v>
       </c>
       <c r="G174" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H174">
         <v>1</v>
@@ -16479,7 +16479,7 @@
         <v>45143.55208333334</v>
       </c>
       <c r="F180" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G180" t="s">
         <v>44</v>
@@ -17357,7 +17357,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>6810007</v>
+        <v>7030334</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17369,55 +17369,55 @@
         <v>45151.45833333334</v>
       </c>
       <c r="F190" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G190" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H190">
         <v>0</v>
       </c>
       <c r="I190">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J190" t="s">
         <v>49</v>
       </c>
       <c r="K190">
-        <v>4.75</v>
+        <v>2.75</v>
       </c>
       <c r="L190">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M190">
-        <v>1.571</v>
+        <v>2.25</v>
       </c>
       <c r="N190">
-        <v>7</v>
+        <v>2.4</v>
       </c>
       <c r="O190">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P190">
-        <v>1.333</v>
+        <v>2.55</v>
       </c>
       <c r="Q190">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="R190">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S190">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T190">
         <v>3</v>
       </c>
       <c r="U190">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V190">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W190">
         <v>-1</v>
@@ -17426,19 +17426,19 @@
         <v>-1</v>
       </c>
       <c r="Y190">
-        <v>0.333</v>
+        <v>1.55</v>
       </c>
       <c r="Z190">
         <v>-1</v>
       </c>
       <c r="AA190">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB190">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC190">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="191" spans="1:29">
@@ -17446,7 +17446,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>7030334</v>
+        <v>6810007</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17458,55 +17458,55 @@
         <v>45151.45833333334</v>
       </c>
       <c r="F191" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G191" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H191">
         <v>0</v>
       </c>
       <c r="I191">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J191" t="s">
         <v>49</v>
       </c>
       <c r="K191">
-        <v>2.75</v>
+        <v>4.75</v>
       </c>
       <c r="L191">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M191">
-        <v>2.25</v>
+        <v>1.571</v>
       </c>
       <c r="N191">
-        <v>2.4</v>
+        <v>7</v>
       </c>
       <c r="O191">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P191">
-        <v>2.55</v>
+        <v>1.333</v>
       </c>
       <c r="Q191">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="R191">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S191">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T191">
         <v>3</v>
       </c>
       <c r="U191">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V191">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W191">
         <v>-1</v>
@@ -17515,19 +17515,19 @@
         <v>-1</v>
       </c>
       <c r="Y191">
-        <v>1.55</v>
+        <v>0.333</v>
       </c>
       <c r="Z191">
         <v>-1</v>
       </c>
       <c r="AA191">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB191">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC191">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="192" spans="1:29">
@@ -17817,7 +17817,7 @@
         <v>29</v>
       </c>
       <c r="G195" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H195">
         <v>0</v>
@@ -18069,7 +18069,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>6810012</v>
+        <v>6810015</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18081,61 +18081,61 @@
         <v>45158.45833333334</v>
       </c>
       <c r="F198" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G198" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J198" t="s">
         <v>48</v>
       </c>
       <c r="K198">
+        <v>1.45</v>
+      </c>
+      <c r="L198">
+        <v>4.5</v>
+      </c>
+      <c r="M198">
+        <v>7</v>
+      </c>
+      <c r="N198">
         <v>1.533</v>
       </c>
-      <c r="L198">
+      <c r="O198">
         <v>4.2</v>
       </c>
-      <c r="M198">
-        <v>5.5</v>
-      </c>
-      <c r="N198">
-        <v>1.6</v>
-      </c>
-      <c r="O198">
-        <v>4</v>
-      </c>
       <c r="P198">
-        <v>5.25</v>
+        <v>6</v>
       </c>
       <c r="Q198">
         <v>-1</v>
       </c>
       <c r="R198">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S198">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T198">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U198">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V198">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W198">
         <v>-1</v>
       </c>
       <c r="X198">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Y198">
         <v>-1</v>
@@ -18144,13 +18144,13 @@
         <v>-1</v>
       </c>
       <c r="AA198">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AB198">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC198">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="199" spans="1:29">
@@ -18158,7 +18158,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>6810015</v>
+        <v>6810012</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18170,61 +18170,61 @@
         <v>45158.45833333334</v>
       </c>
       <c r="F199" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G199" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J199" t="s">
         <v>48</v>
       </c>
       <c r="K199">
-        <v>1.45</v>
+        <v>1.533</v>
       </c>
       <c r="L199">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="M199">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="N199">
-        <v>1.533</v>
+        <v>1.6</v>
       </c>
       <c r="O199">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P199">
-        <v>6</v>
+        <v>5.25</v>
       </c>
       <c r="Q199">
         <v>-1</v>
       </c>
       <c r="R199">
+        <v>1.975</v>
+      </c>
+      <c r="S199">
+        <v>1.875</v>
+      </c>
+      <c r="T199">
+        <v>3</v>
+      </c>
+      <c r="U199">
         <v>1.9</v>
       </c>
-      <c r="S199">
+      <c r="V199">
         <v>1.95</v>
       </c>
-      <c r="T199">
-        <v>2.5</v>
-      </c>
-      <c r="U199">
-        <v>1.8</v>
-      </c>
-      <c r="V199">
-        <v>2.05</v>
-      </c>
       <c r="W199">
         <v>-1</v>
       </c>
       <c r="X199">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Y199">
         <v>-1</v>
@@ -18233,13 +18233,13 @@
         <v>-1</v>
       </c>
       <c r="AA199">
+        <v>0.875</v>
+      </c>
+      <c r="AB199">
+        <v>-1</v>
+      </c>
+      <c r="AC199">
         <v>0.95</v>
-      </c>
-      <c r="AB199">
-        <v>0.8</v>
-      </c>
-      <c r="AC199">
-        <v>-1</v>
       </c>
     </row>
     <row r="200" spans="1:29">
@@ -18707,7 +18707,7 @@
         <v>46</v>
       </c>
       <c r="G205" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H205">
         <v>0</v>
@@ -18971,7 +18971,7 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F208" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G208" t="s">
         <v>38</v>
@@ -19686,7 +19686,7 @@
         <v>47</v>
       </c>
       <c r="G216" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H216">
         <v>2</v>
@@ -20751,7 +20751,7 @@
         <v>45193.45833333334</v>
       </c>
       <c r="F228" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G228" t="s">
         <v>43</v>
@@ -21288,7 +21288,7 @@
         <v>45</v>
       </c>
       <c r="G234" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H234">
         <v>2</v>
@@ -22086,7 +22086,7 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F243" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G243" t="s">
         <v>37</v>
@@ -23154,7 +23154,7 @@
         <v>45221.45833333334</v>
       </c>
       <c r="F255" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G255" t="s">
         <v>42</v>
@@ -23513,7 +23513,7 @@
         <v>40</v>
       </c>
       <c r="G259" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H259">
         <v>0</v>
@@ -24489,7 +24489,7 @@
         <v>45235.39583333334</v>
       </c>
       <c r="F270" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G270" t="s">
         <v>36</v>
@@ -25204,7 +25204,7 @@
         <v>41</v>
       </c>
       <c r="G278" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H278">
         <v>0</v>
@@ -25646,7 +25646,7 @@
         <v>45255.5</v>
       </c>
       <c r="F283" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G283" t="s">
         <v>30</v>
@@ -26895,7 +26895,7 @@
         <v>43</v>
       </c>
       <c r="G297" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H297">
         <v>2</v>
@@ -27070,7 +27070,7 @@
         <v>45269.5</v>
       </c>
       <c r="F299" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G299" t="s">
         <v>33</v>
@@ -27785,7 +27785,7 @@
         <v>37</v>
       </c>
       <c r="G307" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H307">
         <v>1</v>
@@ -28405,7 +28405,7 @@
         <v>45280.60416666666</v>
       </c>
       <c r="F314" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G314" t="s">
         <v>45</v>
@@ -28838,7 +28838,7 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>6810130</v>
+        <v>6810132</v>
       </c>
       <c r="C319" t="s">
         <v>28</v>
@@ -28850,76 +28850,76 @@
         <v>45283.59375</v>
       </c>
       <c r="F319" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="G319" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H319">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I319">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J319" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K319">
-        <v>1.363</v>
+        <v>2.2</v>
       </c>
       <c r="L319">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="M319">
-        <v>7.5</v>
+        <v>3.2</v>
       </c>
       <c r="N319">
-        <v>1.333</v>
+        <v>2.3</v>
       </c>
       <c r="O319">
-        <v>5.25</v>
+        <v>3.3</v>
       </c>
       <c r="P319">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="Q319">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R319">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S319">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T319">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U319">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V319">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W319">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X319">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Y319">
         <v>-1</v>
       </c>
       <c r="Z319">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA319">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB319">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC319">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320" spans="1:29">
@@ -28927,7 +28927,7 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>6810132</v>
+        <v>6810130</v>
       </c>
       <c r="C320" t="s">
         <v>28</v>
@@ -28939,76 +28939,76 @@
         <v>45283.59375</v>
       </c>
       <c r="F320" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G320" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H320">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I320">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J320" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K320">
-        <v>2.2</v>
+        <v>1.363</v>
       </c>
       <c r="L320">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="M320">
-        <v>3.2</v>
+        <v>7.5</v>
       </c>
       <c r="N320">
-        <v>2.3</v>
+        <v>1.333</v>
       </c>
       <c r="O320">
-        <v>3.3</v>
+        <v>5.25</v>
       </c>
       <c r="P320">
+        <v>8</v>
+      </c>
+      <c r="Q320">
+        <v>-1.5</v>
+      </c>
+      <c r="R320">
+        <v>1.9</v>
+      </c>
+      <c r="S320">
+        <v>1.95</v>
+      </c>
+      <c r="T320">
         <v>3</v>
       </c>
-      <c r="Q320">
-        <v>-0.25</v>
-      </c>
-      <c r="R320">
-        <v>2</v>
-      </c>
-      <c r="S320">
-        <v>1.85</v>
-      </c>
-      <c r="T320">
-        <v>2.25</v>
-      </c>
       <c r="U320">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V320">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W320">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X320">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Y320">
         <v>-1</v>
       </c>
       <c r="Z320">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA320">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB320">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC320">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="321" spans="1:29">
@@ -29639,7 +29639,7 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>6810143</v>
+        <v>6810139</v>
       </c>
       <c r="C328" t="s">
         <v>28</v>
@@ -29651,58 +29651,58 @@
         <v>45287.69791666666</v>
       </c>
       <c r="F328" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G328" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H328">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I328">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J328" t="s">
         <v>50</v>
       </c>
       <c r="K328">
+        <v>1.869</v>
+      </c>
+      <c r="L328">
+        <v>3.7</v>
+      </c>
+      <c r="M328">
+        <v>3.8</v>
+      </c>
+      <c r="N328">
         <v>2.05</v>
       </c>
-      <c r="L328">
-        <v>3.4</v>
-      </c>
-      <c r="M328">
-        <v>3.5</v>
-      </c>
-      <c r="N328">
-        <v>2.375</v>
-      </c>
       <c r="O328">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P328">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="Q328">
         <v>-0.25</v>
       </c>
       <c r="R328">
+        <v>1.825</v>
+      </c>
+      <c r="S328">
         <v>2.025</v>
       </c>
-      <c r="S328">
-        <v>1.825</v>
-      </c>
       <c r="T328">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U328">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V328">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W328">
-        <v>1.375</v>
+        <v>1.05</v>
       </c>
       <c r="X328">
         <v>-1</v>
@@ -29711,16 +29711,16 @@
         <v>-1</v>
       </c>
       <c r="Z328">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AA328">
         <v>-1</v>
       </c>
       <c r="AB328">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC328">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="329" spans="1:29">
@@ -29728,7 +29728,7 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>6810139</v>
+        <v>6810143</v>
       </c>
       <c r="C329" t="s">
         <v>28</v>
@@ -29740,58 +29740,58 @@
         <v>45287.69791666666</v>
       </c>
       <c r="F329" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G329" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H329">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I329">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J329" t="s">
         <v>50</v>
       </c>
       <c r="K329">
-        <v>1.869</v>
+        <v>2.05</v>
       </c>
       <c r="L329">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="M329">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="N329">
-        <v>2.05</v>
+        <v>2.375</v>
       </c>
       <c r="O329">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P329">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q329">
         <v>-0.25</v>
       </c>
       <c r="R329">
+        <v>2.025</v>
+      </c>
+      <c r="S329">
         <v>1.825</v>
       </c>
-      <c r="S329">
+      <c r="T329">
+        <v>2.25</v>
+      </c>
+      <c r="U329">
         <v>2.025</v>
       </c>
-      <c r="T329">
-        <v>2.75</v>
-      </c>
-      <c r="U329">
-        <v>1.9</v>
-      </c>
       <c r="V329">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W329">
-        <v>1.05</v>
+        <v>1.375</v>
       </c>
       <c r="X329">
         <v>-1</v>
@@ -29800,16 +29800,16 @@
         <v>-1</v>
       </c>
       <c r="Z329">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AA329">
         <v>-1</v>
       </c>
       <c r="AB329">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC329">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="330" spans="1:29">
@@ -29921,7 +29921,7 @@
         <v>34</v>
       </c>
       <c r="G331" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H331">
         <v>1</v>
@@ -30452,7 +30452,7 @@
         <v>45317.69791666666</v>
       </c>
       <c r="F337" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G337" t="s">
         <v>29</v>
@@ -31256,7 +31256,7 @@
         <v>38</v>
       </c>
       <c r="G346" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H346">
         <v>4</v>
@@ -31508,7 +31508,7 @@
         <v>347</v>
       </c>
       <c r="B349">
-        <v>6810162</v>
+        <v>6810164</v>
       </c>
       <c r="C349" t="s">
         <v>28</v>
@@ -31520,76 +31520,76 @@
         <v>45322.70833333334</v>
       </c>
       <c r="F349" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G349" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="H349">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I349">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J349" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K349">
-        <v>4</v>
+        <v>1.2</v>
       </c>
       <c r="L349">
-        <v>3.6</v>
+        <v>7</v>
       </c>
       <c r="M349">
-        <v>1.85</v>
+        <v>12</v>
       </c>
       <c r="N349">
-        <v>3.1</v>
+        <v>1.142</v>
       </c>
       <c r="O349">
-        <v>3.2</v>
+        <v>8.5</v>
       </c>
       <c r="P349">
-        <v>2.3</v>
+        <v>15</v>
       </c>
       <c r="Q349">
-        <v>0.25</v>
+        <v>-2.25</v>
       </c>
       <c r="R349">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S349">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T349">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="U349">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V349">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W349">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X349">
         <v>-1</v>
       </c>
       <c r="Y349">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z349">
         <v>-1</v>
       </c>
       <c r="AA349">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AB349">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC349">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="350" spans="1:29">
@@ -31597,7 +31597,7 @@
         <v>348</v>
       </c>
       <c r="B350">
-        <v>6810164</v>
+        <v>6810162</v>
       </c>
       <c r="C350" t="s">
         <v>28</v>
@@ -31609,76 +31609,76 @@
         <v>45322.70833333334</v>
       </c>
       <c r="F350" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G350" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="H350">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I350">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J350" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K350">
-        <v>1.2</v>
+        <v>4</v>
       </c>
       <c r="L350">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="M350">
-        <v>12</v>
+        <v>1.85</v>
       </c>
       <c r="N350">
-        <v>1.142</v>
+        <v>3.1</v>
       </c>
       <c r="O350">
-        <v>8.5</v>
+        <v>3.2</v>
       </c>
       <c r="P350">
-        <v>15</v>
+        <v>2.3</v>
       </c>
       <c r="Q350">
-        <v>-2.25</v>
+        <v>0.25</v>
       </c>
       <c r="R350">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S350">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T350">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="U350">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V350">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W350">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X350">
         <v>-1</v>
       </c>
       <c r="Y350">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z350">
         <v>-1</v>
       </c>
       <c r="AA350">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="AB350">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC350">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="351" spans="1:29">
@@ -31686,7 +31686,7 @@
         <v>349</v>
       </c>
       <c r="B351">
-        <v>6810163</v>
+        <v>6810166</v>
       </c>
       <c r="C351" t="s">
         <v>28</v>
@@ -31698,73 +31698,73 @@
         <v>45323.6875</v>
       </c>
       <c r="F351" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G351" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H351">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I351">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J351" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K351">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L351">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M351">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="N351">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="O351">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P351">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="Q351">
         <v>0.25</v>
       </c>
       <c r="R351">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S351">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T351">
         <v>2.5</v>
       </c>
       <c r="U351">
+        <v>1.875</v>
+      </c>
+      <c r="V351">
         <v>1.975</v>
       </c>
-      <c r="V351">
-        <v>1.875</v>
-      </c>
       <c r="W351">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="X351">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y351">
         <v>-1</v>
       </c>
       <c r="Z351">
-        <v>0.95</v>
+        <v>0.4625</v>
       </c>
       <c r="AA351">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB351">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC351">
         <v>-1</v>
@@ -31775,7 +31775,7 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>6810166</v>
+        <v>6810163</v>
       </c>
       <c r="C352" t="s">
         <v>28</v>
@@ -31787,73 +31787,73 @@
         <v>45323.6875</v>
       </c>
       <c r="F352" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G352" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H352">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I352">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J352" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K352">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="L352">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M352">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="N352">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="O352">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P352">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="Q352">
         <v>0.25</v>
       </c>
       <c r="R352">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S352">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T352">
         <v>2.5</v>
       </c>
       <c r="U352">
+        <v>1.975</v>
+      </c>
+      <c r="V352">
         <v>1.875</v>
       </c>
-      <c r="V352">
-        <v>1.975</v>
-      </c>
       <c r="W352">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="X352">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y352">
         <v>-1</v>
       </c>
       <c r="Z352">
-        <v>0.4625</v>
+        <v>0.95</v>
       </c>
       <c r="AA352">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB352">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC352">
         <v>-1</v>
@@ -31953,7 +31953,7 @@
         <v>352</v>
       </c>
       <c r="B354">
-        <v>6810174</v>
+        <v>6810171</v>
       </c>
       <c r="C354" t="s">
         <v>28</v>
@@ -31965,76 +31965,76 @@
         <v>45325.59375</v>
       </c>
       <c r="F354" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G354" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H354">
+        <v>1</v>
+      </c>
+      <c r="I354">
         <v>0</v>
       </c>
-      <c r="I354">
-        <v>3</v>
-      </c>
       <c r="J354" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K354">
-        <v>1.909</v>
+        <v>3.2</v>
       </c>
       <c r="L354">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M354">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="N354">
-        <v>1.909</v>
+        <v>3.4</v>
       </c>
       <c r="O354">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P354">
-        <v>3.8</v>
+        <v>2.05</v>
       </c>
       <c r="Q354">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R354">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S354">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T354">
         <v>2.5</v>
       </c>
       <c r="U354">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V354">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W354">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X354">
         <v>-1</v>
       </c>
       <c r="Y354">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z354">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA354">
+        <v>-1</v>
+      </c>
+      <c r="AB354">
+        <v>-1</v>
+      </c>
+      <c r="AC354">
         <v>0.925</v>
-      </c>
-      <c r="AB354">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC354">
-        <v>-1</v>
       </c>
     </row>
     <row r="355" spans="1:29">
@@ -32042,7 +32042,7 @@
         <v>353</v>
       </c>
       <c r="B355">
-        <v>6810171</v>
+        <v>6810174</v>
       </c>
       <c r="C355" t="s">
         <v>28</v>
@@ -32054,76 +32054,76 @@
         <v>45325.59375</v>
       </c>
       <c r="F355" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G355" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H355">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I355">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J355" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K355">
-        <v>3.2</v>
+        <v>1.909</v>
       </c>
       <c r="L355">
+        <v>3.75</v>
+      </c>
+      <c r="M355">
         <v>3.5</v>
       </c>
-      <c r="M355">
-        <v>2.1</v>
-      </c>
       <c r="N355">
-        <v>3.4</v>
+        <v>1.909</v>
       </c>
       <c r="O355">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P355">
-        <v>2.05</v>
+        <v>3.8</v>
       </c>
       <c r="Q355">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R355">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S355">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T355">
         <v>2.5</v>
       </c>
       <c r="U355">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V355">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W355">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X355">
         <v>-1</v>
       </c>
       <c r="Y355">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z355">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA355">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB355">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC355">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="356" spans="1:29">
@@ -32499,7 +32499,7 @@
         <v>45326.63541666666</v>
       </c>
       <c r="F360" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G360" t="s">
         <v>46</v>
@@ -33214,7 +33214,7 @@
         <v>42</v>
       </c>
       <c r="G368" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H368">
         <v>1</v>
@@ -33656,7 +33656,7 @@
         <v>45340.39583333334</v>
       </c>
       <c r="F373" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G373" t="s">
         <v>41</v>
@@ -34106,6 +34106,15 @@
       <c r="G378" t="s">
         <v>37</v>
       </c>
+      <c r="H378">
+        <v>1</v>
+      </c>
+      <c r="I378">
+        <v>1</v>
+      </c>
+      <c r="J378" t="s">
+        <v>48</v>
+      </c>
       <c r="K378">
         <v>2.8</v>
       </c>
@@ -34116,13 +34125,13 @@
         <v>2.4</v>
       </c>
       <c r="N378">
-        <v>2.625</v>
+        <v>2.75</v>
       </c>
       <c r="O378">
         <v>3.4</v>
       </c>
       <c r="P378">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="Q378">
         <v>0</v>
@@ -34137,25 +34146,31 @@
         <v>2.5</v>
       </c>
       <c r="U378">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V378">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W378">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X378">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="Y378">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z378">
         <v>0</v>
       </c>
       <c r="AA378">
-        <v>0</v>
+        <v>-0</v>
+      </c>
+      <c r="AB378">
+        <v>-1</v>
+      </c>
+      <c r="AC378">
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="379" spans="1:29">
@@ -34180,6 +34195,15 @@
       <c r="G379" t="s">
         <v>38</v>
       </c>
+      <c r="H379">
+        <v>1</v>
+      </c>
+      <c r="I379">
+        <v>0</v>
+      </c>
+      <c r="J379" t="s">
+        <v>50</v>
+      </c>
       <c r="K379">
         <v>1.95</v>
       </c>
@@ -34211,25 +34235,31 @@
         <v>2.5</v>
       </c>
       <c r="U379">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V379">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W379">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="X379">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y379">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z379">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AA379">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB379">
+        <v>-1</v>
+      </c>
+      <c r="AC379">
+        <v>0.95</v>
       </c>
     </row>
     <row r="380" spans="1:29">
@@ -34254,6 +34284,15 @@
       <c r="G380" t="s">
         <v>45</v>
       </c>
+      <c r="H380">
+        <v>3</v>
+      </c>
+      <c r="I380">
+        <v>0</v>
+      </c>
+      <c r="J380" t="s">
+        <v>50</v>
+      </c>
       <c r="K380">
         <v>1.65</v>
       </c>
@@ -34264,46 +34303,52 @@
         <v>5</v>
       </c>
       <c r="N380">
-        <v>1.6</v>
+        <v>1.533</v>
       </c>
       <c r="O380">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P380">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Q380">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R380">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S380">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="T380">
         <v>2.5</v>
       </c>
       <c r="U380">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V380">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W380">
-        <v>0</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X380">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y380">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z380">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA380">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB380">
+        <v>0.825</v>
+      </c>
+      <c r="AC380">
+        <v>-1</v>
       </c>
     </row>
     <row r="381" spans="1:29">
@@ -34350,10 +34395,10 @@
         <v>-0.75</v>
       </c>
       <c r="R381">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S381">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T381">
         <v>2.75</v>
@@ -34412,10 +34457,10 @@
         <v>3.1</v>
       </c>
       <c r="N382">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="O382">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P382">
         <v>2.875</v>
@@ -34424,19 +34469,19 @@
         <v>0</v>
       </c>
       <c r="R382">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S382">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="T382">
         <v>2.5</v>
       </c>
       <c r="U382">
+        <v>1.975</v>
+      </c>
+      <c r="V382">
         <v>1.875</v>
-      </c>
-      <c r="V382">
-        <v>1.975</v>
       </c>
       <c r="W382">
         <v>0</v>
@@ -34498,19 +34543,19 @@
         <v>-1.25</v>
       </c>
       <c r="R383">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S383">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T383">
         <v>2.75</v>
       </c>
       <c r="U383">
+        <v>1.95</v>
+      </c>
+      <c r="V383">
         <v>1.9</v>
-      </c>
-      <c r="V383">
-        <v>1.95</v>
       </c>
       <c r="W383">
         <v>0</v>
@@ -34548,7 +34593,7 @@
         <v>30</v>
       </c>
       <c r="G384" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K384">
         <v>5</v>
@@ -34581,10 +34626,10 @@
         <v>2.75</v>
       </c>
       <c r="U384">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V384">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W384">
         <v>0</v>

--- a/Belgium First Division A/Belgium First Division A.xlsx
+++ b/Belgium First Division A/Belgium First Division A.xlsx
@@ -31686,7 +31686,7 @@
         <v>349</v>
       </c>
       <c r="B351">
-        <v>6810166</v>
+        <v>6810163</v>
       </c>
       <c r="C351" t="s">
         <v>28</v>
@@ -31698,73 +31698,73 @@
         <v>45323.6875</v>
       </c>
       <c r="F351" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G351" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H351">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I351">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J351" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K351">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="L351">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M351">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="N351">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="O351">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P351">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="Q351">
         <v>0.25</v>
       </c>
       <c r="R351">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S351">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T351">
         <v>2.5</v>
       </c>
       <c r="U351">
+        <v>1.975</v>
+      </c>
+      <c r="V351">
         <v>1.875</v>
       </c>
-      <c r="V351">
-        <v>1.975</v>
-      </c>
       <c r="W351">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="X351">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y351">
         <v>-1</v>
       </c>
       <c r="Z351">
-        <v>0.4625</v>
+        <v>0.95</v>
       </c>
       <c r="AA351">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB351">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC351">
         <v>-1</v>
@@ -31775,7 +31775,7 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>6810163</v>
+        <v>6810166</v>
       </c>
       <c r="C352" t="s">
         <v>28</v>
@@ -31787,73 +31787,73 @@
         <v>45323.6875</v>
       </c>
       <c r="F352" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G352" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H352">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I352">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J352" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K352">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L352">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M352">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="N352">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="O352">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P352">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="Q352">
         <v>0.25</v>
       </c>
       <c r="R352">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S352">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T352">
         <v>2.5</v>
       </c>
       <c r="U352">
+        <v>1.875</v>
+      </c>
+      <c r="V352">
         <v>1.975</v>
       </c>
-      <c r="V352">
-        <v>1.875</v>
-      </c>
       <c r="W352">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="X352">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y352">
         <v>-1</v>
       </c>
       <c r="Z352">
-        <v>0.95</v>
+        <v>0.4625</v>
       </c>
       <c r="AA352">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB352">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC352">
         <v>-1</v>
@@ -34552,10 +34552,10 @@
         <v>2.75</v>
       </c>
       <c r="U383">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V383">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W383">
         <v>0</v>
@@ -34626,10 +34626,10 @@
         <v>2.75</v>
       </c>
       <c r="U384">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V384">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W384">
         <v>0</v>

--- a/Belgium First Division A/Belgium First Division A.xlsx
+++ b/Belgium First Division A/Belgium First Division A.xlsx
@@ -109,10 +109,10 @@
     <t>Cercle Brugge</t>
   </si>
   <si>
-    <t>Genk</t>
+    <t>Union Saint Gilloise</t>
   </si>
   <si>
-    <t>Union Saint Gilloise</t>
+    <t>Genk</t>
   </si>
   <si>
     <t>Eupen</t>
@@ -154,10 +154,10 @@
     <t>H</t>
   </si>
   <si>
-    <t>D</t>
+    <t>A</t>
   </si>
   <si>
-    <t>A</t>
+    <t>D</t>
   </si>
 </sst>
 </file>
@@ -794,7 +794,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6576988</v>
+        <v>6576065</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -809,70 +809,70 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J4" t="s">
         <v>46</v>
       </c>
       <c r="K4">
-        <v>2.4</v>
+        <v>1.75</v>
       </c>
       <c r="L4">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M4">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="N4">
-        <v>2.4</v>
+        <v>1.55</v>
       </c>
       <c r="O4">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P4">
-        <v>2.7</v>
+        <v>4.75</v>
       </c>
       <c r="Q4">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R4">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S4">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="T4">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U4">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V4">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W4">
         <v>-1</v>
       </c>
       <c r="X4">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y4">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z4">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA4">
-        <v>0.375</v>
+        <v>0.875</v>
       </c>
       <c r="AB4">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AC4">
         <v>-1</v>
@@ -883,7 +883,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6576065</v>
+        <v>6576988</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -898,70 +898,70 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J5" t="s">
         <v>47</v>
       </c>
       <c r="K5">
+        <v>2.4</v>
+      </c>
+      <c r="L5">
+        <v>3.6</v>
+      </c>
+      <c r="M5">
+        <v>2.7</v>
+      </c>
+      <c r="N5">
+        <v>2.4</v>
+      </c>
+      <c r="O5">
+        <v>3.6</v>
+      </c>
+      <c r="P5">
+        <v>2.7</v>
+      </c>
+      <c r="Q5">
+        <v>-0.25</v>
+      </c>
+      <c r="R5">
+        <v>2.05</v>
+      </c>
+      <c r="S5">
         <v>1.75</v>
       </c>
-      <c r="L5">
-        <v>3.8</v>
-      </c>
-      <c r="M5">
-        <v>4.2</v>
-      </c>
-      <c r="N5">
-        <v>1.55</v>
-      </c>
-      <c r="O5">
-        <v>4.333</v>
-      </c>
-      <c r="P5">
-        <v>4.75</v>
-      </c>
-      <c r="Q5">
-        <v>-1</v>
-      </c>
-      <c r="R5">
-        <v>1.975</v>
-      </c>
-      <c r="S5">
-        <v>1.875</v>
-      </c>
       <c r="T5">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U5">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V5">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W5">
         <v>-1</v>
       </c>
       <c r="X5">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y5">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z5">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA5">
-        <v>0.875</v>
+        <v>0.375</v>
       </c>
       <c r="AB5">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AC5">
         <v>-1</v>
@@ -984,7 +984,7 @@
         <v>45135.65625</v>
       </c>
       <c r="F6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G6" t="s">
         <v>41</v>
@@ -1085,7 +1085,7 @@
         <v>2</v>
       </c>
       <c r="J7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K7">
         <v>3.25</v>
@@ -1174,7 +1174,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K8">
         <v>1.95</v>
@@ -1254,7 +1254,7 @@
         <v>35</v>
       </c>
       <c r="G9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1263,7 +1263,7 @@
         <v>4</v>
       </c>
       <c r="J9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K9">
         <v>3.6</v>
@@ -1530,7 +1530,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K12">
         <v>1.45</v>
@@ -1699,7 +1699,7 @@
         <v>39</v>
       </c>
       <c r="G14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1708,7 +1708,7 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K14">
         <v>3.3</v>
@@ -1785,7 +1785,7 @@
         <v>45143.45833333334</v>
       </c>
       <c r="F15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G15" t="s">
         <v>33</v>
@@ -1797,7 +1797,7 @@
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K15">
         <v>1.285</v>
@@ -1975,7 +1975,7 @@
         <v>2</v>
       </c>
       <c r="J17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K17">
         <v>1.95</v>
@@ -2153,7 +2153,7 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K19">
         <v>3.75</v>
@@ -2242,7 +2242,7 @@
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K20">
         <v>3.6</v>
@@ -2331,7 +2331,7 @@
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K21">
         <v>2.875</v>
@@ -2586,7 +2586,7 @@
         <v>45150.55208333334</v>
       </c>
       <c r="F24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G24" t="s">
         <v>40</v>
@@ -2687,7 +2687,7 @@
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K25">
         <v>3.1</v>
@@ -2767,7 +2767,7 @@
         <v>30</v>
       </c>
       <c r="G26" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -2776,7 +2776,7 @@
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K26">
         <v>2.75</v>
@@ -2865,7 +2865,7 @@
         <v>5</v>
       </c>
       <c r="J27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K27">
         <v>4.75</v>
@@ -2954,7 +2954,7 @@
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K28">
         <v>2</v>
@@ -3043,7 +3043,7 @@
         <v>3</v>
       </c>
       <c r="J29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K29">
         <v>3.1</v>
@@ -3132,7 +3132,7 @@
         <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K30">
         <v>4.75</v>
@@ -3221,7 +3221,7 @@
         <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K31">
         <v>2.9</v>
@@ -3301,7 +3301,7 @@
         <v>42</v>
       </c>
       <c r="G32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H32">
         <v>4</v>
@@ -3476,7 +3476,7 @@
         <v>45158.45833333334</v>
       </c>
       <c r="F34" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G34" t="s">
         <v>34</v>
@@ -3488,7 +3488,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K34">
         <v>1.533</v>
@@ -3577,7 +3577,7 @@
         <v>2</v>
       </c>
       <c r="J35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K35">
         <v>1.45</v>
@@ -3755,7 +3755,7 @@
         <v>3</v>
       </c>
       <c r="J37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K37">
         <v>2.2</v>
@@ -3844,7 +3844,7 @@
         <v>3</v>
       </c>
       <c r="J38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K38">
         <v>2.1</v>
@@ -4022,7 +4022,7 @@
         <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K40">
         <v>3</v>
@@ -4111,7 +4111,7 @@
         <v>2</v>
       </c>
       <c r="J41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K41">
         <v>3.25</v>
@@ -4556,7 +4556,7 @@
         <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K46">
         <v>2</v>
@@ -4722,7 +4722,7 @@
         <v>45172.45833333334</v>
       </c>
       <c r="F48" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G48" t="s">
         <v>36</v>
@@ -4734,7 +4734,7 @@
         <v>2</v>
       </c>
       <c r="J48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K48">
         <v>2.3</v>
@@ -4811,7 +4811,7 @@
         <v>45172.5625</v>
       </c>
       <c r="F49" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G49" t="s">
         <v>41</v>
@@ -4823,7 +4823,7 @@
         <v>1</v>
       </c>
       <c r="J49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K49">
         <v>1.95</v>
@@ -4912,7 +4912,7 @@
         <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K50">
         <v>2.2</v>
@@ -5001,7 +5001,7 @@
         <v>3</v>
       </c>
       <c r="J51" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K51">
         <v>4.2</v>
@@ -5167,10 +5167,10 @@
         <v>45185.55208333334</v>
       </c>
       <c r="F53" t="s">
+        <v>31</v>
+      </c>
+      <c r="G53" t="s">
         <v>32</v>
-      </c>
-      <c r="G53" t="s">
-        <v>31</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -5179,7 +5179,7 @@
         <v>2</v>
       </c>
       <c r="J53" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K53">
         <v>1.909</v>
@@ -5357,7 +5357,7 @@
         <v>3</v>
       </c>
       <c r="J55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K55">
         <v>2.75</v>
@@ -5446,7 +5446,7 @@
         <v>2</v>
       </c>
       <c r="J56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K56">
         <v>4.5</v>
@@ -5535,7 +5535,7 @@
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K57">
         <v>4.333</v>
@@ -5713,7 +5713,7 @@
         <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K59">
         <v>2.1</v>
@@ -5891,7 +5891,7 @@
         <v>2</v>
       </c>
       <c r="J61" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K61">
         <v>2.05</v>
@@ -5980,7 +5980,7 @@
         <v>0</v>
       </c>
       <c r="J62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K62">
         <v>1.4</v>
@@ -6057,7 +6057,7 @@
         <v>45193.35416666666</v>
       </c>
       <c r="F63" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G63" t="s">
         <v>38</v>
@@ -6069,7 +6069,7 @@
         <v>3</v>
       </c>
       <c r="J63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K63">
         <v>1.666</v>
@@ -6149,7 +6149,7 @@
         <v>30</v>
       </c>
       <c r="G64" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -6158,7 +6158,7 @@
         <v>2</v>
       </c>
       <c r="J64" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K64">
         <v>2.8</v>
@@ -6247,7 +6247,7 @@
         <v>1</v>
       </c>
       <c r="J65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K65">
         <v>2.75</v>
@@ -6425,7 +6425,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K67">
         <v>2.15</v>
@@ -6505,7 +6505,7 @@
         <v>35</v>
       </c>
       <c r="G68" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H68">
         <v>2</v>
@@ -6514,7 +6514,7 @@
         <v>3</v>
       </c>
       <c r="J68" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K68">
         <v>4.75</v>
@@ -6594,7 +6594,7 @@
         <v>37</v>
       </c>
       <c r="G69" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H69">
         <v>1</v>
@@ -6603,7 +6603,7 @@
         <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K69">
         <v>1.833</v>
@@ -6781,7 +6781,7 @@
         <v>3</v>
       </c>
       <c r="J71" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K71">
         <v>4.2</v>
@@ -6870,7 +6870,7 @@
         <v>2</v>
       </c>
       <c r="J72" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K72">
         <v>2.2</v>
@@ -6959,7 +6959,7 @@
         <v>0</v>
       </c>
       <c r="J73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K73">
         <v>4.1</v>
@@ -7036,7 +7036,7 @@
         <v>45200.35416666666</v>
       </c>
       <c r="F74" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G74" t="s">
         <v>34</v>
@@ -7125,7 +7125,7 @@
         <v>45200.45833333334</v>
       </c>
       <c r="F75" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G75" t="s">
         <v>43</v>
@@ -7137,7 +7137,7 @@
         <v>3</v>
       </c>
       <c r="J75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K75">
         <v>1.5</v>
@@ -7226,7 +7226,7 @@
         <v>1</v>
       </c>
       <c r="J76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K76">
         <v>1.45</v>
@@ -7315,7 +7315,7 @@
         <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K77">
         <v>5</v>
@@ -7929,7 +7929,7 @@
         <v>29</v>
       </c>
       <c r="G84" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H84">
         <v>1</v>
@@ -7938,7 +7938,7 @@
         <v>1</v>
       </c>
       <c r="J84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K84">
         <v>1.95</v>
@@ -8018,7 +8018,7 @@
         <v>38</v>
       </c>
       <c r="G85" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -8027,7 +8027,7 @@
         <v>4</v>
       </c>
       <c r="J85" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K85">
         <v>4</v>
@@ -8104,7 +8104,7 @@
         <v>45219.65625</v>
       </c>
       <c r="F86" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G86" t="s">
         <v>33</v>
@@ -8294,7 +8294,7 @@
         <v>1</v>
       </c>
       <c r="J88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K88">
         <v>2.25</v>
@@ -8460,7 +8460,7 @@
         <v>45221.35416666666</v>
       </c>
       <c r="F90" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G90" t="s">
         <v>42</v>
@@ -8917,7 +8917,7 @@
         <v>2</v>
       </c>
       <c r="J95" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K95">
         <v>3</v>
@@ -9264,7 +9264,7 @@
         <v>43</v>
       </c>
       <c r="G99" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H99">
         <v>1</v>
@@ -9273,7 +9273,7 @@
         <v>3</v>
       </c>
       <c r="J99" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K99">
         <v>4.5</v>
@@ -9442,7 +9442,7 @@
         <v>44</v>
       </c>
       <c r="G101" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H101">
         <v>0</v>
@@ -9451,7 +9451,7 @@
         <v>3</v>
       </c>
       <c r="J101" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K101">
         <v>6</v>
@@ -9540,7 +9540,7 @@
         <v>1</v>
       </c>
       <c r="J102" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K102">
         <v>1.666</v>
@@ -9629,7 +9629,7 @@
         <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K103">
         <v>1.833</v>
@@ -9718,7 +9718,7 @@
         <v>2</v>
       </c>
       <c r="J104" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K104">
         <v>2.1</v>
@@ -9798,7 +9798,7 @@
         <v>36</v>
       </c>
       <c r="G105" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H105">
         <v>3</v>
@@ -9896,7 +9896,7 @@
         <v>3</v>
       </c>
       <c r="J106" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K106">
         <v>2.375</v>
@@ -9985,7 +9985,7 @@
         <v>1</v>
       </c>
       <c r="J107" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K107">
         <v>1.85</v>
@@ -10062,7 +10062,7 @@
         <v>45235.60416666666</v>
       </c>
       <c r="F108" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G108" t="s">
         <v>37</v>
@@ -10163,7 +10163,7 @@
         <v>3</v>
       </c>
       <c r="J109" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K109">
         <v>3.5</v>
@@ -10252,7 +10252,7 @@
         <v>3</v>
       </c>
       <c r="J110" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K110">
         <v>2.5</v>
@@ -10430,7 +10430,7 @@
         <v>3</v>
       </c>
       <c r="J112" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K112">
         <v>2.55</v>
@@ -10608,7 +10608,7 @@
         <v>0</v>
       </c>
       <c r="J114" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K114">
         <v>1.727</v>
@@ -10685,7 +10685,7 @@
         <v>45242.5</v>
       </c>
       <c r="F115" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G115" t="s">
         <v>40</v>
@@ -10786,7 +10786,7 @@
         <v>1</v>
       </c>
       <c r="J116" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K116">
         <v>2.05</v>
@@ -10863,7 +10863,7 @@
         <v>45242.63541666666</v>
       </c>
       <c r="F117" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G117" t="s">
         <v>44</v>
@@ -10964,7 +10964,7 @@
         <v>1</v>
       </c>
       <c r="J118" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K118">
         <v>3.6</v>
@@ -11222,7 +11222,7 @@
         <v>39</v>
       </c>
       <c r="G121" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H121">
         <v>1</v>
@@ -11311,7 +11311,7 @@
         <v>29</v>
       </c>
       <c r="G122" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H122">
         <v>1</v>
@@ -11320,7 +11320,7 @@
         <v>1</v>
       </c>
       <c r="J122" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K122">
         <v>2.4</v>
@@ -11409,7 +11409,7 @@
         <v>1</v>
       </c>
       <c r="J123" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K123">
         <v>4.5</v>
@@ -11587,7 +11587,7 @@
         <v>3</v>
       </c>
       <c r="J125" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K125">
         <v>2.6</v>
@@ -11676,7 +11676,7 @@
         <v>3</v>
       </c>
       <c r="J126" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K126">
         <v>4.5</v>
@@ -11765,7 +11765,7 @@
         <v>0</v>
       </c>
       <c r="J127" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K127">
         <v>2.75</v>
@@ -11854,7 +11854,7 @@
         <v>1</v>
       </c>
       <c r="J128" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K128">
         <v>2.2</v>
@@ -12020,7 +12020,7 @@
         <v>45263.39583333334</v>
       </c>
       <c r="F130" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G130" t="s">
         <v>29</v>
@@ -12032,7 +12032,7 @@
         <v>2</v>
       </c>
       <c r="J130" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K130">
         <v>2.15</v>
@@ -12121,7 +12121,7 @@
         <v>2</v>
       </c>
       <c r="J131" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K131">
         <v>2.15</v>
@@ -12287,7 +12287,7 @@
         <v>45263.63541666666</v>
       </c>
       <c r="F133" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G133" t="s">
         <v>30</v>
@@ -12388,7 +12388,7 @@
         <v>2</v>
       </c>
       <c r="J134" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K134">
         <v>2.8</v>
@@ -12477,7 +12477,7 @@
         <v>3</v>
       </c>
       <c r="J135" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K135">
         <v>2.7</v>
@@ -12566,7 +12566,7 @@
         <v>1</v>
       </c>
       <c r="J136" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K136">
         <v>1.9</v>
@@ -12744,7 +12744,7 @@
         <v>0</v>
       </c>
       <c r="J138" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K138">
         <v>4.5</v>
@@ -12824,7 +12824,7 @@
         <v>33</v>
       </c>
       <c r="G139" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H139">
         <v>1</v>
@@ -12833,7 +12833,7 @@
         <v>3</v>
       </c>
       <c r="J139" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K139">
         <v>7</v>
@@ -12922,7 +12922,7 @@
         <v>2</v>
       </c>
       <c r="J140" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K140">
         <v>1.5</v>
@@ -13002,7 +13002,7 @@
         <v>34</v>
       </c>
       <c r="G141" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H141">
         <v>1</v>
@@ -13011,7 +13011,7 @@
         <v>3</v>
       </c>
       <c r="J141" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K141">
         <v>5</v>
@@ -13189,7 +13189,7 @@
         <v>2</v>
       </c>
       <c r="J143" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K143">
         <v>4</v>
@@ -13367,7 +13367,7 @@
         <v>0</v>
       </c>
       <c r="J145" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K145">
         <v>2.2</v>
@@ -13533,7 +13533,7 @@
         <v>45277.5</v>
       </c>
       <c r="F147" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G147" t="s">
         <v>42</v>
@@ -13634,7 +13634,7 @@
         <v>1</v>
       </c>
       <c r="J148" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K148">
         <v>1.909</v>
@@ -13711,7 +13711,7 @@
         <v>45277.63541666666</v>
       </c>
       <c r="F149" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G149" t="s">
         <v>44</v>
@@ -14079,7 +14079,7 @@
         <v>6</v>
       </c>
       <c r="J153" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K153">
         <v>6</v>
@@ -14159,7 +14159,7 @@
         <v>33</v>
       </c>
       <c r="G154" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H154">
         <v>1</v>
@@ -14168,7 +14168,7 @@
         <v>2</v>
       </c>
       <c r="J154" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K154">
         <v>9.5</v>
@@ -14257,7 +14257,7 @@
         <v>2</v>
       </c>
       <c r="J155" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K155">
         <v>1.363</v>
@@ -14426,7 +14426,7 @@
         <v>41</v>
       </c>
       <c r="G157" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H157">
         <v>2</v>
@@ -14512,7 +14512,7 @@
         <v>45286.39583333334</v>
       </c>
       <c r="F158" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G158" t="s">
         <v>36</v>
@@ -14589,7 +14589,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>6810142</v>
+        <v>6810145</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14601,76 +14601,76 @@
         <v>45286.5</v>
       </c>
       <c r="F159" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G159" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H159">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I159">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J159" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K159">
-        <v>1.75</v>
+        <v>7</v>
       </c>
       <c r="L159">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M159">
-        <v>4</v>
+        <v>1.4</v>
       </c>
       <c r="N159">
+        <v>8.5</v>
+      </c>
+      <c r="O159">
+        <v>5.75</v>
+      </c>
+      <c r="P159">
+        <v>1.285</v>
+      </c>
+      <c r="Q159">
+        <v>1.5</v>
+      </c>
+      <c r="R159">
+        <v>2.025</v>
+      </c>
+      <c r="S159">
+        <v>1.825</v>
+      </c>
+      <c r="T159">
+        <v>3.25</v>
+      </c>
+      <c r="U159">
+        <v>2.05</v>
+      </c>
+      <c r="V159">
         <v>1.8</v>
       </c>
-      <c r="O159">
-        <v>3.8</v>
-      </c>
-      <c r="P159">
-        <v>3.8</v>
-      </c>
-      <c r="Q159">
-        <v>-0.5</v>
-      </c>
-      <c r="R159">
-        <v>1.825</v>
-      </c>
-      <c r="S159">
-        <v>2.025</v>
-      </c>
-      <c r="T159">
-        <v>3</v>
-      </c>
-      <c r="U159">
-        <v>1.975</v>
-      </c>
-      <c r="V159">
-        <v>1.875</v>
-      </c>
       <c r="W159">
+        <v>-1</v>
+      </c>
+      <c r="X159">
+        <v>-1</v>
+      </c>
+      <c r="Y159">
+        <v>0.2849999999999999</v>
+      </c>
+      <c r="Z159">
+        <v>-1</v>
+      </c>
+      <c r="AA159">
+        <v>0.825</v>
+      </c>
+      <c r="AB159">
+        <v>-1</v>
+      </c>
+      <c r="AC159">
         <v>0.8</v>
-      </c>
-      <c r="X159">
-        <v>-1</v>
-      </c>
-      <c r="Y159">
-        <v>-1</v>
-      </c>
-      <c r="Z159">
-        <v>0.825</v>
-      </c>
-      <c r="AA159">
-        <v>-1</v>
-      </c>
-      <c r="AB159">
-        <v>0</v>
-      </c>
-      <c r="AC159">
-        <v>-0</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -14678,7 +14678,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>6810145</v>
+        <v>6810142</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14690,76 +14690,76 @@
         <v>45286.5</v>
       </c>
       <c r="F160" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G160" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H160">
+        <v>3</v>
+      </c>
+      <c r="I160">
         <v>0</v>
       </c>
-      <c r="I160">
-        <v>2</v>
-      </c>
       <c r="J160" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K160">
-        <v>7</v>
+        <v>1.75</v>
       </c>
       <c r="L160">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M160">
-        <v>1.4</v>
+        <v>4</v>
       </c>
       <c r="N160">
-        <v>8.5</v>
+        <v>1.8</v>
       </c>
       <c r="O160">
-        <v>5.75</v>
+        <v>3.8</v>
       </c>
       <c r="P160">
-        <v>1.285</v>
+        <v>3.8</v>
       </c>
       <c r="Q160">
-        <v>1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R160">
+        <v>1.825</v>
+      </c>
+      <c r="S160">
         <v>2.025</v>
       </c>
-      <c r="S160">
-        <v>1.825</v>
-      </c>
       <c r="T160">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U160">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="V160">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W160">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X160">
         <v>-1</v>
       </c>
       <c r="Y160">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z160">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA160">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB160">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC160">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -14871,7 +14871,7 @@
         <v>37</v>
       </c>
       <c r="G162" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H162">
         <v>1</v>
@@ -14880,7 +14880,7 @@
         <v>1</v>
       </c>
       <c r="J162" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K162">
         <v>2.3</v>
@@ -14969,7 +14969,7 @@
         <v>1</v>
       </c>
       <c r="J163" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K163">
         <v>2.2</v>
@@ -15034,7 +15034,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6810139</v>
+        <v>6810143</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15046,58 +15046,58 @@
         <v>45287.69791666666</v>
       </c>
       <c r="F164" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G164" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I164">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J164" t="s">
         <v>45</v>
       </c>
       <c r="K164">
-        <v>1.869</v>
+        <v>2.05</v>
       </c>
       <c r="L164">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="M164">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="N164">
-        <v>2.05</v>
+        <v>2.375</v>
       </c>
       <c r="O164">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P164">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q164">
         <v>-0.25</v>
       </c>
       <c r="R164">
+        <v>2.025</v>
+      </c>
+      <c r="S164">
         <v>1.825</v>
       </c>
-      <c r="S164">
+      <c r="T164">
+        <v>2.25</v>
+      </c>
+      <c r="U164">
         <v>2.025</v>
       </c>
-      <c r="T164">
-        <v>2.75</v>
-      </c>
-      <c r="U164">
-        <v>1.9</v>
-      </c>
       <c r="V164">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W164">
-        <v>1.05</v>
+        <v>1.375</v>
       </c>
       <c r="X164">
         <v>-1</v>
@@ -15106,16 +15106,16 @@
         <v>-1</v>
       </c>
       <c r="Z164">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AA164">
         <v>-1</v>
       </c>
       <c r="AB164">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC164">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15123,7 +15123,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6810143</v>
+        <v>6810139</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15135,58 +15135,58 @@
         <v>45287.69791666666</v>
       </c>
       <c r="F165" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G165" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H165">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J165" t="s">
         <v>45</v>
       </c>
       <c r="K165">
+        <v>1.869</v>
+      </c>
+      <c r="L165">
+        <v>3.7</v>
+      </c>
+      <c r="M165">
+        <v>3.8</v>
+      </c>
+      <c r="N165">
         <v>2.05</v>
       </c>
-      <c r="L165">
-        <v>3.4</v>
-      </c>
-      <c r="M165">
-        <v>3.5</v>
-      </c>
-      <c r="N165">
-        <v>2.375</v>
-      </c>
       <c r="O165">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P165">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="Q165">
         <v>-0.25</v>
       </c>
       <c r="R165">
+        <v>1.825</v>
+      </c>
+      <c r="S165">
         <v>2.025</v>
       </c>
-      <c r="S165">
-        <v>1.825</v>
-      </c>
       <c r="T165">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U165">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V165">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W165">
-        <v>1.375</v>
+        <v>1.05</v>
       </c>
       <c r="X165">
         <v>-1</v>
@@ -15195,16 +15195,16 @@
         <v>-1</v>
       </c>
       <c r="Z165">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AA165">
         <v>-1</v>
       </c>
       <c r="AB165">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC165">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -15236,7 +15236,7 @@
         <v>2</v>
       </c>
       <c r="J166" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K166">
         <v>1.4</v>
@@ -15313,7 +15313,7 @@
         <v>45311.5</v>
       </c>
       <c r="F167" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G167" t="s">
         <v>30</v>
@@ -15325,7 +15325,7 @@
         <v>1</v>
       </c>
       <c r="J167" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K167">
         <v>1.75</v>
@@ -15414,7 +15414,7 @@
         <v>1</v>
       </c>
       <c r="J168" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K168">
         <v>1.6</v>
@@ -15669,7 +15669,7 @@
         <v>45312.5</v>
       </c>
       <c r="F171" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G171" t="s">
         <v>38</v>
@@ -15770,7 +15770,7 @@
         <v>1</v>
       </c>
       <c r="J172" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K172">
         <v>4.5</v>
@@ -15859,7 +15859,7 @@
         <v>1</v>
       </c>
       <c r="J173" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K173">
         <v>1.55</v>
@@ -15948,7 +15948,7 @@
         <v>0</v>
       </c>
       <c r="J174" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K174">
         <v>2.75</v>
@@ -16013,7 +16013,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>6810159</v>
+        <v>6810158</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16025,73 +16025,73 @@
         <v>45318.69791666666</v>
       </c>
       <c r="F175" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G175" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H175">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I175">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J175" t="s">
         <v>47</v>
       </c>
       <c r="K175">
-        <v>5.5</v>
+        <v>1.363</v>
       </c>
       <c r="L175">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="M175">
-        <v>1.5</v>
+        <v>6.5</v>
       </c>
       <c r="N175">
-        <v>6</v>
+        <v>1.444</v>
       </c>
       <c r="O175">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P175">
-        <v>1.45</v>
+        <v>5.75</v>
       </c>
       <c r="Q175">
-        <v>1.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R175">
+        <v>2</v>
+      </c>
+      <c r="S175">
+        <v>1.85</v>
+      </c>
+      <c r="T175">
+        <v>3</v>
+      </c>
+      <c r="U175">
+        <v>2.025</v>
+      </c>
+      <c r="V175">
         <v>1.825</v>
       </c>
-      <c r="S175">
-        <v>2.025</v>
-      </c>
-      <c r="T175">
-        <v>2.75</v>
-      </c>
-      <c r="U175">
-        <v>1.95</v>
-      </c>
-      <c r="V175">
-        <v>1.9</v>
-      </c>
       <c r="W175">
         <v>-1</v>
       </c>
       <c r="X175">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y175">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z175">
         <v>-1</v>
       </c>
       <c r="AA175">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB175">
         <v>1.025</v>
-      </c>
-      <c r="AB175">
-        <v>0.95</v>
       </c>
       <c r="AC175">
         <v>-1</v>
@@ -16102,7 +16102,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6810158</v>
+        <v>6810159</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16114,73 +16114,73 @@
         <v>45318.69791666666</v>
       </c>
       <c r="F176" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G176" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I176">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J176" t="s">
         <v>46</v>
       </c>
       <c r="K176">
-        <v>1.363</v>
+        <v>5.5</v>
       </c>
       <c r="L176">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="M176">
-        <v>6.5</v>
+        <v>1.5</v>
       </c>
       <c r="N176">
-        <v>1.444</v>
+        <v>6</v>
       </c>
       <c r="O176">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P176">
-        <v>5.75</v>
+        <v>1.45</v>
       </c>
       <c r="Q176">
-        <v>-1.25</v>
+        <v>1.25</v>
       </c>
       <c r="R176">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S176">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T176">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U176">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V176">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W176">
         <v>-1</v>
       </c>
       <c r="X176">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y176">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z176">
         <v>-1</v>
       </c>
       <c r="AA176">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AB176">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AC176">
         <v>-1</v>
@@ -16206,7 +16206,7 @@
         <v>38</v>
       </c>
       <c r="G177" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H177">
         <v>1</v>
@@ -16215,7 +16215,7 @@
         <v>1</v>
       </c>
       <c r="J177" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K177">
         <v>3.75</v>
@@ -16384,7 +16384,7 @@
         <v>41</v>
       </c>
       <c r="G179" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H179">
         <v>2</v>
@@ -16393,7 +16393,7 @@
         <v>2</v>
       </c>
       <c r="J179" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K179">
         <v>3</v>
@@ -16660,7 +16660,7 @@
         <v>3</v>
       </c>
       <c r="J182" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K182">
         <v>1.125</v>
@@ -16740,7 +16740,7 @@
         <v>40</v>
       </c>
       <c r="G183" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H183">
         <v>2</v>
@@ -16927,7 +16927,7 @@
         <v>1</v>
       </c>
       <c r="J185" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K185">
         <v>4</v>
@@ -17004,7 +17004,7 @@
         <v>45322.70833333334</v>
       </c>
       <c r="F186" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G186" t="s">
         <v>35</v>
@@ -17194,7 +17194,7 @@
         <v>2</v>
       </c>
       <c r="J188" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K188">
         <v>3.5</v>
@@ -17283,7 +17283,7 @@
         <v>2</v>
       </c>
       <c r="J189" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K189">
         <v>3.1</v>
@@ -17348,7 +17348,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>6810174</v>
+        <v>6810171</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17360,76 +17360,76 @@
         <v>45325.59375</v>
       </c>
       <c r="F190" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G190" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H190">
+        <v>1</v>
+      </c>
+      <c r="I190">
         <v>0</v>
       </c>
-      <c r="I190">
-        <v>3</v>
-      </c>
       <c r="J190" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K190">
-        <v>1.909</v>
+        <v>3.2</v>
       </c>
       <c r="L190">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M190">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="N190">
-        <v>1.909</v>
+        <v>3.4</v>
       </c>
       <c r="O190">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P190">
-        <v>3.8</v>
+        <v>2.05</v>
       </c>
       <c r="Q190">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R190">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S190">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T190">
         <v>2.5</v>
       </c>
       <c r="U190">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V190">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W190">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X190">
         <v>-1</v>
       </c>
       <c r="Y190">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z190">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA190">
+        <v>-1</v>
+      </c>
+      <c r="AB190">
+        <v>-1</v>
+      </c>
+      <c r="AC190">
         <v>0.925</v>
-      </c>
-      <c r="AB190">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC190">
-        <v>-1</v>
       </c>
     </row>
     <row r="191" spans="1:29">
@@ -17437,7 +17437,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>6810171</v>
+        <v>6810174</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17449,76 +17449,76 @@
         <v>45325.59375</v>
       </c>
       <c r="F191" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G191" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H191">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I191">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J191" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K191">
-        <v>3.2</v>
+        <v>1.909</v>
       </c>
       <c r="L191">
+        <v>3.75</v>
+      </c>
+      <c r="M191">
         <v>3.5</v>
       </c>
-      <c r="M191">
-        <v>2.1</v>
-      </c>
       <c r="N191">
-        <v>3.4</v>
+        <v>1.909</v>
       </c>
       <c r="O191">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P191">
-        <v>2.05</v>
+        <v>3.8</v>
       </c>
       <c r="Q191">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R191">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S191">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T191">
         <v>2.5</v>
       </c>
       <c r="U191">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V191">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W191">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X191">
         <v>-1</v>
       </c>
       <c r="Y191">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z191">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA191">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB191">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC191">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="192" spans="1:29">
@@ -17538,10 +17538,10 @@
         <v>45325.69791666666</v>
       </c>
       <c r="F192" t="s">
+        <v>32</v>
+      </c>
+      <c r="G192" t="s">
         <v>31</v>
-      </c>
-      <c r="G192" t="s">
-        <v>32</v>
       </c>
       <c r="H192">
         <v>0</v>
@@ -17550,7 +17550,7 @@
         <v>1</v>
       </c>
       <c r="J192" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K192">
         <v>2.8</v>
@@ -17728,7 +17728,7 @@
         <v>1</v>
       </c>
       <c r="J194" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K194">
         <v>3.2</v>
@@ -18161,7 +18161,7 @@
         <v>45332.59375</v>
       </c>
       <c r="F199" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G199" t="s">
         <v>43</v>
@@ -18173,7 +18173,7 @@
         <v>2</v>
       </c>
       <c r="J199" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K199">
         <v>1.285</v>
@@ -18351,7 +18351,7 @@
         <v>4</v>
       </c>
       <c r="J201" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K201">
         <v>5.25</v>
@@ -18431,7 +18431,7 @@
         <v>42</v>
       </c>
       <c r="G202" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H202">
         <v>1</v>
@@ -18440,7 +18440,7 @@
         <v>1</v>
       </c>
       <c r="J202" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K202">
         <v>3.8</v>
@@ -18529,7 +18529,7 @@
         <v>3</v>
       </c>
       <c r="J203" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K203">
         <v>3.6</v>
@@ -18618,7 +18618,7 @@
         <v>2</v>
       </c>
       <c r="J204" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K204">
         <v>2.05</v>
@@ -18784,7 +18784,7 @@
         <v>45339.5</v>
       </c>
       <c r="F206" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G206" t="s">
         <v>35</v>
@@ -18885,7 +18885,7 @@
         <v>0</v>
       </c>
       <c r="J207" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K207">
         <v>2.25</v>
@@ -18974,7 +18974,7 @@
         <v>1</v>
       </c>
       <c r="J208" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K208">
         <v>1.533</v>
@@ -19063,7 +19063,7 @@
         <v>1</v>
       </c>
       <c r="J209" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K209">
         <v>3</v>
@@ -19143,7 +19143,7 @@
         <v>44</v>
       </c>
       <c r="G210" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H210">
         <v>1</v>
@@ -19152,7 +19152,7 @@
         <v>3</v>
       </c>
       <c r="J210" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K210">
         <v>6</v>
@@ -19330,7 +19330,7 @@
         <v>2</v>
       </c>
       <c r="J212" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K212">
         <v>5</v>
@@ -19410,7 +19410,7 @@
         <v>34</v>
       </c>
       <c r="G213" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H213">
         <v>0</v>
@@ -19419,7 +19419,7 @@
         <v>1</v>
       </c>
       <c r="J213" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K213">
         <v>4.2</v>
@@ -19508,7 +19508,7 @@
         <v>1</v>
       </c>
       <c r="J214" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K214">
         <v>2.8</v>
@@ -19775,7 +19775,7 @@
         <v>2</v>
       </c>
       <c r="J217" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K217">
         <v>1.666</v>
@@ -19864,7 +19864,7 @@
         <v>2</v>
       </c>
       <c r="J218" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K218">
         <v>2.25</v>
@@ -19941,7 +19941,7 @@
         <v>45347.60416666666</v>
       </c>
       <c r="F219" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G219" t="s">
         <v>39</v>
@@ -20042,7 +20042,7 @@
         <v>2</v>
       </c>
       <c r="J220" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K220">
         <v>5</v>
@@ -20134,31 +20134,31 @@
         <v>3.5</v>
       </c>
       <c r="N221">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="O221">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P221">
         <v>3.5</v>
       </c>
       <c r="Q221">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R221">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="S221">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="T221">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U221">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V221">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W221">
         <v>0</v>
@@ -20208,31 +20208,31 @@
         <v>4</v>
       </c>
       <c r="N222">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="O222">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P222">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="Q222">
         <v>-0.5</v>
       </c>
       <c r="R222">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S222">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T222">
         <v>2.5</v>
       </c>
       <c r="U222">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V222">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W222">
         <v>0</v>
@@ -20270,7 +20270,7 @@
         <v>40</v>
       </c>
       <c r="G223" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K223">
         <v>5.5</v>
@@ -20282,31 +20282,31 @@
         <v>1.55</v>
       </c>
       <c r="N223">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="O223">
         <v>4.2</v>
       </c>
       <c r="P223">
-        <v>1.55</v>
+        <v>1.533</v>
       </c>
       <c r="Q223">
         <v>1</v>
       </c>
       <c r="R223">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S223">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T223">
         <v>2.75</v>
       </c>
       <c r="U223">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V223">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W223">
         <v>0</v>
@@ -20368,10 +20368,10 @@
         <v>0.25</v>
       </c>
       <c r="R224">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S224">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T224">
         <v>2.5</v>
@@ -20415,7 +20415,7 @@
         <v>45354.39583333334</v>
       </c>
       <c r="F225" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G225" t="s">
         <v>37</v>
@@ -20430,22 +20430,22 @@
         <v>2.3</v>
       </c>
       <c r="N225">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="O225">
         <v>3.6</v>
       </c>
       <c r="P225">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="Q225">
         <v>0.25</v>
       </c>
       <c r="R225">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S225">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T225">
         <v>2.75</v>
@@ -20504,31 +20504,31 @@
         <v>5</v>
       </c>
       <c r="N226">
-        <v>1.6</v>
+        <v>1.615</v>
       </c>
       <c r="O226">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P226">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="Q226">
         <v>-0.75</v>
       </c>
       <c r="R226">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S226">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T226">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U226">
+        <v>1.825</v>
+      </c>
+      <c r="V226">
         <v>2.025</v>
-      </c>
-      <c r="V226">
-        <v>1.825</v>
       </c>
       <c r="W226">
         <v>0</v>
@@ -20578,31 +20578,31 @@
         <v>8.5</v>
       </c>
       <c r="N227">
-        <v>1.3</v>
+        <v>1.333</v>
       </c>
       <c r="O227">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="P227">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Q227">
         <v>-1.5</v>
       </c>
       <c r="R227">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S227">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T227">
         <v>3</v>
       </c>
       <c r="U227">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V227">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="W227">
         <v>0</v>
@@ -20664,19 +20664,19 @@
         <v>0</v>
       </c>
       <c r="R228">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S228">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T228">
         <v>2.5</v>
       </c>
       <c r="U228">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V228">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W228">
         <v>0</v>

--- a/Belgium First Division A/Belgium First Division A.xlsx
+++ b/Belgium First Division A/Belgium First Division A.xlsx
@@ -2752,7 +2752,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>7030334</v>
+        <v>6810007</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2764,55 +2764,55 @@
         <v>45151.45833333334</v>
       </c>
       <c r="F26" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G26" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H26">
         <v>0</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J26" t="s">
         <v>46</v>
       </c>
       <c r="K26">
-        <v>2.75</v>
+        <v>4.75</v>
       </c>
       <c r="L26">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M26">
-        <v>2.25</v>
+        <v>1.571</v>
       </c>
       <c r="N26">
-        <v>2.4</v>
+        <v>7</v>
       </c>
       <c r="O26">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P26">
-        <v>2.55</v>
+        <v>1.333</v>
       </c>
       <c r="Q26">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="R26">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S26">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T26">
         <v>3</v>
       </c>
       <c r="U26">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V26">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W26">
         <v>-1</v>
@@ -2821,19 +2821,19 @@
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>1.55</v>
+        <v>0.333</v>
       </c>
       <c r="Z26">
         <v>-1</v>
       </c>
       <c r="AA26">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB26">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC26">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2841,7 +2841,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6810007</v>
+        <v>7030334</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2853,55 +2853,55 @@
         <v>45151.45833333334</v>
       </c>
       <c r="F27" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G27" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H27">
         <v>0</v>
       </c>
       <c r="I27">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J27" t="s">
         <v>46</v>
       </c>
       <c r="K27">
-        <v>4.75</v>
+        <v>2.75</v>
       </c>
       <c r="L27">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M27">
-        <v>1.571</v>
+        <v>2.25</v>
       </c>
       <c r="N27">
-        <v>7</v>
+        <v>2.4</v>
       </c>
       <c r="O27">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P27">
-        <v>1.333</v>
+        <v>2.55</v>
       </c>
       <c r="Q27">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="R27">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S27">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T27">
         <v>3</v>
       </c>
       <c r="U27">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V27">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W27">
         <v>-1</v>
@@ -2910,19 +2910,19 @@
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>0.333</v>
+        <v>1.55</v>
       </c>
       <c r="Z27">
         <v>-1</v>
       </c>
       <c r="AA27">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB27">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC27">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -16725,7 +16725,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>6810168</v>
+        <v>6810165</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16737,58 +16737,58 @@
         <v>45322.61458333334</v>
       </c>
       <c r="F183" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G183" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I183">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J183" t="s">
         <v>45</v>
       </c>
       <c r="K183">
-        <v>4.5</v>
+        <v>1.6</v>
       </c>
       <c r="L183">
+        <v>4</v>
+      </c>
+      <c r="M183">
+        <v>5</v>
+      </c>
+      <c r="N183">
+        <v>1.8</v>
+      </c>
+      <c r="O183">
+        <v>3.75</v>
+      </c>
+      <c r="P183">
         <v>4.2</v>
       </c>
-      <c r="M183">
-        <v>1.666</v>
-      </c>
-      <c r="N183">
-        <v>4.333</v>
-      </c>
-      <c r="O183">
-        <v>4</v>
-      </c>
-      <c r="P183">
-        <v>1.7</v>
-      </c>
       <c r="Q183">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R183">
+        <v>2.05</v>
+      </c>
+      <c r="S183">
+        <v>1.8</v>
+      </c>
+      <c r="T183">
+        <v>2.75</v>
+      </c>
+      <c r="U183">
         <v>1.95</v>
       </c>
-      <c r="S183">
+      <c r="V183">
         <v>1.9</v>
       </c>
-      <c r="T183">
-        <v>3</v>
-      </c>
-      <c r="U183">
-        <v>1.975</v>
-      </c>
-      <c r="V183">
-        <v>1.875</v>
-      </c>
       <c r="W183">
-        <v>3.333</v>
+        <v>0.8</v>
       </c>
       <c r="X183">
         <v>-1</v>
@@ -16797,16 +16797,16 @@
         <v>-1</v>
       </c>
       <c r="Z183">
-        <v>0.95</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AA183">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB183">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC183">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="184" spans="1:29">
@@ -16814,7 +16814,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>6810165</v>
+        <v>6810168</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16826,58 +16826,58 @@
         <v>45322.61458333334</v>
       </c>
       <c r="F184" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G184" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H184">
+        <v>2</v>
+      </c>
+      <c r="I184">
         <v>1</v>
-      </c>
-      <c r="I184">
-        <v>0</v>
       </c>
       <c r="J184" t="s">
         <v>45</v>
       </c>
       <c r="K184">
-        <v>1.6</v>
+        <v>4.5</v>
       </c>
       <c r="L184">
+        <v>4.2</v>
+      </c>
+      <c r="M184">
+        <v>1.666</v>
+      </c>
+      <c r="N184">
+        <v>4.333</v>
+      </c>
+      <c r="O184">
         <v>4</v>
       </c>
-      <c r="M184">
-        <v>5</v>
-      </c>
-      <c r="N184">
-        <v>1.8</v>
-      </c>
-      <c r="O184">
-        <v>3.75</v>
-      </c>
       <c r="P184">
-        <v>4.2</v>
+        <v>1.7</v>
       </c>
       <c r="Q184">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R184">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S184">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T184">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U184">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V184">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W184">
-        <v>0.8</v>
+        <v>3.333</v>
       </c>
       <c r="X184">
         <v>-1</v>
@@ -16886,16 +16886,16 @@
         <v>-1</v>
       </c>
       <c r="Z184">
-        <v>0.5249999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA184">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB184">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC184">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -16903,7 +16903,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>6810162</v>
+        <v>6810164</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16915,76 +16915,76 @@
         <v>45322.70833333334</v>
       </c>
       <c r="F185" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G185" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I185">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J185" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K185">
-        <v>4</v>
+        <v>1.2</v>
       </c>
       <c r="L185">
-        <v>3.6</v>
+        <v>7</v>
       </c>
       <c r="M185">
-        <v>1.85</v>
+        <v>12</v>
       </c>
       <c r="N185">
-        <v>3.1</v>
+        <v>1.142</v>
       </c>
       <c r="O185">
-        <v>3.2</v>
+        <v>8.5</v>
       </c>
       <c r="P185">
-        <v>2.3</v>
+        <v>15</v>
       </c>
       <c r="Q185">
-        <v>0.25</v>
+        <v>-2.25</v>
       </c>
       <c r="R185">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S185">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T185">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="U185">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V185">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W185">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X185">
         <v>-1</v>
       </c>
       <c r="Y185">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z185">
         <v>-1</v>
       </c>
       <c r="AA185">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AB185">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC185">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="186" spans="1:29">
@@ -16992,7 +16992,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>6810164</v>
+        <v>6810162</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17004,76 +17004,76 @@
         <v>45322.70833333334</v>
       </c>
       <c r="F186" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G186" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H186">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I186">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J186" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K186">
-        <v>1.2</v>
+        <v>4</v>
       </c>
       <c r="L186">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="M186">
-        <v>12</v>
+        <v>1.85</v>
       </c>
       <c r="N186">
-        <v>1.142</v>
+        <v>3.1</v>
       </c>
       <c r="O186">
-        <v>8.5</v>
+        <v>3.2</v>
       </c>
       <c r="P186">
-        <v>15</v>
+        <v>2.3</v>
       </c>
       <c r="Q186">
-        <v>-2.25</v>
+        <v>0.25</v>
       </c>
       <c r="R186">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S186">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T186">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="U186">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V186">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W186">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X186">
         <v>-1</v>
       </c>
       <c r="Y186">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z186">
         <v>-1</v>
       </c>
       <c r="AA186">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="AB186">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC186">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17081,7 +17081,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>6810163</v>
+        <v>6810166</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17093,73 +17093,73 @@
         <v>45323.6875</v>
       </c>
       <c r="F187" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G187" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H187">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I187">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J187" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K187">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L187">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M187">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="N187">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="O187">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P187">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="Q187">
         <v>0.25</v>
       </c>
       <c r="R187">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S187">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T187">
         <v>2.5</v>
       </c>
       <c r="U187">
+        <v>1.875</v>
+      </c>
+      <c r="V187">
         <v>1.975</v>
       </c>
-      <c r="V187">
-        <v>1.875</v>
-      </c>
       <c r="W187">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="X187">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y187">
         <v>-1</v>
       </c>
       <c r="Z187">
-        <v>0.95</v>
+        <v>0.4625</v>
       </c>
       <c r="AA187">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB187">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC187">
         <v>-1</v>
@@ -17170,7 +17170,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>6810166</v>
+        <v>6810163</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17182,73 +17182,73 @@
         <v>45323.6875</v>
       </c>
       <c r="F188" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G188" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I188">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J188" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K188">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="L188">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M188">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="N188">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="O188">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P188">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="Q188">
         <v>0.25</v>
       </c>
       <c r="R188">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S188">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T188">
         <v>2.5</v>
       </c>
       <c r="U188">
+        <v>1.975</v>
+      </c>
+      <c r="V188">
         <v>1.875</v>
       </c>
-      <c r="V188">
-        <v>1.975</v>
-      </c>
       <c r="W188">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="X188">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y188">
         <v>-1</v>
       </c>
       <c r="Z188">
-        <v>0.4625</v>
+        <v>0.95</v>
       </c>
       <c r="AA188">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB188">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC188">
         <v>-1</v>
@@ -17348,7 +17348,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>6810171</v>
+        <v>6810174</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17360,76 +17360,76 @@
         <v>45325.59375</v>
       </c>
       <c r="F190" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G190" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H190">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I190">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J190" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K190">
-        <v>3.2</v>
+        <v>1.909</v>
       </c>
       <c r="L190">
+        <v>3.75</v>
+      </c>
+      <c r="M190">
         <v>3.5</v>
       </c>
-      <c r="M190">
-        <v>2.1</v>
-      </c>
       <c r="N190">
-        <v>3.4</v>
+        <v>1.909</v>
       </c>
       <c r="O190">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P190">
-        <v>2.05</v>
+        <v>3.8</v>
       </c>
       <c r="Q190">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R190">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S190">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T190">
         <v>2.5</v>
       </c>
       <c r="U190">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V190">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W190">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X190">
         <v>-1</v>
       </c>
       <c r="Y190">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z190">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA190">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB190">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC190">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="191" spans="1:29">
@@ -17437,7 +17437,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>6810174</v>
+        <v>6810171</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17449,76 +17449,76 @@
         <v>45325.59375</v>
       </c>
       <c r="F191" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G191" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H191">
+        <v>1</v>
+      </c>
+      <c r="I191">
         <v>0</v>
       </c>
-      <c r="I191">
-        <v>3</v>
-      </c>
       <c r="J191" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K191">
-        <v>1.909</v>
+        <v>3.2</v>
       </c>
       <c r="L191">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M191">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="N191">
-        <v>1.909</v>
+        <v>3.4</v>
       </c>
       <c r="O191">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P191">
-        <v>3.8</v>
+        <v>2.05</v>
       </c>
       <c r="Q191">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R191">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S191">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T191">
         <v>2.5</v>
       </c>
       <c r="U191">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V191">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W191">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X191">
         <v>-1</v>
       </c>
       <c r="Y191">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z191">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA191">
+        <v>-1</v>
+      </c>
+      <c r="AB191">
+        <v>-1</v>
+      </c>
+      <c r="AC191">
         <v>0.925</v>
-      </c>
-      <c r="AB191">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC191">
-        <v>-1</v>
       </c>
     </row>
     <row r="192" spans="1:29">
@@ -20134,7 +20134,7 @@
         <v>3.5</v>
       </c>
       <c r="N221">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="O221">
         <v>3.4</v>
@@ -20143,13 +20143,13 @@
         <v>3.5</v>
       </c>
       <c r="Q221">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R221">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="S221">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="T221">
         <v>2.5</v>
@@ -20208,22 +20208,22 @@
         <v>4</v>
       </c>
       <c r="N222">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="O222">
         <v>3.6</v>
       </c>
       <c r="P222">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="Q222">
         <v>-0.5</v>
       </c>
       <c r="R222">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S222">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T222">
         <v>2.5</v>
@@ -20356,13 +20356,13 @@
         <v>2.15</v>
       </c>
       <c r="N224">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="O224">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P224">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="Q224">
         <v>0.25</v>
@@ -20377,10 +20377,10 @@
         <v>2.5</v>
       </c>
       <c r="U224">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V224">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W224">
         <v>0</v>
@@ -20652,13 +20652,13 @@
         <v>2.625</v>
       </c>
       <c r="N228">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="O228">
         <v>3.5</v>
       </c>
       <c r="P228">
-        <v>2.625</v>
+        <v>2.75</v>
       </c>
       <c r="Q228">
         <v>0</v>
@@ -20673,10 +20673,10 @@
         <v>2.5</v>
       </c>
       <c r="U228">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V228">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W228">
         <v>0</v>

--- a/Belgium First Division A/Belgium First Division A.xlsx
+++ b/Belgium First Division A/Belgium First Division A.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1156" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -103,16 +103,16 @@
     <t>Belgium First Division A</t>
   </si>
   <si>
+    <t>Cercle Brugge</t>
+  </si>
+  <si>
     <t>Gent</t>
   </si>
   <si>
-    <t>Cercle Brugge</t>
+    <t>Genk</t>
   </si>
   <si>
     <t>Union Saint Gilloise</t>
-  </si>
-  <si>
-    <t>Genk</t>
   </si>
   <si>
     <t>Eupen</t>
@@ -154,10 +154,10 @@
     <t>H</t>
   </si>
   <si>
-    <t>A</t>
+    <t>D</t>
   </si>
   <si>
-    <t>D</t>
+    <t>A</t>
   </si>
 </sst>
 </file>
@@ -616,7 +616,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6576986</v>
+        <v>6576985</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -631,55 +631,55 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="s">
         <v>45</v>
       </c>
       <c r="K2">
-        <v>1.5</v>
+        <v>1.727</v>
       </c>
       <c r="L2">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="M2">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="N2">
-        <v>1.363</v>
+        <v>1.45</v>
       </c>
       <c r="O2">
+        <v>5</v>
+      </c>
+      <c r="P2">
         <v>5.75</v>
       </c>
-      <c r="P2">
-        <v>6.5</v>
-      </c>
       <c r="Q2">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R2">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S2">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T2">
         <v>3.5</v>
       </c>
       <c r="U2">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V2">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W2">
-        <v>0.363</v>
+        <v>0.45</v>
       </c>
       <c r="X2">
         <v>-1</v>
@@ -688,16 +688,16 @@
         <v>-1</v>
       </c>
       <c r="Z2">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AA2">
         <v>-1</v>
       </c>
       <c r="AB2">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC2">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -705,7 +705,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6576985</v>
+        <v>6576986</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -720,55 +720,55 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="s">
         <v>45</v>
       </c>
       <c r="K3">
-        <v>1.727</v>
+        <v>1.5</v>
       </c>
       <c r="L3">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="M3">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="N3">
-        <v>1.45</v>
+        <v>1.363</v>
       </c>
       <c r="O3">
-        <v>5</v>
+        <v>5.75</v>
       </c>
       <c r="P3">
-        <v>5.75</v>
+        <v>6.5</v>
       </c>
       <c r="Q3">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R3">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S3">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T3">
         <v>3.5</v>
       </c>
       <c r="U3">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V3">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W3">
-        <v>0.45</v>
+        <v>0.363</v>
       </c>
       <c r="X3">
         <v>-1</v>
@@ -777,16 +777,16 @@
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AA3">
         <v>-1</v>
       </c>
       <c r="AB3">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC3">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -794,7 +794,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6576065</v>
+        <v>6576988</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -809,70 +809,70 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J4" t="s">
         <v>46</v>
       </c>
       <c r="K4">
+        <v>2.4</v>
+      </c>
+      <c r="L4">
+        <v>3.6</v>
+      </c>
+      <c r="M4">
+        <v>2.7</v>
+      </c>
+      <c r="N4">
+        <v>2.4</v>
+      </c>
+      <c r="O4">
+        <v>3.6</v>
+      </c>
+      <c r="P4">
+        <v>2.7</v>
+      </c>
+      <c r="Q4">
+        <v>-0.25</v>
+      </c>
+      <c r="R4">
+        <v>2.05</v>
+      </c>
+      <c r="S4">
         <v>1.75</v>
       </c>
-      <c r="L4">
-        <v>3.8</v>
-      </c>
-      <c r="M4">
-        <v>4.2</v>
-      </c>
-      <c r="N4">
-        <v>1.55</v>
-      </c>
-      <c r="O4">
-        <v>4.333</v>
-      </c>
-      <c r="P4">
-        <v>4.75</v>
-      </c>
-      <c r="Q4">
-        <v>-1</v>
-      </c>
-      <c r="R4">
-        <v>1.975</v>
-      </c>
-      <c r="S4">
-        <v>1.875</v>
-      </c>
       <c r="T4">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U4">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V4">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W4">
         <v>-1</v>
       </c>
       <c r="X4">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y4">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z4">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA4">
-        <v>0.875</v>
+        <v>0.375</v>
       </c>
       <c r="AB4">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AC4">
         <v>-1</v>
@@ -883,7 +883,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6576988</v>
+        <v>6576065</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -898,70 +898,70 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J5" t="s">
         <v>47</v>
       </c>
       <c r="K5">
-        <v>2.4</v>
+        <v>1.75</v>
       </c>
       <c r="L5">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M5">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="N5">
-        <v>2.4</v>
+        <v>1.55</v>
       </c>
       <c r="O5">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P5">
-        <v>2.7</v>
+        <v>4.75</v>
       </c>
       <c r="Q5">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R5">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S5">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="T5">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U5">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V5">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W5">
         <v>-1</v>
       </c>
       <c r="X5">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y5">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z5">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA5">
-        <v>0.375</v>
+        <v>0.875</v>
       </c>
       <c r="AB5">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AC5">
         <v>-1</v>
@@ -984,7 +984,7 @@
         <v>45135.65625</v>
       </c>
       <c r="F6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G6" t="s">
         <v>41</v>
@@ -1085,7 +1085,7 @@
         <v>2</v>
       </c>
       <c r="J7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K7">
         <v>3.25</v>
@@ -1174,7 +1174,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K8">
         <v>1.95</v>
@@ -1254,7 +1254,7 @@
         <v>35</v>
       </c>
       <c r="G9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1263,7 +1263,7 @@
         <v>4</v>
       </c>
       <c r="J9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K9">
         <v>3.6</v>
@@ -1343,7 +1343,7 @@
         <v>36</v>
       </c>
       <c r="G10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -1429,7 +1429,7 @@
         <v>45137.45833333334</v>
       </c>
       <c r="F11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G11" t="s">
         <v>44</v>
@@ -1530,7 +1530,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K12">
         <v>1.45</v>
@@ -1699,7 +1699,7 @@
         <v>39</v>
       </c>
       <c r="G14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1708,7 +1708,7 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K14">
         <v>3.3</v>
@@ -1785,7 +1785,7 @@
         <v>45143.45833333334</v>
       </c>
       <c r="F15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G15" t="s">
         <v>33</v>
@@ -1797,7 +1797,7 @@
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K15">
         <v>1.285</v>
@@ -1874,7 +1874,7 @@
         <v>45143.55208333334</v>
       </c>
       <c r="F16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G16" t="s">
         <v>34</v>
@@ -1975,7 +1975,7 @@
         <v>2</v>
       </c>
       <c r="J17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K17">
         <v>1.95</v>
@@ -2144,7 +2144,7 @@
         <v>42</v>
       </c>
       <c r="G19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -2153,7 +2153,7 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K19">
         <v>3.75</v>
@@ -2242,7 +2242,7 @@
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K20">
         <v>3.6</v>
@@ -2331,7 +2331,7 @@
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K21">
         <v>2.875</v>
@@ -2586,7 +2586,7 @@
         <v>45150.55208333334</v>
       </c>
       <c r="F24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G24" t="s">
         <v>40</v>
@@ -2687,7 +2687,7 @@
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K25">
         <v>3.1</v>
@@ -2776,7 +2776,7 @@
         <v>5</v>
       </c>
       <c r="J26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K26">
         <v>4.75</v>
@@ -2853,10 +2853,10 @@
         <v>45151.45833333334</v>
       </c>
       <c r="F27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -2865,7 +2865,7 @@
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K27">
         <v>2.75</v>
@@ -2954,7 +2954,7 @@
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K28">
         <v>2</v>
@@ -3034,7 +3034,7 @@
         <v>43</v>
       </c>
       <c r="G29" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H29">
         <v>1</v>
@@ -3043,7 +3043,7 @@
         <v>3</v>
       </c>
       <c r="J29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K29">
         <v>3.1</v>
@@ -3132,7 +3132,7 @@
         <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K30">
         <v>4.75</v>
@@ -3212,7 +3212,7 @@
         <v>39</v>
       </c>
       <c r="G31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -3221,7 +3221,7 @@
         <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K31">
         <v>2.9</v>
@@ -3301,7 +3301,7 @@
         <v>42</v>
       </c>
       <c r="G32" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H32">
         <v>4</v>
@@ -3476,7 +3476,7 @@
         <v>45158.45833333334</v>
       </c>
       <c r="F34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G34" t="s">
         <v>34</v>
@@ -3488,7 +3488,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K34">
         <v>1.533</v>
@@ -3565,7 +3565,7 @@
         <v>45158.45833333334</v>
       </c>
       <c r="F35" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G35" t="s">
         <v>38</v>
@@ -3577,7 +3577,7 @@
         <v>2</v>
       </c>
       <c r="J35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K35">
         <v>1.45</v>
@@ -3755,7 +3755,7 @@
         <v>3</v>
       </c>
       <c r="J37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K37">
         <v>2.2</v>
@@ -3844,7 +3844,7 @@
         <v>3</v>
       </c>
       <c r="J38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K38">
         <v>2.1</v>
@@ -4022,7 +4022,7 @@
         <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K40">
         <v>3</v>
@@ -4102,7 +4102,7 @@
         <v>38</v>
       </c>
       <c r="G41" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -4111,7 +4111,7 @@
         <v>2</v>
       </c>
       <c r="J41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K41">
         <v>3.25</v>
@@ -4366,7 +4366,7 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F44" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G44" t="s">
         <v>43</v>
@@ -4556,7 +4556,7 @@
         <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K46">
         <v>2</v>
@@ -4633,7 +4633,7 @@
         <v>45172.35416666666</v>
       </c>
       <c r="F47" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G47" t="s">
         <v>37</v>
@@ -4722,7 +4722,7 @@
         <v>45172.45833333334</v>
       </c>
       <c r="F48" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G48" t="s">
         <v>36</v>
@@ -4734,7 +4734,7 @@
         <v>2</v>
       </c>
       <c r="J48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K48">
         <v>2.3</v>
@@ -4811,7 +4811,7 @@
         <v>45172.5625</v>
       </c>
       <c r="F49" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G49" t="s">
         <v>41</v>
@@ -4823,7 +4823,7 @@
         <v>1</v>
       </c>
       <c r="J49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K49">
         <v>1.95</v>
@@ -4912,7 +4912,7 @@
         <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K50">
         <v>2.2</v>
@@ -5001,7 +5001,7 @@
         <v>3</v>
       </c>
       <c r="J51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K51">
         <v>4.2</v>
@@ -5081,7 +5081,7 @@
         <v>35</v>
       </c>
       <c r="G52" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H52">
         <v>2</v>
@@ -5167,10 +5167,10 @@
         <v>45185.55208333334</v>
       </c>
       <c r="F53" t="s">
+        <v>32</v>
+      </c>
+      <c r="G53" t="s">
         <v>31</v>
-      </c>
-      <c r="G53" t="s">
-        <v>32</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -5179,7 +5179,7 @@
         <v>2</v>
       </c>
       <c r="J53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K53">
         <v>1.909</v>
@@ -5357,7 +5357,7 @@
         <v>3</v>
       </c>
       <c r="J55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K55">
         <v>2.75</v>
@@ -5446,7 +5446,7 @@
         <v>2</v>
       </c>
       <c r="J56" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K56">
         <v>4.5</v>
@@ -5526,7 +5526,7 @@
         <v>40</v>
       </c>
       <c r="G57" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H57">
         <v>1</v>
@@ -5535,7 +5535,7 @@
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K57">
         <v>4.333</v>
@@ -5713,7 +5713,7 @@
         <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K59">
         <v>2.1</v>
@@ -5891,7 +5891,7 @@
         <v>2</v>
       </c>
       <c r="J61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K61">
         <v>2.05</v>
@@ -5980,7 +5980,7 @@
         <v>0</v>
       </c>
       <c r="J62" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K62">
         <v>1.4</v>
@@ -6057,7 +6057,7 @@
         <v>45193.35416666666</v>
       </c>
       <c r="F63" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G63" t="s">
         <v>38</v>
@@ -6069,7 +6069,7 @@
         <v>3</v>
       </c>
       <c r="J63" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K63">
         <v>1.666</v>
@@ -6146,10 +6146,10 @@
         <v>45193.45833333334</v>
       </c>
       <c r="F64" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G64" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -6158,7 +6158,7 @@
         <v>2</v>
       </c>
       <c r="J64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K64">
         <v>2.8</v>
@@ -6247,7 +6247,7 @@
         <v>1</v>
       </c>
       <c r="J65" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K65">
         <v>2.75</v>
@@ -6324,7 +6324,7 @@
         <v>45193.59375</v>
       </c>
       <c r="F66" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G66" t="s">
         <v>33</v>
@@ -6416,7 +6416,7 @@
         <v>36</v>
       </c>
       <c r="G67" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H67">
         <v>0</v>
@@ -6425,7 +6425,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K67">
         <v>2.15</v>
@@ -6505,7 +6505,7 @@
         <v>35</v>
       </c>
       <c r="G68" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H68">
         <v>2</v>
@@ -6514,7 +6514,7 @@
         <v>3</v>
       </c>
       <c r="J68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K68">
         <v>4.75</v>
@@ -6594,7 +6594,7 @@
         <v>37</v>
       </c>
       <c r="G69" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H69">
         <v>1</v>
@@ -6603,7 +6603,7 @@
         <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K69">
         <v>1.833</v>
@@ -6683,7 +6683,7 @@
         <v>44</v>
       </c>
       <c r="G70" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H70">
         <v>2</v>
@@ -6781,7 +6781,7 @@
         <v>3</v>
       </c>
       <c r="J71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K71">
         <v>4.2</v>
@@ -6870,7 +6870,7 @@
         <v>2</v>
       </c>
       <c r="J72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K72">
         <v>2.2</v>
@@ -6959,7 +6959,7 @@
         <v>0</v>
       </c>
       <c r="J73" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K73">
         <v>4.1</v>
@@ -7036,7 +7036,7 @@
         <v>45200.35416666666</v>
       </c>
       <c r="F74" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G74" t="s">
         <v>34</v>
@@ -7125,7 +7125,7 @@
         <v>45200.45833333334</v>
       </c>
       <c r="F75" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G75" t="s">
         <v>43</v>
@@ -7137,7 +7137,7 @@
         <v>3</v>
       </c>
       <c r="J75" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K75">
         <v>1.5</v>
@@ -7226,7 +7226,7 @@
         <v>1</v>
       </c>
       <c r="J76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K76">
         <v>1.45</v>
@@ -7306,7 +7306,7 @@
         <v>35</v>
       </c>
       <c r="G77" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H77">
         <v>1</v>
@@ -7315,7 +7315,7 @@
         <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K77">
         <v>5</v>
@@ -7481,7 +7481,7 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F79" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G79" t="s">
         <v>40</v>
@@ -7926,10 +7926,10 @@
         <v>45207.5625</v>
       </c>
       <c r="F84" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G84" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H84">
         <v>1</v>
@@ -7938,7 +7938,7 @@
         <v>1</v>
       </c>
       <c r="J84" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K84">
         <v>1.95</v>
@@ -8018,7 +8018,7 @@
         <v>38</v>
       </c>
       <c r="G85" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -8027,7 +8027,7 @@
         <v>4</v>
       </c>
       <c r="J85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K85">
         <v>4</v>
@@ -8104,7 +8104,7 @@
         <v>45219.65625</v>
       </c>
       <c r="F86" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G86" t="s">
         <v>33</v>
@@ -8294,7 +8294,7 @@
         <v>1</v>
       </c>
       <c r="J88" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K88">
         <v>2.25</v>
@@ -8460,7 +8460,7 @@
         <v>45221.35416666666</v>
       </c>
       <c r="F90" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G90" t="s">
         <v>42</v>
@@ -8549,10 +8549,10 @@
         <v>45221.45833333334</v>
       </c>
       <c r="F91" t="s">
+        <v>29</v>
+      </c>
+      <c r="G91" t="s">
         <v>30</v>
-      </c>
-      <c r="G91" t="s">
-        <v>29</v>
       </c>
       <c r="H91">
         <v>2</v>
@@ -8908,7 +8908,7 @@
         <v>42</v>
       </c>
       <c r="G95" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H95">
         <v>0</v>
@@ -8917,7 +8917,7 @@
         <v>2</v>
       </c>
       <c r="J95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K95">
         <v>3</v>
@@ -9264,7 +9264,7 @@
         <v>43</v>
       </c>
       <c r="G99" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H99">
         <v>1</v>
@@ -9273,7 +9273,7 @@
         <v>3</v>
       </c>
       <c r="J99" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K99">
         <v>4.5</v>
@@ -9350,7 +9350,7 @@
         <v>45228.60416666666</v>
       </c>
       <c r="F100" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G100" t="s">
         <v>39</v>
@@ -9442,7 +9442,7 @@
         <v>44</v>
       </c>
       <c r="G101" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H101">
         <v>0</v>
@@ -9451,7 +9451,7 @@
         <v>3</v>
       </c>
       <c r="J101" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K101">
         <v>6</v>
@@ -9540,7 +9540,7 @@
         <v>1</v>
       </c>
       <c r="J102" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K102">
         <v>1.666</v>
@@ -9629,7 +9629,7 @@
         <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K103">
         <v>1.833</v>
@@ -9718,7 +9718,7 @@
         <v>2</v>
       </c>
       <c r="J104" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K104">
         <v>2.1</v>
@@ -9798,7 +9798,7 @@
         <v>36</v>
       </c>
       <c r="G105" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H105">
         <v>3</v>
@@ -9884,7 +9884,7 @@
         <v>45235.39583333334</v>
       </c>
       <c r="F106" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G106" t="s">
         <v>41</v>
@@ -9896,7 +9896,7 @@
         <v>3</v>
       </c>
       <c r="J106" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K106">
         <v>2.375</v>
@@ -9985,7 +9985,7 @@
         <v>1</v>
       </c>
       <c r="J107" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K107">
         <v>1.85</v>
@@ -10062,7 +10062,7 @@
         <v>45235.60416666666</v>
       </c>
       <c r="F108" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G108" t="s">
         <v>37</v>
@@ -10154,7 +10154,7 @@
         <v>34</v>
       </c>
       <c r="G109" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H109">
         <v>1</v>
@@ -10163,7 +10163,7 @@
         <v>3</v>
       </c>
       <c r="J109" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K109">
         <v>3.5</v>
@@ -10252,7 +10252,7 @@
         <v>3</v>
       </c>
       <c r="J110" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K110">
         <v>2.5</v>
@@ -10430,7 +10430,7 @@
         <v>3</v>
       </c>
       <c r="J112" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K112">
         <v>2.55</v>
@@ -10599,7 +10599,7 @@
         <v>37</v>
       </c>
       <c r="G114" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H114">
         <v>0</v>
@@ -10608,7 +10608,7 @@
         <v>0</v>
       </c>
       <c r="J114" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K114">
         <v>1.727</v>
@@ -10685,7 +10685,7 @@
         <v>45242.5</v>
       </c>
       <c r="F115" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G115" t="s">
         <v>40</v>
@@ -10774,7 +10774,7 @@
         <v>45242.60416666666</v>
       </c>
       <c r="F116" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G116" t="s">
         <v>41</v>
@@ -10786,7 +10786,7 @@
         <v>1</v>
       </c>
       <c r="J116" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K116">
         <v>2.05</v>
@@ -10863,7 +10863,7 @@
         <v>45242.63541666666</v>
       </c>
       <c r="F117" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G117" t="s">
         <v>44</v>
@@ -10964,7 +10964,7 @@
         <v>1</v>
       </c>
       <c r="J118" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K118">
         <v>3.6</v>
@@ -11041,7 +11041,7 @@
         <v>45255.5</v>
       </c>
       <c r="F119" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G119" t="s">
         <v>33</v>
@@ -11222,7 +11222,7 @@
         <v>39</v>
       </c>
       <c r="G121" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H121">
         <v>1</v>
@@ -11308,10 +11308,10 @@
         <v>45256.39583333334</v>
       </c>
       <c r="F122" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G122" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H122">
         <v>1</v>
@@ -11320,7 +11320,7 @@
         <v>1</v>
       </c>
       <c r="J122" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K122">
         <v>2.4</v>
@@ -11409,7 +11409,7 @@
         <v>1</v>
       </c>
       <c r="J123" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K123">
         <v>4.5</v>
@@ -11587,7 +11587,7 @@
         <v>3</v>
       </c>
       <c r="J125" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K125">
         <v>2.6</v>
@@ -11676,7 +11676,7 @@
         <v>3</v>
       </c>
       <c r="J126" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K126">
         <v>4.5</v>
@@ -11765,7 +11765,7 @@
         <v>0</v>
       </c>
       <c r="J127" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K127">
         <v>2.75</v>
@@ -11854,7 +11854,7 @@
         <v>1</v>
       </c>
       <c r="J128" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K128">
         <v>2.2</v>
@@ -12020,10 +12020,10 @@
         <v>45263.39583333334</v>
       </c>
       <c r="F130" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G130" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H130">
         <v>2</v>
@@ -12032,7 +12032,7 @@
         <v>2</v>
       </c>
       <c r="J130" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K130">
         <v>2.15</v>
@@ -12121,7 +12121,7 @@
         <v>2</v>
       </c>
       <c r="J131" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K131">
         <v>2.15</v>
@@ -12287,10 +12287,10 @@
         <v>45263.63541666666</v>
       </c>
       <c r="F133" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G133" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H133">
         <v>2</v>
@@ -12388,7 +12388,7 @@
         <v>2</v>
       </c>
       <c r="J134" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K134">
         <v>2.8</v>
@@ -12465,7 +12465,7 @@
         <v>45269.5</v>
       </c>
       <c r="F135" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G135" t="s">
         <v>36</v>
@@ -12477,7 +12477,7 @@
         <v>3</v>
       </c>
       <c r="J135" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K135">
         <v>2.7</v>
@@ -12566,7 +12566,7 @@
         <v>1</v>
       </c>
       <c r="J136" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K136">
         <v>1.9</v>
@@ -12643,7 +12643,7 @@
         <v>45269.69791666666</v>
       </c>
       <c r="F137" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G137" t="s">
         <v>35</v>
@@ -12744,7 +12744,7 @@
         <v>0</v>
       </c>
       <c r="J138" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K138">
         <v>4.5</v>
@@ -12824,7 +12824,7 @@
         <v>33</v>
       </c>
       <c r="G139" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H139">
         <v>1</v>
@@ -12833,7 +12833,7 @@
         <v>3</v>
       </c>
       <c r="J139" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K139">
         <v>7</v>
@@ -12922,7 +12922,7 @@
         <v>2</v>
       </c>
       <c r="J140" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K140">
         <v>1.5</v>
@@ -13002,7 +13002,7 @@
         <v>34</v>
       </c>
       <c r="G141" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H141">
         <v>1</v>
@@ -13011,7 +13011,7 @@
         <v>3</v>
       </c>
       <c r="J141" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K141">
         <v>5</v>
@@ -13180,7 +13180,7 @@
         <v>40</v>
       </c>
       <c r="G143" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H143">
         <v>1</v>
@@ -13189,7 +13189,7 @@
         <v>2</v>
       </c>
       <c r="J143" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K143">
         <v>4</v>
@@ -13367,7 +13367,7 @@
         <v>0</v>
       </c>
       <c r="J145" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K145">
         <v>2.2</v>
@@ -13447,7 +13447,7 @@
         <v>37</v>
       </c>
       <c r="G146" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H146">
         <v>2</v>
@@ -13533,7 +13533,7 @@
         <v>45277.5</v>
       </c>
       <c r="F147" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G147" t="s">
         <v>42</v>
@@ -13634,7 +13634,7 @@
         <v>1</v>
       </c>
       <c r="J148" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K148">
         <v>1.909</v>
@@ -13711,7 +13711,7 @@
         <v>45277.63541666666</v>
       </c>
       <c r="F149" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G149" t="s">
         <v>44</v>
@@ -13800,7 +13800,7 @@
         <v>45280.60416666666</v>
       </c>
       <c r="F150" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G150" t="s">
         <v>44</v>
@@ -13978,7 +13978,7 @@
         <v>45281.69791666666</v>
       </c>
       <c r="F152" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G152" t="s">
         <v>40</v>
@@ -14079,7 +14079,7 @@
         <v>6</v>
       </c>
       <c r="J153" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K153">
         <v>6</v>
@@ -14159,7 +14159,7 @@
         <v>33</v>
       </c>
       <c r="G154" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H154">
         <v>1</v>
@@ -14168,7 +14168,7 @@
         <v>2</v>
       </c>
       <c r="J154" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K154">
         <v>9.5</v>
@@ -14233,7 +14233,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6810130</v>
+        <v>6810132</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14245,76 +14245,76 @@
         <v>45283.59375</v>
       </c>
       <c r="F155" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G155" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H155">
+        <v>1</v>
+      </c>
+      <c r="I155">
+        <v>0</v>
+      </c>
+      <c r="J155" t="s">
+        <v>45</v>
+      </c>
+      <c r="K155">
+        <v>2.2</v>
+      </c>
+      <c r="L155">
+        <v>3.4</v>
+      </c>
+      <c r="M155">
+        <v>3.2</v>
+      </c>
+      <c r="N155">
+        <v>2.3</v>
+      </c>
+      <c r="O155">
+        <v>3.3</v>
+      </c>
+      <c r="P155">
+        <v>3</v>
+      </c>
+      <c r="Q155">
+        <v>-0.25</v>
+      </c>
+      <c r="R155">
         <v>2</v>
       </c>
-      <c r="I155">
+      <c r="S155">
+        <v>1.85</v>
+      </c>
+      <c r="T155">
+        <v>2.25</v>
+      </c>
+      <c r="U155">
+        <v>1.85</v>
+      </c>
+      <c r="V155">
         <v>2</v>
       </c>
-      <c r="J155" t="s">
-        <v>47</v>
-      </c>
-      <c r="K155">
-        <v>1.363</v>
-      </c>
-      <c r="L155">
-        <v>5</v>
-      </c>
-      <c r="M155">
-        <v>7.5</v>
-      </c>
-      <c r="N155">
-        <v>1.333</v>
-      </c>
-      <c r="O155">
-        <v>5.25</v>
-      </c>
-      <c r="P155">
-        <v>8</v>
-      </c>
-      <c r="Q155">
-        <v>-1.5</v>
-      </c>
-      <c r="R155">
-        <v>1.9</v>
-      </c>
-      <c r="S155">
-        <v>1.95</v>
-      </c>
-      <c r="T155">
-        <v>3</v>
-      </c>
-      <c r="U155">
-        <v>1.8</v>
-      </c>
-      <c r="V155">
-        <v>2.05</v>
-      </c>
       <c r="W155">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X155">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Y155">
         <v>-1</v>
       </c>
       <c r="Z155">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA155">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB155">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC155">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:29">
@@ -14322,7 +14322,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6810132</v>
+        <v>6810130</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14334,76 +14334,76 @@
         <v>45283.59375</v>
       </c>
       <c r="F156" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G156" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H156">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I156">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J156" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K156">
-        <v>2.2</v>
+        <v>1.363</v>
       </c>
       <c r="L156">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="M156">
-        <v>3.2</v>
+        <v>7.5</v>
       </c>
       <c r="N156">
-        <v>2.3</v>
+        <v>1.333</v>
       </c>
       <c r="O156">
-        <v>3.3</v>
+        <v>5.25</v>
       </c>
       <c r="P156">
+        <v>8</v>
+      </c>
+      <c r="Q156">
+        <v>-1.5</v>
+      </c>
+      <c r="R156">
+        <v>1.9</v>
+      </c>
+      <c r="S156">
+        <v>1.95</v>
+      </c>
+      <c r="T156">
         <v>3</v>
       </c>
-      <c r="Q156">
-        <v>-0.25</v>
-      </c>
-      <c r="R156">
-        <v>2</v>
-      </c>
-      <c r="S156">
-        <v>1.85</v>
-      </c>
-      <c r="T156">
-        <v>2.25</v>
-      </c>
       <c r="U156">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V156">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W156">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X156">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Y156">
         <v>-1</v>
       </c>
       <c r="Z156">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA156">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB156">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC156">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14426,7 +14426,7 @@
         <v>41</v>
       </c>
       <c r="G157" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H157">
         <v>2</v>
@@ -14512,7 +14512,7 @@
         <v>45286.39583333334</v>
       </c>
       <c r="F158" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G158" t="s">
         <v>36</v>
@@ -14589,7 +14589,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>6810145</v>
+        <v>6810142</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14601,76 +14601,76 @@
         <v>45286.5</v>
       </c>
       <c r="F159" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G159" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H159">
+        <v>3</v>
+      </c>
+      <c r="I159">
         <v>0</v>
       </c>
-      <c r="I159">
-        <v>2</v>
-      </c>
       <c r="J159" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K159">
-        <v>7</v>
+        <v>1.75</v>
       </c>
       <c r="L159">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M159">
-        <v>1.4</v>
+        <v>4</v>
       </c>
       <c r="N159">
-        <v>8.5</v>
+        <v>1.8</v>
       </c>
       <c r="O159">
-        <v>5.75</v>
+        <v>3.8</v>
       </c>
       <c r="P159">
-        <v>1.285</v>
+        <v>3.8</v>
       </c>
       <c r="Q159">
-        <v>1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R159">
+        <v>1.825</v>
+      </c>
+      <c r="S159">
         <v>2.025</v>
       </c>
-      <c r="S159">
-        <v>1.825</v>
-      </c>
       <c r="T159">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U159">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="V159">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W159">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X159">
         <v>-1</v>
       </c>
       <c r="Y159">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z159">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA159">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB159">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC159">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -14678,7 +14678,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>6810142</v>
+        <v>6810145</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14690,76 +14690,76 @@
         <v>45286.5</v>
       </c>
       <c r="F160" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G160" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H160">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I160">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J160" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K160">
-        <v>1.75</v>
+        <v>7</v>
       </c>
       <c r="L160">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M160">
-        <v>4</v>
+        <v>1.4</v>
       </c>
       <c r="N160">
+        <v>8.5</v>
+      </c>
+      <c r="O160">
+        <v>5.75</v>
+      </c>
+      <c r="P160">
+        <v>1.285</v>
+      </c>
+      <c r="Q160">
+        <v>1.5</v>
+      </c>
+      <c r="R160">
+        <v>2.025</v>
+      </c>
+      <c r="S160">
+        <v>1.825</v>
+      </c>
+      <c r="T160">
+        <v>3.25</v>
+      </c>
+      <c r="U160">
+        <v>2.05</v>
+      </c>
+      <c r="V160">
         <v>1.8</v>
       </c>
-      <c r="O160">
-        <v>3.8</v>
-      </c>
-      <c r="P160">
-        <v>3.8</v>
-      </c>
-      <c r="Q160">
-        <v>-0.5</v>
-      </c>
-      <c r="R160">
-        <v>1.825</v>
-      </c>
-      <c r="S160">
-        <v>2.025</v>
-      </c>
-      <c r="T160">
-        <v>3</v>
-      </c>
-      <c r="U160">
-        <v>1.975</v>
-      </c>
-      <c r="V160">
-        <v>1.875</v>
-      </c>
       <c r="W160">
+        <v>-1</v>
+      </c>
+      <c r="X160">
+        <v>-1</v>
+      </c>
+      <c r="Y160">
+        <v>0.2849999999999999</v>
+      </c>
+      <c r="Z160">
+        <v>-1</v>
+      </c>
+      <c r="AA160">
+        <v>0.825</v>
+      </c>
+      <c r="AB160">
+        <v>-1</v>
+      </c>
+      <c r="AC160">
         <v>0.8</v>
-      </c>
-      <c r="X160">
-        <v>-1</v>
-      </c>
-      <c r="Y160">
-        <v>-1</v>
-      </c>
-      <c r="Z160">
-        <v>0.825</v>
-      </c>
-      <c r="AA160">
-        <v>-1</v>
-      </c>
-      <c r="AB160">
-        <v>0</v>
-      </c>
-      <c r="AC160">
-        <v>-0</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -14871,7 +14871,7 @@
         <v>37</v>
       </c>
       <c r="G162" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H162">
         <v>1</v>
@@ -14880,7 +14880,7 @@
         <v>1</v>
       </c>
       <c r="J162" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K162">
         <v>2.3</v>
@@ -14969,7 +14969,7 @@
         <v>1</v>
       </c>
       <c r="J163" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K163">
         <v>2.2</v>
@@ -15034,7 +15034,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6810143</v>
+        <v>6810139</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15046,58 +15046,58 @@
         <v>45287.69791666666</v>
       </c>
       <c r="F164" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G164" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H164">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J164" t="s">
         <v>45</v>
       </c>
       <c r="K164">
+        <v>1.869</v>
+      </c>
+      <c r="L164">
+        <v>3.7</v>
+      </c>
+      <c r="M164">
+        <v>3.8</v>
+      </c>
+      <c r="N164">
         <v>2.05</v>
       </c>
-      <c r="L164">
-        <v>3.4</v>
-      </c>
-      <c r="M164">
-        <v>3.5</v>
-      </c>
-      <c r="N164">
-        <v>2.375</v>
-      </c>
       <c r="O164">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P164">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="Q164">
         <v>-0.25</v>
       </c>
       <c r="R164">
+        <v>1.825</v>
+      </c>
+      <c r="S164">
         <v>2.025</v>
       </c>
-      <c r="S164">
-        <v>1.825</v>
-      </c>
       <c r="T164">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U164">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V164">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W164">
-        <v>1.375</v>
+        <v>1.05</v>
       </c>
       <c r="X164">
         <v>-1</v>
@@ -15106,16 +15106,16 @@
         <v>-1</v>
       </c>
       <c r="Z164">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AA164">
         <v>-1</v>
       </c>
       <c r="AB164">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC164">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15123,7 +15123,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6810139</v>
+        <v>6810143</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15135,58 +15135,58 @@
         <v>45287.69791666666</v>
       </c>
       <c r="F165" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G165" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I165">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J165" t="s">
         <v>45</v>
       </c>
       <c r="K165">
-        <v>1.869</v>
+        <v>2.05</v>
       </c>
       <c r="L165">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="M165">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="N165">
-        <v>2.05</v>
+        <v>2.375</v>
       </c>
       <c r="O165">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P165">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q165">
         <v>-0.25</v>
       </c>
       <c r="R165">
+        <v>2.025</v>
+      </c>
+      <c r="S165">
         <v>1.825</v>
       </c>
-      <c r="S165">
+      <c r="T165">
+        <v>2.25</v>
+      </c>
+      <c r="U165">
         <v>2.025</v>
       </c>
-      <c r="T165">
-        <v>2.75</v>
-      </c>
-      <c r="U165">
-        <v>1.9</v>
-      </c>
       <c r="V165">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W165">
-        <v>1.05</v>
+        <v>1.375</v>
       </c>
       <c r="X165">
         <v>-1</v>
@@ -15195,16 +15195,16 @@
         <v>-1</v>
       </c>
       <c r="Z165">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AA165">
         <v>-1</v>
       </c>
       <c r="AB165">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC165">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -15224,7 +15224,7 @@
         <v>45310.69791666666</v>
       </c>
       <c r="F166" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G166" t="s">
         <v>42</v>
@@ -15236,7 +15236,7 @@
         <v>2</v>
       </c>
       <c r="J166" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K166">
         <v>1.4</v>
@@ -15313,10 +15313,10 @@
         <v>45311.5</v>
       </c>
       <c r="F167" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G167" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H167">
         <v>1</v>
@@ -15325,7 +15325,7 @@
         <v>1</v>
       </c>
       <c r="J167" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K167">
         <v>1.75</v>
@@ -15414,7 +15414,7 @@
         <v>1</v>
       </c>
       <c r="J168" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K168">
         <v>1.6</v>
@@ -15669,7 +15669,7 @@
         <v>45312.5</v>
       </c>
       <c r="F171" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G171" t="s">
         <v>38</v>
@@ -15770,7 +15770,7 @@
         <v>1</v>
       </c>
       <c r="J172" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K172">
         <v>4.5</v>
@@ -15847,7 +15847,7 @@
         <v>45317.69791666666</v>
       </c>
       <c r="F173" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G173" t="s">
         <v>39</v>
@@ -15859,7 +15859,7 @@
         <v>1</v>
       </c>
       <c r="J173" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K173">
         <v>1.55</v>
@@ -15948,7 +15948,7 @@
         <v>0</v>
       </c>
       <c r="J174" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K174">
         <v>2.75</v>
@@ -16025,7 +16025,7 @@
         <v>45318.69791666666</v>
       </c>
       <c r="F175" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G175" t="s">
         <v>43</v>
@@ -16037,7 +16037,7 @@
         <v>2</v>
       </c>
       <c r="J175" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K175">
         <v>1.363</v>
@@ -16126,7 +16126,7 @@
         <v>4</v>
       </c>
       <c r="J176" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K176">
         <v>5.5</v>
@@ -16206,7 +16206,7 @@
         <v>38</v>
       </c>
       <c r="G177" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H177">
         <v>1</v>
@@ -16215,7 +16215,7 @@
         <v>1</v>
       </c>
       <c r="J177" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K177">
         <v>3.75</v>
@@ -16384,7 +16384,7 @@
         <v>41</v>
       </c>
       <c r="G179" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H179">
         <v>2</v>
@@ -16393,7 +16393,7 @@
         <v>2</v>
       </c>
       <c r="J179" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K179">
         <v>3</v>
@@ -16547,7 +16547,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>6810169</v>
+        <v>6810167</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16559,73 +16559,73 @@
         <v>45321.6875</v>
       </c>
       <c r="F181" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G181" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H181">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I181">
+        <v>3</v>
+      </c>
+      <c r="J181" t="s">
+        <v>46</v>
+      </c>
+      <c r="K181">
+        <v>1.125</v>
+      </c>
+      <c r="L181">
+        <v>8.5</v>
+      </c>
+      <c r="M181">
+        <v>17</v>
+      </c>
+      <c r="N181">
+        <v>1.125</v>
+      </c>
+      <c r="O181">
+        <v>8.5</v>
+      </c>
+      <c r="P181">
+        <v>17</v>
+      </c>
+      <c r="Q181">
+        <v>-2.25</v>
+      </c>
+      <c r="R181">
+        <v>1.85</v>
+      </c>
+      <c r="S181">
         <v>2</v>
       </c>
-      <c r="J181" t="s">
-        <v>45</v>
-      </c>
-      <c r="K181">
-        <v>3.4</v>
-      </c>
-      <c r="L181">
-        <v>3.8</v>
-      </c>
-      <c r="M181">
+      <c r="T181">
+        <v>3.5</v>
+      </c>
+      <c r="U181">
+        <v>1.9</v>
+      </c>
+      <c r="V181">
         <v>1.95</v>
       </c>
-      <c r="N181">
-        <v>3.3</v>
-      </c>
-      <c r="O181">
-        <v>3.6</v>
-      </c>
-      <c r="P181">
-        <v>2.05</v>
-      </c>
-      <c r="Q181">
-        <v>0.25</v>
-      </c>
-      <c r="R181">
-        <v>2</v>
-      </c>
-      <c r="S181">
-        <v>1.85</v>
-      </c>
-      <c r="T181">
-        <v>2.75</v>
-      </c>
-      <c r="U181">
-        <v>1.975</v>
-      </c>
-      <c r="V181">
-        <v>1.875</v>
-      </c>
       <c r="W181">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X181">
-        <v>-1</v>
+        <v>7.5</v>
       </c>
       <c r="Y181">
         <v>-1</v>
       </c>
       <c r="Z181">
+        <v>-1</v>
+      </c>
+      <c r="AA181">
         <v>1</v>
       </c>
-      <c r="AA181">
-        <v>-1</v>
-      </c>
       <c r="AB181">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC181">
         <v>-1</v>
@@ -16636,7 +16636,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>6810167</v>
+        <v>6810169</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16648,73 +16648,73 @@
         <v>45321.6875</v>
       </c>
       <c r="F182" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G182" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H182">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I182">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J182" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K182">
-        <v>1.125</v>
+        <v>3.4</v>
       </c>
       <c r="L182">
-        <v>8.5</v>
+        <v>3.8</v>
       </c>
       <c r="M182">
-        <v>17</v>
+        <v>1.95</v>
       </c>
       <c r="N182">
-        <v>1.125</v>
+        <v>3.3</v>
       </c>
       <c r="O182">
-        <v>8.5</v>
+        <v>3.6</v>
       </c>
       <c r="P182">
-        <v>17</v>
+        <v>2.05</v>
       </c>
       <c r="Q182">
-        <v>-2.25</v>
+        <v>0.25</v>
       </c>
       <c r="R182">
+        <v>2</v>
+      </c>
+      <c r="S182">
         <v>1.85</v>
       </c>
-      <c r="S182">
-        <v>2</v>
-      </c>
       <c r="T182">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U182">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V182">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W182">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X182">
-        <v>7.5</v>
+        <v>-1</v>
       </c>
       <c r="Y182">
         <v>-1</v>
       </c>
       <c r="Z182">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA182">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB182">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC182">
         <v>-1</v>
@@ -16829,7 +16829,7 @@
         <v>40</v>
       </c>
       <c r="G184" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H184">
         <v>2</v>
@@ -16915,7 +16915,7 @@
         <v>45322.70833333334</v>
       </c>
       <c r="F185" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G185" t="s">
         <v>35</v>
@@ -17016,7 +17016,7 @@
         <v>1</v>
       </c>
       <c r="J186" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K186">
         <v>4</v>
@@ -17105,7 +17105,7 @@
         <v>2</v>
       </c>
       <c r="J187" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K187">
         <v>3.5</v>
@@ -17185,7 +17185,7 @@
         <v>38</v>
       </c>
       <c r="G188" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H188">
         <v>4</v>
@@ -17283,7 +17283,7 @@
         <v>2</v>
       </c>
       <c r="J189" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K189">
         <v>3.1</v>
@@ -17348,7 +17348,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>6810174</v>
+        <v>6810171</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17360,76 +17360,76 @@
         <v>45325.59375</v>
       </c>
       <c r="F190" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G190" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H190">
+        <v>1</v>
+      </c>
+      <c r="I190">
         <v>0</v>
       </c>
-      <c r="I190">
-        <v>3</v>
-      </c>
       <c r="J190" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K190">
-        <v>1.909</v>
+        <v>3.2</v>
       </c>
       <c r="L190">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M190">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="N190">
-        <v>1.909</v>
+        <v>3.4</v>
       </c>
       <c r="O190">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P190">
-        <v>3.8</v>
+        <v>2.05</v>
       </c>
       <c r="Q190">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R190">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S190">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T190">
         <v>2.5</v>
       </c>
       <c r="U190">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V190">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W190">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X190">
         <v>-1</v>
       </c>
       <c r="Y190">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z190">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA190">
+        <v>-1</v>
+      </c>
+      <c r="AB190">
+        <v>-1</v>
+      </c>
+      <c r="AC190">
         <v>0.925</v>
-      </c>
-      <c r="AB190">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC190">
-        <v>-1</v>
       </c>
     </row>
     <row r="191" spans="1:29">
@@ -17437,7 +17437,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>6810171</v>
+        <v>6810174</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17449,76 +17449,76 @@
         <v>45325.59375</v>
       </c>
       <c r="F191" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G191" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H191">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I191">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J191" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K191">
-        <v>3.2</v>
+        <v>1.909</v>
       </c>
       <c r="L191">
+        <v>3.75</v>
+      </c>
+      <c r="M191">
         <v>3.5</v>
       </c>
-      <c r="M191">
-        <v>2.1</v>
-      </c>
       <c r="N191">
-        <v>3.4</v>
+        <v>1.909</v>
       </c>
       <c r="O191">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P191">
-        <v>2.05</v>
+        <v>3.8</v>
       </c>
       <c r="Q191">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R191">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S191">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T191">
         <v>2.5</v>
       </c>
       <c r="U191">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V191">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W191">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X191">
         <v>-1</v>
       </c>
       <c r="Y191">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z191">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA191">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB191">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC191">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="192" spans="1:29">
@@ -17538,10 +17538,10 @@
         <v>45325.69791666666</v>
       </c>
       <c r="F192" t="s">
+        <v>31</v>
+      </c>
+      <c r="G192" t="s">
         <v>32</v>
-      </c>
-      <c r="G192" t="s">
-        <v>31</v>
       </c>
       <c r="H192">
         <v>0</v>
@@ -17550,7 +17550,7 @@
         <v>1</v>
       </c>
       <c r="J192" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K192">
         <v>2.8</v>
@@ -17728,7 +17728,7 @@
         <v>1</v>
       </c>
       <c r="J194" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K194">
         <v>3.2</v>
@@ -17808,7 +17808,7 @@
         <v>41</v>
       </c>
       <c r="G195" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H195">
         <v>1</v>
@@ -17894,7 +17894,7 @@
         <v>45326.63541666666</v>
       </c>
       <c r="F196" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G196" t="s">
         <v>38</v>
@@ -18161,7 +18161,7 @@
         <v>45332.59375</v>
       </c>
       <c r="F199" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G199" t="s">
         <v>43</v>
@@ -18173,7 +18173,7 @@
         <v>2</v>
       </c>
       <c r="J199" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K199">
         <v>1.285</v>
@@ -18351,7 +18351,7 @@
         <v>4</v>
       </c>
       <c r="J201" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K201">
         <v>5.25</v>
@@ -18431,7 +18431,7 @@
         <v>42</v>
       </c>
       <c r="G202" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H202">
         <v>1</v>
@@ -18440,7 +18440,7 @@
         <v>1</v>
       </c>
       <c r="J202" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K202">
         <v>3.8</v>
@@ -18529,7 +18529,7 @@
         <v>3</v>
       </c>
       <c r="J203" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K203">
         <v>3.6</v>
@@ -18606,10 +18606,10 @@
         <v>45333.63541666666</v>
       </c>
       <c r="F204" t="s">
+        <v>30</v>
+      </c>
+      <c r="G204" t="s">
         <v>29</v>
-      </c>
-      <c r="G204" t="s">
-        <v>30</v>
       </c>
       <c r="H204">
         <v>1</v>
@@ -18618,7 +18618,7 @@
         <v>2</v>
       </c>
       <c r="J204" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K204">
         <v>2.05</v>
@@ -18784,7 +18784,7 @@
         <v>45339.5</v>
       </c>
       <c r="F206" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G206" t="s">
         <v>35</v>
@@ -18885,7 +18885,7 @@
         <v>0</v>
       </c>
       <c r="J207" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K207">
         <v>2.25</v>
@@ -18974,7 +18974,7 @@
         <v>1</v>
       </c>
       <c r="J208" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K208">
         <v>1.533</v>
@@ -19051,7 +19051,7 @@
         <v>45340.39583333334</v>
       </c>
       <c r="F209" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G209" t="s">
         <v>37</v>
@@ -19063,7 +19063,7 @@
         <v>1</v>
       </c>
       <c r="J209" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K209">
         <v>3</v>
@@ -19143,7 +19143,7 @@
         <v>44</v>
       </c>
       <c r="G210" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H210">
         <v>1</v>
@@ -19152,7 +19152,7 @@
         <v>3</v>
       </c>
       <c r="J210" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K210">
         <v>6</v>
@@ -19321,7 +19321,7 @@
         <v>33</v>
       </c>
       <c r="G212" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H212">
         <v>0</v>
@@ -19330,7 +19330,7 @@
         <v>2</v>
       </c>
       <c r="J212" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K212">
         <v>5</v>
@@ -19410,7 +19410,7 @@
         <v>34</v>
       </c>
       <c r="G213" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H213">
         <v>0</v>
@@ -19419,7 +19419,7 @@
         <v>1</v>
       </c>
       <c r="J213" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K213">
         <v>4.2</v>
@@ -19508,7 +19508,7 @@
         <v>1</v>
       </c>
       <c r="J214" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K214">
         <v>2.8</v>
@@ -19775,7 +19775,7 @@
         <v>2</v>
       </c>
       <c r="J217" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K217">
         <v>1.666</v>
@@ -19852,7 +19852,7 @@
         <v>45347.5</v>
       </c>
       <c r="F218" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G218" t="s">
         <v>36</v>
@@ -19864,7 +19864,7 @@
         <v>2</v>
       </c>
       <c r="J218" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K218">
         <v>2.25</v>
@@ -19941,7 +19941,7 @@
         <v>45347.60416666666</v>
       </c>
       <c r="F219" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G219" t="s">
         <v>39</v>
@@ -20033,7 +20033,7 @@
         <v>33</v>
       </c>
       <c r="G220" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H220">
         <v>0</v>
@@ -20042,7 +20042,7 @@
         <v>2</v>
       </c>
       <c r="J220" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K220">
         <v>5</v>
@@ -20124,6 +20124,15 @@
       <c r="G221" t="s">
         <v>34</v>
       </c>
+      <c r="H221">
+        <v>0</v>
+      </c>
+      <c r="I221">
+        <v>1</v>
+      </c>
+      <c r="J221" t="s">
+        <v>47</v>
+      </c>
       <c r="K221">
         <v>2</v>
       </c>
@@ -20134,46 +20143,52 @@
         <v>3.5</v>
       </c>
       <c r="N221">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="O221">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P221">
         <v>3.5</v>
       </c>
       <c r="Q221">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R221">
+        <v>1.8</v>
+      </c>
+      <c r="S221">
         <v>2.05</v>
-      </c>
-      <c r="S221">
-        <v>1.8</v>
       </c>
       <c r="T221">
         <v>2.5</v>
       </c>
       <c r="U221">
+        <v>1.975</v>
+      </c>
+      <c r="V221">
         <v>1.875</v>
       </c>
-      <c r="V221">
-        <v>1.975</v>
-      </c>
       <c r="W221">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X221">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y221">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="Z221">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA221">
-        <v>0</v>
+        <v>1.05</v>
+      </c>
+      <c r="AB221">
+        <v>-1</v>
+      </c>
+      <c r="AC221">
+        <v>0.875</v>
       </c>
     </row>
     <row r="222" spans="1:29">
@@ -20193,7 +20208,7 @@
         <v>45353.5</v>
       </c>
       <c r="F222" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G222" t="s">
         <v>42</v>
@@ -20220,19 +20235,19 @@
         <v>-0.5</v>
       </c>
       <c r="R222">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S222">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T222">
         <v>2.5</v>
       </c>
       <c r="U222">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V222">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W222">
         <v>0</v>
@@ -20270,7 +20285,7 @@
         <v>40</v>
       </c>
       <c r="G223" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K223">
         <v>5.5</v>
@@ -20282,22 +20297,22 @@
         <v>1.55</v>
       </c>
       <c r="N223">
-        <v>5.75</v>
+        <v>6.5</v>
       </c>
       <c r="O223">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="P223">
-        <v>1.533</v>
+        <v>1.5</v>
       </c>
       <c r="Q223">
         <v>1</v>
       </c>
       <c r="R223">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S223">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T223">
         <v>2.75</v>
@@ -20344,7 +20359,7 @@
         <v>39</v>
       </c>
       <c r="G224" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K224">
         <v>3.25</v>
@@ -20356,31 +20371,31 @@
         <v>2.15</v>
       </c>
       <c r="N224">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="O224">
         <v>3.4</v>
       </c>
       <c r="P224">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="Q224">
         <v>0.25</v>
       </c>
       <c r="R224">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S224">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T224">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U224">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V224">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W224">
         <v>0</v>
@@ -20415,7 +20430,7 @@
         <v>45354.39583333334</v>
       </c>
       <c r="F225" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G225" t="s">
         <v>37</v>
@@ -20451,10 +20466,10 @@
         <v>2.75</v>
       </c>
       <c r="U225">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V225">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W225">
         <v>0</v>
@@ -20504,7 +20519,7 @@
         <v>5</v>
       </c>
       <c r="N226">
-        <v>1.615</v>
+        <v>1.6</v>
       </c>
       <c r="O226">
         <v>4</v>
@@ -20513,22 +20528,22 @@
         <v>4.75</v>
       </c>
       <c r="Q226">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R226">
+        <v>2.05</v>
+      </c>
+      <c r="S226">
+        <v>1.8</v>
+      </c>
+      <c r="T226">
+        <v>2.75</v>
+      </c>
+      <c r="U226">
+        <v>2.025</v>
+      </c>
+      <c r="V226">
         <v>1.825</v>
-      </c>
-      <c r="S226">
-        <v>2.025</v>
-      </c>
-      <c r="T226">
-        <v>2.5</v>
-      </c>
-      <c r="U226">
-        <v>1.825</v>
-      </c>
-      <c r="V226">
-        <v>2.025</v>
       </c>
       <c r="W226">
         <v>0</v>
@@ -20578,22 +20593,22 @@
         <v>8.5</v>
       </c>
       <c r="N227">
-        <v>1.333</v>
+        <v>1.3</v>
       </c>
       <c r="O227">
         <v>5.25</v>
       </c>
       <c r="P227">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Q227">
         <v>-1.5</v>
       </c>
       <c r="R227">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S227">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T227">
         <v>3</v>

--- a/Belgium First Division A/Belgium First Division A.xlsx
+++ b/Belgium First Division A/Belgium First Division A.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1156" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1159" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -103,16 +103,16 @@
     <t>Belgium First Division A</t>
   </si>
   <si>
+    <t>Gent</t>
+  </si>
+  <si>
     <t>Cercle Brugge</t>
   </si>
   <si>
-    <t>Gent</t>
+    <t>Union Saint Gilloise</t>
   </si>
   <si>
     <t>Genk</t>
-  </si>
-  <si>
-    <t>Union Saint Gilloise</t>
   </si>
   <si>
     <t>Eupen</t>
@@ -154,10 +154,10 @@
     <t>H</t>
   </si>
   <si>
-    <t>D</t>
+    <t>A</t>
   </si>
   <si>
-    <t>A</t>
+    <t>D</t>
   </si>
 </sst>
 </file>
@@ -616,7 +616,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6576985</v>
+        <v>6576986</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -631,55 +631,55 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="s">
         <v>45</v>
       </c>
       <c r="K2">
-        <v>1.727</v>
+        <v>1.5</v>
       </c>
       <c r="L2">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="M2">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="N2">
-        <v>1.45</v>
+        <v>1.363</v>
       </c>
       <c r="O2">
-        <v>5</v>
+        <v>5.75</v>
       </c>
       <c r="P2">
-        <v>5.75</v>
+        <v>6.5</v>
       </c>
       <c r="Q2">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R2">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S2">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T2">
         <v>3.5</v>
       </c>
       <c r="U2">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V2">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W2">
-        <v>0.45</v>
+        <v>0.363</v>
       </c>
       <c r="X2">
         <v>-1</v>
@@ -688,16 +688,16 @@
         <v>-1</v>
       </c>
       <c r="Z2">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AA2">
         <v>-1</v>
       </c>
       <c r="AB2">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC2">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -705,7 +705,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6576986</v>
+        <v>6576985</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -720,55 +720,55 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="s">
         <v>45</v>
       </c>
       <c r="K3">
-        <v>1.5</v>
+        <v>1.727</v>
       </c>
       <c r="L3">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="M3">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="N3">
-        <v>1.363</v>
+        <v>1.45</v>
       </c>
       <c r="O3">
+        <v>5</v>
+      </c>
+      <c r="P3">
         <v>5.75</v>
       </c>
-      <c r="P3">
-        <v>6.5</v>
-      </c>
       <c r="Q3">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R3">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S3">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T3">
         <v>3.5</v>
       </c>
       <c r="U3">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V3">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W3">
-        <v>0.363</v>
+        <v>0.45</v>
       </c>
       <c r="X3">
         <v>-1</v>
@@ -777,16 +777,16 @@
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AA3">
         <v>-1</v>
       </c>
       <c r="AB3">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC3">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -794,7 +794,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6576988</v>
+        <v>6576065</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -809,70 +809,70 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J4" t="s">
         <v>46</v>
       </c>
       <c r="K4">
-        <v>2.4</v>
+        <v>1.75</v>
       </c>
       <c r="L4">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M4">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="N4">
-        <v>2.4</v>
+        <v>1.55</v>
       </c>
       <c r="O4">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P4">
-        <v>2.7</v>
+        <v>4.75</v>
       </c>
       <c r="Q4">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R4">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S4">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="T4">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U4">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V4">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W4">
         <v>-1</v>
       </c>
       <c r="X4">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y4">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z4">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA4">
-        <v>0.375</v>
+        <v>0.875</v>
       </c>
       <c r="AB4">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AC4">
         <v>-1</v>
@@ -883,7 +883,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6576065</v>
+        <v>6576988</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -898,70 +898,70 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J5" t="s">
         <v>47</v>
       </c>
       <c r="K5">
+        <v>2.4</v>
+      </c>
+      <c r="L5">
+        <v>3.6</v>
+      </c>
+      <c r="M5">
+        <v>2.7</v>
+      </c>
+      <c r="N5">
+        <v>2.4</v>
+      </c>
+      <c r="O5">
+        <v>3.6</v>
+      </c>
+      <c r="P5">
+        <v>2.7</v>
+      </c>
+      <c r="Q5">
+        <v>-0.25</v>
+      </c>
+      <c r="R5">
+        <v>2.05</v>
+      </c>
+      <c r="S5">
         <v>1.75</v>
       </c>
-      <c r="L5">
-        <v>3.8</v>
-      </c>
-      <c r="M5">
-        <v>4.2</v>
-      </c>
-      <c r="N5">
-        <v>1.55</v>
-      </c>
-      <c r="O5">
-        <v>4.333</v>
-      </c>
-      <c r="P5">
-        <v>4.75</v>
-      </c>
-      <c r="Q5">
-        <v>-1</v>
-      </c>
-      <c r="R5">
-        <v>1.975</v>
-      </c>
-      <c r="S5">
-        <v>1.875</v>
-      </c>
       <c r="T5">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U5">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V5">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W5">
         <v>-1</v>
       </c>
       <c r="X5">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y5">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z5">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA5">
-        <v>0.875</v>
+        <v>0.375</v>
       </c>
       <c r="AB5">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AC5">
         <v>-1</v>
@@ -984,7 +984,7 @@
         <v>45135.65625</v>
       </c>
       <c r="F6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G6" t="s">
         <v>41</v>
@@ -1085,7 +1085,7 @@
         <v>2</v>
       </c>
       <c r="J7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K7">
         <v>3.25</v>
@@ -1174,7 +1174,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K8">
         <v>1.95</v>
@@ -1254,7 +1254,7 @@
         <v>35</v>
       </c>
       <c r="G9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1263,7 +1263,7 @@
         <v>4</v>
       </c>
       <c r="J9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K9">
         <v>3.6</v>
@@ -1343,7 +1343,7 @@
         <v>36</v>
       </c>
       <c r="G10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -1429,7 +1429,7 @@
         <v>45137.45833333334</v>
       </c>
       <c r="F11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G11" t="s">
         <v>44</v>
@@ -1530,7 +1530,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K12">
         <v>1.45</v>
@@ -1699,7 +1699,7 @@
         <v>39</v>
       </c>
       <c r="G14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1708,7 +1708,7 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K14">
         <v>3.3</v>
@@ -1785,7 +1785,7 @@
         <v>45143.45833333334</v>
       </c>
       <c r="F15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G15" t="s">
         <v>33</v>
@@ -1797,7 +1797,7 @@
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K15">
         <v>1.285</v>
@@ -1874,7 +1874,7 @@
         <v>45143.55208333334</v>
       </c>
       <c r="F16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G16" t="s">
         <v>34</v>
@@ -1975,7 +1975,7 @@
         <v>2</v>
       </c>
       <c r="J17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K17">
         <v>1.95</v>
@@ -2144,7 +2144,7 @@
         <v>42</v>
       </c>
       <c r="G19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -2153,7 +2153,7 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K19">
         <v>3.75</v>
@@ -2242,7 +2242,7 @@
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K20">
         <v>3.6</v>
@@ -2331,7 +2331,7 @@
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K21">
         <v>2.875</v>
@@ -2586,7 +2586,7 @@
         <v>45150.55208333334</v>
       </c>
       <c r="F24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G24" t="s">
         <v>40</v>
@@ -2687,7 +2687,7 @@
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K25">
         <v>3.1</v>
@@ -2776,7 +2776,7 @@
         <v>5</v>
       </c>
       <c r="J26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K26">
         <v>4.75</v>
@@ -2853,10 +2853,10 @@
         <v>45151.45833333334</v>
       </c>
       <c r="F27" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G27" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -2865,7 +2865,7 @@
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K27">
         <v>2.75</v>
@@ -2954,7 +2954,7 @@
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K28">
         <v>2</v>
@@ -3034,7 +3034,7 @@
         <v>43</v>
       </c>
       <c r="G29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H29">
         <v>1</v>
@@ -3043,7 +3043,7 @@
         <v>3</v>
       </c>
       <c r="J29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K29">
         <v>3.1</v>
@@ -3132,7 +3132,7 @@
         <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K30">
         <v>4.75</v>
@@ -3212,7 +3212,7 @@
         <v>39</v>
       </c>
       <c r="G31" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -3221,7 +3221,7 @@
         <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K31">
         <v>2.9</v>
@@ -3301,7 +3301,7 @@
         <v>42</v>
       </c>
       <c r="G32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H32">
         <v>4</v>
@@ -3464,7 +3464,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6810012</v>
+        <v>6810015</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3476,61 +3476,61 @@
         <v>45158.45833333334</v>
       </c>
       <c r="F34" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G34" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K34">
+        <v>1.45</v>
+      </c>
+      <c r="L34">
+        <v>4.5</v>
+      </c>
+      <c r="M34">
+        <v>7</v>
+      </c>
+      <c r="N34">
         <v>1.533</v>
       </c>
-      <c r="L34">
+      <c r="O34">
         <v>4.2</v>
       </c>
-      <c r="M34">
-        <v>5.5</v>
-      </c>
-      <c r="N34">
-        <v>1.6</v>
-      </c>
-      <c r="O34">
-        <v>4</v>
-      </c>
       <c r="P34">
-        <v>5.25</v>
+        <v>6</v>
       </c>
       <c r="Q34">
         <v>-1</v>
       </c>
       <c r="R34">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S34">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T34">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U34">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V34">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W34">
         <v>-1</v>
       </c>
       <c r="X34">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Y34">
         <v>-1</v>
@@ -3539,13 +3539,13 @@
         <v>-1</v>
       </c>
       <c r="AA34">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AB34">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC34">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3553,7 +3553,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6810015</v>
+        <v>6810012</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3565,61 +3565,61 @@
         <v>45158.45833333334</v>
       </c>
       <c r="F35" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G35" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K35">
-        <v>1.45</v>
+        <v>1.533</v>
       </c>
       <c r="L35">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="M35">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="N35">
-        <v>1.533</v>
+        <v>1.6</v>
       </c>
       <c r="O35">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P35">
-        <v>6</v>
+        <v>5.25</v>
       </c>
       <c r="Q35">
         <v>-1</v>
       </c>
       <c r="R35">
+        <v>1.975</v>
+      </c>
+      <c r="S35">
+        <v>1.875</v>
+      </c>
+      <c r="T35">
+        <v>3</v>
+      </c>
+      <c r="U35">
         <v>1.9</v>
       </c>
-      <c r="S35">
+      <c r="V35">
         <v>1.95</v>
       </c>
-      <c r="T35">
-        <v>2.5</v>
-      </c>
-      <c r="U35">
-        <v>1.8</v>
-      </c>
-      <c r="V35">
-        <v>2.05</v>
-      </c>
       <c r="W35">
         <v>-1</v>
       </c>
       <c r="X35">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Y35">
         <v>-1</v>
@@ -3628,13 +3628,13 @@
         <v>-1</v>
       </c>
       <c r="AA35">
+        <v>0.875</v>
+      </c>
+      <c r="AB35">
+        <v>-1</v>
+      </c>
+      <c r="AC35">
         <v>0.95</v>
-      </c>
-      <c r="AB35">
-        <v>0.8</v>
-      </c>
-      <c r="AC35">
-        <v>-1</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3755,7 +3755,7 @@
         <v>3</v>
       </c>
       <c r="J37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K37">
         <v>2.2</v>
@@ -3844,7 +3844,7 @@
         <v>3</v>
       </c>
       <c r="J38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K38">
         <v>2.1</v>
@@ -4022,7 +4022,7 @@
         <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K40">
         <v>3</v>
@@ -4102,7 +4102,7 @@
         <v>38</v>
       </c>
       <c r="G41" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -4111,7 +4111,7 @@
         <v>2</v>
       </c>
       <c r="J41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K41">
         <v>3.25</v>
@@ -4366,7 +4366,7 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F44" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G44" t="s">
         <v>43</v>
@@ -4556,7 +4556,7 @@
         <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K46">
         <v>2</v>
@@ -4633,7 +4633,7 @@
         <v>45172.35416666666</v>
       </c>
       <c r="F47" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G47" t="s">
         <v>37</v>
@@ -4722,7 +4722,7 @@
         <v>45172.45833333334</v>
       </c>
       <c r="F48" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G48" t="s">
         <v>36</v>
@@ -4734,7 +4734,7 @@
         <v>2</v>
       </c>
       <c r="J48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K48">
         <v>2.3</v>
@@ -4811,7 +4811,7 @@
         <v>45172.5625</v>
       </c>
       <c r="F49" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G49" t="s">
         <v>41</v>
@@ -4823,7 +4823,7 @@
         <v>1</v>
       </c>
       <c r="J49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K49">
         <v>1.95</v>
@@ -4912,7 +4912,7 @@
         <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K50">
         <v>2.2</v>
@@ -5001,7 +5001,7 @@
         <v>3</v>
       </c>
       <c r="J51" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K51">
         <v>4.2</v>
@@ -5081,7 +5081,7 @@
         <v>35</v>
       </c>
       <c r="G52" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H52">
         <v>2</v>
@@ -5167,10 +5167,10 @@
         <v>45185.55208333334</v>
       </c>
       <c r="F53" t="s">
+        <v>31</v>
+      </c>
+      <c r="G53" t="s">
         <v>32</v>
-      </c>
-      <c r="G53" t="s">
-        <v>31</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -5179,7 +5179,7 @@
         <v>2</v>
       </c>
       <c r="J53" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K53">
         <v>1.909</v>
@@ -5357,7 +5357,7 @@
         <v>3</v>
       </c>
       <c r="J55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K55">
         <v>2.75</v>
@@ -5446,7 +5446,7 @@
         <v>2</v>
       </c>
       <c r="J56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K56">
         <v>4.5</v>
@@ -5526,7 +5526,7 @@
         <v>40</v>
       </c>
       <c r="G57" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H57">
         <v>1</v>
@@ -5535,7 +5535,7 @@
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K57">
         <v>4.333</v>
@@ -5713,7 +5713,7 @@
         <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K59">
         <v>2.1</v>
@@ -5891,7 +5891,7 @@
         <v>2</v>
       </c>
       <c r="J61" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K61">
         <v>2.05</v>
@@ -5980,7 +5980,7 @@
         <v>0</v>
       </c>
       <c r="J62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K62">
         <v>1.4</v>
@@ -6057,7 +6057,7 @@
         <v>45193.35416666666</v>
       </c>
       <c r="F63" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G63" t="s">
         <v>38</v>
@@ -6069,7 +6069,7 @@
         <v>3</v>
       </c>
       <c r="J63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K63">
         <v>1.666</v>
@@ -6146,10 +6146,10 @@
         <v>45193.45833333334</v>
       </c>
       <c r="F64" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G64" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -6158,7 +6158,7 @@
         <v>2</v>
       </c>
       <c r="J64" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K64">
         <v>2.8</v>
@@ -6247,7 +6247,7 @@
         <v>1</v>
       </c>
       <c r="J65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K65">
         <v>2.75</v>
@@ -6324,7 +6324,7 @@
         <v>45193.59375</v>
       </c>
       <c r="F66" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G66" t="s">
         <v>33</v>
@@ -6416,7 +6416,7 @@
         <v>36</v>
       </c>
       <c r="G67" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H67">
         <v>0</v>
@@ -6425,7 +6425,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K67">
         <v>2.15</v>
@@ -6505,7 +6505,7 @@
         <v>35</v>
       </c>
       <c r="G68" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H68">
         <v>2</v>
@@ -6514,7 +6514,7 @@
         <v>3</v>
       </c>
       <c r="J68" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K68">
         <v>4.75</v>
@@ -6594,7 +6594,7 @@
         <v>37</v>
       </c>
       <c r="G69" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H69">
         <v>1</v>
@@ -6603,7 +6603,7 @@
         <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K69">
         <v>1.833</v>
@@ -6683,7 +6683,7 @@
         <v>44</v>
       </c>
       <c r="G70" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H70">
         <v>2</v>
@@ -6781,7 +6781,7 @@
         <v>3</v>
       </c>
       <c r="J71" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K71">
         <v>4.2</v>
@@ -6870,7 +6870,7 @@
         <v>2</v>
       </c>
       <c r="J72" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K72">
         <v>2.2</v>
@@ -6959,7 +6959,7 @@
         <v>0</v>
       </c>
       <c r="J73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K73">
         <v>4.1</v>
@@ -7036,7 +7036,7 @@
         <v>45200.35416666666</v>
       </c>
       <c r="F74" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G74" t="s">
         <v>34</v>
@@ -7125,7 +7125,7 @@
         <v>45200.45833333334</v>
       </c>
       <c r="F75" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G75" t="s">
         <v>43</v>
@@ -7137,7 +7137,7 @@
         <v>3</v>
       </c>
       <c r="J75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K75">
         <v>1.5</v>
@@ -7226,7 +7226,7 @@
         <v>1</v>
       </c>
       <c r="J76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K76">
         <v>1.45</v>
@@ -7306,7 +7306,7 @@
         <v>35</v>
       </c>
       <c r="G77" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H77">
         <v>1</v>
@@ -7315,7 +7315,7 @@
         <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K77">
         <v>5</v>
@@ -7481,7 +7481,7 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F79" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G79" t="s">
         <v>40</v>
@@ -7926,10 +7926,10 @@
         <v>45207.5625</v>
       </c>
       <c r="F84" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G84" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H84">
         <v>1</v>
@@ -7938,7 +7938,7 @@
         <v>1</v>
       </c>
       <c r="J84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K84">
         <v>1.95</v>
@@ -8018,7 +8018,7 @@
         <v>38</v>
       </c>
       <c r="G85" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -8027,7 +8027,7 @@
         <v>4</v>
       </c>
       <c r="J85" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K85">
         <v>4</v>
@@ -8104,7 +8104,7 @@
         <v>45219.65625</v>
       </c>
       <c r="F86" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G86" t="s">
         <v>33</v>
@@ -8294,7 +8294,7 @@
         <v>1</v>
       </c>
       <c r="J88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K88">
         <v>2.25</v>
@@ -8460,7 +8460,7 @@
         <v>45221.35416666666</v>
       </c>
       <c r="F90" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G90" t="s">
         <v>42</v>
@@ -8549,10 +8549,10 @@
         <v>45221.45833333334</v>
       </c>
       <c r="F91" t="s">
+        <v>30</v>
+      </c>
+      <c r="G91" t="s">
         <v>29</v>
-      </c>
-      <c r="G91" t="s">
-        <v>30</v>
       </c>
       <c r="H91">
         <v>2</v>
@@ -8908,7 +8908,7 @@
         <v>42</v>
       </c>
       <c r="G95" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H95">
         <v>0</v>
@@ -8917,7 +8917,7 @@
         <v>2</v>
       </c>
       <c r="J95" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K95">
         <v>3</v>
@@ -9264,7 +9264,7 @@
         <v>43</v>
       </c>
       <c r="G99" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H99">
         <v>1</v>
@@ -9273,7 +9273,7 @@
         <v>3</v>
       </c>
       <c r="J99" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K99">
         <v>4.5</v>
@@ -9350,7 +9350,7 @@
         <v>45228.60416666666</v>
       </c>
       <c r="F100" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G100" t="s">
         <v>39</v>
@@ -9442,7 +9442,7 @@
         <v>44</v>
       </c>
       <c r="G101" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H101">
         <v>0</v>
@@ -9451,7 +9451,7 @@
         <v>3</v>
       </c>
       <c r="J101" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K101">
         <v>6</v>
@@ -9540,7 +9540,7 @@
         <v>1</v>
       </c>
       <c r="J102" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K102">
         <v>1.666</v>
@@ -9629,7 +9629,7 @@
         <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K103">
         <v>1.833</v>
@@ -9718,7 +9718,7 @@
         <v>2</v>
       </c>
       <c r="J104" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K104">
         <v>2.1</v>
@@ -9798,7 +9798,7 @@
         <v>36</v>
       </c>
       <c r="G105" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H105">
         <v>3</v>
@@ -9884,7 +9884,7 @@
         <v>45235.39583333334</v>
       </c>
       <c r="F106" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G106" t="s">
         <v>41</v>
@@ -9896,7 +9896,7 @@
         <v>3</v>
       </c>
       <c r="J106" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K106">
         <v>2.375</v>
@@ -9985,7 +9985,7 @@
         <v>1</v>
       </c>
       <c r="J107" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K107">
         <v>1.85</v>
@@ -10062,7 +10062,7 @@
         <v>45235.60416666666</v>
       </c>
       <c r="F108" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G108" t="s">
         <v>37</v>
@@ -10154,7 +10154,7 @@
         <v>34</v>
       </c>
       <c r="G109" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H109">
         <v>1</v>
@@ -10163,7 +10163,7 @@
         <v>3</v>
       </c>
       <c r="J109" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K109">
         <v>3.5</v>
@@ -10252,7 +10252,7 @@
         <v>3</v>
       </c>
       <c r="J110" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K110">
         <v>2.5</v>
@@ -10430,7 +10430,7 @@
         <v>3</v>
       </c>
       <c r="J112" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K112">
         <v>2.55</v>
@@ -10599,7 +10599,7 @@
         <v>37</v>
       </c>
       <c r="G114" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H114">
         <v>0</v>
@@ -10608,7 +10608,7 @@
         <v>0</v>
       </c>
       <c r="J114" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K114">
         <v>1.727</v>
@@ -10685,7 +10685,7 @@
         <v>45242.5</v>
       </c>
       <c r="F115" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G115" t="s">
         <v>40</v>
@@ -10774,7 +10774,7 @@
         <v>45242.60416666666</v>
       </c>
       <c r="F116" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G116" t="s">
         <v>41</v>
@@ -10786,7 +10786,7 @@
         <v>1</v>
       </c>
       <c r="J116" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K116">
         <v>2.05</v>
@@ -10863,7 +10863,7 @@
         <v>45242.63541666666</v>
       </c>
       <c r="F117" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G117" t="s">
         <v>44</v>
@@ -10964,7 +10964,7 @@
         <v>1</v>
       </c>
       <c r="J118" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K118">
         <v>3.6</v>
@@ -11041,7 +11041,7 @@
         <v>45255.5</v>
       </c>
       <c r="F119" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G119" t="s">
         <v>33</v>
@@ -11222,7 +11222,7 @@
         <v>39</v>
       </c>
       <c r="G121" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H121">
         <v>1</v>
@@ -11308,10 +11308,10 @@
         <v>45256.39583333334</v>
       </c>
       <c r="F122" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G122" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H122">
         <v>1</v>
@@ -11320,7 +11320,7 @@
         <v>1</v>
       </c>
       <c r="J122" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K122">
         <v>2.4</v>
@@ -11409,7 +11409,7 @@
         <v>1</v>
       </c>
       <c r="J123" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K123">
         <v>4.5</v>
@@ -11587,7 +11587,7 @@
         <v>3</v>
       </c>
       <c r="J125" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K125">
         <v>2.6</v>
@@ -11676,7 +11676,7 @@
         <v>3</v>
       </c>
       <c r="J126" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K126">
         <v>4.5</v>
@@ -11765,7 +11765,7 @@
         <v>0</v>
       </c>
       <c r="J127" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K127">
         <v>2.75</v>
@@ -11854,7 +11854,7 @@
         <v>1</v>
       </c>
       <c r="J128" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K128">
         <v>2.2</v>
@@ -12020,10 +12020,10 @@
         <v>45263.39583333334</v>
       </c>
       <c r="F130" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G130" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H130">
         <v>2</v>
@@ -12032,7 +12032,7 @@
         <v>2</v>
       </c>
       <c r="J130" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K130">
         <v>2.15</v>
@@ -12121,7 +12121,7 @@
         <v>2</v>
       </c>
       <c r="J131" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K131">
         <v>2.15</v>
@@ -12287,10 +12287,10 @@
         <v>45263.63541666666</v>
       </c>
       <c r="F133" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G133" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H133">
         <v>2</v>
@@ -12388,7 +12388,7 @@
         <v>2</v>
       </c>
       <c r="J134" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K134">
         <v>2.8</v>
@@ -12465,7 +12465,7 @@
         <v>45269.5</v>
       </c>
       <c r="F135" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G135" t="s">
         <v>36</v>
@@ -12477,7 +12477,7 @@
         <v>3</v>
       </c>
       <c r="J135" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K135">
         <v>2.7</v>
@@ -12566,7 +12566,7 @@
         <v>1</v>
       </c>
       <c r="J136" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K136">
         <v>1.9</v>
@@ -12643,7 +12643,7 @@
         <v>45269.69791666666</v>
       </c>
       <c r="F137" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G137" t="s">
         <v>35</v>
@@ -12744,7 +12744,7 @@
         <v>0</v>
       </c>
       <c r="J138" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K138">
         <v>4.5</v>
@@ -12824,7 +12824,7 @@
         <v>33</v>
       </c>
       <c r="G139" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H139">
         <v>1</v>
@@ -12833,7 +12833,7 @@
         <v>3</v>
       </c>
       <c r="J139" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K139">
         <v>7</v>
@@ -12922,7 +12922,7 @@
         <v>2</v>
       </c>
       <c r="J140" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K140">
         <v>1.5</v>
@@ -13002,7 +13002,7 @@
         <v>34</v>
       </c>
       <c r="G141" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H141">
         <v>1</v>
@@ -13011,7 +13011,7 @@
         <v>3</v>
       </c>
       <c r="J141" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K141">
         <v>5</v>
@@ -13180,7 +13180,7 @@
         <v>40</v>
       </c>
       <c r="G143" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H143">
         <v>1</v>
@@ -13189,7 +13189,7 @@
         <v>2</v>
       </c>
       <c r="J143" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K143">
         <v>4</v>
@@ -13367,7 +13367,7 @@
         <v>0</v>
       </c>
       <c r="J145" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K145">
         <v>2.2</v>
@@ -13447,7 +13447,7 @@
         <v>37</v>
       </c>
       <c r="G146" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H146">
         <v>2</v>
@@ -13533,7 +13533,7 @@
         <v>45277.5</v>
       </c>
       <c r="F147" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G147" t="s">
         <v>42</v>
@@ -13634,7 +13634,7 @@
         <v>1</v>
       </c>
       <c r="J148" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K148">
         <v>1.909</v>
@@ -13711,7 +13711,7 @@
         <v>45277.63541666666</v>
       </c>
       <c r="F149" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G149" t="s">
         <v>44</v>
@@ -13800,7 +13800,7 @@
         <v>45280.60416666666</v>
       </c>
       <c r="F150" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G150" t="s">
         <v>44</v>
@@ -13978,7 +13978,7 @@
         <v>45281.69791666666</v>
       </c>
       <c r="F152" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G152" t="s">
         <v>40</v>
@@ -14079,7 +14079,7 @@
         <v>6</v>
       </c>
       <c r="J153" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K153">
         <v>6</v>
@@ -14159,7 +14159,7 @@
         <v>33</v>
       </c>
       <c r="G154" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H154">
         <v>1</v>
@@ -14168,7 +14168,7 @@
         <v>2</v>
       </c>
       <c r="J154" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K154">
         <v>9.5</v>
@@ -14346,7 +14346,7 @@
         <v>2</v>
       </c>
       <c r="J156" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K156">
         <v>1.363</v>
@@ -14426,7 +14426,7 @@
         <v>41</v>
       </c>
       <c r="G157" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H157">
         <v>2</v>
@@ -14512,7 +14512,7 @@
         <v>45286.39583333334</v>
       </c>
       <c r="F158" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G158" t="s">
         <v>36</v>
@@ -14589,7 +14589,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>6810142</v>
+        <v>6810145</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14601,76 +14601,76 @@
         <v>45286.5</v>
       </c>
       <c r="F159" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G159" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H159">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I159">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J159" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K159">
-        <v>1.75</v>
+        <v>7</v>
       </c>
       <c r="L159">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M159">
-        <v>4</v>
+        <v>1.4</v>
       </c>
       <c r="N159">
+        <v>8.5</v>
+      </c>
+      <c r="O159">
+        <v>5.75</v>
+      </c>
+      <c r="P159">
+        <v>1.285</v>
+      </c>
+      <c r="Q159">
+        <v>1.5</v>
+      </c>
+      <c r="R159">
+        <v>2.025</v>
+      </c>
+      <c r="S159">
+        <v>1.825</v>
+      </c>
+      <c r="T159">
+        <v>3.25</v>
+      </c>
+      <c r="U159">
+        <v>2.05</v>
+      </c>
+      <c r="V159">
         <v>1.8</v>
       </c>
-      <c r="O159">
-        <v>3.8</v>
-      </c>
-      <c r="P159">
-        <v>3.8</v>
-      </c>
-      <c r="Q159">
-        <v>-0.5</v>
-      </c>
-      <c r="R159">
-        <v>1.825</v>
-      </c>
-      <c r="S159">
-        <v>2.025</v>
-      </c>
-      <c r="T159">
-        <v>3</v>
-      </c>
-      <c r="U159">
-        <v>1.975</v>
-      </c>
-      <c r="V159">
-        <v>1.875</v>
-      </c>
       <c r="W159">
+        <v>-1</v>
+      </c>
+      <c r="X159">
+        <v>-1</v>
+      </c>
+      <c r="Y159">
+        <v>0.2849999999999999</v>
+      </c>
+      <c r="Z159">
+        <v>-1</v>
+      </c>
+      <c r="AA159">
+        <v>0.825</v>
+      </c>
+      <c r="AB159">
+        <v>-1</v>
+      </c>
+      <c r="AC159">
         <v>0.8</v>
-      </c>
-      <c r="X159">
-        <v>-1</v>
-      </c>
-      <c r="Y159">
-        <v>-1</v>
-      </c>
-      <c r="Z159">
-        <v>0.825</v>
-      </c>
-      <c r="AA159">
-        <v>-1</v>
-      </c>
-      <c r="AB159">
-        <v>0</v>
-      </c>
-      <c r="AC159">
-        <v>-0</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -14678,7 +14678,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>6810145</v>
+        <v>6810142</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14690,76 +14690,76 @@
         <v>45286.5</v>
       </c>
       <c r="F160" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G160" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H160">
+        <v>3</v>
+      </c>
+      <c r="I160">
         <v>0</v>
       </c>
-      <c r="I160">
-        <v>2</v>
-      </c>
       <c r="J160" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K160">
-        <v>7</v>
+        <v>1.75</v>
       </c>
       <c r="L160">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M160">
-        <v>1.4</v>
+        <v>4</v>
       </c>
       <c r="N160">
-        <v>8.5</v>
+        <v>1.8</v>
       </c>
       <c r="O160">
-        <v>5.75</v>
+        <v>3.8</v>
       </c>
       <c r="P160">
-        <v>1.285</v>
+        <v>3.8</v>
       </c>
       <c r="Q160">
-        <v>1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R160">
+        <v>1.825</v>
+      </c>
+      <c r="S160">
         <v>2.025</v>
       </c>
-      <c r="S160">
-        <v>1.825</v>
-      </c>
       <c r="T160">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U160">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="V160">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W160">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X160">
         <v>-1</v>
       </c>
       <c r="Y160">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z160">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA160">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB160">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC160">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -14871,7 +14871,7 @@
         <v>37</v>
       </c>
       <c r="G162" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H162">
         <v>1</v>
@@ -14880,7 +14880,7 @@
         <v>1</v>
       </c>
       <c r="J162" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K162">
         <v>2.3</v>
@@ -14969,7 +14969,7 @@
         <v>1</v>
       </c>
       <c r="J163" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K163">
         <v>2.2</v>
@@ -15049,7 +15049,7 @@
         <v>41</v>
       </c>
       <c r="G164" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H164">
         <v>2</v>
@@ -15224,7 +15224,7 @@
         <v>45310.69791666666</v>
       </c>
       <c r="F166" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G166" t="s">
         <v>42</v>
@@ -15236,7 +15236,7 @@
         <v>2</v>
       </c>
       <c r="J166" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K166">
         <v>1.4</v>
@@ -15313,10 +15313,10 @@
         <v>45311.5</v>
       </c>
       <c r="F167" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G167" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H167">
         <v>1</v>
@@ -15325,7 +15325,7 @@
         <v>1</v>
       </c>
       <c r="J167" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K167">
         <v>1.75</v>
@@ -15414,7 +15414,7 @@
         <v>1</v>
       </c>
       <c r="J168" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K168">
         <v>1.6</v>
@@ -15669,7 +15669,7 @@
         <v>45312.5</v>
       </c>
       <c r="F171" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G171" t="s">
         <v>38</v>
@@ -15770,7 +15770,7 @@
         <v>1</v>
       </c>
       <c r="J172" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K172">
         <v>4.5</v>
@@ -15847,7 +15847,7 @@
         <v>45317.69791666666</v>
       </c>
       <c r="F173" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G173" t="s">
         <v>39</v>
@@ -15859,7 +15859,7 @@
         <v>1</v>
       </c>
       <c r="J173" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K173">
         <v>1.55</v>
@@ -15948,7 +15948,7 @@
         <v>0</v>
       </c>
       <c r="J174" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K174">
         <v>2.75</v>
@@ -16025,7 +16025,7 @@
         <v>45318.69791666666</v>
       </c>
       <c r="F175" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G175" t="s">
         <v>43</v>
@@ -16037,7 +16037,7 @@
         <v>2</v>
       </c>
       <c r="J175" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K175">
         <v>1.363</v>
@@ -16126,7 +16126,7 @@
         <v>4</v>
       </c>
       <c r="J176" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K176">
         <v>5.5</v>
@@ -16206,7 +16206,7 @@
         <v>38</v>
       </c>
       <c r="G177" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H177">
         <v>1</v>
@@ -16215,7 +16215,7 @@
         <v>1</v>
       </c>
       <c r="J177" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K177">
         <v>3.75</v>
@@ -16384,7 +16384,7 @@
         <v>41</v>
       </c>
       <c r="G179" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H179">
         <v>2</v>
@@ -16393,7 +16393,7 @@
         <v>2</v>
       </c>
       <c r="J179" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K179">
         <v>3</v>
@@ -16547,7 +16547,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>6810167</v>
+        <v>6810169</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16559,73 +16559,73 @@
         <v>45321.6875</v>
       </c>
       <c r="F181" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G181" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H181">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I181">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J181" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K181">
-        <v>1.125</v>
+        <v>3.4</v>
       </c>
       <c r="L181">
-        <v>8.5</v>
+        <v>3.8</v>
       </c>
       <c r="M181">
-        <v>17</v>
+        <v>1.95</v>
       </c>
       <c r="N181">
-        <v>1.125</v>
+        <v>3.3</v>
       </c>
       <c r="O181">
-        <v>8.5</v>
+        <v>3.6</v>
       </c>
       <c r="P181">
-        <v>17</v>
+        <v>2.05</v>
       </c>
       <c r="Q181">
-        <v>-2.25</v>
+        <v>0.25</v>
       </c>
       <c r="R181">
+        <v>2</v>
+      </c>
+      <c r="S181">
         <v>1.85</v>
       </c>
-      <c r="S181">
-        <v>2</v>
-      </c>
       <c r="T181">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U181">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V181">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W181">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X181">
-        <v>7.5</v>
+        <v>-1</v>
       </c>
       <c r="Y181">
         <v>-1</v>
       </c>
       <c r="Z181">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA181">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB181">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC181">
         <v>-1</v>
@@ -16636,7 +16636,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>6810169</v>
+        <v>6810167</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16648,73 +16648,73 @@
         <v>45321.6875</v>
       </c>
       <c r="F182" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G182" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H182">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I182">
+        <v>3</v>
+      </c>
+      <c r="J182" t="s">
+        <v>47</v>
+      </c>
+      <c r="K182">
+        <v>1.125</v>
+      </c>
+      <c r="L182">
+        <v>8.5</v>
+      </c>
+      <c r="M182">
+        <v>17</v>
+      </c>
+      <c r="N182">
+        <v>1.125</v>
+      </c>
+      <c r="O182">
+        <v>8.5</v>
+      </c>
+      <c r="P182">
+        <v>17</v>
+      </c>
+      <c r="Q182">
+        <v>-2.25</v>
+      </c>
+      <c r="R182">
+        <v>1.85</v>
+      </c>
+      <c r="S182">
         <v>2</v>
       </c>
-      <c r="J182" t="s">
-        <v>45</v>
-      </c>
-      <c r="K182">
-        <v>3.4</v>
-      </c>
-      <c r="L182">
-        <v>3.8</v>
-      </c>
-      <c r="M182">
+      <c r="T182">
+        <v>3.5</v>
+      </c>
+      <c r="U182">
+        <v>1.9</v>
+      </c>
+      <c r="V182">
         <v>1.95</v>
       </c>
-      <c r="N182">
-        <v>3.3</v>
-      </c>
-      <c r="O182">
-        <v>3.6</v>
-      </c>
-      <c r="P182">
-        <v>2.05</v>
-      </c>
-      <c r="Q182">
-        <v>0.25</v>
-      </c>
-      <c r="R182">
-        <v>2</v>
-      </c>
-      <c r="S182">
-        <v>1.85</v>
-      </c>
-      <c r="T182">
-        <v>2.75</v>
-      </c>
-      <c r="U182">
-        <v>1.975</v>
-      </c>
-      <c r="V182">
-        <v>1.875</v>
-      </c>
       <c r="W182">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X182">
-        <v>-1</v>
+        <v>7.5</v>
       </c>
       <c r="Y182">
         <v>-1</v>
       </c>
       <c r="Z182">
+        <v>-1</v>
+      </c>
+      <c r="AA182">
         <v>1</v>
       </c>
-      <c r="AA182">
-        <v>-1</v>
-      </c>
       <c r="AB182">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC182">
         <v>-1</v>
@@ -16829,7 +16829,7 @@
         <v>40</v>
       </c>
       <c r="G184" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H184">
         <v>2</v>
@@ -16903,7 +16903,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>6810164</v>
+        <v>6810162</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16915,76 +16915,76 @@
         <v>45322.70833333334</v>
       </c>
       <c r="F185" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G185" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H185">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I185">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J185" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K185">
-        <v>1.2</v>
+        <v>4</v>
       </c>
       <c r="L185">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="M185">
-        <v>12</v>
+        <v>1.85</v>
       </c>
       <c r="N185">
-        <v>1.142</v>
+        <v>3.1</v>
       </c>
       <c r="O185">
-        <v>8.5</v>
+        <v>3.2</v>
       </c>
       <c r="P185">
-        <v>15</v>
+        <v>2.3</v>
       </c>
       <c r="Q185">
-        <v>-2.25</v>
+        <v>0.25</v>
       </c>
       <c r="R185">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S185">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T185">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="U185">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V185">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W185">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X185">
         <v>-1</v>
       </c>
       <c r="Y185">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z185">
         <v>-1</v>
       </c>
       <c r="AA185">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="AB185">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC185">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="186" spans="1:29">
@@ -16992,7 +16992,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>6810162</v>
+        <v>6810164</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17004,76 +17004,76 @@
         <v>45322.70833333334</v>
       </c>
       <c r="F186" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G186" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I186">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J186" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K186">
-        <v>4</v>
+        <v>1.2</v>
       </c>
       <c r="L186">
-        <v>3.6</v>
+        <v>7</v>
       </c>
       <c r="M186">
-        <v>1.85</v>
+        <v>12</v>
       </c>
       <c r="N186">
-        <v>3.1</v>
+        <v>1.142</v>
       </c>
       <c r="O186">
-        <v>3.2</v>
+        <v>8.5</v>
       </c>
       <c r="P186">
-        <v>2.3</v>
+        <v>15</v>
       </c>
       <c r="Q186">
-        <v>0.25</v>
+        <v>-2.25</v>
       </c>
       <c r="R186">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S186">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T186">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="U186">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V186">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W186">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X186">
         <v>-1</v>
       </c>
       <c r="Y186">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z186">
         <v>-1</v>
       </c>
       <c r="AA186">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AB186">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC186">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17105,7 +17105,7 @@
         <v>2</v>
       </c>
       <c r="J187" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K187">
         <v>3.5</v>
@@ -17185,7 +17185,7 @@
         <v>38</v>
       </c>
       <c r="G188" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H188">
         <v>4</v>
@@ -17283,7 +17283,7 @@
         <v>2</v>
       </c>
       <c r="J189" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K189">
         <v>3.1</v>
@@ -17461,7 +17461,7 @@
         <v>3</v>
       </c>
       <c r="J191" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K191">
         <v>1.909</v>
@@ -17538,10 +17538,10 @@
         <v>45325.69791666666</v>
       </c>
       <c r="F192" t="s">
+        <v>32</v>
+      </c>
+      <c r="G192" t="s">
         <v>31</v>
-      </c>
-      <c r="G192" t="s">
-        <v>32</v>
       </c>
       <c r="H192">
         <v>0</v>
@@ -17550,7 +17550,7 @@
         <v>1</v>
       </c>
       <c r="J192" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K192">
         <v>2.8</v>
@@ -17728,7 +17728,7 @@
         <v>1</v>
       </c>
       <c r="J194" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K194">
         <v>3.2</v>
@@ -17808,7 +17808,7 @@
         <v>41</v>
       </c>
       <c r="G195" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H195">
         <v>1</v>
@@ -17894,7 +17894,7 @@
         <v>45326.63541666666</v>
       </c>
       <c r="F196" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G196" t="s">
         <v>38</v>
@@ -18161,7 +18161,7 @@
         <v>45332.59375</v>
       </c>
       <c r="F199" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G199" t="s">
         <v>43</v>
@@ -18173,7 +18173,7 @@
         <v>2</v>
       </c>
       <c r="J199" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K199">
         <v>1.285</v>
@@ -18351,7 +18351,7 @@
         <v>4</v>
       </c>
       <c r="J201" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K201">
         <v>5.25</v>
@@ -18431,7 +18431,7 @@
         <v>42</v>
       </c>
       <c r="G202" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H202">
         <v>1</v>
@@ -18440,7 +18440,7 @@
         <v>1</v>
       </c>
       <c r="J202" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K202">
         <v>3.8</v>
@@ -18529,7 +18529,7 @@
         <v>3</v>
       </c>
       <c r="J203" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K203">
         <v>3.6</v>
@@ -18606,10 +18606,10 @@
         <v>45333.63541666666</v>
       </c>
       <c r="F204" t="s">
+        <v>29</v>
+      </c>
+      <c r="G204" t="s">
         <v>30</v>
-      </c>
-      <c r="G204" t="s">
-        <v>29</v>
       </c>
       <c r="H204">
         <v>1</v>
@@ -18618,7 +18618,7 @@
         <v>2</v>
       </c>
       <c r="J204" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K204">
         <v>2.05</v>
@@ -18784,7 +18784,7 @@
         <v>45339.5</v>
       </c>
       <c r="F206" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G206" t="s">
         <v>35</v>
@@ -18885,7 +18885,7 @@
         <v>0</v>
       </c>
       <c r="J207" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K207">
         <v>2.25</v>
@@ -18974,7 +18974,7 @@
         <v>1</v>
       </c>
       <c r="J208" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K208">
         <v>1.533</v>
@@ -19051,7 +19051,7 @@
         <v>45340.39583333334</v>
       </c>
       <c r="F209" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G209" t="s">
         <v>37</v>
@@ -19063,7 +19063,7 @@
         <v>1</v>
       </c>
       <c r="J209" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K209">
         <v>3</v>
@@ -19143,7 +19143,7 @@
         <v>44</v>
       </c>
       <c r="G210" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H210">
         <v>1</v>
@@ -19152,7 +19152,7 @@
         <v>3</v>
       </c>
       <c r="J210" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K210">
         <v>6</v>
@@ -19321,7 +19321,7 @@
         <v>33</v>
       </c>
       <c r="G212" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H212">
         <v>0</v>
@@ -19330,7 +19330,7 @@
         <v>2</v>
       </c>
       <c r="J212" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K212">
         <v>5</v>
@@ -19410,7 +19410,7 @@
         <v>34</v>
       </c>
       <c r="G213" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H213">
         <v>0</v>
@@ -19419,7 +19419,7 @@
         <v>1</v>
       </c>
       <c r="J213" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K213">
         <v>4.2</v>
@@ -19508,7 +19508,7 @@
         <v>1</v>
       </c>
       <c r="J214" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K214">
         <v>2.8</v>
@@ -19775,7 +19775,7 @@
         <v>2</v>
       </c>
       <c r="J217" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K217">
         <v>1.666</v>
@@ -19852,7 +19852,7 @@
         <v>45347.5</v>
       </c>
       <c r="F218" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G218" t="s">
         <v>36</v>
@@ -19864,7 +19864,7 @@
         <v>2</v>
       </c>
       <c r="J218" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K218">
         <v>2.25</v>
@@ -19941,7 +19941,7 @@
         <v>45347.60416666666</v>
       </c>
       <c r="F219" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G219" t="s">
         <v>39</v>
@@ -20033,7 +20033,7 @@
         <v>33</v>
       </c>
       <c r="G220" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H220">
         <v>0</v>
@@ -20042,7 +20042,7 @@
         <v>2</v>
       </c>
       <c r="J220" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K220">
         <v>5</v>
@@ -20131,7 +20131,7 @@
         <v>1</v>
       </c>
       <c r="J221" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K221">
         <v>2</v>
@@ -20208,11 +20208,20 @@
         <v>45353.5</v>
       </c>
       <c r="F222" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G222" t="s">
         <v>42</v>
       </c>
+      <c r="H222">
+        <v>2</v>
+      </c>
+      <c r="I222">
+        <v>3</v>
+      </c>
+      <c r="J222" t="s">
+        <v>46</v>
+      </c>
       <c r="K222">
         <v>1.909</v>
       </c>
@@ -20223,10 +20232,10 @@
         <v>4</v>
       </c>
       <c r="N222">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="O222">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P222">
         <v>4</v>
@@ -20235,34 +20244,40 @@
         <v>-0.5</v>
       </c>
       <c r="R222">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S222">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T222">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U222">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V222">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W222">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X222">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y222">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z222">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA222">
-        <v>0</v>
+        <v>0.825</v>
+      </c>
+      <c r="AB222">
+        <v>0.8</v>
+      </c>
+      <c r="AC222">
+        <v>-1</v>
       </c>
     </row>
     <row r="223" spans="1:29">
@@ -20285,7 +20300,16 @@
         <v>40</v>
       </c>
       <c r="G223" t="s">
-        <v>32</v>
+        <v>31</v>
+      </c>
+      <c r="H223">
+        <v>0</v>
+      </c>
+      <c r="I223">
+        <v>2</v>
+      </c>
+      <c r="J223" t="s">
+        <v>46</v>
       </c>
       <c r="K223">
         <v>5.5</v>
@@ -20318,25 +20342,31 @@
         <v>2.75</v>
       </c>
       <c r="U223">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V223">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W223">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X223">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y223">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Z223">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA223">
-        <v>0</v>
+        <v>0.8</v>
+      </c>
+      <c r="AB223">
+        <v>-1</v>
+      </c>
+      <c r="AC223">
+        <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:29">
@@ -20359,7 +20389,16 @@
         <v>39</v>
       </c>
       <c r="G224" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="H224">
+        <v>4</v>
+      </c>
+      <c r="I224">
+        <v>2</v>
+      </c>
+      <c r="J224" t="s">
+        <v>45</v>
       </c>
       <c r="K224">
         <v>3.25</v>
@@ -20371,46 +20410,52 @@
         <v>2.15</v>
       </c>
       <c r="N224">
+        <v>3.1</v>
+      </c>
+      <c r="O224">
         <v>3.3</v>
       </c>
-      <c r="O224">
-        <v>3.4</v>
-      </c>
       <c r="P224">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="Q224">
         <v>0.25</v>
       </c>
       <c r="R224">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S224">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T224">
         <v>2.25</v>
       </c>
       <c r="U224">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V224">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W224">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="X224">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y224">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z224">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA224">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB224">
+        <v>0.825</v>
+      </c>
+      <c r="AC224">
+        <v>-1</v>
       </c>
     </row>
     <row r="225" spans="1:27">
@@ -20430,7 +20475,7 @@
         <v>45354.39583333334</v>
       </c>
       <c r="F225" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G225" t="s">
         <v>37</v>
@@ -20445,22 +20490,22 @@
         <v>2.3</v>
       </c>
       <c r="N225">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="O225">
         <v>3.6</v>
       </c>
       <c r="P225">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Q225">
         <v>0.25</v>
       </c>
       <c r="R225">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S225">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T225">
         <v>2.75</v>
@@ -20522,28 +20567,28 @@
         <v>1.6</v>
       </c>
       <c r="O226">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P226">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="Q226">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R226">
+        <v>1.8</v>
+      </c>
+      <c r="S226">
         <v>2.05</v>
-      </c>
-      <c r="S226">
-        <v>1.8</v>
       </c>
       <c r="T226">
         <v>2.75</v>
       </c>
       <c r="U226">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V226">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W226">
         <v>0</v>
@@ -20593,13 +20638,13 @@
         <v>8.5</v>
       </c>
       <c r="N227">
-        <v>1.3</v>
+        <v>1.285</v>
       </c>
       <c r="O227">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="P227">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="Q227">
         <v>-1.5</v>

--- a/Belgium First Division A/Belgium First Division A.xlsx
+++ b/Belgium First Division A/Belgium First Division A.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1159" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1195" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -103,16 +103,16 @@
     <t>Belgium First Division A</t>
   </si>
   <si>
+    <t>Cercle Brugge</t>
+  </si>
+  <si>
     <t>Gent</t>
   </si>
   <si>
-    <t>Cercle Brugge</t>
+    <t>Genk</t>
   </si>
   <si>
     <t>Union Saint Gilloise</t>
-  </si>
-  <si>
-    <t>Genk</t>
   </si>
   <si>
     <t>Eupen</t>
@@ -154,10 +154,10 @@
     <t>H</t>
   </si>
   <si>
-    <t>A</t>
+    <t>D</t>
   </si>
   <si>
-    <t>D</t>
+    <t>A</t>
   </si>
 </sst>
 </file>
@@ -519,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC228"/>
+  <dimension ref="A1:AC236"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -616,7 +616,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6576986</v>
+        <v>6576985</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -631,55 +631,55 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="s">
         <v>45</v>
       </c>
       <c r="K2">
-        <v>1.5</v>
+        <v>1.727</v>
       </c>
       <c r="L2">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="M2">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="N2">
-        <v>1.363</v>
+        <v>1.45</v>
       </c>
       <c r="O2">
+        <v>5</v>
+      </c>
+      <c r="P2">
         <v>5.75</v>
       </c>
-      <c r="P2">
-        <v>6.5</v>
-      </c>
       <c r="Q2">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R2">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S2">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T2">
         <v>3.5</v>
       </c>
       <c r="U2">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V2">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W2">
-        <v>0.363</v>
+        <v>0.45</v>
       </c>
       <c r="X2">
         <v>-1</v>
@@ -688,16 +688,16 @@
         <v>-1</v>
       </c>
       <c r="Z2">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AA2">
         <v>-1</v>
       </c>
       <c r="AB2">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC2">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -705,7 +705,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6576985</v>
+        <v>6576986</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -720,55 +720,55 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="s">
         <v>45</v>
       </c>
       <c r="K3">
-        <v>1.727</v>
+        <v>1.5</v>
       </c>
       <c r="L3">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="M3">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="N3">
-        <v>1.45</v>
+        <v>1.363</v>
       </c>
       <c r="O3">
-        <v>5</v>
+        <v>5.75</v>
       </c>
       <c r="P3">
-        <v>5.75</v>
+        <v>6.5</v>
       </c>
       <c r="Q3">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R3">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S3">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T3">
         <v>3.5</v>
       </c>
       <c r="U3">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V3">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W3">
-        <v>0.45</v>
+        <v>0.363</v>
       </c>
       <c r="X3">
         <v>-1</v>
@@ -777,16 +777,16 @@
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AA3">
         <v>-1</v>
       </c>
       <c r="AB3">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC3">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -794,7 +794,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6576065</v>
+        <v>6576988</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -809,70 +809,70 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J4" t="s">
         <v>46</v>
       </c>
       <c r="K4">
+        <v>2.4</v>
+      </c>
+      <c r="L4">
+        <v>3.6</v>
+      </c>
+      <c r="M4">
+        <v>2.7</v>
+      </c>
+      <c r="N4">
+        <v>2.4</v>
+      </c>
+      <c r="O4">
+        <v>3.6</v>
+      </c>
+      <c r="P4">
+        <v>2.7</v>
+      </c>
+      <c r="Q4">
+        <v>-0.25</v>
+      </c>
+      <c r="R4">
+        <v>2.05</v>
+      </c>
+      <c r="S4">
         <v>1.75</v>
       </c>
-      <c r="L4">
-        <v>3.8</v>
-      </c>
-      <c r="M4">
-        <v>4.2</v>
-      </c>
-      <c r="N4">
-        <v>1.55</v>
-      </c>
-      <c r="O4">
-        <v>4.333</v>
-      </c>
-      <c r="P4">
-        <v>4.75</v>
-      </c>
-      <c r="Q4">
-        <v>-1</v>
-      </c>
-      <c r="R4">
-        <v>1.975</v>
-      </c>
-      <c r="S4">
-        <v>1.875</v>
-      </c>
       <c r="T4">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U4">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V4">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W4">
         <v>-1</v>
       </c>
       <c r="X4">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y4">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z4">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA4">
-        <v>0.875</v>
+        <v>0.375</v>
       </c>
       <c r="AB4">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AC4">
         <v>-1</v>
@@ -883,7 +883,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6576988</v>
+        <v>6576065</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -898,70 +898,70 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J5" t="s">
         <v>47</v>
       </c>
       <c r="K5">
-        <v>2.4</v>
+        <v>1.75</v>
       </c>
       <c r="L5">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M5">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="N5">
-        <v>2.4</v>
+        <v>1.55</v>
       </c>
       <c r="O5">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P5">
-        <v>2.7</v>
+        <v>4.75</v>
       </c>
       <c r="Q5">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R5">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S5">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="T5">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U5">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V5">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W5">
         <v>-1</v>
       </c>
       <c r="X5">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y5">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z5">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA5">
-        <v>0.375</v>
+        <v>0.875</v>
       </c>
       <c r="AB5">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AC5">
         <v>-1</v>
@@ -984,7 +984,7 @@
         <v>45135.65625</v>
       </c>
       <c r="F6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G6" t="s">
         <v>41</v>
@@ -1085,7 +1085,7 @@
         <v>2</v>
       </c>
       <c r="J7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K7">
         <v>3.25</v>
@@ -1174,7 +1174,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K8">
         <v>1.95</v>
@@ -1254,7 +1254,7 @@
         <v>35</v>
       </c>
       <c r="G9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1263,7 +1263,7 @@
         <v>4</v>
       </c>
       <c r="J9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K9">
         <v>3.6</v>
@@ -1343,7 +1343,7 @@
         <v>36</v>
       </c>
       <c r="G10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -1429,7 +1429,7 @@
         <v>45137.45833333334</v>
       </c>
       <c r="F11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G11" t="s">
         <v>44</v>
@@ -1530,7 +1530,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K12">
         <v>1.45</v>
@@ -1699,7 +1699,7 @@
         <v>39</v>
       </c>
       <c r="G14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1708,7 +1708,7 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K14">
         <v>3.3</v>
@@ -1785,7 +1785,7 @@
         <v>45143.45833333334</v>
       </c>
       <c r="F15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G15" t="s">
         <v>33</v>
@@ -1797,7 +1797,7 @@
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K15">
         <v>1.285</v>
@@ -1874,7 +1874,7 @@
         <v>45143.55208333334</v>
       </c>
       <c r="F16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G16" t="s">
         <v>34</v>
@@ -1975,7 +1975,7 @@
         <v>2</v>
       </c>
       <c r="J17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K17">
         <v>1.95</v>
@@ -2144,7 +2144,7 @@
         <v>42</v>
       </c>
       <c r="G19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -2153,7 +2153,7 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K19">
         <v>3.75</v>
@@ -2242,7 +2242,7 @@
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K20">
         <v>3.6</v>
@@ -2331,7 +2331,7 @@
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K21">
         <v>2.875</v>
@@ -2586,7 +2586,7 @@
         <v>45150.55208333334</v>
       </c>
       <c r="F24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G24" t="s">
         <v>40</v>
@@ -2687,7 +2687,7 @@
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K25">
         <v>3.1</v>
@@ -2776,7 +2776,7 @@
         <v>5</v>
       </c>
       <c r="J26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K26">
         <v>4.75</v>
@@ -2853,10 +2853,10 @@
         <v>45151.45833333334</v>
       </c>
       <c r="F27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -2865,7 +2865,7 @@
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K27">
         <v>2.75</v>
@@ -2954,7 +2954,7 @@
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K28">
         <v>2</v>
@@ -3034,7 +3034,7 @@
         <v>43</v>
       </c>
       <c r="G29" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H29">
         <v>1</v>
@@ -3043,7 +3043,7 @@
         <v>3</v>
       </c>
       <c r="J29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K29">
         <v>3.1</v>
@@ -3132,7 +3132,7 @@
         <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K30">
         <v>4.75</v>
@@ -3212,7 +3212,7 @@
         <v>39</v>
       </c>
       <c r="G31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -3221,7 +3221,7 @@
         <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K31">
         <v>2.9</v>
@@ -3301,7 +3301,7 @@
         <v>42</v>
       </c>
       <c r="G32" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H32">
         <v>4</v>
@@ -3464,7 +3464,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6810015</v>
+        <v>6810012</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3476,61 +3476,61 @@
         <v>45158.45833333334</v>
       </c>
       <c r="F34" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G34" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K34">
-        <v>1.45</v>
+        <v>1.533</v>
       </c>
       <c r="L34">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="M34">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="N34">
-        <v>1.533</v>
+        <v>1.6</v>
       </c>
       <c r="O34">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P34">
-        <v>6</v>
+        <v>5.25</v>
       </c>
       <c r="Q34">
         <v>-1</v>
       </c>
       <c r="R34">
+        <v>1.975</v>
+      </c>
+      <c r="S34">
+        <v>1.875</v>
+      </c>
+      <c r="T34">
+        <v>3</v>
+      </c>
+      <c r="U34">
         <v>1.9</v>
       </c>
-      <c r="S34">
+      <c r="V34">
         <v>1.95</v>
       </c>
-      <c r="T34">
-        <v>2.5</v>
-      </c>
-      <c r="U34">
-        <v>1.8</v>
-      </c>
-      <c r="V34">
-        <v>2.05</v>
-      </c>
       <c r="W34">
         <v>-1</v>
       </c>
       <c r="X34">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Y34">
         <v>-1</v>
@@ -3539,13 +3539,13 @@
         <v>-1</v>
       </c>
       <c r="AA34">
+        <v>0.875</v>
+      </c>
+      <c r="AB34">
+        <v>-1</v>
+      </c>
+      <c r="AC34">
         <v>0.95</v>
-      </c>
-      <c r="AB34">
-        <v>0.8</v>
-      </c>
-      <c r="AC34">
-        <v>-1</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3553,7 +3553,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6810012</v>
+        <v>6810015</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3565,61 +3565,61 @@
         <v>45158.45833333334</v>
       </c>
       <c r="F35" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G35" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K35">
+        <v>1.45</v>
+      </c>
+      <c r="L35">
+        <v>4.5</v>
+      </c>
+      <c r="M35">
+        <v>7</v>
+      </c>
+      <c r="N35">
         <v>1.533</v>
       </c>
-      <c r="L35">
+      <c r="O35">
         <v>4.2</v>
       </c>
-      <c r="M35">
-        <v>5.5</v>
-      </c>
-      <c r="N35">
-        <v>1.6</v>
-      </c>
-      <c r="O35">
-        <v>4</v>
-      </c>
       <c r="P35">
-        <v>5.25</v>
+        <v>6</v>
       </c>
       <c r="Q35">
         <v>-1</v>
       </c>
       <c r="R35">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S35">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T35">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U35">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V35">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W35">
         <v>-1</v>
       </c>
       <c r="X35">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Y35">
         <v>-1</v>
@@ -3628,13 +3628,13 @@
         <v>-1</v>
       </c>
       <c r="AA35">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AB35">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC35">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3755,7 +3755,7 @@
         <v>3</v>
       </c>
       <c r="J37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K37">
         <v>2.2</v>
@@ -3844,7 +3844,7 @@
         <v>3</v>
       </c>
       <c r="J38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K38">
         <v>2.1</v>
@@ -4022,7 +4022,7 @@
         <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K40">
         <v>3</v>
@@ -4102,7 +4102,7 @@
         <v>38</v>
       </c>
       <c r="G41" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -4111,7 +4111,7 @@
         <v>2</v>
       </c>
       <c r="J41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K41">
         <v>3.25</v>
@@ -4366,7 +4366,7 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F44" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G44" t="s">
         <v>43</v>
@@ -4556,7 +4556,7 @@
         <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K46">
         <v>2</v>
@@ -4633,7 +4633,7 @@
         <v>45172.35416666666</v>
       </c>
       <c r="F47" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G47" t="s">
         <v>37</v>
@@ -4722,7 +4722,7 @@
         <v>45172.45833333334</v>
       </c>
       <c r="F48" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G48" t="s">
         <v>36</v>
@@ -4734,7 +4734,7 @@
         <v>2</v>
       </c>
       <c r="J48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K48">
         <v>2.3</v>
@@ -4811,7 +4811,7 @@
         <v>45172.5625</v>
       </c>
       <c r="F49" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G49" t="s">
         <v>41</v>
@@ -4823,7 +4823,7 @@
         <v>1</v>
       </c>
       <c r="J49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K49">
         <v>1.95</v>
@@ -4912,7 +4912,7 @@
         <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K50">
         <v>2.2</v>
@@ -5001,7 +5001,7 @@
         <v>3</v>
       </c>
       <c r="J51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K51">
         <v>4.2</v>
@@ -5081,7 +5081,7 @@
         <v>35</v>
       </c>
       <c r="G52" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H52">
         <v>2</v>
@@ -5167,10 +5167,10 @@
         <v>45185.55208333334</v>
       </c>
       <c r="F53" t="s">
+        <v>32</v>
+      </c>
+      <c r="G53" t="s">
         <v>31</v>
-      </c>
-      <c r="G53" t="s">
-        <v>32</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -5179,7 +5179,7 @@
         <v>2</v>
       </c>
       <c r="J53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K53">
         <v>1.909</v>
@@ -5357,7 +5357,7 @@
         <v>3</v>
       </c>
       <c r="J55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K55">
         <v>2.75</v>
@@ -5446,7 +5446,7 @@
         <v>2</v>
       </c>
       <c r="J56" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K56">
         <v>4.5</v>
@@ -5526,7 +5526,7 @@
         <v>40</v>
       </c>
       <c r="G57" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H57">
         <v>1</v>
@@ -5535,7 +5535,7 @@
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K57">
         <v>4.333</v>
@@ -5713,7 +5713,7 @@
         <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K59">
         <v>2.1</v>
@@ -5891,7 +5891,7 @@
         <v>2</v>
       </c>
       <c r="J61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K61">
         <v>2.05</v>
@@ -5980,7 +5980,7 @@
         <v>0</v>
       </c>
       <c r="J62" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K62">
         <v>1.4</v>
@@ -6057,7 +6057,7 @@
         <v>45193.35416666666</v>
       </c>
       <c r="F63" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G63" t="s">
         <v>38</v>
@@ -6069,7 +6069,7 @@
         <v>3</v>
       </c>
       <c r="J63" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K63">
         <v>1.666</v>
@@ -6146,10 +6146,10 @@
         <v>45193.45833333334</v>
       </c>
       <c r="F64" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G64" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -6158,7 +6158,7 @@
         <v>2</v>
       </c>
       <c r="J64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K64">
         <v>2.8</v>
@@ -6247,7 +6247,7 @@
         <v>1</v>
       </c>
       <c r="J65" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K65">
         <v>2.75</v>
@@ -6324,7 +6324,7 @@
         <v>45193.59375</v>
       </c>
       <c r="F66" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G66" t="s">
         <v>33</v>
@@ -6416,7 +6416,7 @@
         <v>36</v>
       </c>
       <c r="G67" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H67">
         <v>0</v>
@@ -6425,7 +6425,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K67">
         <v>2.15</v>
@@ -6505,7 +6505,7 @@
         <v>35</v>
       </c>
       <c r="G68" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H68">
         <v>2</v>
@@ -6514,7 +6514,7 @@
         <v>3</v>
       </c>
       <c r="J68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K68">
         <v>4.75</v>
@@ -6594,7 +6594,7 @@
         <v>37</v>
       </c>
       <c r="G69" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H69">
         <v>1</v>
@@ -6603,7 +6603,7 @@
         <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K69">
         <v>1.833</v>
@@ -6683,7 +6683,7 @@
         <v>44</v>
       </c>
       <c r="G70" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H70">
         <v>2</v>
@@ -6781,7 +6781,7 @@
         <v>3</v>
       </c>
       <c r="J71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K71">
         <v>4.2</v>
@@ -6870,7 +6870,7 @@
         <v>2</v>
       </c>
       <c r="J72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K72">
         <v>2.2</v>
@@ -6959,7 +6959,7 @@
         <v>0</v>
       </c>
       <c r="J73" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K73">
         <v>4.1</v>
@@ -7036,7 +7036,7 @@
         <v>45200.35416666666</v>
       </c>
       <c r="F74" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G74" t="s">
         <v>34</v>
@@ -7125,7 +7125,7 @@
         <v>45200.45833333334</v>
       </c>
       <c r="F75" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G75" t="s">
         <v>43</v>
@@ -7137,7 +7137,7 @@
         <v>3</v>
       </c>
       <c r="J75" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K75">
         <v>1.5</v>
@@ -7226,7 +7226,7 @@
         <v>1</v>
       </c>
       <c r="J76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K76">
         <v>1.45</v>
@@ -7306,7 +7306,7 @@
         <v>35</v>
       </c>
       <c r="G77" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H77">
         <v>1</v>
@@ -7315,7 +7315,7 @@
         <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K77">
         <v>5</v>
@@ -7481,7 +7481,7 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F79" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G79" t="s">
         <v>40</v>
@@ -7926,10 +7926,10 @@
         <v>45207.5625</v>
       </c>
       <c r="F84" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G84" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H84">
         <v>1</v>
@@ -7938,7 +7938,7 @@
         <v>1</v>
       </c>
       <c r="J84" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K84">
         <v>1.95</v>
@@ -8018,7 +8018,7 @@
         <v>38</v>
       </c>
       <c r="G85" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -8027,7 +8027,7 @@
         <v>4</v>
       </c>
       <c r="J85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K85">
         <v>4</v>
@@ -8104,7 +8104,7 @@
         <v>45219.65625</v>
       </c>
       <c r="F86" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G86" t="s">
         <v>33</v>
@@ -8294,7 +8294,7 @@
         <v>1</v>
       </c>
       <c r="J88" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K88">
         <v>2.25</v>
@@ -8460,7 +8460,7 @@
         <v>45221.35416666666</v>
       </c>
       <c r="F90" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G90" t="s">
         <v>42</v>
@@ -8549,10 +8549,10 @@
         <v>45221.45833333334</v>
       </c>
       <c r="F91" t="s">
+        <v>29</v>
+      </c>
+      <c r="G91" t="s">
         <v>30</v>
-      </c>
-      <c r="G91" t="s">
-        <v>29</v>
       </c>
       <c r="H91">
         <v>2</v>
@@ -8908,7 +8908,7 @@
         <v>42</v>
       </c>
       <c r="G95" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H95">
         <v>0</v>
@@ -8917,7 +8917,7 @@
         <v>2</v>
       </c>
       <c r="J95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K95">
         <v>3</v>
@@ -9264,7 +9264,7 @@
         <v>43</v>
       </c>
       <c r="G99" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H99">
         <v>1</v>
@@ -9273,7 +9273,7 @@
         <v>3</v>
       </c>
       <c r="J99" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K99">
         <v>4.5</v>
@@ -9350,7 +9350,7 @@
         <v>45228.60416666666</v>
       </c>
       <c r="F100" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G100" t="s">
         <v>39</v>
@@ -9442,7 +9442,7 @@
         <v>44</v>
       </c>
       <c r="G101" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H101">
         <v>0</v>
@@ -9451,7 +9451,7 @@
         <v>3</v>
       </c>
       <c r="J101" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K101">
         <v>6</v>
@@ -9540,7 +9540,7 @@
         <v>1</v>
       </c>
       <c r="J102" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K102">
         <v>1.666</v>
@@ -9629,7 +9629,7 @@
         <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K103">
         <v>1.833</v>
@@ -9718,7 +9718,7 @@
         <v>2</v>
       </c>
       <c r="J104" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K104">
         <v>2.1</v>
@@ -9798,7 +9798,7 @@
         <v>36</v>
       </c>
       <c r="G105" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H105">
         <v>3</v>
@@ -9884,7 +9884,7 @@
         <v>45235.39583333334</v>
       </c>
       <c r="F106" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G106" t="s">
         <v>41</v>
@@ -9896,7 +9896,7 @@
         <v>3</v>
       </c>
       <c r="J106" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K106">
         <v>2.375</v>
@@ -9985,7 +9985,7 @@
         <v>1</v>
       </c>
       <c r="J107" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K107">
         <v>1.85</v>
@@ -10062,7 +10062,7 @@
         <v>45235.60416666666</v>
       </c>
       <c r="F108" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G108" t="s">
         <v>37</v>
@@ -10154,7 +10154,7 @@
         <v>34</v>
       </c>
       <c r="G109" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H109">
         <v>1</v>
@@ -10163,7 +10163,7 @@
         <v>3</v>
       </c>
       <c r="J109" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K109">
         <v>3.5</v>
@@ -10252,7 +10252,7 @@
         <v>3</v>
       </c>
       <c r="J110" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K110">
         <v>2.5</v>
@@ -10430,7 +10430,7 @@
         <v>3</v>
       </c>
       <c r="J112" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K112">
         <v>2.55</v>
@@ -10599,7 +10599,7 @@
         <v>37</v>
       </c>
       <c r="G114" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H114">
         <v>0</v>
@@ -10608,7 +10608,7 @@
         <v>0</v>
       </c>
       <c r="J114" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K114">
         <v>1.727</v>
@@ -10685,7 +10685,7 @@
         <v>45242.5</v>
       </c>
       <c r="F115" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G115" t="s">
         <v>40</v>
@@ -10774,7 +10774,7 @@
         <v>45242.60416666666</v>
       </c>
       <c r="F116" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G116" t="s">
         <v>41</v>
@@ -10786,7 +10786,7 @@
         <v>1</v>
       </c>
       <c r="J116" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K116">
         <v>2.05</v>
@@ -10863,7 +10863,7 @@
         <v>45242.63541666666</v>
       </c>
       <c r="F117" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G117" t="s">
         <v>44</v>
@@ -10964,7 +10964,7 @@
         <v>1</v>
       </c>
       <c r="J118" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K118">
         <v>3.6</v>
@@ -11041,7 +11041,7 @@
         <v>45255.5</v>
       </c>
       <c r="F119" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G119" t="s">
         <v>33</v>
@@ -11222,7 +11222,7 @@
         <v>39</v>
       </c>
       <c r="G121" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H121">
         <v>1</v>
@@ -11308,10 +11308,10 @@
         <v>45256.39583333334</v>
       </c>
       <c r="F122" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G122" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H122">
         <v>1</v>
@@ -11320,7 +11320,7 @@
         <v>1</v>
       </c>
       <c r="J122" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K122">
         <v>2.4</v>
@@ -11409,7 +11409,7 @@
         <v>1</v>
       </c>
       <c r="J123" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K123">
         <v>4.5</v>
@@ -11587,7 +11587,7 @@
         <v>3</v>
       </c>
       <c r="J125" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K125">
         <v>2.6</v>
@@ -11676,7 +11676,7 @@
         <v>3</v>
       </c>
       <c r="J126" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K126">
         <v>4.5</v>
@@ -11765,7 +11765,7 @@
         <v>0</v>
       </c>
       <c r="J127" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K127">
         <v>2.75</v>
@@ -11854,7 +11854,7 @@
         <v>1</v>
       </c>
       <c r="J128" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K128">
         <v>2.2</v>
@@ -12020,10 +12020,10 @@
         <v>45263.39583333334</v>
       </c>
       <c r="F130" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G130" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H130">
         <v>2</v>
@@ -12032,7 +12032,7 @@
         <v>2</v>
       </c>
       <c r="J130" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K130">
         <v>2.15</v>
@@ -12121,7 +12121,7 @@
         <v>2</v>
       </c>
       <c r="J131" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K131">
         <v>2.15</v>
@@ -12287,10 +12287,10 @@
         <v>45263.63541666666</v>
       </c>
       <c r="F133" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G133" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H133">
         <v>2</v>
@@ -12388,7 +12388,7 @@
         <v>2</v>
       </c>
       <c r="J134" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K134">
         <v>2.8</v>
@@ -12465,7 +12465,7 @@
         <v>45269.5</v>
       </c>
       <c r="F135" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G135" t="s">
         <v>36</v>
@@ -12477,7 +12477,7 @@
         <v>3</v>
       </c>
       <c r="J135" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K135">
         <v>2.7</v>
@@ -12566,7 +12566,7 @@
         <v>1</v>
       </c>
       <c r="J136" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K136">
         <v>1.9</v>
@@ -12643,7 +12643,7 @@
         <v>45269.69791666666</v>
       </c>
       <c r="F137" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G137" t="s">
         <v>35</v>
@@ -12744,7 +12744,7 @@
         <v>0</v>
       </c>
       <c r="J138" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K138">
         <v>4.5</v>
@@ -12824,7 +12824,7 @@
         <v>33</v>
       </c>
       <c r="G139" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H139">
         <v>1</v>
@@ -12833,7 +12833,7 @@
         <v>3</v>
       </c>
       <c r="J139" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K139">
         <v>7</v>
@@ -12922,7 +12922,7 @@
         <v>2</v>
       </c>
       <c r="J140" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K140">
         <v>1.5</v>
@@ -13002,7 +13002,7 @@
         <v>34</v>
       </c>
       <c r="G141" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H141">
         <v>1</v>
@@ -13011,7 +13011,7 @@
         <v>3</v>
       </c>
       <c r="J141" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K141">
         <v>5</v>
@@ -13180,7 +13180,7 @@
         <v>40</v>
       </c>
       <c r="G143" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H143">
         <v>1</v>
@@ -13189,7 +13189,7 @@
         <v>2</v>
       </c>
       <c r="J143" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K143">
         <v>4</v>
@@ -13367,7 +13367,7 @@
         <v>0</v>
       </c>
       <c r="J145" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K145">
         <v>2.2</v>
@@ -13447,7 +13447,7 @@
         <v>37</v>
       </c>
       <c r="G146" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H146">
         <v>2</v>
@@ -13533,7 +13533,7 @@
         <v>45277.5</v>
       </c>
       <c r="F147" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G147" t="s">
         <v>42</v>
@@ -13634,7 +13634,7 @@
         <v>1</v>
       </c>
       <c r="J148" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K148">
         <v>1.909</v>
@@ -13711,7 +13711,7 @@
         <v>45277.63541666666</v>
       </c>
       <c r="F149" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G149" t="s">
         <v>44</v>
@@ -13800,7 +13800,7 @@
         <v>45280.60416666666</v>
       </c>
       <c r="F150" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G150" t="s">
         <v>44</v>
@@ -13978,7 +13978,7 @@
         <v>45281.69791666666</v>
       </c>
       <c r="F152" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G152" t="s">
         <v>40</v>
@@ -14079,7 +14079,7 @@
         <v>6</v>
       </c>
       <c r="J153" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K153">
         <v>6</v>
@@ -14159,7 +14159,7 @@
         <v>33</v>
       </c>
       <c r="G154" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H154">
         <v>1</v>
@@ -14168,7 +14168,7 @@
         <v>2</v>
       </c>
       <c r="J154" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K154">
         <v>9.5</v>
@@ -14233,7 +14233,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6810132</v>
+        <v>6810130</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14245,76 +14245,76 @@
         <v>45283.59375</v>
       </c>
       <c r="F155" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G155" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H155">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I155">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J155" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K155">
-        <v>2.2</v>
+        <v>1.363</v>
       </c>
       <c r="L155">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="M155">
-        <v>3.2</v>
+        <v>7.5</v>
       </c>
       <c r="N155">
-        <v>2.3</v>
+        <v>1.333</v>
       </c>
       <c r="O155">
-        <v>3.3</v>
+        <v>5.25</v>
       </c>
       <c r="P155">
+        <v>8</v>
+      </c>
+      <c r="Q155">
+        <v>-1.5</v>
+      </c>
+      <c r="R155">
+        <v>1.9</v>
+      </c>
+      <c r="S155">
+        <v>1.95</v>
+      </c>
+      <c r="T155">
         <v>3</v>
       </c>
-      <c r="Q155">
-        <v>-0.25</v>
-      </c>
-      <c r="R155">
-        <v>2</v>
-      </c>
-      <c r="S155">
-        <v>1.85</v>
-      </c>
-      <c r="T155">
-        <v>2.25</v>
-      </c>
       <c r="U155">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V155">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W155">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X155">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Y155">
         <v>-1</v>
       </c>
       <c r="Z155">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA155">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB155">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC155">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="156" spans="1:29">
@@ -14322,7 +14322,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6810130</v>
+        <v>6810132</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14334,76 +14334,76 @@
         <v>45283.59375</v>
       </c>
       <c r="F156" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G156" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H156">
+        <v>1</v>
+      </c>
+      <c r="I156">
+        <v>0</v>
+      </c>
+      <c r="J156" t="s">
+        <v>45</v>
+      </c>
+      <c r="K156">
+        <v>2.2</v>
+      </c>
+      <c r="L156">
+        <v>3.4</v>
+      </c>
+      <c r="M156">
+        <v>3.2</v>
+      </c>
+      <c r="N156">
+        <v>2.3</v>
+      </c>
+      <c r="O156">
+        <v>3.3</v>
+      </c>
+      <c r="P156">
+        <v>3</v>
+      </c>
+      <c r="Q156">
+        <v>-0.25</v>
+      </c>
+      <c r="R156">
         <v>2</v>
       </c>
-      <c r="I156">
+      <c r="S156">
+        <v>1.85</v>
+      </c>
+      <c r="T156">
+        <v>2.25</v>
+      </c>
+      <c r="U156">
+        <v>1.85</v>
+      </c>
+      <c r="V156">
         <v>2</v>
       </c>
-      <c r="J156" t="s">
-        <v>47</v>
-      </c>
-      <c r="K156">
-        <v>1.363</v>
-      </c>
-      <c r="L156">
-        <v>5</v>
-      </c>
-      <c r="M156">
-        <v>7.5</v>
-      </c>
-      <c r="N156">
-        <v>1.333</v>
-      </c>
-      <c r="O156">
-        <v>5.25</v>
-      </c>
-      <c r="P156">
-        <v>8</v>
-      </c>
-      <c r="Q156">
-        <v>-1.5</v>
-      </c>
-      <c r="R156">
-        <v>1.9</v>
-      </c>
-      <c r="S156">
-        <v>1.95</v>
-      </c>
-      <c r="T156">
-        <v>3</v>
-      </c>
-      <c r="U156">
-        <v>1.8</v>
-      </c>
-      <c r="V156">
-        <v>2.05</v>
-      </c>
       <c r="W156">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X156">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Y156">
         <v>-1</v>
       </c>
       <c r="Z156">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA156">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB156">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC156">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14426,7 +14426,7 @@
         <v>41</v>
       </c>
       <c r="G157" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H157">
         <v>2</v>
@@ -14512,7 +14512,7 @@
         <v>45286.39583333334</v>
       </c>
       <c r="F158" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G158" t="s">
         <v>36</v>
@@ -14604,7 +14604,7 @@
         <v>44</v>
       </c>
       <c r="G159" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H159">
         <v>0</v>
@@ -14613,7 +14613,7 @@
         <v>2</v>
       </c>
       <c r="J159" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K159">
         <v>7</v>
@@ -14871,7 +14871,7 @@
         <v>37</v>
       </c>
       <c r="G162" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H162">
         <v>1</v>
@@ -14880,7 +14880,7 @@
         <v>1</v>
       </c>
       <c r="J162" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K162">
         <v>2.3</v>
@@ -14969,7 +14969,7 @@
         <v>1</v>
       </c>
       <c r="J163" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K163">
         <v>2.2</v>
@@ -15049,7 +15049,7 @@
         <v>41</v>
       </c>
       <c r="G164" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H164">
         <v>2</v>
@@ -15224,7 +15224,7 @@
         <v>45310.69791666666</v>
       </c>
       <c r="F166" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G166" t="s">
         <v>42</v>
@@ -15236,7 +15236,7 @@
         <v>2</v>
       </c>
       <c r="J166" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K166">
         <v>1.4</v>
@@ -15313,10 +15313,10 @@
         <v>45311.5</v>
       </c>
       <c r="F167" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G167" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H167">
         <v>1</v>
@@ -15325,7 +15325,7 @@
         <v>1</v>
       </c>
       <c r="J167" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K167">
         <v>1.75</v>
@@ -15414,7 +15414,7 @@
         <v>1</v>
       </c>
       <c r="J168" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K168">
         <v>1.6</v>
@@ -15669,7 +15669,7 @@
         <v>45312.5</v>
       </c>
       <c r="F171" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G171" t="s">
         <v>38</v>
@@ -15770,7 +15770,7 @@
         <v>1</v>
       </c>
       <c r="J172" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K172">
         <v>4.5</v>
@@ -15847,7 +15847,7 @@
         <v>45317.69791666666</v>
       </c>
       <c r="F173" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G173" t="s">
         <v>39</v>
@@ -15859,7 +15859,7 @@
         <v>1</v>
       </c>
       <c r="J173" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K173">
         <v>1.55</v>
@@ -15948,7 +15948,7 @@
         <v>0</v>
       </c>
       <c r="J174" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K174">
         <v>2.75</v>
@@ -16025,7 +16025,7 @@
         <v>45318.69791666666</v>
       </c>
       <c r="F175" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G175" t="s">
         <v>43</v>
@@ -16037,7 +16037,7 @@
         <v>2</v>
       </c>
       <c r="J175" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K175">
         <v>1.363</v>
@@ -16126,7 +16126,7 @@
         <v>4</v>
       </c>
       <c r="J176" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K176">
         <v>5.5</v>
@@ -16206,7 +16206,7 @@
         <v>38</v>
       </c>
       <c r="G177" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H177">
         <v>1</v>
@@ -16215,7 +16215,7 @@
         <v>1</v>
       </c>
       <c r="J177" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K177">
         <v>3.75</v>
@@ -16384,7 +16384,7 @@
         <v>41</v>
       </c>
       <c r="G179" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H179">
         <v>2</v>
@@ -16393,7 +16393,7 @@
         <v>2</v>
       </c>
       <c r="J179" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K179">
         <v>3</v>
@@ -16562,7 +16562,7 @@
         <v>43</v>
       </c>
       <c r="G181" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H181">
         <v>4</v>
@@ -16660,7 +16660,7 @@
         <v>3</v>
       </c>
       <c r="J182" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K182">
         <v>1.125</v>
@@ -16725,7 +16725,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>6810165</v>
+        <v>6810168</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16737,58 +16737,58 @@
         <v>45322.61458333334</v>
       </c>
       <c r="F183" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G183" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H183">
+        <v>2</v>
+      </c>
+      <c r="I183">
         <v>1</v>
-      </c>
-      <c r="I183">
-        <v>0</v>
       </c>
       <c r="J183" t="s">
         <v>45</v>
       </c>
       <c r="K183">
-        <v>1.6</v>
+        <v>4.5</v>
       </c>
       <c r="L183">
+        <v>4.2</v>
+      </c>
+      <c r="M183">
+        <v>1.666</v>
+      </c>
+      <c r="N183">
+        <v>4.333</v>
+      </c>
+      <c r="O183">
         <v>4</v>
       </c>
-      <c r="M183">
-        <v>5</v>
-      </c>
-      <c r="N183">
-        <v>1.8</v>
-      </c>
-      <c r="O183">
-        <v>3.75</v>
-      </c>
       <c r="P183">
-        <v>4.2</v>
+        <v>1.7</v>
       </c>
       <c r="Q183">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R183">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S183">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T183">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U183">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V183">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W183">
-        <v>0.8</v>
+        <v>3.333</v>
       </c>
       <c r="X183">
         <v>-1</v>
@@ -16797,16 +16797,16 @@
         <v>-1</v>
       </c>
       <c r="Z183">
-        <v>0.5249999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA183">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB183">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC183">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="184" spans="1:29">
@@ -16814,7 +16814,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>6810168</v>
+        <v>6810165</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16826,58 +16826,58 @@
         <v>45322.61458333334</v>
       </c>
       <c r="F184" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G184" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I184">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J184" t="s">
         <v>45</v>
       </c>
       <c r="K184">
-        <v>4.5</v>
+        <v>1.6</v>
       </c>
       <c r="L184">
+        <v>4</v>
+      </c>
+      <c r="M184">
+        <v>5</v>
+      </c>
+      <c r="N184">
+        <v>1.8</v>
+      </c>
+      <c r="O184">
+        <v>3.75</v>
+      </c>
+      <c r="P184">
         <v>4.2</v>
       </c>
-      <c r="M184">
-        <v>1.666</v>
-      </c>
-      <c r="N184">
-        <v>4.333</v>
-      </c>
-      <c r="O184">
-        <v>4</v>
-      </c>
-      <c r="P184">
-        <v>1.7</v>
-      </c>
       <c r="Q184">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R184">
+        <v>2.05</v>
+      </c>
+      <c r="S184">
+        <v>1.8</v>
+      </c>
+      <c r="T184">
+        <v>2.75</v>
+      </c>
+      <c r="U184">
         <v>1.95</v>
       </c>
-      <c r="S184">
+      <c r="V184">
         <v>1.9</v>
       </c>
-      <c r="T184">
-        <v>3</v>
-      </c>
-      <c r="U184">
-        <v>1.975</v>
-      </c>
-      <c r="V184">
-        <v>1.875</v>
-      </c>
       <c r="W184">
-        <v>3.333</v>
+        <v>0.8</v>
       </c>
       <c r="X184">
         <v>-1</v>
@@ -16886,16 +16886,16 @@
         <v>-1</v>
       </c>
       <c r="Z184">
-        <v>0.95</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AA184">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB184">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC184">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -16903,7 +16903,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>6810162</v>
+        <v>6810164</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16915,76 +16915,76 @@
         <v>45322.70833333334</v>
       </c>
       <c r="F185" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G185" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I185">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J185" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K185">
-        <v>4</v>
+        <v>1.2</v>
       </c>
       <c r="L185">
-        <v>3.6</v>
+        <v>7</v>
       </c>
       <c r="M185">
-        <v>1.85</v>
+        <v>12</v>
       </c>
       <c r="N185">
-        <v>3.1</v>
+        <v>1.142</v>
       </c>
       <c r="O185">
-        <v>3.2</v>
+        <v>8.5</v>
       </c>
       <c r="P185">
-        <v>2.3</v>
+        <v>15</v>
       </c>
       <c r="Q185">
-        <v>0.25</v>
+        <v>-2.25</v>
       </c>
       <c r="R185">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S185">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T185">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="U185">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V185">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W185">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X185">
         <v>-1</v>
       </c>
       <c r="Y185">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z185">
         <v>-1</v>
       </c>
       <c r="AA185">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AB185">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC185">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="186" spans="1:29">
@@ -16992,7 +16992,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>6810164</v>
+        <v>6810162</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17004,76 +17004,76 @@
         <v>45322.70833333334</v>
       </c>
       <c r="F186" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G186" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H186">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I186">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J186" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K186">
-        <v>1.2</v>
+        <v>4</v>
       </c>
       <c r="L186">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="M186">
-        <v>12</v>
+        <v>1.85</v>
       </c>
       <c r="N186">
-        <v>1.142</v>
+        <v>3.1</v>
       </c>
       <c r="O186">
-        <v>8.5</v>
+        <v>3.2</v>
       </c>
       <c r="P186">
-        <v>15</v>
+        <v>2.3</v>
       </c>
       <c r="Q186">
-        <v>-2.25</v>
+        <v>0.25</v>
       </c>
       <c r="R186">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S186">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T186">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="U186">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V186">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W186">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X186">
         <v>-1</v>
       </c>
       <c r="Y186">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z186">
         <v>-1</v>
       </c>
       <c r="AA186">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="AB186">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC186">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17081,7 +17081,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>6810166</v>
+        <v>6810163</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17093,73 +17093,73 @@
         <v>45323.6875</v>
       </c>
       <c r="F187" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G187" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I187">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J187" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K187">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="L187">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M187">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="N187">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="O187">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P187">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="Q187">
         <v>0.25</v>
       </c>
       <c r="R187">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S187">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T187">
         <v>2.5</v>
       </c>
       <c r="U187">
+        <v>1.975</v>
+      </c>
+      <c r="V187">
         <v>1.875</v>
       </c>
-      <c r="V187">
-        <v>1.975</v>
-      </c>
       <c r="W187">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="X187">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y187">
         <v>-1</v>
       </c>
       <c r="Z187">
-        <v>0.4625</v>
+        <v>0.95</v>
       </c>
       <c r="AA187">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB187">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC187">
         <v>-1</v>
@@ -17170,7 +17170,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>6810163</v>
+        <v>6810166</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17182,73 +17182,73 @@
         <v>45323.6875</v>
       </c>
       <c r="F188" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G188" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H188">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I188">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J188" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K188">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L188">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M188">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="N188">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="O188">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P188">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="Q188">
         <v>0.25</v>
       </c>
       <c r="R188">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S188">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T188">
         <v>2.5</v>
       </c>
       <c r="U188">
+        <v>1.875</v>
+      </c>
+      <c r="V188">
         <v>1.975</v>
       </c>
-      <c r="V188">
-        <v>1.875</v>
-      </c>
       <c r="W188">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="X188">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y188">
         <v>-1</v>
       </c>
       <c r="Z188">
-        <v>0.95</v>
+        <v>0.4625</v>
       </c>
       <c r="AA188">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB188">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC188">
         <v>-1</v>
@@ -17283,7 +17283,7 @@
         <v>2</v>
       </c>
       <c r="J189" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K189">
         <v>3.1</v>
@@ -17348,7 +17348,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>6810171</v>
+        <v>6810174</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17360,76 +17360,76 @@
         <v>45325.59375</v>
       </c>
       <c r="F190" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G190" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H190">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I190">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J190" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K190">
-        <v>3.2</v>
+        <v>1.909</v>
       </c>
       <c r="L190">
+        <v>3.75</v>
+      </c>
+      <c r="M190">
         <v>3.5</v>
       </c>
-      <c r="M190">
-        <v>2.1</v>
-      </c>
       <c r="N190">
-        <v>3.4</v>
+        <v>1.909</v>
       </c>
       <c r="O190">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P190">
-        <v>2.05</v>
+        <v>3.8</v>
       </c>
       <c r="Q190">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R190">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S190">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T190">
         <v>2.5</v>
       </c>
       <c r="U190">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V190">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W190">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X190">
         <v>-1</v>
       </c>
       <c r="Y190">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z190">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA190">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB190">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC190">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="191" spans="1:29">
@@ -17437,7 +17437,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>6810174</v>
+        <v>6810171</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17449,76 +17449,76 @@
         <v>45325.59375</v>
       </c>
       <c r="F191" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G191" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H191">
+        <v>1</v>
+      </c>
+      <c r="I191">
         <v>0</v>
       </c>
-      <c r="I191">
-        <v>3</v>
-      </c>
       <c r="J191" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K191">
-        <v>1.909</v>
+        <v>3.2</v>
       </c>
       <c r="L191">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M191">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="N191">
-        <v>1.909</v>
+        <v>3.4</v>
       </c>
       <c r="O191">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P191">
-        <v>3.8</v>
+        <v>2.05</v>
       </c>
       <c r="Q191">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R191">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S191">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T191">
         <v>2.5</v>
       </c>
       <c r="U191">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V191">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W191">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X191">
         <v>-1</v>
       </c>
       <c r="Y191">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z191">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA191">
+        <v>-1</v>
+      </c>
+      <c r="AB191">
+        <v>-1</v>
+      </c>
+      <c r="AC191">
         <v>0.925</v>
-      </c>
-      <c r="AB191">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC191">
-        <v>-1</v>
       </c>
     </row>
     <row r="192" spans="1:29">
@@ -17538,10 +17538,10 @@
         <v>45325.69791666666</v>
       </c>
       <c r="F192" t="s">
+        <v>31</v>
+      </c>
+      <c r="G192" t="s">
         <v>32</v>
-      </c>
-      <c r="G192" t="s">
-        <v>31</v>
       </c>
       <c r="H192">
         <v>0</v>
@@ -17550,7 +17550,7 @@
         <v>1</v>
       </c>
       <c r="J192" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K192">
         <v>2.8</v>
@@ -17728,7 +17728,7 @@
         <v>1</v>
       </c>
       <c r="J194" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K194">
         <v>3.2</v>
@@ -17808,7 +17808,7 @@
         <v>41</v>
       </c>
       <c r="G195" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H195">
         <v>1</v>
@@ -17894,7 +17894,7 @@
         <v>45326.63541666666</v>
       </c>
       <c r="F196" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G196" t="s">
         <v>38</v>
@@ -18161,7 +18161,7 @@
         <v>45332.59375</v>
       </c>
       <c r="F199" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G199" t="s">
         <v>43</v>
@@ -18173,7 +18173,7 @@
         <v>2</v>
       </c>
       <c r="J199" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K199">
         <v>1.285</v>
@@ -18351,7 +18351,7 @@
         <v>4</v>
       </c>
       <c r="J201" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K201">
         <v>5.25</v>
@@ -18431,7 +18431,7 @@
         <v>42</v>
       </c>
       <c r="G202" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H202">
         <v>1</v>
@@ -18440,7 +18440,7 @@
         <v>1</v>
       </c>
       <c r="J202" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K202">
         <v>3.8</v>
@@ -18529,7 +18529,7 @@
         <v>3</v>
       </c>
       <c r="J203" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K203">
         <v>3.6</v>
@@ -18606,10 +18606,10 @@
         <v>45333.63541666666</v>
       </c>
       <c r="F204" t="s">
+        <v>30</v>
+      </c>
+      <c r="G204" t="s">
         <v>29</v>
-      </c>
-      <c r="G204" t="s">
-        <v>30</v>
       </c>
       <c r="H204">
         <v>1</v>
@@ -18618,7 +18618,7 @@
         <v>2</v>
       </c>
       <c r="J204" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K204">
         <v>2.05</v>
@@ -18784,7 +18784,7 @@
         <v>45339.5</v>
       </c>
       <c r="F206" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G206" t="s">
         <v>35</v>
@@ -18885,7 +18885,7 @@
         <v>0</v>
       </c>
       <c r="J207" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K207">
         <v>2.25</v>
@@ -18974,7 +18974,7 @@
         <v>1</v>
       </c>
       <c r="J208" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K208">
         <v>1.533</v>
@@ -19051,7 +19051,7 @@
         <v>45340.39583333334</v>
       </c>
       <c r="F209" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G209" t="s">
         <v>37</v>
@@ -19063,7 +19063,7 @@
         <v>1</v>
       </c>
       <c r="J209" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K209">
         <v>3</v>
@@ -19143,7 +19143,7 @@
         <v>44</v>
       </c>
       <c r="G210" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H210">
         <v>1</v>
@@ -19152,7 +19152,7 @@
         <v>3</v>
       </c>
       <c r="J210" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K210">
         <v>6</v>
@@ -19321,7 +19321,7 @@
         <v>33</v>
       </c>
       <c r="G212" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H212">
         <v>0</v>
@@ -19330,7 +19330,7 @@
         <v>2</v>
       </c>
       <c r="J212" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K212">
         <v>5</v>
@@ -19410,7 +19410,7 @@
         <v>34</v>
       </c>
       <c r="G213" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H213">
         <v>0</v>
@@ -19419,7 +19419,7 @@
         <v>1</v>
       </c>
       <c r="J213" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K213">
         <v>4.2</v>
@@ -19508,7 +19508,7 @@
         <v>1</v>
       </c>
       <c r="J214" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K214">
         <v>2.8</v>
@@ -19775,7 +19775,7 @@
         <v>2</v>
       </c>
       <c r="J217" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K217">
         <v>1.666</v>
@@ -19852,7 +19852,7 @@
         <v>45347.5</v>
       </c>
       <c r="F218" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G218" t="s">
         <v>36</v>
@@ -19864,7 +19864,7 @@
         <v>2</v>
       </c>
       <c r="J218" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K218">
         <v>2.25</v>
@@ -19941,7 +19941,7 @@
         <v>45347.60416666666</v>
       </c>
       <c r="F219" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G219" t="s">
         <v>39</v>
@@ -20033,7 +20033,7 @@
         <v>33</v>
       </c>
       <c r="G220" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H220">
         <v>0</v>
@@ -20042,7 +20042,7 @@
         <v>2</v>
       </c>
       <c r="J220" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K220">
         <v>5</v>
@@ -20131,7 +20131,7 @@
         <v>1</v>
       </c>
       <c r="J221" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K221">
         <v>2</v>
@@ -20208,7 +20208,7 @@
         <v>45353.5</v>
       </c>
       <c r="F222" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G222" t="s">
         <v>42</v>
@@ -20220,7 +20220,7 @@
         <v>3</v>
       </c>
       <c r="J222" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K222">
         <v>1.909</v>
@@ -20300,7 +20300,7 @@
         <v>40</v>
       </c>
       <c r="G223" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H223">
         <v>0</v>
@@ -20309,7 +20309,7 @@
         <v>2</v>
       </c>
       <c r="J223" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K223">
         <v>5.5</v>
@@ -20389,7 +20389,7 @@
         <v>39</v>
       </c>
       <c r="G224" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H224">
         <v>4</v>
@@ -20458,7 +20458,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="225" spans="1:27">
+    <row r="225" spans="1:29">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -20475,11 +20475,20 @@
         <v>45354.39583333334</v>
       </c>
       <c r="F225" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G225" t="s">
         <v>37</v>
       </c>
+      <c r="H225">
+        <v>0</v>
+      </c>
+      <c r="I225">
+        <v>3</v>
+      </c>
+      <c r="J225" t="s">
+        <v>47</v>
+      </c>
       <c r="K225">
         <v>2.8</v>
       </c>
@@ -20490,49 +20499,55 @@
         <v>2.3</v>
       </c>
       <c r="N225">
-        <v>2.875</v>
+        <v>2.55</v>
       </c>
       <c r="O225">
         <v>3.6</v>
       </c>
       <c r="P225">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="Q225">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R225">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S225">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T225">
         <v>2.75</v>
       </c>
       <c r="U225">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V225">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W225">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X225">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y225">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="Z225">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA225">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226" spans="1:27">
+        <v>0.925</v>
+      </c>
+      <c r="AB225">
+        <v>0.4875</v>
+      </c>
+      <c r="AC225">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="226" spans="1:29">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -20554,6 +20569,15 @@
       <c r="G226" t="s">
         <v>38</v>
       </c>
+      <c r="H226">
+        <v>3</v>
+      </c>
+      <c r="I226">
+        <v>0</v>
+      </c>
+      <c r="J226" t="s">
+        <v>45</v>
+      </c>
       <c r="K226">
         <v>1.6</v>
       </c>
@@ -20564,49 +20588,55 @@
         <v>5</v>
       </c>
       <c r="N226">
-        <v>1.6</v>
+        <v>1.571</v>
       </c>
       <c r="O226">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="P226">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="Q226">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R226">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S226">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T226">
         <v>2.75</v>
       </c>
       <c r="U226">
+        <v>1.85</v>
+      </c>
+      <c r="V226">
         <v>2</v>
       </c>
-      <c r="V226">
-        <v>1.85</v>
-      </c>
       <c r="W226">
-        <v>0</v>
+        <v>0.571</v>
       </c>
       <c r="X226">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y226">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z226">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA226">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="227" spans="1:27">
+        <v>-1</v>
+      </c>
+      <c r="AB226">
+        <v>0.425</v>
+      </c>
+      <c r="AC226">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="227" spans="1:29">
       <c r="A227" s="1">
         <v>225</v>
       </c>
@@ -20628,6 +20658,15 @@
       <c r="G227" t="s">
         <v>33</v>
       </c>
+      <c r="H227">
+        <v>1</v>
+      </c>
+      <c r="I227">
+        <v>0</v>
+      </c>
+      <c r="J227" t="s">
+        <v>45</v>
+      </c>
       <c r="K227">
         <v>1.3</v>
       </c>
@@ -20638,49 +20677,55 @@
         <v>8.5</v>
       </c>
       <c r="N227">
-        <v>1.285</v>
+        <v>1.3</v>
       </c>
       <c r="O227">
         <v>5.5</v>
       </c>
       <c r="P227">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="Q227">
         <v>-1.5</v>
       </c>
       <c r="R227">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S227">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T227">
         <v>3</v>
       </c>
       <c r="U227">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V227">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W227">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="X227">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y227">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z227">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA227">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228" spans="1:27">
+        <v>0.95</v>
+      </c>
+      <c r="AB227">
+        <v>-1</v>
+      </c>
+      <c r="AC227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:29">
       <c r="A228" s="1">
         <v>226</v>
       </c>
@@ -20702,6 +20747,15 @@
       <c r="G228" t="s">
         <v>35</v>
       </c>
+      <c r="H228">
+        <v>3</v>
+      </c>
+      <c r="I228">
+        <v>2</v>
+      </c>
+      <c r="J228" t="s">
+        <v>45</v>
+      </c>
       <c r="K228">
         <v>2.45</v>
       </c>
@@ -20712,13 +20766,13 @@
         <v>2.625</v>
       </c>
       <c r="N228">
-        <v>2.4</v>
+        <v>2.375</v>
       </c>
       <c r="O228">
         <v>3.5</v>
       </c>
       <c r="P228">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="Q228">
         <v>0</v>
@@ -20733,24 +20787,622 @@
         <v>2.5</v>
       </c>
       <c r="U228">
+        <v>1.875</v>
+      </c>
+      <c r="V228">
+        <v>1.975</v>
+      </c>
+      <c r="W228">
+        <v>1.375</v>
+      </c>
+      <c r="X228">
+        <v>-1</v>
+      </c>
+      <c r="Y228">
+        <v>-1</v>
+      </c>
+      <c r="Z228">
+        <v>0.8</v>
+      </c>
+      <c r="AA228">
+        <v>-1</v>
+      </c>
+      <c r="AB228">
+        <v>0.875</v>
+      </c>
+      <c r="AC228">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:29">
+      <c r="A229" s="1">
+        <v>227</v>
+      </c>
+      <c r="B229">
+        <v>6810212</v>
+      </c>
+      <c r="C229" t="s">
+        <v>28</v>
+      </c>
+      <c r="D229" t="s">
+        <v>28</v>
+      </c>
+      <c r="E229" s="2">
+        <v>45359.69791666666</v>
+      </c>
+      <c r="F229" t="s">
+        <v>42</v>
+      </c>
+      <c r="G229" t="s">
+        <v>43</v>
+      </c>
+      <c r="K229">
+        <v>1.833</v>
+      </c>
+      <c r="L229">
+        <v>3.75</v>
+      </c>
+      <c r="M229">
+        <v>4</v>
+      </c>
+      <c r="N229">
+        <v>1.85</v>
+      </c>
+      <c r="O229">
+        <v>3.6</v>
+      </c>
+      <c r="P229">
+        <v>4</v>
+      </c>
+      <c r="Q229">
+        <v>-0.5</v>
+      </c>
+      <c r="R229">
+        <v>1.9</v>
+      </c>
+      <c r="S229">
         <v>1.95</v>
       </c>
-      <c r="V228">
+      <c r="T229">
+        <v>2.5</v>
+      </c>
+      <c r="U229">
+        <v>1.975</v>
+      </c>
+      <c r="V229">
+        <v>1.875</v>
+      </c>
+      <c r="W229">
+        <v>0</v>
+      </c>
+      <c r="X229">
+        <v>0</v>
+      </c>
+      <c r="Y229">
+        <v>0</v>
+      </c>
+      <c r="Z229">
+        <v>0</v>
+      </c>
+      <c r="AA229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:29">
+      <c r="A230" s="1">
+        <v>228</v>
+      </c>
+      <c r="B230">
+        <v>6916502</v>
+      </c>
+      <c r="C230" t="s">
+        <v>28</v>
+      </c>
+      <c r="D230" t="s">
+        <v>28</v>
+      </c>
+      <c r="E230" s="2">
+        <v>45360.5</v>
+      </c>
+      <c r="F230" t="s">
+        <v>44</v>
+      </c>
+      <c r="G230" t="s">
+        <v>36</v>
+      </c>
+      <c r="K230">
+        <v>6</v>
+      </c>
+      <c r="L230">
+        <v>4.2</v>
+      </c>
+      <c r="M230">
+        <v>1.533</v>
+      </c>
+      <c r="N230">
+        <v>7</v>
+      </c>
+      <c r="O230">
+        <v>4.333</v>
+      </c>
+      <c r="P230">
+        <v>1.5</v>
+      </c>
+      <c r="Q230">
+        <v>1</v>
+      </c>
+      <c r="R230">
+        <v>2.05</v>
+      </c>
+      <c r="S230">
+        <v>1.8</v>
+      </c>
+      <c r="T230">
+        <v>3</v>
+      </c>
+      <c r="U230">
+        <v>2.025</v>
+      </c>
+      <c r="V230">
+        <v>1.825</v>
+      </c>
+      <c r="W230">
+        <v>0</v>
+      </c>
+      <c r="X230">
+        <v>0</v>
+      </c>
+      <c r="Y230">
+        <v>0</v>
+      </c>
+      <c r="Z230">
+        <v>0</v>
+      </c>
+      <c r="AA230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:29">
+      <c r="A231" s="1">
+        <v>229</v>
+      </c>
+      <c r="B231">
+        <v>6810216</v>
+      </c>
+      <c r="C231" t="s">
+        <v>28</v>
+      </c>
+      <c r="D231" t="s">
+        <v>28</v>
+      </c>
+      <c r="E231" s="2">
+        <v>45360.59375</v>
+      </c>
+      <c r="F231" t="s">
+        <v>34</v>
+      </c>
+      <c r="G231" t="s">
+        <v>29</v>
+      </c>
+      <c r="K231">
+        <v>3.6</v>
+      </c>
+      <c r="L231">
+        <v>3.6</v>
+      </c>
+      <c r="M231">
+        <v>1.95</v>
+      </c>
+      <c r="N231">
+        <v>3.6</v>
+      </c>
+      <c r="O231">
+        <v>3.6</v>
+      </c>
+      <c r="P231">
+        <v>1.95</v>
+      </c>
+      <c r="Q231">
+        <v>0.5</v>
+      </c>
+      <c r="R231">
+        <v>1.825</v>
+      </c>
+      <c r="S231">
+        <v>2.025</v>
+      </c>
+      <c r="T231">
+        <v>2.5</v>
+      </c>
+      <c r="U231">
+        <v>1.85</v>
+      </c>
+      <c r="V231">
+        <v>2</v>
+      </c>
+      <c r="W231">
+        <v>0</v>
+      </c>
+      <c r="X231">
+        <v>0</v>
+      </c>
+      <c r="Y231">
+        <v>0</v>
+      </c>
+      <c r="Z231">
+        <v>0</v>
+      </c>
+      <c r="AA231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:29">
+      <c r="A232" s="1">
+        <v>230</v>
+      </c>
+      <c r="B232">
+        <v>6810213</v>
+      </c>
+      <c r="C232" t="s">
+        <v>28</v>
+      </c>
+      <c r="D232" t="s">
+        <v>28</v>
+      </c>
+      <c r="E232" s="2">
+        <v>45360.69791666666</v>
+      </c>
+      <c r="F232" t="s">
+        <v>35</v>
+      </c>
+      <c r="G232" t="s">
+        <v>41</v>
+      </c>
+      <c r="K232">
+        <v>5.25</v>
+      </c>
+      <c r="L232">
+        <v>4</v>
+      </c>
+      <c r="M232">
+        <v>1.6</v>
+      </c>
+      <c r="N232">
+        <v>5.75</v>
+      </c>
+      <c r="O232">
+        <v>4.2</v>
+      </c>
+      <c r="P232">
+        <v>1.533</v>
+      </c>
+      <c r="Q232">
+        <v>1</v>
+      </c>
+      <c r="R232">
+        <v>1.925</v>
+      </c>
+      <c r="S232">
+        <v>1.925</v>
+      </c>
+      <c r="T232">
+        <v>2.75</v>
+      </c>
+      <c r="U232">
         <v>1.9</v>
       </c>
-      <c r="W228">
+      <c r="V232">
+        <v>1.95</v>
+      </c>
+      <c r="W232">
         <v>0</v>
       </c>
-      <c r="X228">
+      <c r="X232">
         <v>0</v>
       </c>
-      <c r="Y228">
+      <c r="Y232">
         <v>0</v>
       </c>
-      <c r="Z228">
+      <c r="Z232">
         <v>0</v>
       </c>
-      <c r="AA228">
+      <c r="AA232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:29">
+      <c r="A233" s="1">
+        <v>231</v>
+      </c>
+      <c r="B233">
+        <v>6810215</v>
+      </c>
+      <c r="C233" t="s">
+        <v>28</v>
+      </c>
+      <c r="D233" t="s">
+        <v>28</v>
+      </c>
+      <c r="E233" s="2">
+        <v>45361.39583333334</v>
+      </c>
+      <c r="F233" t="s">
+        <v>31</v>
+      </c>
+      <c r="G233" t="s">
+        <v>39</v>
+      </c>
+      <c r="K233">
+        <v>1.6</v>
+      </c>
+      <c r="L233">
+        <v>4.2</v>
+      </c>
+      <c r="M233">
+        <v>5.5</v>
+      </c>
+      <c r="N233">
+        <v>1.65</v>
+      </c>
+      <c r="O233">
+        <v>4</v>
+      </c>
+      <c r="P233">
+        <v>5.25</v>
+      </c>
+      <c r="Q233">
+        <v>-1</v>
+      </c>
+      <c r="R233">
+        <v>2.05</v>
+      </c>
+      <c r="S233">
+        <v>1.8</v>
+      </c>
+      <c r="T233">
+        <v>2.75</v>
+      </c>
+      <c r="U233">
+        <v>1.975</v>
+      </c>
+      <c r="V233">
+        <v>1.875</v>
+      </c>
+      <c r="W233">
+        <v>0</v>
+      </c>
+      <c r="X233">
+        <v>0</v>
+      </c>
+      <c r="Y233">
+        <v>0</v>
+      </c>
+      <c r="Z233">
+        <v>0</v>
+      </c>
+      <c r="AA233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:29">
+      <c r="A234" s="1">
+        <v>232</v>
+      </c>
+      <c r="B234">
+        <v>6810211</v>
+      </c>
+      <c r="C234" t="s">
+        <v>28</v>
+      </c>
+      <c r="D234" t="s">
+        <v>28</v>
+      </c>
+      <c r="E234" s="2">
+        <v>45361.5</v>
+      </c>
+      <c r="F234" t="s">
+        <v>37</v>
+      </c>
+      <c r="G234" t="s">
+        <v>40</v>
+      </c>
+      <c r="K234">
+        <v>1.333</v>
+      </c>
+      <c r="L234">
+        <v>5.5</v>
+      </c>
+      <c r="M234">
+        <v>7.5</v>
+      </c>
+      <c r="N234">
+        <v>1.333</v>
+      </c>
+      <c r="O234">
+        <v>5.5</v>
+      </c>
+      <c r="P234">
+        <v>7.5</v>
+      </c>
+      <c r="Q234">
+        <v>-1.5</v>
+      </c>
+      <c r="R234">
+        <v>1.875</v>
+      </c>
+      <c r="S234">
+        <v>1.975</v>
+      </c>
+      <c r="T234">
+        <v>3.25</v>
+      </c>
+      <c r="U234">
+        <v>1.975</v>
+      </c>
+      <c r="V234">
+        <v>1.875</v>
+      </c>
+      <c r="W234">
+        <v>0</v>
+      </c>
+      <c r="X234">
+        <v>0</v>
+      </c>
+      <c r="Y234">
+        <v>0</v>
+      </c>
+      <c r="Z234">
+        <v>0</v>
+      </c>
+      <c r="AA234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:29">
+      <c r="A235" s="1">
+        <v>233</v>
+      </c>
+      <c r="B235">
+        <v>6810214</v>
+      </c>
+      <c r="C235" t="s">
+        <v>28</v>
+      </c>
+      <c r="D235" t="s">
+        <v>28</v>
+      </c>
+      <c r="E235" s="2">
+        <v>45361.60416666666</v>
+      </c>
+      <c r="F235" t="s">
+        <v>32</v>
+      </c>
+      <c r="G235" t="s">
+        <v>30</v>
+      </c>
+      <c r="K235">
+        <v>1.615</v>
+      </c>
+      <c r="L235">
+        <v>4.2</v>
+      </c>
+      <c r="M235">
+        <v>5</v>
+      </c>
+      <c r="N235">
+        <v>1.615</v>
+      </c>
+      <c r="O235">
+        <v>4.2</v>
+      </c>
+      <c r="P235">
+        <v>4.75</v>
+      </c>
+      <c r="Q235">
+        <v>-0.75</v>
+      </c>
+      <c r="R235">
+        <v>1.8</v>
+      </c>
+      <c r="S235">
+        <v>2.05</v>
+      </c>
+      <c r="T235">
+        <v>2.75</v>
+      </c>
+      <c r="U235">
+        <v>1.875</v>
+      </c>
+      <c r="V235">
+        <v>1.975</v>
+      </c>
+      <c r="W235">
+        <v>0</v>
+      </c>
+      <c r="X235">
+        <v>0</v>
+      </c>
+      <c r="Y235">
+        <v>0</v>
+      </c>
+      <c r="Z235">
+        <v>0</v>
+      </c>
+      <c r="AA235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:29">
+      <c r="A236" s="1">
+        <v>234</v>
+      </c>
+      <c r="B236">
+        <v>6886289</v>
+      </c>
+      <c r="C236" t="s">
+        <v>28</v>
+      </c>
+      <c r="D236" t="s">
+        <v>28</v>
+      </c>
+      <c r="E236" s="2">
+        <v>45361.63541666666</v>
+      </c>
+      <c r="F236" t="s">
+        <v>33</v>
+      </c>
+      <c r="G236" t="s">
+        <v>38</v>
+      </c>
+      <c r="K236">
+        <v>3.6</v>
+      </c>
+      <c r="L236">
+        <v>3.5</v>
+      </c>
+      <c r="M236">
+        <v>2</v>
+      </c>
+      <c r="N236">
+        <v>3.5</v>
+      </c>
+      <c r="O236">
+        <v>3.3</v>
+      </c>
+      <c r="P236">
+        <v>2.1</v>
+      </c>
+      <c r="Q236">
+        <v>0.25</v>
+      </c>
+      <c r="R236">
+        <v>2.025</v>
+      </c>
+      <c r="S236">
+        <v>1.825</v>
+      </c>
+      <c r="T236">
+        <v>2.5</v>
+      </c>
+      <c r="U236">
+        <v>2.025</v>
+      </c>
+      <c r="V236">
+        <v>1.825</v>
+      </c>
+      <c r="W236">
+        <v>0</v>
+      </c>
+      <c r="X236">
+        <v>0</v>
+      </c>
+      <c r="Y236">
+        <v>0</v>
+      </c>
+      <c r="Z236">
+        <v>0</v>
+      </c>
+      <c r="AA236">
         <v>0</v>
       </c>
     </row>

--- a/Belgium First Division A/Belgium First Division A.xlsx
+++ b/Belgium First Division A/Belgium First Division A.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1195" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -14233,7 +14233,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6810130</v>
+        <v>6810132</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14245,76 +14245,76 @@
         <v>45283.59375</v>
       </c>
       <c r="F155" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G155" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H155">
+        <v>1</v>
+      </c>
+      <c r="I155">
+        <v>0</v>
+      </c>
+      <c r="J155" t="s">
+        <v>45</v>
+      </c>
+      <c r="K155">
+        <v>2.2</v>
+      </c>
+      <c r="L155">
+        <v>3.4</v>
+      </c>
+      <c r="M155">
+        <v>3.2</v>
+      </c>
+      <c r="N155">
+        <v>2.3</v>
+      </c>
+      <c r="O155">
+        <v>3.3</v>
+      </c>
+      <c r="P155">
+        <v>3</v>
+      </c>
+      <c r="Q155">
+        <v>-0.25</v>
+      </c>
+      <c r="R155">
         <v>2</v>
       </c>
-      <c r="I155">
+      <c r="S155">
+        <v>1.85</v>
+      </c>
+      <c r="T155">
+        <v>2.25</v>
+      </c>
+      <c r="U155">
+        <v>1.85</v>
+      </c>
+      <c r="V155">
         <v>2</v>
       </c>
-      <c r="J155" t="s">
-        <v>46</v>
-      </c>
-      <c r="K155">
-        <v>1.363</v>
-      </c>
-      <c r="L155">
-        <v>5</v>
-      </c>
-      <c r="M155">
-        <v>7.5</v>
-      </c>
-      <c r="N155">
-        <v>1.333</v>
-      </c>
-      <c r="O155">
-        <v>5.25</v>
-      </c>
-      <c r="P155">
-        <v>8</v>
-      </c>
-      <c r="Q155">
-        <v>-1.5</v>
-      </c>
-      <c r="R155">
-        <v>1.9</v>
-      </c>
-      <c r="S155">
-        <v>1.95</v>
-      </c>
-      <c r="T155">
-        <v>3</v>
-      </c>
-      <c r="U155">
-        <v>1.8</v>
-      </c>
-      <c r="V155">
-        <v>2.05</v>
-      </c>
       <c r="W155">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X155">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Y155">
         <v>-1</v>
       </c>
       <c r="Z155">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA155">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB155">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC155">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:29">
@@ -14322,7 +14322,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6810132</v>
+        <v>6810130</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14334,76 +14334,76 @@
         <v>45283.59375</v>
       </c>
       <c r="F156" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G156" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H156">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I156">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J156" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K156">
-        <v>2.2</v>
+        <v>1.363</v>
       </c>
       <c r="L156">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="M156">
-        <v>3.2</v>
+        <v>7.5</v>
       </c>
       <c r="N156">
-        <v>2.3</v>
+        <v>1.333</v>
       </c>
       <c r="O156">
-        <v>3.3</v>
+        <v>5.25</v>
       </c>
       <c r="P156">
+        <v>8</v>
+      </c>
+      <c r="Q156">
+        <v>-1.5</v>
+      </c>
+      <c r="R156">
+        <v>1.9</v>
+      </c>
+      <c r="S156">
+        <v>1.95</v>
+      </c>
+      <c r="T156">
         <v>3</v>
       </c>
-      <c r="Q156">
-        <v>-0.25</v>
-      </c>
-      <c r="R156">
-        <v>2</v>
-      </c>
-      <c r="S156">
-        <v>1.85</v>
-      </c>
-      <c r="T156">
-        <v>2.25</v>
-      </c>
       <c r="U156">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V156">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W156">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X156">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Y156">
         <v>-1</v>
       </c>
       <c r="Z156">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA156">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB156">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC156">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14589,7 +14589,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>6810145</v>
+        <v>6810142</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14601,76 +14601,76 @@
         <v>45286.5</v>
       </c>
       <c r="F159" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G159" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H159">
+        <v>3</v>
+      </c>
+      <c r="I159">
         <v>0</v>
       </c>
-      <c r="I159">
-        <v>2</v>
-      </c>
       <c r="J159" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K159">
-        <v>7</v>
+        <v>1.75</v>
       </c>
       <c r="L159">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M159">
-        <v>1.4</v>
+        <v>4</v>
       </c>
       <c r="N159">
-        <v>8.5</v>
+        <v>1.8</v>
       </c>
       <c r="O159">
-        <v>5.75</v>
+        <v>3.8</v>
       </c>
       <c r="P159">
-        <v>1.285</v>
+        <v>3.8</v>
       </c>
       <c r="Q159">
-        <v>1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R159">
+        <v>1.825</v>
+      </c>
+      <c r="S159">
         <v>2.025</v>
       </c>
-      <c r="S159">
-        <v>1.825</v>
-      </c>
       <c r="T159">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U159">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="V159">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W159">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X159">
         <v>-1</v>
       </c>
       <c r="Y159">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z159">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA159">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB159">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC159">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -14678,7 +14678,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>6810142</v>
+        <v>6810145</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14690,76 +14690,76 @@
         <v>45286.5</v>
       </c>
       <c r="F160" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G160" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H160">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I160">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J160" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K160">
-        <v>1.75</v>
+        <v>7</v>
       </c>
       <c r="L160">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M160">
-        <v>4</v>
+        <v>1.4</v>
       </c>
       <c r="N160">
+        <v>8.5</v>
+      </c>
+      <c r="O160">
+        <v>5.75</v>
+      </c>
+      <c r="P160">
+        <v>1.285</v>
+      </c>
+      <c r="Q160">
+        <v>1.5</v>
+      </c>
+      <c r="R160">
+        <v>2.025</v>
+      </c>
+      <c r="S160">
+        <v>1.825</v>
+      </c>
+      <c r="T160">
+        <v>3.25</v>
+      </c>
+      <c r="U160">
+        <v>2.05</v>
+      </c>
+      <c r="V160">
         <v>1.8</v>
       </c>
-      <c r="O160">
-        <v>3.8</v>
-      </c>
-      <c r="P160">
-        <v>3.8</v>
-      </c>
-      <c r="Q160">
-        <v>-0.5</v>
-      </c>
-      <c r="R160">
-        <v>1.825</v>
-      </c>
-      <c r="S160">
-        <v>2.025</v>
-      </c>
-      <c r="T160">
-        <v>3</v>
-      </c>
-      <c r="U160">
-        <v>1.975</v>
-      </c>
-      <c r="V160">
-        <v>1.875</v>
-      </c>
       <c r="W160">
+        <v>-1</v>
+      </c>
+      <c r="X160">
+        <v>-1</v>
+      </c>
+      <c r="Y160">
+        <v>0.2849999999999999</v>
+      </c>
+      <c r="Z160">
+        <v>-1</v>
+      </c>
+      <c r="AA160">
+        <v>0.825</v>
+      </c>
+      <c r="AB160">
+        <v>-1</v>
+      </c>
+      <c r="AC160">
         <v>0.8</v>
-      </c>
-      <c r="X160">
-        <v>-1</v>
-      </c>
-      <c r="Y160">
-        <v>-1</v>
-      </c>
-      <c r="Z160">
-        <v>0.825</v>
-      </c>
-      <c r="AA160">
-        <v>-1</v>
-      </c>
-      <c r="AB160">
-        <v>0</v>
-      </c>
-      <c r="AC160">
-        <v>-0</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -16013,7 +16013,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>6810158</v>
+        <v>6810159</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16025,73 +16025,73 @@
         <v>45318.69791666666</v>
       </c>
       <c r="F175" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G175" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I175">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J175" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K175">
-        <v>1.363</v>
+        <v>5.5</v>
       </c>
       <c r="L175">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="M175">
-        <v>6.5</v>
+        <v>1.5</v>
       </c>
       <c r="N175">
-        <v>1.444</v>
+        <v>6</v>
       </c>
       <c r="O175">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P175">
-        <v>5.75</v>
+        <v>1.45</v>
       </c>
       <c r="Q175">
-        <v>-1.25</v>
+        <v>1.25</v>
       </c>
       <c r="R175">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S175">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T175">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U175">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V175">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W175">
         <v>-1</v>
       </c>
       <c r="X175">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y175">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z175">
         <v>-1</v>
       </c>
       <c r="AA175">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AB175">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AC175">
         <v>-1</v>
@@ -16102,7 +16102,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6810159</v>
+        <v>6810158</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16114,73 +16114,73 @@
         <v>45318.69791666666</v>
       </c>
       <c r="F176" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G176" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H176">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I176">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J176" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K176">
-        <v>5.5</v>
+        <v>1.363</v>
       </c>
       <c r="L176">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="M176">
-        <v>1.5</v>
+        <v>6.5</v>
       </c>
       <c r="N176">
-        <v>6</v>
+        <v>1.444</v>
       </c>
       <c r="O176">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P176">
-        <v>1.45</v>
+        <v>5.75</v>
       </c>
       <c r="Q176">
-        <v>1.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R176">
+        <v>2</v>
+      </c>
+      <c r="S176">
+        <v>1.85</v>
+      </c>
+      <c r="T176">
+        <v>3</v>
+      </c>
+      <c r="U176">
+        <v>2.025</v>
+      </c>
+      <c r="V176">
         <v>1.825</v>
       </c>
-      <c r="S176">
-        <v>2.025</v>
-      </c>
-      <c r="T176">
-        <v>2.75</v>
-      </c>
-      <c r="U176">
-        <v>1.95</v>
-      </c>
-      <c r="V176">
-        <v>1.9</v>
-      </c>
       <c r="W176">
         <v>-1</v>
       </c>
       <c r="X176">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y176">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z176">
         <v>-1</v>
       </c>
       <c r="AA176">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB176">
         <v>1.025</v>
-      </c>
-      <c r="AB176">
-        <v>0.95</v>
       </c>
       <c r="AC176">
         <v>-1</v>
@@ -16725,7 +16725,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>6810168</v>
+        <v>6810165</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16737,58 +16737,58 @@
         <v>45322.61458333334</v>
       </c>
       <c r="F183" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G183" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I183">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J183" t="s">
         <v>45</v>
       </c>
       <c r="K183">
-        <v>4.5</v>
+        <v>1.6</v>
       </c>
       <c r="L183">
+        <v>4</v>
+      </c>
+      <c r="M183">
+        <v>5</v>
+      </c>
+      <c r="N183">
+        <v>1.8</v>
+      </c>
+      <c r="O183">
+        <v>3.75</v>
+      </c>
+      <c r="P183">
         <v>4.2</v>
       </c>
-      <c r="M183">
-        <v>1.666</v>
-      </c>
-      <c r="N183">
-        <v>4.333</v>
-      </c>
-      <c r="O183">
-        <v>4</v>
-      </c>
-      <c r="P183">
-        <v>1.7</v>
-      </c>
       <c r="Q183">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R183">
+        <v>2.05</v>
+      </c>
+      <c r="S183">
+        <v>1.8</v>
+      </c>
+      <c r="T183">
+        <v>2.75</v>
+      </c>
+      <c r="U183">
         <v>1.95</v>
       </c>
-      <c r="S183">
+      <c r="V183">
         <v>1.9</v>
       </c>
-      <c r="T183">
-        <v>3</v>
-      </c>
-      <c r="U183">
-        <v>1.975</v>
-      </c>
-      <c r="V183">
-        <v>1.875</v>
-      </c>
       <c r="W183">
-        <v>3.333</v>
+        <v>0.8</v>
       </c>
       <c r="X183">
         <v>-1</v>
@@ -16797,16 +16797,16 @@
         <v>-1</v>
       </c>
       <c r="Z183">
-        <v>0.95</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AA183">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB183">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC183">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="184" spans="1:29">
@@ -16814,7 +16814,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>6810165</v>
+        <v>6810168</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16826,58 +16826,58 @@
         <v>45322.61458333334</v>
       </c>
       <c r="F184" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G184" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H184">
+        <v>2</v>
+      </c>
+      <c r="I184">
         <v>1</v>
-      </c>
-      <c r="I184">
-        <v>0</v>
       </c>
       <c r="J184" t="s">
         <v>45</v>
       </c>
       <c r="K184">
-        <v>1.6</v>
+        <v>4.5</v>
       </c>
       <c r="L184">
+        <v>4.2</v>
+      </c>
+      <c r="M184">
+        <v>1.666</v>
+      </c>
+      <c r="N184">
+        <v>4.333</v>
+      </c>
+      <c r="O184">
         <v>4</v>
       </c>
-      <c r="M184">
-        <v>5</v>
-      </c>
-      <c r="N184">
-        <v>1.8</v>
-      </c>
-      <c r="O184">
-        <v>3.75</v>
-      </c>
       <c r="P184">
-        <v>4.2</v>
+        <v>1.7</v>
       </c>
       <c r="Q184">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R184">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S184">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T184">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U184">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V184">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W184">
-        <v>0.8</v>
+        <v>3.333</v>
       </c>
       <c r="X184">
         <v>-1</v>
@@ -16886,16 +16886,16 @@
         <v>-1</v>
       </c>
       <c r="Z184">
-        <v>0.5249999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA184">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB184">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC184">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -16903,7 +16903,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>6810164</v>
+        <v>6810162</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16915,76 +16915,76 @@
         <v>45322.70833333334</v>
       </c>
       <c r="F185" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G185" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H185">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I185">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J185" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K185">
-        <v>1.2</v>
+        <v>4</v>
       </c>
       <c r="L185">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="M185">
-        <v>12</v>
+        <v>1.85</v>
       </c>
       <c r="N185">
-        <v>1.142</v>
+        <v>3.1</v>
       </c>
       <c r="O185">
-        <v>8.5</v>
+        <v>3.2</v>
       </c>
       <c r="P185">
-        <v>15</v>
+        <v>2.3</v>
       </c>
       <c r="Q185">
-        <v>-2.25</v>
+        <v>0.25</v>
       </c>
       <c r="R185">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S185">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T185">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="U185">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V185">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W185">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X185">
         <v>-1</v>
       </c>
       <c r="Y185">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z185">
         <v>-1</v>
       </c>
       <c r="AA185">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="AB185">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC185">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="186" spans="1:29">
@@ -16992,7 +16992,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>6810162</v>
+        <v>6810164</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17004,76 +17004,76 @@
         <v>45322.70833333334</v>
       </c>
       <c r="F186" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G186" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I186">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J186" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K186">
-        <v>4</v>
+        <v>1.2</v>
       </c>
       <c r="L186">
-        <v>3.6</v>
+        <v>7</v>
       </c>
       <c r="M186">
-        <v>1.85</v>
+        <v>12</v>
       </c>
       <c r="N186">
-        <v>3.1</v>
+        <v>1.142</v>
       </c>
       <c r="O186">
-        <v>3.2</v>
+        <v>8.5</v>
       </c>
       <c r="P186">
-        <v>2.3</v>
+        <v>15</v>
       </c>
       <c r="Q186">
-        <v>0.25</v>
+        <v>-2.25</v>
       </c>
       <c r="R186">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S186">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T186">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="U186">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V186">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W186">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X186">
         <v>-1</v>
       </c>
       <c r="Y186">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z186">
         <v>-1</v>
       </c>
       <c r="AA186">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AB186">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC186">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -20836,6 +20836,15 @@
       <c r="G229" t="s">
         <v>43</v>
       </c>
+      <c r="H229">
+        <v>3</v>
+      </c>
+      <c r="I229">
+        <v>1</v>
+      </c>
+      <c r="J229" t="s">
+        <v>45</v>
+      </c>
       <c r="K229">
         <v>1.833</v>
       </c>
@@ -20846,46 +20855,52 @@
         <v>4</v>
       </c>
       <c r="N229">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="O229">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P229">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="Q229">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R229">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S229">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T229">
         <v>2.5</v>
       </c>
       <c r="U229">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V229">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W229">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="X229">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y229">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z229">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA229">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB229">
+        <v>0.925</v>
+      </c>
+      <c r="AC229">
+        <v>-1</v>
       </c>
     </row>
     <row r="230" spans="1:29">
@@ -20920,31 +20935,31 @@
         <v>1.533</v>
       </c>
       <c r="N230">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="O230">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P230">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="Q230">
         <v>1</v>
       </c>
       <c r="R230">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S230">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T230">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U230">
+        <v>1.825</v>
+      </c>
+      <c r="V230">
         <v>2.025</v>
-      </c>
-      <c r="V230">
-        <v>1.825</v>
       </c>
       <c r="W230">
         <v>0</v>
@@ -20994,31 +21009,31 @@
         <v>1.95</v>
       </c>
       <c r="N231">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="O231">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P231">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="Q231">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R231">
+        <v>2.025</v>
+      </c>
+      <c r="S231">
         <v>1.825</v>
-      </c>
-      <c r="S231">
-        <v>2.025</v>
       </c>
       <c r="T231">
         <v>2.5</v>
       </c>
       <c r="U231">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V231">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W231">
         <v>0</v>
@@ -21068,31 +21083,31 @@
         <v>1.6</v>
       </c>
       <c r="N232">
-        <v>5.75</v>
+        <v>5.25</v>
       </c>
       <c r="O232">
         <v>4.2</v>
       </c>
       <c r="P232">
-        <v>1.533</v>
+        <v>1.571</v>
       </c>
       <c r="Q232">
         <v>1</v>
       </c>
       <c r="R232">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S232">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T232">
         <v>2.75</v>
       </c>
       <c r="U232">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V232">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W232">
         <v>0</v>
@@ -21151,22 +21166,22 @@
         <v>5.25</v>
       </c>
       <c r="Q233">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R233">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S233">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T233">
         <v>2.75</v>
       </c>
       <c r="U233">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V233">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W233">
         <v>0</v>
@@ -21290,22 +21305,22 @@
         <v>5</v>
       </c>
       <c r="N235">
-        <v>1.615</v>
+        <v>1.55</v>
       </c>
       <c r="O235">
         <v>4.2</v>
       </c>
       <c r="P235">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="Q235">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R235">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S235">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T235">
         <v>2.75</v>
@@ -21364,22 +21379,22 @@
         <v>2</v>
       </c>
       <c r="N236">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="O236">
         <v>3.3</v>
       </c>
       <c r="P236">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="Q236">
         <v>0.25</v>
       </c>
       <c r="R236">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S236">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T236">
         <v>2.5</v>

--- a/Belgium First Division A/Belgium First Division A.xlsx
+++ b/Belgium First Division A/Belgium First Division A.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1231" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -519,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC236"/>
+  <dimension ref="A1:AC243"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2752,7 +2752,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6810007</v>
+        <v>7030334</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2764,55 +2764,55 @@
         <v>45151.45833333334</v>
       </c>
       <c r="F26" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G26" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H26">
         <v>0</v>
       </c>
       <c r="I26">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J26" t="s">
         <v>47</v>
       </c>
       <c r="K26">
-        <v>4.75</v>
+        <v>2.75</v>
       </c>
       <c r="L26">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M26">
-        <v>1.571</v>
+        <v>2.25</v>
       </c>
       <c r="N26">
-        <v>7</v>
+        <v>2.4</v>
       </c>
       <c r="O26">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P26">
-        <v>1.333</v>
+        <v>2.55</v>
       </c>
       <c r="Q26">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="R26">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S26">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T26">
         <v>3</v>
       </c>
       <c r="U26">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V26">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W26">
         <v>-1</v>
@@ -2821,19 +2821,19 @@
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>0.333</v>
+        <v>1.55</v>
       </c>
       <c r="Z26">
         <v>-1</v>
       </c>
       <c r="AA26">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB26">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC26">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2841,7 +2841,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>7030334</v>
+        <v>6810007</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2853,55 +2853,55 @@
         <v>45151.45833333334</v>
       </c>
       <c r="F27" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G27" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H27">
         <v>0</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J27" t="s">
         <v>47</v>
       </c>
       <c r="K27">
-        <v>2.75</v>
+        <v>4.75</v>
       </c>
       <c r="L27">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M27">
-        <v>2.25</v>
+        <v>1.571</v>
       </c>
       <c r="N27">
-        <v>2.4</v>
+        <v>7</v>
       </c>
       <c r="O27">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P27">
-        <v>2.55</v>
+        <v>1.333</v>
       </c>
       <c r="Q27">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="R27">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S27">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T27">
         <v>3</v>
       </c>
       <c r="U27">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V27">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W27">
         <v>-1</v>
@@ -2910,19 +2910,19 @@
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>1.55</v>
+        <v>0.333</v>
       </c>
       <c r="Z27">
         <v>-1</v>
       </c>
       <c r="AA27">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB27">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC27">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -3464,7 +3464,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6810012</v>
+        <v>6810015</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3476,61 +3476,61 @@
         <v>45158.45833333334</v>
       </c>
       <c r="F34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G34" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J34" t="s">
         <v>46</v>
       </c>
       <c r="K34">
+        <v>1.45</v>
+      </c>
+      <c r="L34">
+        <v>4.5</v>
+      </c>
+      <c r="M34">
+        <v>7</v>
+      </c>
+      <c r="N34">
         <v>1.533</v>
       </c>
-      <c r="L34">
+      <c r="O34">
         <v>4.2</v>
       </c>
-      <c r="M34">
-        <v>5.5</v>
-      </c>
-      <c r="N34">
-        <v>1.6</v>
-      </c>
-      <c r="O34">
-        <v>4</v>
-      </c>
       <c r="P34">
-        <v>5.25</v>
+        <v>6</v>
       </c>
       <c r="Q34">
         <v>-1</v>
       </c>
       <c r="R34">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S34">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T34">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U34">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V34">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W34">
         <v>-1</v>
       </c>
       <c r="X34">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Y34">
         <v>-1</v>
@@ -3539,13 +3539,13 @@
         <v>-1</v>
       </c>
       <c r="AA34">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AB34">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC34">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3553,7 +3553,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6810015</v>
+        <v>6810012</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3565,61 +3565,61 @@
         <v>45158.45833333334</v>
       </c>
       <c r="F35" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G35" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J35" t="s">
         <v>46</v>
       </c>
       <c r="K35">
-        <v>1.45</v>
+        <v>1.533</v>
       </c>
       <c r="L35">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="M35">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="N35">
-        <v>1.533</v>
+        <v>1.6</v>
       </c>
       <c r="O35">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P35">
-        <v>6</v>
+        <v>5.25</v>
       </c>
       <c r="Q35">
         <v>-1</v>
       </c>
       <c r="R35">
+        <v>1.975</v>
+      </c>
+      <c r="S35">
+        <v>1.875</v>
+      </c>
+      <c r="T35">
+        <v>3</v>
+      </c>
+      <c r="U35">
         <v>1.9</v>
       </c>
-      <c r="S35">
+      <c r="V35">
         <v>1.95</v>
       </c>
-      <c r="T35">
-        <v>2.5</v>
-      </c>
-      <c r="U35">
-        <v>1.8</v>
-      </c>
-      <c r="V35">
-        <v>2.05</v>
-      </c>
       <c r="W35">
         <v>-1</v>
       </c>
       <c r="X35">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Y35">
         <v>-1</v>
@@ -3628,13 +3628,13 @@
         <v>-1</v>
       </c>
       <c r="AA35">
+        <v>0.875</v>
+      </c>
+      <c r="AB35">
+        <v>-1</v>
+      </c>
+      <c r="AC35">
         <v>0.95</v>
-      </c>
-      <c r="AB35">
-        <v>0.8</v>
-      </c>
-      <c r="AC35">
-        <v>-1</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -16013,7 +16013,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>6810159</v>
+        <v>6810158</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16025,73 +16025,73 @@
         <v>45318.69791666666</v>
       </c>
       <c r="F175" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G175" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H175">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I175">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J175" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K175">
-        <v>5.5</v>
+        <v>1.363</v>
       </c>
       <c r="L175">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="M175">
-        <v>1.5</v>
+        <v>6.5</v>
       </c>
       <c r="N175">
-        <v>6</v>
+        <v>1.444</v>
       </c>
       <c r="O175">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P175">
-        <v>1.45</v>
+        <v>5.75</v>
       </c>
       <c r="Q175">
-        <v>1.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R175">
+        <v>2</v>
+      </c>
+      <c r="S175">
+        <v>1.85</v>
+      </c>
+      <c r="T175">
+        <v>3</v>
+      </c>
+      <c r="U175">
+        <v>2.025</v>
+      </c>
+      <c r="V175">
         <v>1.825</v>
       </c>
-      <c r="S175">
-        <v>2.025</v>
-      </c>
-      <c r="T175">
-        <v>2.75</v>
-      </c>
-      <c r="U175">
-        <v>1.95</v>
-      </c>
-      <c r="V175">
-        <v>1.9</v>
-      </c>
       <c r="W175">
         <v>-1</v>
       </c>
       <c r="X175">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y175">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z175">
         <v>-1</v>
       </c>
       <c r="AA175">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB175">
         <v>1.025</v>
-      </c>
-      <c r="AB175">
-        <v>0.95</v>
       </c>
       <c r="AC175">
         <v>-1</v>
@@ -16102,7 +16102,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6810158</v>
+        <v>6810159</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16114,73 +16114,73 @@
         <v>45318.69791666666</v>
       </c>
       <c r="F176" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G176" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I176">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J176" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K176">
-        <v>1.363</v>
+        <v>5.5</v>
       </c>
       <c r="L176">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="M176">
-        <v>6.5</v>
+        <v>1.5</v>
       </c>
       <c r="N176">
-        <v>1.444</v>
+        <v>6</v>
       </c>
       <c r="O176">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P176">
-        <v>5.75</v>
+        <v>1.45</v>
       </c>
       <c r="Q176">
-        <v>-1.25</v>
+        <v>1.25</v>
       </c>
       <c r="R176">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S176">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T176">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U176">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V176">
-        <v>1.